--- a/misc/epiparms.xlsx
+++ b/misc/epiparms.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Software\spatialEpisim\misc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DD681EE-BC26-4293-90CE-1474B149D4C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14BB5593-DADE-499F-BC71-B979D23E4980}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25080" yWindow="1155" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="epiparms" sheetId="1" r:id="rId1"/>
-    <sheet name="Restrictions" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="23">
   <si>
     <t>ISONumeric</t>
   </si>
@@ -40,19 +39,19 @@
     <t>Model</t>
   </si>
   <si>
-    <t>𝞪</t>
+    <t>alpha</t>
   </si>
   <si>
-    <t>𝞫</t>
+    <t>beta</t>
   </si>
   <si>
-    <t>𝞬</t>
+    <t>gamma</t>
   </si>
   <si>
-    <t>𝞼</t>
+    <t>sigma</t>
   </si>
   <si>
-    <t>𝞭</t>
+    <t>delta</t>
   </si>
   <si>
     <t>Lambda</t>
@@ -102,24 +101,6 @@
   <si>
     <t>Vaccinations</t>
   </si>
-  <si>
-    <t>COD</t>
-  </si>
-  <si>
-    <t>WHO Sit. Reports</t>
-  </si>
-  <si>
-    <t>Ebola</t>
-  </si>
-  <si>
-    <t>Aggregation Factor</t>
-  </si>
-  <si>
-    <t>Radius</t>
-  </si>
-  <si>
-    <t>Restrictions</t>
-  </si>
 </sst>
 </file>
 
@@ -144,6 +125,7 @@
       <family val="2"/>
     </font>
     <font>
+      <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -197,7 +179,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -247,22 +229,6 @@
     <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -484,23 +450,24 @@
   <dimension ref="A1:Y992"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.140625" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" customWidth="1"/>
     <col min="2" max="2" width="9.7109375" customWidth="1"/>
     <col min="3" max="3" width="8.140625" customWidth="1"/>
     <col min="4" max="4" width="9.42578125" customWidth="1"/>
-    <col min="5" max="7" width="8.140625" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" customWidth="1"/>
+    <col min="6" max="7" width="8.140625" customWidth="1"/>
     <col min="8" max="8" width="9.85546875" customWidth="1"/>
     <col min="9" max="9" width="13.42578125" customWidth="1"/>
     <col min="10" max="10" width="14.7109375" customWidth="1"/>
-    <col min="11" max="11" width="16.28515625" style="22" customWidth="1"/>
-    <col min="12" max="12" width="19.28515625" customWidth="1"/>
+    <col min="11" max="11" width="16.28515625" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" customWidth="1"/>
     <col min="13" max="13" width="11.7109375" customWidth="1"/>
-    <col min="14" max="14" width="18.140625" customWidth="1"/>
+    <col min="14" max="14" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -534,7 +501,7 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="19" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
@@ -558,7 +525,7 @@
       <c r="X1" s="6"/>
       <c r="Y1" s="6"/>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>14</v>
       </c>
@@ -589,8 +556,8 @@
       <c r="J2" s="12">
         <v>44195</v>
       </c>
-      <c r="K2" s="20">
-        <f t="shared" ref="K2:K6" si="0">J2-I2</f>
+      <c r="K2" s="7">
+        <f t="shared" ref="K2:K5" si="0">J2-I2</f>
         <v>120</v>
       </c>
       <c r="L2" s="7" t="s">
@@ -614,7 +581,7 @@
       <c r="X2" s="13"/>
       <c r="Y2" s="13"/>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>19</v>
       </c>
@@ -645,7 +612,7 @@
       <c r="J3" s="12">
         <v>44195</v>
       </c>
-      <c r="K3" s="20">
+      <c r="K3" s="7">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
@@ -670,7 +637,7 @@
       <c r="X3" s="13"/>
       <c r="Y3" s="13"/>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>14</v>
       </c>
@@ -701,7 +668,7 @@
       <c r="J4" s="12">
         <v>44560</v>
       </c>
-      <c r="K4" s="20">
+      <c r="K4" s="7">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
@@ -726,7 +693,7 @@
       <c r="X4" s="13"/>
       <c r="Y4" s="13"/>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>19</v>
       </c>
@@ -757,7 +724,7 @@
       <c r="J5" s="12">
         <v>44560</v>
       </c>
-      <c r="K5" s="20">
+      <c r="K5" s="7">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
@@ -782,63 +749,7 @@
       <c r="X5" s="13"/>
       <c r="Y5" s="13"/>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A6" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="14">
-        <v>0.21</v>
-      </c>
-      <c r="D6" s="9">
-        <v>5.4999999999999997E-3</v>
-      </c>
-      <c r="E6" s="8">
-        <v>5.4999999999999997E-3</v>
-      </c>
-      <c r="F6" s="8">
-        <v>0.01</v>
-      </c>
-      <c r="G6" s="8">
-        <v>2.1000000000000001E-2</v>
-      </c>
-      <c r="H6" s="10">
-        <v>20</v>
-      </c>
-      <c r="I6" s="11">
-        <v>43313</v>
-      </c>
-      <c r="J6" s="12">
-        <v>43753</v>
-      </c>
-      <c r="K6" s="20">
-        <f t="shared" si="0"/>
-        <v>440</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="M6" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="N6" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="O6" s="13"/>
-      <c r="P6" s="13"/>
-      <c r="Q6" s="13"/>
-      <c r="R6" s="13"/>
-      <c r="S6" s="13"/>
-      <c r="T6" s="13"/>
-      <c r="U6" s="13"/>
-      <c r="V6" s="13"/>
-      <c r="W6" s="13"/>
-      <c r="X6" s="13"/>
-      <c r="Y6" s="13"/>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="13"/>
       <c r="B9" s="13"/>
       <c r="C9" s="13"/>
@@ -849,7 +760,7 @@
       <c r="H9" s="13"/>
       <c r="I9" s="13"/>
       <c r="J9" s="13"/>
-      <c r="K9" s="21"/>
+      <c r="K9" s="13"/>
       <c r="L9" s="13"/>
       <c r="M9" s="13"/>
       <c r="N9" s="13"/>
@@ -865,7 +776,7 @@
       <c r="X9" s="13"/>
       <c r="Y9" s="13"/>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="13"/>
       <c r="B10" s="13"/>
       <c r="C10" s="13"/>
@@ -876,7 +787,7 @@
       <c r="H10" s="13"/>
       <c r="I10" s="13"/>
       <c r="J10" s="13"/>
-      <c r="K10" s="21"/>
+      <c r="K10" s="13"/>
       <c r="L10" s="13"/>
       <c r="M10" s="13"/>
       <c r="N10" s="13"/>
@@ -892,7 +803,7 @@
       <c r="X10" s="13"/>
       <c r="Y10" s="13"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="13"/>
       <c r="B11" s="13"/>
       <c r="C11" s="13"/>
@@ -903,7 +814,7 @@
       <c r="H11" s="13"/>
       <c r="I11" s="13"/>
       <c r="J11" s="13"/>
-      <c r="K11" s="21"/>
+      <c r="K11" s="13"/>
       <c r="L11" s="13"/>
       <c r="M11" s="13"/>
       <c r="N11" s="13"/>
@@ -919,7 +830,7 @@
       <c r="X11" s="13"/>
       <c r="Y11" s="13"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="13"/>
       <c r="B12" s="13"/>
       <c r="C12" s="13"/>
@@ -930,7 +841,7 @@
       <c r="H12" s="13"/>
       <c r="I12" s="13"/>
       <c r="J12" s="13"/>
-      <c r="K12" s="21"/>
+      <c r="K12" s="13"/>
       <c r="L12" s="13"/>
       <c r="M12" s="13"/>
       <c r="N12" s="13"/>
@@ -946,7 +857,7 @@
       <c r="X12" s="13"/>
       <c r="Y12" s="13"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="13"/>
       <c r="B13" s="13"/>
       <c r="C13" s="13"/>
@@ -957,7 +868,7 @@
       <c r="H13" s="13"/>
       <c r="I13" s="13"/>
       <c r="J13" s="13"/>
-      <c r="K13" s="21"/>
+      <c r="K13" s="13"/>
       <c r="L13" s="13"/>
       <c r="M13" s="13"/>
       <c r="N13" s="13"/>
@@ -973,7 +884,7 @@
       <c r="X13" s="13"/>
       <c r="Y13" s="13"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A14" s="13"/>
       <c r="B14" s="13"/>
       <c r="C14" s="13"/>
@@ -984,7 +895,7 @@
       <c r="H14" s="13"/>
       <c r="I14" s="13"/>
       <c r="J14" s="13"/>
-      <c r="K14" s="21"/>
+      <c r="K14" s="13"/>
       <c r="L14" s="13"/>
       <c r="M14" s="13"/>
       <c r="N14" s="13"/>
@@ -1000,7 +911,7 @@
       <c r="X14" s="13"/>
       <c r="Y14" s="13"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="13"/>
       <c r="B15" s="13"/>
       <c r="C15" s="13"/>
@@ -1011,7 +922,7 @@
       <c r="H15" s="13"/>
       <c r="I15" s="13"/>
       <c r="J15" s="13"/>
-      <c r="K15" s="21"/>
+      <c r="K15" s="13"/>
       <c r="L15" s="13"/>
       <c r="M15" s="13"/>
       <c r="N15" s="13"/>
@@ -1027,7 +938,7 @@
       <c r="X15" s="13"/>
       <c r="Y15" s="13"/>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" s="13"/>
       <c r="B16" s="13"/>
       <c r="C16" s="13"/>
@@ -1038,7 +949,7 @@
       <c r="H16" s="13"/>
       <c r="I16" s="13"/>
       <c r="J16" s="13"/>
-      <c r="K16" s="21"/>
+      <c r="K16" s="13"/>
       <c r="L16" s="13"/>
       <c r="M16" s="13"/>
       <c r="N16" s="13"/>
@@ -1054,7 +965,7 @@
       <c r="X16" s="13"/>
       <c r="Y16" s="13"/>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="13"/>
       <c r="B17" s="13"/>
       <c r="C17" s="13"/>
@@ -1065,7 +976,7 @@
       <c r="H17" s="13"/>
       <c r="I17" s="13"/>
       <c r="J17" s="13"/>
-      <c r="K17" s="21"/>
+      <c r="K17" s="13"/>
       <c r="L17" s="13"/>
       <c r="M17" s="13"/>
       <c r="N17" s="13"/>
@@ -1081,7 +992,7 @@
       <c r="X17" s="13"/>
       <c r="Y17" s="13"/>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A18" s="13"/>
       <c r="B18" s="13"/>
       <c r="C18" s="13"/>
@@ -1092,7 +1003,7 @@
       <c r="H18" s="13"/>
       <c r="I18" s="13"/>
       <c r="J18" s="13"/>
-      <c r="K18" s="21"/>
+      <c r="K18" s="13"/>
       <c r="L18" s="13"/>
       <c r="M18" s="13"/>
       <c r="N18" s="13"/>
@@ -1108,7 +1019,7 @@
       <c r="X18" s="13"/>
       <c r="Y18" s="13"/>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A19" s="13"/>
       <c r="B19" s="13"/>
       <c r="C19" s="13"/>
@@ -1119,7 +1030,7 @@
       <c r="H19" s="13"/>
       <c r="I19" s="13"/>
       <c r="J19" s="13"/>
-      <c r="K19" s="21"/>
+      <c r="K19" s="13"/>
       <c r="L19" s="13"/>
       <c r="M19" s="13"/>
       <c r="N19" s="13"/>
@@ -1135,7 +1046,7 @@
       <c r="X19" s="13"/>
       <c r="Y19" s="13"/>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" s="13"/>
       <c r="B20" s="13"/>
       <c r="C20" s="13"/>
@@ -1146,7 +1057,7 @@
       <c r="H20" s="13"/>
       <c r="I20" s="13"/>
       <c r="J20" s="13"/>
-      <c r="K20" s="21"/>
+      <c r="K20" s="13"/>
       <c r="L20" s="13"/>
       <c r="M20" s="13"/>
       <c r="N20" s="13"/>
@@ -1162,7 +1073,7 @@
       <c r="X20" s="13"/>
       <c r="Y20" s="13"/>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" s="13"/>
       <c r="B21" s="13"/>
       <c r="C21" s="13"/>
@@ -1173,7 +1084,7 @@
       <c r="H21" s="13"/>
       <c r="I21" s="13"/>
       <c r="J21" s="13"/>
-      <c r="K21" s="21"/>
+      <c r="K21" s="13"/>
       <c r="L21" s="13"/>
       <c r="M21" s="13"/>
       <c r="N21" s="13"/>
@@ -1189,7 +1100,7 @@
       <c r="X21" s="13"/>
       <c r="Y21" s="13"/>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="13"/>
       <c r="B22" s="13"/>
       <c r="C22" s="13"/>
@@ -1200,7 +1111,7 @@
       <c r="H22" s="13"/>
       <c r="I22" s="13"/>
       <c r="J22" s="13"/>
-      <c r="K22" s="21"/>
+      <c r="K22" s="13"/>
       <c r="L22" s="13"/>
       <c r="M22" s="13"/>
       <c r="N22" s="13"/>
@@ -1216,7 +1127,7 @@
       <c r="X22" s="13"/>
       <c r="Y22" s="13"/>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="13"/>
       <c r="B23" s="13"/>
       <c r="C23" s="13"/>
@@ -1227,7 +1138,7 @@
       <c r="H23" s="13"/>
       <c r="I23" s="13"/>
       <c r="J23" s="13"/>
-      <c r="K23" s="21"/>
+      <c r="K23" s="13"/>
       <c r="L23" s="13"/>
       <c r="M23" s="13"/>
       <c r="N23" s="13"/>
@@ -1243,7 +1154,7 @@
       <c r="X23" s="13"/>
       <c r="Y23" s="13"/>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" s="13"/>
       <c r="B24" s="13"/>
       <c r="C24" s="13"/>
@@ -1254,7 +1165,7 @@
       <c r="H24" s="13"/>
       <c r="I24" s="13"/>
       <c r="J24" s="13"/>
-      <c r="K24" s="21"/>
+      <c r="K24" s="13"/>
       <c r="L24" s="13"/>
       <c r="M24" s="13"/>
       <c r="N24" s="13"/>
@@ -1270,7 +1181,7 @@
       <c r="X24" s="13"/>
       <c r="Y24" s="13"/>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A25" s="13"/>
       <c r="B25" s="13"/>
       <c r="C25" s="13"/>
@@ -1281,7 +1192,7 @@
       <c r="H25" s="13"/>
       <c r="I25" s="13"/>
       <c r="J25" s="13"/>
-      <c r="K25" s="21"/>
+      <c r="K25" s="13"/>
       <c r="L25" s="13"/>
       <c r="M25" s="13"/>
       <c r="N25" s="13"/>
@@ -1297,7 +1208,7 @@
       <c r="X25" s="13"/>
       <c r="Y25" s="13"/>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A26" s="13"/>
       <c r="B26" s="13"/>
       <c r="C26" s="13"/>
@@ -1308,7 +1219,7 @@
       <c r="H26" s="13"/>
       <c r="I26" s="13"/>
       <c r="J26" s="13"/>
-      <c r="K26" s="21"/>
+      <c r="K26" s="13"/>
       <c r="L26" s="13"/>
       <c r="M26" s="13"/>
       <c r="N26" s="13"/>
@@ -1324,7 +1235,7 @@
       <c r="X26" s="13"/>
       <c r="Y26" s="13"/>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="13"/>
       <c r="B27" s="13"/>
       <c r="C27" s="13"/>
@@ -1335,7 +1246,7 @@
       <c r="H27" s="13"/>
       <c r="I27" s="13"/>
       <c r="J27" s="13"/>
-      <c r="K27" s="21"/>
+      <c r="K27" s="13"/>
       <c r="L27" s="13"/>
       <c r="M27" s="13"/>
       <c r="N27" s="13"/>
@@ -1351,7 +1262,7 @@
       <c r="X27" s="13"/>
       <c r="Y27" s="13"/>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" s="13"/>
       <c r="B28" s="13"/>
       <c r="C28" s="13"/>
@@ -1362,7 +1273,7 @@
       <c r="H28" s="13"/>
       <c r="I28" s="13"/>
       <c r="J28" s="13"/>
-      <c r="K28" s="21"/>
+      <c r="K28" s="13"/>
       <c r="L28" s="13"/>
       <c r="M28" s="13"/>
       <c r="N28" s="13"/>
@@ -1378,7 +1289,7 @@
       <c r="X28" s="13"/>
       <c r="Y28" s="13"/>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A29" s="13"/>
       <c r="B29" s="13"/>
       <c r="C29" s="13"/>
@@ -1389,7 +1300,7 @@
       <c r="H29" s="13"/>
       <c r="I29" s="13"/>
       <c r="J29" s="13"/>
-      <c r="K29" s="21"/>
+      <c r="K29" s="13"/>
       <c r="L29" s="13"/>
       <c r="M29" s="13"/>
       <c r="N29" s="13"/>
@@ -1405,7 +1316,7 @@
       <c r="X29" s="13"/>
       <c r="Y29" s="13"/>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A30" s="13"/>
       <c r="B30" s="13"/>
       <c r="C30" s="13"/>
@@ -1416,7 +1327,7 @@
       <c r="H30" s="13"/>
       <c r="I30" s="13"/>
       <c r="J30" s="13"/>
-      <c r="K30" s="21"/>
+      <c r="K30" s="13"/>
       <c r="L30" s="13"/>
       <c r="M30" s="13"/>
       <c r="N30" s="13"/>
@@ -1432,7 +1343,7 @@
       <c r="X30" s="13"/>
       <c r="Y30" s="13"/>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A31" s="13"/>
       <c r="B31" s="13"/>
       <c r="C31" s="13"/>
@@ -1443,7 +1354,7 @@
       <c r="H31" s="13"/>
       <c r="I31" s="13"/>
       <c r="J31" s="13"/>
-      <c r="K31" s="21"/>
+      <c r="K31" s="13"/>
       <c r="L31" s="13"/>
       <c r="M31" s="13"/>
       <c r="N31" s="13"/>
@@ -1459,7 +1370,7 @@
       <c r="X31" s="13"/>
       <c r="Y31" s="13"/>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A32" s="13"/>
       <c r="B32" s="13"/>
       <c r="C32" s="13"/>
@@ -1470,7 +1381,7 @@
       <c r="H32" s="13"/>
       <c r="I32" s="13"/>
       <c r="J32" s="13"/>
-      <c r="K32" s="21"/>
+      <c r="K32" s="13"/>
       <c r="L32" s="13"/>
       <c r="M32" s="13"/>
       <c r="N32" s="13"/>
@@ -1486,7 +1397,7 @@
       <c r="X32" s="13"/>
       <c r="Y32" s="13"/>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A33" s="13"/>
       <c r="B33" s="13"/>
       <c r="C33" s="13"/>
@@ -1497,7 +1408,7 @@
       <c r="H33" s="13"/>
       <c r="I33" s="13"/>
       <c r="J33" s="13"/>
-      <c r="K33" s="21"/>
+      <c r="K33" s="13"/>
       <c r="L33" s="13"/>
       <c r="M33" s="13"/>
       <c r="N33" s="13"/>
@@ -1513,7 +1424,7 @@
       <c r="X33" s="13"/>
       <c r="Y33" s="13"/>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A34" s="13"/>
       <c r="B34" s="13"/>
       <c r="C34" s="13"/>
@@ -1524,7 +1435,7 @@
       <c r="H34" s="13"/>
       <c r="I34" s="13"/>
       <c r="J34" s="13"/>
-      <c r="K34" s="21"/>
+      <c r="K34" s="13"/>
       <c r="L34" s="13"/>
       <c r="M34" s="13"/>
       <c r="N34" s="13"/>
@@ -1540,7 +1451,7 @@
       <c r="X34" s="13"/>
       <c r="Y34" s="13"/>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A35" s="13"/>
       <c r="B35" s="13"/>
       <c r="C35" s="13"/>
@@ -1551,7 +1462,7 @@
       <c r="H35" s="13"/>
       <c r="I35" s="13"/>
       <c r="J35" s="13"/>
-      <c r="K35" s="21"/>
+      <c r="K35" s="13"/>
       <c r="L35" s="13"/>
       <c r="M35" s="13"/>
       <c r="N35" s="13"/>
@@ -1567,7 +1478,7 @@
       <c r="X35" s="13"/>
       <c r="Y35" s="13"/>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A36" s="13"/>
       <c r="B36" s="13"/>
       <c r="C36" s="13"/>
@@ -1578,7 +1489,7 @@
       <c r="H36" s="13"/>
       <c r="I36" s="13"/>
       <c r="J36" s="13"/>
-      <c r="K36" s="21"/>
+      <c r="K36" s="13"/>
       <c r="L36" s="13"/>
       <c r="M36" s="13"/>
       <c r="N36" s="13"/>
@@ -1605,7 +1516,7 @@
       <c r="H37" s="13"/>
       <c r="I37" s="13"/>
       <c r="J37" s="13"/>
-      <c r="K37" s="21"/>
+      <c r="K37" s="13"/>
       <c r="L37" s="13"/>
       <c r="M37" s="13"/>
       <c r="N37" s="13"/>
@@ -1632,7 +1543,7 @@
       <c r="H38" s="13"/>
       <c r="I38" s="13"/>
       <c r="J38" s="13"/>
-      <c r="K38" s="21"/>
+      <c r="K38" s="13"/>
       <c r="L38" s="13"/>
       <c r="M38" s="13"/>
       <c r="N38" s="13"/>
@@ -1659,7 +1570,7 @@
       <c r="H39" s="13"/>
       <c r="I39" s="13"/>
       <c r="J39" s="13"/>
-      <c r="K39" s="21"/>
+      <c r="K39" s="13"/>
       <c r="L39" s="13"/>
       <c r="M39" s="13"/>
       <c r="N39" s="13"/>
@@ -1686,7 +1597,7 @@
       <c r="H40" s="13"/>
       <c r="I40" s="13"/>
       <c r="J40" s="13"/>
-      <c r="K40" s="21"/>
+      <c r="K40" s="13"/>
       <c r="L40" s="13"/>
       <c r="M40" s="13"/>
       <c r="N40" s="13"/>
@@ -1713,7 +1624,7 @@
       <c r="H41" s="13"/>
       <c r="I41" s="13"/>
       <c r="J41" s="13"/>
-      <c r="K41" s="21"/>
+      <c r="K41" s="13"/>
       <c r="L41" s="13"/>
       <c r="M41" s="13"/>
       <c r="N41" s="13"/>
@@ -1740,7 +1651,7 @@
       <c r="H42" s="13"/>
       <c r="I42" s="13"/>
       <c r="J42" s="13"/>
-      <c r="K42" s="21"/>
+      <c r="K42" s="13"/>
       <c r="L42" s="13"/>
       <c r="M42" s="13"/>
       <c r="N42" s="13"/>
@@ -1767,7 +1678,7 @@
       <c r="H43" s="13"/>
       <c r="I43" s="13"/>
       <c r="J43" s="13"/>
-      <c r="K43" s="21"/>
+      <c r="K43" s="13"/>
       <c r="L43" s="13"/>
       <c r="M43" s="13"/>
       <c r="N43" s="13"/>
@@ -1794,7 +1705,7 @@
       <c r="H44" s="13"/>
       <c r="I44" s="13"/>
       <c r="J44" s="13"/>
-      <c r="K44" s="21"/>
+      <c r="K44" s="13"/>
       <c r="L44" s="13"/>
       <c r="M44" s="13"/>
       <c r="N44" s="13"/>
@@ -1821,7 +1732,7 @@
       <c r="H45" s="13"/>
       <c r="I45" s="13"/>
       <c r="J45" s="13"/>
-      <c r="K45" s="21"/>
+      <c r="K45" s="13"/>
       <c r="L45" s="13"/>
       <c r="M45" s="13"/>
       <c r="N45" s="13"/>
@@ -1848,7 +1759,7 @@
       <c r="H46" s="13"/>
       <c r="I46" s="13"/>
       <c r="J46" s="13"/>
-      <c r="K46" s="21"/>
+      <c r="K46" s="13"/>
       <c r="L46" s="13"/>
       <c r="M46" s="13"/>
       <c r="N46" s="13"/>
@@ -1875,7 +1786,7 @@
       <c r="H47" s="13"/>
       <c r="I47" s="13"/>
       <c r="J47" s="13"/>
-      <c r="K47" s="21"/>
+      <c r="K47" s="13"/>
       <c r="L47" s="13"/>
       <c r="M47" s="13"/>
       <c r="N47" s="13"/>
@@ -1902,7 +1813,7 @@
       <c r="H48" s="13"/>
       <c r="I48" s="13"/>
       <c r="J48" s="13"/>
-      <c r="K48" s="21"/>
+      <c r="K48" s="13"/>
       <c r="L48" s="13"/>
       <c r="M48" s="13"/>
       <c r="N48" s="13"/>
@@ -1929,7 +1840,7 @@
       <c r="H49" s="13"/>
       <c r="I49" s="13"/>
       <c r="J49" s="13"/>
-      <c r="K49" s="21"/>
+      <c r="K49" s="13"/>
       <c r="L49" s="13"/>
       <c r="M49" s="13"/>
       <c r="N49" s="13"/>
@@ -1956,7 +1867,7 @@
       <c r="H50" s="13"/>
       <c r="I50" s="13"/>
       <c r="J50" s="13"/>
-      <c r="K50" s="21"/>
+      <c r="K50" s="13"/>
       <c r="L50" s="13"/>
       <c r="M50" s="13"/>
       <c r="N50" s="13"/>
@@ -1983,7 +1894,7 @@
       <c r="H51" s="13"/>
       <c r="I51" s="13"/>
       <c r="J51" s="13"/>
-      <c r="K51" s="21"/>
+      <c r="K51" s="13"/>
       <c r="L51" s="13"/>
       <c r="M51" s="13"/>
       <c r="N51" s="13"/>
@@ -2010,7 +1921,7 @@
       <c r="H52" s="13"/>
       <c r="I52" s="13"/>
       <c r="J52" s="13"/>
-      <c r="K52" s="21"/>
+      <c r="K52" s="13"/>
       <c r="L52" s="13"/>
       <c r="M52" s="13"/>
       <c r="N52" s="13"/>
@@ -2037,7 +1948,7 @@
       <c r="H53" s="13"/>
       <c r="I53" s="13"/>
       <c r="J53" s="13"/>
-      <c r="K53" s="21"/>
+      <c r="K53" s="13"/>
       <c r="L53" s="13"/>
       <c r="M53" s="13"/>
       <c r="N53" s="13"/>
@@ -2064,7 +1975,7 @@
       <c r="H54" s="13"/>
       <c r="I54" s="13"/>
       <c r="J54" s="13"/>
-      <c r="K54" s="21"/>
+      <c r="K54" s="13"/>
       <c r="L54" s="13"/>
       <c r="M54" s="13"/>
       <c r="N54" s="13"/>
@@ -2091,7 +2002,7 @@
       <c r="H55" s="13"/>
       <c r="I55" s="13"/>
       <c r="J55" s="13"/>
-      <c r="K55" s="21"/>
+      <c r="K55" s="13"/>
       <c r="L55" s="13"/>
       <c r="M55" s="13"/>
       <c r="N55" s="13"/>
@@ -2118,7 +2029,7 @@
       <c r="H56" s="13"/>
       <c r="I56" s="13"/>
       <c r="J56" s="13"/>
-      <c r="K56" s="21"/>
+      <c r="K56" s="13"/>
       <c r="L56" s="13"/>
       <c r="M56" s="13"/>
       <c r="N56" s="13"/>
@@ -2145,7 +2056,7 @@
       <c r="H57" s="13"/>
       <c r="I57" s="13"/>
       <c r="J57" s="13"/>
-      <c r="K57" s="21"/>
+      <c r="K57" s="13"/>
       <c r="L57" s="13"/>
       <c r="M57" s="13"/>
       <c r="N57" s="13"/>
@@ -2172,7 +2083,7 @@
       <c r="H58" s="13"/>
       <c r="I58" s="13"/>
       <c r="J58" s="13"/>
-      <c r="K58" s="21"/>
+      <c r="K58" s="13"/>
       <c r="L58" s="13"/>
       <c r="M58" s="13"/>
       <c r="N58" s="13"/>
@@ -2199,7 +2110,7 @@
       <c r="H59" s="13"/>
       <c r="I59" s="13"/>
       <c r="J59" s="13"/>
-      <c r="K59" s="21"/>
+      <c r="K59" s="13"/>
       <c r="L59" s="13"/>
       <c r="M59" s="13"/>
       <c r="N59" s="13"/>
@@ -2226,7 +2137,7 @@
       <c r="H60" s="13"/>
       <c r="I60" s="13"/>
       <c r="J60" s="13"/>
-      <c r="K60" s="21"/>
+      <c r="K60" s="13"/>
       <c r="L60" s="13"/>
       <c r="M60" s="13"/>
       <c r="N60" s="13"/>
@@ -2253,7 +2164,7 @@
       <c r="H61" s="13"/>
       <c r="I61" s="13"/>
       <c r="J61" s="13"/>
-      <c r="K61" s="21"/>
+      <c r="K61" s="13"/>
       <c r="L61" s="13"/>
       <c r="M61" s="13"/>
       <c r="N61" s="13"/>
@@ -2280,7 +2191,7 @@
       <c r="H62" s="13"/>
       <c r="I62" s="13"/>
       <c r="J62" s="13"/>
-      <c r="K62" s="21"/>
+      <c r="K62" s="13"/>
       <c r="L62" s="13"/>
       <c r="M62" s="13"/>
       <c r="N62" s="13"/>
@@ -2307,7 +2218,7 @@
       <c r="H63" s="13"/>
       <c r="I63" s="13"/>
       <c r="J63" s="13"/>
-      <c r="K63" s="21"/>
+      <c r="K63" s="13"/>
       <c r="L63" s="13"/>
       <c r="M63" s="13"/>
       <c r="N63" s="13"/>
@@ -2334,7 +2245,7 @@
       <c r="H64" s="13"/>
       <c r="I64" s="13"/>
       <c r="J64" s="13"/>
-      <c r="K64" s="21"/>
+      <c r="K64" s="13"/>
       <c r="L64" s="13"/>
       <c r="M64" s="13"/>
       <c r="N64" s="13"/>
@@ -2361,7 +2272,7 @@
       <c r="H65" s="13"/>
       <c r="I65" s="13"/>
       <c r="J65" s="13"/>
-      <c r="K65" s="21"/>
+      <c r="K65" s="13"/>
       <c r="L65" s="13"/>
       <c r="M65" s="13"/>
       <c r="N65" s="13"/>
@@ -2388,7 +2299,7 @@
       <c r="H66" s="13"/>
       <c r="I66" s="13"/>
       <c r="J66" s="13"/>
-      <c r="K66" s="21"/>
+      <c r="K66" s="13"/>
       <c r="L66" s="13"/>
       <c r="M66" s="13"/>
       <c r="N66" s="13"/>
@@ -2415,7 +2326,7 @@
       <c r="H67" s="13"/>
       <c r="I67" s="13"/>
       <c r="J67" s="13"/>
-      <c r="K67" s="21"/>
+      <c r="K67" s="13"/>
       <c r="L67" s="13"/>
       <c r="M67" s="13"/>
       <c r="N67" s="13"/>
@@ -2442,7 +2353,7 @@
       <c r="H68" s="13"/>
       <c r="I68" s="13"/>
       <c r="J68" s="13"/>
-      <c r="K68" s="21"/>
+      <c r="K68" s="13"/>
       <c r="L68" s="13"/>
       <c r="M68" s="13"/>
       <c r="N68" s="13"/>
@@ -2469,7 +2380,7 @@
       <c r="H69" s="13"/>
       <c r="I69" s="13"/>
       <c r="J69" s="13"/>
-      <c r="K69" s="21"/>
+      <c r="K69" s="13"/>
       <c r="L69" s="13"/>
       <c r="M69" s="13"/>
       <c r="N69" s="13"/>
@@ -2496,7 +2407,7 @@
       <c r="H70" s="13"/>
       <c r="I70" s="13"/>
       <c r="J70" s="13"/>
-      <c r="K70" s="21"/>
+      <c r="K70" s="13"/>
       <c r="L70" s="13"/>
       <c r="M70" s="13"/>
       <c r="N70" s="13"/>
@@ -2523,7 +2434,7 @@
       <c r="H71" s="13"/>
       <c r="I71" s="13"/>
       <c r="J71" s="13"/>
-      <c r="K71" s="21"/>
+      <c r="K71" s="13"/>
       <c r="L71" s="13"/>
       <c r="M71" s="13"/>
       <c r="N71" s="13"/>
@@ -2550,7 +2461,7 @@
       <c r="H72" s="13"/>
       <c r="I72" s="13"/>
       <c r="J72" s="13"/>
-      <c r="K72" s="21"/>
+      <c r="K72" s="13"/>
       <c r="L72" s="13"/>
       <c r="M72" s="13"/>
       <c r="N72" s="13"/>
@@ -2577,7 +2488,7 @@
       <c r="H73" s="13"/>
       <c r="I73" s="13"/>
       <c r="J73" s="13"/>
-      <c r="K73" s="21"/>
+      <c r="K73" s="13"/>
       <c r="L73" s="13"/>
       <c r="M73" s="13"/>
       <c r="N73" s="13"/>
@@ -2604,7 +2515,7 @@
       <c r="H74" s="13"/>
       <c r="I74" s="13"/>
       <c r="J74" s="13"/>
-      <c r="K74" s="21"/>
+      <c r="K74" s="13"/>
       <c r="L74" s="13"/>
       <c r="M74" s="13"/>
       <c r="N74" s="13"/>
@@ -2631,7 +2542,7 @@
       <c r="H75" s="13"/>
       <c r="I75" s="13"/>
       <c r="J75" s="13"/>
-      <c r="K75" s="21"/>
+      <c r="K75" s="13"/>
       <c r="L75" s="13"/>
       <c r="M75" s="13"/>
       <c r="N75" s="13"/>
@@ -2658,7 +2569,7 @@
       <c r="H76" s="13"/>
       <c r="I76" s="13"/>
       <c r="J76" s="13"/>
-      <c r="K76" s="21"/>
+      <c r="K76" s="13"/>
       <c r="L76" s="13"/>
       <c r="M76" s="13"/>
       <c r="N76" s="13"/>
@@ -2685,7 +2596,7 @@
       <c r="H77" s="13"/>
       <c r="I77" s="13"/>
       <c r="J77" s="13"/>
-      <c r="K77" s="21"/>
+      <c r="K77" s="13"/>
       <c r="L77" s="13"/>
       <c r="M77" s="13"/>
       <c r="N77" s="13"/>
@@ -2712,7 +2623,7 @@
       <c r="H78" s="13"/>
       <c r="I78" s="13"/>
       <c r="J78" s="13"/>
-      <c r="K78" s="21"/>
+      <c r="K78" s="13"/>
       <c r="L78" s="13"/>
       <c r="M78" s="13"/>
       <c r="N78" s="13"/>
@@ -2739,7 +2650,7 @@
       <c r="H79" s="13"/>
       <c r="I79" s="13"/>
       <c r="J79" s="13"/>
-      <c r="K79" s="21"/>
+      <c r="K79" s="13"/>
       <c r="L79" s="13"/>
       <c r="M79" s="13"/>
       <c r="N79" s="13"/>
@@ -2766,7 +2677,7 @@
       <c r="H80" s="13"/>
       <c r="I80" s="13"/>
       <c r="J80" s="13"/>
-      <c r="K80" s="21"/>
+      <c r="K80" s="13"/>
       <c r="L80" s="13"/>
       <c r="M80" s="13"/>
       <c r="N80" s="13"/>
@@ -2793,7 +2704,7 @@
       <c r="H81" s="13"/>
       <c r="I81" s="13"/>
       <c r="J81" s="13"/>
-      <c r="K81" s="21"/>
+      <c r="K81" s="13"/>
       <c r="L81" s="13"/>
       <c r="M81" s="13"/>
       <c r="N81" s="13"/>
@@ -2820,7 +2731,7 @@
       <c r="H82" s="13"/>
       <c r="I82" s="13"/>
       <c r="J82" s="13"/>
-      <c r="K82" s="21"/>
+      <c r="K82" s="13"/>
       <c r="L82" s="13"/>
       <c r="M82" s="13"/>
       <c r="N82" s="13"/>
@@ -2847,7 +2758,7 @@
       <c r="H83" s="13"/>
       <c r="I83" s="13"/>
       <c r="J83" s="13"/>
-      <c r="K83" s="21"/>
+      <c r="K83" s="13"/>
       <c r="L83" s="13"/>
       <c r="M83" s="13"/>
       <c r="N83" s="13"/>
@@ -2874,7 +2785,7 @@
       <c r="H84" s="13"/>
       <c r="I84" s="13"/>
       <c r="J84" s="13"/>
-      <c r="K84" s="21"/>
+      <c r="K84" s="13"/>
       <c r="L84" s="13"/>
       <c r="M84" s="13"/>
       <c r="N84" s="13"/>
@@ -2901,7 +2812,7 @@
       <c r="H85" s="13"/>
       <c r="I85" s="13"/>
       <c r="J85" s="13"/>
-      <c r="K85" s="21"/>
+      <c r="K85" s="13"/>
       <c r="L85" s="13"/>
       <c r="M85" s="13"/>
       <c r="N85" s="13"/>
@@ -2928,7 +2839,7 @@
       <c r="H86" s="13"/>
       <c r="I86" s="13"/>
       <c r="J86" s="13"/>
-      <c r="K86" s="21"/>
+      <c r="K86" s="13"/>
       <c r="L86" s="13"/>
       <c r="M86" s="13"/>
       <c r="N86" s="13"/>
@@ -2955,7 +2866,7 @@
       <c r="H87" s="13"/>
       <c r="I87" s="13"/>
       <c r="J87" s="13"/>
-      <c r="K87" s="21"/>
+      <c r="K87" s="13"/>
       <c r="L87" s="13"/>
       <c r="M87" s="13"/>
       <c r="N87" s="13"/>
@@ -2982,7 +2893,7 @@
       <c r="H88" s="13"/>
       <c r="I88" s="13"/>
       <c r="J88" s="13"/>
-      <c r="K88" s="21"/>
+      <c r="K88" s="13"/>
       <c r="L88" s="13"/>
       <c r="M88" s="13"/>
       <c r="N88" s="13"/>
@@ -3009,7 +2920,7 @@
       <c r="H89" s="13"/>
       <c r="I89" s="13"/>
       <c r="J89" s="13"/>
-      <c r="K89" s="21"/>
+      <c r="K89" s="13"/>
       <c r="L89" s="13"/>
       <c r="M89" s="13"/>
       <c r="N89" s="13"/>
@@ -3036,7 +2947,7 @@
       <c r="H90" s="13"/>
       <c r="I90" s="13"/>
       <c r="J90" s="13"/>
-      <c r="K90" s="21"/>
+      <c r="K90" s="13"/>
       <c r="L90" s="13"/>
       <c r="M90" s="13"/>
       <c r="N90" s="13"/>
@@ -3063,7 +2974,7 @@
       <c r="H91" s="13"/>
       <c r="I91" s="13"/>
       <c r="J91" s="13"/>
-      <c r="K91" s="21"/>
+      <c r="K91" s="13"/>
       <c r="L91" s="13"/>
       <c r="M91" s="13"/>
       <c r="N91" s="13"/>
@@ -3090,7 +3001,7 @@
       <c r="H92" s="13"/>
       <c r="I92" s="13"/>
       <c r="J92" s="13"/>
-      <c r="K92" s="21"/>
+      <c r="K92" s="13"/>
       <c r="L92" s="13"/>
       <c r="M92" s="13"/>
       <c r="N92" s="13"/>
@@ -3117,7 +3028,7 @@
       <c r="H93" s="13"/>
       <c r="I93" s="13"/>
       <c r="J93" s="13"/>
-      <c r="K93" s="21"/>
+      <c r="K93" s="13"/>
       <c r="L93" s="13"/>
       <c r="M93" s="13"/>
       <c r="N93" s="13"/>
@@ -3144,7 +3055,7 @@
       <c r="H94" s="13"/>
       <c r="I94" s="13"/>
       <c r="J94" s="13"/>
-      <c r="K94" s="21"/>
+      <c r="K94" s="13"/>
       <c r="L94" s="13"/>
       <c r="M94" s="13"/>
       <c r="N94" s="13"/>
@@ -3171,7 +3082,7 @@
       <c r="H95" s="13"/>
       <c r="I95" s="13"/>
       <c r="J95" s="13"/>
-      <c r="K95" s="21"/>
+      <c r="K95" s="13"/>
       <c r="L95" s="13"/>
       <c r="M95" s="13"/>
       <c r="N95" s="13"/>
@@ -3198,7 +3109,7 @@
       <c r="H96" s="13"/>
       <c r="I96" s="13"/>
       <c r="J96" s="13"/>
-      <c r="K96" s="21"/>
+      <c r="K96" s="13"/>
       <c r="L96" s="13"/>
       <c r="M96" s="13"/>
       <c r="N96" s="13"/>
@@ -3225,7 +3136,7 @@
       <c r="H97" s="13"/>
       <c r="I97" s="13"/>
       <c r="J97" s="13"/>
-      <c r="K97" s="21"/>
+      <c r="K97" s="13"/>
       <c r="L97" s="13"/>
       <c r="M97" s="13"/>
       <c r="N97" s="13"/>
@@ -3252,7 +3163,7 @@
       <c r="H98" s="13"/>
       <c r="I98" s="13"/>
       <c r="J98" s="13"/>
-      <c r="K98" s="21"/>
+      <c r="K98" s="13"/>
       <c r="L98" s="13"/>
       <c r="M98" s="13"/>
       <c r="N98" s="13"/>
@@ -3279,7 +3190,7 @@
       <c r="H99" s="13"/>
       <c r="I99" s="13"/>
       <c r="J99" s="13"/>
-      <c r="K99" s="21"/>
+      <c r="K99" s="13"/>
       <c r="L99" s="13"/>
       <c r="M99" s="13"/>
       <c r="N99" s="13"/>
@@ -3306,7 +3217,7 @@
       <c r="H100" s="13"/>
       <c r="I100" s="13"/>
       <c r="J100" s="13"/>
-      <c r="K100" s="21"/>
+      <c r="K100" s="13"/>
       <c r="L100" s="13"/>
       <c r="M100" s="13"/>
       <c r="N100" s="13"/>
@@ -3333,7 +3244,7 @@
       <c r="H101" s="13"/>
       <c r="I101" s="13"/>
       <c r="J101" s="13"/>
-      <c r="K101" s="21"/>
+      <c r="K101" s="13"/>
       <c r="L101" s="13"/>
       <c r="M101" s="13"/>
       <c r="N101" s="13"/>
@@ -3360,7 +3271,7 @@
       <c r="H102" s="13"/>
       <c r="I102" s="13"/>
       <c r="J102" s="13"/>
-      <c r="K102" s="21"/>
+      <c r="K102" s="13"/>
       <c r="L102" s="13"/>
       <c r="M102" s="13"/>
       <c r="N102" s="13"/>
@@ -3387,7 +3298,7 @@
       <c r="H103" s="13"/>
       <c r="I103" s="13"/>
       <c r="J103" s="13"/>
-      <c r="K103" s="21"/>
+      <c r="K103" s="13"/>
       <c r="L103" s="13"/>
       <c r="M103" s="13"/>
       <c r="N103" s="13"/>
@@ -3414,7 +3325,7 @@
       <c r="H104" s="13"/>
       <c r="I104" s="13"/>
       <c r="J104" s="13"/>
-      <c r="K104" s="21"/>
+      <c r="K104" s="13"/>
       <c r="L104" s="13"/>
       <c r="M104" s="13"/>
       <c r="N104" s="13"/>
@@ -3441,7 +3352,7 @@
       <c r="H105" s="13"/>
       <c r="I105" s="13"/>
       <c r="J105" s="13"/>
-      <c r="K105" s="21"/>
+      <c r="K105" s="13"/>
       <c r="L105" s="13"/>
       <c r="M105" s="13"/>
       <c r="N105" s="13"/>
@@ -3468,7 +3379,7 @@
       <c r="H106" s="13"/>
       <c r="I106" s="13"/>
       <c r="J106" s="13"/>
-      <c r="K106" s="21"/>
+      <c r="K106" s="13"/>
       <c r="L106" s="13"/>
       <c r="M106" s="13"/>
       <c r="N106" s="13"/>
@@ -3495,7 +3406,7 @@
       <c r="H107" s="13"/>
       <c r="I107" s="13"/>
       <c r="J107" s="13"/>
-      <c r="K107" s="21"/>
+      <c r="K107" s="13"/>
       <c r="L107" s="13"/>
       <c r="M107" s="13"/>
       <c r="N107" s="13"/>
@@ -3522,7 +3433,7 @@
       <c r="H108" s="13"/>
       <c r="I108" s="13"/>
       <c r="J108" s="13"/>
-      <c r="K108" s="21"/>
+      <c r="K108" s="13"/>
       <c r="L108" s="13"/>
       <c r="M108" s="13"/>
       <c r="N108" s="13"/>
@@ -3549,7 +3460,7 @@
       <c r="H109" s="13"/>
       <c r="I109" s="13"/>
       <c r="J109" s="13"/>
-      <c r="K109" s="21"/>
+      <c r="K109" s="13"/>
       <c r="L109" s="13"/>
       <c r="M109" s="13"/>
       <c r="N109" s="13"/>
@@ -3576,7 +3487,7 @@
       <c r="H110" s="13"/>
       <c r="I110" s="13"/>
       <c r="J110" s="13"/>
-      <c r="K110" s="21"/>
+      <c r="K110" s="13"/>
       <c r="L110" s="13"/>
       <c r="M110" s="13"/>
       <c r="N110" s="13"/>
@@ -3603,7 +3514,7 @@
       <c r="H111" s="13"/>
       <c r="I111" s="13"/>
       <c r="J111" s="13"/>
-      <c r="K111" s="21"/>
+      <c r="K111" s="13"/>
       <c r="L111" s="13"/>
       <c r="M111" s="13"/>
       <c r="N111" s="13"/>
@@ -3630,7 +3541,7 @@
       <c r="H112" s="13"/>
       <c r="I112" s="13"/>
       <c r="J112" s="13"/>
-      <c r="K112" s="21"/>
+      <c r="K112" s="13"/>
       <c r="L112" s="13"/>
       <c r="M112" s="13"/>
       <c r="N112" s="13"/>
@@ -3657,7 +3568,7 @@
       <c r="H113" s="13"/>
       <c r="I113" s="13"/>
       <c r="J113" s="13"/>
-      <c r="K113" s="21"/>
+      <c r="K113" s="13"/>
       <c r="L113" s="13"/>
       <c r="M113" s="13"/>
       <c r="N113" s="13"/>
@@ -3684,7 +3595,7 @@
       <c r="H114" s="13"/>
       <c r="I114" s="13"/>
       <c r="J114" s="13"/>
-      <c r="K114" s="21"/>
+      <c r="K114" s="13"/>
       <c r="L114" s="13"/>
       <c r="M114" s="13"/>
       <c r="N114" s="13"/>
@@ -3711,7 +3622,7 @@
       <c r="H115" s="13"/>
       <c r="I115" s="13"/>
       <c r="J115" s="13"/>
-      <c r="K115" s="21"/>
+      <c r="K115" s="13"/>
       <c r="L115" s="13"/>
       <c r="M115" s="13"/>
       <c r="N115" s="13"/>
@@ -3738,7 +3649,7 @@
       <c r="H116" s="13"/>
       <c r="I116" s="13"/>
       <c r="J116" s="13"/>
-      <c r="K116" s="21"/>
+      <c r="K116" s="13"/>
       <c r="L116" s="13"/>
       <c r="M116" s="13"/>
       <c r="N116" s="13"/>
@@ -3765,7 +3676,7 @@
       <c r="H117" s="13"/>
       <c r="I117" s="13"/>
       <c r="J117" s="13"/>
-      <c r="K117" s="21"/>
+      <c r="K117" s="13"/>
       <c r="L117" s="13"/>
       <c r="M117" s="13"/>
       <c r="N117" s="13"/>
@@ -3792,7 +3703,7 @@
       <c r="H118" s="13"/>
       <c r="I118" s="13"/>
       <c r="J118" s="13"/>
-      <c r="K118" s="21"/>
+      <c r="K118" s="13"/>
       <c r="L118" s="13"/>
       <c r="M118" s="13"/>
       <c r="N118" s="13"/>
@@ -3819,7 +3730,7 @@
       <c r="H119" s="13"/>
       <c r="I119" s="13"/>
       <c r="J119" s="13"/>
-      <c r="K119" s="21"/>
+      <c r="K119" s="13"/>
       <c r="L119" s="13"/>
       <c r="M119" s="13"/>
       <c r="N119" s="13"/>
@@ -3846,7 +3757,7 @@
       <c r="H120" s="13"/>
       <c r="I120" s="13"/>
       <c r="J120" s="13"/>
-      <c r="K120" s="21"/>
+      <c r="K120" s="13"/>
       <c r="L120" s="13"/>
       <c r="M120" s="13"/>
       <c r="N120" s="13"/>
@@ -3873,7 +3784,7 @@
       <c r="H121" s="13"/>
       <c r="I121" s="13"/>
       <c r="J121" s="13"/>
-      <c r="K121" s="21"/>
+      <c r="K121" s="13"/>
       <c r="L121" s="13"/>
       <c r="M121" s="13"/>
       <c r="N121" s="13"/>
@@ -3900,7 +3811,7 @@
       <c r="H122" s="13"/>
       <c r="I122" s="13"/>
       <c r="J122" s="13"/>
-      <c r="K122" s="21"/>
+      <c r="K122" s="13"/>
       <c r="L122" s="13"/>
       <c r="M122" s="13"/>
       <c r="N122" s="13"/>
@@ -3927,7 +3838,7 @@
       <c r="H123" s="13"/>
       <c r="I123" s="13"/>
       <c r="J123" s="13"/>
-      <c r="K123" s="21"/>
+      <c r="K123" s="13"/>
       <c r="L123" s="13"/>
       <c r="M123" s="13"/>
       <c r="N123" s="13"/>
@@ -3954,7 +3865,7 @@
       <c r="H124" s="13"/>
       <c r="I124" s="13"/>
       <c r="J124" s="13"/>
-      <c r="K124" s="21"/>
+      <c r="K124" s="13"/>
       <c r="L124" s="13"/>
       <c r="M124" s="13"/>
       <c r="N124" s="13"/>
@@ -3981,7 +3892,7 @@
       <c r="H125" s="13"/>
       <c r="I125" s="13"/>
       <c r="J125" s="13"/>
-      <c r="K125" s="21"/>
+      <c r="K125" s="13"/>
       <c r="L125" s="13"/>
       <c r="M125" s="13"/>
       <c r="N125" s="13"/>
@@ -4008,7 +3919,7 @@
       <c r="H126" s="13"/>
       <c r="I126" s="13"/>
       <c r="J126" s="13"/>
-      <c r="K126" s="21"/>
+      <c r="K126" s="13"/>
       <c r="L126" s="13"/>
       <c r="M126" s="13"/>
       <c r="N126" s="13"/>
@@ -4035,7 +3946,7 @@
       <c r="H127" s="13"/>
       <c r="I127" s="13"/>
       <c r="J127" s="13"/>
-      <c r="K127" s="21"/>
+      <c r="K127" s="13"/>
       <c r="L127" s="13"/>
       <c r="M127" s="13"/>
       <c r="N127" s="13"/>
@@ -4062,7 +3973,7 @@
       <c r="H128" s="13"/>
       <c r="I128" s="13"/>
       <c r="J128" s="13"/>
-      <c r="K128" s="21"/>
+      <c r="K128" s="13"/>
       <c r="L128" s="13"/>
       <c r="M128" s="13"/>
       <c r="N128" s="13"/>
@@ -4089,7 +4000,7 @@
       <c r="H129" s="13"/>
       <c r="I129" s="13"/>
       <c r="J129" s="13"/>
-      <c r="K129" s="21"/>
+      <c r="K129" s="13"/>
       <c r="L129" s="13"/>
       <c r="M129" s="13"/>
       <c r="N129" s="13"/>
@@ -4116,7 +4027,7 @@
       <c r="H130" s="13"/>
       <c r="I130" s="13"/>
       <c r="J130" s="13"/>
-      <c r="K130" s="21"/>
+      <c r="K130" s="13"/>
       <c r="L130" s="13"/>
       <c r="M130" s="13"/>
       <c r="N130" s="13"/>
@@ -4143,7 +4054,7 @@
       <c r="H131" s="13"/>
       <c r="I131" s="13"/>
       <c r="J131" s="13"/>
-      <c r="K131" s="21"/>
+      <c r="K131" s="13"/>
       <c r="L131" s="13"/>
       <c r="M131" s="13"/>
       <c r="N131" s="13"/>
@@ -4170,7 +4081,7 @@
       <c r="H132" s="13"/>
       <c r="I132" s="13"/>
       <c r="J132" s="13"/>
-      <c r="K132" s="21"/>
+      <c r="K132" s="13"/>
       <c r="L132" s="13"/>
       <c r="M132" s="13"/>
       <c r="N132" s="13"/>
@@ -4197,7 +4108,7 @@
       <c r="H133" s="13"/>
       <c r="I133" s="13"/>
       <c r="J133" s="13"/>
-      <c r="K133" s="21"/>
+      <c r="K133" s="13"/>
       <c r="L133" s="13"/>
       <c r="M133" s="13"/>
       <c r="N133" s="13"/>
@@ -4224,7 +4135,7 @@
       <c r="H134" s="13"/>
       <c r="I134" s="13"/>
       <c r="J134" s="13"/>
-      <c r="K134" s="21"/>
+      <c r="K134" s="13"/>
       <c r="L134" s="13"/>
       <c r="M134" s="13"/>
       <c r="N134" s="13"/>
@@ -4251,7 +4162,7 @@
       <c r="H135" s="13"/>
       <c r="I135" s="13"/>
       <c r="J135" s="13"/>
-      <c r="K135" s="21"/>
+      <c r="K135" s="13"/>
       <c r="L135" s="13"/>
       <c r="M135" s="13"/>
       <c r="N135" s="13"/>
@@ -4278,7 +4189,7 @@
       <c r="H136" s="13"/>
       <c r="I136" s="13"/>
       <c r="J136" s="13"/>
-      <c r="K136" s="21"/>
+      <c r="K136" s="13"/>
       <c r="L136" s="13"/>
       <c r="M136" s="13"/>
       <c r="N136" s="13"/>
@@ -4305,7 +4216,7 @@
       <c r="H137" s="13"/>
       <c r="I137" s="13"/>
       <c r="J137" s="13"/>
-      <c r="K137" s="21"/>
+      <c r="K137" s="13"/>
       <c r="L137" s="13"/>
       <c r="M137" s="13"/>
       <c r="N137" s="13"/>
@@ -4332,7 +4243,7 @@
       <c r="H138" s="13"/>
       <c r="I138" s="13"/>
       <c r="J138" s="13"/>
-      <c r="K138" s="21"/>
+      <c r="K138" s="13"/>
       <c r="L138" s="13"/>
       <c r="M138" s="13"/>
       <c r="N138" s="13"/>
@@ -4359,7 +4270,7 @@
       <c r="H139" s="13"/>
       <c r="I139" s="13"/>
       <c r="J139" s="13"/>
-      <c r="K139" s="21"/>
+      <c r="K139" s="13"/>
       <c r="L139" s="13"/>
       <c r="M139" s="13"/>
       <c r="N139" s="13"/>
@@ -4386,7 +4297,7 @@
       <c r="H140" s="13"/>
       <c r="I140" s="13"/>
       <c r="J140" s="13"/>
-      <c r="K140" s="21"/>
+      <c r="K140" s="13"/>
       <c r="L140" s="13"/>
       <c r="M140" s="13"/>
       <c r="N140" s="13"/>
@@ -4413,7 +4324,7 @@
       <c r="H141" s="13"/>
       <c r="I141" s="13"/>
       <c r="J141" s="13"/>
-      <c r="K141" s="21"/>
+      <c r="K141" s="13"/>
       <c r="L141" s="13"/>
       <c r="M141" s="13"/>
       <c r="N141" s="13"/>
@@ -4440,7 +4351,7 @@
       <c r="H142" s="13"/>
       <c r="I142" s="13"/>
       <c r="J142" s="13"/>
-      <c r="K142" s="21"/>
+      <c r="K142" s="13"/>
       <c r="L142" s="13"/>
       <c r="M142" s="13"/>
       <c r="N142" s="13"/>
@@ -4467,7 +4378,7 @@
       <c r="H143" s="13"/>
       <c r="I143" s="13"/>
       <c r="J143" s="13"/>
-      <c r="K143" s="21"/>
+      <c r="K143" s="13"/>
       <c r="L143" s="13"/>
       <c r="M143" s="13"/>
       <c r="N143" s="13"/>
@@ -4494,7 +4405,7 @@
       <c r="H144" s="13"/>
       <c r="I144" s="13"/>
       <c r="J144" s="13"/>
-      <c r="K144" s="21"/>
+      <c r="K144" s="13"/>
       <c r="L144" s="13"/>
       <c r="M144" s="13"/>
       <c r="N144" s="13"/>
@@ -4521,7 +4432,7 @@
       <c r="H145" s="13"/>
       <c r="I145" s="13"/>
       <c r="J145" s="13"/>
-      <c r="K145" s="21"/>
+      <c r="K145" s="13"/>
       <c r="L145" s="13"/>
       <c r="M145" s="13"/>
       <c r="N145" s="13"/>
@@ -4548,7 +4459,7 @@
       <c r="H146" s="13"/>
       <c r="I146" s="13"/>
       <c r="J146" s="13"/>
-      <c r="K146" s="21"/>
+      <c r="K146" s="13"/>
       <c r="L146" s="13"/>
       <c r="M146" s="13"/>
       <c r="N146" s="13"/>
@@ -4575,7 +4486,7 @@
       <c r="H147" s="13"/>
       <c r="I147" s="13"/>
       <c r="J147" s="13"/>
-      <c r="K147" s="21"/>
+      <c r="K147" s="13"/>
       <c r="L147" s="13"/>
       <c r="M147" s="13"/>
       <c r="N147" s="13"/>
@@ -4602,7 +4513,7 @@
       <c r="H148" s="13"/>
       <c r="I148" s="13"/>
       <c r="J148" s="13"/>
-      <c r="K148" s="21"/>
+      <c r="K148" s="13"/>
       <c r="L148" s="13"/>
       <c r="M148" s="13"/>
       <c r="N148" s="13"/>
@@ -4629,7 +4540,7 @@
       <c r="H149" s="13"/>
       <c r="I149" s="13"/>
       <c r="J149" s="13"/>
-      <c r="K149" s="21"/>
+      <c r="K149" s="13"/>
       <c r="L149" s="13"/>
       <c r="M149" s="13"/>
       <c r="N149" s="13"/>
@@ -4656,7 +4567,7 @@
       <c r="H150" s="13"/>
       <c r="I150" s="13"/>
       <c r="J150" s="13"/>
-      <c r="K150" s="21"/>
+      <c r="K150" s="13"/>
       <c r="L150" s="13"/>
       <c r="M150" s="13"/>
       <c r="N150" s="13"/>
@@ -4683,7 +4594,7 @@
       <c r="H151" s="13"/>
       <c r="I151" s="13"/>
       <c r="J151" s="13"/>
-      <c r="K151" s="21"/>
+      <c r="K151" s="13"/>
       <c r="L151" s="13"/>
       <c r="M151" s="13"/>
       <c r="N151" s="13"/>
@@ -4710,7 +4621,7 @@
       <c r="H152" s="13"/>
       <c r="I152" s="13"/>
       <c r="J152" s="13"/>
-      <c r="K152" s="21"/>
+      <c r="K152" s="13"/>
       <c r="L152" s="13"/>
       <c r="M152" s="13"/>
       <c r="N152" s="13"/>
@@ -4737,7 +4648,7 @@
       <c r="H153" s="13"/>
       <c r="I153" s="13"/>
       <c r="J153" s="13"/>
-      <c r="K153" s="21"/>
+      <c r="K153" s="13"/>
       <c r="L153" s="13"/>
       <c r="M153" s="13"/>
       <c r="N153" s="13"/>
@@ -4764,7 +4675,7 @@
       <c r="H154" s="13"/>
       <c r="I154" s="13"/>
       <c r="J154" s="13"/>
-      <c r="K154" s="21"/>
+      <c r="K154" s="13"/>
       <c r="L154" s="13"/>
       <c r="M154" s="13"/>
       <c r="N154" s="13"/>
@@ -4791,7 +4702,7 @@
       <c r="H155" s="13"/>
       <c r="I155" s="13"/>
       <c r="J155" s="13"/>
-      <c r="K155" s="21"/>
+      <c r="K155" s="13"/>
       <c r="L155" s="13"/>
       <c r="M155" s="13"/>
       <c r="N155" s="13"/>
@@ -4818,7 +4729,7 @@
       <c r="H156" s="13"/>
       <c r="I156" s="13"/>
       <c r="J156" s="13"/>
-      <c r="K156" s="21"/>
+      <c r="K156" s="13"/>
       <c r="L156" s="13"/>
       <c r="M156" s="13"/>
       <c r="N156" s="13"/>
@@ -4845,7 +4756,7 @@
       <c r="H157" s="13"/>
       <c r="I157" s="13"/>
       <c r="J157" s="13"/>
-      <c r="K157" s="21"/>
+      <c r="K157" s="13"/>
       <c r="L157" s="13"/>
       <c r="M157" s="13"/>
       <c r="N157" s="13"/>
@@ -4872,7 +4783,7 @@
       <c r="H158" s="13"/>
       <c r="I158" s="13"/>
       <c r="J158" s="13"/>
-      <c r="K158" s="21"/>
+      <c r="K158" s="13"/>
       <c r="L158" s="13"/>
       <c r="M158" s="13"/>
       <c r="N158" s="13"/>
@@ -4899,7 +4810,7 @@
       <c r="H159" s="13"/>
       <c r="I159" s="13"/>
       <c r="J159" s="13"/>
-      <c r="K159" s="21"/>
+      <c r="K159" s="13"/>
       <c r="L159" s="13"/>
       <c r="M159" s="13"/>
       <c r="N159" s="13"/>
@@ -4926,7 +4837,7 @@
       <c r="H160" s="13"/>
       <c r="I160" s="13"/>
       <c r="J160" s="13"/>
-      <c r="K160" s="21"/>
+      <c r="K160" s="13"/>
       <c r="L160" s="13"/>
       <c r="M160" s="13"/>
       <c r="N160" s="13"/>
@@ -4953,7 +4864,7 @@
       <c r="H161" s="13"/>
       <c r="I161" s="13"/>
       <c r="J161" s="13"/>
-      <c r="K161" s="21"/>
+      <c r="K161" s="13"/>
       <c r="L161" s="13"/>
       <c r="M161" s="13"/>
       <c r="N161" s="13"/>
@@ -4980,7 +4891,7 @@
       <c r="H162" s="13"/>
       <c r="I162" s="13"/>
       <c r="J162" s="13"/>
-      <c r="K162" s="21"/>
+      <c r="K162" s="13"/>
       <c r="L162" s="13"/>
       <c r="M162" s="13"/>
       <c r="N162" s="13"/>
@@ -5007,7 +4918,7 @@
       <c r="H163" s="13"/>
       <c r="I163" s="13"/>
       <c r="J163" s="13"/>
-      <c r="K163" s="21"/>
+      <c r="K163" s="13"/>
       <c r="L163" s="13"/>
       <c r="M163" s="13"/>
       <c r="N163" s="13"/>
@@ -5034,7 +4945,7 @@
       <c r="H164" s="13"/>
       <c r="I164" s="13"/>
       <c r="J164" s="13"/>
-      <c r="K164" s="21"/>
+      <c r="K164" s="13"/>
       <c r="L164" s="13"/>
       <c r="M164" s="13"/>
       <c r="N164" s="13"/>
@@ -5061,7 +4972,7 @@
       <c r="H165" s="13"/>
       <c r="I165" s="13"/>
       <c r="J165" s="13"/>
-      <c r="K165" s="21"/>
+      <c r="K165" s="13"/>
       <c r="L165" s="13"/>
       <c r="M165" s="13"/>
       <c r="N165" s="13"/>
@@ -5088,7 +4999,7 @@
       <c r="H166" s="13"/>
       <c r="I166" s="13"/>
       <c r="J166" s="13"/>
-      <c r="K166" s="21"/>
+      <c r="K166" s="13"/>
       <c r="L166" s="13"/>
       <c r="M166" s="13"/>
       <c r="N166" s="13"/>
@@ -5115,7 +5026,7 @@
       <c r="H167" s="13"/>
       <c r="I167" s="13"/>
       <c r="J167" s="13"/>
-      <c r="K167" s="21"/>
+      <c r="K167" s="13"/>
       <c r="L167" s="13"/>
       <c r="M167" s="13"/>
       <c r="N167" s="13"/>
@@ -5142,7 +5053,7 @@
       <c r="H168" s="13"/>
       <c r="I168" s="13"/>
       <c r="J168" s="13"/>
-      <c r="K168" s="21"/>
+      <c r="K168" s="13"/>
       <c r="L168" s="13"/>
       <c r="M168" s="13"/>
       <c r="N168" s="13"/>
@@ -5169,7 +5080,7 @@
       <c r="H169" s="13"/>
       <c r="I169" s="13"/>
       <c r="J169" s="13"/>
-      <c r="K169" s="21"/>
+      <c r="K169" s="13"/>
       <c r="L169" s="13"/>
       <c r="M169" s="13"/>
       <c r="N169" s="13"/>
@@ -5196,7 +5107,7 @@
       <c r="H170" s="13"/>
       <c r="I170" s="13"/>
       <c r="J170" s="13"/>
-      <c r="K170" s="21"/>
+      <c r="K170" s="13"/>
       <c r="L170" s="13"/>
       <c r="M170" s="13"/>
       <c r="N170" s="13"/>
@@ -5223,7 +5134,7 @@
       <c r="H171" s="13"/>
       <c r="I171" s="13"/>
       <c r="J171" s="13"/>
-      <c r="K171" s="21"/>
+      <c r="K171" s="13"/>
       <c r="L171" s="13"/>
       <c r="M171" s="13"/>
       <c r="N171" s="13"/>
@@ -5250,7 +5161,7 @@
       <c r="H172" s="13"/>
       <c r="I172" s="13"/>
       <c r="J172" s="13"/>
-      <c r="K172" s="21"/>
+      <c r="K172" s="13"/>
       <c r="L172" s="13"/>
       <c r="M172" s="13"/>
       <c r="N172" s="13"/>
@@ -5277,7 +5188,7 @@
       <c r="H173" s="13"/>
       <c r="I173" s="13"/>
       <c r="J173" s="13"/>
-      <c r="K173" s="21"/>
+      <c r="K173" s="13"/>
       <c r="L173" s="13"/>
       <c r="M173" s="13"/>
       <c r="N173" s="13"/>
@@ -5304,7 +5215,7 @@
       <c r="H174" s="13"/>
       <c r="I174" s="13"/>
       <c r="J174" s="13"/>
-      <c r="K174" s="21"/>
+      <c r="K174" s="13"/>
       <c r="L174" s="13"/>
       <c r="M174" s="13"/>
       <c r="N174" s="13"/>
@@ -5331,7 +5242,7 @@
       <c r="H175" s="13"/>
       <c r="I175" s="13"/>
       <c r="J175" s="13"/>
-      <c r="K175" s="21"/>
+      <c r="K175" s="13"/>
       <c r="L175" s="13"/>
       <c r="M175" s="13"/>
       <c r="N175" s="13"/>
@@ -5358,7 +5269,7 @@
       <c r="H176" s="13"/>
       <c r="I176" s="13"/>
       <c r="J176" s="13"/>
-      <c r="K176" s="21"/>
+      <c r="K176" s="13"/>
       <c r="L176" s="13"/>
       <c r="M176" s="13"/>
       <c r="N176" s="13"/>
@@ -5385,7 +5296,7 @@
       <c r="H177" s="13"/>
       <c r="I177" s="13"/>
       <c r="J177" s="13"/>
-      <c r="K177" s="21"/>
+      <c r="K177" s="13"/>
       <c r="L177" s="13"/>
       <c r="M177" s="13"/>
       <c r="N177" s="13"/>
@@ -5412,7 +5323,7 @@
       <c r="H178" s="13"/>
       <c r="I178" s="13"/>
       <c r="J178" s="13"/>
-      <c r="K178" s="21"/>
+      <c r="K178" s="13"/>
       <c r="L178" s="13"/>
       <c r="M178" s="13"/>
       <c r="N178" s="13"/>
@@ -5439,7 +5350,7 @@
       <c r="H179" s="13"/>
       <c r="I179" s="13"/>
       <c r="J179" s="13"/>
-      <c r="K179" s="21"/>
+      <c r="K179" s="13"/>
       <c r="L179" s="13"/>
       <c r="M179" s="13"/>
       <c r="N179" s="13"/>
@@ -5466,7 +5377,7 @@
       <c r="H180" s="13"/>
       <c r="I180" s="13"/>
       <c r="J180" s="13"/>
-      <c r="K180" s="21"/>
+      <c r="K180" s="13"/>
       <c r="L180" s="13"/>
       <c r="M180" s="13"/>
       <c r="N180" s="13"/>
@@ -5493,7 +5404,7 @@
       <c r="H181" s="13"/>
       <c r="I181" s="13"/>
       <c r="J181" s="13"/>
-      <c r="K181" s="21"/>
+      <c r="K181" s="13"/>
       <c r="L181" s="13"/>
       <c r="M181" s="13"/>
       <c r="N181" s="13"/>
@@ -5520,7 +5431,7 @@
       <c r="H182" s="13"/>
       <c r="I182" s="13"/>
       <c r="J182" s="13"/>
-      <c r="K182" s="21"/>
+      <c r="K182" s="13"/>
       <c r="L182" s="13"/>
       <c r="M182" s="13"/>
       <c r="N182" s="13"/>
@@ -5547,7 +5458,7 @@
       <c r="H183" s="13"/>
       <c r="I183" s="13"/>
       <c r="J183" s="13"/>
-      <c r="K183" s="21"/>
+      <c r="K183" s="13"/>
       <c r="L183" s="13"/>
       <c r="M183" s="13"/>
       <c r="N183" s="13"/>
@@ -5574,7 +5485,7 @@
       <c r="H184" s="13"/>
       <c r="I184" s="13"/>
       <c r="J184" s="13"/>
-      <c r="K184" s="21"/>
+      <c r="K184" s="13"/>
       <c r="L184" s="13"/>
       <c r="M184" s="13"/>
       <c r="N184" s="13"/>
@@ -5601,7 +5512,7 @@
       <c r="H185" s="13"/>
       <c r="I185" s="13"/>
       <c r="J185" s="13"/>
-      <c r="K185" s="21"/>
+      <c r="K185" s="13"/>
       <c r="L185" s="13"/>
       <c r="M185" s="13"/>
       <c r="N185" s="13"/>
@@ -5628,7 +5539,7 @@
       <c r="H186" s="13"/>
       <c r="I186" s="13"/>
       <c r="J186" s="13"/>
-      <c r="K186" s="21"/>
+      <c r="K186" s="13"/>
       <c r="L186" s="13"/>
       <c r="M186" s="13"/>
       <c r="N186" s="13"/>
@@ -5655,7 +5566,7 @@
       <c r="H187" s="13"/>
       <c r="I187" s="13"/>
       <c r="J187" s="13"/>
-      <c r="K187" s="21"/>
+      <c r="K187" s="13"/>
       <c r="L187" s="13"/>
       <c r="M187" s="13"/>
       <c r="N187" s="13"/>
@@ -5682,7 +5593,7 @@
       <c r="H188" s="13"/>
       <c r="I188" s="13"/>
       <c r="J188" s="13"/>
-      <c r="K188" s="21"/>
+      <c r="K188" s="13"/>
       <c r="L188" s="13"/>
       <c r="M188" s="13"/>
       <c r="N188" s="13"/>
@@ -5709,7 +5620,7 @@
       <c r="H189" s="13"/>
       <c r="I189" s="13"/>
       <c r="J189" s="13"/>
-      <c r="K189" s="21"/>
+      <c r="K189" s="13"/>
       <c r="L189" s="13"/>
       <c r="M189" s="13"/>
       <c r="N189" s="13"/>
@@ -5736,7 +5647,7 @@
       <c r="H190" s="13"/>
       <c r="I190" s="13"/>
       <c r="J190" s="13"/>
-      <c r="K190" s="21"/>
+      <c r="K190" s="13"/>
       <c r="L190" s="13"/>
       <c r="M190" s="13"/>
       <c r="N190" s="13"/>
@@ -5763,7 +5674,7 @@
       <c r="H191" s="13"/>
       <c r="I191" s="13"/>
       <c r="J191" s="13"/>
-      <c r="K191" s="21"/>
+      <c r="K191" s="13"/>
       <c r="L191" s="13"/>
       <c r="M191" s="13"/>
       <c r="N191" s="13"/>
@@ -5790,7 +5701,7 @@
       <c r="H192" s="13"/>
       <c r="I192" s="13"/>
       <c r="J192" s="13"/>
-      <c r="K192" s="21"/>
+      <c r="K192" s="13"/>
       <c r="L192" s="13"/>
       <c r="M192" s="13"/>
       <c r="N192" s="13"/>
@@ -5817,7 +5728,7 @@
       <c r="H193" s="13"/>
       <c r="I193" s="13"/>
       <c r="J193" s="13"/>
-      <c r="K193" s="21"/>
+      <c r="K193" s="13"/>
       <c r="L193" s="13"/>
       <c r="M193" s="13"/>
       <c r="N193" s="13"/>
@@ -5844,7 +5755,7 @@
       <c r="H194" s="13"/>
       <c r="I194" s="13"/>
       <c r="J194" s="13"/>
-      <c r="K194" s="21"/>
+      <c r="K194" s="13"/>
       <c r="L194" s="13"/>
       <c r="M194" s="13"/>
       <c r="N194" s="13"/>
@@ -5871,7 +5782,7 @@
       <c r="H195" s="13"/>
       <c r="I195" s="13"/>
       <c r="J195" s="13"/>
-      <c r="K195" s="21"/>
+      <c r="K195" s="13"/>
       <c r="L195" s="13"/>
       <c r="M195" s="13"/>
       <c r="N195" s="13"/>
@@ -5898,7 +5809,7 @@
       <c r="H196" s="13"/>
       <c r="I196" s="13"/>
       <c r="J196" s="13"/>
-      <c r="K196" s="21"/>
+      <c r="K196" s="13"/>
       <c r="L196" s="13"/>
       <c r="M196" s="13"/>
       <c r="N196" s="13"/>
@@ -5925,7 +5836,7 @@
       <c r="H197" s="13"/>
       <c r="I197" s="13"/>
       <c r="J197" s="13"/>
-      <c r="K197" s="21"/>
+      <c r="K197" s="13"/>
       <c r="L197" s="13"/>
       <c r="M197" s="13"/>
       <c r="N197" s="13"/>
@@ -5952,7 +5863,7 @@
       <c r="H198" s="13"/>
       <c r="I198" s="13"/>
       <c r="J198" s="13"/>
-      <c r="K198" s="21"/>
+      <c r="K198" s="13"/>
       <c r="L198" s="13"/>
       <c r="M198" s="13"/>
       <c r="N198" s="13"/>
@@ -5979,7 +5890,7 @@
       <c r="H199" s="13"/>
       <c r="I199" s="13"/>
       <c r="J199" s="13"/>
-      <c r="K199" s="21"/>
+      <c r="K199" s="13"/>
       <c r="L199" s="13"/>
       <c r="M199" s="13"/>
       <c r="N199" s="13"/>
@@ -6006,7 +5917,7 @@
       <c r="H200" s="13"/>
       <c r="I200" s="13"/>
       <c r="J200" s="13"/>
-      <c r="K200" s="21"/>
+      <c r="K200" s="13"/>
       <c r="L200" s="13"/>
       <c r="M200" s="13"/>
       <c r="N200" s="13"/>
@@ -6033,7 +5944,7 @@
       <c r="H201" s="13"/>
       <c r="I201" s="13"/>
       <c r="J201" s="13"/>
-      <c r="K201" s="21"/>
+      <c r="K201" s="13"/>
       <c r="L201" s="13"/>
       <c r="M201" s="13"/>
       <c r="N201" s="13"/>
@@ -6060,7 +5971,7 @@
       <c r="H202" s="13"/>
       <c r="I202" s="13"/>
       <c r="J202" s="13"/>
-      <c r="K202" s="21"/>
+      <c r="K202" s="13"/>
       <c r="L202" s="13"/>
       <c r="M202" s="13"/>
       <c r="N202" s="13"/>
@@ -6087,7 +5998,7 @@
       <c r="H203" s="13"/>
       <c r="I203" s="13"/>
       <c r="J203" s="13"/>
-      <c r="K203" s="21"/>
+      <c r="K203" s="13"/>
       <c r="L203" s="13"/>
       <c r="M203" s="13"/>
       <c r="N203" s="13"/>
@@ -6114,7 +6025,7 @@
       <c r="H204" s="13"/>
       <c r="I204" s="13"/>
       <c r="J204" s="13"/>
-      <c r="K204" s="21"/>
+      <c r="K204" s="13"/>
       <c r="L204" s="13"/>
       <c r="M204" s="13"/>
       <c r="N204" s="13"/>
@@ -6141,7 +6052,7 @@
       <c r="H205" s="13"/>
       <c r="I205" s="13"/>
       <c r="J205" s="13"/>
-      <c r="K205" s="21"/>
+      <c r="K205" s="13"/>
       <c r="L205" s="13"/>
       <c r="M205" s="13"/>
       <c r="N205" s="13"/>
@@ -6168,7 +6079,7 @@
       <c r="H206" s="13"/>
       <c r="I206" s="13"/>
       <c r="J206" s="13"/>
-      <c r="K206" s="21"/>
+      <c r="K206" s="13"/>
       <c r="L206" s="13"/>
       <c r="M206" s="13"/>
       <c r="N206" s="13"/>
@@ -6195,7 +6106,7 @@
       <c r="H207" s="13"/>
       <c r="I207" s="13"/>
       <c r="J207" s="13"/>
-      <c r="K207" s="21"/>
+      <c r="K207" s="13"/>
       <c r="L207" s="13"/>
       <c r="M207" s="13"/>
       <c r="N207" s="13"/>
@@ -6222,7 +6133,7 @@
       <c r="H208" s="13"/>
       <c r="I208" s="13"/>
       <c r="J208" s="13"/>
-      <c r="K208" s="21"/>
+      <c r="K208" s="13"/>
       <c r="L208" s="13"/>
       <c r="M208" s="13"/>
       <c r="N208" s="13"/>
@@ -6249,7 +6160,7 @@
       <c r="H209" s="13"/>
       <c r="I209" s="13"/>
       <c r="J209" s="13"/>
-      <c r="K209" s="21"/>
+      <c r="K209" s="13"/>
       <c r="L209" s="13"/>
       <c r="M209" s="13"/>
       <c r="N209" s="13"/>
@@ -6276,7 +6187,7 @@
       <c r="H210" s="13"/>
       <c r="I210" s="13"/>
       <c r="J210" s="13"/>
-      <c r="K210" s="21"/>
+      <c r="K210" s="13"/>
       <c r="L210" s="13"/>
       <c r="M210" s="13"/>
       <c r="N210" s="13"/>
@@ -6303,7 +6214,7 @@
       <c r="H211" s="13"/>
       <c r="I211" s="13"/>
       <c r="J211" s="13"/>
-      <c r="K211" s="21"/>
+      <c r="K211" s="13"/>
       <c r="L211" s="13"/>
       <c r="M211" s="13"/>
       <c r="N211" s="13"/>
@@ -6330,7 +6241,7 @@
       <c r="H212" s="13"/>
       <c r="I212" s="13"/>
       <c r="J212" s="13"/>
-      <c r="K212" s="21"/>
+      <c r="K212" s="13"/>
       <c r="L212" s="13"/>
       <c r="M212" s="13"/>
       <c r="N212" s="13"/>
@@ -6357,7 +6268,7 @@
       <c r="H213" s="13"/>
       <c r="I213" s="13"/>
       <c r="J213" s="13"/>
-      <c r="K213" s="21"/>
+      <c r="K213" s="13"/>
       <c r="L213" s="13"/>
       <c r="M213" s="13"/>
       <c r="N213" s="13"/>
@@ -6384,7 +6295,7 @@
       <c r="H214" s="13"/>
       <c r="I214" s="13"/>
       <c r="J214" s="13"/>
-      <c r="K214" s="21"/>
+      <c r="K214" s="13"/>
       <c r="L214" s="13"/>
       <c r="M214" s="13"/>
       <c r="N214" s="13"/>
@@ -6411,7 +6322,7 @@
       <c r="H215" s="13"/>
       <c r="I215" s="13"/>
       <c r="J215" s="13"/>
-      <c r="K215" s="21"/>
+      <c r="K215" s="13"/>
       <c r="L215" s="13"/>
       <c r="M215" s="13"/>
       <c r="N215" s="13"/>
@@ -6438,7 +6349,7 @@
       <c r="H216" s="13"/>
       <c r="I216" s="13"/>
       <c r="J216" s="13"/>
-      <c r="K216" s="21"/>
+      <c r="K216" s="13"/>
       <c r="L216" s="13"/>
       <c r="M216" s="13"/>
       <c r="N216" s="13"/>
@@ -6465,7 +6376,7 @@
       <c r="H217" s="13"/>
       <c r="I217" s="13"/>
       <c r="J217" s="13"/>
-      <c r="K217" s="21"/>
+      <c r="K217" s="13"/>
       <c r="L217" s="13"/>
       <c r="M217" s="13"/>
       <c r="N217" s="13"/>
@@ -6492,7 +6403,7 @@
       <c r="H218" s="13"/>
       <c r="I218" s="13"/>
       <c r="J218" s="13"/>
-      <c r="K218" s="21"/>
+      <c r="K218" s="13"/>
       <c r="L218" s="13"/>
       <c r="M218" s="13"/>
       <c r="N218" s="13"/>
@@ -6519,7 +6430,7 @@
       <c r="H219" s="13"/>
       <c r="I219" s="13"/>
       <c r="J219" s="13"/>
-      <c r="K219" s="21"/>
+      <c r="K219" s="13"/>
       <c r="L219" s="13"/>
       <c r="M219" s="13"/>
       <c r="N219" s="13"/>
@@ -6546,7 +6457,7 @@
       <c r="H220" s="13"/>
       <c r="I220" s="13"/>
       <c r="J220" s="13"/>
-      <c r="K220" s="21"/>
+      <c r="K220" s="13"/>
       <c r="L220" s="13"/>
       <c r="M220" s="13"/>
       <c r="N220" s="13"/>
@@ -6573,7 +6484,7 @@
       <c r="H221" s="13"/>
       <c r="I221" s="13"/>
       <c r="J221" s="13"/>
-      <c r="K221" s="21"/>
+      <c r="K221" s="13"/>
       <c r="L221" s="13"/>
       <c r="M221" s="13"/>
       <c r="N221" s="13"/>
@@ -6600,7 +6511,7 @@
       <c r="H222" s="13"/>
       <c r="I222" s="13"/>
       <c r="J222" s="13"/>
-      <c r="K222" s="21"/>
+      <c r="K222" s="13"/>
       <c r="L222" s="13"/>
       <c r="M222" s="13"/>
       <c r="N222" s="13"/>
@@ -6627,7 +6538,7 @@
       <c r="H223" s="13"/>
       <c r="I223" s="13"/>
       <c r="J223" s="13"/>
-      <c r="K223" s="21"/>
+      <c r="K223" s="13"/>
       <c r="L223" s="13"/>
       <c r="M223" s="13"/>
       <c r="N223" s="13"/>
@@ -6654,7 +6565,7 @@
       <c r="H224" s="13"/>
       <c r="I224" s="13"/>
       <c r="J224" s="13"/>
-      <c r="K224" s="21"/>
+      <c r="K224" s="13"/>
       <c r="L224" s="13"/>
       <c r="M224" s="13"/>
       <c r="N224" s="13"/>
@@ -6681,7 +6592,7 @@
       <c r="H225" s="13"/>
       <c r="I225" s="13"/>
       <c r="J225" s="13"/>
-      <c r="K225" s="21"/>
+      <c r="K225" s="13"/>
       <c r="L225" s="13"/>
       <c r="M225" s="13"/>
       <c r="N225" s="13"/>
@@ -6708,7 +6619,7 @@
       <c r="H226" s="13"/>
       <c r="I226" s="13"/>
       <c r="J226" s="13"/>
-      <c r="K226" s="21"/>
+      <c r="K226" s="13"/>
       <c r="L226" s="13"/>
       <c r="M226" s="13"/>
       <c r="N226" s="13"/>
@@ -6735,7 +6646,7 @@
       <c r="H227" s="13"/>
       <c r="I227" s="13"/>
       <c r="J227" s="13"/>
-      <c r="K227" s="21"/>
+      <c r="K227" s="13"/>
       <c r="L227" s="13"/>
       <c r="M227" s="13"/>
       <c r="N227" s="13"/>
@@ -6762,7 +6673,7 @@
       <c r="H228" s="13"/>
       <c r="I228" s="13"/>
       <c r="J228" s="13"/>
-      <c r="K228" s="21"/>
+      <c r="K228" s="13"/>
       <c r="L228" s="13"/>
       <c r="M228" s="13"/>
       <c r="N228" s="13"/>
@@ -6789,7 +6700,7 @@
       <c r="H229" s="13"/>
       <c r="I229" s="13"/>
       <c r="J229" s="13"/>
-      <c r="K229" s="21"/>
+      <c r="K229" s="13"/>
       <c r="L229" s="13"/>
       <c r="M229" s="13"/>
       <c r="N229" s="13"/>
@@ -6816,7 +6727,7 @@
       <c r="H230" s="13"/>
       <c r="I230" s="13"/>
       <c r="J230" s="13"/>
-      <c r="K230" s="21"/>
+      <c r="K230" s="13"/>
       <c r="L230" s="13"/>
       <c r="M230" s="13"/>
       <c r="N230" s="13"/>
@@ -6843,7 +6754,7 @@
       <c r="H231" s="13"/>
       <c r="I231" s="13"/>
       <c r="J231" s="13"/>
-      <c r="K231" s="21"/>
+      <c r="K231" s="13"/>
       <c r="L231" s="13"/>
       <c r="M231" s="13"/>
       <c r="N231" s="13"/>
@@ -6870,7 +6781,7 @@
       <c r="H232" s="13"/>
       <c r="I232" s="13"/>
       <c r="J232" s="13"/>
-      <c r="K232" s="21"/>
+      <c r="K232" s="13"/>
       <c r="L232" s="13"/>
       <c r="M232" s="13"/>
       <c r="N232" s="13"/>
@@ -6897,7 +6808,7 @@
       <c r="H233" s="13"/>
       <c r="I233" s="13"/>
       <c r="J233" s="13"/>
-      <c r="K233" s="21"/>
+      <c r="K233" s="13"/>
       <c r="L233" s="13"/>
       <c r="M233" s="13"/>
       <c r="N233" s="13"/>
@@ -6924,7 +6835,7 @@
       <c r="H234" s="13"/>
       <c r="I234" s="13"/>
       <c r="J234" s="13"/>
-      <c r="K234" s="21"/>
+      <c r="K234" s="13"/>
       <c r="L234" s="13"/>
       <c r="M234" s="13"/>
       <c r="N234" s="13"/>
@@ -6951,7 +6862,7 @@
       <c r="H235" s="13"/>
       <c r="I235" s="13"/>
       <c r="J235" s="13"/>
-      <c r="K235" s="21"/>
+      <c r="K235" s="13"/>
       <c r="L235" s="13"/>
       <c r="M235" s="13"/>
       <c r="N235" s="13"/>
@@ -6978,7 +6889,7 @@
       <c r="H236" s="13"/>
       <c r="I236" s="13"/>
       <c r="J236" s="13"/>
-      <c r="K236" s="21"/>
+      <c r="K236" s="13"/>
       <c r="L236" s="13"/>
       <c r="M236" s="13"/>
       <c r="N236" s="13"/>
@@ -7005,7 +6916,7 @@
       <c r="H237" s="13"/>
       <c r="I237" s="13"/>
       <c r="J237" s="13"/>
-      <c r="K237" s="21"/>
+      <c r="K237" s="13"/>
       <c r="L237" s="13"/>
       <c r="M237" s="13"/>
       <c r="N237" s="13"/>
@@ -7032,7 +6943,7 @@
       <c r="H238" s="13"/>
       <c r="I238" s="13"/>
       <c r="J238" s="13"/>
-      <c r="K238" s="21"/>
+      <c r="K238" s="13"/>
       <c r="L238" s="13"/>
       <c r="M238" s="13"/>
       <c r="N238" s="13"/>
@@ -7059,7 +6970,7 @@
       <c r="H239" s="13"/>
       <c r="I239" s="13"/>
       <c r="J239" s="13"/>
-      <c r="K239" s="21"/>
+      <c r="K239" s="13"/>
       <c r="L239" s="13"/>
       <c r="M239" s="13"/>
       <c r="N239" s="13"/>
@@ -7086,7 +6997,7 @@
       <c r="H240" s="13"/>
       <c r="I240" s="13"/>
       <c r="J240" s="13"/>
-      <c r="K240" s="21"/>
+      <c r="K240" s="13"/>
       <c r="L240" s="13"/>
       <c r="M240" s="13"/>
       <c r="N240" s="13"/>
@@ -7113,7 +7024,7 @@
       <c r="H241" s="13"/>
       <c r="I241" s="13"/>
       <c r="J241" s="13"/>
-      <c r="K241" s="21"/>
+      <c r="K241" s="13"/>
       <c r="L241" s="13"/>
       <c r="M241" s="13"/>
       <c r="N241" s="13"/>
@@ -7140,7 +7051,7 @@
       <c r="H242" s="13"/>
       <c r="I242" s="13"/>
       <c r="J242" s="13"/>
-      <c r="K242" s="21"/>
+      <c r="K242" s="13"/>
       <c r="L242" s="13"/>
       <c r="M242" s="13"/>
       <c r="N242" s="13"/>
@@ -7167,7 +7078,7 @@
       <c r="H243" s="13"/>
       <c r="I243" s="13"/>
       <c r="J243" s="13"/>
-      <c r="K243" s="21"/>
+      <c r="K243" s="13"/>
       <c r="L243" s="13"/>
       <c r="M243" s="13"/>
       <c r="N243" s="13"/>
@@ -7194,7 +7105,7 @@
       <c r="H244" s="13"/>
       <c r="I244" s="13"/>
       <c r="J244" s="13"/>
-      <c r="K244" s="21"/>
+      <c r="K244" s="13"/>
       <c r="L244" s="13"/>
       <c r="M244" s="13"/>
       <c r="N244" s="13"/>
@@ -7221,7 +7132,7 @@
       <c r="H245" s="13"/>
       <c r="I245" s="13"/>
       <c r="J245" s="13"/>
-      <c r="K245" s="21"/>
+      <c r="K245" s="13"/>
       <c r="L245" s="13"/>
       <c r="M245" s="13"/>
       <c r="N245" s="13"/>
@@ -7248,7 +7159,7 @@
       <c r="H246" s="13"/>
       <c r="I246" s="13"/>
       <c r="J246" s="13"/>
-      <c r="K246" s="21"/>
+      <c r="K246" s="13"/>
       <c r="L246" s="13"/>
       <c r="M246" s="13"/>
       <c r="N246" s="13"/>
@@ -7275,7 +7186,7 @@
       <c r="H247" s="13"/>
       <c r="I247" s="13"/>
       <c r="J247" s="13"/>
-      <c r="K247" s="21"/>
+      <c r="K247" s="13"/>
       <c r="L247" s="13"/>
       <c r="M247" s="13"/>
       <c r="N247" s="13"/>
@@ -7302,7 +7213,7 @@
       <c r="H248" s="13"/>
       <c r="I248" s="13"/>
       <c r="J248" s="13"/>
-      <c r="K248" s="21"/>
+      <c r="K248" s="13"/>
       <c r="L248" s="13"/>
       <c r="M248" s="13"/>
       <c r="N248" s="13"/>
@@ -7329,7 +7240,7 @@
       <c r="H249" s="13"/>
       <c r="I249" s="13"/>
       <c r="J249" s="13"/>
-      <c r="K249" s="21"/>
+      <c r="K249" s="13"/>
       <c r="L249" s="13"/>
       <c r="M249" s="13"/>
       <c r="N249" s="13"/>
@@ -7356,7 +7267,7 @@
       <c r="H250" s="13"/>
       <c r="I250" s="13"/>
       <c r="J250" s="13"/>
-      <c r="K250" s="21"/>
+      <c r="K250" s="13"/>
       <c r="L250" s="13"/>
       <c r="M250" s="13"/>
       <c r="N250" s="13"/>
@@ -7383,7 +7294,7 @@
       <c r="H251" s="13"/>
       <c r="I251" s="13"/>
       <c r="J251" s="13"/>
-      <c r="K251" s="21"/>
+      <c r="K251" s="13"/>
       <c r="L251" s="13"/>
       <c r="M251" s="13"/>
       <c r="N251" s="13"/>
@@ -7410,7 +7321,7 @@
       <c r="H252" s="13"/>
       <c r="I252" s="13"/>
       <c r="J252" s="13"/>
-      <c r="K252" s="21"/>
+      <c r="K252" s="13"/>
       <c r="L252" s="13"/>
       <c r="M252" s="13"/>
       <c r="N252" s="13"/>
@@ -7437,7 +7348,7 @@
       <c r="H253" s="13"/>
       <c r="I253" s="13"/>
       <c r="J253" s="13"/>
-      <c r="K253" s="21"/>
+      <c r="K253" s="13"/>
       <c r="L253" s="13"/>
       <c r="M253" s="13"/>
       <c r="N253" s="13"/>
@@ -7464,7 +7375,7 @@
       <c r="H254" s="13"/>
       <c r="I254" s="13"/>
       <c r="J254" s="13"/>
-      <c r="K254" s="21"/>
+      <c r="K254" s="13"/>
       <c r="L254" s="13"/>
       <c r="M254" s="13"/>
       <c r="N254" s="13"/>
@@ -7491,7 +7402,7 @@
       <c r="H255" s="13"/>
       <c r="I255" s="13"/>
       <c r="J255" s="13"/>
-      <c r="K255" s="21"/>
+      <c r="K255" s="13"/>
       <c r="L255" s="13"/>
       <c r="M255" s="13"/>
       <c r="N255" s="13"/>
@@ -7518,7 +7429,7 @@
       <c r="H256" s="13"/>
       <c r="I256" s="13"/>
       <c r="J256" s="13"/>
-      <c r="K256" s="21"/>
+      <c r="K256" s="13"/>
       <c r="L256" s="13"/>
       <c r="M256" s="13"/>
       <c r="N256" s="13"/>
@@ -7545,7 +7456,7 @@
       <c r="H257" s="13"/>
       <c r="I257" s="13"/>
       <c r="J257" s="13"/>
-      <c r="K257" s="21"/>
+      <c r="K257" s="13"/>
       <c r="L257" s="13"/>
       <c r="M257" s="13"/>
       <c r="N257" s="13"/>
@@ -7572,7 +7483,7 @@
       <c r="H258" s="13"/>
       <c r="I258" s="13"/>
       <c r="J258" s="13"/>
-      <c r="K258" s="21"/>
+      <c r="K258" s="13"/>
       <c r="L258" s="13"/>
       <c r="M258" s="13"/>
       <c r="N258" s="13"/>
@@ -7599,7 +7510,7 @@
       <c r="H259" s="13"/>
       <c r="I259" s="13"/>
       <c r="J259" s="13"/>
-      <c r="K259" s="21"/>
+      <c r="K259" s="13"/>
       <c r="L259" s="13"/>
       <c r="M259" s="13"/>
       <c r="N259" s="13"/>
@@ -7626,7 +7537,7 @@
       <c r="H260" s="13"/>
       <c r="I260" s="13"/>
       <c r="J260" s="13"/>
-      <c r="K260" s="21"/>
+      <c r="K260" s="13"/>
       <c r="L260" s="13"/>
       <c r="M260" s="13"/>
       <c r="N260" s="13"/>
@@ -7653,7 +7564,7 @@
       <c r="H261" s="13"/>
       <c r="I261" s="13"/>
       <c r="J261" s="13"/>
-      <c r="K261" s="21"/>
+      <c r="K261" s="13"/>
       <c r="L261" s="13"/>
       <c r="M261" s="13"/>
       <c r="N261" s="13"/>
@@ -7680,7 +7591,7 @@
       <c r="H262" s="13"/>
       <c r="I262" s="13"/>
       <c r="J262" s="13"/>
-      <c r="K262" s="21"/>
+      <c r="K262" s="13"/>
       <c r="L262" s="13"/>
       <c r="M262" s="13"/>
       <c r="N262" s="13"/>
@@ -7707,7 +7618,7 @@
       <c r="H263" s="13"/>
       <c r="I263" s="13"/>
       <c r="J263" s="13"/>
-      <c r="K263" s="21"/>
+      <c r="K263" s="13"/>
       <c r="L263" s="13"/>
       <c r="M263" s="13"/>
       <c r="N263" s="13"/>
@@ -7734,7 +7645,7 @@
       <c r="H264" s="13"/>
       <c r="I264" s="13"/>
       <c r="J264" s="13"/>
-      <c r="K264" s="21"/>
+      <c r="K264" s="13"/>
       <c r="L264" s="13"/>
       <c r="M264" s="13"/>
       <c r="N264" s="13"/>
@@ -7761,7 +7672,7 @@
       <c r="H265" s="13"/>
       <c r="I265" s="13"/>
       <c r="J265" s="13"/>
-      <c r="K265" s="21"/>
+      <c r="K265" s="13"/>
       <c r="L265" s="13"/>
       <c r="M265" s="13"/>
       <c r="N265" s="13"/>
@@ -7788,7 +7699,7 @@
       <c r="H266" s="13"/>
       <c r="I266" s="13"/>
       <c r="J266" s="13"/>
-      <c r="K266" s="21"/>
+      <c r="K266" s="13"/>
       <c r="L266" s="13"/>
       <c r="M266" s="13"/>
       <c r="N266" s="13"/>
@@ -7815,7 +7726,7 @@
       <c r="H267" s="13"/>
       <c r="I267" s="13"/>
       <c r="J267" s="13"/>
-      <c r="K267" s="21"/>
+      <c r="K267" s="13"/>
       <c r="L267" s="13"/>
       <c r="M267" s="13"/>
       <c r="N267" s="13"/>
@@ -7842,7 +7753,7 @@
       <c r="H268" s="13"/>
       <c r="I268" s="13"/>
       <c r="J268" s="13"/>
-      <c r="K268" s="21"/>
+      <c r="K268" s="13"/>
       <c r="L268" s="13"/>
       <c r="M268" s="13"/>
       <c r="N268" s="13"/>
@@ -7869,7 +7780,7 @@
       <c r="H269" s="13"/>
       <c r="I269" s="13"/>
       <c r="J269" s="13"/>
-      <c r="K269" s="21"/>
+      <c r="K269" s="13"/>
       <c r="L269" s="13"/>
       <c r="M269" s="13"/>
       <c r="N269" s="13"/>
@@ -7896,7 +7807,7 @@
       <c r="H270" s="13"/>
       <c r="I270" s="13"/>
       <c r="J270" s="13"/>
-      <c r="K270" s="21"/>
+      <c r="K270" s="13"/>
       <c r="L270" s="13"/>
       <c r="M270" s="13"/>
       <c r="N270" s="13"/>
@@ -7923,7 +7834,7 @@
       <c r="H271" s="13"/>
       <c r="I271" s="13"/>
       <c r="J271" s="13"/>
-      <c r="K271" s="21"/>
+      <c r="K271" s="13"/>
       <c r="L271" s="13"/>
       <c r="M271" s="13"/>
       <c r="N271" s="13"/>
@@ -7950,7 +7861,7 @@
       <c r="H272" s="13"/>
       <c r="I272" s="13"/>
       <c r="J272" s="13"/>
-      <c r="K272" s="21"/>
+      <c r="K272" s="13"/>
       <c r="L272" s="13"/>
       <c r="M272" s="13"/>
       <c r="N272" s="13"/>
@@ -7977,7 +7888,7 @@
       <c r="H273" s="13"/>
       <c r="I273" s="13"/>
       <c r="J273" s="13"/>
-      <c r="K273" s="21"/>
+      <c r="K273" s="13"/>
       <c r="L273" s="13"/>
       <c r="M273" s="13"/>
       <c r="N273" s="13"/>
@@ -8004,7 +7915,7 @@
       <c r="H274" s="13"/>
       <c r="I274" s="13"/>
       <c r="J274" s="13"/>
-      <c r="K274" s="21"/>
+      <c r="K274" s="13"/>
       <c r="L274" s="13"/>
       <c r="M274" s="13"/>
       <c r="N274" s="13"/>
@@ -8031,7 +7942,7 @@
       <c r="H275" s="13"/>
       <c r="I275" s="13"/>
       <c r="J275" s="13"/>
-      <c r="K275" s="21"/>
+      <c r="K275" s="13"/>
       <c r="L275" s="13"/>
       <c r="M275" s="13"/>
       <c r="N275" s="13"/>
@@ -8058,7 +7969,7 @@
       <c r="H276" s="13"/>
       <c r="I276" s="13"/>
       <c r="J276" s="13"/>
-      <c r="K276" s="21"/>
+      <c r="K276" s="13"/>
       <c r="L276" s="13"/>
       <c r="M276" s="13"/>
       <c r="N276" s="13"/>
@@ -8085,7 +7996,7 @@
       <c r="H277" s="13"/>
       <c r="I277" s="13"/>
       <c r="J277" s="13"/>
-      <c r="K277" s="21"/>
+      <c r="K277" s="13"/>
       <c r="L277" s="13"/>
       <c r="M277" s="13"/>
       <c r="N277" s="13"/>
@@ -8112,7 +8023,7 @@
       <c r="H278" s="13"/>
       <c r="I278" s="13"/>
       <c r="J278" s="13"/>
-      <c r="K278" s="21"/>
+      <c r="K278" s="13"/>
       <c r="L278" s="13"/>
       <c r="M278" s="13"/>
       <c r="N278" s="13"/>
@@ -8139,7 +8050,7 @@
       <c r="H279" s="13"/>
       <c r="I279" s="13"/>
       <c r="J279" s="13"/>
-      <c r="K279" s="21"/>
+      <c r="K279" s="13"/>
       <c r="L279" s="13"/>
       <c r="M279" s="13"/>
       <c r="N279" s="13"/>
@@ -8166,7 +8077,7 @@
       <c r="H280" s="13"/>
       <c r="I280" s="13"/>
       <c r="J280" s="13"/>
-      <c r="K280" s="21"/>
+      <c r="K280" s="13"/>
       <c r="L280" s="13"/>
       <c r="M280" s="13"/>
       <c r="N280" s="13"/>
@@ -8193,7 +8104,7 @@
       <c r="H281" s="13"/>
       <c r="I281" s="13"/>
       <c r="J281" s="13"/>
-      <c r="K281" s="21"/>
+      <c r="K281" s="13"/>
       <c r="L281" s="13"/>
       <c r="M281" s="13"/>
       <c r="N281" s="13"/>
@@ -8220,7 +8131,7 @@
       <c r="H282" s="13"/>
       <c r="I282" s="13"/>
       <c r="J282" s="13"/>
-      <c r="K282" s="21"/>
+      <c r="K282" s="13"/>
       <c r="L282" s="13"/>
       <c r="M282" s="13"/>
       <c r="N282" s="13"/>
@@ -8247,7 +8158,7 @@
       <c r="H283" s="13"/>
       <c r="I283" s="13"/>
       <c r="J283" s="13"/>
-      <c r="K283" s="21"/>
+      <c r="K283" s="13"/>
       <c r="L283" s="13"/>
       <c r="M283" s="13"/>
       <c r="N283" s="13"/>
@@ -8274,7 +8185,7 @@
       <c r="H284" s="13"/>
       <c r="I284" s="13"/>
       <c r="J284" s="13"/>
-      <c r="K284" s="21"/>
+      <c r="K284" s="13"/>
       <c r="L284" s="13"/>
       <c r="M284" s="13"/>
       <c r="N284" s="13"/>
@@ -8301,7 +8212,7 @@
       <c r="H285" s="13"/>
       <c r="I285" s="13"/>
       <c r="J285" s="13"/>
-      <c r="K285" s="21"/>
+      <c r="K285" s="13"/>
       <c r="L285" s="13"/>
       <c r="M285" s="13"/>
       <c r="N285" s="13"/>
@@ -8328,7 +8239,7 @@
       <c r="H286" s="13"/>
       <c r="I286" s="13"/>
       <c r="J286" s="13"/>
-      <c r="K286" s="21"/>
+      <c r="K286" s="13"/>
       <c r="L286" s="13"/>
       <c r="M286" s="13"/>
       <c r="N286" s="13"/>
@@ -8355,7 +8266,7 @@
       <c r="H287" s="13"/>
       <c r="I287" s="13"/>
       <c r="J287" s="13"/>
-      <c r="K287" s="21"/>
+      <c r="K287" s="13"/>
       <c r="L287" s="13"/>
       <c r="M287" s="13"/>
       <c r="N287" s="13"/>
@@ -8382,7 +8293,7 @@
       <c r="H288" s="13"/>
       <c r="I288" s="13"/>
       <c r="J288" s="13"/>
-      <c r="K288" s="21"/>
+      <c r="K288" s="13"/>
       <c r="L288" s="13"/>
       <c r="M288" s="13"/>
       <c r="N288" s="13"/>
@@ -8409,7 +8320,7 @@
       <c r="H289" s="13"/>
       <c r="I289" s="13"/>
       <c r="J289" s="13"/>
-      <c r="K289" s="21"/>
+      <c r="K289" s="13"/>
       <c r="L289" s="13"/>
       <c r="M289" s="13"/>
       <c r="N289" s="13"/>
@@ -8436,7 +8347,7 @@
       <c r="H290" s="13"/>
       <c r="I290" s="13"/>
       <c r="J290" s="13"/>
-      <c r="K290" s="21"/>
+      <c r="K290" s="13"/>
       <c r="L290" s="13"/>
       <c r="M290" s="13"/>
       <c r="N290" s="13"/>
@@ -8463,7 +8374,7 @@
       <c r="H291" s="13"/>
       <c r="I291" s="13"/>
       <c r="J291" s="13"/>
-      <c r="K291" s="21"/>
+      <c r="K291" s="13"/>
       <c r="L291" s="13"/>
       <c r="M291" s="13"/>
       <c r="N291" s="13"/>
@@ -8490,7 +8401,7 @@
       <c r="H292" s="13"/>
       <c r="I292" s="13"/>
       <c r="J292" s="13"/>
-      <c r="K292" s="21"/>
+      <c r="K292" s="13"/>
       <c r="L292" s="13"/>
       <c r="M292" s="13"/>
       <c r="N292" s="13"/>
@@ -8517,7 +8428,7 @@
       <c r="H293" s="13"/>
       <c r="I293" s="13"/>
       <c r="J293" s="13"/>
-      <c r="K293" s="21"/>
+      <c r="K293" s="13"/>
       <c r="L293" s="13"/>
       <c r="M293" s="13"/>
       <c r="N293" s="13"/>
@@ -8544,7 +8455,7 @@
       <c r="H294" s="13"/>
       <c r="I294" s="13"/>
       <c r="J294" s="13"/>
-      <c r="K294" s="21"/>
+      <c r="K294" s="13"/>
       <c r="L294" s="13"/>
       <c r="M294" s="13"/>
       <c r="N294" s="13"/>
@@ -8571,7 +8482,7 @@
       <c r="H295" s="13"/>
       <c r="I295" s="13"/>
       <c r="J295" s="13"/>
-      <c r="K295" s="21"/>
+      <c r="K295" s="13"/>
       <c r="L295" s="13"/>
       <c r="M295" s="13"/>
       <c r="N295" s="13"/>
@@ -8598,7 +8509,7 @@
       <c r="H296" s="13"/>
       <c r="I296" s="13"/>
       <c r="J296" s="13"/>
-      <c r="K296" s="21"/>
+      <c r="K296" s="13"/>
       <c r="L296" s="13"/>
       <c r="M296" s="13"/>
       <c r="N296" s="13"/>
@@ -8625,7 +8536,7 @@
       <c r="H297" s="13"/>
       <c r="I297" s="13"/>
       <c r="J297" s="13"/>
-      <c r="K297" s="21"/>
+      <c r="K297" s="13"/>
       <c r="L297" s="13"/>
       <c r="M297" s="13"/>
       <c r="N297" s="13"/>
@@ -8652,7 +8563,7 @@
       <c r="H298" s="13"/>
       <c r="I298" s="13"/>
       <c r="J298" s="13"/>
-      <c r="K298" s="21"/>
+      <c r="K298" s="13"/>
       <c r="L298" s="13"/>
       <c r="M298" s="13"/>
       <c r="N298" s="13"/>
@@ -8679,7 +8590,7 @@
       <c r="H299" s="13"/>
       <c r="I299" s="13"/>
       <c r="J299" s="13"/>
-      <c r="K299" s="21"/>
+      <c r="K299" s="13"/>
       <c r="L299" s="13"/>
       <c r="M299" s="13"/>
       <c r="N299" s="13"/>
@@ -8706,7 +8617,7 @@
       <c r="H300" s="13"/>
       <c r="I300" s="13"/>
       <c r="J300" s="13"/>
-      <c r="K300" s="21"/>
+      <c r="K300" s="13"/>
       <c r="L300" s="13"/>
       <c r="M300" s="13"/>
       <c r="N300" s="13"/>
@@ -8733,7 +8644,7 @@
       <c r="H301" s="13"/>
       <c r="I301" s="13"/>
       <c r="J301" s="13"/>
-      <c r="K301" s="21"/>
+      <c r="K301" s="13"/>
       <c r="L301" s="13"/>
       <c r="M301" s="13"/>
       <c r="N301" s="13"/>
@@ -8760,7 +8671,7 @@
       <c r="H302" s="13"/>
       <c r="I302" s="13"/>
       <c r="J302" s="13"/>
-      <c r="K302" s="21"/>
+      <c r="K302" s="13"/>
       <c r="L302" s="13"/>
       <c r="M302" s="13"/>
       <c r="N302" s="13"/>
@@ -8787,7 +8698,7 @@
       <c r="H303" s="13"/>
       <c r="I303" s="13"/>
       <c r="J303" s="13"/>
-      <c r="K303" s="21"/>
+      <c r="K303" s="13"/>
       <c r="L303" s="13"/>
       <c r="M303" s="13"/>
       <c r="N303" s="13"/>
@@ -8814,7 +8725,7 @@
       <c r="H304" s="13"/>
       <c r="I304" s="13"/>
       <c r="J304" s="13"/>
-      <c r="K304" s="21"/>
+      <c r="K304" s="13"/>
       <c r="L304" s="13"/>
       <c r="M304" s="13"/>
       <c r="N304" s="13"/>
@@ -8841,7 +8752,7 @@
       <c r="H305" s="13"/>
       <c r="I305" s="13"/>
       <c r="J305" s="13"/>
-      <c r="K305" s="21"/>
+      <c r="K305" s="13"/>
       <c r="L305" s="13"/>
       <c r="M305" s="13"/>
       <c r="N305" s="13"/>
@@ -8868,7 +8779,7 @@
       <c r="H306" s="13"/>
       <c r="I306" s="13"/>
       <c r="J306" s="13"/>
-      <c r="K306" s="21"/>
+      <c r="K306" s="13"/>
       <c r="L306" s="13"/>
       <c r="M306" s="13"/>
       <c r="N306" s="13"/>
@@ -8895,7 +8806,7 @@
       <c r="H307" s="13"/>
       <c r="I307" s="13"/>
       <c r="J307" s="13"/>
-      <c r="K307" s="21"/>
+      <c r="K307" s="13"/>
       <c r="L307" s="13"/>
       <c r="M307" s="13"/>
       <c r="N307" s="13"/>
@@ -8922,7 +8833,7 @@
       <c r="H308" s="13"/>
       <c r="I308" s="13"/>
       <c r="J308" s="13"/>
-      <c r="K308" s="21"/>
+      <c r="K308" s="13"/>
       <c r="L308" s="13"/>
       <c r="M308" s="13"/>
       <c r="N308" s="13"/>
@@ -8949,7 +8860,7 @@
       <c r="H309" s="13"/>
       <c r="I309" s="13"/>
       <c r="J309" s="13"/>
-      <c r="K309" s="21"/>
+      <c r="K309" s="13"/>
       <c r="L309" s="13"/>
       <c r="M309" s="13"/>
       <c r="N309" s="13"/>
@@ -8976,7 +8887,7 @@
       <c r="H310" s="13"/>
       <c r="I310" s="13"/>
       <c r="J310" s="13"/>
-      <c r="K310" s="21"/>
+      <c r="K310" s="13"/>
       <c r="L310" s="13"/>
       <c r="M310" s="13"/>
       <c r="N310" s="13"/>
@@ -9003,7 +8914,7 @@
       <c r="H311" s="13"/>
       <c r="I311" s="13"/>
       <c r="J311" s="13"/>
-      <c r="K311" s="21"/>
+      <c r="K311" s="13"/>
       <c r="L311" s="13"/>
       <c r="M311" s="13"/>
       <c r="N311" s="13"/>
@@ -9030,7 +8941,7 @@
       <c r="H312" s="13"/>
       <c r="I312" s="13"/>
       <c r="J312" s="13"/>
-      <c r="K312" s="21"/>
+      <c r="K312" s="13"/>
       <c r="L312" s="13"/>
       <c r="M312" s="13"/>
       <c r="N312" s="13"/>
@@ -9057,7 +8968,7 @@
       <c r="H313" s="13"/>
       <c r="I313" s="13"/>
       <c r="J313" s="13"/>
-      <c r="K313" s="21"/>
+      <c r="K313" s="13"/>
       <c r="L313" s="13"/>
       <c r="M313" s="13"/>
       <c r="N313" s="13"/>
@@ -9084,7 +8995,7 @@
       <c r="H314" s="13"/>
       <c r="I314" s="13"/>
       <c r="J314" s="13"/>
-      <c r="K314" s="21"/>
+      <c r="K314" s="13"/>
       <c r="L314" s="13"/>
       <c r="M314" s="13"/>
       <c r="N314" s="13"/>
@@ -9111,7 +9022,7 @@
       <c r="H315" s="13"/>
       <c r="I315" s="13"/>
       <c r="J315" s="13"/>
-      <c r="K315" s="21"/>
+      <c r="K315" s="13"/>
       <c r="L315" s="13"/>
       <c r="M315" s="13"/>
       <c r="N315" s="13"/>
@@ -9138,7 +9049,7 @@
       <c r="H316" s="13"/>
       <c r="I316" s="13"/>
       <c r="J316" s="13"/>
-      <c r="K316" s="21"/>
+      <c r="K316" s="13"/>
       <c r="L316" s="13"/>
       <c r="M316" s="13"/>
       <c r="N316" s="13"/>
@@ -9165,7 +9076,7 @@
       <c r="H317" s="13"/>
       <c r="I317" s="13"/>
       <c r="J317" s="13"/>
-      <c r="K317" s="21"/>
+      <c r="K317" s="13"/>
       <c r="L317" s="13"/>
       <c r="M317" s="13"/>
       <c r="N317" s="13"/>
@@ -9192,7 +9103,7 @@
       <c r="H318" s="13"/>
       <c r="I318" s="13"/>
       <c r="J318" s="13"/>
-      <c r="K318" s="21"/>
+      <c r="K318" s="13"/>
       <c r="L318" s="13"/>
       <c r="M318" s="13"/>
       <c r="N318" s="13"/>
@@ -9219,7 +9130,7 @@
       <c r="H319" s="13"/>
       <c r="I319" s="13"/>
       <c r="J319" s="13"/>
-      <c r="K319" s="21"/>
+      <c r="K319" s="13"/>
       <c r="L319" s="13"/>
       <c r="M319" s="13"/>
       <c r="N319" s="13"/>
@@ -9246,7 +9157,7 @@
       <c r="H320" s="13"/>
       <c r="I320" s="13"/>
       <c r="J320" s="13"/>
-      <c r="K320" s="21"/>
+      <c r="K320" s="13"/>
       <c r="L320" s="13"/>
       <c r="M320" s="13"/>
       <c r="N320" s="13"/>
@@ -9273,7 +9184,7 @@
       <c r="H321" s="13"/>
       <c r="I321" s="13"/>
       <c r="J321" s="13"/>
-      <c r="K321" s="21"/>
+      <c r="K321" s="13"/>
       <c r="L321" s="13"/>
       <c r="M321" s="13"/>
       <c r="N321" s="13"/>
@@ -9300,7 +9211,7 @@
       <c r="H322" s="13"/>
       <c r="I322" s="13"/>
       <c r="J322" s="13"/>
-      <c r="K322" s="21"/>
+      <c r="K322" s="13"/>
       <c r="L322" s="13"/>
       <c r="M322" s="13"/>
       <c r="N322" s="13"/>
@@ -9327,7 +9238,7 @@
       <c r="H323" s="13"/>
       <c r="I323" s="13"/>
       <c r="J323" s="13"/>
-      <c r="K323" s="21"/>
+      <c r="K323" s="13"/>
       <c r="L323" s="13"/>
       <c r="M323" s="13"/>
       <c r="N323" s="13"/>
@@ -9354,7 +9265,7 @@
       <c r="H324" s="13"/>
       <c r="I324" s="13"/>
       <c r="J324" s="13"/>
-      <c r="K324" s="21"/>
+      <c r="K324" s="13"/>
       <c r="L324" s="13"/>
       <c r="M324" s="13"/>
       <c r="N324" s="13"/>
@@ -9381,7 +9292,7 @@
       <c r="H325" s="13"/>
       <c r="I325" s="13"/>
       <c r="J325" s="13"/>
-      <c r="K325" s="21"/>
+      <c r="K325" s="13"/>
       <c r="L325" s="13"/>
       <c r="M325" s="13"/>
       <c r="N325" s="13"/>
@@ -9408,7 +9319,7 @@
       <c r="H326" s="13"/>
       <c r="I326" s="13"/>
       <c r="J326" s="13"/>
-      <c r="K326" s="21"/>
+      <c r="K326" s="13"/>
       <c r="L326" s="13"/>
       <c r="M326" s="13"/>
       <c r="N326" s="13"/>
@@ -9435,7 +9346,7 @@
       <c r="H327" s="13"/>
       <c r="I327" s="13"/>
       <c r="J327" s="13"/>
-      <c r="K327" s="21"/>
+      <c r="K327" s="13"/>
       <c r="L327" s="13"/>
       <c r="M327" s="13"/>
       <c r="N327" s="13"/>
@@ -9462,7 +9373,7 @@
       <c r="H328" s="13"/>
       <c r="I328" s="13"/>
       <c r="J328" s="13"/>
-      <c r="K328" s="21"/>
+      <c r="K328" s="13"/>
       <c r="L328" s="13"/>
       <c r="M328" s="13"/>
       <c r="N328" s="13"/>
@@ -9489,7 +9400,7 @@
       <c r="H329" s="13"/>
       <c r="I329" s="13"/>
       <c r="J329" s="13"/>
-      <c r="K329" s="21"/>
+      <c r="K329" s="13"/>
       <c r="L329" s="13"/>
       <c r="M329" s="13"/>
       <c r="N329" s="13"/>
@@ -9516,7 +9427,7 @@
       <c r="H330" s="13"/>
       <c r="I330" s="13"/>
       <c r="J330" s="13"/>
-      <c r="K330" s="21"/>
+      <c r="K330" s="13"/>
       <c r="L330" s="13"/>
       <c r="M330" s="13"/>
       <c r="N330" s="13"/>
@@ -9543,7 +9454,7 @@
       <c r="H331" s="13"/>
       <c r="I331" s="13"/>
       <c r="J331" s="13"/>
-      <c r="K331" s="21"/>
+      <c r="K331" s="13"/>
       <c r="L331" s="13"/>
       <c r="M331" s="13"/>
       <c r="N331" s="13"/>
@@ -9570,7 +9481,7 @@
       <c r="H332" s="13"/>
       <c r="I332" s="13"/>
       <c r="J332" s="13"/>
-      <c r="K332" s="21"/>
+      <c r="K332" s="13"/>
       <c r="L332" s="13"/>
       <c r="M332" s="13"/>
       <c r="N332" s="13"/>
@@ -9597,7 +9508,7 @@
       <c r="H333" s="13"/>
       <c r="I333" s="13"/>
       <c r="J333" s="13"/>
-      <c r="K333" s="21"/>
+      <c r="K333" s="13"/>
       <c r="L333" s="13"/>
       <c r="M333" s="13"/>
       <c r="N333" s="13"/>
@@ -9624,7 +9535,7 @@
       <c r="H334" s="13"/>
       <c r="I334" s="13"/>
       <c r="J334" s="13"/>
-      <c r="K334" s="21"/>
+      <c r="K334" s="13"/>
       <c r="L334" s="13"/>
       <c r="M334" s="13"/>
       <c r="N334" s="13"/>
@@ -9651,7 +9562,7 @@
       <c r="H335" s="13"/>
       <c r="I335" s="13"/>
       <c r="J335" s="13"/>
-      <c r="K335" s="21"/>
+      <c r="K335" s="13"/>
       <c r="L335" s="13"/>
       <c r="M335" s="13"/>
       <c r="N335" s="13"/>
@@ -9678,7 +9589,7 @@
       <c r="H336" s="13"/>
       <c r="I336" s="13"/>
       <c r="J336" s="13"/>
-      <c r="K336" s="21"/>
+      <c r="K336" s="13"/>
       <c r="L336" s="13"/>
       <c r="M336" s="13"/>
       <c r="N336" s="13"/>
@@ -9705,7 +9616,7 @@
       <c r="H337" s="13"/>
       <c r="I337" s="13"/>
       <c r="J337" s="13"/>
-      <c r="K337" s="21"/>
+      <c r="K337" s="13"/>
       <c r="L337" s="13"/>
       <c r="M337" s="13"/>
       <c r="N337" s="13"/>
@@ -9732,7 +9643,7 @@
       <c r="H338" s="13"/>
       <c r="I338" s="13"/>
       <c r="J338" s="13"/>
-      <c r="K338" s="21"/>
+      <c r="K338" s="13"/>
       <c r="L338" s="13"/>
       <c r="M338" s="13"/>
       <c r="N338" s="13"/>
@@ -9759,7 +9670,7 @@
       <c r="H339" s="13"/>
       <c r="I339" s="13"/>
       <c r="J339" s="13"/>
-      <c r="K339" s="21"/>
+      <c r="K339" s="13"/>
       <c r="L339" s="13"/>
       <c r="M339" s="13"/>
       <c r="N339" s="13"/>
@@ -9786,7 +9697,7 @@
       <c r="H340" s="13"/>
       <c r="I340" s="13"/>
       <c r="J340" s="13"/>
-      <c r="K340" s="21"/>
+      <c r="K340" s="13"/>
       <c r="L340" s="13"/>
       <c r="M340" s="13"/>
       <c r="N340" s="13"/>
@@ -9813,7 +9724,7 @@
       <c r="H341" s="13"/>
       <c r="I341" s="13"/>
       <c r="J341" s="13"/>
-      <c r="K341" s="21"/>
+      <c r="K341" s="13"/>
       <c r="L341" s="13"/>
       <c r="M341" s="13"/>
       <c r="N341" s="13"/>
@@ -9840,7 +9751,7 @@
       <c r="H342" s="13"/>
       <c r="I342" s="13"/>
       <c r="J342" s="13"/>
-      <c r="K342" s="21"/>
+      <c r="K342" s="13"/>
       <c r="L342" s="13"/>
       <c r="M342" s="13"/>
       <c r="N342" s="13"/>
@@ -9867,7 +9778,7 @@
       <c r="H343" s="13"/>
       <c r="I343" s="13"/>
       <c r="J343" s="13"/>
-      <c r="K343" s="21"/>
+      <c r="K343" s="13"/>
       <c r="L343" s="13"/>
       <c r="M343" s="13"/>
       <c r="N343" s="13"/>
@@ -9894,7 +9805,7 @@
       <c r="H344" s="13"/>
       <c r="I344" s="13"/>
       <c r="J344" s="13"/>
-      <c r="K344" s="21"/>
+      <c r="K344" s="13"/>
       <c r="L344" s="13"/>
       <c r="M344" s="13"/>
       <c r="N344" s="13"/>
@@ -9921,7 +9832,7 @@
       <c r="H345" s="13"/>
       <c r="I345" s="13"/>
       <c r="J345" s="13"/>
-      <c r="K345" s="21"/>
+      <c r="K345" s="13"/>
       <c r="L345" s="13"/>
       <c r="M345" s="13"/>
       <c r="N345" s="13"/>
@@ -9948,7 +9859,7 @@
       <c r="H346" s="13"/>
       <c r="I346" s="13"/>
       <c r="J346" s="13"/>
-      <c r="K346" s="21"/>
+      <c r="K346" s="13"/>
       <c r="L346" s="13"/>
       <c r="M346" s="13"/>
       <c r="N346" s="13"/>
@@ -9975,7 +9886,7 @@
       <c r="H347" s="13"/>
       <c r="I347" s="13"/>
       <c r="J347" s="13"/>
-      <c r="K347" s="21"/>
+      <c r="K347" s="13"/>
       <c r="L347" s="13"/>
       <c r="M347" s="13"/>
       <c r="N347" s="13"/>
@@ -10002,7 +9913,7 @@
       <c r="H348" s="13"/>
       <c r="I348" s="13"/>
       <c r="J348" s="13"/>
-      <c r="K348" s="21"/>
+      <c r="K348" s="13"/>
       <c r="L348" s="13"/>
       <c r="M348" s="13"/>
       <c r="N348" s="13"/>
@@ -10029,7 +9940,7 @@
       <c r="H349" s="13"/>
       <c r="I349" s="13"/>
       <c r="J349" s="13"/>
-      <c r="K349" s="21"/>
+      <c r="K349" s="13"/>
       <c r="L349" s="13"/>
       <c r="M349" s="13"/>
       <c r="N349" s="13"/>
@@ -10056,7 +9967,7 @@
       <c r="H350" s="13"/>
       <c r="I350" s="13"/>
       <c r="J350" s="13"/>
-      <c r="K350" s="21"/>
+      <c r="K350" s="13"/>
       <c r="L350" s="13"/>
       <c r="M350" s="13"/>
       <c r="N350" s="13"/>
@@ -10083,7 +9994,7 @@
       <c r="H351" s="13"/>
       <c r="I351" s="13"/>
       <c r="J351" s="13"/>
-      <c r="K351" s="21"/>
+      <c r="K351" s="13"/>
       <c r="L351" s="13"/>
       <c r="M351" s="13"/>
       <c r="N351" s="13"/>
@@ -10110,7 +10021,7 @@
       <c r="H352" s="13"/>
       <c r="I352" s="13"/>
       <c r="J352" s="13"/>
-      <c r="K352" s="21"/>
+      <c r="K352" s="13"/>
       <c r="L352" s="13"/>
       <c r="M352" s="13"/>
       <c r="N352" s="13"/>
@@ -10137,7 +10048,7 @@
       <c r="H353" s="13"/>
       <c r="I353" s="13"/>
       <c r="J353" s="13"/>
-      <c r="K353" s="21"/>
+      <c r="K353" s="13"/>
       <c r="L353" s="13"/>
       <c r="M353" s="13"/>
       <c r="N353" s="13"/>
@@ -10164,7 +10075,7 @@
       <c r="H354" s="13"/>
       <c r="I354" s="13"/>
       <c r="J354" s="13"/>
-      <c r="K354" s="21"/>
+      <c r="K354" s="13"/>
       <c r="L354" s="13"/>
       <c r="M354" s="13"/>
       <c r="N354" s="13"/>
@@ -10191,7 +10102,7 @@
       <c r="H355" s="13"/>
       <c r="I355" s="13"/>
       <c r="J355" s="13"/>
-      <c r="K355" s="21"/>
+      <c r="K355" s="13"/>
       <c r="L355" s="13"/>
       <c r="M355" s="13"/>
       <c r="N355" s="13"/>
@@ -10218,7 +10129,7 @@
       <c r="H356" s="13"/>
       <c r="I356" s="13"/>
       <c r="J356" s="13"/>
-      <c r="K356" s="21"/>
+      <c r="K356" s="13"/>
       <c r="L356" s="13"/>
       <c r="M356" s="13"/>
       <c r="N356" s="13"/>
@@ -10245,7 +10156,7 @@
       <c r="H357" s="13"/>
       <c r="I357" s="13"/>
       <c r="J357" s="13"/>
-      <c r="K357" s="21"/>
+      <c r="K357" s="13"/>
       <c r="L357" s="13"/>
       <c r="M357" s="13"/>
       <c r="N357" s="13"/>
@@ -10272,7 +10183,7 @@
       <c r="H358" s="13"/>
       <c r="I358" s="13"/>
       <c r="J358" s="13"/>
-      <c r="K358" s="21"/>
+      <c r="K358" s="13"/>
       <c r="L358" s="13"/>
       <c r="M358" s="13"/>
       <c r="N358" s="13"/>
@@ -10299,7 +10210,7 @@
       <c r="H359" s="13"/>
       <c r="I359" s="13"/>
       <c r="J359" s="13"/>
-      <c r="K359" s="21"/>
+      <c r="K359" s="13"/>
       <c r="L359" s="13"/>
       <c r="M359" s="13"/>
       <c r="N359" s="13"/>
@@ -10326,7 +10237,7 @@
       <c r="H360" s="13"/>
       <c r="I360" s="13"/>
       <c r="J360" s="13"/>
-      <c r="K360" s="21"/>
+      <c r="K360" s="13"/>
       <c r="L360" s="13"/>
       <c r="M360" s="13"/>
       <c r="N360" s="13"/>
@@ -10353,7 +10264,7 @@
       <c r="H361" s="13"/>
       <c r="I361" s="13"/>
       <c r="J361" s="13"/>
-      <c r="K361" s="21"/>
+      <c r="K361" s="13"/>
       <c r="L361" s="13"/>
       <c r="M361" s="13"/>
       <c r="N361" s="13"/>
@@ -10380,7 +10291,7 @@
       <c r="H362" s="13"/>
       <c r="I362" s="13"/>
       <c r="J362" s="13"/>
-      <c r="K362" s="21"/>
+      <c r="K362" s="13"/>
       <c r="L362" s="13"/>
       <c r="M362" s="13"/>
       <c r="N362" s="13"/>
@@ -10407,7 +10318,7 @@
       <c r="H363" s="13"/>
       <c r="I363" s="13"/>
       <c r="J363" s="13"/>
-      <c r="K363" s="21"/>
+      <c r="K363" s="13"/>
       <c r="L363" s="13"/>
       <c r="M363" s="13"/>
       <c r="N363" s="13"/>
@@ -10434,7 +10345,7 @@
       <c r="H364" s="13"/>
       <c r="I364" s="13"/>
       <c r="J364" s="13"/>
-      <c r="K364" s="21"/>
+      <c r="K364" s="13"/>
       <c r="L364" s="13"/>
       <c r="M364" s="13"/>
       <c r="N364" s="13"/>
@@ -10461,7 +10372,7 @@
       <c r="H365" s="13"/>
       <c r="I365" s="13"/>
       <c r="J365" s="13"/>
-      <c r="K365" s="21"/>
+      <c r="K365" s="13"/>
       <c r="L365" s="13"/>
       <c r="M365" s="13"/>
       <c r="N365" s="13"/>
@@ -10488,7 +10399,7 @@
       <c r="H366" s="13"/>
       <c r="I366" s="13"/>
       <c r="J366" s="13"/>
-      <c r="K366" s="21"/>
+      <c r="K366" s="13"/>
       <c r="L366" s="13"/>
       <c r="M366" s="13"/>
       <c r="N366" s="13"/>
@@ -10515,7 +10426,7 @@
       <c r="H367" s="13"/>
       <c r="I367" s="13"/>
       <c r="J367" s="13"/>
-      <c r="K367" s="21"/>
+      <c r="K367" s="13"/>
       <c r="L367" s="13"/>
       <c r="M367" s="13"/>
       <c r="N367" s="13"/>
@@ -10542,7 +10453,7 @@
       <c r="H368" s="13"/>
       <c r="I368" s="13"/>
       <c r="J368" s="13"/>
-      <c r="K368" s="21"/>
+      <c r="K368" s="13"/>
       <c r="L368" s="13"/>
       <c r="M368" s="13"/>
       <c r="N368" s="13"/>
@@ -10569,7 +10480,7 @@
       <c r="H369" s="13"/>
       <c r="I369" s="13"/>
       <c r="J369" s="13"/>
-      <c r="K369" s="21"/>
+      <c r="K369" s="13"/>
       <c r="L369" s="13"/>
       <c r="M369" s="13"/>
       <c r="N369" s="13"/>
@@ -10596,7 +10507,7 @@
       <c r="H370" s="13"/>
       <c r="I370" s="13"/>
       <c r="J370" s="13"/>
-      <c r="K370" s="21"/>
+      <c r="K370" s="13"/>
       <c r="L370" s="13"/>
       <c r="M370" s="13"/>
       <c r="N370" s="13"/>
@@ -10623,7 +10534,7 @@
       <c r="H371" s="13"/>
       <c r="I371" s="13"/>
       <c r="J371" s="13"/>
-      <c r="K371" s="21"/>
+      <c r="K371" s="13"/>
       <c r="L371" s="13"/>
       <c r="M371" s="13"/>
       <c r="N371" s="13"/>
@@ -10650,7 +10561,7 @@
       <c r="H372" s="13"/>
       <c r="I372" s="13"/>
       <c r="J372" s="13"/>
-      <c r="K372" s="21"/>
+      <c r="K372" s="13"/>
       <c r="L372" s="13"/>
       <c r="M372" s="13"/>
       <c r="N372" s="13"/>
@@ -10677,7 +10588,7 @@
       <c r="H373" s="13"/>
       <c r="I373" s="13"/>
       <c r="J373" s="13"/>
-      <c r="K373" s="21"/>
+      <c r="K373" s="13"/>
       <c r="L373" s="13"/>
       <c r="M373" s="13"/>
       <c r="N373" s="13"/>
@@ -10704,7 +10615,7 @@
       <c r="H374" s="13"/>
       <c r="I374" s="13"/>
       <c r="J374" s="13"/>
-      <c r="K374" s="21"/>
+      <c r="K374" s="13"/>
       <c r="L374" s="13"/>
       <c r="M374" s="13"/>
       <c r="N374" s="13"/>
@@ -10731,7 +10642,7 @@
       <c r="H375" s="13"/>
       <c r="I375" s="13"/>
       <c r="J375" s="13"/>
-      <c r="K375" s="21"/>
+      <c r="K375" s="13"/>
       <c r="L375" s="13"/>
       <c r="M375" s="13"/>
       <c r="N375" s="13"/>
@@ -10758,7 +10669,7 @@
       <c r="H376" s="13"/>
       <c r="I376" s="13"/>
       <c r="J376" s="13"/>
-      <c r="K376" s="21"/>
+      <c r="K376" s="13"/>
       <c r="L376" s="13"/>
       <c r="M376" s="13"/>
       <c r="N376" s="13"/>
@@ -10785,7 +10696,7 @@
       <c r="H377" s="13"/>
       <c r="I377" s="13"/>
       <c r="J377" s="13"/>
-      <c r="K377" s="21"/>
+      <c r="K377" s="13"/>
       <c r="L377" s="13"/>
       <c r="M377" s="13"/>
       <c r="N377" s="13"/>
@@ -10812,7 +10723,7 @@
       <c r="H378" s="13"/>
       <c r="I378" s="13"/>
       <c r="J378" s="13"/>
-      <c r="K378" s="21"/>
+      <c r="K378" s="13"/>
       <c r="L378" s="13"/>
       <c r="M378" s="13"/>
       <c r="N378" s="13"/>
@@ -10839,7 +10750,7 @@
       <c r="H379" s="13"/>
       <c r="I379" s="13"/>
       <c r="J379" s="13"/>
-      <c r="K379" s="21"/>
+      <c r="K379" s="13"/>
       <c r="L379" s="13"/>
       <c r="M379" s="13"/>
       <c r="N379" s="13"/>
@@ -10866,7 +10777,7 @@
       <c r="H380" s="13"/>
       <c r="I380" s="13"/>
       <c r="J380" s="13"/>
-      <c r="K380" s="21"/>
+      <c r="K380" s="13"/>
       <c r="L380" s="13"/>
       <c r="M380" s="13"/>
       <c r="N380" s="13"/>
@@ -10893,7 +10804,7 @@
       <c r="H381" s="13"/>
       <c r="I381" s="13"/>
       <c r="J381" s="13"/>
-      <c r="K381" s="21"/>
+      <c r="K381" s="13"/>
       <c r="L381" s="13"/>
       <c r="M381" s="13"/>
       <c r="N381" s="13"/>
@@ -10920,7 +10831,7 @@
       <c r="H382" s="13"/>
       <c r="I382" s="13"/>
       <c r="J382" s="13"/>
-      <c r="K382" s="21"/>
+      <c r="K382" s="13"/>
       <c r="L382" s="13"/>
       <c r="M382" s="13"/>
       <c r="N382" s="13"/>
@@ -10947,7 +10858,7 @@
       <c r="H383" s="13"/>
       <c r="I383" s="13"/>
       <c r="J383" s="13"/>
-      <c r="K383" s="21"/>
+      <c r="K383" s="13"/>
       <c r="L383" s="13"/>
       <c r="M383" s="13"/>
       <c r="N383" s="13"/>
@@ -10974,7 +10885,7 @@
       <c r="H384" s="13"/>
       <c r="I384" s="13"/>
       <c r="J384" s="13"/>
-      <c r="K384" s="21"/>
+      <c r="K384" s="13"/>
       <c r="L384" s="13"/>
       <c r="M384" s="13"/>
       <c r="N384" s="13"/>
@@ -11001,7 +10912,7 @@
       <c r="H385" s="13"/>
       <c r="I385" s="13"/>
       <c r="J385" s="13"/>
-      <c r="K385" s="21"/>
+      <c r="K385" s="13"/>
       <c r="L385" s="13"/>
       <c r="M385" s="13"/>
       <c r="N385" s="13"/>
@@ -11028,7 +10939,7 @@
       <c r="H386" s="13"/>
       <c r="I386" s="13"/>
       <c r="J386" s="13"/>
-      <c r="K386" s="21"/>
+      <c r="K386" s="13"/>
       <c r="L386" s="13"/>
       <c r="M386" s="13"/>
       <c r="N386" s="13"/>
@@ -11055,7 +10966,7 @@
       <c r="H387" s="13"/>
       <c r="I387" s="13"/>
       <c r="J387" s="13"/>
-      <c r="K387" s="21"/>
+      <c r="K387" s="13"/>
       <c r="L387" s="13"/>
       <c r="M387" s="13"/>
       <c r="N387" s="13"/>
@@ -11082,7 +10993,7 @@
       <c r="H388" s="13"/>
       <c r="I388" s="13"/>
       <c r="J388" s="13"/>
-      <c r="K388" s="21"/>
+      <c r="K388" s="13"/>
       <c r="L388" s="13"/>
       <c r="M388" s="13"/>
       <c r="N388" s="13"/>
@@ -11109,7 +11020,7 @@
       <c r="H389" s="13"/>
       <c r="I389" s="13"/>
       <c r="J389" s="13"/>
-      <c r="K389" s="21"/>
+      <c r="K389" s="13"/>
       <c r="L389" s="13"/>
       <c r="M389" s="13"/>
       <c r="N389" s="13"/>
@@ -11136,7 +11047,7 @@
       <c r="H390" s="13"/>
       <c r="I390" s="13"/>
       <c r="J390" s="13"/>
-      <c r="K390" s="21"/>
+      <c r="K390" s="13"/>
       <c r="L390" s="13"/>
       <c r="M390" s="13"/>
       <c r="N390" s="13"/>
@@ -11163,7 +11074,7 @@
       <c r="H391" s="13"/>
       <c r="I391" s="13"/>
       <c r="J391" s="13"/>
-      <c r="K391" s="21"/>
+      <c r="K391" s="13"/>
       <c r="L391" s="13"/>
       <c r="M391" s="13"/>
       <c r="N391" s="13"/>
@@ -11190,7 +11101,7 @@
       <c r="H392" s="13"/>
       <c r="I392" s="13"/>
       <c r="J392" s="13"/>
-      <c r="K392" s="21"/>
+      <c r="K392" s="13"/>
       <c r="L392" s="13"/>
       <c r="M392" s="13"/>
       <c r="N392" s="13"/>
@@ -11217,7 +11128,7 @@
       <c r="H393" s="13"/>
       <c r="I393" s="13"/>
       <c r="J393" s="13"/>
-      <c r="K393" s="21"/>
+      <c r="K393" s="13"/>
       <c r="L393" s="13"/>
       <c r="M393" s="13"/>
       <c r="N393" s="13"/>
@@ -11244,7 +11155,7 @@
       <c r="H394" s="13"/>
       <c r="I394" s="13"/>
       <c r="J394" s="13"/>
-      <c r="K394" s="21"/>
+      <c r="K394" s="13"/>
       <c r="L394" s="13"/>
       <c r="M394" s="13"/>
       <c r="N394" s="13"/>
@@ -11271,7 +11182,7 @@
       <c r="H395" s="13"/>
       <c r="I395" s="13"/>
       <c r="J395" s="13"/>
-      <c r="K395" s="21"/>
+      <c r="K395" s="13"/>
       <c r="L395" s="13"/>
       <c r="M395" s="13"/>
       <c r="N395" s="13"/>
@@ -11298,7 +11209,7 @@
       <c r="H396" s="13"/>
       <c r="I396" s="13"/>
       <c r="J396" s="13"/>
-      <c r="K396" s="21"/>
+      <c r="K396" s="13"/>
       <c r="L396" s="13"/>
       <c r="M396" s="13"/>
       <c r="N396" s="13"/>
@@ -11325,7 +11236,7 @@
       <c r="H397" s="13"/>
       <c r="I397" s="13"/>
       <c r="J397" s="13"/>
-      <c r="K397" s="21"/>
+      <c r="K397" s="13"/>
       <c r="L397" s="13"/>
       <c r="M397" s="13"/>
       <c r="N397" s="13"/>
@@ -11352,7 +11263,7 @@
       <c r="H398" s="13"/>
       <c r="I398" s="13"/>
       <c r="J398" s="13"/>
-      <c r="K398" s="21"/>
+      <c r="K398" s="13"/>
       <c r="L398" s="13"/>
       <c r="M398" s="13"/>
       <c r="N398" s="13"/>
@@ -11379,7 +11290,7 @@
       <c r="H399" s="13"/>
       <c r="I399" s="13"/>
       <c r="J399" s="13"/>
-      <c r="K399" s="21"/>
+      <c r="K399" s="13"/>
       <c r="L399" s="13"/>
       <c r="M399" s="13"/>
       <c r="N399" s="13"/>
@@ -11406,7 +11317,7 @@
       <c r="H400" s="13"/>
       <c r="I400" s="13"/>
       <c r="J400" s="13"/>
-      <c r="K400" s="21"/>
+      <c r="K400" s="13"/>
       <c r="L400" s="13"/>
       <c r="M400" s="13"/>
       <c r="N400" s="13"/>
@@ -11433,7 +11344,7 @@
       <c r="H401" s="13"/>
       <c r="I401" s="13"/>
       <c r="J401" s="13"/>
-      <c r="K401" s="21"/>
+      <c r="K401" s="13"/>
       <c r="L401" s="13"/>
       <c r="M401" s="13"/>
       <c r="N401" s="13"/>
@@ -11460,7 +11371,7 @@
       <c r="H402" s="13"/>
       <c r="I402" s="13"/>
       <c r="J402" s="13"/>
-      <c r="K402" s="21"/>
+      <c r="K402" s="13"/>
       <c r="L402" s="13"/>
       <c r="M402" s="13"/>
       <c r="N402" s="13"/>
@@ -11487,7 +11398,7 @@
       <c r="H403" s="13"/>
       <c r="I403" s="13"/>
       <c r="J403" s="13"/>
-      <c r="K403" s="21"/>
+      <c r="K403" s="13"/>
       <c r="L403" s="13"/>
       <c r="M403" s="13"/>
       <c r="N403" s="13"/>
@@ -11514,7 +11425,7 @@
       <c r="H404" s="13"/>
       <c r="I404" s="13"/>
       <c r="J404" s="13"/>
-      <c r="K404" s="21"/>
+      <c r="K404" s="13"/>
       <c r="L404" s="13"/>
       <c r="M404" s="13"/>
       <c r="N404" s="13"/>
@@ -11541,7 +11452,7 @@
       <c r="H405" s="13"/>
       <c r="I405" s="13"/>
       <c r="J405" s="13"/>
-      <c r="K405" s="21"/>
+      <c r="K405" s="13"/>
       <c r="L405" s="13"/>
       <c r="M405" s="13"/>
       <c r="N405" s="13"/>
@@ -11568,7 +11479,7 @@
       <c r="H406" s="13"/>
       <c r="I406" s="13"/>
       <c r="J406" s="13"/>
-      <c r="K406" s="21"/>
+      <c r="K406" s="13"/>
       <c r="L406" s="13"/>
       <c r="M406" s="13"/>
       <c r="N406" s="13"/>
@@ -11595,7 +11506,7 @@
       <c r="H407" s="13"/>
       <c r="I407" s="13"/>
       <c r="J407" s="13"/>
-      <c r="K407" s="21"/>
+      <c r="K407" s="13"/>
       <c r="L407" s="13"/>
       <c r="M407" s="13"/>
       <c r="N407" s="13"/>
@@ -11622,7 +11533,7 @@
       <c r="H408" s="13"/>
       <c r="I408" s="13"/>
       <c r="J408" s="13"/>
-      <c r="K408" s="21"/>
+      <c r="K408" s="13"/>
       <c r="L408" s="13"/>
       <c r="M408" s="13"/>
       <c r="N408" s="13"/>
@@ -11649,7 +11560,7 @@
       <c r="H409" s="13"/>
       <c r="I409" s="13"/>
       <c r="J409" s="13"/>
-      <c r="K409" s="21"/>
+      <c r="K409" s="13"/>
       <c r="L409" s="13"/>
       <c r="M409" s="13"/>
       <c r="N409" s="13"/>
@@ -11676,7 +11587,7 @@
       <c r="H410" s="13"/>
       <c r="I410" s="13"/>
       <c r="J410" s="13"/>
-      <c r="K410" s="21"/>
+      <c r="K410" s="13"/>
       <c r="L410" s="13"/>
       <c r="M410" s="13"/>
       <c r="N410" s="13"/>
@@ -11703,7 +11614,7 @@
       <c r="H411" s="13"/>
       <c r="I411" s="13"/>
       <c r="J411" s="13"/>
-      <c r="K411" s="21"/>
+      <c r="K411" s="13"/>
       <c r="L411" s="13"/>
       <c r="M411" s="13"/>
       <c r="N411" s="13"/>
@@ -11730,7 +11641,7 @@
       <c r="H412" s="13"/>
       <c r="I412" s="13"/>
       <c r="J412" s="13"/>
-      <c r="K412" s="21"/>
+      <c r="K412" s="13"/>
       <c r="L412" s="13"/>
       <c r="M412" s="13"/>
       <c r="N412" s="13"/>
@@ -11757,7 +11668,7 @@
       <c r="H413" s="13"/>
       <c r="I413" s="13"/>
       <c r="J413" s="13"/>
-      <c r="K413" s="21"/>
+      <c r="K413" s="13"/>
       <c r="L413" s="13"/>
       <c r="M413" s="13"/>
       <c r="N413" s="13"/>
@@ -11784,7 +11695,7 @@
       <c r="H414" s="13"/>
       <c r="I414" s="13"/>
       <c r="J414" s="13"/>
-      <c r="K414" s="21"/>
+      <c r="K414" s="13"/>
       <c r="L414" s="13"/>
       <c r="M414" s="13"/>
       <c r="N414" s="13"/>
@@ -11811,7 +11722,7 @@
       <c r="H415" s="13"/>
       <c r="I415" s="13"/>
       <c r="J415" s="13"/>
-      <c r="K415" s="21"/>
+      <c r="K415" s="13"/>
       <c r="L415" s="13"/>
       <c r="M415" s="13"/>
       <c r="N415" s="13"/>
@@ -11838,7 +11749,7 @@
       <c r="H416" s="13"/>
       <c r="I416" s="13"/>
       <c r="J416" s="13"/>
-      <c r="K416" s="21"/>
+      <c r="K416" s="13"/>
       <c r="L416" s="13"/>
       <c r="M416" s="13"/>
       <c r="N416" s="13"/>
@@ -11865,7 +11776,7 @@
       <c r="H417" s="13"/>
       <c r="I417" s="13"/>
       <c r="J417" s="13"/>
-      <c r="K417" s="21"/>
+      <c r="K417" s="13"/>
       <c r="L417" s="13"/>
       <c r="M417" s="13"/>
       <c r="N417" s="13"/>
@@ -11892,7 +11803,7 @@
       <c r="H418" s="13"/>
       <c r="I418" s="13"/>
       <c r="J418" s="13"/>
-      <c r="K418" s="21"/>
+      <c r="K418" s="13"/>
       <c r="L418" s="13"/>
       <c r="M418" s="13"/>
       <c r="N418" s="13"/>
@@ -11919,7 +11830,7 @@
       <c r="H419" s="13"/>
       <c r="I419" s="13"/>
       <c r="J419" s="13"/>
-      <c r="K419" s="21"/>
+      <c r="K419" s="13"/>
       <c r="L419" s="13"/>
       <c r="M419" s="13"/>
       <c r="N419" s="13"/>
@@ -11946,7 +11857,7 @@
       <c r="H420" s="13"/>
       <c r="I420" s="13"/>
       <c r="J420" s="13"/>
-      <c r="K420" s="21"/>
+      <c r="K420" s="13"/>
       <c r="L420" s="13"/>
       <c r="M420" s="13"/>
       <c r="N420" s="13"/>
@@ -11973,7 +11884,7 @@
       <c r="H421" s="13"/>
       <c r="I421" s="13"/>
       <c r="J421" s="13"/>
-      <c r="K421" s="21"/>
+      <c r="K421" s="13"/>
       <c r="L421" s="13"/>
       <c r="M421" s="13"/>
       <c r="N421" s="13"/>
@@ -12000,7 +11911,7 @@
       <c r="H422" s="13"/>
       <c r="I422" s="13"/>
       <c r="J422" s="13"/>
-      <c r="K422" s="21"/>
+      <c r="K422" s="13"/>
       <c r="L422" s="13"/>
       <c r="M422" s="13"/>
       <c r="N422" s="13"/>
@@ -12027,7 +11938,7 @@
       <c r="H423" s="13"/>
       <c r="I423" s="13"/>
       <c r="J423" s="13"/>
-      <c r="K423" s="21"/>
+      <c r="K423" s="13"/>
       <c r="L423" s="13"/>
       <c r="M423" s="13"/>
       <c r="N423" s="13"/>
@@ -12054,7 +11965,7 @@
       <c r="H424" s="13"/>
       <c r="I424" s="13"/>
       <c r="J424" s="13"/>
-      <c r="K424" s="21"/>
+      <c r="K424" s="13"/>
       <c r="L424" s="13"/>
       <c r="M424" s="13"/>
       <c r="N424" s="13"/>
@@ -12081,7 +11992,7 @@
       <c r="H425" s="13"/>
       <c r="I425" s="13"/>
       <c r="J425" s="13"/>
-      <c r="K425" s="21"/>
+      <c r="K425" s="13"/>
       <c r="L425" s="13"/>
       <c r="M425" s="13"/>
       <c r="N425" s="13"/>
@@ -12108,7 +12019,7 @@
       <c r="H426" s="13"/>
       <c r="I426" s="13"/>
       <c r="J426" s="13"/>
-      <c r="K426" s="21"/>
+      <c r="K426" s="13"/>
       <c r="L426" s="13"/>
       <c r="M426" s="13"/>
       <c r="N426" s="13"/>
@@ -12135,7 +12046,7 @@
       <c r="H427" s="13"/>
       <c r="I427" s="13"/>
       <c r="J427" s="13"/>
-      <c r="K427" s="21"/>
+      <c r="K427" s="13"/>
       <c r="L427" s="13"/>
       <c r="M427" s="13"/>
       <c r="N427" s="13"/>
@@ -12162,7 +12073,7 @@
       <c r="H428" s="13"/>
       <c r="I428" s="13"/>
       <c r="J428" s="13"/>
-      <c r="K428" s="21"/>
+      <c r="K428" s="13"/>
       <c r="L428" s="13"/>
       <c r="M428" s="13"/>
       <c r="N428" s="13"/>
@@ -12189,7 +12100,7 @@
       <c r="H429" s="13"/>
       <c r="I429" s="13"/>
       <c r="J429" s="13"/>
-      <c r="K429" s="21"/>
+      <c r="K429" s="13"/>
       <c r="L429" s="13"/>
       <c r="M429" s="13"/>
       <c r="N429" s="13"/>
@@ -12216,7 +12127,7 @@
       <c r="H430" s="13"/>
       <c r="I430" s="13"/>
       <c r="J430" s="13"/>
-      <c r="K430" s="21"/>
+      <c r="K430" s="13"/>
       <c r="L430" s="13"/>
       <c r="M430" s="13"/>
       <c r="N430" s="13"/>
@@ -12243,7 +12154,7 @@
       <c r="H431" s="13"/>
       <c r="I431" s="13"/>
       <c r="J431" s="13"/>
-      <c r="K431" s="21"/>
+      <c r="K431" s="13"/>
       <c r="L431" s="13"/>
       <c r="M431" s="13"/>
       <c r="N431" s="13"/>
@@ -12270,7 +12181,7 @@
       <c r="H432" s="13"/>
       <c r="I432" s="13"/>
       <c r="J432" s="13"/>
-      <c r="K432" s="21"/>
+      <c r="K432" s="13"/>
       <c r="L432" s="13"/>
       <c r="M432" s="13"/>
       <c r="N432" s="13"/>
@@ -12297,7 +12208,7 @@
       <c r="H433" s="13"/>
       <c r="I433" s="13"/>
       <c r="J433" s="13"/>
-      <c r="K433" s="21"/>
+      <c r="K433" s="13"/>
       <c r="L433" s="13"/>
       <c r="M433" s="13"/>
       <c r="N433" s="13"/>
@@ -12324,7 +12235,7 @@
       <c r="H434" s="13"/>
       <c r="I434" s="13"/>
       <c r="J434" s="13"/>
-      <c r="K434" s="21"/>
+      <c r="K434" s="13"/>
       <c r="L434" s="13"/>
       <c r="M434" s="13"/>
       <c r="N434" s="13"/>
@@ -12351,7 +12262,7 @@
       <c r="H435" s="13"/>
       <c r="I435" s="13"/>
       <c r="J435" s="13"/>
-      <c r="K435" s="21"/>
+      <c r="K435" s="13"/>
       <c r="L435" s="13"/>
       <c r="M435" s="13"/>
       <c r="N435" s="13"/>
@@ -12378,7 +12289,7 @@
       <c r="H436" s="13"/>
       <c r="I436" s="13"/>
       <c r="J436" s="13"/>
-      <c r="K436" s="21"/>
+      <c r="K436" s="13"/>
       <c r="L436" s="13"/>
       <c r="M436" s="13"/>
       <c r="N436" s="13"/>
@@ -12405,7 +12316,7 @@
       <c r="H437" s="13"/>
       <c r="I437" s="13"/>
       <c r="J437" s="13"/>
-      <c r="K437" s="21"/>
+      <c r="K437" s="13"/>
       <c r="L437" s="13"/>
       <c r="M437" s="13"/>
       <c r="N437" s="13"/>
@@ -12432,7 +12343,7 @@
       <c r="H438" s="13"/>
       <c r="I438" s="13"/>
       <c r="J438" s="13"/>
-      <c r="K438" s="21"/>
+      <c r="K438" s="13"/>
       <c r="L438" s="13"/>
       <c r="M438" s="13"/>
       <c r="N438" s="13"/>
@@ -12459,7 +12370,7 @@
       <c r="H439" s="13"/>
       <c r="I439" s="13"/>
       <c r="J439" s="13"/>
-      <c r="K439" s="21"/>
+      <c r="K439" s="13"/>
       <c r="L439" s="13"/>
       <c r="M439" s="13"/>
       <c r="N439" s="13"/>
@@ -12486,7 +12397,7 @@
       <c r="H440" s="13"/>
       <c r="I440" s="13"/>
       <c r="J440" s="13"/>
-      <c r="K440" s="21"/>
+      <c r="K440" s="13"/>
       <c r="L440" s="13"/>
       <c r="M440" s="13"/>
       <c r="N440" s="13"/>
@@ -12513,7 +12424,7 @@
       <c r="H441" s="13"/>
       <c r="I441" s="13"/>
       <c r="J441" s="13"/>
-      <c r="K441" s="21"/>
+      <c r="K441" s="13"/>
       <c r="L441" s="13"/>
       <c r="M441" s="13"/>
       <c r="N441" s="13"/>
@@ -12540,7 +12451,7 @@
       <c r="H442" s="13"/>
       <c r="I442" s="13"/>
       <c r="J442" s="13"/>
-      <c r="K442" s="21"/>
+      <c r="K442" s="13"/>
       <c r="L442" s="13"/>
       <c r="M442" s="13"/>
       <c r="N442" s="13"/>
@@ -12567,7 +12478,7 @@
       <c r="H443" s="13"/>
       <c r="I443" s="13"/>
       <c r="J443" s="13"/>
-      <c r="K443" s="21"/>
+      <c r="K443" s="13"/>
       <c r="L443" s="13"/>
       <c r="M443" s="13"/>
       <c r="N443" s="13"/>
@@ -12594,7 +12505,7 @@
       <c r="H444" s="13"/>
       <c r="I444" s="13"/>
       <c r="J444" s="13"/>
-      <c r="K444" s="21"/>
+      <c r="K444" s="13"/>
       <c r="L444" s="13"/>
       <c r="M444" s="13"/>
       <c r="N444" s="13"/>
@@ -12621,7 +12532,7 @@
       <c r="H445" s="13"/>
       <c r="I445" s="13"/>
       <c r="J445" s="13"/>
-      <c r="K445" s="21"/>
+      <c r="K445" s="13"/>
       <c r="L445" s="13"/>
       <c r="M445" s="13"/>
       <c r="N445" s="13"/>
@@ -12648,7 +12559,7 @@
       <c r="H446" s="13"/>
       <c r="I446" s="13"/>
       <c r="J446" s="13"/>
-      <c r="K446" s="21"/>
+      <c r="K446" s="13"/>
       <c r="L446" s="13"/>
       <c r="M446" s="13"/>
       <c r="N446" s="13"/>
@@ -12675,7 +12586,7 @@
       <c r="H447" s="13"/>
       <c r="I447" s="13"/>
       <c r="J447" s="13"/>
-      <c r="K447" s="21"/>
+      <c r="K447" s="13"/>
       <c r="L447" s="13"/>
       <c r="M447" s="13"/>
       <c r="N447" s="13"/>
@@ -12702,7 +12613,7 @@
       <c r="H448" s="13"/>
       <c r="I448" s="13"/>
       <c r="J448" s="13"/>
-      <c r="K448" s="21"/>
+      <c r="K448" s="13"/>
       <c r="L448" s="13"/>
       <c r="M448" s="13"/>
       <c r="N448" s="13"/>
@@ -12729,7 +12640,7 @@
       <c r="H449" s="13"/>
       <c r="I449" s="13"/>
       <c r="J449" s="13"/>
-      <c r="K449" s="21"/>
+      <c r="K449" s="13"/>
       <c r="L449" s="13"/>
       <c r="M449" s="13"/>
       <c r="N449" s="13"/>
@@ -12756,7 +12667,7 @@
       <c r="H450" s="13"/>
       <c r="I450" s="13"/>
       <c r="J450" s="13"/>
-      <c r="K450" s="21"/>
+      <c r="K450" s="13"/>
       <c r="L450" s="13"/>
       <c r="M450" s="13"/>
       <c r="N450" s="13"/>
@@ -12783,7 +12694,7 @@
       <c r="H451" s="13"/>
       <c r="I451" s="13"/>
       <c r="J451" s="13"/>
-      <c r="K451" s="21"/>
+      <c r="K451" s="13"/>
       <c r="L451" s="13"/>
       <c r="M451" s="13"/>
       <c r="N451" s="13"/>
@@ -12810,7 +12721,7 @@
       <c r="H452" s="13"/>
       <c r="I452" s="13"/>
       <c r="J452" s="13"/>
-      <c r="K452" s="21"/>
+      <c r="K452" s="13"/>
       <c r="L452" s="13"/>
       <c r="M452" s="13"/>
       <c r="N452" s="13"/>
@@ -12837,7 +12748,7 @@
       <c r="H453" s="13"/>
       <c r="I453" s="13"/>
       <c r="J453" s="13"/>
-      <c r="K453" s="21"/>
+      <c r="K453" s="13"/>
       <c r="L453" s="13"/>
       <c r="M453" s="13"/>
       <c r="N453" s="13"/>
@@ -12864,7 +12775,7 @@
       <c r="H454" s="13"/>
       <c r="I454" s="13"/>
       <c r="J454" s="13"/>
-      <c r="K454" s="21"/>
+      <c r="K454" s="13"/>
       <c r="L454" s="13"/>
       <c r="M454" s="13"/>
       <c r="N454" s="13"/>
@@ -12891,7 +12802,7 @@
       <c r="H455" s="13"/>
       <c r="I455" s="13"/>
       <c r="J455" s="13"/>
-      <c r="K455" s="21"/>
+      <c r="K455" s="13"/>
       <c r="L455" s="13"/>
       <c r="M455" s="13"/>
       <c r="N455" s="13"/>
@@ -12918,7 +12829,7 @@
       <c r="H456" s="13"/>
       <c r="I456" s="13"/>
       <c r="J456" s="13"/>
-      <c r="K456" s="21"/>
+      <c r="K456" s="13"/>
       <c r="L456" s="13"/>
       <c r="M456" s="13"/>
       <c r="N456" s="13"/>
@@ -12945,7 +12856,7 @@
       <c r="H457" s="13"/>
       <c r="I457" s="13"/>
       <c r="J457" s="13"/>
-      <c r="K457" s="21"/>
+      <c r="K457" s="13"/>
       <c r="L457" s="13"/>
       <c r="M457" s="13"/>
       <c r="N457" s="13"/>
@@ -12972,7 +12883,7 @@
       <c r="H458" s="13"/>
       <c r="I458" s="13"/>
       <c r="J458" s="13"/>
-      <c r="K458" s="21"/>
+      <c r="K458" s="13"/>
       <c r="L458" s="13"/>
       <c r="M458" s="13"/>
       <c r="N458" s="13"/>
@@ -12999,7 +12910,7 @@
       <c r="H459" s="13"/>
       <c r="I459" s="13"/>
       <c r="J459" s="13"/>
-      <c r="K459" s="21"/>
+      <c r="K459" s="13"/>
       <c r="L459" s="13"/>
       <c r="M459" s="13"/>
       <c r="N459" s="13"/>
@@ -13026,7 +12937,7 @@
       <c r="H460" s="13"/>
       <c r="I460" s="13"/>
       <c r="J460" s="13"/>
-      <c r="K460" s="21"/>
+      <c r="K460" s="13"/>
       <c r="L460" s="13"/>
       <c r="M460" s="13"/>
       <c r="N460" s="13"/>
@@ -13053,7 +12964,7 @@
       <c r="H461" s="13"/>
       <c r="I461" s="13"/>
       <c r="J461" s="13"/>
-      <c r="K461" s="21"/>
+      <c r="K461" s="13"/>
       <c r="L461" s="13"/>
       <c r="M461" s="13"/>
       <c r="N461" s="13"/>
@@ -13080,7 +12991,7 @@
       <c r="H462" s="13"/>
       <c r="I462" s="13"/>
       <c r="J462" s="13"/>
-      <c r="K462" s="21"/>
+      <c r="K462" s="13"/>
       <c r="L462" s="13"/>
       <c r="M462" s="13"/>
       <c r="N462" s="13"/>
@@ -13107,7 +13018,7 @@
       <c r="H463" s="13"/>
       <c r="I463" s="13"/>
       <c r="J463" s="13"/>
-      <c r="K463" s="21"/>
+      <c r="K463" s="13"/>
       <c r="L463" s="13"/>
       <c r="M463" s="13"/>
       <c r="N463" s="13"/>
@@ -13134,7 +13045,7 @@
       <c r="H464" s="13"/>
       <c r="I464" s="13"/>
       <c r="J464" s="13"/>
-      <c r="K464" s="21"/>
+      <c r="K464" s="13"/>
       <c r="L464" s="13"/>
       <c r="M464" s="13"/>
       <c r="N464" s="13"/>
@@ -13161,7 +13072,7 @@
       <c r="H465" s="13"/>
       <c r="I465" s="13"/>
       <c r="J465" s="13"/>
-      <c r="K465" s="21"/>
+      <c r="K465" s="13"/>
       <c r="L465" s="13"/>
       <c r="M465" s="13"/>
       <c r="N465" s="13"/>
@@ -13188,7 +13099,7 @@
       <c r="H466" s="13"/>
       <c r="I466" s="13"/>
       <c r="J466" s="13"/>
-      <c r="K466" s="21"/>
+      <c r="K466" s="13"/>
       <c r="L466" s="13"/>
       <c r="M466" s="13"/>
       <c r="N466" s="13"/>
@@ -13215,7 +13126,7 @@
       <c r="H467" s="13"/>
       <c r="I467" s="13"/>
       <c r="J467" s="13"/>
-      <c r="K467" s="21"/>
+      <c r="K467" s="13"/>
       <c r="L467" s="13"/>
       <c r="M467" s="13"/>
       <c r="N467" s="13"/>
@@ -13242,7 +13153,7 @@
       <c r="H468" s="13"/>
       <c r="I468" s="13"/>
       <c r="J468" s="13"/>
-      <c r="K468" s="21"/>
+      <c r="K468" s="13"/>
       <c r="L468" s="13"/>
       <c r="M468" s="13"/>
       <c r="N468" s="13"/>
@@ -13269,7 +13180,7 @@
       <c r="H469" s="13"/>
       <c r="I469" s="13"/>
       <c r="J469" s="13"/>
-      <c r="K469" s="21"/>
+      <c r="K469" s="13"/>
       <c r="L469" s="13"/>
       <c r="M469" s="13"/>
       <c r="N469" s="13"/>
@@ -13296,7 +13207,7 @@
       <c r="H470" s="13"/>
       <c r="I470" s="13"/>
       <c r="J470" s="13"/>
-      <c r="K470" s="21"/>
+      <c r="K470" s="13"/>
       <c r="L470" s="13"/>
       <c r="M470" s="13"/>
       <c r="N470" s="13"/>
@@ -13323,7 +13234,7 @@
       <c r="H471" s="13"/>
       <c r="I471" s="13"/>
       <c r="J471" s="13"/>
-      <c r="K471" s="21"/>
+      <c r="K471" s="13"/>
       <c r="L471" s="13"/>
       <c r="M471" s="13"/>
       <c r="N471" s="13"/>
@@ -13350,7 +13261,7 @@
       <c r="H472" s="13"/>
       <c r="I472" s="13"/>
       <c r="J472" s="13"/>
-      <c r="K472" s="21"/>
+      <c r="K472" s="13"/>
       <c r="L472" s="13"/>
       <c r="M472" s="13"/>
       <c r="N472" s="13"/>
@@ -13377,7 +13288,7 @@
       <c r="H473" s="13"/>
       <c r="I473" s="13"/>
       <c r="J473" s="13"/>
-      <c r="K473" s="21"/>
+      <c r="K473" s="13"/>
       <c r="L473" s="13"/>
       <c r="M473" s="13"/>
       <c r="N473" s="13"/>
@@ -13404,7 +13315,7 @@
       <c r="H474" s="13"/>
       <c r="I474" s="13"/>
       <c r="J474" s="13"/>
-      <c r="K474" s="21"/>
+      <c r="K474" s="13"/>
       <c r="L474" s="13"/>
       <c r="M474" s="13"/>
       <c r="N474" s="13"/>
@@ -13431,7 +13342,7 @@
       <c r="H475" s="13"/>
       <c r="I475" s="13"/>
       <c r="J475" s="13"/>
-      <c r="K475" s="21"/>
+      <c r="K475" s="13"/>
       <c r="L475" s="13"/>
       <c r="M475" s="13"/>
       <c r="N475" s="13"/>
@@ -13458,7 +13369,7 @@
       <c r="H476" s="13"/>
       <c r="I476" s="13"/>
       <c r="J476" s="13"/>
-      <c r="K476" s="21"/>
+      <c r="K476" s="13"/>
       <c r="L476" s="13"/>
       <c r="M476" s="13"/>
       <c r="N476" s="13"/>
@@ -13485,7 +13396,7 @@
       <c r="H477" s="13"/>
       <c r="I477" s="13"/>
       <c r="J477" s="13"/>
-      <c r="K477" s="21"/>
+      <c r="K477" s="13"/>
       <c r="L477" s="13"/>
       <c r="M477" s="13"/>
       <c r="N477" s="13"/>
@@ -13512,7 +13423,7 @@
       <c r="H478" s="13"/>
       <c r="I478" s="13"/>
       <c r="J478" s="13"/>
-      <c r="K478" s="21"/>
+      <c r="K478" s="13"/>
       <c r="L478" s="13"/>
       <c r="M478" s="13"/>
       <c r="N478" s="13"/>
@@ -13539,7 +13450,7 @@
       <c r="H479" s="13"/>
       <c r="I479" s="13"/>
       <c r="J479" s="13"/>
-      <c r="K479" s="21"/>
+      <c r="K479" s="13"/>
       <c r="L479" s="13"/>
       <c r="M479" s="13"/>
       <c r="N479" s="13"/>
@@ -13566,7 +13477,7 @@
       <c r="H480" s="13"/>
       <c r="I480" s="13"/>
       <c r="J480" s="13"/>
-      <c r="K480" s="21"/>
+      <c r="K480" s="13"/>
       <c r="L480" s="13"/>
       <c r="M480" s="13"/>
       <c r="N480" s="13"/>
@@ -13593,7 +13504,7 @@
       <c r="H481" s="13"/>
       <c r="I481" s="13"/>
       <c r="J481" s="13"/>
-      <c r="K481" s="21"/>
+      <c r="K481" s="13"/>
       <c r="L481" s="13"/>
       <c r="M481" s="13"/>
       <c r="N481" s="13"/>
@@ -13620,7 +13531,7 @@
       <c r="H482" s="13"/>
       <c r="I482" s="13"/>
       <c r="J482" s="13"/>
-      <c r="K482" s="21"/>
+      <c r="K482" s="13"/>
       <c r="L482" s="13"/>
       <c r="M482" s="13"/>
       <c r="N482" s="13"/>
@@ -13647,7 +13558,7 @@
       <c r="H483" s="13"/>
       <c r="I483" s="13"/>
       <c r="J483" s="13"/>
-      <c r="K483" s="21"/>
+      <c r="K483" s="13"/>
       <c r="L483" s="13"/>
       <c r="M483" s="13"/>
       <c r="N483" s="13"/>
@@ -13674,7 +13585,7 @@
       <c r="H484" s="13"/>
       <c r="I484" s="13"/>
       <c r="J484" s="13"/>
-      <c r="K484" s="21"/>
+      <c r="K484" s="13"/>
       <c r="L484" s="13"/>
       <c r="M484" s="13"/>
       <c r="N484" s="13"/>
@@ -13701,7 +13612,7 @@
       <c r="H485" s="13"/>
       <c r="I485" s="13"/>
       <c r="J485" s="13"/>
-      <c r="K485" s="21"/>
+      <c r="K485" s="13"/>
       <c r="L485" s="13"/>
       <c r="M485" s="13"/>
       <c r="N485" s="13"/>
@@ -13728,7 +13639,7 @@
       <c r="H486" s="13"/>
       <c r="I486" s="13"/>
       <c r="J486" s="13"/>
-      <c r="K486" s="21"/>
+      <c r="K486" s="13"/>
       <c r="L486" s="13"/>
       <c r="M486" s="13"/>
       <c r="N486" s="13"/>
@@ -13755,7 +13666,7 @@
       <c r="H487" s="13"/>
       <c r="I487" s="13"/>
       <c r="J487" s="13"/>
-      <c r="K487" s="21"/>
+      <c r="K487" s="13"/>
       <c r="L487" s="13"/>
       <c r="M487" s="13"/>
       <c r="N487" s="13"/>
@@ -13782,7 +13693,7 @@
       <c r="H488" s="13"/>
       <c r="I488" s="13"/>
       <c r="J488" s="13"/>
-      <c r="K488" s="21"/>
+      <c r="K488" s="13"/>
       <c r="L488" s="13"/>
       <c r="M488" s="13"/>
       <c r="N488" s="13"/>
@@ -13809,7 +13720,7 @@
       <c r="H489" s="13"/>
       <c r="I489" s="13"/>
       <c r="J489" s="13"/>
-      <c r="K489" s="21"/>
+      <c r="K489" s="13"/>
       <c r="L489" s="13"/>
       <c r="M489" s="13"/>
       <c r="N489" s="13"/>
@@ -13836,7 +13747,7 @@
       <c r="H490" s="13"/>
       <c r="I490" s="13"/>
       <c r="J490" s="13"/>
-      <c r="K490" s="21"/>
+      <c r="K490" s="13"/>
       <c r="L490" s="13"/>
       <c r="M490" s="13"/>
       <c r="N490" s="13"/>
@@ -13863,7 +13774,7 @@
       <c r="H491" s="13"/>
       <c r="I491" s="13"/>
       <c r="J491" s="13"/>
-      <c r="K491" s="21"/>
+      <c r="K491" s="13"/>
       <c r="L491" s="13"/>
       <c r="M491" s="13"/>
       <c r="N491" s="13"/>
@@ -13890,7 +13801,7 @@
       <c r="H492" s="13"/>
       <c r="I492" s="13"/>
       <c r="J492" s="13"/>
-      <c r="K492" s="21"/>
+      <c r="K492" s="13"/>
       <c r="L492" s="13"/>
       <c r="M492" s="13"/>
       <c r="N492" s="13"/>
@@ -13917,7 +13828,7 @@
       <c r="H493" s="13"/>
       <c r="I493" s="13"/>
       <c r="J493" s="13"/>
-      <c r="K493" s="21"/>
+      <c r="K493" s="13"/>
       <c r="L493" s="13"/>
       <c r="M493" s="13"/>
       <c r="N493" s="13"/>
@@ -13944,7 +13855,7 @@
       <c r="H494" s="13"/>
       <c r="I494" s="13"/>
       <c r="J494" s="13"/>
-      <c r="K494" s="21"/>
+      <c r="K494" s="13"/>
       <c r="L494" s="13"/>
       <c r="M494" s="13"/>
       <c r="N494" s="13"/>
@@ -13971,7 +13882,7 @@
       <c r="H495" s="13"/>
       <c r="I495" s="13"/>
       <c r="J495" s="13"/>
-      <c r="K495" s="21"/>
+      <c r="K495" s="13"/>
       <c r="L495" s="13"/>
       <c r="M495" s="13"/>
       <c r="N495" s="13"/>
@@ -13998,7 +13909,7 @@
       <c r="H496" s="13"/>
       <c r="I496" s="13"/>
       <c r="J496" s="13"/>
-      <c r="K496" s="21"/>
+      <c r="K496" s="13"/>
       <c r="L496" s="13"/>
       <c r="M496" s="13"/>
       <c r="N496" s="13"/>
@@ -14025,7 +13936,7 @@
       <c r="H497" s="13"/>
       <c r="I497" s="13"/>
       <c r="J497" s="13"/>
-      <c r="K497" s="21"/>
+      <c r="K497" s="13"/>
       <c r="L497" s="13"/>
       <c r="M497" s="13"/>
       <c r="N497" s="13"/>
@@ -14052,7 +13963,7 @@
       <c r="H498" s="13"/>
       <c r="I498" s="13"/>
       <c r="J498" s="13"/>
-      <c r="K498" s="21"/>
+      <c r="K498" s="13"/>
       <c r="L498" s="13"/>
       <c r="M498" s="13"/>
       <c r="N498" s="13"/>
@@ -14079,7 +13990,7 @@
       <c r="H499" s="13"/>
       <c r="I499" s="13"/>
       <c r="J499" s="13"/>
-      <c r="K499" s="21"/>
+      <c r="K499" s="13"/>
       <c r="L499" s="13"/>
       <c r="M499" s="13"/>
       <c r="N499" s="13"/>
@@ -14106,7 +14017,7 @@
       <c r="H500" s="13"/>
       <c r="I500" s="13"/>
       <c r="J500" s="13"/>
-      <c r="K500" s="21"/>
+      <c r="K500" s="13"/>
       <c r="L500" s="13"/>
       <c r="M500" s="13"/>
       <c r="N500" s="13"/>
@@ -14133,7 +14044,7 @@
       <c r="H501" s="13"/>
       <c r="I501" s="13"/>
       <c r="J501" s="13"/>
-      <c r="K501" s="21"/>
+      <c r="K501" s="13"/>
       <c r="L501" s="13"/>
       <c r="M501" s="13"/>
       <c r="N501" s="13"/>
@@ -14160,7 +14071,7 @@
       <c r="H502" s="13"/>
       <c r="I502" s="13"/>
       <c r="J502" s="13"/>
-      <c r="K502" s="21"/>
+      <c r="K502" s="13"/>
       <c r="L502" s="13"/>
       <c r="M502" s="13"/>
       <c r="N502" s="13"/>
@@ -14187,7 +14098,7 @@
       <c r="H503" s="13"/>
       <c r="I503" s="13"/>
       <c r="J503" s="13"/>
-      <c r="K503" s="21"/>
+      <c r="K503" s="13"/>
       <c r="L503" s="13"/>
       <c r="M503" s="13"/>
       <c r="N503" s="13"/>
@@ -14214,7 +14125,7 @@
       <c r="H504" s="13"/>
       <c r="I504" s="13"/>
       <c r="J504" s="13"/>
-      <c r="K504" s="21"/>
+      <c r="K504" s="13"/>
       <c r="L504" s="13"/>
       <c r="M504" s="13"/>
       <c r="N504" s="13"/>
@@ -14241,7 +14152,7 @@
       <c r="H505" s="13"/>
       <c r="I505" s="13"/>
       <c r="J505" s="13"/>
-      <c r="K505" s="21"/>
+      <c r="K505" s="13"/>
       <c r="L505" s="13"/>
       <c r="M505" s="13"/>
       <c r="N505" s="13"/>
@@ -14268,7 +14179,7 @@
       <c r="H506" s="13"/>
       <c r="I506" s="13"/>
       <c r="J506" s="13"/>
-      <c r="K506" s="21"/>
+      <c r="K506" s="13"/>
       <c r="L506" s="13"/>
       <c r="M506" s="13"/>
       <c r="N506" s="13"/>
@@ -14295,7 +14206,7 @@
       <c r="H507" s="13"/>
       <c r="I507" s="13"/>
       <c r="J507" s="13"/>
-      <c r="K507" s="21"/>
+      <c r="K507" s="13"/>
       <c r="L507" s="13"/>
       <c r="M507" s="13"/>
       <c r="N507" s="13"/>
@@ -14322,7 +14233,7 @@
       <c r="H508" s="13"/>
       <c r="I508" s="13"/>
       <c r="J508" s="13"/>
-      <c r="K508" s="21"/>
+      <c r="K508" s="13"/>
       <c r="L508" s="13"/>
       <c r="M508" s="13"/>
       <c r="N508" s="13"/>
@@ -14349,7 +14260,7 @@
       <c r="H509" s="13"/>
       <c r="I509" s="13"/>
       <c r="J509" s="13"/>
-      <c r="K509" s="21"/>
+      <c r="K509" s="13"/>
       <c r="L509" s="13"/>
       <c r="M509" s="13"/>
       <c r="N509" s="13"/>
@@ -14376,7 +14287,7 @@
       <c r="H510" s="13"/>
       <c r="I510" s="13"/>
       <c r="J510" s="13"/>
-      <c r="K510" s="21"/>
+      <c r="K510" s="13"/>
       <c r="L510" s="13"/>
       <c r="M510" s="13"/>
       <c r="N510" s="13"/>
@@ -14403,7 +14314,7 @@
       <c r="H511" s="13"/>
       <c r="I511" s="13"/>
       <c r="J511" s="13"/>
-      <c r="K511" s="21"/>
+      <c r="K511" s="13"/>
       <c r="L511" s="13"/>
       <c r="M511" s="13"/>
       <c r="N511" s="13"/>
@@ -14430,7 +14341,7 @@
       <c r="H512" s="13"/>
       <c r="I512" s="13"/>
       <c r="J512" s="13"/>
-      <c r="K512" s="21"/>
+      <c r="K512" s="13"/>
       <c r="L512" s="13"/>
       <c r="M512" s="13"/>
       <c r="N512" s="13"/>
@@ -14457,7 +14368,7 @@
       <c r="H513" s="13"/>
       <c r="I513" s="13"/>
       <c r="J513" s="13"/>
-      <c r="K513" s="21"/>
+      <c r="K513" s="13"/>
       <c r="L513" s="13"/>
       <c r="M513" s="13"/>
       <c r="N513" s="13"/>
@@ -14484,7 +14395,7 @@
       <c r="H514" s="13"/>
       <c r="I514" s="13"/>
       <c r="J514" s="13"/>
-      <c r="K514" s="21"/>
+      <c r="K514" s="13"/>
       <c r="L514" s="13"/>
       <c r="M514" s="13"/>
       <c r="N514" s="13"/>
@@ -14511,7 +14422,7 @@
       <c r="H515" s="13"/>
       <c r="I515" s="13"/>
       <c r="J515" s="13"/>
-      <c r="K515" s="21"/>
+      <c r="K515" s="13"/>
       <c r="L515" s="13"/>
       <c r="M515" s="13"/>
       <c r="N515" s="13"/>
@@ -14538,7 +14449,7 @@
       <c r="H516" s="13"/>
       <c r="I516" s="13"/>
       <c r="J516" s="13"/>
-      <c r="K516" s="21"/>
+      <c r="K516" s="13"/>
       <c r="L516" s="13"/>
       <c r="M516" s="13"/>
       <c r="N516" s="13"/>
@@ -14565,7 +14476,7 @@
       <c r="H517" s="13"/>
       <c r="I517" s="13"/>
       <c r="J517" s="13"/>
-      <c r="K517" s="21"/>
+      <c r="K517" s="13"/>
       <c r="L517" s="13"/>
       <c r="M517" s="13"/>
       <c r="N517" s="13"/>
@@ -14592,7 +14503,7 @@
       <c r="H518" s="13"/>
       <c r="I518" s="13"/>
       <c r="J518" s="13"/>
-      <c r="K518" s="21"/>
+      <c r="K518" s="13"/>
       <c r="L518" s="13"/>
       <c r="M518" s="13"/>
       <c r="N518" s="13"/>
@@ -14619,7 +14530,7 @@
       <c r="H519" s="13"/>
       <c r="I519" s="13"/>
       <c r="J519" s="13"/>
-      <c r="K519" s="21"/>
+      <c r="K519" s="13"/>
       <c r="L519" s="13"/>
       <c r="M519" s="13"/>
       <c r="N519" s="13"/>
@@ -14646,7 +14557,7 @@
       <c r="H520" s="13"/>
       <c r="I520" s="13"/>
       <c r="J520" s="13"/>
-      <c r="K520" s="21"/>
+      <c r="K520" s="13"/>
       <c r="L520" s="13"/>
       <c r="M520" s="13"/>
       <c r="N520" s="13"/>
@@ -14673,7 +14584,7 @@
       <c r="H521" s="13"/>
       <c r="I521" s="13"/>
       <c r="J521" s="13"/>
-      <c r="K521" s="21"/>
+      <c r="K521" s="13"/>
       <c r="L521" s="13"/>
       <c r="M521" s="13"/>
       <c r="N521" s="13"/>
@@ -14700,7 +14611,7 @@
       <c r="H522" s="13"/>
       <c r="I522" s="13"/>
       <c r="J522" s="13"/>
-      <c r="K522" s="21"/>
+      <c r="K522" s="13"/>
       <c r="L522" s="13"/>
       <c r="M522" s="13"/>
       <c r="N522" s="13"/>
@@ -14727,7 +14638,7 @@
       <c r="H523" s="13"/>
       <c r="I523" s="13"/>
       <c r="J523" s="13"/>
-      <c r="K523" s="21"/>
+      <c r="K523" s="13"/>
       <c r="L523" s="13"/>
       <c r="M523" s="13"/>
       <c r="N523" s="13"/>
@@ -14754,7 +14665,7 @@
       <c r="H524" s="13"/>
       <c r="I524" s="13"/>
       <c r="J524" s="13"/>
-      <c r="K524" s="21"/>
+      <c r="K524" s="13"/>
       <c r="L524" s="13"/>
       <c r="M524" s="13"/>
       <c r="N524" s="13"/>
@@ -14781,7 +14692,7 @@
       <c r="H525" s="13"/>
       <c r="I525" s="13"/>
       <c r="J525" s="13"/>
-      <c r="K525" s="21"/>
+      <c r="K525" s="13"/>
       <c r="L525" s="13"/>
       <c r="M525" s="13"/>
       <c r="N525" s="13"/>
@@ -14808,7 +14719,7 @@
       <c r="H526" s="13"/>
       <c r="I526" s="13"/>
       <c r="J526" s="13"/>
-      <c r="K526" s="21"/>
+      <c r="K526" s="13"/>
       <c r="L526" s="13"/>
       <c r="M526" s="13"/>
       <c r="N526" s="13"/>
@@ -14835,7 +14746,7 @@
       <c r="H527" s="13"/>
       <c r="I527" s="13"/>
       <c r="J527" s="13"/>
-      <c r="K527" s="21"/>
+      <c r="K527" s="13"/>
       <c r="L527" s="13"/>
       <c r="M527" s="13"/>
       <c r="N527" s="13"/>
@@ -14862,7 +14773,7 @@
       <c r="H528" s="13"/>
       <c r="I528" s="13"/>
       <c r="J528" s="13"/>
-      <c r="K528" s="21"/>
+      <c r="K528" s="13"/>
       <c r="L528" s="13"/>
       <c r="M528" s="13"/>
       <c r="N528" s="13"/>
@@ -14889,7 +14800,7 @@
       <c r="H529" s="13"/>
       <c r="I529" s="13"/>
       <c r="J529" s="13"/>
-      <c r="K529" s="21"/>
+      <c r="K529" s="13"/>
       <c r="L529" s="13"/>
       <c r="M529" s="13"/>
       <c r="N529" s="13"/>
@@ -14916,7 +14827,7 @@
       <c r="H530" s="13"/>
       <c r="I530" s="13"/>
       <c r="J530" s="13"/>
-      <c r="K530" s="21"/>
+      <c r="K530" s="13"/>
       <c r="L530" s="13"/>
       <c r="M530" s="13"/>
       <c r="N530" s="13"/>
@@ -14943,7 +14854,7 @@
       <c r="H531" s="13"/>
       <c r="I531" s="13"/>
       <c r="J531" s="13"/>
-      <c r="K531" s="21"/>
+      <c r="K531" s="13"/>
       <c r="L531" s="13"/>
       <c r="M531" s="13"/>
       <c r="N531" s="13"/>
@@ -14970,7 +14881,7 @@
       <c r="H532" s="13"/>
       <c r="I532" s="13"/>
       <c r="J532" s="13"/>
-      <c r="K532" s="21"/>
+      <c r="K532" s="13"/>
       <c r="L532" s="13"/>
       <c r="M532" s="13"/>
       <c r="N532" s="13"/>
@@ -14997,7 +14908,7 @@
       <c r="H533" s="13"/>
       <c r="I533" s="13"/>
       <c r="J533" s="13"/>
-      <c r="K533" s="21"/>
+      <c r="K533" s="13"/>
       <c r="L533" s="13"/>
       <c r="M533" s="13"/>
       <c r="N533" s="13"/>
@@ -15024,7 +14935,7 @@
       <c r="H534" s="13"/>
       <c r="I534" s="13"/>
       <c r="J534" s="13"/>
-      <c r="K534" s="21"/>
+      <c r="K534" s="13"/>
       <c r="L534" s="13"/>
       <c r="M534" s="13"/>
       <c r="N534" s="13"/>
@@ -15051,7 +14962,7 @@
       <c r="H535" s="13"/>
       <c r="I535" s="13"/>
       <c r="J535" s="13"/>
-      <c r="K535" s="21"/>
+      <c r="K535" s="13"/>
       <c r="L535" s="13"/>
       <c r="M535" s="13"/>
       <c r="N535" s="13"/>
@@ -15078,7 +14989,7 @@
       <c r="H536" s="13"/>
       <c r="I536" s="13"/>
       <c r="J536" s="13"/>
-      <c r="K536" s="21"/>
+      <c r="K536" s="13"/>
       <c r="L536" s="13"/>
       <c r="M536" s="13"/>
       <c r="N536" s="13"/>
@@ -15105,7 +15016,7 @@
       <c r="H537" s="13"/>
       <c r="I537" s="13"/>
       <c r="J537" s="13"/>
-      <c r="K537" s="21"/>
+      <c r="K537" s="13"/>
       <c r="L537" s="13"/>
       <c r="M537" s="13"/>
       <c r="N537" s="13"/>
@@ -15132,7 +15043,7 @@
       <c r="H538" s="13"/>
       <c r="I538" s="13"/>
       <c r="J538" s="13"/>
-      <c r="K538" s="21"/>
+      <c r="K538" s="13"/>
       <c r="L538" s="13"/>
       <c r="M538" s="13"/>
       <c r="N538" s="13"/>
@@ -15159,7 +15070,7 @@
       <c r="H539" s="13"/>
       <c r="I539" s="13"/>
       <c r="J539" s="13"/>
-      <c r="K539" s="21"/>
+      <c r="K539" s="13"/>
       <c r="L539" s="13"/>
       <c r="M539" s="13"/>
       <c r="N539" s="13"/>
@@ -15186,7 +15097,7 @@
       <c r="H540" s="13"/>
       <c r="I540" s="13"/>
       <c r="J540" s="13"/>
-      <c r="K540" s="21"/>
+      <c r="K540" s="13"/>
       <c r="L540" s="13"/>
       <c r="M540" s="13"/>
       <c r="N540" s="13"/>
@@ -15213,7 +15124,7 @@
       <c r="H541" s="13"/>
       <c r="I541" s="13"/>
       <c r="J541" s="13"/>
-      <c r="K541" s="21"/>
+      <c r="K541" s="13"/>
       <c r="L541" s="13"/>
       <c r="M541" s="13"/>
       <c r="N541" s="13"/>
@@ -15240,7 +15151,7 @@
       <c r="H542" s="13"/>
       <c r="I542" s="13"/>
       <c r="J542" s="13"/>
-      <c r="K542" s="21"/>
+      <c r="K542" s="13"/>
       <c r="L542" s="13"/>
       <c r="M542" s="13"/>
       <c r="N542" s="13"/>
@@ -15267,7 +15178,7 @@
       <c r="H543" s="13"/>
       <c r="I543" s="13"/>
       <c r="J543" s="13"/>
-      <c r="K543" s="21"/>
+      <c r="K543" s="13"/>
       <c r="L543" s="13"/>
       <c r="M543" s="13"/>
       <c r="N543" s="13"/>
@@ -15294,7 +15205,7 @@
       <c r="H544" s="13"/>
       <c r="I544" s="13"/>
       <c r="J544" s="13"/>
-      <c r="K544" s="21"/>
+      <c r="K544" s="13"/>
       <c r="L544" s="13"/>
       <c r="M544" s="13"/>
       <c r="N544" s="13"/>
@@ -15321,7 +15232,7 @@
       <c r="H545" s="13"/>
       <c r="I545" s="13"/>
       <c r="J545" s="13"/>
-      <c r="K545" s="21"/>
+      <c r="K545" s="13"/>
       <c r="L545" s="13"/>
       <c r="M545" s="13"/>
       <c r="N545" s="13"/>
@@ -15348,7 +15259,7 @@
       <c r="H546" s="13"/>
       <c r="I546" s="13"/>
       <c r="J546" s="13"/>
-      <c r="K546" s="21"/>
+      <c r="K546" s="13"/>
       <c r="L546" s="13"/>
       <c r="M546" s="13"/>
       <c r="N546" s="13"/>
@@ -15375,7 +15286,7 @@
       <c r="H547" s="13"/>
       <c r="I547" s="13"/>
       <c r="J547" s="13"/>
-      <c r="K547" s="21"/>
+      <c r="K547" s="13"/>
       <c r="L547" s="13"/>
       <c r="M547" s="13"/>
       <c r="N547" s="13"/>
@@ -15402,7 +15313,7 @@
       <c r="H548" s="13"/>
       <c r="I548" s="13"/>
       <c r="J548" s="13"/>
-      <c r="K548" s="21"/>
+      <c r="K548" s="13"/>
       <c r="L548" s="13"/>
       <c r="M548" s="13"/>
       <c r="N548" s="13"/>
@@ -15429,7 +15340,7 @@
       <c r="H549" s="13"/>
       <c r="I549" s="13"/>
       <c r="J549" s="13"/>
-      <c r="K549" s="21"/>
+      <c r="K549" s="13"/>
       <c r="L549" s="13"/>
       <c r="M549" s="13"/>
       <c r="N549" s="13"/>
@@ -15456,7 +15367,7 @@
       <c r="H550" s="13"/>
       <c r="I550" s="13"/>
       <c r="J550" s="13"/>
-      <c r="K550" s="21"/>
+      <c r="K550" s="13"/>
       <c r="L550" s="13"/>
       <c r="M550" s="13"/>
       <c r="N550" s="13"/>
@@ -15483,7 +15394,7 @@
       <c r="H551" s="13"/>
       <c r="I551" s="13"/>
       <c r="J551" s="13"/>
-      <c r="K551" s="21"/>
+      <c r="K551" s="13"/>
       <c r="L551" s="13"/>
       <c r="M551" s="13"/>
       <c r="N551" s="13"/>
@@ -15510,7 +15421,7 @@
       <c r="H552" s="13"/>
       <c r="I552" s="13"/>
       <c r="J552" s="13"/>
-      <c r="K552" s="21"/>
+      <c r="K552" s="13"/>
       <c r="L552" s="13"/>
       <c r="M552" s="13"/>
       <c r="N552" s="13"/>
@@ -15537,7 +15448,7 @@
       <c r="H553" s="13"/>
       <c r="I553" s="13"/>
       <c r="J553" s="13"/>
-      <c r="K553" s="21"/>
+      <c r="K553" s="13"/>
       <c r="L553" s="13"/>
       <c r="M553" s="13"/>
       <c r="N553" s="13"/>
@@ -15564,7 +15475,7 @@
       <c r="H554" s="13"/>
       <c r="I554" s="13"/>
       <c r="J554" s="13"/>
-      <c r="K554" s="21"/>
+      <c r="K554" s="13"/>
       <c r="L554" s="13"/>
       <c r="M554" s="13"/>
       <c r="N554" s="13"/>
@@ -15591,7 +15502,7 @@
       <c r="H555" s="13"/>
       <c r="I555" s="13"/>
       <c r="J555" s="13"/>
-      <c r="K555" s="21"/>
+      <c r="K555" s="13"/>
       <c r="L555" s="13"/>
       <c r="M555" s="13"/>
       <c r="N555" s="13"/>
@@ -15618,7 +15529,7 @@
       <c r="H556" s="13"/>
       <c r="I556" s="13"/>
       <c r="J556" s="13"/>
-      <c r="K556" s="21"/>
+      <c r="K556" s="13"/>
       <c r="L556" s="13"/>
       <c r="M556" s="13"/>
       <c r="N556" s="13"/>
@@ -15645,7 +15556,7 @@
       <c r="H557" s="13"/>
       <c r="I557" s="13"/>
       <c r="J557" s="13"/>
-      <c r="K557" s="21"/>
+      <c r="K557" s="13"/>
       <c r="L557" s="13"/>
       <c r="M557" s="13"/>
       <c r="N557" s="13"/>
@@ -15672,7 +15583,7 @@
       <c r="H558" s="13"/>
       <c r="I558" s="13"/>
       <c r="J558" s="13"/>
-      <c r="K558" s="21"/>
+      <c r="K558" s="13"/>
       <c r="L558" s="13"/>
       <c r="M558" s="13"/>
       <c r="N558" s="13"/>
@@ -15699,7 +15610,7 @@
       <c r="H559" s="13"/>
       <c r="I559" s="13"/>
       <c r="J559" s="13"/>
-      <c r="K559" s="21"/>
+      <c r="K559" s="13"/>
       <c r="L559" s="13"/>
       <c r="M559" s="13"/>
       <c r="N559" s="13"/>
@@ -15726,7 +15637,7 @@
       <c r="H560" s="13"/>
       <c r="I560" s="13"/>
       <c r="J560" s="13"/>
-      <c r="K560" s="21"/>
+      <c r="K560" s="13"/>
       <c r="L560" s="13"/>
       <c r="M560" s="13"/>
       <c r="N560" s="13"/>
@@ -15753,7 +15664,7 @@
       <c r="H561" s="13"/>
       <c r="I561" s="13"/>
       <c r="J561" s="13"/>
-      <c r="K561" s="21"/>
+      <c r="K561" s="13"/>
       <c r="L561" s="13"/>
       <c r="M561" s="13"/>
       <c r="N561" s="13"/>
@@ -15780,7 +15691,7 @@
       <c r="H562" s="13"/>
       <c r="I562" s="13"/>
       <c r="J562" s="13"/>
-      <c r="K562" s="21"/>
+      <c r="K562" s="13"/>
       <c r="L562" s="13"/>
       <c r="M562" s="13"/>
       <c r="N562" s="13"/>
@@ -15807,7 +15718,7 @@
       <c r="H563" s="13"/>
       <c r="I563" s="13"/>
       <c r="J563" s="13"/>
-      <c r="K563" s="21"/>
+      <c r="K563" s="13"/>
       <c r="L563" s="13"/>
       <c r="M563" s="13"/>
       <c r="N563" s="13"/>
@@ -15834,7 +15745,7 @@
       <c r="H564" s="13"/>
       <c r="I564" s="13"/>
       <c r="J564" s="13"/>
-      <c r="K564" s="21"/>
+      <c r="K564" s="13"/>
       <c r="L564" s="13"/>
       <c r="M564" s="13"/>
       <c r="N564" s="13"/>
@@ -15861,7 +15772,7 @@
       <c r="H565" s="13"/>
       <c r="I565" s="13"/>
       <c r="J565" s="13"/>
-      <c r="K565" s="21"/>
+      <c r="K565" s="13"/>
       <c r="L565" s="13"/>
       <c r="M565" s="13"/>
       <c r="N565" s="13"/>
@@ -15888,7 +15799,7 @@
       <c r="H566" s="13"/>
       <c r="I566" s="13"/>
       <c r="J566" s="13"/>
-      <c r="K566" s="21"/>
+      <c r="K566" s="13"/>
       <c r="L566" s="13"/>
       <c r="M566" s="13"/>
       <c r="N566" s="13"/>
@@ -15915,7 +15826,7 @@
       <c r="H567" s="13"/>
       <c r="I567" s="13"/>
       <c r="J567" s="13"/>
-      <c r="K567" s="21"/>
+      <c r="K567" s="13"/>
       <c r="L567" s="13"/>
       <c r="M567" s="13"/>
       <c r="N567" s="13"/>
@@ -15942,7 +15853,7 @@
       <c r="H568" s="13"/>
       <c r="I568" s="13"/>
       <c r="J568" s="13"/>
-      <c r="K568" s="21"/>
+      <c r="K568" s="13"/>
       <c r="L568" s="13"/>
       <c r="M568" s="13"/>
       <c r="N568" s="13"/>
@@ -15969,7 +15880,7 @@
       <c r="H569" s="13"/>
       <c r="I569" s="13"/>
       <c r="J569" s="13"/>
-      <c r="K569" s="21"/>
+      <c r="K569" s="13"/>
       <c r="L569" s="13"/>
       <c r="M569" s="13"/>
       <c r="N569" s="13"/>
@@ -15996,7 +15907,7 @@
       <c r="H570" s="13"/>
       <c r="I570" s="13"/>
       <c r="J570" s="13"/>
-      <c r="K570" s="21"/>
+      <c r="K570" s="13"/>
       <c r="L570" s="13"/>
       <c r="M570" s="13"/>
       <c r="N570" s="13"/>
@@ -16023,7 +15934,7 @@
       <c r="H571" s="13"/>
       <c r="I571" s="13"/>
       <c r="J571" s="13"/>
-      <c r="K571" s="21"/>
+      <c r="K571" s="13"/>
       <c r="L571" s="13"/>
       <c r="M571" s="13"/>
       <c r="N571" s="13"/>
@@ -16050,7 +15961,7 @@
       <c r="H572" s="13"/>
       <c r="I572" s="13"/>
       <c r="J572" s="13"/>
-      <c r="K572" s="21"/>
+      <c r="K572" s="13"/>
       <c r="L572" s="13"/>
       <c r="M572" s="13"/>
       <c r="N572" s="13"/>
@@ -16077,7 +15988,7 @@
       <c r="H573" s="13"/>
       <c r="I573" s="13"/>
       <c r="J573" s="13"/>
-      <c r="K573" s="21"/>
+      <c r="K573" s="13"/>
       <c r="L573" s="13"/>
       <c r="M573" s="13"/>
       <c r="N573" s="13"/>
@@ -16104,7 +16015,7 @@
       <c r="H574" s="13"/>
       <c r="I574" s="13"/>
       <c r="J574" s="13"/>
-      <c r="K574" s="21"/>
+      <c r="K574" s="13"/>
       <c r="L574" s="13"/>
       <c r="M574" s="13"/>
       <c r="N574" s="13"/>
@@ -16131,7 +16042,7 @@
       <c r="H575" s="13"/>
       <c r="I575" s="13"/>
       <c r="J575" s="13"/>
-      <c r="K575" s="21"/>
+      <c r="K575" s="13"/>
       <c r="L575" s="13"/>
       <c r="M575" s="13"/>
       <c r="N575" s="13"/>
@@ -16158,7 +16069,7 @@
       <c r="H576" s="13"/>
       <c r="I576" s="13"/>
       <c r="J576" s="13"/>
-      <c r="K576" s="21"/>
+      <c r="K576" s="13"/>
       <c r="L576" s="13"/>
       <c r="M576" s="13"/>
       <c r="N576" s="13"/>
@@ -16185,7 +16096,7 @@
       <c r="H577" s="13"/>
       <c r="I577" s="13"/>
       <c r="J577" s="13"/>
-      <c r="K577" s="21"/>
+      <c r="K577" s="13"/>
       <c r="L577" s="13"/>
       <c r="M577" s="13"/>
       <c r="N577" s="13"/>
@@ -16212,7 +16123,7 @@
       <c r="H578" s="13"/>
       <c r="I578" s="13"/>
       <c r="J578" s="13"/>
-      <c r="K578" s="21"/>
+      <c r="K578" s="13"/>
       <c r="L578" s="13"/>
       <c r="M578" s="13"/>
       <c r="N578" s="13"/>
@@ -16239,7 +16150,7 @@
       <c r="H579" s="13"/>
       <c r="I579" s="13"/>
       <c r="J579" s="13"/>
-      <c r="K579" s="21"/>
+      <c r="K579" s="13"/>
       <c r="L579" s="13"/>
       <c r="M579" s="13"/>
       <c r="N579" s="13"/>
@@ -16266,7 +16177,7 @@
       <c r="H580" s="13"/>
       <c r="I580" s="13"/>
       <c r="J580" s="13"/>
-      <c r="K580" s="21"/>
+      <c r="K580" s="13"/>
       <c r="L580" s="13"/>
       <c r="M580" s="13"/>
       <c r="N580" s="13"/>
@@ -16293,7 +16204,7 @@
       <c r="H581" s="13"/>
       <c r="I581" s="13"/>
       <c r="J581" s="13"/>
-      <c r="K581" s="21"/>
+      <c r="K581" s="13"/>
       <c r="L581" s="13"/>
       <c r="M581" s="13"/>
       <c r="N581" s="13"/>
@@ -16320,7 +16231,7 @@
       <c r="H582" s="13"/>
       <c r="I582" s="13"/>
       <c r="J582" s="13"/>
-      <c r="K582" s="21"/>
+      <c r="K582" s="13"/>
       <c r="L582" s="13"/>
       <c r="M582" s="13"/>
       <c r="N582" s="13"/>
@@ -16347,7 +16258,7 @@
       <c r="H583" s="13"/>
       <c r="I583" s="13"/>
       <c r="J583" s="13"/>
-      <c r="K583" s="21"/>
+      <c r="K583" s="13"/>
       <c r="L583" s="13"/>
       <c r="M583" s="13"/>
       <c r="N583" s="13"/>
@@ -16374,7 +16285,7 @@
       <c r="H584" s="13"/>
       <c r="I584" s="13"/>
       <c r="J584" s="13"/>
-      <c r="K584" s="21"/>
+      <c r="K584" s="13"/>
       <c r="L584" s="13"/>
       <c r="M584" s="13"/>
       <c r="N584" s="13"/>
@@ -16401,7 +16312,7 @@
       <c r="H585" s="13"/>
       <c r="I585" s="13"/>
       <c r="J585" s="13"/>
-      <c r="K585" s="21"/>
+      <c r="K585" s="13"/>
       <c r="L585" s="13"/>
       <c r="M585" s="13"/>
       <c r="N585" s="13"/>
@@ -16428,7 +16339,7 @@
       <c r="H586" s="13"/>
       <c r="I586" s="13"/>
       <c r="J586" s="13"/>
-      <c r="K586" s="21"/>
+      <c r="K586" s="13"/>
       <c r="L586" s="13"/>
       <c r="M586" s="13"/>
       <c r="N586" s="13"/>
@@ -16455,7 +16366,7 @@
       <c r="H587" s="13"/>
       <c r="I587" s="13"/>
       <c r="J587" s="13"/>
-      <c r="K587" s="21"/>
+      <c r="K587" s="13"/>
       <c r="L587" s="13"/>
       <c r="M587" s="13"/>
       <c r="N587" s="13"/>
@@ -16482,7 +16393,7 @@
       <c r="H588" s="13"/>
       <c r="I588" s="13"/>
       <c r="J588" s="13"/>
-      <c r="K588" s="21"/>
+      <c r="K588" s="13"/>
       <c r="L588" s="13"/>
       <c r="M588" s="13"/>
       <c r="N588" s="13"/>
@@ -16509,7 +16420,7 @@
       <c r="H589" s="13"/>
       <c r="I589" s="13"/>
       <c r="J589" s="13"/>
-      <c r="K589" s="21"/>
+      <c r="K589" s="13"/>
       <c r="L589" s="13"/>
       <c r="M589" s="13"/>
       <c r="N589" s="13"/>
@@ -16536,7 +16447,7 @@
       <c r="H590" s="13"/>
       <c r="I590" s="13"/>
       <c r="J590" s="13"/>
-      <c r="K590" s="21"/>
+      <c r="K590" s="13"/>
       <c r="L590" s="13"/>
       <c r="M590" s="13"/>
       <c r="N590" s="13"/>
@@ -16563,7 +16474,7 @@
       <c r="H591" s="13"/>
       <c r="I591" s="13"/>
       <c r="J591" s="13"/>
-      <c r="K591" s="21"/>
+      <c r="K591" s="13"/>
       <c r="L591" s="13"/>
       <c r="M591" s="13"/>
       <c r="N591" s="13"/>
@@ -16590,7 +16501,7 @@
       <c r="H592" s="13"/>
       <c r="I592" s="13"/>
       <c r="J592" s="13"/>
-      <c r="K592" s="21"/>
+      <c r="K592" s="13"/>
       <c r="L592" s="13"/>
       <c r="M592" s="13"/>
       <c r="N592" s="13"/>
@@ -16617,7 +16528,7 @@
       <c r="H593" s="13"/>
       <c r="I593" s="13"/>
       <c r="J593" s="13"/>
-      <c r="K593" s="21"/>
+      <c r="K593" s="13"/>
       <c r="L593" s="13"/>
       <c r="M593" s="13"/>
       <c r="N593" s="13"/>
@@ -16644,7 +16555,7 @@
       <c r="H594" s="13"/>
       <c r="I594" s="13"/>
       <c r="J594" s="13"/>
-      <c r="K594" s="21"/>
+      <c r="K594" s="13"/>
       <c r="L594" s="13"/>
       <c r="M594" s="13"/>
       <c r="N594" s="13"/>
@@ -16671,7 +16582,7 @@
       <c r="H595" s="13"/>
       <c r="I595" s="13"/>
       <c r="J595" s="13"/>
-      <c r="K595" s="21"/>
+      <c r="K595" s="13"/>
       <c r="L595" s="13"/>
       <c r="M595" s="13"/>
       <c r="N595" s="13"/>
@@ -16698,7 +16609,7 @@
       <c r="H596" s="13"/>
       <c r="I596" s="13"/>
       <c r="J596" s="13"/>
-      <c r="K596" s="21"/>
+      <c r="K596" s="13"/>
       <c r="L596" s="13"/>
       <c r="M596" s="13"/>
       <c r="N596" s="13"/>
@@ -16725,7 +16636,7 @@
       <c r="H597" s="13"/>
       <c r="I597" s="13"/>
       <c r="J597" s="13"/>
-      <c r="K597" s="21"/>
+      <c r="K597" s="13"/>
       <c r="L597" s="13"/>
       <c r="M597" s="13"/>
       <c r="N597" s="13"/>
@@ -16752,7 +16663,7 @@
       <c r="H598" s="13"/>
       <c r="I598" s="13"/>
       <c r="J598" s="13"/>
-      <c r="K598" s="21"/>
+      <c r="K598" s="13"/>
       <c r="L598" s="13"/>
       <c r="M598" s="13"/>
       <c r="N598" s="13"/>
@@ -16779,7 +16690,7 @@
       <c r="H599" s="13"/>
       <c r="I599" s="13"/>
       <c r="J599" s="13"/>
-      <c r="K599" s="21"/>
+      <c r="K599" s="13"/>
       <c r="L599" s="13"/>
       <c r="M599" s="13"/>
       <c r="N599" s="13"/>
@@ -16806,7 +16717,7 @@
       <c r="H600" s="13"/>
       <c r="I600" s="13"/>
       <c r="J600" s="13"/>
-      <c r="K600" s="21"/>
+      <c r="K600" s="13"/>
       <c r="L600" s="13"/>
       <c r="M600" s="13"/>
       <c r="N600" s="13"/>
@@ -16833,7 +16744,7 @@
       <c r="H601" s="13"/>
       <c r="I601" s="13"/>
       <c r="J601" s="13"/>
-      <c r="K601" s="21"/>
+      <c r="K601" s="13"/>
       <c r="L601" s="13"/>
       <c r="M601" s="13"/>
       <c r="N601" s="13"/>
@@ -16860,7 +16771,7 @@
       <c r="H602" s="13"/>
       <c r="I602" s="13"/>
       <c r="J602" s="13"/>
-      <c r="K602" s="21"/>
+      <c r="K602" s="13"/>
       <c r="L602" s="13"/>
       <c r="M602" s="13"/>
       <c r="N602" s="13"/>
@@ -16887,7 +16798,7 @@
       <c r="H603" s="13"/>
       <c r="I603" s="13"/>
       <c r="J603" s="13"/>
-      <c r="K603" s="21"/>
+      <c r="K603" s="13"/>
       <c r="L603" s="13"/>
       <c r="M603" s="13"/>
       <c r="N603" s="13"/>
@@ -16914,7 +16825,7 @@
       <c r="H604" s="13"/>
       <c r="I604" s="13"/>
       <c r="J604" s="13"/>
-      <c r="K604" s="21"/>
+      <c r="K604" s="13"/>
       <c r="L604" s="13"/>
       <c r="M604" s="13"/>
       <c r="N604" s="13"/>
@@ -16941,7 +16852,7 @@
       <c r="H605" s="13"/>
       <c r="I605" s="13"/>
       <c r="J605" s="13"/>
-      <c r="K605" s="21"/>
+      <c r="K605" s="13"/>
       <c r="L605" s="13"/>
       <c r="M605" s="13"/>
       <c r="N605" s="13"/>
@@ -16968,7 +16879,7 @@
       <c r="H606" s="13"/>
       <c r="I606" s="13"/>
       <c r="J606" s="13"/>
-      <c r="K606" s="21"/>
+      <c r="K606" s="13"/>
       <c r="L606" s="13"/>
       <c r="M606" s="13"/>
       <c r="N606" s="13"/>
@@ -16995,7 +16906,7 @@
       <c r="H607" s="13"/>
       <c r="I607" s="13"/>
       <c r="J607" s="13"/>
-      <c r="K607" s="21"/>
+      <c r="K607" s="13"/>
       <c r="L607" s="13"/>
       <c r="M607" s="13"/>
       <c r="N607" s="13"/>
@@ -17022,7 +16933,7 @@
       <c r="H608" s="13"/>
       <c r="I608" s="13"/>
       <c r="J608" s="13"/>
-      <c r="K608" s="21"/>
+      <c r="K608" s="13"/>
       <c r="L608" s="13"/>
       <c r="M608" s="13"/>
       <c r="N608" s="13"/>
@@ -17049,7 +16960,7 @@
       <c r="H609" s="13"/>
       <c r="I609" s="13"/>
       <c r="J609" s="13"/>
-      <c r="K609" s="21"/>
+      <c r="K609" s="13"/>
       <c r="L609" s="13"/>
       <c r="M609" s="13"/>
       <c r="N609" s="13"/>
@@ -17076,7 +16987,7 @@
       <c r="H610" s="13"/>
       <c r="I610" s="13"/>
       <c r="J610" s="13"/>
-      <c r="K610" s="21"/>
+      <c r="K610" s="13"/>
       <c r="L610" s="13"/>
       <c r="M610" s="13"/>
       <c r="N610" s="13"/>
@@ -17103,7 +17014,7 @@
       <c r="H611" s="13"/>
       <c r="I611" s="13"/>
       <c r="J611" s="13"/>
-      <c r="K611" s="21"/>
+      <c r="K611" s="13"/>
       <c r="L611" s="13"/>
       <c r="M611" s="13"/>
       <c r="N611" s="13"/>
@@ -17130,7 +17041,7 @@
       <c r="H612" s="13"/>
       <c r="I612" s="13"/>
       <c r="J612" s="13"/>
-      <c r="K612" s="21"/>
+      <c r="K612" s="13"/>
       <c r="L612" s="13"/>
       <c r="M612" s="13"/>
       <c r="N612" s="13"/>
@@ -17157,7 +17068,7 @@
       <c r="H613" s="13"/>
       <c r="I613" s="13"/>
       <c r="J613" s="13"/>
-      <c r="K613" s="21"/>
+      <c r="K613" s="13"/>
       <c r="L613" s="13"/>
       <c r="M613" s="13"/>
       <c r="N613" s="13"/>
@@ -17184,7 +17095,7 @@
       <c r="H614" s="13"/>
       <c r="I614" s="13"/>
       <c r="J614" s="13"/>
-      <c r="K614" s="21"/>
+      <c r="K614" s="13"/>
       <c r="L614" s="13"/>
       <c r="M614" s="13"/>
       <c r="N614" s="13"/>
@@ -17211,7 +17122,7 @@
       <c r="H615" s="13"/>
       <c r="I615" s="13"/>
       <c r="J615" s="13"/>
-      <c r="K615" s="21"/>
+      <c r="K615" s="13"/>
       <c r="L615" s="13"/>
       <c r="M615" s="13"/>
       <c r="N615" s="13"/>
@@ -17238,7 +17149,7 @@
       <c r="H616" s="13"/>
       <c r="I616" s="13"/>
       <c r="J616" s="13"/>
-      <c r="K616" s="21"/>
+      <c r="K616" s="13"/>
       <c r="L616" s="13"/>
       <c r="M616" s="13"/>
       <c r="N616" s="13"/>
@@ -17265,7 +17176,7 @@
       <c r="H617" s="13"/>
       <c r="I617" s="13"/>
       <c r="J617" s="13"/>
-      <c r="K617" s="21"/>
+      <c r="K617" s="13"/>
       <c r="L617" s="13"/>
       <c r="M617" s="13"/>
       <c r="N617" s="13"/>
@@ -17292,7 +17203,7 @@
       <c r="H618" s="13"/>
       <c r="I618" s="13"/>
       <c r="J618" s="13"/>
-      <c r="K618" s="21"/>
+      <c r="K618" s="13"/>
       <c r="L618" s="13"/>
       <c r="M618" s="13"/>
       <c r="N618" s="13"/>
@@ -17319,7 +17230,7 @@
       <c r="H619" s="13"/>
       <c r="I619" s="13"/>
       <c r="J619" s="13"/>
-      <c r="K619" s="21"/>
+      <c r="K619" s="13"/>
       <c r="L619" s="13"/>
       <c r="M619" s="13"/>
       <c r="N619" s="13"/>
@@ -17346,7 +17257,7 @@
       <c r="H620" s="13"/>
       <c r="I620" s="13"/>
       <c r="J620" s="13"/>
-      <c r="K620" s="21"/>
+      <c r="K620" s="13"/>
       <c r="L620" s="13"/>
       <c r="M620" s="13"/>
       <c r="N620" s="13"/>
@@ -17373,7 +17284,7 @@
       <c r="H621" s="13"/>
       <c r="I621" s="13"/>
       <c r="J621" s="13"/>
-      <c r="K621" s="21"/>
+      <c r="K621" s="13"/>
       <c r="L621" s="13"/>
       <c r="M621" s="13"/>
       <c r="N621" s="13"/>
@@ -17400,7 +17311,7 @@
       <c r="H622" s="13"/>
       <c r="I622" s="13"/>
       <c r="J622" s="13"/>
-      <c r="K622" s="21"/>
+      <c r="K622" s="13"/>
       <c r="L622" s="13"/>
       <c r="M622" s="13"/>
       <c r="N622" s="13"/>
@@ -17427,7 +17338,7 @@
       <c r="H623" s="13"/>
       <c r="I623" s="13"/>
       <c r="J623" s="13"/>
-      <c r="K623" s="21"/>
+      <c r="K623" s="13"/>
       <c r="L623" s="13"/>
       <c r="M623" s="13"/>
       <c r="N623" s="13"/>
@@ -17454,7 +17365,7 @@
       <c r="H624" s="13"/>
       <c r="I624" s="13"/>
       <c r="J624" s="13"/>
-      <c r="K624" s="21"/>
+      <c r="K624" s="13"/>
       <c r="L624" s="13"/>
       <c r="M624" s="13"/>
       <c r="N624" s="13"/>
@@ -17481,7 +17392,7 @@
       <c r="H625" s="13"/>
       <c r="I625" s="13"/>
       <c r="J625" s="13"/>
-      <c r="K625" s="21"/>
+      <c r="K625" s="13"/>
       <c r="L625" s="13"/>
       <c r="M625" s="13"/>
       <c r="N625" s="13"/>
@@ -17508,7 +17419,7 @@
       <c r="H626" s="13"/>
       <c r="I626" s="13"/>
       <c r="J626" s="13"/>
-      <c r="K626" s="21"/>
+      <c r="K626" s="13"/>
       <c r="L626" s="13"/>
       <c r="M626" s="13"/>
       <c r="N626" s="13"/>
@@ -17535,7 +17446,7 @@
       <c r="H627" s="13"/>
       <c r="I627" s="13"/>
       <c r="J627" s="13"/>
-      <c r="K627" s="21"/>
+      <c r="K627" s="13"/>
       <c r="L627" s="13"/>
       <c r="M627" s="13"/>
       <c r="N627" s="13"/>
@@ -17562,7 +17473,7 @@
       <c r="H628" s="13"/>
       <c r="I628" s="13"/>
       <c r="J628" s="13"/>
-      <c r="K628" s="21"/>
+      <c r="K628" s="13"/>
       <c r="L628" s="13"/>
       <c r="M628" s="13"/>
       <c r="N628" s="13"/>
@@ -17589,7 +17500,7 @@
       <c r="H629" s="13"/>
       <c r="I629" s="13"/>
       <c r="J629" s="13"/>
-      <c r="K629" s="21"/>
+      <c r="K629" s="13"/>
       <c r="L629" s="13"/>
       <c r="M629" s="13"/>
       <c r="N629" s="13"/>
@@ -17616,7 +17527,7 @@
       <c r="H630" s="13"/>
       <c r="I630" s="13"/>
       <c r="J630" s="13"/>
-      <c r="K630" s="21"/>
+      <c r="K630" s="13"/>
       <c r="L630" s="13"/>
       <c r="M630" s="13"/>
       <c r="N630" s="13"/>
@@ -17643,7 +17554,7 @@
       <c r="H631" s="13"/>
       <c r="I631" s="13"/>
       <c r="J631" s="13"/>
-      <c r="K631" s="21"/>
+      <c r="K631" s="13"/>
       <c r="L631" s="13"/>
       <c r="M631" s="13"/>
       <c r="N631" s="13"/>
@@ -17670,7 +17581,7 @@
       <c r="H632" s="13"/>
       <c r="I632" s="13"/>
       <c r="J632" s="13"/>
-      <c r="K632" s="21"/>
+      <c r="K632" s="13"/>
       <c r="L632" s="13"/>
       <c r="M632" s="13"/>
       <c r="N632" s="13"/>
@@ -17697,7 +17608,7 @@
       <c r="H633" s="13"/>
       <c r="I633" s="13"/>
       <c r="J633" s="13"/>
-      <c r="K633" s="21"/>
+      <c r="K633" s="13"/>
       <c r="L633" s="13"/>
       <c r="M633" s="13"/>
       <c r="N633" s="13"/>
@@ -17724,7 +17635,7 @@
       <c r="H634" s="13"/>
       <c r="I634" s="13"/>
       <c r="J634" s="13"/>
-      <c r="K634" s="21"/>
+      <c r="K634" s="13"/>
       <c r="L634" s="13"/>
       <c r="M634" s="13"/>
       <c r="N634" s="13"/>
@@ -17751,7 +17662,7 @@
       <c r="H635" s="13"/>
       <c r="I635" s="13"/>
       <c r="J635" s="13"/>
-      <c r="K635" s="21"/>
+      <c r="K635" s="13"/>
       <c r="L635" s="13"/>
       <c r="M635" s="13"/>
       <c r="N635" s="13"/>
@@ -17778,7 +17689,7 @@
       <c r="H636" s="13"/>
       <c r="I636" s="13"/>
       <c r="J636" s="13"/>
-      <c r="K636" s="21"/>
+      <c r="K636" s="13"/>
       <c r="L636" s="13"/>
       <c r="M636" s="13"/>
       <c r="N636" s="13"/>
@@ -17805,7 +17716,7 @@
       <c r="H637" s="13"/>
       <c r="I637" s="13"/>
       <c r="J637" s="13"/>
-      <c r="K637" s="21"/>
+      <c r="K637" s="13"/>
       <c r="L637" s="13"/>
       <c r="M637" s="13"/>
       <c r="N637" s="13"/>
@@ -17832,7 +17743,7 @@
       <c r="H638" s="13"/>
       <c r="I638" s="13"/>
       <c r="J638" s="13"/>
-      <c r="K638" s="21"/>
+      <c r="K638" s="13"/>
       <c r="L638" s="13"/>
       <c r="M638" s="13"/>
       <c r="N638" s="13"/>
@@ -17859,7 +17770,7 @@
       <c r="H639" s="13"/>
       <c r="I639" s="13"/>
       <c r="J639" s="13"/>
-      <c r="K639" s="21"/>
+      <c r="K639" s="13"/>
       <c r="L639" s="13"/>
       <c r="M639" s="13"/>
       <c r="N639" s="13"/>
@@ -17886,7 +17797,7 @@
       <c r="H640" s="13"/>
       <c r="I640" s="13"/>
       <c r="J640" s="13"/>
-      <c r="K640" s="21"/>
+      <c r="K640" s="13"/>
       <c r="L640" s="13"/>
       <c r="M640" s="13"/>
       <c r="N640" s="13"/>
@@ -17913,7 +17824,7 @@
       <c r="H641" s="13"/>
       <c r="I641" s="13"/>
       <c r="J641" s="13"/>
-      <c r="K641" s="21"/>
+      <c r="K641" s="13"/>
       <c r="L641" s="13"/>
       <c r="M641" s="13"/>
       <c r="N641" s="13"/>
@@ -17940,7 +17851,7 @@
       <c r="H642" s="13"/>
       <c r="I642" s="13"/>
       <c r="J642" s="13"/>
-      <c r="K642" s="21"/>
+      <c r="K642" s="13"/>
       <c r="L642" s="13"/>
       <c r="M642" s="13"/>
       <c r="N642" s="13"/>
@@ -17967,7 +17878,7 @@
       <c r="H643" s="13"/>
       <c r="I643" s="13"/>
       <c r="J643" s="13"/>
-      <c r="K643" s="21"/>
+      <c r="K643" s="13"/>
       <c r="L643" s="13"/>
       <c r="M643" s="13"/>
       <c r="N643" s="13"/>
@@ -17994,7 +17905,7 @@
       <c r="H644" s="13"/>
       <c r="I644" s="13"/>
       <c r="J644" s="13"/>
-      <c r="K644" s="21"/>
+      <c r="K644" s="13"/>
       <c r="L644" s="13"/>
       <c r="M644" s="13"/>
       <c r="N644" s="13"/>
@@ -18021,7 +17932,7 @@
       <c r="H645" s="13"/>
       <c r="I645" s="13"/>
       <c r="J645" s="13"/>
-      <c r="K645" s="21"/>
+      <c r="K645" s="13"/>
       <c r="L645" s="13"/>
       <c r="M645" s="13"/>
       <c r="N645" s="13"/>
@@ -18048,7 +17959,7 @@
       <c r="H646" s="13"/>
       <c r="I646" s="13"/>
       <c r="J646" s="13"/>
-      <c r="K646" s="21"/>
+      <c r="K646" s="13"/>
       <c r="L646" s="13"/>
       <c r="M646" s="13"/>
       <c r="N646" s="13"/>
@@ -18075,7 +17986,7 @@
       <c r="H647" s="13"/>
       <c r="I647" s="13"/>
       <c r="J647" s="13"/>
-      <c r="K647" s="21"/>
+      <c r="K647" s="13"/>
       <c r="L647" s="13"/>
       <c r="M647" s="13"/>
       <c r="N647" s="13"/>
@@ -18102,7 +18013,7 @@
       <c r="H648" s="13"/>
       <c r="I648" s="13"/>
       <c r="J648" s="13"/>
-      <c r="K648" s="21"/>
+      <c r="K648" s="13"/>
       <c r="L648" s="13"/>
       <c r="M648" s="13"/>
       <c r="N648" s="13"/>
@@ -18129,7 +18040,7 @@
       <c r="H649" s="13"/>
       <c r="I649" s="13"/>
       <c r="J649" s="13"/>
-      <c r="K649" s="21"/>
+      <c r="K649" s="13"/>
       <c r="L649" s="13"/>
       <c r="M649" s="13"/>
       <c r="N649" s="13"/>
@@ -18156,7 +18067,7 @@
       <c r="H650" s="13"/>
       <c r="I650" s="13"/>
       <c r="J650" s="13"/>
-      <c r="K650" s="21"/>
+      <c r="K650" s="13"/>
       <c r="L650" s="13"/>
       <c r="M650" s="13"/>
       <c r="N650" s="13"/>
@@ -18183,7 +18094,7 @@
       <c r="H651" s="13"/>
       <c r="I651" s="13"/>
       <c r="J651" s="13"/>
-      <c r="K651" s="21"/>
+      <c r="K651" s="13"/>
       <c r="L651" s="13"/>
       <c r="M651" s="13"/>
       <c r="N651" s="13"/>
@@ -18210,7 +18121,7 @@
       <c r="H652" s="13"/>
       <c r="I652" s="13"/>
       <c r="J652" s="13"/>
-      <c r="K652" s="21"/>
+      <c r="K652" s="13"/>
       <c r="L652" s="13"/>
       <c r="M652" s="13"/>
       <c r="N652" s="13"/>
@@ -18237,7 +18148,7 @@
       <c r="H653" s="13"/>
       <c r="I653" s="13"/>
       <c r="J653" s="13"/>
-      <c r="K653" s="21"/>
+      <c r="K653" s="13"/>
       <c r="L653" s="13"/>
       <c r="M653" s="13"/>
       <c r="N653" s="13"/>
@@ -18264,7 +18175,7 @@
       <c r="H654" s="13"/>
       <c r="I654" s="13"/>
       <c r="J654" s="13"/>
-      <c r="K654" s="21"/>
+      <c r="K654" s="13"/>
       <c r="L654" s="13"/>
       <c r="M654" s="13"/>
       <c r="N654" s="13"/>
@@ -18291,7 +18202,7 @@
       <c r="H655" s="13"/>
       <c r="I655" s="13"/>
       <c r="J655" s="13"/>
-      <c r="K655" s="21"/>
+      <c r="K655" s="13"/>
       <c r="L655" s="13"/>
       <c r="M655" s="13"/>
       <c r="N655" s="13"/>
@@ -18318,7 +18229,7 @@
       <c r="H656" s="13"/>
       <c r="I656" s="13"/>
       <c r="J656" s="13"/>
-      <c r="K656" s="21"/>
+      <c r="K656" s="13"/>
       <c r="L656" s="13"/>
       <c r="M656" s="13"/>
       <c r="N656" s="13"/>
@@ -18345,7 +18256,7 @@
       <c r="H657" s="13"/>
       <c r="I657" s="13"/>
       <c r="J657" s="13"/>
-      <c r="K657" s="21"/>
+      <c r="K657" s="13"/>
       <c r="L657" s="13"/>
       <c r="M657" s="13"/>
       <c r="N657" s="13"/>
@@ -18372,7 +18283,7 @@
       <c r="H658" s="13"/>
       <c r="I658" s="13"/>
       <c r="J658" s="13"/>
-      <c r="K658" s="21"/>
+      <c r="K658" s="13"/>
       <c r="L658" s="13"/>
       <c r="M658" s="13"/>
       <c r="N658" s="13"/>
@@ -18399,7 +18310,7 @@
       <c r="H659" s="13"/>
       <c r="I659" s="13"/>
       <c r="J659" s="13"/>
-      <c r="K659" s="21"/>
+      <c r="K659" s="13"/>
       <c r="L659" s="13"/>
       <c r="M659" s="13"/>
       <c r="N659" s="13"/>
@@ -18426,7 +18337,7 @@
       <c r="H660" s="13"/>
       <c r="I660" s="13"/>
       <c r="J660" s="13"/>
-      <c r="K660" s="21"/>
+      <c r="K660" s="13"/>
       <c r="L660" s="13"/>
       <c r="M660" s="13"/>
       <c r="N660" s="13"/>
@@ -18453,7 +18364,7 @@
       <c r="H661" s="13"/>
       <c r="I661" s="13"/>
       <c r="J661" s="13"/>
-      <c r="K661" s="21"/>
+      <c r="K661" s="13"/>
       <c r="L661" s="13"/>
       <c r="M661" s="13"/>
       <c r="N661" s="13"/>
@@ -18480,7 +18391,7 @@
       <c r="H662" s="13"/>
       <c r="I662" s="13"/>
       <c r="J662" s="13"/>
-      <c r="K662" s="21"/>
+      <c r="K662" s="13"/>
       <c r="L662" s="13"/>
       <c r="M662" s="13"/>
       <c r="N662" s="13"/>
@@ -18507,7 +18418,7 @@
       <c r="H663" s="13"/>
       <c r="I663" s="13"/>
       <c r="J663" s="13"/>
-      <c r="K663" s="21"/>
+      <c r="K663" s="13"/>
       <c r="L663" s="13"/>
       <c r="M663" s="13"/>
       <c r="N663" s="13"/>
@@ -18534,7 +18445,7 @@
       <c r="H664" s="13"/>
       <c r="I664" s="13"/>
       <c r="J664" s="13"/>
-      <c r="K664" s="21"/>
+      <c r="K664" s="13"/>
       <c r="L664" s="13"/>
       <c r="M664" s="13"/>
       <c r="N664" s="13"/>
@@ -18561,7 +18472,7 @@
       <c r="H665" s="13"/>
       <c r="I665" s="13"/>
       <c r="J665" s="13"/>
-      <c r="K665" s="21"/>
+      <c r="K665" s="13"/>
       <c r="L665" s="13"/>
       <c r="M665" s="13"/>
       <c r="N665" s="13"/>
@@ -18588,7 +18499,7 @@
       <c r="H666" s="13"/>
       <c r="I666" s="13"/>
       <c r="J666" s="13"/>
-      <c r="K666" s="21"/>
+      <c r="K666" s="13"/>
       <c r="L666" s="13"/>
       <c r="M666" s="13"/>
       <c r="N666" s="13"/>
@@ -18615,7 +18526,7 @@
       <c r="H667" s="13"/>
       <c r="I667" s="13"/>
       <c r="J667" s="13"/>
-      <c r="K667" s="21"/>
+      <c r="K667" s="13"/>
       <c r="L667" s="13"/>
       <c r="M667" s="13"/>
       <c r="N667" s="13"/>
@@ -18642,7 +18553,7 @@
       <c r="H668" s="13"/>
       <c r="I668" s="13"/>
       <c r="J668" s="13"/>
-      <c r="K668" s="21"/>
+      <c r="K668" s="13"/>
       <c r="L668" s="13"/>
       <c r="M668" s="13"/>
       <c r="N668" s="13"/>
@@ -18669,7 +18580,7 @@
       <c r="H669" s="13"/>
       <c r="I669" s="13"/>
       <c r="J669" s="13"/>
-      <c r="K669" s="21"/>
+      <c r="K669" s="13"/>
       <c r="L669" s="13"/>
       <c r="M669" s="13"/>
       <c r="N669" s="13"/>
@@ -18696,7 +18607,7 @@
       <c r="H670" s="13"/>
       <c r="I670" s="13"/>
       <c r="J670" s="13"/>
-      <c r="K670" s="21"/>
+      <c r="K670" s="13"/>
       <c r="L670" s="13"/>
       <c r="M670" s="13"/>
       <c r="N670" s="13"/>
@@ -18723,7 +18634,7 @@
       <c r="H671" s="13"/>
       <c r="I671" s="13"/>
       <c r="J671" s="13"/>
-      <c r="K671" s="21"/>
+      <c r="K671" s="13"/>
       <c r="L671" s="13"/>
       <c r="M671" s="13"/>
       <c r="N671" s="13"/>
@@ -18750,7 +18661,7 @@
       <c r="H672" s="13"/>
       <c r="I672" s="13"/>
       <c r="J672" s="13"/>
-      <c r="K672" s="21"/>
+      <c r="K672" s="13"/>
       <c r="L672" s="13"/>
       <c r="M672" s="13"/>
       <c r="N672" s="13"/>
@@ -18777,7 +18688,7 @@
       <c r="H673" s="13"/>
       <c r="I673" s="13"/>
       <c r="J673" s="13"/>
-      <c r="K673" s="21"/>
+      <c r="K673" s="13"/>
       <c r="L673" s="13"/>
       <c r="M673" s="13"/>
       <c r="N673" s="13"/>
@@ -18804,7 +18715,7 @@
       <c r="H674" s="13"/>
       <c r="I674" s="13"/>
       <c r="J674" s="13"/>
-      <c r="K674" s="21"/>
+      <c r="K674" s="13"/>
       <c r="L674" s="13"/>
       <c r="M674" s="13"/>
       <c r="N674" s="13"/>
@@ -18831,7 +18742,7 @@
       <c r="H675" s="13"/>
       <c r="I675" s="13"/>
       <c r="J675" s="13"/>
-      <c r="K675" s="21"/>
+      <c r="K675" s="13"/>
       <c r="L675" s="13"/>
       <c r="M675" s="13"/>
       <c r="N675" s="13"/>
@@ -18858,7 +18769,7 @@
       <c r="H676" s="13"/>
       <c r="I676" s="13"/>
       <c r="J676" s="13"/>
-      <c r="K676" s="21"/>
+      <c r="K676" s="13"/>
       <c r="L676" s="13"/>
       <c r="M676" s="13"/>
       <c r="N676" s="13"/>
@@ -18885,7 +18796,7 @@
       <c r="H677" s="13"/>
       <c r="I677" s="13"/>
       <c r="J677" s="13"/>
-      <c r="K677" s="21"/>
+      <c r="K677" s="13"/>
       <c r="L677" s="13"/>
       <c r="M677" s="13"/>
       <c r="N677" s="13"/>
@@ -18912,7 +18823,7 @@
       <c r="H678" s="13"/>
       <c r="I678" s="13"/>
       <c r="J678" s="13"/>
-      <c r="K678" s="21"/>
+      <c r="K678" s="13"/>
       <c r="L678" s="13"/>
       <c r="M678" s="13"/>
       <c r="N678" s="13"/>
@@ -18939,7 +18850,7 @@
       <c r="H679" s="13"/>
       <c r="I679" s="13"/>
       <c r="J679" s="13"/>
-      <c r="K679" s="21"/>
+      <c r="K679" s="13"/>
       <c r="L679" s="13"/>
       <c r="M679" s="13"/>
       <c r="N679" s="13"/>
@@ -18966,7 +18877,7 @@
       <c r="H680" s="13"/>
       <c r="I680" s="13"/>
       <c r="J680" s="13"/>
-      <c r="K680" s="21"/>
+      <c r="K680" s="13"/>
       <c r="L680" s="13"/>
       <c r="M680" s="13"/>
       <c r="N680" s="13"/>
@@ -18993,7 +18904,7 @@
       <c r="H681" s="13"/>
       <c r="I681" s="13"/>
       <c r="J681" s="13"/>
-      <c r="K681" s="21"/>
+      <c r="K681" s="13"/>
       <c r="L681" s="13"/>
       <c r="M681" s="13"/>
       <c r="N681" s="13"/>
@@ -19020,7 +18931,7 @@
       <c r="H682" s="13"/>
       <c r="I682" s="13"/>
       <c r="J682" s="13"/>
-      <c r="K682" s="21"/>
+      <c r="K682" s="13"/>
       <c r="L682" s="13"/>
       <c r="M682" s="13"/>
       <c r="N682" s="13"/>
@@ -19047,7 +18958,7 @@
       <c r="H683" s="13"/>
       <c r="I683" s="13"/>
       <c r="J683" s="13"/>
-      <c r="K683" s="21"/>
+      <c r="K683" s="13"/>
       <c r="L683" s="13"/>
       <c r="M683" s="13"/>
       <c r="N683" s="13"/>
@@ -19074,7 +18985,7 @@
       <c r="H684" s="13"/>
       <c r="I684" s="13"/>
       <c r="J684" s="13"/>
-      <c r="K684" s="21"/>
+      <c r="K684" s="13"/>
       <c r="L684" s="13"/>
       <c r="M684" s="13"/>
       <c r="N684" s="13"/>
@@ -19101,7 +19012,7 @@
       <c r="H685" s="13"/>
       <c r="I685" s="13"/>
       <c r="J685" s="13"/>
-      <c r="K685" s="21"/>
+      <c r="K685" s="13"/>
       <c r="L685" s="13"/>
       <c r="M685" s="13"/>
       <c r="N685" s="13"/>
@@ -19128,7 +19039,7 @@
       <c r="H686" s="13"/>
       <c r="I686" s="13"/>
       <c r="J686" s="13"/>
-      <c r="K686" s="21"/>
+      <c r="K686" s="13"/>
       <c r="L686" s="13"/>
       <c r="M686" s="13"/>
       <c r="N686" s="13"/>
@@ -19155,7 +19066,7 @@
       <c r="H687" s="13"/>
       <c r="I687" s="13"/>
       <c r="J687" s="13"/>
-      <c r="K687" s="21"/>
+      <c r="K687" s="13"/>
       <c r="L687" s="13"/>
       <c r="M687" s="13"/>
       <c r="N687" s="13"/>
@@ -19182,7 +19093,7 @@
       <c r="H688" s="13"/>
       <c r="I688" s="13"/>
       <c r="J688" s="13"/>
-      <c r="K688" s="21"/>
+      <c r="K688" s="13"/>
       <c r="L688" s="13"/>
       <c r="M688" s="13"/>
       <c r="N688" s="13"/>
@@ -19209,7 +19120,7 @@
       <c r="H689" s="13"/>
       <c r="I689" s="13"/>
       <c r="J689" s="13"/>
-      <c r="K689" s="21"/>
+      <c r="K689" s="13"/>
       <c r="L689" s="13"/>
       <c r="M689" s="13"/>
       <c r="N689" s="13"/>
@@ -19236,7 +19147,7 @@
       <c r="H690" s="13"/>
       <c r="I690" s="13"/>
       <c r="J690" s="13"/>
-      <c r="K690" s="21"/>
+      <c r="K690" s="13"/>
       <c r="L690" s="13"/>
       <c r="M690" s="13"/>
       <c r="N690" s="13"/>
@@ -19263,7 +19174,7 @@
       <c r="H691" s="13"/>
       <c r="I691" s="13"/>
       <c r="J691" s="13"/>
-      <c r="K691" s="21"/>
+      <c r="K691" s="13"/>
       <c r="L691" s="13"/>
       <c r="M691" s="13"/>
       <c r="N691" s="13"/>
@@ -19290,7 +19201,7 @@
       <c r="H692" s="13"/>
       <c r="I692" s="13"/>
       <c r="J692" s="13"/>
-      <c r="K692" s="21"/>
+      <c r="K692" s="13"/>
       <c r="L692" s="13"/>
       <c r="M692" s="13"/>
       <c r="N692" s="13"/>
@@ -19317,7 +19228,7 @@
       <c r="H693" s="13"/>
       <c r="I693" s="13"/>
       <c r="J693" s="13"/>
-      <c r="K693" s="21"/>
+      <c r="K693" s="13"/>
       <c r="L693" s="13"/>
       <c r="M693" s="13"/>
       <c r="N693" s="13"/>
@@ -19344,7 +19255,7 @@
       <c r="H694" s="13"/>
       <c r="I694" s="13"/>
       <c r="J694" s="13"/>
-      <c r="K694" s="21"/>
+      <c r="K694" s="13"/>
       <c r="L694" s="13"/>
       <c r="M694" s="13"/>
       <c r="N694" s="13"/>
@@ -19371,7 +19282,7 @@
       <c r="H695" s="13"/>
       <c r="I695" s="13"/>
       <c r="J695" s="13"/>
-      <c r="K695" s="21"/>
+      <c r="K695" s="13"/>
       <c r="L695" s="13"/>
       <c r="M695" s="13"/>
       <c r="N695" s="13"/>
@@ -19398,7 +19309,7 @@
       <c r="H696" s="13"/>
       <c r="I696" s="13"/>
       <c r="J696" s="13"/>
-      <c r="K696" s="21"/>
+      <c r="K696" s="13"/>
       <c r="L696" s="13"/>
       <c r="M696" s="13"/>
       <c r="N696" s="13"/>
@@ -19425,7 +19336,7 @@
       <c r="H697" s="13"/>
       <c r="I697" s="13"/>
       <c r="J697" s="13"/>
-      <c r="K697" s="21"/>
+      <c r="K697" s="13"/>
       <c r="L697" s="13"/>
       <c r="M697" s="13"/>
       <c r="N697" s="13"/>
@@ -19452,7 +19363,7 @@
       <c r="H698" s="13"/>
       <c r="I698" s="13"/>
       <c r="J698" s="13"/>
-      <c r="K698" s="21"/>
+      <c r="K698" s="13"/>
       <c r="L698" s="13"/>
       <c r="M698" s="13"/>
       <c r="N698" s="13"/>
@@ -19479,7 +19390,7 @@
       <c r="H699" s="13"/>
       <c r="I699" s="13"/>
       <c r="J699" s="13"/>
-      <c r="K699" s="21"/>
+      <c r="K699" s="13"/>
       <c r="L699" s="13"/>
       <c r="M699" s="13"/>
       <c r="N699" s="13"/>
@@ -19506,7 +19417,7 @@
       <c r="H700" s="13"/>
       <c r="I700" s="13"/>
       <c r="J700" s="13"/>
-      <c r="K700" s="21"/>
+      <c r="K700" s="13"/>
       <c r="L700" s="13"/>
       <c r="M700" s="13"/>
       <c r="N700" s="13"/>
@@ -19533,7 +19444,7 @@
       <c r="H701" s="13"/>
       <c r="I701" s="13"/>
       <c r="J701" s="13"/>
-      <c r="K701" s="21"/>
+      <c r="K701" s="13"/>
       <c r="L701" s="13"/>
       <c r="M701" s="13"/>
       <c r="N701" s="13"/>
@@ -19560,7 +19471,7 @@
       <c r="H702" s="13"/>
       <c r="I702" s="13"/>
       <c r="J702" s="13"/>
-      <c r="K702" s="21"/>
+      <c r="K702" s="13"/>
       <c r="L702" s="13"/>
       <c r="M702" s="13"/>
       <c r="N702" s="13"/>
@@ -19587,7 +19498,7 @@
       <c r="H703" s="13"/>
       <c r="I703" s="13"/>
       <c r="J703" s="13"/>
-      <c r="K703" s="21"/>
+      <c r="K703" s="13"/>
       <c r="L703" s="13"/>
       <c r="M703" s="13"/>
       <c r="N703" s="13"/>
@@ -19614,7 +19525,7 @@
       <c r="H704" s="13"/>
       <c r="I704" s="13"/>
       <c r="J704" s="13"/>
-      <c r="K704" s="21"/>
+      <c r="K704" s="13"/>
       <c r="L704" s="13"/>
       <c r="M704" s="13"/>
       <c r="N704" s="13"/>
@@ -19641,7 +19552,7 @@
       <c r="H705" s="13"/>
       <c r="I705" s="13"/>
       <c r="J705" s="13"/>
-      <c r="K705" s="21"/>
+      <c r="K705" s="13"/>
       <c r="L705" s="13"/>
       <c r="M705" s="13"/>
       <c r="N705" s="13"/>
@@ -19668,7 +19579,7 @@
       <c r="H706" s="13"/>
       <c r="I706" s="13"/>
       <c r="J706" s="13"/>
-      <c r="K706" s="21"/>
+      <c r="K706" s="13"/>
       <c r="L706" s="13"/>
       <c r="M706" s="13"/>
       <c r="N706" s="13"/>
@@ -19695,7 +19606,7 @@
       <c r="H707" s="13"/>
       <c r="I707" s="13"/>
       <c r="J707" s="13"/>
-      <c r="K707" s="21"/>
+      <c r="K707" s="13"/>
       <c r="L707" s="13"/>
       <c r="M707" s="13"/>
       <c r="N707" s="13"/>
@@ -19722,7 +19633,7 @@
       <c r="H708" s="13"/>
       <c r="I708" s="13"/>
       <c r="J708" s="13"/>
-      <c r="K708" s="21"/>
+      <c r="K708" s="13"/>
       <c r="L708" s="13"/>
       <c r="M708" s="13"/>
       <c r="N708" s="13"/>
@@ -19749,7 +19660,7 @@
       <c r="H709" s="13"/>
       <c r="I709" s="13"/>
       <c r="J709" s="13"/>
-      <c r="K709" s="21"/>
+      <c r="K709" s="13"/>
       <c r="L709" s="13"/>
       <c r="M709" s="13"/>
       <c r="N709" s="13"/>
@@ -19776,7 +19687,7 @@
       <c r="H710" s="13"/>
       <c r="I710" s="13"/>
       <c r="J710" s="13"/>
-      <c r="K710" s="21"/>
+      <c r="K710" s="13"/>
       <c r="L710" s="13"/>
       <c r="M710" s="13"/>
       <c r="N710" s="13"/>
@@ -19803,7 +19714,7 @@
       <c r="H711" s="13"/>
       <c r="I711" s="13"/>
       <c r="J711" s="13"/>
-      <c r="K711" s="21"/>
+      <c r="K711" s="13"/>
       <c r="L711" s="13"/>
       <c r="M711" s="13"/>
       <c r="N711" s="13"/>
@@ -19830,7 +19741,7 @@
       <c r="H712" s="13"/>
       <c r="I712" s="13"/>
       <c r="J712" s="13"/>
-      <c r="K712" s="21"/>
+      <c r="K712" s="13"/>
       <c r="L712" s="13"/>
       <c r="M712" s="13"/>
       <c r="N712" s="13"/>
@@ -19857,7 +19768,7 @@
       <c r="H713" s="13"/>
       <c r="I713" s="13"/>
       <c r="J713" s="13"/>
-      <c r="K713" s="21"/>
+      <c r="K713" s="13"/>
       <c r="L713" s="13"/>
       <c r="M713" s="13"/>
       <c r="N713" s="13"/>
@@ -19884,7 +19795,7 @@
       <c r="H714" s="13"/>
       <c r="I714" s="13"/>
       <c r="J714" s="13"/>
-      <c r="K714" s="21"/>
+      <c r="K714" s="13"/>
       <c r="L714" s="13"/>
       <c r="M714" s="13"/>
       <c r="N714" s="13"/>
@@ -19911,7 +19822,7 @@
       <c r="H715" s="13"/>
       <c r="I715" s="13"/>
       <c r="J715" s="13"/>
-      <c r="K715" s="21"/>
+      <c r="K715" s="13"/>
       <c r="L715" s="13"/>
       <c r="M715" s="13"/>
       <c r="N715" s="13"/>
@@ -19938,7 +19849,7 @@
       <c r="H716" s="13"/>
       <c r="I716" s="13"/>
       <c r="J716" s="13"/>
-      <c r="K716" s="21"/>
+      <c r="K716" s="13"/>
       <c r="L716" s="13"/>
       <c r="M716" s="13"/>
       <c r="N716" s="13"/>
@@ -19965,7 +19876,7 @@
       <c r="H717" s="13"/>
       <c r="I717" s="13"/>
       <c r="J717" s="13"/>
-      <c r="K717" s="21"/>
+      <c r="K717" s="13"/>
       <c r="L717" s="13"/>
       <c r="M717" s="13"/>
       <c r="N717" s="13"/>
@@ -19992,7 +19903,7 @@
       <c r="H718" s="13"/>
       <c r="I718" s="13"/>
       <c r="J718" s="13"/>
-      <c r="K718" s="21"/>
+      <c r="K718" s="13"/>
       <c r="L718" s="13"/>
       <c r="M718" s="13"/>
       <c r="N718" s="13"/>
@@ -20019,7 +19930,7 @@
       <c r="H719" s="13"/>
       <c r="I719" s="13"/>
       <c r="J719" s="13"/>
-      <c r="K719" s="21"/>
+      <c r="K719" s="13"/>
       <c r="L719" s="13"/>
       <c r="M719" s="13"/>
       <c r="N719" s="13"/>
@@ -20046,7 +19957,7 @@
       <c r="H720" s="13"/>
       <c r="I720" s="13"/>
       <c r="J720" s="13"/>
-      <c r="K720" s="21"/>
+      <c r="K720" s="13"/>
       <c r="L720" s="13"/>
       <c r="M720" s="13"/>
       <c r="N720" s="13"/>
@@ -20073,7 +19984,7 @@
       <c r="H721" s="13"/>
       <c r="I721" s="13"/>
       <c r="J721" s="13"/>
-      <c r="K721" s="21"/>
+      <c r="K721" s="13"/>
       <c r="L721" s="13"/>
       <c r="M721" s="13"/>
       <c r="N721" s="13"/>
@@ -20100,7 +20011,7 @@
       <c r="H722" s="13"/>
       <c r="I722" s="13"/>
       <c r="J722" s="13"/>
-      <c r="K722" s="21"/>
+      <c r="K722" s="13"/>
       <c r="L722" s="13"/>
       <c r="M722" s="13"/>
       <c r="N722" s="13"/>
@@ -20127,7 +20038,7 @@
       <c r="H723" s="13"/>
       <c r="I723" s="13"/>
       <c r="J723" s="13"/>
-      <c r="K723" s="21"/>
+      <c r="K723" s="13"/>
       <c r="L723" s="13"/>
       <c r="M723" s="13"/>
       <c r="N723" s="13"/>
@@ -20154,7 +20065,7 @@
       <c r="H724" s="13"/>
       <c r="I724" s="13"/>
       <c r="J724" s="13"/>
-      <c r="K724" s="21"/>
+      <c r="K724" s="13"/>
       <c r="L724" s="13"/>
       <c r="M724" s="13"/>
       <c r="N724" s="13"/>
@@ -20181,7 +20092,7 @@
       <c r="H725" s="13"/>
       <c r="I725" s="13"/>
       <c r="J725" s="13"/>
-      <c r="K725" s="21"/>
+      <c r="K725" s="13"/>
       <c r="L725" s="13"/>
       <c r="M725" s="13"/>
       <c r="N725" s="13"/>
@@ -20208,7 +20119,7 @@
       <c r="H726" s="13"/>
       <c r="I726" s="13"/>
       <c r="J726" s="13"/>
-      <c r="K726" s="21"/>
+      <c r="K726" s="13"/>
       <c r="L726" s="13"/>
       <c r="M726" s="13"/>
       <c r="N726" s="13"/>
@@ -20235,7 +20146,7 @@
       <c r="H727" s="13"/>
       <c r="I727" s="13"/>
       <c r="J727" s="13"/>
-      <c r="K727" s="21"/>
+      <c r="K727" s="13"/>
       <c r="L727" s="13"/>
       <c r="M727" s="13"/>
       <c r="N727" s="13"/>
@@ -20262,7 +20173,7 @@
       <c r="H728" s="13"/>
       <c r="I728" s="13"/>
       <c r="J728" s="13"/>
-      <c r="K728" s="21"/>
+      <c r="K728" s="13"/>
       <c r="L728" s="13"/>
       <c r="M728" s="13"/>
       <c r="N728" s="13"/>
@@ -20289,7 +20200,7 @@
       <c r="H729" s="13"/>
       <c r="I729" s="13"/>
       <c r="J729" s="13"/>
-      <c r="K729" s="21"/>
+      <c r="K729" s="13"/>
       <c r="L729" s="13"/>
       <c r="M729" s="13"/>
       <c r="N729" s="13"/>
@@ -20316,7 +20227,7 @@
       <c r="H730" s="13"/>
       <c r="I730" s="13"/>
       <c r="J730" s="13"/>
-      <c r="K730" s="21"/>
+      <c r="K730" s="13"/>
       <c r="L730" s="13"/>
       <c r="M730" s="13"/>
       <c r="N730" s="13"/>
@@ -20343,7 +20254,7 @@
       <c r="H731" s="13"/>
       <c r="I731" s="13"/>
       <c r="J731" s="13"/>
-      <c r="K731" s="21"/>
+      <c r="K731" s="13"/>
       <c r="L731" s="13"/>
       <c r="M731" s="13"/>
       <c r="N731" s="13"/>
@@ -20370,7 +20281,7 @@
       <c r="H732" s="13"/>
       <c r="I732" s="13"/>
       <c r="J732" s="13"/>
-      <c r="K732" s="21"/>
+      <c r="K732" s="13"/>
       <c r="L732" s="13"/>
       <c r="M732" s="13"/>
       <c r="N732" s="13"/>
@@ -20397,7 +20308,7 @@
       <c r="H733" s="13"/>
       <c r="I733" s="13"/>
       <c r="J733" s="13"/>
-      <c r="K733" s="21"/>
+      <c r="K733" s="13"/>
       <c r="L733" s="13"/>
       <c r="M733" s="13"/>
       <c r="N733" s="13"/>
@@ -20424,7 +20335,7 @@
       <c r="H734" s="13"/>
       <c r="I734" s="13"/>
       <c r="J734" s="13"/>
-      <c r="K734" s="21"/>
+      <c r="K734" s="13"/>
       <c r="L734" s="13"/>
       <c r="M734" s="13"/>
       <c r="N734" s="13"/>
@@ -20451,7 +20362,7 @@
       <c r="H735" s="13"/>
       <c r="I735" s="13"/>
       <c r="J735" s="13"/>
-      <c r="K735" s="21"/>
+      <c r="K735" s="13"/>
       <c r="L735" s="13"/>
       <c r="M735" s="13"/>
       <c r="N735" s="13"/>
@@ -20478,7 +20389,7 @@
       <c r="H736" s="13"/>
       <c r="I736" s="13"/>
       <c r="J736" s="13"/>
-      <c r="K736" s="21"/>
+      <c r="K736" s="13"/>
       <c r="L736" s="13"/>
       <c r="M736" s="13"/>
       <c r="N736" s="13"/>
@@ -20505,7 +20416,7 @@
       <c r="H737" s="13"/>
       <c r="I737" s="13"/>
       <c r="J737" s="13"/>
-      <c r="K737" s="21"/>
+      <c r="K737" s="13"/>
       <c r="L737" s="13"/>
       <c r="M737" s="13"/>
       <c r="N737" s="13"/>
@@ -20532,7 +20443,7 @@
       <c r="H738" s="13"/>
       <c r="I738" s="13"/>
       <c r="J738" s="13"/>
-      <c r="K738" s="21"/>
+      <c r="K738" s="13"/>
       <c r="L738" s="13"/>
       <c r="M738" s="13"/>
       <c r="N738" s="13"/>
@@ -20559,7 +20470,7 @@
       <c r="H739" s="13"/>
       <c r="I739" s="13"/>
       <c r="J739" s="13"/>
-      <c r="K739" s="21"/>
+      <c r="K739" s="13"/>
       <c r="L739" s="13"/>
       <c r="M739" s="13"/>
       <c r="N739" s="13"/>
@@ -20586,7 +20497,7 @@
       <c r="H740" s="13"/>
       <c r="I740" s="13"/>
       <c r="J740" s="13"/>
-      <c r="K740" s="21"/>
+      <c r="K740" s="13"/>
       <c r="L740" s="13"/>
       <c r="M740" s="13"/>
       <c r="N740" s="13"/>
@@ -20613,7 +20524,7 @@
       <c r="H741" s="13"/>
       <c r="I741" s="13"/>
       <c r="J741" s="13"/>
-      <c r="K741" s="21"/>
+      <c r="K741" s="13"/>
       <c r="L741" s="13"/>
       <c r="M741" s="13"/>
       <c r="N741" s="13"/>
@@ -20640,7 +20551,7 @@
       <c r="H742" s="13"/>
       <c r="I742" s="13"/>
       <c r="J742" s="13"/>
-      <c r="K742" s="21"/>
+      <c r="K742" s="13"/>
       <c r="L742" s="13"/>
       <c r="M742" s="13"/>
       <c r="N742" s="13"/>
@@ -20667,7 +20578,7 @@
       <c r="H743" s="13"/>
       <c r="I743" s="13"/>
       <c r="J743" s="13"/>
-      <c r="K743" s="21"/>
+      <c r="K743" s="13"/>
       <c r="L743" s="13"/>
       <c r="M743" s="13"/>
       <c r="N743" s="13"/>
@@ -20694,7 +20605,7 @@
       <c r="H744" s="13"/>
       <c r="I744" s="13"/>
       <c r="J744" s="13"/>
-      <c r="K744" s="21"/>
+      <c r="K744" s="13"/>
       <c r="L744" s="13"/>
       <c r="M744" s="13"/>
       <c r="N744" s="13"/>
@@ -20721,7 +20632,7 @@
       <c r="H745" s="13"/>
       <c r="I745" s="13"/>
       <c r="J745" s="13"/>
-      <c r="K745" s="21"/>
+      <c r="K745" s="13"/>
       <c r="L745" s="13"/>
       <c r="M745" s="13"/>
       <c r="N745" s="13"/>
@@ -20748,7 +20659,7 @@
       <c r="H746" s="13"/>
       <c r="I746" s="13"/>
       <c r="J746" s="13"/>
-      <c r="K746" s="21"/>
+      <c r="K746" s="13"/>
       <c r="L746" s="13"/>
       <c r="M746" s="13"/>
       <c r="N746" s="13"/>
@@ -20775,7 +20686,7 @@
       <c r="H747" s="13"/>
       <c r="I747" s="13"/>
       <c r="J747" s="13"/>
-      <c r="K747" s="21"/>
+      <c r="K747" s="13"/>
       <c r="L747" s="13"/>
       <c r="M747" s="13"/>
       <c r="N747" s="13"/>
@@ -20802,7 +20713,7 @@
       <c r="H748" s="13"/>
       <c r="I748" s="13"/>
       <c r="J748" s="13"/>
-      <c r="K748" s="21"/>
+      <c r="K748" s="13"/>
       <c r="L748" s="13"/>
       <c r="M748" s="13"/>
       <c r="N748" s="13"/>
@@ -20829,7 +20740,7 @@
       <c r="H749" s="13"/>
       <c r="I749" s="13"/>
       <c r="J749" s="13"/>
-      <c r="K749" s="21"/>
+      <c r="K749" s="13"/>
       <c r="L749" s="13"/>
       <c r="M749" s="13"/>
       <c r="N749" s="13"/>
@@ -20856,7 +20767,7 @@
       <c r="H750" s="13"/>
       <c r="I750" s="13"/>
       <c r="J750" s="13"/>
-      <c r="K750" s="21"/>
+      <c r="K750" s="13"/>
       <c r="L750" s="13"/>
       <c r="M750" s="13"/>
       <c r="N750" s="13"/>
@@ -20883,7 +20794,7 @@
       <c r="H751" s="13"/>
       <c r="I751" s="13"/>
       <c r="J751" s="13"/>
-      <c r="K751" s="21"/>
+      <c r="K751" s="13"/>
       <c r="L751" s="13"/>
       <c r="M751" s="13"/>
       <c r="N751" s="13"/>
@@ -20910,7 +20821,7 @@
       <c r="H752" s="13"/>
       <c r="I752" s="13"/>
       <c r="J752" s="13"/>
-      <c r="K752" s="21"/>
+      <c r="K752" s="13"/>
       <c r="L752" s="13"/>
       <c r="M752" s="13"/>
       <c r="N752" s="13"/>
@@ -20937,7 +20848,7 @@
       <c r="H753" s="13"/>
       <c r="I753" s="13"/>
       <c r="J753" s="13"/>
-      <c r="K753" s="21"/>
+      <c r="K753" s="13"/>
       <c r="L753" s="13"/>
       <c r="M753" s="13"/>
       <c r="N753" s="13"/>
@@ -20964,7 +20875,7 @@
       <c r="H754" s="13"/>
       <c r="I754" s="13"/>
       <c r="J754" s="13"/>
-      <c r="K754" s="21"/>
+      <c r="K754" s="13"/>
       <c r="L754" s="13"/>
       <c r="M754" s="13"/>
       <c r="N754" s="13"/>
@@ -20991,7 +20902,7 @@
       <c r="H755" s="13"/>
       <c r="I755" s="13"/>
       <c r="J755" s="13"/>
-      <c r="K755" s="21"/>
+      <c r="K755" s="13"/>
       <c r="L755" s="13"/>
       <c r="M755" s="13"/>
       <c r="N755" s="13"/>
@@ -21018,7 +20929,7 @@
       <c r="H756" s="13"/>
       <c r="I756" s="13"/>
       <c r="J756" s="13"/>
-      <c r="K756" s="21"/>
+      <c r="K756" s="13"/>
       <c r="L756" s="13"/>
       <c r="M756" s="13"/>
       <c r="N756" s="13"/>
@@ -21045,7 +20956,7 @@
       <c r="H757" s="13"/>
       <c r="I757" s="13"/>
       <c r="J757" s="13"/>
-      <c r="K757" s="21"/>
+      <c r="K757" s="13"/>
       <c r="L757" s="13"/>
       <c r="M757" s="13"/>
       <c r="N757" s="13"/>
@@ -21072,7 +20983,7 @@
       <c r="H758" s="13"/>
       <c r="I758" s="13"/>
       <c r="J758" s="13"/>
-      <c r="K758" s="21"/>
+      <c r="K758" s="13"/>
       <c r="L758" s="13"/>
       <c r="M758" s="13"/>
       <c r="N758" s="13"/>
@@ -21099,7 +21010,7 @@
       <c r="H759" s="13"/>
       <c r="I759" s="13"/>
       <c r="J759" s="13"/>
-      <c r="K759" s="21"/>
+      <c r="K759" s="13"/>
       <c r="L759" s="13"/>
       <c r="M759" s="13"/>
       <c r="N759" s="13"/>
@@ -21126,7 +21037,7 @@
       <c r="H760" s="13"/>
       <c r="I760" s="13"/>
       <c r="J760" s="13"/>
-      <c r="K760" s="21"/>
+      <c r="K760" s="13"/>
       <c r="L760" s="13"/>
       <c r="M760" s="13"/>
       <c r="N760" s="13"/>
@@ -21153,7 +21064,7 @@
       <c r="H761" s="13"/>
       <c r="I761" s="13"/>
       <c r="J761" s="13"/>
-      <c r="K761" s="21"/>
+      <c r="K761" s="13"/>
       <c r="L761" s="13"/>
       <c r="M761" s="13"/>
       <c r="N761" s="13"/>
@@ -21180,7 +21091,7 @@
       <c r="H762" s="13"/>
       <c r="I762" s="13"/>
       <c r="J762" s="13"/>
-      <c r="K762" s="21"/>
+      <c r="K762" s="13"/>
       <c r="L762" s="13"/>
       <c r="M762" s="13"/>
       <c r="N762" s="13"/>
@@ -21207,7 +21118,7 @@
       <c r="H763" s="13"/>
       <c r="I763" s="13"/>
       <c r="J763" s="13"/>
-      <c r="K763" s="21"/>
+      <c r="K763" s="13"/>
       <c r="L763" s="13"/>
       <c r="M763" s="13"/>
       <c r="N763" s="13"/>
@@ -21234,7 +21145,7 @@
       <c r="H764" s="13"/>
       <c r="I764" s="13"/>
       <c r="J764" s="13"/>
-      <c r="K764" s="21"/>
+      <c r="K764" s="13"/>
       <c r="L764" s="13"/>
       <c r="M764" s="13"/>
       <c r="N764" s="13"/>
@@ -21261,7 +21172,7 @@
       <c r="H765" s="13"/>
       <c r="I765" s="13"/>
       <c r="J765" s="13"/>
-      <c r="K765" s="21"/>
+      <c r="K765" s="13"/>
       <c r="L765" s="13"/>
       <c r="M765" s="13"/>
       <c r="N765" s="13"/>
@@ -21288,7 +21199,7 @@
       <c r="H766" s="13"/>
       <c r="I766" s="13"/>
       <c r="J766" s="13"/>
-      <c r="K766" s="21"/>
+      <c r="K766" s="13"/>
       <c r="L766" s="13"/>
       <c r="M766" s="13"/>
       <c r="N766" s="13"/>
@@ -21315,7 +21226,7 @@
       <c r="H767" s="13"/>
       <c r="I767" s="13"/>
       <c r="J767" s="13"/>
-      <c r="K767" s="21"/>
+      <c r="K767" s="13"/>
       <c r="L767" s="13"/>
       <c r="M767" s="13"/>
       <c r="N767" s="13"/>
@@ -21342,7 +21253,7 @@
       <c r="H768" s="13"/>
       <c r="I768" s="13"/>
       <c r="J768" s="13"/>
-      <c r="K768" s="21"/>
+      <c r="K768" s="13"/>
       <c r="L768" s="13"/>
       <c r="M768" s="13"/>
       <c r="N768" s="13"/>
@@ -21369,7 +21280,7 @@
       <c r="H769" s="13"/>
       <c r="I769" s="13"/>
       <c r="J769" s="13"/>
-      <c r="K769" s="21"/>
+      <c r="K769" s="13"/>
       <c r="L769" s="13"/>
       <c r="M769" s="13"/>
       <c r="N769" s="13"/>
@@ -21396,7 +21307,7 @@
       <c r="H770" s="13"/>
       <c r="I770" s="13"/>
       <c r="J770" s="13"/>
-      <c r="K770" s="21"/>
+      <c r="K770" s="13"/>
       <c r="L770" s="13"/>
       <c r="M770" s="13"/>
       <c r="N770" s="13"/>
@@ -21423,7 +21334,7 @@
       <c r="H771" s="13"/>
       <c r="I771" s="13"/>
       <c r="J771" s="13"/>
-      <c r="K771" s="21"/>
+      <c r="K771" s="13"/>
       <c r="L771" s="13"/>
       <c r="M771" s="13"/>
       <c r="N771" s="13"/>
@@ -21450,7 +21361,7 @@
       <c r="H772" s="13"/>
       <c r="I772" s="13"/>
       <c r="J772" s="13"/>
-      <c r="K772" s="21"/>
+      <c r="K772" s="13"/>
       <c r="L772" s="13"/>
       <c r="M772" s="13"/>
       <c r="N772" s="13"/>
@@ -21477,7 +21388,7 @@
       <c r="H773" s="13"/>
       <c r="I773" s="13"/>
       <c r="J773" s="13"/>
-      <c r="K773" s="21"/>
+      <c r="K773" s="13"/>
       <c r="L773" s="13"/>
       <c r="M773" s="13"/>
       <c r="N773" s="13"/>
@@ -21504,7 +21415,7 @@
       <c r="H774" s="13"/>
       <c r="I774" s="13"/>
       <c r="J774" s="13"/>
-      <c r="K774" s="21"/>
+      <c r="K774" s="13"/>
       <c r="L774" s="13"/>
       <c r="M774" s="13"/>
       <c r="N774" s="13"/>
@@ -21531,7 +21442,7 @@
       <c r="H775" s="13"/>
       <c r="I775" s="13"/>
       <c r="J775" s="13"/>
-      <c r="K775" s="21"/>
+      <c r="K775" s="13"/>
       <c r="L775" s="13"/>
       <c r="M775" s="13"/>
       <c r="N775" s="13"/>
@@ -21558,7 +21469,7 @@
       <c r="H776" s="13"/>
       <c r="I776" s="13"/>
       <c r="J776" s="13"/>
-      <c r="K776" s="21"/>
+      <c r="K776" s="13"/>
       <c r="L776" s="13"/>
       <c r="M776" s="13"/>
       <c r="N776" s="13"/>
@@ -21585,7 +21496,7 @@
       <c r="H777" s="13"/>
       <c r="I777" s="13"/>
       <c r="J777" s="13"/>
-      <c r="K777" s="21"/>
+      <c r="K777" s="13"/>
       <c r="L777" s="13"/>
       <c r="M777" s="13"/>
       <c r="N777" s="13"/>
@@ -21612,7 +21523,7 @@
       <c r="H778" s="13"/>
       <c r="I778" s="13"/>
       <c r="J778" s="13"/>
-      <c r="K778" s="21"/>
+      <c r="K778" s="13"/>
       <c r="L778" s="13"/>
       <c r="M778" s="13"/>
       <c r="N778" s="13"/>
@@ -21639,7 +21550,7 @@
       <c r="H779" s="13"/>
       <c r="I779" s="13"/>
       <c r="J779" s="13"/>
-      <c r="K779" s="21"/>
+      <c r="K779" s="13"/>
       <c r="L779" s="13"/>
       <c r="M779" s="13"/>
       <c r="N779" s="13"/>
@@ -21666,7 +21577,7 @@
       <c r="H780" s="13"/>
       <c r="I780" s="13"/>
       <c r="J780" s="13"/>
-      <c r="K780" s="21"/>
+      <c r="K780" s="13"/>
       <c r="L780" s="13"/>
       <c r="M780" s="13"/>
       <c r="N780" s="13"/>
@@ -21693,7 +21604,7 @@
       <c r="H781" s="13"/>
       <c r="I781" s="13"/>
       <c r="J781" s="13"/>
-      <c r="K781" s="21"/>
+      <c r="K781" s="13"/>
       <c r="L781" s="13"/>
       <c r="M781" s="13"/>
       <c r="N781" s="13"/>
@@ -21720,7 +21631,7 @@
       <c r="H782" s="13"/>
       <c r="I782" s="13"/>
       <c r="J782" s="13"/>
-      <c r="K782" s="21"/>
+      <c r="K782" s="13"/>
       <c r="L782" s="13"/>
       <c r="M782" s="13"/>
       <c r="N782" s="13"/>
@@ -21747,7 +21658,7 @@
       <c r="H783" s="13"/>
       <c r="I783" s="13"/>
       <c r="J783" s="13"/>
-      <c r="K783" s="21"/>
+      <c r="K783" s="13"/>
       <c r="L783" s="13"/>
       <c r="M783" s="13"/>
       <c r="N783" s="13"/>
@@ -21774,7 +21685,7 @@
       <c r="H784" s="13"/>
       <c r="I784" s="13"/>
       <c r="J784" s="13"/>
-      <c r="K784" s="21"/>
+      <c r="K784" s="13"/>
       <c r="L784" s="13"/>
       <c r="M784" s="13"/>
       <c r="N784" s="13"/>
@@ -21801,7 +21712,7 @@
       <c r="H785" s="13"/>
       <c r="I785" s="13"/>
       <c r="J785" s="13"/>
-      <c r="K785" s="21"/>
+      <c r="K785" s="13"/>
       <c r="L785" s="13"/>
       <c r="M785" s="13"/>
       <c r="N785" s="13"/>
@@ -21828,7 +21739,7 @@
       <c r="H786" s="13"/>
       <c r="I786" s="13"/>
       <c r="J786" s="13"/>
-      <c r="K786" s="21"/>
+      <c r="K786" s="13"/>
       <c r="L786" s="13"/>
       <c r="M786" s="13"/>
       <c r="N786" s="13"/>
@@ -21855,7 +21766,7 @@
       <c r="H787" s="13"/>
       <c r="I787" s="13"/>
       <c r="J787" s="13"/>
-      <c r="K787" s="21"/>
+      <c r="K787" s="13"/>
       <c r="L787" s="13"/>
       <c r="M787" s="13"/>
       <c r="N787" s="13"/>
@@ -21882,7 +21793,7 @@
       <c r="H788" s="13"/>
       <c r="I788" s="13"/>
       <c r="J788" s="13"/>
-      <c r="K788" s="21"/>
+      <c r="K788" s="13"/>
       <c r="L788" s="13"/>
       <c r="M788" s="13"/>
       <c r="N788" s="13"/>
@@ -21909,7 +21820,7 @@
       <c r="H789" s="13"/>
       <c r="I789" s="13"/>
       <c r="J789" s="13"/>
-      <c r="K789" s="21"/>
+      <c r="K789" s="13"/>
       <c r="L789" s="13"/>
       <c r="M789" s="13"/>
       <c r="N789" s="13"/>
@@ -21936,7 +21847,7 @@
       <c r="H790" s="13"/>
       <c r="I790" s="13"/>
       <c r="J790" s="13"/>
-      <c r="K790" s="21"/>
+      <c r="K790" s="13"/>
       <c r="L790" s="13"/>
       <c r="M790" s="13"/>
       <c r="N790" s="13"/>
@@ -21963,7 +21874,7 @@
       <c r="H791" s="13"/>
       <c r="I791" s="13"/>
       <c r="J791" s="13"/>
-      <c r="K791" s="21"/>
+      <c r="K791" s="13"/>
       <c r="L791" s="13"/>
       <c r="M791" s="13"/>
       <c r="N791" s="13"/>
@@ -21990,7 +21901,7 @@
       <c r="H792" s="13"/>
       <c r="I792" s="13"/>
       <c r="J792" s="13"/>
-      <c r="K792" s="21"/>
+      <c r="K792" s="13"/>
       <c r="L792" s="13"/>
       <c r="M792" s="13"/>
       <c r="N792" s="13"/>
@@ -22017,7 +21928,7 @@
       <c r="H793" s="13"/>
       <c r="I793" s="13"/>
       <c r="J793" s="13"/>
-      <c r="K793" s="21"/>
+      <c r="K793" s="13"/>
       <c r="L793" s="13"/>
       <c r="M793" s="13"/>
       <c r="N793" s="13"/>
@@ -22044,7 +21955,7 @@
       <c r="H794" s="13"/>
       <c r="I794" s="13"/>
       <c r="J794" s="13"/>
-      <c r="K794" s="21"/>
+      <c r="K794" s="13"/>
       <c r="L794" s="13"/>
       <c r="M794" s="13"/>
       <c r="N794" s="13"/>
@@ -22071,7 +21982,7 @@
       <c r="H795" s="13"/>
       <c r="I795" s="13"/>
       <c r="J795" s="13"/>
-      <c r="K795" s="21"/>
+      <c r="K795" s="13"/>
       <c r="L795" s="13"/>
       <c r="M795" s="13"/>
       <c r="N795" s="13"/>
@@ -22098,7 +22009,7 @@
       <c r="H796" s="13"/>
       <c r="I796" s="13"/>
       <c r="J796" s="13"/>
-      <c r="K796" s="21"/>
+      <c r="K796" s="13"/>
       <c r="L796" s="13"/>
       <c r="M796" s="13"/>
       <c r="N796" s="13"/>
@@ -22125,7 +22036,7 @@
       <c r="H797" s="13"/>
       <c r="I797" s="13"/>
       <c r="J797" s="13"/>
-      <c r="K797" s="21"/>
+      <c r="K797" s="13"/>
       <c r="L797" s="13"/>
       <c r="M797" s="13"/>
       <c r="N797" s="13"/>
@@ -22152,7 +22063,7 @@
       <c r="H798" s="13"/>
       <c r="I798" s="13"/>
       <c r="J798" s="13"/>
-      <c r="K798" s="21"/>
+      <c r="K798" s="13"/>
       <c r="L798" s="13"/>
       <c r="M798" s="13"/>
       <c r="N798" s="13"/>
@@ -22179,7 +22090,7 @@
       <c r="H799" s="13"/>
       <c r="I799" s="13"/>
       <c r="J799" s="13"/>
-      <c r="K799" s="21"/>
+      <c r="K799" s="13"/>
       <c r="L799" s="13"/>
       <c r="M799" s="13"/>
       <c r="N799" s="13"/>
@@ -22206,7 +22117,7 @@
       <c r="H800" s="13"/>
       <c r="I800" s="13"/>
       <c r="J800" s="13"/>
-      <c r="K800" s="21"/>
+      <c r="K800" s="13"/>
       <c r="L800" s="13"/>
       <c r="M800" s="13"/>
       <c r="N800" s="13"/>
@@ -22233,7 +22144,7 @@
       <c r="H801" s="13"/>
       <c r="I801" s="13"/>
       <c r="J801" s="13"/>
-      <c r="K801" s="21"/>
+      <c r="K801" s="13"/>
       <c r="L801" s="13"/>
       <c r="M801" s="13"/>
       <c r="N801" s="13"/>
@@ -22260,7 +22171,7 @@
       <c r="H802" s="13"/>
       <c r="I802" s="13"/>
       <c r="J802" s="13"/>
-      <c r="K802" s="21"/>
+      <c r="K802" s="13"/>
       <c r="L802" s="13"/>
       <c r="M802" s="13"/>
       <c r="N802" s="13"/>
@@ -22287,7 +22198,7 @@
       <c r="H803" s="13"/>
       <c r="I803" s="13"/>
       <c r="J803" s="13"/>
-      <c r="K803" s="21"/>
+      <c r="K803" s="13"/>
       <c r="L803" s="13"/>
       <c r="M803" s="13"/>
       <c r="N803" s="13"/>
@@ -22314,7 +22225,7 @@
       <c r="H804" s="13"/>
       <c r="I804" s="13"/>
       <c r="J804" s="13"/>
-      <c r="K804" s="21"/>
+      <c r="K804" s="13"/>
       <c r="L804" s="13"/>
       <c r="M804" s="13"/>
       <c r="N804" s="13"/>
@@ -22341,7 +22252,7 @@
       <c r="H805" s="13"/>
       <c r="I805" s="13"/>
       <c r="J805" s="13"/>
-      <c r="K805" s="21"/>
+      <c r="K805" s="13"/>
       <c r="L805" s="13"/>
       <c r="M805" s="13"/>
       <c r="N805" s="13"/>
@@ -22368,7 +22279,7 @@
       <c r="H806" s="13"/>
       <c r="I806" s="13"/>
       <c r="J806" s="13"/>
-      <c r="K806" s="21"/>
+      <c r="K806" s="13"/>
       <c r="L806" s="13"/>
       <c r="M806" s="13"/>
       <c r="N806" s="13"/>
@@ -22395,7 +22306,7 @@
       <c r="H807" s="13"/>
       <c r="I807" s="13"/>
       <c r="J807" s="13"/>
-      <c r="K807" s="21"/>
+      <c r="K807" s="13"/>
       <c r="L807" s="13"/>
       <c r="M807" s="13"/>
       <c r="N807" s="13"/>
@@ -22422,7 +22333,7 @@
       <c r="H808" s="13"/>
       <c r="I808" s="13"/>
       <c r="J808" s="13"/>
-      <c r="K808" s="21"/>
+      <c r="K808" s="13"/>
       <c r="L808" s="13"/>
       <c r="M808" s="13"/>
       <c r="N808" s="13"/>
@@ -22449,7 +22360,7 @@
       <c r="H809" s="13"/>
       <c r="I809" s="13"/>
       <c r="J809" s="13"/>
-      <c r="K809" s="21"/>
+      <c r="K809" s="13"/>
       <c r="L809" s="13"/>
       <c r="M809" s="13"/>
       <c r="N809" s="13"/>
@@ -22476,7 +22387,7 @@
       <c r="H810" s="13"/>
       <c r="I810" s="13"/>
       <c r="J810" s="13"/>
-      <c r="K810" s="21"/>
+      <c r="K810" s="13"/>
       <c r="L810" s="13"/>
       <c r="M810" s="13"/>
       <c r="N810" s="13"/>
@@ -22503,7 +22414,7 @@
       <c r="H811" s="13"/>
       <c r="I811" s="13"/>
       <c r="J811" s="13"/>
-      <c r="K811" s="21"/>
+      <c r="K811" s="13"/>
       <c r="L811" s="13"/>
       <c r="M811" s="13"/>
       <c r="N811" s="13"/>
@@ -22530,7 +22441,7 @@
       <c r="H812" s="13"/>
       <c r="I812" s="13"/>
       <c r="J812" s="13"/>
-      <c r="K812" s="21"/>
+      <c r="K812" s="13"/>
       <c r="L812" s="13"/>
       <c r="M812" s="13"/>
       <c r="N812" s="13"/>
@@ -22557,7 +22468,7 @@
       <c r="H813" s="13"/>
       <c r="I813" s="13"/>
       <c r="J813" s="13"/>
-      <c r="K813" s="21"/>
+      <c r="K813" s="13"/>
       <c r="L813" s="13"/>
       <c r="M813" s="13"/>
       <c r="N813" s="13"/>
@@ -22584,7 +22495,7 @@
       <c r="H814" s="13"/>
       <c r="I814" s="13"/>
       <c r="J814" s="13"/>
-      <c r="K814" s="21"/>
+      <c r="K814" s="13"/>
       <c r="L814" s="13"/>
       <c r="M814" s="13"/>
       <c r="N814" s="13"/>
@@ -22611,7 +22522,7 @@
       <c r="H815" s="13"/>
       <c r="I815" s="13"/>
       <c r="J815" s="13"/>
-      <c r="K815" s="21"/>
+      <c r="K815" s="13"/>
       <c r="L815" s="13"/>
       <c r="M815" s="13"/>
       <c r="N815" s="13"/>
@@ -22638,7 +22549,7 @@
       <c r="H816" s="13"/>
       <c r="I816" s="13"/>
       <c r="J816" s="13"/>
-      <c r="K816" s="21"/>
+      <c r="K816" s="13"/>
       <c r="L816" s="13"/>
       <c r="M816" s="13"/>
       <c r="N816" s="13"/>
@@ -22665,7 +22576,7 @@
       <c r="H817" s="13"/>
       <c r="I817" s="13"/>
       <c r="J817" s="13"/>
-      <c r="K817" s="21"/>
+      <c r="K817" s="13"/>
       <c r="L817" s="13"/>
       <c r="M817" s="13"/>
       <c r="N817" s="13"/>
@@ -22692,7 +22603,7 @@
       <c r="H818" s="13"/>
       <c r="I818" s="13"/>
       <c r="J818" s="13"/>
-      <c r="K818" s="21"/>
+      <c r="K818" s="13"/>
       <c r="L818" s="13"/>
       <c r="M818" s="13"/>
       <c r="N818" s="13"/>
@@ -22719,7 +22630,7 @@
       <c r="H819" s="13"/>
       <c r="I819" s="13"/>
       <c r="J819" s="13"/>
-      <c r="K819" s="21"/>
+      <c r="K819" s="13"/>
       <c r="L819" s="13"/>
       <c r="M819" s="13"/>
       <c r="N819" s="13"/>
@@ -22746,7 +22657,7 @@
       <c r="H820" s="13"/>
       <c r="I820" s="13"/>
       <c r="J820" s="13"/>
-      <c r="K820" s="21"/>
+      <c r="K820" s="13"/>
       <c r="L820" s="13"/>
       <c r="M820" s="13"/>
       <c r="N820" s="13"/>
@@ -22773,7 +22684,7 @@
       <c r="H821" s="13"/>
       <c r="I821" s="13"/>
       <c r="J821" s="13"/>
-      <c r="K821" s="21"/>
+      <c r="K821" s="13"/>
       <c r="L821" s="13"/>
       <c r="M821" s="13"/>
       <c r="N821" s="13"/>
@@ -22800,7 +22711,7 @@
       <c r="H822" s="13"/>
       <c r="I822" s="13"/>
       <c r="J822" s="13"/>
-      <c r="K822" s="21"/>
+      <c r="K822" s="13"/>
       <c r="L822" s="13"/>
       <c r="M822" s="13"/>
       <c r="N822" s="13"/>
@@ -22827,7 +22738,7 @@
       <c r="H823" s="13"/>
       <c r="I823" s="13"/>
       <c r="J823" s="13"/>
-      <c r="K823" s="21"/>
+      <c r="K823" s="13"/>
       <c r="L823" s="13"/>
       <c r="M823" s="13"/>
       <c r="N823" s="13"/>
@@ -22854,7 +22765,7 @@
       <c r="H824" s="13"/>
       <c r="I824" s="13"/>
       <c r="J824" s="13"/>
-      <c r="K824" s="21"/>
+      <c r="K824" s="13"/>
       <c r="L824" s="13"/>
       <c r="M824" s="13"/>
       <c r="N824" s="13"/>
@@ -22881,7 +22792,7 @@
       <c r="H825" s="13"/>
       <c r="I825" s="13"/>
       <c r="J825" s="13"/>
-      <c r="K825" s="21"/>
+      <c r="K825" s="13"/>
       <c r="L825" s="13"/>
       <c r="M825" s="13"/>
       <c r="N825" s="13"/>
@@ -22908,7 +22819,7 @@
       <c r="H826" s="13"/>
       <c r="I826" s="13"/>
       <c r="J826" s="13"/>
-      <c r="K826" s="21"/>
+      <c r="K826" s="13"/>
       <c r="L826" s="13"/>
       <c r="M826" s="13"/>
       <c r="N826" s="13"/>
@@ -22935,7 +22846,7 @@
       <c r="H827" s="13"/>
       <c r="I827" s="13"/>
       <c r="J827" s="13"/>
-      <c r="K827" s="21"/>
+      <c r="K827" s="13"/>
       <c r="L827" s="13"/>
       <c r="M827" s="13"/>
       <c r="N827" s="13"/>
@@ -22962,7 +22873,7 @@
       <c r="H828" s="13"/>
       <c r="I828" s="13"/>
       <c r="J828" s="13"/>
-      <c r="K828" s="21"/>
+      <c r="K828" s="13"/>
       <c r="L828" s="13"/>
       <c r="M828" s="13"/>
       <c r="N828" s="13"/>
@@ -22989,7 +22900,7 @@
       <c r="H829" s="13"/>
       <c r="I829" s="13"/>
       <c r="J829" s="13"/>
-      <c r="K829" s="21"/>
+      <c r="K829" s="13"/>
       <c r="L829" s="13"/>
       <c r="M829" s="13"/>
       <c r="N829" s="13"/>
@@ -23016,7 +22927,7 @@
       <c r="H830" s="13"/>
       <c r="I830" s="13"/>
       <c r="J830" s="13"/>
-      <c r="K830" s="21"/>
+      <c r="K830" s="13"/>
       <c r="L830" s="13"/>
       <c r="M830" s="13"/>
       <c r="N830" s="13"/>
@@ -23043,7 +22954,7 @@
       <c r="H831" s="13"/>
       <c r="I831" s="13"/>
       <c r="J831" s="13"/>
-      <c r="K831" s="21"/>
+      <c r="K831" s="13"/>
       <c r="L831" s="13"/>
       <c r="M831" s="13"/>
       <c r="N831" s="13"/>
@@ -23070,7 +22981,7 @@
       <c r="H832" s="13"/>
       <c r="I832" s="13"/>
       <c r="J832" s="13"/>
-      <c r="K832" s="21"/>
+      <c r="K832" s="13"/>
       <c r="L832" s="13"/>
       <c r="M832" s="13"/>
       <c r="N832" s="13"/>
@@ -23097,7 +23008,7 @@
       <c r="H833" s="13"/>
       <c r="I833" s="13"/>
       <c r="J833" s="13"/>
-      <c r="K833" s="21"/>
+      <c r="K833" s="13"/>
       <c r="L833" s="13"/>
       <c r="M833" s="13"/>
       <c r="N833" s="13"/>
@@ -23124,7 +23035,7 @@
       <c r="H834" s="13"/>
       <c r="I834" s="13"/>
       <c r="J834" s="13"/>
-      <c r="K834" s="21"/>
+      <c r="K834" s="13"/>
       <c r="L834" s="13"/>
       <c r="M834" s="13"/>
       <c r="N834" s="13"/>
@@ -23151,7 +23062,7 @@
       <c r="H835" s="13"/>
       <c r="I835" s="13"/>
       <c r="J835" s="13"/>
-      <c r="K835" s="21"/>
+      <c r="K835" s="13"/>
       <c r="L835" s="13"/>
       <c r="M835" s="13"/>
       <c r="N835" s="13"/>
@@ -23178,7 +23089,7 @@
       <c r="H836" s="13"/>
       <c r="I836" s="13"/>
       <c r="J836" s="13"/>
-      <c r="K836" s="21"/>
+      <c r="K836" s="13"/>
       <c r="L836" s="13"/>
       <c r="M836" s="13"/>
       <c r="N836" s="13"/>
@@ -23205,7 +23116,7 @@
       <c r="H837" s="13"/>
       <c r="I837" s="13"/>
       <c r="J837" s="13"/>
-      <c r="K837" s="21"/>
+      <c r="K837" s="13"/>
       <c r="L837" s="13"/>
       <c r="M837" s="13"/>
       <c r="N837" s="13"/>
@@ -23232,7 +23143,7 @@
       <c r="H838" s="13"/>
       <c r="I838" s="13"/>
       <c r="J838" s="13"/>
-      <c r="K838" s="21"/>
+      <c r="K838" s="13"/>
       <c r="L838" s="13"/>
       <c r="M838" s="13"/>
       <c r="N838" s="13"/>
@@ -23259,7 +23170,7 @@
       <c r="H839" s="13"/>
       <c r="I839" s="13"/>
       <c r="J839" s="13"/>
-      <c r="K839" s="21"/>
+      <c r="K839" s="13"/>
       <c r="L839" s="13"/>
       <c r="M839" s="13"/>
       <c r="N839" s="13"/>
@@ -23286,7 +23197,7 @@
       <c r="H840" s="13"/>
       <c r="I840" s="13"/>
       <c r="J840" s="13"/>
-      <c r="K840" s="21"/>
+      <c r="K840" s="13"/>
       <c r="L840" s="13"/>
       <c r="M840" s="13"/>
       <c r="N840" s="13"/>
@@ -23313,7 +23224,7 @@
       <c r="H841" s="13"/>
       <c r="I841" s="13"/>
       <c r="J841" s="13"/>
-      <c r="K841" s="21"/>
+      <c r="K841" s="13"/>
       <c r="L841" s="13"/>
       <c r="M841" s="13"/>
       <c r="N841" s="13"/>
@@ -23340,7 +23251,7 @@
       <c r="H842" s="13"/>
       <c r="I842" s="13"/>
       <c r="J842" s="13"/>
-      <c r="K842" s="21"/>
+      <c r="K842" s="13"/>
       <c r="L842" s="13"/>
       <c r="M842" s="13"/>
       <c r="N842" s="13"/>
@@ -23367,7 +23278,7 @@
       <c r="H843" s="13"/>
       <c r="I843" s="13"/>
       <c r="J843" s="13"/>
-      <c r="K843" s="21"/>
+      <c r="K843" s="13"/>
       <c r="L843" s="13"/>
       <c r="M843" s="13"/>
       <c r="N843" s="13"/>
@@ -23394,7 +23305,7 @@
       <c r="H844" s="13"/>
       <c r="I844" s="13"/>
       <c r="J844" s="13"/>
-      <c r="K844" s="21"/>
+      <c r="K844" s="13"/>
       <c r="L844" s="13"/>
       <c r="M844" s="13"/>
       <c r="N844" s="13"/>
@@ -23421,7 +23332,7 @@
       <c r="H845" s="13"/>
       <c r="I845" s="13"/>
       <c r="J845" s="13"/>
-      <c r="K845" s="21"/>
+      <c r="K845" s="13"/>
       <c r="L845" s="13"/>
       <c r="M845" s="13"/>
       <c r="N845" s="13"/>
@@ -23448,7 +23359,7 @@
       <c r="H846" s="13"/>
       <c r="I846" s="13"/>
       <c r="J846" s="13"/>
-      <c r="K846" s="21"/>
+      <c r="K846" s="13"/>
       <c r="L846" s="13"/>
       <c r="M846" s="13"/>
       <c r="N846" s="13"/>
@@ -23475,7 +23386,7 @@
       <c r="H847" s="13"/>
       <c r="I847" s="13"/>
       <c r="J847" s="13"/>
-      <c r="K847" s="21"/>
+      <c r="K847" s="13"/>
       <c r="L847" s="13"/>
       <c r="M847" s="13"/>
       <c r="N847" s="13"/>
@@ -23502,7 +23413,7 @@
       <c r="H848" s="13"/>
       <c r="I848" s="13"/>
       <c r="J848" s="13"/>
-      <c r="K848" s="21"/>
+      <c r="K848" s="13"/>
       <c r="L848" s="13"/>
       <c r="M848" s="13"/>
       <c r="N848" s="13"/>
@@ -23529,7 +23440,7 @@
       <c r="H849" s="13"/>
       <c r="I849" s="13"/>
       <c r="J849" s="13"/>
-      <c r="K849" s="21"/>
+      <c r="K849" s="13"/>
       <c r="L849" s="13"/>
       <c r="M849" s="13"/>
       <c r="N849" s="13"/>
@@ -23556,7 +23467,7 @@
       <c r="H850" s="13"/>
       <c r="I850" s="13"/>
       <c r="J850" s="13"/>
-      <c r="K850" s="21"/>
+      <c r="K850" s="13"/>
       <c r="L850" s="13"/>
       <c r="M850" s="13"/>
       <c r="N850" s="13"/>
@@ -23583,7 +23494,7 @@
       <c r="H851" s="13"/>
       <c r="I851" s="13"/>
       <c r="J851" s="13"/>
-      <c r="K851" s="21"/>
+      <c r="K851" s="13"/>
       <c r="L851" s="13"/>
       <c r="M851" s="13"/>
       <c r="N851" s="13"/>
@@ -23610,7 +23521,7 @@
       <c r="H852" s="13"/>
       <c r="I852" s="13"/>
       <c r="J852" s="13"/>
-      <c r="K852" s="21"/>
+      <c r="K852" s="13"/>
       <c r="L852" s="13"/>
       <c r="M852" s="13"/>
       <c r="N852" s="13"/>
@@ -23637,7 +23548,7 @@
       <c r="H853" s="13"/>
       <c r="I853" s="13"/>
       <c r="J853" s="13"/>
-      <c r="K853" s="21"/>
+      <c r="K853" s="13"/>
       <c r="L853" s="13"/>
       <c r="M853" s="13"/>
       <c r="N853" s="13"/>
@@ -23664,7 +23575,7 @@
       <c r="H854" s="13"/>
       <c r="I854" s="13"/>
       <c r="J854" s="13"/>
-      <c r="K854" s="21"/>
+      <c r="K854" s="13"/>
       <c r="L854" s="13"/>
       <c r="M854" s="13"/>
       <c r="N854" s="13"/>
@@ -23691,7 +23602,7 @@
       <c r="H855" s="13"/>
       <c r="I855" s="13"/>
       <c r="J855" s="13"/>
-      <c r="K855" s="21"/>
+      <c r="K855" s="13"/>
       <c r="L855" s="13"/>
       <c r="M855" s="13"/>
       <c r="N855" s="13"/>
@@ -23718,7 +23629,7 @@
       <c r="H856" s="13"/>
       <c r="I856" s="13"/>
       <c r="J856" s="13"/>
-      <c r="K856" s="21"/>
+      <c r="K856" s="13"/>
       <c r="L856" s="13"/>
       <c r="M856" s="13"/>
       <c r="N856" s="13"/>
@@ -23745,7 +23656,7 @@
       <c r="H857" s="13"/>
       <c r="I857" s="13"/>
       <c r="J857" s="13"/>
-      <c r="K857" s="21"/>
+      <c r="K857" s="13"/>
       <c r="L857" s="13"/>
       <c r="M857" s="13"/>
       <c r="N857" s="13"/>
@@ -23772,7 +23683,7 @@
       <c r="H858" s="13"/>
       <c r="I858" s="13"/>
       <c r="J858" s="13"/>
-      <c r="K858" s="21"/>
+      <c r="K858" s="13"/>
       <c r="L858" s="13"/>
       <c r="M858" s="13"/>
       <c r="N858" s="13"/>
@@ -23799,7 +23710,7 @@
       <c r="H859" s="13"/>
       <c r="I859" s="13"/>
       <c r="J859" s="13"/>
-      <c r="K859" s="21"/>
+      <c r="K859" s="13"/>
       <c r="L859" s="13"/>
       <c r="M859" s="13"/>
       <c r="N859" s="13"/>
@@ -23826,7 +23737,7 @@
       <c r="H860" s="13"/>
       <c r="I860" s="13"/>
       <c r="J860" s="13"/>
-      <c r="K860" s="21"/>
+      <c r="K860" s="13"/>
       <c r="L860" s="13"/>
       <c r="M860" s="13"/>
       <c r="N860" s="13"/>
@@ -23853,7 +23764,7 @@
       <c r="H861" s="13"/>
       <c r="I861" s="13"/>
       <c r="J861" s="13"/>
-      <c r="K861" s="21"/>
+      <c r="K861" s="13"/>
       <c r="L861" s="13"/>
       <c r="M861" s="13"/>
       <c r="N861" s="13"/>
@@ -23880,7 +23791,7 @@
       <c r="H862" s="13"/>
       <c r="I862" s="13"/>
       <c r="J862" s="13"/>
-      <c r="K862" s="21"/>
+      <c r="K862" s="13"/>
       <c r="L862" s="13"/>
       <c r="M862" s="13"/>
       <c r="N862" s="13"/>
@@ -23907,7 +23818,7 @@
       <c r="H863" s="13"/>
       <c r="I863" s="13"/>
       <c r="J863" s="13"/>
-      <c r="K863" s="21"/>
+      <c r="K863" s="13"/>
       <c r="L863" s="13"/>
       <c r="M863" s="13"/>
       <c r="N863" s="13"/>
@@ -23934,7 +23845,7 @@
       <c r="H864" s="13"/>
       <c r="I864" s="13"/>
       <c r="J864" s="13"/>
-      <c r="K864" s="21"/>
+      <c r="K864" s="13"/>
       <c r="L864" s="13"/>
       <c r="M864" s="13"/>
       <c r="N864" s="13"/>
@@ -23961,7 +23872,7 @@
       <c r="H865" s="13"/>
       <c r="I865" s="13"/>
       <c r="J865" s="13"/>
-      <c r="K865" s="21"/>
+      <c r="K865" s="13"/>
       <c r="L865" s="13"/>
       <c r="M865" s="13"/>
       <c r="N865" s="13"/>
@@ -23988,7 +23899,7 @@
       <c r="H866" s="13"/>
       <c r="I866" s="13"/>
       <c r="J866" s="13"/>
-      <c r="K866" s="21"/>
+      <c r="K866" s="13"/>
       <c r="L866" s="13"/>
       <c r="M866" s="13"/>
       <c r="N866" s="13"/>
@@ -24015,7 +23926,7 @@
       <c r="H867" s="13"/>
       <c r="I867" s="13"/>
       <c r="J867" s="13"/>
-      <c r="K867" s="21"/>
+      <c r="K867" s="13"/>
       <c r="L867" s="13"/>
       <c r="M867" s="13"/>
       <c r="N867" s="13"/>
@@ -24042,7 +23953,7 @@
       <c r="H868" s="13"/>
       <c r="I868" s="13"/>
       <c r="J868" s="13"/>
-      <c r="K868" s="21"/>
+      <c r="K868" s="13"/>
       <c r="L868" s="13"/>
       <c r="M868" s="13"/>
       <c r="N868" s="13"/>
@@ -24069,7 +23980,7 @@
       <c r="H869" s="13"/>
       <c r="I869" s="13"/>
       <c r="J869" s="13"/>
-      <c r="K869" s="21"/>
+      <c r="K869" s="13"/>
       <c r="L869" s="13"/>
       <c r="M869" s="13"/>
       <c r="N869" s="13"/>
@@ -24096,7 +24007,7 @@
       <c r="H870" s="13"/>
       <c r="I870" s="13"/>
       <c r="J870" s="13"/>
-      <c r="K870" s="21"/>
+      <c r="K870" s="13"/>
       <c r="L870" s="13"/>
       <c r="M870" s="13"/>
       <c r="N870" s="13"/>
@@ -24123,7 +24034,7 @@
       <c r="H871" s="13"/>
       <c r="I871" s="13"/>
       <c r="J871" s="13"/>
-      <c r="K871" s="21"/>
+      <c r="K871" s="13"/>
       <c r="L871" s="13"/>
       <c r="M871" s="13"/>
       <c r="N871" s="13"/>
@@ -24150,7 +24061,7 @@
       <c r="H872" s="13"/>
       <c r="I872" s="13"/>
       <c r="J872" s="13"/>
-      <c r="K872" s="21"/>
+      <c r="K872" s="13"/>
       <c r="L872" s="13"/>
       <c r="M872" s="13"/>
       <c r="N872" s="13"/>
@@ -24177,7 +24088,7 @@
       <c r="H873" s="13"/>
       <c r="I873" s="13"/>
       <c r="J873" s="13"/>
-      <c r="K873" s="21"/>
+      <c r="K873" s="13"/>
       <c r="L873" s="13"/>
       <c r="M873" s="13"/>
       <c r="N873" s="13"/>
@@ -24204,7 +24115,7 @@
       <c r="H874" s="13"/>
       <c r="I874" s="13"/>
       <c r="J874" s="13"/>
-      <c r="K874" s="21"/>
+      <c r="K874" s="13"/>
       <c r="L874" s="13"/>
       <c r="M874" s="13"/>
       <c r="N874" s="13"/>
@@ -24231,7 +24142,7 @@
       <c r="H875" s="13"/>
       <c r="I875" s="13"/>
       <c r="J875" s="13"/>
-      <c r="K875" s="21"/>
+      <c r="K875" s="13"/>
       <c r="L875" s="13"/>
       <c r="M875" s="13"/>
       <c r="N875" s="13"/>
@@ -24258,7 +24169,7 @@
       <c r="H876" s="13"/>
       <c r="I876" s="13"/>
       <c r="J876" s="13"/>
-      <c r="K876" s="21"/>
+      <c r="K876" s="13"/>
       <c r="L876" s="13"/>
       <c r="M876" s="13"/>
       <c r="N876" s="13"/>
@@ -24285,7 +24196,7 @@
       <c r="H877" s="13"/>
       <c r="I877" s="13"/>
       <c r="J877" s="13"/>
-      <c r="K877" s="21"/>
+      <c r="K877" s="13"/>
       <c r="L877" s="13"/>
       <c r="M877" s="13"/>
       <c r="N877" s="13"/>
@@ -24312,7 +24223,7 @@
       <c r="H878" s="13"/>
       <c r="I878" s="13"/>
       <c r="J878" s="13"/>
-      <c r="K878" s="21"/>
+      <c r="K878" s="13"/>
       <c r="L878" s="13"/>
       <c r="M878" s="13"/>
       <c r="N878" s="13"/>
@@ -24339,7 +24250,7 @@
       <c r="H879" s="13"/>
       <c r="I879" s="13"/>
       <c r="J879" s="13"/>
-      <c r="K879" s="21"/>
+      <c r="K879" s="13"/>
       <c r="L879" s="13"/>
       <c r="M879" s="13"/>
       <c r="N879" s="13"/>
@@ -24366,7 +24277,7 @@
       <c r="H880" s="13"/>
       <c r="I880" s="13"/>
       <c r="J880" s="13"/>
-      <c r="K880" s="21"/>
+      <c r="K880" s="13"/>
       <c r="L880" s="13"/>
       <c r="M880" s="13"/>
       <c r="N880" s="13"/>
@@ -24393,7 +24304,7 @@
       <c r="H881" s="13"/>
       <c r="I881" s="13"/>
       <c r="J881" s="13"/>
-      <c r="K881" s="21"/>
+      <c r="K881" s="13"/>
       <c r="L881" s="13"/>
       <c r="M881" s="13"/>
       <c r="N881" s="13"/>
@@ -24420,7 +24331,7 @@
       <c r="H882" s="13"/>
       <c r="I882" s="13"/>
       <c r="J882" s="13"/>
-      <c r="K882" s="21"/>
+      <c r="K882" s="13"/>
       <c r="L882" s="13"/>
       <c r="M882" s="13"/>
       <c r="N882" s="13"/>
@@ -24447,7 +24358,7 @@
       <c r="H883" s="13"/>
       <c r="I883" s="13"/>
       <c r="J883" s="13"/>
-      <c r="K883" s="21"/>
+      <c r="K883" s="13"/>
       <c r="L883" s="13"/>
       <c r="M883" s="13"/>
       <c r="N883" s="13"/>
@@ -24474,7 +24385,7 @@
       <c r="H884" s="13"/>
       <c r="I884" s="13"/>
       <c r="J884" s="13"/>
-      <c r="K884" s="21"/>
+      <c r="K884" s="13"/>
       <c r="L884" s="13"/>
       <c r="M884" s="13"/>
       <c r="N884" s="13"/>
@@ -24501,7 +24412,7 @@
       <c r="H885" s="13"/>
       <c r="I885" s="13"/>
       <c r="J885" s="13"/>
-      <c r="K885" s="21"/>
+      <c r="K885" s="13"/>
       <c r="L885" s="13"/>
       <c r="M885" s="13"/>
       <c r="N885" s="13"/>
@@ -24528,7 +24439,7 @@
       <c r="H886" s="13"/>
       <c r="I886" s="13"/>
       <c r="J886" s="13"/>
-      <c r="K886" s="21"/>
+      <c r="K886" s="13"/>
       <c r="L886" s="13"/>
       <c r="M886" s="13"/>
       <c r="N886" s="13"/>
@@ -24555,7 +24466,7 @@
       <c r="H887" s="13"/>
       <c r="I887" s="13"/>
       <c r="J887" s="13"/>
-      <c r="K887" s="21"/>
+      <c r="K887" s="13"/>
       <c r="L887" s="13"/>
       <c r="M887" s="13"/>
       <c r="N887" s="13"/>
@@ -24582,7 +24493,7 @@
       <c r="H888" s="13"/>
       <c r="I888" s="13"/>
       <c r="J888" s="13"/>
-      <c r="K888" s="21"/>
+      <c r="K888" s="13"/>
       <c r="L888" s="13"/>
       <c r="M888" s="13"/>
       <c r="N888" s="13"/>
@@ -24609,7 +24520,7 @@
       <c r="H889" s="13"/>
       <c r="I889" s="13"/>
       <c r="J889" s="13"/>
-      <c r="K889" s="21"/>
+      <c r="K889" s="13"/>
       <c r="L889" s="13"/>
       <c r="M889" s="13"/>
       <c r="N889" s="13"/>
@@ -24636,7 +24547,7 @@
       <c r="H890" s="13"/>
       <c r="I890" s="13"/>
       <c r="J890" s="13"/>
-      <c r="K890" s="21"/>
+      <c r="K890" s="13"/>
       <c r="L890" s="13"/>
       <c r="M890" s="13"/>
       <c r="N890" s="13"/>
@@ -24663,7 +24574,7 @@
       <c r="H891" s="13"/>
       <c r="I891" s="13"/>
       <c r="J891" s="13"/>
-      <c r="K891" s="21"/>
+      <c r="K891" s="13"/>
       <c r="L891" s="13"/>
       <c r="M891" s="13"/>
       <c r="N891" s="13"/>
@@ -24690,7 +24601,7 @@
       <c r="H892" s="13"/>
       <c r="I892" s="13"/>
       <c r="J892" s="13"/>
-      <c r="K892" s="21"/>
+      <c r="K892" s="13"/>
       <c r="L892" s="13"/>
       <c r="M892" s="13"/>
       <c r="N892" s="13"/>
@@ -24717,7 +24628,7 @@
       <c r="H893" s="13"/>
       <c r="I893" s="13"/>
       <c r="J893" s="13"/>
-      <c r="K893" s="21"/>
+      <c r="K893" s="13"/>
       <c r="L893" s="13"/>
       <c r="M893" s="13"/>
       <c r="N893" s="13"/>
@@ -24744,7 +24655,7 @@
       <c r="H894" s="13"/>
       <c r="I894" s="13"/>
       <c r="J894" s="13"/>
-      <c r="K894" s="21"/>
+      <c r="K894" s="13"/>
       <c r="L894" s="13"/>
       <c r="M894" s="13"/>
       <c r="N894" s="13"/>
@@ -24771,7 +24682,7 @@
       <c r="H895" s="13"/>
       <c r="I895" s="13"/>
       <c r="J895" s="13"/>
-      <c r="K895" s="21"/>
+      <c r="K895" s="13"/>
       <c r="L895" s="13"/>
       <c r="M895" s="13"/>
       <c r="N895" s="13"/>
@@ -24798,7 +24709,7 @@
       <c r="H896" s="13"/>
       <c r="I896" s="13"/>
       <c r="J896" s="13"/>
-      <c r="K896" s="21"/>
+      <c r="K896" s="13"/>
       <c r="L896" s="13"/>
       <c r="M896" s="13"/>
       <c r="N896" s="13"/>
@@ -24825,7 +24736,7 @@
       <c r="H897" s="13"/>
       <c r="I897" s="13"/>
       <c r="J897" s="13"/>
-      <c r="K897" s="21"/>
+      <c r="K897" s="13"/>
       <c r="L897" s="13"/>
       <c r="M897" s="13"/>
       <c r="N897" s="13"/>
@@ -24852,7 +24763,7 @@
       <c r="H898" s="13"/>
       <c r="I898" s="13"/>
       <c r="J898" s="13"/>
-      <c r="K898" s="21"/>
+      <c r="K898" s="13"/>
       <c r="L898" s="13"/>
       <c r="M898" s="13"/>
       <c r="N898" s="13"/>
@@ -24879,7 +24790,7 @@
       <c r="H899" s="13"/>
       <c r="I899" s="13"/>
       <c r="J899" s="13"/>
-      <c r="K899" s="21"/>
+      <c r="K899" s="13"/>
       <c r="L899" s="13"/>
       <c r="M899" s="13"/>
       <c r="N899" s="13"/>
@@ -24906,7 +24817,7 @@
       <c r="H900" s="13"/>
       <c r="I900" s="13"/>
       <c r="J900" s="13"/>
-      <c r="K900" s="21"/>
+      <c r="K900" s="13"/>
       <c r="L900" s="13"/>
       <c r="M900" s="13"/>
       <c r="N900" s="13"/>
@@ -24933,7 +24844,7 @@
       <c r="H901" s="13"/>
       <c r="I901" s="13"/>
       <c r="J901" s="13"/>
-      <c r="K901" s="21"/>
+      <c r="K901" s="13"/>
       <c r="L901" s="13"/>
       <c r="M901" s="13"/>
       <c r="N901" s="13"/>
@@ -24960,7 +24871,7 @@
       <c r="H902" s="13"/>
       <c r="I902" s="13"/>
       <c r="J902" s="13"/>
-      <c r="K902" s="21"/>
+      <c r="K902" s="13"/>
       <c r="L902" s="13"/>
       <c r="M902" s="13"/>
       <c r="N902" s="13"/>
@@ -24987,7 +24898,7 @@
       <c r="H903" s="13"/>
       <c r="I903" s="13"/>
       <c r="J903" s="13"/>
-      <c r="K903" s="21"/>
+      <c r="K903" s="13"/>
       <c r="L903" s="13"/>
       <c r="M903" s="13"/>
       <c r="N903" s="13"/>
@@ -25014,7 +24925,7 @@
       <c r="H904" s="13"/>
       <c r="I904" s="13"/>
       <c r="J904" s="13"/>
-      <c r="K904" s="21"/>
+      <c r="K904" s="13"/>
       <c r="L904" s="13"/>
       <c r="M904" s="13"/>
       <c r="N904" s="13"/>
@@ -25041,7 +24952,7 @@
       <c r="H905" s="13"/>
       <c r="I905" s="13"/>
       <c r="J905" s="13"/>
-      <c r="K905" s="21"/>
+      <c r="K905" s="13"/>
       <c r="L905" s="13"/>
       <c r="M905" s="13"/>
       <c r="N905" s="13"/>
@@ -25068,7 +24979,7 @@
       <c r="H906" s="13"/>
       <c r="I906" s="13"/>
       <c r="J906" s="13"/>
-      <c r="K906" s="21"/>
+      <c r="K906" s="13"/>
       <c r="L906" s="13"/>
       <c r="M906" s="13"/>
       <c r="N906" s="13"/>
@@ -25095,7 +25006,7 @@
       <c r="H907" s="13"/>
       <c r="I907" s="13"/>
       <c r="J907" s="13"/>
-      <c r="K907" s="21"/>
+      <c r="K907" s="13"/>
       <c r="L907" s="13"/>
       <c r="M907" s="13"/>
       <c r="N907" s="13"/>
@@ -25122,7 +25033,7 @@
       <c r="H908" s="13"/>
       <c r="I908" s="13"/>
       <c r="J908" s="13"/>
-      <c r="K908" s="21"/>
+      <c r="K908" s="13"/>
       <c r="L908" s="13"/>
       <c r="M908" s="13"/>
       <c r="N908" s="13"/>
@@ -25149,7 +25060,7 @@
       <c r="H909" s="13"/>
       <c r="I909" s="13"/>
       <c r="J909" s="13"/>
-      <c r="K909" s="21"/>
+      <c r="K909" s="13"/>
       <c r="L909" s="13"/>
       <c r="M909" s="13"/>
       <c r="N909" s="13"/>
@@ -25176,7 +25087,7 @@
       <c r="H910" s="13"/>
       <c r="I910" s="13"/>
       <c r="J910" s="13"/>
-      <c r="K910" s="21"/>
+      <c r="K910" s="13"/>
       <c r="L910" s="13"/>
       <c r="M910" s="13"/>
       <c r="N910" s="13"/>
@@ -25203,7 +25114,7 @@
       <c r="H911" s="13"/>
       <c r="I911" s="13"/>
       <c r="J911" s="13"/>
-      <c r="K911" s="21"/>
+      <c r="K911" s="13"/>
       <c r="L911" s="13"/>
       <c r="M911" s="13"/>
       <c r="N911" s="13"/>
@@ -25230,7 +25141,7 @@
       <c r="H912" s="13"/>
       <c r="I912" s="13"/>
       <c r="J912" s="13"/>
-      <c r="K912" s="21"/>
+      <c r="K912" s="13"/>
       <c r="L912" s="13"/>
       <c r="M912" s="13"/>
       <c r="N912" s="13"/>
@@ -25257,7 +25168,7 @@
       <c r="H913" s="13"/>
       <c r="I913" s="13"/>
       <c r="J913" s="13"/>
-      <c r="K913" s="21"/>
+      <c r="K913" s="13"/>
       <c r="L913" s="13"/>
       <c r="M913" s="13"/>
       <c r="N913" s="13"/>
@@ -25284,7 +25195,7 @@
       <c r="H914" s="13"/>
       <c r="I914" s="13"/>
       <c r="J914" s="13"/>
-      <c r="K914" s="21"/>
+      <c r="K914" s="13"/>
       <c r="L914" s="13"/>
       <c r="M914" s="13"/>
       <c r="N914" s="13"/>
@@ -25311,7 +25222,7 @@
       <c r="H915" s="13"/>
       <c r="I915" s="13"/>
       <c r="J915" s="13"/>
-      <c r="K915" s="21"/>
+      <c r="K915" s="13"/>
       <c r="L915" s="13"/>
       <c r="M915" s="13"/>
       <c r="N915" s="13"/>
@@ -25338,7 +25249,7 @@
       <c r="H916" s="13"/>
       <c r="I916" s="13"/>
       <c r="J916" s="13"/>
-      <c r="K916" s="21"/>
+      <c r="K916" s="13"/>
       <c r="L916" s="13"/>
       <c r="M916" s="13"/>
       <c r="N916" s="13"/>
@@ -25365,7 +25276,7 @@
       <c r="H917" s="13"/>
       <c r="I917" s="13"/>
       <c r="J917" s="13"/>
-      <c r="K917" s="21"/>
+      <c r="K917" s="13"/>
       <c r="L917" s="13"/>
       <c r="M917" s="13"/>
       <c r="N917" s="13"/>
@@ -25392,7 +25303,7 @@
       <c r="H918" s="13"/>
       <c r="I918" s="13"/>
       <c r="J918" s="13"/>
-      <c r="K918" s="21"/>
+      <c r="K918" s="13"/>
       <c r="L918" s="13"/>
       <c r="M918" s="13"/>
       <c r="N918" s="13"/>
@@ -25419,7 +25330,7 @@
       <c r="H919" s="13"/>
       <c r="I919" s="13"/>
       <c r="J919" s="13"/>
-      <c r="K919" s="21"/>
+      <c r="K919" s="13"/>
       <c r="L919" s="13"/>
       <c r="M919" s="13"/>
       <c r="N919" s="13"/>
@@ -25446,7 +25357,7 @@
       <c r="H920" s="13"/>
       <c r="I920" s="13"/>
       <c r="J920" s="13"/>
-      <c r="K920" s="21"/>
+      <c r="K920" s="13"/>
       <c r="L920" s="13"/>
       <c r="M920" s="13"/>
       <c r="N920" s="13"/>
@@ -25473,7 +25384,7 @@
       <c r="H921" s="13"/>
       <c r="I921" s="13"/>
       <c r="J921" s="13"/>
-      <c r="K921" s="21"/>
+      <c r="K921" s="13"/>
       <c r="L921" s="13"/>
       <c r="M921" s="13"/>
       <c r="N921" s="13"/>
@@ -25500,7 +25411,7 @@
       <c r="H922" s="13"/>
       <c r="I922" s="13"/>
       <c r="J922" s="13"/>
-      <c r="K922" s="21"/>
+      <c r="K922" s="13"/>
       <c r="L922" s="13"/>
       <c r="M922" s="13"/>
       <c r="N922" s="13"/>
@@ -25527,7 +25438,7 @@
       <c r="H923" s="13"/>
       <c r="I923" s="13"/>
       <c r="J923" s="13"/>
-      <c r="K923" s="21"/>
+      <c r="K923" s="13"/>
       <c r="L923" s="13"/>
       <c r="M923" s="13"/>
       <c r="N923" s="13"/>
@@ -25554,7 +25465,7 @@
       <c r="H924" s="13"/>
       <c r="I924" s="13"/>
       <c r="J924" s="13"/>
-      <c r="K924" s="21"/>
+      <c r="K924" s="13"/>
       <c r="L924" s="13"/>
       <c r="M924" s="13"/>
       <c r="N924" s="13"/>
@@ -25581,7 +25492,7 @@
       <c r="H925" s="13"/>
       <c r="I925" s="13"/>
       <c r="J925" s="13"/>
-      <c r="K925" s="21"/>
+      <c r="K925" s="13"/>
       <c r="L925" s="13"/>
       <c r="M925" s="13"/>
       <c r="N925" s="13"/>
@@ -25608,7 +25519,7 @@
       <c r="H926" s="13"/>
       <c r="I926" s="13"/>
       <c r="J926" s="13"/>
-      <c r="K926" s="21"/>
+      <c r="K926" s="13"/>
       <c r="L926" s="13"/>
       <c r="M926" s="13"/>
       <c r="N926" s="13"/>
@@ -25635,7 +25546,7 @@
       <c r="H927" s="13"/>
       <c r="I927" s="13"/>
       <c r="J927" s="13"/>
-      <c r="K927" s="21"/>
+      <c r="K927" s="13"/>
       <c r="L927" s="13"/>
       <c r="M927" s="13"/>
       <c r="N927" s="13"/>
@@ -25662,7 +25573,7 @@
       <c r="H928" s="13"/>
       <c r="I928" s="13"/>
       <c r="J928" s="13"/>
-      <c r="K928" s="21"/>
+      <c r="K928" s="13"/>
       <c r="L928" s="13"/>
       <c r="M928" s="13"/>
       <c r="N928" s="13"/>
@@ -25689,7 +25600,7 @@
       <c r="H929" s="13"/>
       <c r="I929" s="13"/>
       <c r="J929" s="13"/>
-      <c r="K929" s="21"/>
+      <c r="K929" s="13"/>
       <c r="L929" s="13"/>
       <c r="M929" s="13"/>
       <c r="N929" s="13"/>
@@ -25716,7 +25627,7 @@
       <c r="H930" s="13"/>
       <c r="I930" s="13"/>
       <c r="J930" s="13"/>
-      <c r="K930" s="21"/>
+      <c r="K930" s="13"/>
       <c r="L930" s="13"/>
       <c r="M930" s="13"/>
       <c r="N930" s="13"/>
@@ -25743,7 +25654,7 @@
       <c r="H931" s="13"/>
       <c r="I931" s="13"/>
       <c r="J931" s="13"/>
-      <c r="K931" s="21"/>
+      <c r="K931" s="13"/>
       <c r="L931" s="13"/>
       <c r="M931" s="13"/>
       <c r="N931" s="13"/>
@@ -25770,7 +25681,7 @@
       <c r="H932" s="13"/>
       <c r="I932" s="13"/>
       <c r="J932" s="13"/>
-      <c r="K932" s="21"/>
+      <c r="K932" s="13"/>
       <c r="L932" s="13"/>
       <c r="M932" s="13"/>
       <c r="N932" s="13"/>
@@ -25797,7 +25708,7 @@
       <c r="H933" s="13"/>
       <c r="I933" s="13"/>
       <c r="J933" s="13"/>
-      <c r="K933" s="21"/>
+      <c r="K933" s="13"/>
       <c r="L933" s="13"/>
       <c r="M933" s="13"/>
       <c r="N933" s="13"/>
@@ -25824,7 +25735,7 @@
       <c r="H934" s="13"/>
       <c r="I934" s="13"/>
       <c r="J934" s="13"/>
-      <c r="K934" s="21"/>
+      <c r="K934" s="13"/>
       <c r="L934" s="13"/>
       <c r="M934" s="13"/>
       <c r="N934" s="13"/>
@@ -25851,7 +25762,7 @@
       <c r="H935" s="13"/>
       <c r="I935" s="13"/>
       <c r="J935" s="13"/>
-      <c r="K935" s="21"/>
+      <c r="K935" s="13"/>
       <c r="L935" s="13"/>
       <c r="M935" s="13"/>
       <c r="N935" s="13"/>
@@ -25878,7 +25789,7 @@
       <c r="H936" s="13"/>
       <c r="I936" s="13"/>
       <c r="J936" s="13"/>
-      <c r="K936" s="21"/>
+      <c r="K936" s="13"/>
       <c r="L936" s="13"/>
       <c r="M936" s="13"/>
       <c r="N936" s="13"/>
@@ -25905,7 +25816,7 @@
       <c r="H937" s="13"/>
       <c r="I937" s="13"/>
       <c r="J937" s="13"/>
-      <c r="K937" s="21"/>
+      <c r="K937" s="13"/>
       <c r="L937" s="13"/>
       <c r="M937" s="13"/>
       <c r="N937" s="13"/>
@@ -25932,7 +25843,7 @@
       <c r="H938" s="13"/>
       <c r="I938" s="13"/>
       <c r="J938" s="13"/>
-      <c r="K938" s="21"/>
+      <c r="K938" s="13"/>
       <c r="L938" s="13"/>
       <c r="M938" s="13"/>
       <c r="N938" s="13"/>
@@ -25959,7 +25870,7 @@
       <c r="H939" s="13"/>
       <c r="I939" s="13"/>
       <c r="J939" s="13"/>
-      <c r="K939" s="21"/>
+      <c r="K939" s="13"/>
       <c r="L939" s="13"/>
       <c r="M939" s="13"/>
       <c r="N939" s="13"/>
@@ -25986,7 +25897,7 @@
       <c r="H940" s="13"/>
       <c r="I940" s="13"/>
       <c r="J940" s="13"/>
-      <c r="K940" s="21"/>
+      <c r="K940" s="13"/>
       <c r="L940" s="13"/>
       <c r="M940" s="13"/>
       <c r="N940" s="13"/>
@@ -26013,7 +25924,7 @@
       <c r="H941" s="13"/>
       <c r="I941" s="13"/>
       <c r="J941" s="13"/>
-      <c r="K941" s="21"/>
+      <c r="K941" s="13"/>
       <c r="L941" s="13"/>
       <c r="M941" s="13"/>
       <c r="N941" s="13"/>
@@ -26040,7 +25951,7 @@
       <c r="H942" s="13"/>
       <c r="I942" s="13"/>
       <c r="J942" s="13"/>
-      <c r="K942" s="21"/>
+      <c r="K942" s="13"/>
       <c r="L942" s="13"/>
       <c r="M942" s="13"/>
       <c r="N942" s="13"/>
@@ -26067,7 +25978,7 @@
       <c r="H943" s="13"/>
       <c r="I943" s="13"/>
       <c r="J943" s="13"/>
-      <c r="K943" s="21"/>
+      <c r="K943" s="13"/>
       <c r="L943" s="13"/>
       <c r="M943" s="13"/>
       <c r="N943" s="13"/>
@@ -26094,7 +26005,7 @@
       <c r="H944" s="13"/>
       <c r="I944" s="13"/>
       <c r="J944" s="13"/>
-      <c r="K944" s="21"/>
+      <c r="K944" s="13"/>
       <c r="L944" s="13"/>
       <c r="M944" s="13"/>
       <c r="N944" s="13"/>
@@ -26121,7 +26032,7 @@
       <c r="H945" s="13"/>
       <c r="I945" s="13"/>
       <c r="J945" s="13"/>
-      <c r="K945" s="21"/>
+      <c r="K945" s="13"/>
       <c r="L945" s="13"/>
       <c r="M945" s="13"/>
       <c r="N945" s="13"/>
@@ -26148,7 +26059,7 @@
       <c r="H946" s="13"/>
       <c r="I946" s="13"/>
       <c r="J946" s="13"/>
-      <c r="K946" s="21"/>
+      <c r="K946" s="13"/>
       <c r="L946" s="13"/>
       <c r="M946" s="13"/>
       <c r="N946" s="13"/>
@@ -26175,7 +26086,7 @@
       <c r="H947" s="13"/>
       <c r="I947" s="13"/>
       <c r="J947" s="13"/>
-      <c r="K947" s="21"/>
+      <c r="K947" s="13"/>
       <c r="L947" s="13"/>
       <c r="M947" s="13"/>
       <c r="N947" s="13"/>
@@ -26202,7 +26113,7 @@
       <c r="H948" s="13"/>
       <c r="I948" s="13"/>
       <c r="J948" s="13"/>
-      <c r="K948" s="21"/>
+      <c r="K948" s="13"/>
       <c r="L948" s="13"/>
       <c r="M948" s="13"/>
       <c r="N948" s="13"/>
@@ -26229,7 +26140,7 @@
       <c r="H949" s="13"/>
       <c r="I949" s="13"/>
       <c r="J949" s="13"/>
-      <c r="K949" s="21"/>
+      <c r="K949" s="13"/>
       <c r="L949" s="13"/>
       <c r="M949" s="13"/>
       <c r="N949" s="13"/>
@@ -26256,7 +26167,7 @@
       <c r="H950" s="13"/>
       <c r="I950" s="13"/>
       <c r="J950" s="13"/>
-      <c r="K950" s="21"/>
+      <c r="K950" s="13"/>
       <c r="L950" s="13"/>
       <c r="M950" s="13"/>
       <c r="N950" s="13"/>
@@ -26283,7 +26194,7 @@
       <c r="H951" s="13"/>
       <c r="I951" s="13"/>
       <c r="J951" s="13"/>
-      <c r="K951" s="21"/>
+      <c r="K951" s="13"/>
       <c r="L951" s="13"/>
       <c r="M951" s="13"/>
       <c r="N951" s="13"/>
@@ -26310,7 +26221,7 @@
       <c r="H952" s="13"/>
       <c r="I952" s="13"/>
       <c r="J952" s="13"/>
-      <c r="K952" s="21"/>
+      <c r="K952" s="13"/>
       <c r="L952" s="13"/>
       <c r="M952" s="13"/>
       <c r="N952" s="13"/>
@@ -26337,7 +26248,7 @@
       <c r="H953" s="13"/>
       <c r="I953" s="13"/>
       <c r="J953" s="13"/>
-      <c r="K953" s="21"/>
+      <c r="K953" s="13"/>
       <c r="L953" s="13"/>
       <c r="M953" s="13"/>
       <c r="N953" s="13"/>
@@ -26364,7 +26275,7 @@
       <c r="H954" s="13"/>
       <c r="I954" s="13"/>
       <c r="J954" s="13"/>
-      <c r="K954" s="21"/>
+      <c r="K954" s="13"/>
       <c r="L954" s="13"/>
       <c r="M954" s="13"/>
       <c r="N954" s="13"/>
@@ -26391,7 +26302,7 @@
       <c r="H955" s="13"/>
       <c r="I955" s="13"/>
       <c r="J955" s="13"/>
-      <c r="K955" s="21"/>
+      <c r="K955" s="13"/>
       <c r="L955" s="13"/>
       <c r="M955" s="13"/>
       <c r="N955" s="13"/>
@@ -26418,7 +26329,7 @@
       <c r="H956" s="13"/>
       <c r="I956" s="13"/>
       <c r="J956" s="13"/>
-      <c r="K956" s="21"/>
+      <c r="K956" s="13"/>
       <c r="L956" s="13"/>
       <c r="M956" s="13"/>
       <c r="N956" s="13"/>
@@ -26445,7 +26356,7 @@
       <c r="H957" s="13"/>
       <c r="I957" s="13"/>
       <c r="J957" s="13"/>
-      <c r="K957" s="21"/>
+      <c r="K957" s="13"/>
       <c r="L957" s="13"/>
       <c r="M957" s="13"/>
       <c r="N957" s="13"/>
@@ -26472,7 +26383,7 @@
       <c r="H958" s="13"/>
       <c r="I958" s="13"/>
       <c r="J958" s="13"/>
-      <c r="K958" s="21"/>
+      <c r="K958" s="13"/>
       <c r="L958" s="13"/>
       <c r="M958" s="13"/>
       <c r="N958" s="13"/>
@@ -26499,7 +26410,7 @@
       <c r="H959" s="13"/>
       <c r="I959" s="13"/>
       <c r="J959" s="13"/>
-      <c r="K959" s="21"/>
+      <c r="K959" s="13"/>
       <c r="L959" s="13"/>
       <c r="M959" s="13"/>
       <c r="N959" s="13"/>
@@ -26526,7 +26437,7 @@
       <c r="H960" s="13"/>
       <c r="I960" s="13"/>
       <c r="J960" s="13"/>
-      <c r="K960" s="21"/>
+      <c r="K960" s="13"/>
       <c r="L960" s="13"/>
       <c r="M960" s="13"/>
       <c r="N960" s="13"/>
@@ -26553,7 +26464,7 @@
       <c r="H961" s="13"/>
       <c r="I961" s="13"/>
       <c r="J961" s="13"/>
-      <c r="K961" s="21"/>
+      <c r="K961" s="13"/>
       <c r="L961" s="13"/>
       <c r="M961" s="13"/>
       <c r="N961" s="13"/>
@@ -26580,7 +26491,7 @@
       <c r="H962" s="13"/>
       <c r="I962" s="13"/>
       <c r="J962" s="13"/>
-      <c r="K962" s="21"/>
+      <c r="K962" s="13"/>
       <c r="L962" s="13"/>
       <c r="M962" s="13"/>
       <c r="N962" s="13"/>
@@ -26607,7 +26518,7 @@
       <c r="H963" s="13"/>
       <c r="I963" s="13"/>
       <c r="J963" s="13"/>
-      <c r="K963" s="21"/>
+      <c r="K963" s="13"/>
       <c r="L963" s="13"/>
       <c r="M963" s="13"/>
       <c r="N963" s="13"/>
@@ -26634,7 +26545,7 @@
       <c r="H964" s="13"/>
       <c r="I964" s="13"/>
       <c r="J964" s="13"/>
-      <c r="K964" s="21"/>
+      <c r="K964" s="13"/>
       <c r="L964" s="13"/>
       <c r="M964" s="13"/>
       <c r="N964" s="13"/>
@@ -26661,7 +26572,7 @@
       <c r="H965" s="13"/>
       <c r="I965" s="13"/>
       <c r="J965" s="13"/>
-      <c r="K965" s="21"/>
+      <c r="K965" s="13"/>
       <c r="L965" s="13"/>
       <c r="M965" s="13"/>
       <c r="N965" s="13"/>
@@ -26688,7 +26599,7 @@
       <c r="H966" s="13"/>
       <c r="I966" s="13"/>
       <c r="J966" s="13"/>
-      <c r="K966" s="21"/>
+      <c r="K966" s="13"/>
       <c r="L966" s="13"/>
       <c r="M966" s="13"/>
       <c r="N966" s="13"/>
@@ -26715,7 +26626,7 @@
       <c r="H967" s="13"/>
       <c r="I967" s="13"/>
       <c r="J967" s="13"/>
-      <c r="K967" s="21"/>
+      <c r="K967" s="13"/>
       <c r="L967" s="13"/>
       <c r="M967" s="13"/>
       <c r="N967" s="13"/>
@@ -26742,7 +26653,7 @@
       <c r="H968" s="13"/>
       <c r="I968" s="13"/>
       <c r="J968" s="13"/>
-      <c r="K968" s="21"/>
+      <c r="K968" s="13"/>
       <c r="L968" s="13"/>
       <c r="M968" s="13"/>
       <c r="N968" s="13"/>
@@ -26769,7 +26680,7 @@
       <c r="H969" s="13"/>
       <c r="I969" s="13"/>
       <c r="J969" s="13"/>
-      <c r="K969" s="21"/>
+      <c r="K969" s="13"/>
       <c r="L969" s="13"/>
       <c r="M969" s="13"/>
       <c r="N969" s="13"/>
@@ -26796,7 +26707,7 @@
       <c r="H970" s="13"/>
       <c r="I970" s="13"/>
       <c r="J970" s="13"/>
-      <c r="K970" s="21"/>
+      <c r="K970" s="13"/>
       <c r="L970" s="13"/>
       <c r="M970" s="13"/>
       <c r="N970" s="13"/>
@@ -26823,7 +26734,7 @@
       <c r="H971" s="13"/>
       <c r="I971" s="13"/>
       <c r="J971" s="13"/>
-      <c r="K971" s="21"/>
+      <c r="K971" s="13"/>
       <c r="L971" s="13"/>
       <c r="M971" s="13"/>
       <c r="N971" s="13"/>
@@ -26850,7 +26761,7 @@
       <c r="H972" s="13"/>
       <c r="I972" s="13"/>
       <c r="J972" s="13"/>
-      <c r="K972" s="21"/>
+      <c r="K972" s="13"/>
       <c r="L972" s="13"/>
       <c r="M972" s="13"/>
       <c r="N972" s="13"/>
@@ -26877,7 +26788,7 @@
       <c r="H973" s="13"/>
       <c r="I973" s="13"/>
       <c r="J973" s="13"/>
-      <c r="K973" s="21"/>
+      <c r="K973" s="13"/>
       <c r="L973" s="13"/>
       <c r="M973" s="13"/>
       <c r="N973" s="13"/>
@@ -26904,7 +26815,7 @@
       <c r="H974" s="13"/>
       <c r="I974" s="13"/>
       <c r="J974" s="13"/>
-      <c r="K974" s="21"/>
+      <c r="K974" s="13"/>
       <c r="L974" s="13"/>
       <c r="M974" s="13"/>
       <c r="N974" s="13"/>
@@ -26931,7 +26842,7 @@
       <c r="H975" s="13"/>
       <c r="I975" s="13"/>
       <c r="J975" s="13"/>
-      <c r="K975" s="21"/>
+      <c r="K975" s="13"/>
       <c r="L975" s="13"/>
       <c r="M975" s="13"/>
       <c r="N975" s="13"/>
@@ -26958,7 +26869,7 @@
       <c r="H976" s="13"/>
       <c r="I976" s="13"/>
       <c r="J976" s="13"/>
-      <c r="K976" s="21"/>
+      <c r="K976" s="13"/>
       <c r="L976" s="13"/>
       <c r="M976" s="13"/>
       <c r="N976" s="13"/>
@@ -26985,7 +26896,7 @@
       <c r="H977" s="13"/>
       <c r="I977" s="13"/>
       <c r="J977" s="13"/>
-      <c r="K977" s="21"/>
+      <c r="K977" s="13"/>
       <c r="L977" s="13"/>
       <c r="M977" s="13"/>
       <c r="N977" s="13"/>
@@ -27012,7 +26923,7 @@
       <c r="H978" s="13"/>
       <c r="I978" s="13"/>
       <c r="J978" s="13"/>
-      <c r="K978" s="21"/>
+      <c r="K978" s="13"/>
       <c r="L978" s="13"/>
       <c r="M978" s="13"/>
       <c r="N978" s="13"/>
@@ -27039,7 +26950,7 @@
       <c r="H979" s="13"/>
       <c r="I979" s="13"/>
       <c r="J979" s="13"/>
-      <c r="K979" s="21"/>
+      <c r="K979" s="13"/>
       <c r="L979" s="13"/>
       <c r="M979" s="13"/>
       <c r="N979" s="13"/>
@@ -27066,7 +26977,7 @@
       <c r="H980" s="13"/>
       <c r="I980" s="13"/>
       <c r="J980" s="13"/>
-      <c r="K980" s="21"/>
+      <c r="K980" s="13"/>
       <c r="L980" s="13"/>
       <c r="M980" s="13"/>
       <c r="N980" s="13"/>
@@ -27093,7 +27004,7 @@
       <c r="H981" s="13"/>
       <c r="I981" s="13"/>
       <c r="J981" s="13"/>
-      <c r="K981" s="21"/>
+      <c r="K981" s="13"/>
       <c r="L981" s="13"/>
       <c r="M981" s="13"/>
       <c r="N981" s="13"/>
@@ -27120,7 +27031,7 @@
       <c r="H982" s="13"/>
       <c r="I982" s="13"/>
       <c r="J982" s="13"/>
-      <c r="K982" s="21"/>
+      <c r="K982" s="13"/>
       <c r="L982" s="13"/>
       <c r="M982" s="13"/>
       <c r="N982" s="13"/>
@@ -27147,7 +27058,7 @@
       <c r="H983" s="13"/>
       <c r="I983" s="13"/>
       <c r="J983" s="13"/>
-      <c r="K983" s="21"/>
+      <c r="K983" s="13"/>
       <c r="L983" s="13"/>
       <c r="M983" s="13"/>
       <c r="N983" s="13"/>
@@ -27174,7 +27085,7 @@
       <c r="H984" s="13"/>
       <c r="I984" s="13"/>
       <c r="J984" s="13"/>
-      <c r="K984" s="21"/>
+      <c r="K984" s="13"/>
       <c r="L984" s="13"/>
       <c r="M984" s="13"/>
       <c r="N984" s="13"/>
@@ -27201,7 +27112,7 @@
       <c r="H985" s="13"/>
       <c r="I985" s="13"/>
       <c r="J985" s="13"/>
-      <c r="K985" s="21"/>
+      <c r="K985" s="13"/>
       <c r="L985" s="13"/>
       <c r="M985" s="13"/>
       <c r="N985" s="13"/>
@@ -27228,7 +27139,7 @@
       <c r="H986" s="13"/>
       <c r="I986" s="13"/>
       <c r="J986" s="13"/>
-      <c r="K986" s="21"/>
+      <c r="K986" s="13"/>
       <c r="L986" s="13"/>
       <c r="M986" s="13"/>
       <c r="N986" s="13"/>
@@ -27255,7 +27166,7 @@
       <c r="H987" s="13"/>
       <c r="I987" s="13"/>
       <c r="J987" s="13"/>
-      <c r="K987" s="21"/>
+      <c r="K987" s="13"/>
       <c r="L987" s="13"/>
       <c r="M987" s="13"/>
       <c r="N987" s="13"/>
@@ -27282,7 +27193,7 @@
       <c r="H988" s="13"/>
       <c r="I988" s="13"/>
       <c r="J988" s="13"/>
-      <c r="K988" s="21"/>
+      <c r="K988" s="13"/>
       <c r="L988" s="13"/>
       <c r="M988" s="13"/>
       <c r="N988" s="13"/>
@@ -27309,7 +27220,7 @@
       <c r="H989" s="13"/>
       <c r="I989" s="13"/>
       <c r="J989" s="13"/>
-      <c r="K989" s="21"/>
+      <c r="K989" s="13"/>
       <c r="L989" s="13"/>
       <c r="M989" s="13"/>
       <c r="N989" s="13"/>
@@ -27336,7 +27247,7 @@
       <c r="H990" s="13"/>
       <c r="I990" s="13"/>
       <c r="J990" s="13"/>
-      <c r="K990" s="21"/>
+      <c r="K990" s="13"/>
       <c r="L990" s="13"/>
       <c r="M990" s="13"/>
       <c r="N990" s="13"/>
@@ -27363,7 +27274,7 @@
       <c r="H991" s="13"/>
       <c r="I991" s="13"/>
       <c r="J991" s="13"/>
-      <c r="K991" s="21"/>
+      <c r="K991" s="13"/>
       <c r="L991" s="13"/>
       <c r="M991" s="13"/>
       <c r="N991" s="13"/>
@@ -27390,7 +27301,7 @@
       <c r="H992" s="13"/>
       <c r="I992" s="13"/>
       <c r="J992" s="13"/>
-      <c r="K992" s="21"/>
+      <c r="K992" s="13"/>
       <c r="L992" s="13"/>
       <c r="M992" s="13"/>
       <c r="N992" s="13"/>
@@ -27409,229 +27320,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:AC3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="11.7109375" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" customWidth="1"/>
-    <col min="3" max="3" width="22.28515625" customWidth="1"/>
-    <col min="4" max="4" width="8.140625" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" customWidth="1"/>
-    <col min="6" max="6" width="8.140625" customWidth="1"/>
-    <col min="7" max="7" width="9.42578125" customWidth="1"/>
-    <col min="8" max="10" width="8.140625" customWidth="1"/>
-    <col min="11" max="11" width="9.85546875" customWidth="1"/>
-    <col min="12" max="12" width="8.7109375" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" customWidth="1"/>
-    <col min="15" max="15" width="16.28515625" customWidth="1"/>
-    <col min="16" max="29" width="14.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="L1" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
-      <c r="S1" s="6"/>
-      <c r="T1" s="6"/>
-      <c r="U1" s="6"/>
-      <c r="V1" s="6"/>
-      <c r="W1" s="6"/>
-      <c r="X1" s="6"/>
-      <c r="Y1" s="6"/>
-      <c r="Z1" s="6"/>
-      <c r="AA1" s="6"/>
-      <c r="AB1" s="6"/>
-      <c r="AC1" s="6"/>
-    </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="7">
-        <v>10</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F2" s="8">
-        <v>0</v>
-      </c>
-      <c r="G2" s="9">
-        <v>0.03</v>
-      </c>
-      <c r="H2" s="8">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="I2" s="8">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="J2" s="8">
-        <v>1.5E-3</v>
-      </c>
-      <c r="K2" s="7">
-        <v>15</v>
-      </c>
-      <c r="L2" s="18">
-        <f t="shared" ref="L2:L3" si="0">FLOOR((K2-C2)/C2,1) + 1</f>
-        <v>1</v>
-      </c>
-      <c r="M2" s="12">
-        <v>44075</v>
-      </c>
-      <c r="N2" s="12">
-        <v>44195</v>
-      </c>
-      <c r="O2" s="7">
-        <f t="shared" ref="O2:O3" si="1">N2-M2</f>
-        <v>120</v>
-      </c>
-      <c r="P2" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q2" s="13"/>
-      <c r="R2" s="13"/>
-      <c r="S2" s="13"/>
-      <c r="T2" s="13"/>
-      <c r="U2" s="13"/>
-      <c r="V2" s="13"/>
-      <c r="W2" s="13"/>
-      <c r="X2" s="13"/>
-      <c r="Y2" s="13"/>
-      <c r="Z2" s="13"/>
-      <c r="AA2" s="13"/>
-      <c r="AB2" s="13"/>
-      <c r="AC2" s="13"/>
-    </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="7">
-        <v>25</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" s="8">
-        <v>0</v>
-      </c>
-      <c r="G3" s="9">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="H3" s="8">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="I3" s="8">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="J3" s="8">
-        <v>1.5E-3</v>
-      </c>
-      <c r="K3" s="7">
-        <v>30</v>
-      </c>
-      <c r="L3" s="18">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="M3" s="12">
-        <v>44075</v>
-      </c>
-      <c r="N3" s="12">
-        <v>44195</v>
-      </c>
-      <c r="O3" s="7">
-        <f t="shared" si="1"/>
-        <v>120</v>
-      </c>
-      <c r="P3" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q3" s="13"/>
-      <c r="R3" s="13"/>
-      <c r="S3" s="13"/>
-      <c r="T3" s="13"/>
-      <c r="U3" s="13"/>
-      <c r="V3" s="13"/>
-      <c r="W3" s="13"/>
-      <c r="X3" s="13"/>
-      <c r="Y3" s="13"/>
-      <c r="Z3" s="13"/>
-      <c r="AA3" s="13"/>
-      <c r="AB3" s="13"/>
-      <c r="AC3" s="13"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/misc/epiparms.xlsx
+++ b/misc/epiparms.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ashok Krishnamurthy\Desktop\spatialEpisim\misc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Software\spatialEpisim\misc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD470C14-E1D1-4DBE-A5F9-0AAF10C4193C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAA45813-EAB2-4F88-B07E-5DBDEC84319D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25320" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="epiparms" sheetId="1" r:id="rId1"/>
@@ -229,7 +229,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -265,6 +265,9 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="15" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -487,26 +490,28 @@
   </sheetPr>
   <dimension ref="A1:Y992"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" customWidth="1"/>
-    <col min="2" max="2" width="9.6640625" customWidth="1"/>
-    <col min="3" max="3" width="8.109375" customWidth="1"/>
-    <col min="4" max="4" width="9.44140625" customWidth="1"/>
-    <col min="5" max="5" width="9.109375" customWidth="1"/>
-    <col min="6" max="7" width="8.109375" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" customWidth="1"/>
-    <col min="9" max="9" width="13.44140625" customWidth="1"/>
-    <col min="10" max="10" width="14.6640625" customWidth="1"/>
-    <col min="11" max="11" width="16.33203125" customWidth="1"/>
-    <col min="12" max="12" width="14.44140625" customWidth="1"/>
-    <col min="13" max="13" width="11.6640625" customWidth="1"/>
-    <col min="14" max="14" width="16.5546875" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" customWidth="1"/>
+    <col min="6" max="7" width="8.140625" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" customWidth="1"/>
+    <col min="11" max="11" width="16.28515625" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" customWidth="1"/>
+    <col min="13" max="13" width="11.7109375" customWidth="1"/>
+    <col min="14" max="14" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:25" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -561,7 +566,7 @@
       <c r="X1" s="1"/>
       <c r="Y1" s="1"/>
     </row>
-    <row r="2" spans="1:25" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>14</v>
       </c>
@@ -571,7 +576,7 @@
       <c r="C2" s="9">
         <v>0</v>
       </c>
-      <c r="D2" s="10">
+      <c r="D2" s="13">
         <v>0.04</v>
       </c>
       <c r="E2" s="9">
@@ -616,7 +621,7 @@
       <c r="X2" s="2"/>
       <c r="Y2" s="2"/>
     </row>
-    <row r="3" spans="1:25" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>19</v>
       </c>
@@ -626,7 +631,7 @@
       <c r="C3" s="9">
         <v>0</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="13">
         <v>5.0000000000000002E-5</v>
       </c>
       <c r="E3" s="9">
@@ -671,7 +676,7 @@
       <c r="X3" s="2"/>
       <c r="Y3" s="2"/>
     </row>
-    <row r="4" spans="1:25" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>14</v>
       </c>
@@ -681,7 +686,7 @@
       <c r="C4" s="10">
         <v>1.5E-3</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="13">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="E4" s="9">
@@ -726,7 +731,7 @@
       <c r="X4" s="2"/>
       <c r="Y4" s="2"/>
     </row>
-    <row r="5" spans="1:25" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>19</v>
       </c>
@@ -736,7 +741,7 @@
       <c r="C5" s="10">
         <v>1E-4</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="13">
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="E5" s="9">
@@ -781,7 +786,7 @@
       <c r="X5" s="2"/>
       <c r="Y5" s="2"/>
     </row>
-    <row r="9" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -808,7 +813,7 @@
       <c r="X9" s="2"/>
       <c r="Y9" s="2"/>
     </row>
-    <row r="10" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -835,7 +840,7 @@
       <c r="X10" s="2"/>
       <c r="Y10" s="2"/>
     </row>
-    <row r="11" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -862,7 +867,7 @@
       <c r="X11" s="2"/>
       <c r="Y11" s="2"/>
     </row>
-    <row r="12" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -889,7 +894,7 @@
       <c r="X12" s="2"/>
       <c r="Y12" s="2"/>
     </row>
-    <row r="13" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -916,7 +921,7 @@
       <c r="X13" s="2"/>
       <c r="Y13" s="2"/>
     </row>
-    <row r="14" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -943,7 +948,7 @@
       <c r="X14" s="2"/>
       <c r="Y14" s="2"/>
     </row>
-    <row r="15" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -970,7 +975,7 @@
       <c r="X15" s="2"/>
       <c r="Y15" s="2"/>
     </row>
-    <row r="16" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -997,7 +1002,7 @@
       <c r="X16" s="2"/>
       <c r="Y16" s="2"/>
     </row>
-    <row r="17" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -1024,7 +1029,7 @@
       <c r="X17" s="2"/>
       <c r="Y17" s="2"/>
     </row>
-    <row r="18" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -1051,7 +1056,7 @@
       <c r="X18" s="2"/>
       <c r="Y18" s="2"/>
     </row>
-    <row r="19" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -1078,7 +1083,7 @@
       <c r="X19" s="2"/>
       <c r="Y19" s="2"/>
     </row>
-    <row r="20" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -1105,7 +1110,7 @@
       <c r="X20" s="2"/>
       <c r="Y20" s="2"/>
     </row>
-    <row r="21" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -1132,7 +1137,7 @@
       <c r="X21" s="2"/>
       <c r="Y21" s="2"/>
     </row>
-    <row r="22" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -1159,7 +1164,7 @@
       <c r="X22" s="2"/>
       <c r="Y22" s="2"/>
     </row>
-    <row r="23" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -1186,7 +1191,7 @@
       <c r="X23" s="2"/>
       <c r="Y23" s="2"/>
     </row>
-    <row r="24" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -1213,7 +1218,7 @@
       <c r="X24" s="2"/>
       <c r="Y24" s="2"/>
     </row>
-    <row r="25" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -1240,7 +1245,7 @@
       <c r="X25" s="2"/>
       <c r="Y25" s="2"/>
     </row>
-    <row r="26" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -1267,7 +1272,7 @@
       <c r="X26" s="2"/>
       <c r="Y26" s="2"/>
     </row>
-    <row r="27" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -1294,7 +1299,7 @@
       <c r="X27" s="2"/>
       <c r="Y27" s="2"/>
     </row>
-    <row r="28" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -1321,7 +1326,7 @@
       <c r="X28" s="2"/>
       <c r="Y28" s="2"/>
     </row>
-    <row r="29" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -1348,7 +1353,7 @@
       <c r="X29" s="2"/>
       <c r="Y29" s="2"/>
     </row>
-    <row r="30" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -1375,7 +1380,7 @@
       <c r="X30" s="2"/>
       <c r="Y30" s="2"/>
     </row>
-    <row r="31" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -1402,7 +1407,7 @@
       <c r="X31" s="2"/>
       <c r="Y31" s="2"/>
     </row>
-    <row r="32" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -1429,7 +1434,7 @@
       <c r="X32" s="2"/>
       <c r="Y32" s="2"/>
     </row>
-    <row r="33" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -1456,7 +1461,7 @@
       <c r="X33" s="2"/>
       <c r="Y33" s="2"/>
     </row>
-    <row r="34" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -1483,7 +1488,7 @@
       <c r="X34" s="2"/>
       <c r="Y34" s="2"/>
     </row>
-    <row r="35" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -1510,7 +1515,7 @@
       <c r="X35" s="2"/>
       <c r="Y35" s="2"/>
     </row>
-    <row r="36" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -1537,7 +1542,7 @@
       <c r="X36" s="2"/>
       <c r="Y36" s="2"/>
     </row>
-    <row r="37" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -1564,7 +1569,7 @@
       <c r="X37" s="2"/>
       <c r="Y37" s="2"/>
     </row>
-    <row r="38" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -1591,7 +1596,7 @@
       <c r="X38" s="2"/>
       <c r="Y38" s="2"/>
     </row>
-    <row r="39" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -1618,7 +1623,7 @@
       <c r="X39" s="2"/>
       <c r="Y39" s="2"/>
     </row>
-    <row r="40" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -1645,7 +1650,7 @@
       <c r="X40" s="2"/>
       <c r="Y40" s="2"/>
     </row>
-    <row r="41" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -1672,7 +1677,7 @@
       <c r="X41" s="2"/>
       <c r="Y41" s="2"/>
     </row>
-    <row r="42" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -1699,7 +1704,7 @@
       <c r="X42" s="2"/>
       <c r="Y42" s="2"/>
     </row>
-    <row r="43" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -1726,7 +1731,7 @@
       <c r="X43" s="2"/>
       <c r="Y43" s="2"/>
     </row>
-    <row r="44" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -1753,7 +1758,7 @@
       <c r="X44" s="2"/>
       <c r="Y44" s="2"/>
     </row>
-    <row r="45" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -1780,7 +1785,7 @@
       <c r="X45" s="2"/>
       <c r="Y45" s="2"/>
     </row>
-    <row r="46" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -1807,7 +1812,7 @@
       <c r="X46" s="2"/>
       <c r="Y46" s="2"/>
     </row>
-    <row r="47" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -1834,7 +1839,7 @@
       <c r="X47" s="2"/>
       <c r="Y47" s="2"/>
     </row>
-    <row r="48" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -1861,7 +1866,7 @@
       <c r="X48" s="2"/>
       <c r="Y48" s="2"/>
     </row>
-    <row r="49" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -1888,7 +1893,7 @@
       <c r="X49" s="2"/>
       <c r="Y49" s="2"/>
     </row>
-    <row r="50" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -1915,7 +1920,7 @@
       <c r="X50" s="2"/>
       <c r="Y50" s="2"/>
     </row>
-    <row r="51" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -1942,7 +1947,7 @@
       <c r="X51" s="2"/>
       <c r="Y51" s="2"/>
     </row>
-    <row r="52" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -1969,7 +1974,7 @@
       <c r="X52" s="2"/>
       <c r="Y52" s="2"/>
     </row>
-    <row r="53" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -1996,7 +2001,7 @@
       <c r="X53" s="2"/>
       <c r="Y53" s="2"/>
     </row>
-    <row r="54" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -2023,7 +2028,7 @@
       <c r="X54" s="2"/>
       <c r="Y54" s="2"/>
     </row>
-    <row r="55" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -2050,7 +2055,7 @@
       <c r="X55" s="2"/>
       <c r="Y55" s="2"/>
     </row>
-    <row r="56" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -2077,7 +2082,7 @@
       <c r="X56" s="2"/>
       <c r="Y56" s="2"/>
     </row>
-    <row r="57" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -2104,7 +2109,7 @@
       <c r="X57" s="2"/>
       <c r="Y57" s="2"/>
     </row>
-    <row r="58" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -2131,7 +2136,7 @@
       <c r="X58" s="2"/>
       <c r="Y58" s="2"/>
     </row>
-    <row r="59" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -2158,7 +2163,7 @@
       <c r="X59" s="2"/>
       <c r="Y59" s="2"/>
     </row>
-    <row r="60" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -2185,7 +2190,7 @@
       <c r="X60" s="2"/>
       <c r="Y60" s="2"/>
     </row>
-    <row r="61" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -2212,7 +2217,7 @@
       <c r="X61" s="2"/>
       <c r="Y61" s="2"/>
     </row>
-    <row r="62" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -2239,7 +2244,7 @@
       <c r="X62" s="2"/>
       <c r="Y62" s="2"/>
     </row>
-    <row r="63" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -2266,7 +2271,7 @@
       <c r="X63" s="2"/>
       <c r="Y63" s="2"/>
     </row>
-    <row r="64" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -2293,7 +2298,7 @@
       <c r="X64" s="2"/>
       <c r="Y64" s="2"/>
     </row>
-    <row r="65" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -2320,7 +2325,7 @@
       <c r="X65" s="2"/>
       <c r="Y65" s="2"/>
     </row>
-    <row r="66" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -2347,7 +2352,7 @@
       <c r="X66" s="2"/>
       <c r="Y66" s="2"/>
     </row>
-    <row r="67" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -2374,7 +2379,7 @@
       <c r="X67" s="2"/>
       <c r="Y67" s="2"/>
     </row>
-    <row r="68" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -2401,7 +2406,7 @@
       <c r="X68" s="2"/>
       <c r="Y68" s="2"/>
     </row>
-    <row r="69" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -2428,7 +2433,7 @@
       <c r="X69" s="2"/>
       <c r="Y69" s="2"/>
     </row>
-    <row r="70" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -2455,7 +2460,7 @@
       <c r="X70" s="2"/>
       <c r="Y70" s="2"/>
     </row>
-    <row r="71" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -2482,7 +2487,7 @@
       <c r="X71" s="2"/>
       <c r="Y71" s="2"/>
     </row>
-    <row r="72" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -2509,7 +2514,7 @@
       <c r="X72" s="2"/>
       <c r="Y72" s="2"/>
     </row>
-    <row r="73" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -2536,7 +2541,7 @@
       <c r="X73" s="2"/>
       <c r="Y73" s="2"/>
     </row>
-    <row r="74" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -2563,7 +2568,7 @@
       <c r="X74" s="2"/>
       <c r="Y74" s="2"/>
     </row>
-    <row r="75" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -2590,7 +2595,7 @@
       <c r="X75" s="2"/>
       <c r="Y75" s="2"/>
     </row>
-    <row r="76" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -2617,7 +2622,7 @@
       <c r="X76" s="2"/>
       <c r="Y76" s="2"/>
     </row>
-    <row r="77" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -2644,7 +2649,7 @@
       <c r="X77" s="2"/>
       <c r="Y77" s="2"/>
     </row>
-    <row r="78" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -2671,7 +2676,7 @@
       <c r="X78" s="2"/>
       <c r="Y78" s="2"/>
     </row>
-    <row r="79" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -2698,7 +2703,7 @@
       <c r="X79" s="2"/>
       <c r="Y79" s="2"/>
     </row>
-    <row r="80" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -2725,7 +2730,7 @@
       <c r="X80" s="2"/>
       <c r="Y80" s="2"/>
     </row>
-    <row r="81" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -2752,7 +2757,7 @@
       <c r="X81" s="2"/>
       <c r="Y81" s="2"/>
     </row>
-    <row r="82" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -2779,7 +2784,7 @@
       <c r="X82" s="2"/>
       <c r="Y82" s="2"/>
     </row>
-    <row r="83" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -2806,7 +2811,7 @@
       <c r="X83" s="2"/>
       <c r="Y83" s="2"/>
     </row>
-    <row r="84" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -2833,7 +2838,7 @@
       <c r="X84" s="2"/>
       <c r="Y84" s="2"/>
     </row>
-    <row r="85" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -2860,7 +2865,7 @@
       <c r="X85" s="2"/>
       <c r="Y85" s="2"/>
     </row>
-    <row r="86" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -2887,7 +2892,7 @@
       <c r="X86" s="2"/>
       <c r="Y86" s="2"/>
     </row>
-    <row r="87" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -2914,7 +2919,7 @@
       <c r="X87" s="2"/>
       <c r="Y87" s="2"/>
     </row>
-    <row r="88" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -2941,7 +2946,7 @@
       <c r="X88" s="2"/>
       <c r="Y88" s="2"/>
     </row>
-    <row r="89" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -2968,7 +2973,7 @@
       <c r="X89" s="2"/>
       <c r="Y89" s="2"/>
     </row>
-    <row r="90" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -2995,7 +3000,7 @@
       <c r="X90" s="2"/>
       <c r="Y90" s="2"/>
     </row>
-    <row r="91" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -3022,7 +3027,7 @@
       <c r="X91" s="2"/>
       <c r="Y91" s="2"/>
     </row>
-    <row r="92" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -3049,7 +3054,7 @@
       <c r="X92" s="2"/>
       <c r="Y92" s="2"/>
     </row>
-    <row r="93" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -3076,7 +3081,7 @@
       <c r="X93" s="2"/>
       <c r="Y93" s="2"/>
     </row>
-    <row r="94" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -3103,7 +3108,7 @@
       <c r="X94" s="2"/>
       <c r="Y94" s="2"/>
     </row>
-    <row r="95" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -3130,7 +3135,7 @@
       <c r="X95" s="2"/>
       <c r="Y95" s="2"/>
     </row>
-    <row r="96" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -3157,7 +3162,7 @@
       <c r="X96" s="2"/>
       <c r="Y96" s="2"/>
     </row>
-    <row r="97" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -3184,7 +3189,7 @@
       <c r="X97" s="2"/>
       <c r="Y97" s="2"/>
     </row>
-    <row r="98" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -3211,7 +3216,7 @@
       <c r="X98" s="2"/>
       <c r="Y98" s="2"/>
     </row>
-    <row r="99" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -3238,7 +3243,7 @@
       <c r="X99" s="2"/>
       <c r="Y99" s="2"/>
     </row>
-    <row r="100" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -3265,7 +3270,7 @@
       <c r="X100" s="2"/>
       <c r="Y100" s="2"/>
     </row>
-    <row r="101" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -3292,7 +3297,7 @@
       <c r="X101" s="2"/>
       <c r="Y101" s="2"/>
     </row>
-    <row r="102" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -3319,7 +3324,7 @@
       <c r="X102" s="2"/>
       <c r="Y102" s="2"/>
     </row>
-    <row r="103" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -3346,7 +3351,7 @@
       <c r="X103" s="2"/>
       <c r="Y103" s="2"/>
     </row>
-    <row r="104" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -3373,7 +3378,7 @@
       <c r="X104" s="2"/>
       <c r="Y104" s="2"/>
     </row>
-    <row r="105" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -3400,7 +3405,7 @@
       <c r="X105" s="2"/>
       <c r="Y105" s="2"/>
     </row>
-    <row r="106" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -3427,7 +3432,7 @@
       <c r="X106" s="2"/>
       <c r="Y106" s="2"/>
     </row>
-    <row r="107" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -3454,7 +3459,7 @@
       <c r="X107" s="2"/>
       <c r="Y107" s="2"/>
     </row>
-    <row r="108" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -3481,7 +3486,7 @@
       <c r="X108" s="2"/>
       <c r="Y108" s="2"/>
     </row>
-    <row r="109" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -3508,7 +3513,7 @@
       <c r="X109" s="2"/>
       <c r="Y109" s="2"/>
     </row>
-    <row r="110" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -3535,7 +3540,7 @@
       <c r="X110" s="2"/>
       <c r="Y110" s="2"/>
     </row>
-    <row r="111" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -3562,7 +3567,7 @@
       <c r="X111" s="2"/>
       <c r="Y111" s="2"/>
     </row>
-    <row r="112" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -3589,7 +3594,7 @@
       <c r="X112" s="2"/>
       <c r="Y112" s="2"/>
     </row>
-    <row r="113" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -3616,7 +3621,7 @@
       <c r="X113" s="2"/>
       <c r="Y113" s="2"/>
     </row>
-    <row r="114" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -3643,7 +3648,7 @@
       <c r="X114" s="2"/>
       <c r="Y114" s="2"/>
     </row>
-    <row r="115" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -3670,7 +3675,7 @@
       <c r="X115" s="2"/>
       <c r="Y115" s="2"/>
     </row>
-    <row r="116" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -3697,7 +3702,7 @@
       <c r="X116" s="2"/>
       <c r="Y116" s="2"/>
     </row>
-    <row r="117" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
@@ -3724,7 +3729,7 @@
       <c r="X117" s="2"/>
       <c r="Y117" s="2"/>
     </row>
-    <row r="118" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -3751,7 +3756,7 @@
       <c r="X118" s="2"/>
       <c r="Y118" s="2"/>
     </row>
-    <row r="119" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -3778,7 +3783,7 @@
       <c r="X119" s="2"/>
       <c r="Y119" s="2"/>
     </row>
-    <row r="120" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -3805,7 +3810,7 @@
       <c r="X120" s="2"/>
       <c r="Y120" s="2"/>
     </row>
-    <row r="121" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -3832,7 +3837,7 @@
       <c r="X121" s="2"/>
       <c r="Y121" s="2"/>
     </row>
-    <row r="122" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -3859,7 +3864,7 @@
       <c r="X122" s="2"/>
       <c r="Y122" s="2"/>
     </row>
-    <row r="123" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -3886,7 +3891,7 @@
       <c r="X123" s="2"/>
       <c r="Y123" s="2"/>
     </row>
-    <row r="124" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -3913,7 +3918,7 @@
       <c r="X124" s="2"/>
       <c r="Y124" s="2"/>
     </row>
-    <row r="125" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -3940,7 +3945,7 @@
       <c r="X125" s="2"/>
       <c r="Y125" s="2"/>
     </row>
-    <row r="126" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -3967,7 +3972,7 @@
       <c r="X126" s="2"/>
       <c r="Y126" s="2"/>
     </row>
-    <row r="127" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -3994,7 +3999,7 @@
       <c r="X127" s="2"/>
       <c r="Y127" s="2"/>
     </row>
-    <row r="128" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -4021,7 +4026,7 @@
       <c r="X128" s="2"/>
       <c r="Y128" s="2"/>
     </row>
-    <row r="129" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -4048,7 +4053,7 @@
       <c r="X129" s="2"/>
       <c r="Y129" s="2"/>
     </row>
-    <row r="130" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -4075,7 +4080,7 @@
       <c r="X130" s="2"/>
       <c r="Y130" s="2"/>
     </row>
-    <row r="131" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
@@ -4102,7 +4107,7 @@
       <c r="X131" s="2"/>
       <c r="Y131" s="2"/>
     </row>
-    <row r="132" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
@@ -4129,7 +4134,7 @@
       <c r="X132" s="2"/>
       <c r="Y132" s="2"/>
     </row>
-    <row r="133" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
@@ -4156,7 +4161,7 @@
       <c r="X133" s="2"/>
       <c r="Y133" s="2"/>
     </row>
-    <row r="134" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
@@ -4183,7 +4188,7 @@
       <c r="X134" s="2"/>
       <c r="Y134" s="2"/>
     </row>
-    <row r="135" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
@@ -4210,7 +4215,7 @@
       <c r="X135" s="2"/>
       <c r="Y135" s="2"/>
     </row>
-    <row r="136" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
@@ -4237,7 +4242,7 @@
       <c r="X136" s="2"/>
       <c r="Y136" s="2"/>
     </row>
-    <row r="137" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
@@ -4264,7 +4269,7 @@
       <c r="X137" s="2"/>
       <c r="Y137" s="2"/>
     </row>
-    <row r="138" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
@@ -4291,7 +4296,7 @@
       <c r="X138" s="2"/>
       <c r="Y138" s="2"/>
     </row>
-    <row r="139" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
@@ -4318,7 +4323,7 @@
       <c r="X139" s="2"/>
       <c r="Y139" s="2"/>
     </row>
-    <row r="140" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
@@ -4345,7 +4350,7 @@
       <c r="X140" s="2"/>
       <c r="Y140" s="2"/>
     </row>
-    <row r="141" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
@@ -4372,7 +4377,7 @@
       <c r="X141" s="2"/>
       <c r="Y141" s="2"/>
     </row>
-    <row r="142" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
@@ -4399,7 +4404,7 @@
       <c r="X142" s="2"/>
       <c r="Y142" s="2"/>
     </row>
-    <row r="143" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
@@ -4426,7 +4431,7 @@
       <c r="X143" s="2"/>
       <c r="Y143" s="2"/>
     </row>
-    <row r="144" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
@@ -4453,7 +4458,7 @@
       <c r="X144" s="2"/>
       <c r="Y144" s="2"/>
     </row>
-    <row r="145" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
@@ -4480,7 +4485,7 @@
       <c r="X145" s="2"/>
       <c r="Y145" s="2"/>
     </row>
-    <row r="146" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
@@ -4507,7 +4512,7 @@
       <c r="X146" s="2"/>
       <c r="Y146" s="2"/>
     </row>
-    <row r="147" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
@@ -4534,7 +4539,7 @@
       <c r="X147" s="2"/>
       <c r="Y147" s="2"/>
     </row>
-    <row r="148" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
@@ -4561,7 +4566,7 @@
       <c r="X148" s="2"/>
       <c r="Y148" s="2"/>
     </row>
-    <row r="149" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
@@ -4588,7 +4593,7 @@
       <c r="X149" s="2"/>
       <c r="Y149" s="2"/>
     </row>
-    <row r="150" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
@@ -4615,7 +4620,7 @@
       <c r="X150" s="2"/>
       <c r="Y150" s="2"/>
     </row>
-    <row r="151" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
@@ -4642,7 +4647,7 @@
       <c r="X151" s="2"/>
       <c r="Y151" s="2"/>
     </row>
-    <row r="152" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
@@ -4669,7 +4674,7 @@
       <c r="X152" s="2"/>
       <c r="Y152" s="2"/>
     </row>
-    <row r="153" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
@@ -4696,7 +4701,7 @@
       <c r="X153" s="2"/>
       <c r="Y153" s="2"/>
     </row>
-    <row r="154" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
@@ -4723,7 +4728,7 @@
       <c r="X154" s="2"/>
       <c r="Y154" s="2"/>
     </row>
-    <row r="155" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
@@ -4750,7 +4755,7 @@
       <c r="X155" s="2"/>
       <c r="Y155" s="2"/>
     </row>
-    <row r="156" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
@@ -4777,7 +4782,7 @@
       <c r="X156" s="2"/>
       <c r="Y156" s="2"/>
     </row>
-    <row r="157" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A157" s="2"/>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
@@ -4804,7 +4809,7 @@
       <c r="X157" s="2"/>
       <c r="Y157" s="2"/>
     </row>
-    <row r="158" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
@@ -4831,7 +4836,7 @@
       <c r="X158" s="2"/>
       <c r="Y158" s="2"/>
     </row>
-    <row r="159" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
@@ -4858,7 +4863,7 @@
       <c r="X159" s="2"/>
       <c r="Y159" s="2"/>
     </row>
-    <row r="160" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A160" s="2"/>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
@@ -4885,7 +4890,7 @@
       <c r="X160" s="2"/>
       <c r="Y160" s="2"/>
     </row>
-    <row r="161" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A161" s="2"/>
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
@@ -4912,7 +4917,7 @@
       <c r="X161" s="2"/>
       <c r="Y161" s="2"/>
     </row>
-    <row r="162" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A162" s="2"/>
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
@@ -4939,7 +4944,7 @@
       <c r="X162" s="2"/>
       <c r="Y162" s="2"/>
     </row>
-    <row r="163" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A163" s="2"/>
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
@@ -4966,7 +4971,7 @@
       <c r="X163" s="2"/>
       <c r="Y163" s="2"/>
     </row>
-    <row r="164" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A164" s="2"/>
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
@@ -4993,7 +4998,7 @@
       <c r="X164" s="2"/>
       <c r="Y164" s="2"/>
     </row>
-    <row r="165" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A165" s="2"/>
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
@@ -5020,7 +5025,7 @@
       <c r="X165" s="2"/>
       <c r="Y165" s="2"/>
     </row>
-    <row r="166" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A166" s="2"/>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
@@ -5047,7 +5052,7 @@
       <c r="X166" s="2"/>
       <c r="Y166" s="2"/>
     </row>
-    <row r="167" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A167" s="2"/>
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
@@ -5074,7 +5079,7 @@
       <c r="X167" s="2"/>
       <c r="Y167" s="2"/>
     </row>
-    <row r="168" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A168" s="2"/>
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
@@ -5101,7 +5106,7 @@
       <c r="X168" s="2"/>
       <c r="Y168" s="2"/>
     </row>
-    <row r="169" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A169" s="2"/>
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
@@ -5128,7 +5133,7 @@
       <c r="X169" s="2"/>
       <c r="Y169" s="2"/>
     </row>
-    <row r="170" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A170" s="2"/>
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
@@ -5155,7 +5160,7 @@
       <c r="X170" s="2"/>
       <c r="Y170" s="2"/>
     </row>
-    <row r="171" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A171" s="2"/>
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
@@ -5182,7 +5187,7 @@
       <c r="X171" s="2"/>
       <c r="Y171" s="2"/>
     </row>
-    <row r="172" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A172" s="2"/>
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
@@ -5209,7 +5214,7 @@
       <c r="X172" s="2"/>
       <c r="Y172" s="2"/>
     </row>
-    <row r="173" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A173" s="2"/>
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
@@ -5236,7 +5241,7 @@
       <c r="X173" s="2"/>
       <c r="Y173" s="2"/>
     </row>
-    <row r="174" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A174" s="2"/>
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
@@ -5263,7 +5268,7 @@
       <c r="X174" s="2"/>
       <c r="Y174" s="2"/>
     </row>
-    <row r="175" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A175" s="2"/>
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
@@ -5290,7 +5295,7 @@
       <c r="X175" s="2"/>
       <c r="Y175" s="2"/>
     </row>
-    <row r="176" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A176" s="2"/>
       <c r="B176" s="2"/>
       <c r="C176" s="2"/>
@@ -5317,7 +5322,7 @@
       <c r="X176" s="2"/>
       <c r="Y176" s="2"/>
     </row>
-    <row r="177" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A177" s="2"/>
       <c r="B177" s="2"/>
       <c r="C177" s="2"/>
@@ -5344,7 +5349,7 @@
       <c r="X177" s="2"/>
       <c r="Y177" s="2"/>
     </row>
-    <row r="178" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A178" s="2"/>
       <c r="B178" s="2"/>
       <c r="C178" s="2"/>
@@ -5371,7 +5376,7 @@
       <c r="X178" s="2"/>
       <c r="Y178" s="2"/>
     </row>
-    <row r="179" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A179" s="2"/>
       <c r="B179" s="2"/>
       <c r="C179" s="2"/>
@@ -5398,7 +5403,7 @@
       <c r="X179" s="2"/>
       <c r="Y179" s="2"/>
     </row>
-    <row r="180" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A180" s="2"/>
       <c r="B180" s="2"/>
       <c r="C180" s="2"/>
@@ -5425,7 +5430,7 @@
       <c r="X180" s="2"/>
       <c r="Y180" s="2"/>
     </row>
-    <row r="181" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A181" s="2"/>
       <c r="B181" s="2"/>
       <c r="C181" s="2"/>
@@ -5452,7 +5457,7 @@
       <c r="X181" s="2"/>
       <c r="Y181" s="2"/>
     </row>
-    <row r="182" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A182" s="2"/>
       <c r="B182" s="2"/>
       <c r="C182" s="2"/>
@@ -5479,7 +5484,7 @@
       <c r="X182" s="2"/>
       <c r="Y182" s="2"/>
     </row>
-    <row r="183" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A183" s="2"/>
       <c r="B183" s="2"/>
       <c r="C183" s="2"/>
@@ -5506,7 +5511,7 @@
       <c r="X183" s="2"/>
       <c r="Y183" s="2"/>
     </row>
-    <row r="184" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A184" s="2"/>
       <c r="B184" s="2"/>
       <c r="C184" s="2"/>
@@ -5533,7 +5538,7 @@
       <c r="X184" s="2"/>
       <c r="Y184" s="2"/>
     </row>
-    <row r="185" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A185" s="2"/>
       <c r="B185" s="2"/>
       <c r="C185" s="2"/>
@@ -5560,7 +5565,7 @@
       <c r="X185" s="2"/>
       <c r="Y185" s="2"/>
     </row>
-    <row r="186" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A186" s="2"/>
       <c r="B186" s="2"/>
       <c r="C186" s="2"/>
@@ -5587,7 +5592,7 @@
       <c r="X186" s="2"/>
       <c r="Y186" s="2"/>
     </row>
-    <row r="187" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A187" s="2"/>
       <c r="B187" s="2"/>
       <c r="C187" s="2"/>
@@ -5614,7 +5619,7 @@
       <c r="X187" s="2"/>
       <c r="Y187" s="2"/>
     </row>
-    <row r="188" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A188" s="2"/>
       <c r="B188" s="2"/>
       <c r="C188" s="2"/>
@@ -5641,7 +5646,7 @@
       <c r="X188" s="2"/>
       <c r="Y188" s="2"/>
     </row>
-    <row r="189" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A189" s="2"/>
       <c r="B189" s="2"/>
       <c r="C189" s="2"/>
@@ -5668,7 +5673,7 @@
       <c r="X189" s="2"/>
       <c r="Y189" s="2"/>
     </row>
-    <row r="190" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A190" s="2"/>
       <c r="B190" s="2"/>
       <c r="C190" s="2"/>
@@ -5695,7 +5700,7 @@
       <c r="X190" s="2"/>
       <c r="Y190" s="2"/>
     </row>
-    <row r="191" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A191" s="2"/>
       <c r="B191" s="2"/>
       <c r="C191" s="2"/>
@@ -5722,7 +5727,7 @@
       <c r="X191" s="2"/>
       <c r="Y191" s="2"/>
     </row>
-    <row r="192" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A192" s="2"/>
       <c r="B192" s="2"/>
       <c r="C192" s="2"/>
@@ -5749,7 +5754,7 @@
       <c r="X192" s="2"/>
       <c r="Y192" s="2"/>
     </row>
-    <row r="193" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A193" s="2"/>
       <c r="B193" s="2"/>
       <c r="C193" s="2"/>
@@ -5776,7 +5781,7 @@
       <c r="X193" s="2"/>
       <c r="Y193" s="2"/>
     </row>
-    <row r="194" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A194" s="2"/>
       <c r="B194" s="2"/>
       <c r="C194" s="2"/>
@@ -5803,7 +5808,7 @@
       <c r="X194" s="2"/>
       <c r="Y194" s="2"/>
     </row>
-    <row r="195" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A195" s="2"/>
       <c r="B195" s="2"/>
       <c r="C195" s="2"/>
@@ -5830,7 +5835,7 @@
       <c r="X195" s="2"/>
       <c r="Y195" s="2"/>
     </row>
-    <row r="196" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A196" s="2"/>
       <c r="B196" s="2"/>
       <c r="C196" s="2"/>
@@ -5857,7 +5862,7 @@
       <c r="X196" s="2"/>
       <c r="Y196" s="2"/>
     </row>
-    <row r="197" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A197" s="2"/>
       <c r="B197" s="2"/>
       <c r="C197" s="2"/>
@@ -5884,7 +5889,7 @@
       <c r="X197" s="2"/>
       <c r="Y197" s="2"/>
     </row>
-    <row r="198" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A198" s="2"/>
       <c r="B198" s="2"/>
       <c r="C198" s="2"/>
@@ -5911,7 +5916,7 @@
       <c r="X198" s="2"/>
       <c r="Y198" s="2"/>
     </row>
-    <row r="199" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A199" s="2"/>
       <c r="B199" s="2"/>
       <c r="C199" s="2"/>
@@ -5938,7 +5943,7 @@
       <c r="X199" s="2"/>
       <c r="Y199" s="2"/>
     </row>
-    <row r="200" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A200" s="2"/>
       <c r="B200" s="2"/>
       <c r="C200" s="2"/>
@@ -5965,7 +5970,7 @@
       <c r="X200" s="2"/>
       <c r="Y200" s="2"/>
     </row>
-    <row r="201" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A201" s="2"/>
       <c r="B201" s="2"/>
       <c r="C201" s="2"/>
@@ -5992,7 +5997,7 @@
       <c r="X201" s="2"/>
       <c r="Y201" s="2"/>
     </row>
-    <row r="202" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A202" s="2"/>
       <c r="B202" s="2"/>
       <c r="C202" s="2"/>
@@ -6019,7 +6024,7 @@
       <c r="X202" s="2"/>
       <c r="Y202" s="2"/>
     </row>
-    <row r="203" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A203" s="2"/>
       <c r="B203" s="2"/>
       <c r="C203" s="2"/>
@@ -6046,7 +6051,7 @@
       <c r="X203" s="2"/>
       <c r="Y203" s="2"/>
     </row>
-    <row r="204" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A204" s="2"/>
       <c r="B204" s="2"/>
       <c r="C204" s="2"/>
@@ -6073,7 +6078,7 @@
       <c r="X204" s="2"/>
       <c r="Y204" s="2"/>
     </row>
-    <row r="205" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A205" s="2"/>
       <c r="B205" s="2"/>
       <c r="C205" s="2"/>
@@ -6100,7 +6105,7 @@
       <c r="X205" s="2"/>
       <c r="Y205" s="2"/>
     </row>
-    <row r="206" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A206" s="2"/>
       <c r="B206" s="2"/>
       <c r="C206" s="2"/>
@@ -6127,7 +6132,7 @@
       <c r="X206" s="2"/>
       <c r="Y206" s="2"/>
     </row>
-    <row r="207" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A207" s="2"/>
       <c r="B207" s="2"/>
       <c r="C207" s="2"/>
@@ -6154,7 +6159,7 @@
       <c r="X207" s="2"/>
       <c r="Y207" s="2"/>
     </row>
-    <row r="208" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A208" s="2"/>
       <c r="B208" s="2"/>
       <c r="C208" s="2"/>
@@ -6181,7 +6186,7 @@
       <c r="X208" s="2"/>
       <c r="Y208" s="2"/>
     </row>
-    <row r="209" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A209" s="2"/>
       <c r="B209" s="2"/>
       <c r="C209" s="2"/>
@@ -6208,7 +6213,7 @@
       <c r="X209" s="2"/>
       <c r="Y209" s="2"/>
     </row>
-    <row r="210" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A210" s="2"/>
       <c r="B210" s="2"/>
       <c r="C210" s="2"/>
@@ -6235,7 +6240,7 @@
       <c r="X210" s="2"/>
       <c r="Y210" s="2"/>
     </row>
-    <row r="211" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A211" s="2"/>
       <c r="B211" s="2"/>
       <c r="C211" s="2"/>
@@ -6262,7 +6267,7 @@
       <c r="X211" s="2"/>
       <c r="Y211" s="2"/>
     </row>
-    <row r="212" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A212" s="2"/>
       <c r="B212" s="2"/>
       <c r="C212" s="2"/>
@@ -6289,7 +6294,7 @@
       <c r="X212" s="2"/>
       <c r="Y212" s="2"/>
     </row>
-    <row r="213" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A213" s="2"/>
       <c r="B213" s="2"/>
       <c r="C213" s="2"/>
@@ -6316,7 +6321,7 @@
       <c r="X213" s="2"/>
       <c r="Y213" s="2"/>
     </row>
-    <row r="214" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A214" s="2"/>
       <c r="B214" s="2"/>
       <c r="C214" s="2"/>
@@ -6343,7 +6348,7 @@
       <c r="X214" s="2"/>
       <c r="Y214" s="2"/>
     </row>
-    <row r="215" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A215" s="2"/>
       <c r="B215" s="2"/>
       <c r="C215" s="2"/>
@@ -6370,7 +6375,7 @@
       <c r="X215" s="2"/>
       <c r="Y215" s="2"/>
     </row>
-    <row r="216" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A216" s="2"/>
       <c r="B216" s="2"/>
       <c r="C216" s="2"/>
@@ -6397,7 +6402,7 @@
       <c r="X216" s="2"/>
       <c r="Y216" s="2"/>
     </row>
-    <row r="217" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A217" s="2"/>
       <c r="B217" s="2"/>
       <c r="C217" s="2"/>
@@ -6424,7 +6429,7 @@
       <c r="X217" s="2"/>
       <c r="Y217" s="2"/>
     </row>
-    <row r="218" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A218" s="2"/>
       <c r="B218" s="2"/>
       <c r="C218" s="2"/>
@@ -6451,7 +6456,7 @@
       <c r="X218" s="2"/>
       <c r="Y218" s="2"/>
     </row>
-    <row r="219" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A219" s="2"/>
       <c r="B219" s="2"/>
       <c r="C219" s="2"/>
@@ -6478,7 +6483,7 @@
       <c r="X219" s="2"/>
       <c r="Y219" s="2"/>
     </row>
-    <row r="220" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A220" s="2"/>
       <c r="B220" s="2"/>
       <c r="C220" s="2"/>
@@ -6505,7 +6510,7 @@
       <c r="X220" s="2"/>
       <c r="Y220" s="2"/>
     </row>
-    <row r="221" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A221" s="2"/>
       <c r="B221" s="2"/>
       <c r="C221" s="2"/>
@@ -6532,7 +6537,7 @@
       <c r="X221" s="2"/>
       <c r="Y221" s="2"/>
     </row>
-    <row r="222" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A222" s="2"/>
       <c r="B222" s="2"/>
       <c r="C222" s="2"/>
@@ -6559,7 +6564,7 @@
       <c r="X222" s="2"/>
       <c r="Y222" s="2"/>
     </row>
-    <row r="223" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A223" s="2"/>
       <c r="B223" s="2"/>
       <c r="C223" s="2"/>
@@ -6586,7 +6591,7 @@
       <c r="X223" s="2"/>
       <c r="Y223" s="2"/>
     </row>
-    <row r="224" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A224" s="2"/>
       <c r="B224" s="2"/>
       <c r="C224" s="2"/>
@@ -6613,7 +6618,7 @@
       <c r="X224" s="2"/>
       <c r="Y224" s="2"/>
     </row>
-    <row r="225" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A225" s="2"/>
       <c r="B225" s="2"/>
       <c r="C225" s="2"/>
@@ -6640,7 +6645,7 @@
       <c r="X225" s="2"/>
       <c r="Y225" s="2"/>
     </row>
-    <row r="226" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A226" s="2"/>
       <c r="B226" s="2"/>
       <c r="C226" s="2"/>
@@ -6667,7 +6672,7 @@
       <c r="X226" s="2"/>
       <c r="Y226" s="2"/>
     </row>
-    <row r="227" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A227" s="2"/>
       <c r="B227" s="2"/>
       <c r="C227" s="2"/>
@@ -6694,7 +6699,7 @@
       <c r="X227" s="2"/>
       <c r="Y227" s="2"/>
     </row>
-    <row r="228" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A228" s="2"/>
       <c r="B228" s="2"/>
       <c r="C228" s="2"/>
@@ -6721,7 +6726,7 @@
       <c r="X228" s="2"/>
       <c r="Y228" s="2"/>
     </row>
-    <row r="229" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A229" s="2"/>
       <c r="B229" s="2"/>
       <c r="C229" s="2"/>
@@ -6748,7 +6753,7 @@
       <c r="X229" s="2"/>
       <c r="Y229" s="2"/>
     </row>
-    <row r="230" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A230" s="2"/>
       <c r="B230" s="2"/>
       <c r="C230" s="2"/>
@@ -6775,7 +6780,7 @@
       <c r="X230" s="2"/>
       <c r="Y230" s="2"/>
     </row>
-    <row r="231" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A231" s="2"/>
       <c r="B231" s="2"/>
       <c r="C231" s="2"/>
@@ -6802,7 +6807,7 @@
       <c r="X231" s="2"/>
       <c r="Y231" s="2"/>
     </row>
-    <row r="232" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A232" s="2"/>
       <c r="B232" s="2"/>
       <c r="C232" s="2"/>
@@ -6829,7 +6834,7 @@
       <c r="X232" s="2"/>
       <c r="Y232" s="2"/>
     </row>
-    <row r="233" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A233" s="2"/>
       <c r="B233" s="2"/>
       <c r="C233" s="2"/>
@@ -6856,7 +6861,7 @@
       <c r="X233" s="2"/>
       <c r="Y233" s="2"/>
     </row>
-    <row r="234" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A234" s="2"/>
       <c r="B234" s="2"/>
       <c r="C234" s="2"/>
@@ -6883,7 +6888,7 @@
       <c r="X234" s="2"/>
       <c r="Y234" s="2"/>
     </row>
-    <row r="235" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A235" s="2"/>
       <c r="B235" s="2"/>
       <c r="C235" s="2"/>
@@ -6910,7 +6915,7 @@
       <c r="X235" s="2"/>
       <c r="Y235" s="2"/>
     </row>
-    <row r="236" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A236" s="2"/>
       <c r="B236" s="2"/>
       <c r="C236" s="2"/>
@@ -6937,7 +6942,7 @@
       <c r="X236" s="2"/>
       <c r="Y236" s="2"/>
     </row>
-    <row r="237" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A237" s="2"/>
       <c r="B237" s="2"/>
       <c r="C237" s="2"/>
@@ -6964,7 +6969,7 @@
       <c r="X237" s="2"/>
       <c r="Y237" s="2"/>
     </row>
-    <row r="238" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A238" s="2"/>
       <c r="B238" s="2"/>
       <c r="C238" s="2"/>
@@ -6991,7 +6996,7 @@
       <c r="X238" s="2"/>
       <c r="Y238" s="2"/>
     </row>
-    <row r="239" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A239" s="2"/>
       <c r="B239" s="2"/>
       <c r="C239" s="2"/>
@@ -7018,7 +7023,7 @@
       <c r="X239" s="2"/>
       <c r="Y239" s="2"/>
     </row>
-    <row r="240" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A240" s="2"/>
       <c r="B240" s="2"/>
       <c r="C240" s="2"/>
@@ -7045,7 +7050,7 @@
       <c r="X240" s="2"/>
       <c r="Y240" s="2"/>
     </row>
-    <row r="241" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A241" s="2"/>
       <c r="B241" s="2"/>
       <c r="C241" s="2"/>
@@ -7072,7 +7077,7 @@
       <c r="X241" s="2"/>
       <c r="Y241" s="2"/>
     </row>
-    <row r="242" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A242" s="2"/>
       <c r="B242" s="2"/>
       <c r="C242" s="2"/>
@@ -7099,7 +7104,7 @@
       <c r="X242" s="2"/>
       <c r="Y242" s="2"/>
     </row>
-    <row r="243" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A243" s="2"/>
       <c r="B243" s="2"/>
       <c r="C243" s="2"/>
@@ -7126,7 +7131,7 @@
       <c r="X243" s="2"/>
       <c r="Y243" s="2"/>
     </row>
-    <row r="244" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A244" s="2"/>
       <c r="B244" s="2"/>
       <c r="C244" s="2"/>
@@ -7153,7 +7158,7 @@
       <c r="X244" s="2"/>
       <c r="Y244" s="2"/>
     </row>
-    <row r="245" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A245" s="2"/>
       <c r="B245" s="2"/>
       <c r="C245" s="2"/>
@@ -7180,7 +7185,7 @@
       <c r="X245" s="2"/>
       <c r="Y245" s="2"/>
     </row>
-    <row r="246" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A246" s="2"/>
       <c r="B246" s="2"/>
       <c r="C246" s="2"/>
@@ -7207,7 +7212,7 @@
       <c r="X246" s="2"/>
       <c r="Y246" s="2"/>
     </row>
-    <row r="247" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A247" s="2"/>
       <c r="B247" s="2"/>
       <c r="C247" s="2"/>
@@ -7234,7 +7239,7 @@
       <c r="X247" s="2"/>
       <c r="Y247" s="2"/>
     </row>
-    <row r="248" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A248" s="2"/>
       <c r="B248" s="2"/>
       <c r="C248" s="2"/>
@@ -7261,7 +7266,7 @@
       <c r="X248" s="2"/>
       <c r="Y248" s="2"/>
     </row>
-    <row r="249" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A249" s="2"/>
       <c r="B249" s="2"/>
       <c r="C249" s="2"/>
@@ -7288,7 +7293,7 @@
       <c r="X249" s="2"/>
       <c r="Y249" s="2"/>
     </row>
-    <row r="250" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A250" s="2"/>
       <c r="B250" s="2"/>
       <c r="C250" s="2"/>
@@ -7315,7 +7320,7 @@
       <c r="X250" s="2"/>
       <c r="Y250" s="2"/>
     </row>
-    <row r="251" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A251" s="2"/>
       <c r="B251" s="2"/>
       <c r="C251" s="2"/>
@@ -7342,7 +7347,7 @@
       <c r="X251" s="2"/>
       <c r="Y251" s="2"/>
     </row>
-    <row r="252" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A252" s="2"/>
       <c r="B252" s="2"/>
       <c r="C252" s="2"/>
@@ -7369,7 +7374,7 @@
       <c r="X252" s="2"/>
       <c r="Y252" s="2"/>
     </row>
-    <row r="253" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A253" s="2"/>
       <c r="B253" s="2"/>
       <c r="C253" s="2"/>
@@ -7396,7 +7401,7 @@
       <c r="X253" s="2"/>
       <c r="Y253" s="2"/>
     </row>
-    <row r="254" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A254" s="2"/>
       <c r="B254" s="2"/>
       <c r="C254" s="2"/>
@@ -7423,7 +7428,7 @@
       <c r="X254" s="2"/>
       <c r="Y254" s="2"/>
     </row>
-    <row r="255" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A255" s="2"/>
       <c r="B255" s="2"/>
       <c r="C255" s="2"/>
@@ -7450,7 +7455,7 @@
       <c r="X255" s="2"/>
       <c r="Y255" s="2"/>
     </row>
-    <row r="256" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A256" s="2"/>
       <c r="B256" s="2"/>
       <c r="C256" s="2"/>
@@ -7477,7 +7482,7 @@
       <c r="X256" s="2"/>
       <c r="Y256" s="2"/>
     </row>
-    <row r="257" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A257" s="2"/>
       <c r="B257" s="2"/>
       <c r="C257" s="2"/>
@@ -7504,7 +7509,7 @@
       <c r="X257" s="2"/>
       <c r="Y257" s="2"/>
     </row>
-    <row r="258" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A258" s="2"/>
       <c r="B258" s="2"/>
       <c r="C258" s="2"/>
@@ -7531,7 +7536,7 @@
       <c r="X258" s="2"/>
       <c r="Y258" s="2"/>
     </row>
-    <row r="259" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A259" s="2"/>
       <c r="B259" s="2"/>
       <c r="C259" s="2"/>
@@ -7558,7 +7563,7 @@
       <c r="X259" s="2"/>
       <c r="Y259" s="2"/>
     </row>
-    <row r="260" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A260" s="2"/>
       <c r="B260" s="2"/>
       <c r="C260" s="2"/>
@@ -7585,7 +7590,7 @@
       <c r="X260" s="2"/>
       <c r="Y260" s="2"/>
     </row>
-    <row r="261" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A261" s="2"/>
       <c r="B261" s="2"/>
       <c r="C261" s="2"/>
@@ -7612,7 +7617,7 @@
       <c r="X261" s="2"/>
       <c r="Y261" s="2"/>
     </row>
-    <row r="262" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A262" s="2"/>
       <c r="B262" s="2"/>
       <c r="C262" s="2"/>
@@ -7639,7 +7644,7 @@
       <c r="X262" s="2"/>
       <c r="Y262" s="2"/>
     </row>
-    <row r="263" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A263" s="2"/>
       <c r="B263" s="2"/>
       <c r="C263" s="2"/>
@@ -7666,7 +7671,7 @@
       <c r="X263" s="2"/>
       <c r="Y263" s="2"/>
     </row>
-    <row r="264" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A264" s="2"/>
       <c r="B264" s="2"/>
       <c r="C264" s="2"/>
@@ -7693,7 +7698,7 @@
       <c r="X264" s="2"/>
       <c r="Y264" s="2"/>
     </row>
-    <row r="265" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A265" s="2"/>
       <c r="B265" s="2"/>
       <c r="C265" s="2"/>
@@ -7720,7 +7725,7 @@
       <c r="X265" s="2"/>
       <c r="Y265" s="2"/>
     </row>
-    <row r="266" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A266" s="2"/>
       <c r="B266" s="2"/>
       <c r="C266" s="2"/>
@@ -7747,7 +7752,7 @@
       <c r="X266" s="2"/>
       <c r="Y266" s="2"/>
     </row>
-    <row r="267" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A267" s="2"/>
       <c r="B267" s="2"/>
       <c r="C267" s="2"/>
@@ -7774,7 +7779,7 @@
       <c r="X267" s="2"/>
       <c r="Y267" s="2"/>
     </row>
-    <row r="268" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A268" s="2"/>
       <c r="B268" s="2"/>
       <c r="C268" s="2"/>
@@ -7801,7 +7806,7 @@
       <c r="X268" s="2"/>
       <c r="Y268" s="2"/>
     </row>
-    <row r="269" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A269" s="2"/>
       <c r="B269" s="2"/>
       <c r="C269" s="2"/>
@@ -7828,7 +7833,7 @@
       <c r="X269" s="2"/>
       <c r="Y269" s="2"/>
     </row>
-    <row r="270" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A270" s="2"/>
       <c r="B270" s="2"/>
       <c r="C270" s="2"/>
@@ -7855,7 +7860,7 @@
       <c r="X270" s="2"/>
       <c r="Y270" s="2"/>
     </row>
-    <row r="271" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A271" s="2"/>
       <c r="B271" s="2"/>
       <c r="C271" s="2"/>
@@ -7882,7 +7887,7 @@
       <c r="X271" s="2"/>
       <c r="Y271" s="2"/>
     </row>
-    <row r="272" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A272" s="2"/>
       <c r="B272" s="2"/>
       <c r="C272" s="2"/>
@@ -7909,7 +7914,7 @@
       <c r="X272" s="2"/>
       <c r="Y272" s="2"/>
     </row>
-    <row r="273" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A273" s="2"/>
       <c r="B273" s="2"/>
       <c r="C273" s="2"/>
@@ -7936,7 +7941,7 @@
       <c r="X273" s="2"/>
       <c r="Y273" s="2"/>
     </row>
-    <row r="274" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A274" s="2"/>
       <c r="B274" s="2"/>
       <c r="C274" s="2"/>
@@ -7963,7 +7968,7 @@
       <c r="X274" s="2"/>
       <c r="Y274" s="2"/>
     </row>
-    <row r="275" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A275" s="2"/>
       <c r="B275" s="2"/>
       <c r="C275" s="2"/>
@@ -7990,7 +7995,7 @@
       <c r="X275" s="2"/>
       <c r="Y275" s="2"/>
     </row>
-    <row r="276" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A276" s="2"/>
       <c r="B276" s="2"/>
       <c r="C276" s="2"/>
@@ -8017,7 +8022,7 @@
       <c r="X276" s="2"/>
       <c r="Y276" s="2"/>
     </row>
-    <row r="277" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A277" s="2"/>
       <c r="B277" s="2"/>
       <c r="C277" s="2"/>
@@ -8044,7 +8049,7 @@
       <c r="X277" s="2"/>
       <c r="Y277" s="2"/>
     </row>
-    <row r="278" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A278" s="2"/>
       <c r="B278" s="2"/>
       <c r="C278" s="2"/>
@@ -8071,7 +8076,7 @@
       <c r="X278" s="2"/>
       <c r="Y278" s="2"/>
     </row>
-    <row r="279" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A279" s="2"/>
       <c r="B279" s="2"/>
       <c r="C279" s="2"/>
@@ -8098,7 +8103,7 @@
       <c r="X279" s="2"/>
       <c r="Y279" s="2"/>
     </row>
-    <row r="280" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A280" s="2"/>
       <c r="B280" s="2"/>
       <c r="C280" s="2"/>
@@ -8125,7 +8130,7 @@
       <c r="X280" s="2"/>
       <c r="Y280" s="2"/>
     </row>
-    <row r="281" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A281" s="2"/>
       <c r="B281" s="2"/>
       <c r="C281" s="2"/>
@@ -8152,7 +8157,7 @@
       <c r="X281" s="2"/>
       <c r="Y281" s="2"/>
     </row>
-    <row r="282" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A282" s="2"/>
       <c r="B282" s="2"/>
       <c r="C282" s="2"/>
@@ -8179,7 +8184,7 @@
       <c r="X282" s="2"/>
       <c r="Y282" s="2"/>
     </row>
-    <row r="283" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A283" s="2"/>
       <c r="B283" s="2"/>
       <c r="C283" s="2"/>
@@ -8206,7 +8211,7 @@
       <c r="X283" s="2"/>
       <c r="Y283" s="2"/>
     </row>
-    <row r="284" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A284" s="2"/>
       <c r="B284" s="2"/>
       <c r="C284" s="2"/>
@@ -8233,7 +8238,7 @@
       <c r="X284" s="2"/>
       <c r="Y284" s="2"/>
     </row>
-    <row r="285" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A285" s="2"/>
       <c r="B285" s="2"/>
       <c r="C285" s="2"/>
@@ -8260,7 +8265,7 @@
       <c r="X285" s="2"/>
       <c r="Y285" s="2"/>
     </row>
-    <row r="286" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A286" s="2"/>
       <c r="B286" s="2"/>
       <c r="C286" s="2"/>
@@ -8287,7 +8292,7 @@
       <c r="X286" s="2"/>
       <c r="Y286" s="2"/>
     </row>
-    <row r="287" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A287" s="2"/>
       <c r="B287" s="2"/>
       <c r="C287" s="2"/>
@@ -8314,7 +8319,7 @@
       <c r="X287" s="2"/>
       <c r="Y287" s="2"/>
     </row>
-    <row r="288" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A288" s="2"/>
       <c r="B288" s="2"/>
       <c r="C288" s="2"/>
@@ -8341,7 +8346,7 @@
       <c r="X288" s="2"/>
       <c r="Y288" s="2"/>
     </row>
-    <row r="289" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A289" s="2"/>
       <c r="B289" s="2"/>
       <c r="C289" s="2"/>
@@ -8368,7 +8373,7 @@
       <c r="X289" s="2"/>
       <c r="Y289" s="2"/>
     </row>
-    <row r="290" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A290" s="2"/>
       <c r="B290" s="2"/>
       <c r="C290" s="2"/>
@@ -8395,7 +8400,7 @@
       <c r="X290" s="2"/>
       <c r="Y290" s="2"/>
     </row>
-    <row r="291" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A291" s="2"/>
       <c r="B291" s="2"/>
       <c r="C291" s="2"/>
@@ -8422,7 +8427,7 @@
       <c r="X291" s="2"/>
       <c r="Y291" s="2"/>
     </row>
-    <row r="292" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A292" s="2"/>
       <c r="B292" s="2"/>
       <c r="C292" s="2"/>
@@ -8449,7 +8454,7 @@
       <c r="X292" s="2"/>
       <c r="Y292" s="2"/>
     </row>
-    <row r="293" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A293" s="2"/>
       <c r="B293" s="2"/>
       <c r="C293" s="2"/>
@@ -8476,7 +8481,7 @@
       <c r="X293" s="2"/>
       <c r="Y293" s="2"/>
     </row>
-    <row r="294" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A294" s="2"/>
       <c r="B294" s="2"/>
       <c r="C294" s="2"/>
@@ -8503,7 +8508,7 @@
       <c r="X294" s="2"/>
       <c r="Y294" s="2"/>
     </row>
-    <row r="295" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A295" s="2"/>
       <c r="B295" s="2"/>
       <c r="C295" s="2"/>
@@ -8530,7 +8535,7 @@
       <c r="X295" s="2"/>
       <c r="Y295" s="2"/>
     </row>
-    <row r="296" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A296" s="2"/>
       <c r="B296" s="2"/>
       <c r="C296" s="2"/>
@@ -8557,7 +8562,7 @@
       <c r="X296" s="2"/>
       <c r="Y296" s="2"/>
     </row>
-    <row r="297" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A297" s="2"/>
       <c r="B297" s="2"/>
       <c r="C297" s="2"/>
@@ -8584,7 +8589,7 @@
       <c r="X297" s="2"/>
       <c r="Y297" s="2"/>
     </row>
-    <row r="298" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A298" s="2"/>
       <c r="B298" s="2"/>
       <c r="C298" s="2"/>
@@ -8611,7 +8616,7 @@
       <c r="X298" s="2"/>
       <c r="Y298" s="2"/>
     </row>
-    <row r="299" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A299" s="2"/>
       <c r="B299" s="2"/>
       <c r="C299" s="2"/>
@@ -8638,7 +8643,7 @@
       <c r="X299" s="2"/>
       <c r="Y299" s="2"/>
     </row>
-    <row r="300" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A300" s="2"/>
       <c r="B300" s="2"/>
       <c r="C300" s="2"/>
@@ -8665,7 +8670,7 @@
       <c r="X300" s="2"/>
       <c r="Y300" s="2"/>
     </row>
-    <row r="301" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A301" s="2"/>
       <c r="B301" s="2"/>
       <c r="C301" s="2"/>
@@ -8692,7 +8697,7 @@
       <c r="X301" s="2"/>
       <c r="Y301" s="2"/>
     </row>
-    <row r="302" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A302" s="2"/>
       <c r="B302" s="2"/>
       <c r="C302" s="2"/>
@@ -8719,7 +8724,7 @@
       <c r="X302" s="2"/>
       <c r="Y302" s="2"/>
     </row>
-    <row r="303" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A303" s="2"/>
       <c r="B303" s="2"/>
       <c r="C303" s="2"/>
@@ -8746,7 +8751,7 @@
       <c r="X303" s="2"/>
       <c r="Y303" s="2"/>
     </row>
-    <row r="304" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A304" s="2"/>
       <c r="B304" s="2"/>
       <c r="C304" s="2"/>
@@ -8773,7 +8778,7 @@
       <c r="X304" s="2"/>
       <c r="Y304" s="2"/>
     </row>
-    <row r="305" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A305" s="2"/>
       <c r="B305" s="2"/>
       <c r="C305" s="2"/>
@@ -8800,7 +8805,7 @@
       <c r="X305" s="2"/>
       <c r="Y305" s="2"/>
     </row>
-    <row r="306" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A306" s="2"/>
       <c r="B306" s="2"/>
       <c r="C306" s="2"/>
@@ -8827,7 +8832,7 @@
       <c r="X306" s="2"/>
       <c r="Y306" s="2"/>
     </row>
-    <row r="307" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A307" s="2"/>
       <c r="B307" s="2"/>
       <c r="C307" s="2"/>
@@ -8854,7 +8859,7 @@
       <c r="X307" s="2"/>
       <c r="Y307" s="2"/>
     </row>
-    <row r="308" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A308" s="2"/>
       <c r="B308" s="2"/>
       <c r="C308" s="2"/>
@@ -8881,7 +8886,7 @@
       <c r="X308" s="2"/>
       <c r="Y308" s="2"/>
     </row>
-    <row r="309" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A309" s="2"/>
       <c r="B309" s="2"/>
       <c r="C309" s="2"/>
@@ -8908,7 +8913,7 @@
       <c r="X309" s="2"/>
       <c r="Y309" s="2"/>
     </row>
-    <row r="310" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A310" s="2"/>
       <c r="B310" s="2"/>
       <c r="C310" s="2"/>
@@ -8935,7 +8940,7 @@
       <c r="X310" s="2"/>
       <c r="Y310" s="2"/>
     </row>
-    <row r="311" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A311" s="2"/>
       <c r="B311" s="2"/>
       <c r="C311" s="2"/>
@@ -8962,7 +8967,7 @@
       <c r="X311" s="2"/>
       <c r="Y311" s="2"/>
     </row>
-    <row r="312" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A312" s="2"/>
       <c r="B312" s="2"/>
       <c r="C312" s="2"/>
@@ -8989,7 +8994,7 @@
       <c r="X312" s="2"/>
       <c r="Y312" s="2"/>
     </row>
-    <row r="313" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A313" s="2"/>
       <c r="B313" s="2"/>
       <c r="C313" s="2"/>
@@ -9016,7 +9021,7 @@
       <c r="X313" s="2"/>
       <c r="Y313" s="2"/>
     </row>
-    <row r="314" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A314" s="2"/>
       <c r="B314" s="2"/>
       <c r="C314" s="2"/>
@@ -9043,7 +9048,7 @@
       <c r="X314" s="2"/>
       <c r="Y314" s="2"/>
     </row>
-    <row r="315" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A315" s="2"/>
       <c r="B315" s="2"/>
       <c r="C315" s="2"/>
@@ -9070,7 +9075,7 @@
       <c r="X315" s="2"/>
       <c r="Y315" s="2"/>
     </row>
-    <row r="316" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A316" s="2"/>
       <c r="B316" s="2"/>
       <c r="C316" s="2"/>
@@ -9097,7 +9102,7 @@
       <c r="X316" s="2"/>
       <c r="Y316" s="2"/>
     </row>
-    <row r="317" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A317" s="2"/>
       <c r="B317" s="2"/>
       <c r="C317" s="2"/>
@@ -9124,7 +9129,7 @@
       <c r="X317" s="2"/>
       <c r="Y317" s="2"/>
     </row>
-    <row r="318" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A318" s="2"/>
       <c r="B318" s="2"/>
       <c r="C318" s="2"/>
@@ -9151,7 +9156,7 @@
       <c r="X318" s="2"/>
       <c r="Y318" s="2"/>
     </row>
-    <row r="319" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A319" s="2"/>
       <c r="B319" s="2"/>
       <c r="C319" s="2"/>
@@ -9178,7 +9183,7 @@
       <c r="X319" s="2"/>
       <c r="Y319" s="2"/>
     </row>
-    <row r="320" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A320" s="2"/>
       <c r="B320" s="2"/>
       <c r="C320" s="2"/>
@@ -9205,7 +9210,7 @@
       <c r="X320" s="2"/>
       <c r="Y320" s="2"/>
     </row>
-    <row r="321" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A321" s="2"/>
       <c r="B321" s="2"/>
       <c r="C321" s="2"/>
@@ -9232,7 +9237,7 @@
       <c r="X321" s="2"/>
       <c r="Y321" s="2"/>
     </row>
-    <row r="322" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A322" s="2"/>
       <c r="B322" s="2"/>
       <c r="C322" s="2"/>
@@ -9259,7 +9264,7 @@
       <c r="X322" s="2"/>
       <c r="Y322" s="2"/>
     </row>
-    <row r="323" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A323" s="2"/>
       <c r="B323" s="2"/>
       <c r="C323" s="2"/>
@@ -9286,7 +9291,7 @@
       <c r="X323" s="2"/>
       <c r="Y323" s="2"/>
     </row>
-    <row r="324" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A324" s="2"/>
       <c r="B324" s="2"/>
       <c r="C324" s="2"/>
@@ -9313,7 +9318,7 @@
       <c r="X324" s="2"/>
       <c r="Y324" s="2"/>
     </row>
-    <row r="325" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A325" s="2"/>
       <c r="B325" s="2"/>
       <c r="C325" s="2"/>
@@ -9340,7 +9345,7 @@
       <c r="X325" s="2"/>
       <c r="Y325" s="2"/>
     </row>
-    <row r="326" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A326" s="2"/>
       <c r="B326" s="2"/>
       <c r="C326" s="2"/>
@@ -9367,7 +9372,7 @@
       <c r="X326" s="2"/>
       <c r="Y326" s="2"/>
     </row>
-    <row r="327" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A327" s="2"/>
       <c r="B327" s="2"/>
       <c r="C327" s="2"/>
@@ -9394,7 +9399,7 @@
       <c r="X327" s="2"/>
       <c r="Y327" s="2"/>
     </row>
-    <row r="328" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A328" s="2"/>
       <c r="B328" s="2"/>
       <c r="C328" s="2"/>
@@ -9421,7 +9426,7 @@
       <c r="X328" s="2"/>
       <c r="Y328" s="2"/>
     </row>
-    <row r="329" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A329" s="2"/>
       <c r="B329" s="2"/>
       <c r="C329" s="2"/>
@@ -9448,7 +9453,7 @@
       <c r="X329" s="2"/>
       <c r="Y329" s="2"/>
     </row>
-    <row r="330" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A330" s="2"/>
       <c r="B330" s="2"/>
       <c r="C330" s="2"/>
@@ -9475,7 +9480,7 @@
       <c r="X330" s="2"/>
       <c r="Y330" s="2"/>
     </row>
-    <row r="331" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A331" s="2"/>
       <c r="B331" s="2"/>
       <c r="C331" s="2"/>
@@ -9502,7 +9507,7 @@
       <c r="X331" s="2"/>
       <c r="Y331" s="2"/>
     </row>
-    <row r="332" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A332" s="2"/>
       <c r="B332" s="2"/>
       <c r="C332" s="2"/>
@@ -9529,7 +9534,7 @@
       <c r="X332" s="2"/>
       <c r="Y332" s="2"/>
     </row>
-    <row r="333" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A333" s="2"/>
       <c r="B333" s="2"/>
       <c r="C333" s="2"/>
@@ -9556,7 +9561,7 @@
       <c r="X333" s="2"/>
       <c r="Y333" s="2"/>
     </row>
-    <row r="334" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A334" s="2"/>
       <c r="B334" s="2"/>
       <c r="C334" s="2"/>
@@ -9583,7 +9588,7 @@
       <c r="X334" s="2"/>
       <c r="Y334" s="2"/>
     </row>
-    <row r="335" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A335" s="2"/>
       <c r="B335" s="2"/>
       <c r="C335" s="2"/>
@@ -9610,7 +9615,7 @@
       <c r="X335" s="2"/>
       <c r="Y335" s="2"/>
     </row>
-    <row r="336" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A336" s="2"/>
       <c r="B336" s="2"/>
       <c r="C336" s="2"/>
@@ -9637,7 +9642,7 @@
       <c r="X336" s="2"/>
       <c r="Y336" s="2"/>
     </row>
-    <row r="337" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A337" s="2"/>
       <c r="B337" s="2"/>
       <c r="C337" s="2"/>
@@ -9664,7 +9669,7 @@
       <c r="X337" s="2"/>
       <c r="Y337" s="2"/>
     </row>
-    <row r="338" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A338" s="2"/>
       <c r="B338" s="2"/>
       <c r="C338" s="2"/>
@@ -9691,7 +9696,7 @@
       <c r="X338" s="2"/>
       <c r="Y338" s="2"/>
     </row>
-    <row r="339" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A339" s="2"/>
       <c r="B339" s="2"/>
       <c r="C339" s="2"/>
@@ -9718,7 +9723,7 @@
       <c r="X339" s="2"/>
       <c r="Y339" s="2"/>
     </row>
-    <row r="340" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A340" s="2"/>
       <c r="B340" s="2"/>
       <c r="C340" s="2"/>
@@ -9745,7 +9750,7 @@
       <c r="X340" s="2"/>
       <c r="Y340" s="2"/>
     </row>
-    <row r="341" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A341" s="2"/>
       <c r="B341" s="2"/>
       <c r="C341" s="2"/>
@@ -9772,7 +9777,7 @@
       <c r="X341" s="2"/>
       <c r="Y341" s="2"/>
     </row>
-    <row r="342" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A342" s="2"/>
       <c r="B342" s="2"/>
       <c r="C342" s="2"/>
@@ -9799,7 +9804,7 @@
       <c r="X342" s="2"/>
       <c r="Y342" s="2"/>
     </row>
-    <row r="343" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A343" s="2"/>
       <c r="B343" s="2"/>
       <c r="C343" s="2"/>
@@ -9826,7 +9831,7 @@
       <c r="X343" s="2"/>
       <c r="Y343" s="2"/>
     </row>
-    <row r="344" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A344" s="2"/>
       <c r="B344" s="2"/>
       <c r="C344" s="2"/>
@@ -9853,7 +9858,7 @@
       <c r="X344" s="2"/>
       <c r="Y344" s="2"/>
     </row>
-    <row r="345" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A345" s="2"/>
       <c r="B345" s="2"/>
       <c r="C345" s="2"/>
@@ -9880,7 +9885,7 @@
       <c r="X345" s="2"/>
       <c r="Y345" s="2"/>
     </row>
-    <row r="346" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A346" s="2"/>
       <c r="B346" s="2"/>
       <c r="C346" s="2"/>
@@ -9907,7 +9912,7 @@
       <c r="X346" s="2"/>
       <c r="Y346" s="2"/>
     </row>
-    <row r="347" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A347" s="2"/>
       <c r="B347" s="2"/>
       <c r="C347" s="2"/>
@@ -9934,7 +9939,7 @@
       <c r="X347" s="2"/>
       <c r="Y347" s="2"/>
     </row>
-    <row r="348" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A348" s="2"/>
       <c r="B348" s="2"/>
       <c r="C348" s="2"/>
@@ -9961,7 +9966,7 @@
       <c r="X348" s="2"/>
       <c r="Y348" s="2"/>
     </row>
-    <row r="349" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A349" s="2"/>
       <c r="B349" s="2"/>
       <c r="C349" s="2"/>
@@ -9988,7 +9993,7 @@
       <c r="X349" s="2"/>
       <c r="Y349" s="2"/>
     </row>
-    <row r="350" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A350" s="2"/>
       <c r="B350" s="2"/>
       <c r="C350" s="2"/>
@@ -10015,7 +10020,7 @@
       <c r="X350" s="2"/>
       <c r="Y350" s="2"/>
     </row>
-    <row r="351" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A351" s="2"/>
       <c r="B351" s="2"/>
       <c r="C351" s="2"/>
@@ -10042,7 +10047,7 @@
       <c r="X351" s="2"/>
       <c r="Y351" s="2"/>
     </row>
-    <row r="352" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A352" s="2"/>
       <c r="B352" s="2"/>
       <c r="C352" s="2"/>
@@ -10069,7 +10074,7 @@
       <c r="X352" s="2"/>
       <c r="Y352" s="2"/>
     </row>
-    <row r="353" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A353" s="2"/>
       <c r="B353" s="2"/>
       <c r="C353" s="2"/>
@@ -10096,7 +10101,7 @@
       <c r="X353" s="2"/>
       <c r="Y353" s="2"/>
     </row>
-    <row r="354" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A354" s="2"/>
       <c r="B354" s="2"/>
       <c r="C354" s="2"/>
@@ -10123,7 +10128,7 @@
       <c r="X354" s="2"/>
       <c r="Y354" s="2"/>
     </row>
-    <row r="355" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A355" s="2"/>
       <c r="B355" s="2"/>
       <c r="C355" s="2"/>
@@ -10150,7 +10155,7 @@
       <c r="X355" s="2"/>
       <c r="Y355" s="2"/>
     </row>
-    <row r="356" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A356" s="2"/>
       <c r="B356" s="2"/>
       <c r="C356" s="2"/>
@@ -10177,7 +10182,7 @@
       <c r="X356" s="2"/>
       <c r="Y356" s="2"/>
     </row>
-    <row r="357" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A357" s="2"/>
       <c r="B357" s="2"/>
       <c r="C357" s="2"/>
@@ -10204,7 +10209,7 @@
       <c r="X357" s="2"/>
       <c r="Y357" s="2"/>
     </row>
-    <row r="358" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A358" s="2"/>
       <c r="B358" s="2"/>
       <c r="C358" s="2"/>
@@ -10231,7 +10236,7 @@
       <c r="X358" s="2"/>
       <c r="Y358" s="2"/>
     </row>
-    <row r="359" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A359" s="2"/>
       <c r="B359" s="2"/>
       <c r="C359" s="2"/>
@@ -10258,7 +10263,7 @@
       <c r="X359" s="2"/>
       <c r="Y359" s="2"/>
     </row>
-    <row r="360" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A360" s="2"/>
       <c r="B360" s="2"/>
       <c r="C360" s="2"/>
@@ -10285,7 +10290,7 @@
       <c r="X360" s="2"/>
       <c r="Y360" s="2"/>
     </row>
-    <row r="361" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A361" s="2"/>
       <c r="B361" s="2"/>
       <c r="C361" s="2"/>
@@ -10312,7 +10317,7 @@
       <c r="X361" s="2"/>
       <c r="Y361" s="2"/>
     </row>
-    <row r="362" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A362" s="2"/>
       <c r="B362" s="2"/>
       <c r="C362" s="2"/>
@@ -10339,7 +10344,7 @@
       <c r="X362" s="2"/>
       <c r="Y362" s="2"/>
     </row>
-    <row r="363" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A363" s="2"/>
       <c r="B363" s="2"/>
       <c r="C363" s="2"/>
@@ -10366,7 +10371,7 @@
       <c r="X363" s="2"/>
       <c r="Y363" s="2"/>
     </row>
-    <row r="364" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A364" s="2"/>
       <c r="B364" s="2"/>
       <c r="C364" s="2"/>
@@ -10393,7 +10398,7 @@
       <c r="X364" s="2"/>
       <c r="Y364" s="2"/>
     </row>
-    <row r="365" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A365" s="2"/>
       <c r="B365" s="2"/>
       <c r="C365" s="2"/>
@@ -10420,7 +10425,7 @@
       <c r="X365" s="2"/>
       <c r="Y365" s="2"/>
     </row>
-    <row r="366" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A366" s="2"/>
       <c r="B366" s="2"/>
       <c r="C366" s="2"/>
@@ -10447,7 +10452,7 @@
       <c r="X366" s="2"/>
       <c r="Y366" s="2"/>
     </row>
-    <row r="367" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A367" s="2"/>
       <c r="B367" s="2"/>
       <c r="C367" s="2"/>
@@ -10474,7 +10479,7 @@
       <c r="X367" s="2"/>
       <c r="Y367" s="2"/>
     </row>
-    <row r="368" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A368" s="2"/>
       <c r="B368" s="2"/>
       <c r="C368" s="2"/>
@@ -10501,7 +10506,7 @@
       <c r="X368" s="2"/>
       <c r="Y368" s="2"/>
     </row>
-    <row r="369" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A369" s="2"/>
       <c r="B369" s="2"/>
       <c r="C369" s="2"/>
@@ -10528,7 +10533,7 @@
       <c r="X369" s="2"/>
       <c r="Y369" s="2"/>
     </row>
-    <row r="370" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A370" s="2"/>
       <c r="B370" s="2"/>
       <c r="C370" s="2"/>
@@ -10555,7 +10560,7 @@
       <c r="X370" s="2"/>
       <c r="Y370" s="2"/>
     </row>
-    <row r="371" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A371" s="2"/>
       <c r="B371" s="2"/>
       <c r="C371" s="2"/>
@@ -10582,7 +10587,7 @@
       <c r="X371" s="2"/>
       <c r="Y371" s="2"/>
     </row>
-    <row r="372" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A372" s="2"/>
       <c r="B372" s="2"/>
       <c r="C372" s="2"/>
@@ -10609,7 +10614,7 @@
       <c r="X372" s="2"/>
       <c r="Y372" s="2"/>
     </row>
-    <row r="373" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A373" s="2"/>
       <c r="B373" s="2"/>
       <c r="C373" s="2"/>
@@ -10636,7 +10641,7 @@
       <c r="X373" s="2"/>
       <c r="Y373" s="2"/>
     </row>
-    <row r="374" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A374" s="2"/>
       <c r="B374" s="2"/>
       <c r="C374" s="2"/>
@@ -10663,7 +10668,7 @@
       <c r="X374" s="2"/>
       <c r="Y374" s="2"/>
     </row>
-    <row r="375" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A375" s="2"/>
       <c r="B375" s="2"/>
       <c r="C375" s="2"/>
@@ -10690,7 +10695,7 @@
       <c r="X375" s="2"/>
       <c r="Y375" s="2"/>
     </row>
-    <row r="376" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A376" s="2"/>
       <c r="B376" s="2"/>
       <c r="C376" s="2"/>
@@ -10717,7 +10722,7 @@
       <c r="X376" s="2"/>
       <c r="Y376" s="2"/>
     </row>
-    <row r="377" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A377" s="2"/>
       <c r="B377" s="2"/>
       <c r="C377" s="2"/>
@@ -10744,7 +10749,7 @@
       <c r="X377" s="2"/>
       <c r="Y377" s="2"/>
     </row>
-    <row r="378" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A378" s="2"/>
       <c r="B378" s="2"/>
       <c r="C378" s="2"/>
@@ -10771,7 +10776,7 @@
       <c r="X378" s="2"/>
       <c r="Y378" s="2"/>
     </row>
-    <row r="379" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A379" s="2"/>
       <c r="B379" s="2"/>
       <c r="C379" s="2"/>
@@ -10798,7 +10803,7 @@
       <c r="X379" s="2"/>
       <c r="Y379" s="2"/>
     </row>
-    <row r="380" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A380" s="2"/>
       <c r="B380" s="2"/>
       <c r="C380" s="2"/>
@@ -10825,7 +10830,7 @@
       <c r="X380" s="2"/>
       <c r="Y380" s="2"/>
     </row>
-    <row r="381" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A381" s="2"/>
       <c r="B381" s="2"/>
       <c r="C381" s="2"/>
@@ -10852,7 +10857,7 @@
       <c r="X381" s="2"/>
       <c r="Y381" s="2"/>
     </row>
-    <row r="382" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A382" s="2"/>
       <c r="B382" s="2"/>
       <c r="C382" s="2"/>
@@ -10879,7 +10884,7 @@
       <c r="X382" s="2"/>
       <c r="Y382" s="2"/>
     </row>
-    <row r="383" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A383" s="2"/>
       <c r="B383" s="2"/>
       <c r="C383" s="2"/>
@@ -10906,7 +10911,7 @@
       <c r="X383" s="2"/>
       <c r="Y383" s="2"/>
     </row>
-    <row r="384" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A384" s="2"/>
       <c r="B384" s="2"/>
       <c r="C384" s="2"/>
@@ -10933,7 +10938,7 @@
       <c r="X384" s="2"/>
       <c r="Y384" s="2"/>
     </row>
-    <row r="385" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A385" s="2"/>
       <c r="B385" s="2"/>
       <c r="C385" s="2"/>
@@ -10960,7 +10965,7 @@
       <c r="X385" s="2"/>
       <c r="Y385" s="2"/>
     </row>
-    <row r="386" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A386" s="2"/>
       <c r="B386" s="2"/>
       <c r="C386" s="2"/>
@@ -10987,7 +10992,7 @@
       <c r="X386" s="2"/>
       <c r="Y386" s="2"/>
     </row>
-    <row r="387" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A387" s="2"/>
       <c r="B387" s="2"/>
       <c r="C387" s="2"/>
@@ -11014,7 +11019,7 @@
       <c r="X387" s="2"/>
       <c r="Y387" s="2"/>
     </row>
-    <row r="388" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A388" s="2"/>
       <c r="B388" s="2"/>
       <c r="C388" s="2"/>
@@ -11041,7 +11046,7 @@
       <c r="X388" s="2"/>
       <c r="Y388" s="2"/>
     </row>
-    <row r="389" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A389" s="2"/>
       <c r="B389" s="2"/>
       <c r="C389" s="2"/>
@@ -11068,7 +11073,7 @@
       <c r="X389" s="2"/>
       <c r="Y389" s="2"/>
     </row>
-    <row r="390" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A390" s="2"/>
       <c r="B390" s="2"/>
       <c r="C390" s="2"/>
@@ -11095,7 +11100,7 @@
       <c r="X390" s="2"/>
       <c r="Y390" s="2"/>
     </row>
-    <row r="391" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A391" s="2"/>
       <c r="B391" s="2"/>
       <c r="C391" s="2"/>
@@ -11122,7 +11127,7 @@
       <c r="X391" s="2"/>
       <c r="Y391" s="2"/>
     </row>
-    <row r="392" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A392" s="2"/>
       <c r="B392" s="2"/>
       <c r="C392" s="2"/>
@@ -11149,7 +11154,7 @@
       <c r="X392" s="2"/>
       <c r="Y392" s="2"/>
     </row>
-    <row r="393" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A393" s="2"/>
       <c r="B393" s="2"/>
       <c r="C393" s="2"/>
@@ -11176,7 +11181,7 @@
       <c r="X393" s="2"/>
       <c r="Y393" s="2"/>
     </row>
-    <row r="394" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A394" s="2"/>
       <c r="B394" s="2"/>
       <c r="C394" s="2"/>
@@ -11203,7 +11208,7 @@
       <c r="X394" s="2"/>
       <c r="Y394" s="2"/>
     </row>
-    <row r="395" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A395" s="2"/>
       <c r="B395" s="2"/>
       <c r="C395" s="2"/>
@@ -11230,7 +11235,7 @@
       <c r="X395" s="2"/>
       <c r="Y395" s="2"/>
     </row>
-    <row r="396" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A396" s="2"/>
       <c r="B396" s="2"/>
       <c r="C396" s="2"/>
@@ -11257,7 +11262,7 @@
       <c r="X396" s="2"/>
       <c r="Y396" s="2"/>
     </row>
-    <row r="397" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A397" s="2"/>
       <c r="B397" s="2"/>
       <c r="C397" s="2"/>
@@ -11284,7 +11289,7 @@
       <c r="X397" s="2"/>
       <c r="Y397" s="2"/>
     </row>
-    <row r="398" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A398" s="2"/>
       <c r="B398" s="2"/>
       <c r="C398" s="2"/>
@@ -11311,7 +11316,7 @@
       <c r="X398" s="2"/>
       <c r="Y398" s="2"/>
     </row>
-    <row r="399" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A399" s="2"/>
       <c r="B399" s="2"/>
       <c r="C399" s="2"/>
@@ -11338,7 +11343,7 @@
       <c r="X399" s="2"/>
       <c r="Y399" s="2"/>
     </row>
-    <row r="400" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A400" s="2"/>
       <c r="B400" s="2"/>
       <c r="C400" s="2"/>
@@ -11365,7 +11370,7 @@
       <c r="X400" s="2"/>
       <c r="Y400" s="2"/>
     </row>
-    <row r="401" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A401" s="2"/>
       <c r="B401" s="2"/>
       <c r="C401" s="2"/>
@@ -11392,7 +11397,7 @@
       <c r="X401" s="2"/>
       <c r="Y401" s="2"/>
     </row>
-    <row r="402" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A402" s="2"/>
       <c r="B402" s="2"/>
       <c r="C402" s="2"/>
@@ -11419,7 +11424,7 @@
       <c r="X402" s="2"/>
       <c r="Y402" s="2"/>
     </row>
-    <row r="403" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A403" s="2"/>
       <c r="B403" s="2"/>
       <c r="C403" s="2"/>
@@ -11446,7 +11451,7 @@
       <c r="X403" s="2"/>
       <c r="Y403" s="2"/>
     </row>
-    <row r="404" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A404" s="2"/>
       <c r="B404" s="2"/>
       <c r="C404" s="2"/>
@@ -11473,7 +11478,7 @@
       <c r="X404" s="2"/>
       <c r="Y404" s="2"/>
     </row>
-    <row r="405" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A405" s="2"/>
       <c r="B405" s="2"/>
       <c r="C405" s="2"/>
@@ -11500,7 +11505,7 @@
       <c r="X405" s="2"/>
       <c r="Y405" s="2"/>
     </row>
-    <row r="406" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A406" s="2"/>
       <c r="B406" s="2"/>
       <c r="C406" s="2"/>
@@ -11527,7 +11532,7 @@
       <c r="X406" s="2"/>
       <c r="Y406" s="2"/>
     </row>
-    <row r="407" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A407" s="2"/>
       <c r="B407" s="2"/>
       <c r="C407" s="2"/>
@@ -11554,7 +11559,7 @@
       <c r="X407" s="2"/>
       <c r="Y407" s="2"/>
     </row>
-    <row r="408" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A408" s="2"/>
       <c r="B408" s="2"/>
       <c r="C408" s="2"/>
@@ -11581,7 +11586,7 @@
       <c r="X408" s="2"/>
       <c r="Y408" s="2"/>
     </row>
-    <row r="409" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A409" s="2"/>
       <c r="B409" s="2"/>
       <c r="C409" s="2"/>
@@ -11608,7 +11613,7 @@
       <c r="X409" s="2"/>
       <c r="Y409" s="2"/>
     </row>
-    <row r="410" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A410" s="2"/>
       <c r="B410" s="2"/>
       <c r="C410" s="2"/>
@@ -11635,7 +11640,7 @@
       <c r="X410" s="2"/>
       <c r="Y410" s="2"/>
     </row>
-    <row r="411" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A411" s="2"/>
       <c r="B411" s="2"/>
       <c r="C411" s="2"/>
@@ -11662,7 +11667,7 @@
       <c r="X411" s="2"/>
       <c r="Y411" s="2"/>
     </row>
-    <row r="412" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A412" s="2"/>
       <c r="B412" s="2"/>
       <c r="C412" s="2"/>
@@ -11689,7 +11694,7 @@
       <c r="X412" s="2"/>
       <c r="Y412" s="2"/>
     </row>
-    <row r="413" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A413" s="2"/>
       <c r="B413" s="2"/>
       <c r="C413" s="2"/>
@@ -11716,7 +11721,7 @@
       <c r="X413" s="2"/>
       <c r="Y413" s="2"/>
     </row>
-    <row r="414" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A414" s="2"/>
       <c r="B414" s="2"/>
       <c r="C414" s="2"/>
@@ -11743,7 +11748,7 @@
       <c r="X414" s="2"/>
       <c r="Y414" s="2"/>
     </row>
-    <row r="415" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A415" s="2"/>
       <c r="B415" s="2"/>
       <c r="C415" s="2"/>
@@ -11770,7 +11775,7 @@
       <c r="X415" s="2"/>
       <c r="Y415" s="2"/>
     </row>
-    <row r="416" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A416" s="2"/>
       <c r="B416" s="2"/>
       <c r="C416" s="2"/>
@@ -11797,7 +11802,7 @@
       <c r="X416" s="2"/>
       <c r="Y416" s="2"/>
     </row>
-    <row r="417" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A417" s="2"/>
       <c r="B417" s="2"/>
       <c r="C417" s="2"/>
@@ -11824,7 +11829,7 @@
       <c r="X417" s="2"/>
       <c r="Y417" s="2"/>
     </row>
-    <row r="418" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A418" s="2"/>
       <c r="B418" s="2"/>
       <c r="C418" s="2"/>
@@ -11851,7 +11856,7 @@
       <c r="X418" s="2"/>
       <c r="Y418" s="2"/>
     </row>
-    <row r="419" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A419" s="2"/>
       <c r="B419" s="2"/>
       <c r="C419" s="2"/>
@@ -11878,7 +11883,7 @@
       <c r="X419" s="2"/>
       <c r="Y419" s="2"/>
     </row>
-    <row r="420" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A420" s="2"/>
       <c r="B420" s="2"/>
       <c r="C420" s="2"/>
@@ -11905,7 +11910,7 @@
       <c r="X420" s="2"/>
       <c r="Y420" s="2"/>
     </row>
-    <row r="421" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A421" s="2"/>
       <c r="B421" s="2"/>
       <c r="C421" s="2"/>
@@ -11932,7 +11937,7 @@
       <c r="X421" s="2"/>
       <c r="Y421" s="2"/>
     </row>
-    <row r="422" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A422" s="2"/>
       <c r="B422" s="2"/>
       <c r="C422" s="2"/>
@@ -11959,7 +11964,7 @@
       <c r="X422" s="2"/>
       <c r="Y422" s="2"/>
     </row>
-    <row r="423" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A423" s="2"/>
       <c r="B423" s="2"/>
       <c r="C423" s="2"/>
@@ -11986,7 +11991,7 @@
       <c r="X423" s="2"/>
       <c r="Y423" s="2"/>
     </row>
-    <row r="424" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A424" s="2"/>
       <c r="B424" s="2"/>
       <c r="C424" s="2"/>
@@ -12013,7 +12018,7 @@
       <c r="X424" s="2"/>
       <c r="Y424" s="2"/>
     </row>
-    <row r="425" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A425" s="2"/>
       <c r="B425" s="2"/>
       <c r="C425" s="2"/>
@@ -12040,7 +12045,7 @@
       <c r="X425" s="2"/>
       <c r="Y425" s="2"/>
     </row>
-    <row r="426" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A426" s="2"/>
       <c r="B426" s="2"/>
       <c r="C426" s="2"/>
@@ -12067,7 +12072,7 @@
       <c r="X426" s="2"/>
       <c r="Y426" s="2"/>
     </row>
-    <row r="427" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A427" s="2"/>
       <c r="B427" s="2"/>
       <c r="C427" s="2"/>
@@ -12094,7 +12099,7 @@
       <c r="X427" s="2"/>
       <c r="Y427" s="2"/>
     </row>
-    <row r="428" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A428" s="2"/>
       <c r="B428" s="2"/>
       <c r="C428" s="2"/>
@@ -12121,7 +12126,7 @@
       <c r="X428" s="2"/>
       <c r="Y428" s="2"/>
     </row>
-    <row r="429" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A429" s="2"/>
       <c r="B429" s="2"/>
       <c r="C429" s="2"/>
@@ -12148,7 +12153,7 @@
       <c r="X429" s="2"/>
       <c r="Y429" s="2"/>
     </row>
-    <row r="430" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A430" s="2"/>
       <c r="B430" s="2"/>
       <c r="C430" s="2"/>
@@ -12175,7 +12180,7 @@
       <c r="X430" s="2"/>
       <c r="Y430" s="2"/>
     </row>
-    <row r="431" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A431" s="2"/>
       <c r="B431" s="2"/>
       <c r="C431" s="2"/>
@@ -12202,7 +12207,7 @@
       <c r="X431" s="2"/>
       <c r="Y431" s="2"/>
     </row>
-    <row r="432" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A432" s="2"/>
       <c r="B432" s="2"/>
       <c r="C432" s="2"/>
@@ -12229,7 +12234,7 @@
       <c r="X432" s="2"/>
       <c r="Y432" s="2"/>
     </row>
-    <row r="433" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A433" s="2"/>
       <c r="B433" s="2"/>
       <c r="C433" s="2"/>
@@ -12256,7 +12261,7 @@
       <c r="X433" s="2"/>
       <c r="Y433" s="2"/>
     </row>
-    <row r="434" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A434" s="2"/>
       <c r="B434" s="2"/>
       <c r="C434" s="2"/>
@@ -12283,7 +12288,7 @@
       <c r="X434" s="2"/>
       <c r="Y434" s="2"/>
     </row>
-    <row r="435" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A435" s="2"/>
       <c r="B435" s="2"/>
       <c r="C435" s="2"/>
@@ -12310,7 +12315,7 @@
       <c r="X435" s="2"/>
       <c r="Y435" s="2"/>
     </row>
-    <row r="436" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A436" s="2"/>
       <c r="B436" s="2"/>
       <c r="C436" s="2"/>
@@ -12337,7 +12342,7 @@
       <c r="X436" s="2"/>
       <c r="Y436" s="2"/>
     </row>
-    <row r="437" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A437" s="2"/>
       <c r="B437" s="2"/>
       <c r="C437" s="2"/>
@@ -12364,7 +12369,7 @@
       <c r="X437" s="2"/>
       <c r="Y437" s="2"/>
     </row>
-    <row r="438" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A438" s="2"/>
       <c r="B438" s="2"/>
       <c r="C438" s="2"/>
@@ -12391,7 +12396,7 @@
       <c r="X438" s="2"/>
       <c r="Y438" s="2"/>
     </row>
-    <row r="439" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A439" s="2"/>
       <c r="B439" s="2"/>
       <c r="C439" s="2"/>
@@ -12418,7 +12423,7 @@
       <c r="X439" s="2"/>
       <c r="Y439" s="2"/>
     </row>
-    <row r="440" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A440" s="2"/>
       <c r="B440" s="2"/>
       <c r="C440" s="2"/>
@@ -12445,7 +12450,7 @@
       <c r="X440" s="2"/>
       <c r="Y440" s="2"/>
     </row>
-    <row r="441" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A441" s="2"/>
       <c r="B441" s="2"/>
       <c r="C441" s="2"/>
@@ -12472,7 +12477,7 @@
       <c r="X441" s="2"/>
       <c r="Y441" s="2"/>
     </row>
-    <row r="442" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A442" s="2"/>
       <c r="B442" s="2"/>
       <c r="C442" s="2"/>
@@ -12499,7 +12504,7 @@
       <c r="X442" s="2"/>
       <c r="Y442" s="2"/>
     </row>
-    <row r="443" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A443" s="2"/>
       <c r="B443" s="2"/>
       <c r="C443" s="2"/>
@@ -12526,7 +12531,7 @@
       <c r="X443" s="2"/>
       <c r="Y443" s="2"/>
     </row>
-    <row r="444" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A444" s="2"/>
       <c r="B444" s="2"/>
       <c r="C444" s="2"/>
@@ -12553,7 +12558,7 @@
       <c r="X444" s="2"/>
       <c r="Y444" s="2"/>
     </row>
-    <row r="445" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A445" s="2"/>
       <c r="B445" s="2"/>
       <c r="C445" s="2"/>
@@ -12580,7 +12585,7 @@
       <c r="X445" s="2"/>
       <c r="Y445" s="2"/>
     </row>
-    <row r="446" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A446" s="2"/>
       <c r="B446" s="2"/>
       <c r="C446" s="2"/>
@@ -12607,7 +12612,7 @@
       <c r="X446" s="2"/>
       <c r="Y446" s="2"/>
     </row>
-    <row r="447" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A447" s="2"/>
       <c r="B447" s="2"/>
       <c r="C447" s="2"/>
@@ -12634,7 +12639,7 @@
       <c r="X447" s="2"/>
       <c r="Y447" s="2"/>
     </row>
-    <row r="448" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A448" s="2"/>
       <c r="B448" s="2"/>
       <c r="C448" s="2"/>
@@ -12661,7 +12666,7 @@
       <c r="X448" s="2"/>
       <c r="Y448" s="2"/>
     </row>
-    <row r="449" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A449" s="2"/>
       <c r="B449" s="2"/>
       <c r="C449" s="2"/>
@@ -12688,7 +12693,7 @@
       <c r="X449" s="2"/>
       <c r="Y449" s="2"/>
     </row>
-    <row r="450" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A450" s="2"/>
       <c r="B450" s="2"/>
       <c r="C450" s="2"/>
@@ -12715,7 +12720,7 @@
       <c r="X450" s="2"/>
       <c r="Y450" s="2"/>
     </row>
-    <row r="451" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A451" s="2"/>
       <c r="B451" s="2"/>
       <c r="C451" s="2"/>
@@ -12742,7 +12747,7 @@
       <c r="X451" s="2"/>
       <c r="Y451" s="2"/>
     </row>
-    <row r="452" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A452" s="2"/>
       <c r="B452" s="2"/>
       <c r="C452" s="2"/>
@@ -12769,7 +12774,7 @@
       <c r="X452" s="2"/>
       <c r="Y452" s="2"/>
     </row>
-    <row r="453" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A453" s="2"/>
       <c r="B453" s="2"/>
       <c r="C453" s="2"/>
@@ -12796,7 +12801,7 @@
       <c r="X453" s="2"/>
       <c r="Y453" s="2"/>
     </row>
-    <row r="454" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A454" s="2"/>
       <c r="B454" s="2"/>
       <c r="C454" s="2"/>
@@ -12823,7 +12828,7 @@
       <c r="X454" s="2"/>
       <c r="Y454" s="2"/>
     </row>
-    <row r="455" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A455" s="2"/>
       <c r="B455" s="2"/>
       <c r="C455" s="2"/>
@@ -12850,7 +12855,7 @@
       <c r="X455" s="2"/>
       <c r="Y455" s="2"/>
     </row>
-    <row r="456" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A456" s="2"/>
       <c r="B456" s="2"/>
       <c r="C456" s="2"/>
@@ -12877,7 +12882,7 @@
       <c r="X456" s="2"/>
       <c r="Y456" s="2"/>
     </row>
-    <row r="457" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A457" s="2"/>
       <c r="B457" s="2"/>
       <c r="C457" s="2"/>
@@ -12904,7 +12909,7 @@
       <c r="X457" s="2"/>
       <c r="Y457" s="2"/>
     </row>
-    <row r="458" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A458" s="2"/>
       <c r="B458" s="2"/>
       <c r="C458" s="2"/>
@@ -12931,7 +12936,7 @@
       <c r="X458" s="2"/>
       <c r="Y458" s="2"/>
     </row>
-    <row r="459" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A459" s="2"/>
       <c r="B459" s="2"/>
       <c r="C459" s="2"/>
@@ -12958,7 +12963,7 @@
       <c r="X459" s="2"/>
       <c r="Y459" s="2"/>
     </row>
-    <row r="460" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A460" s="2"/>
       <c r="B460" s="2"/>
       <c r="C460" s="2"/>
@@ -12985,7 +12990,7 @@
       <c r="X460" s="2"/>
       <c r="Y460" s="2"/>
     </row>
-    <row r="461" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A461" s="2"/>
       <c r="B461" s="2"/>
       <c r="C461" s="2"/>
@@ -13012,7 +13017,7 @@
       <c r="X461" s="2"/>
       <c r="Y461" s="2"/>
     </row>
-    <row r="462" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A462" s="2"/>
       <c r="B462" s="2"/>
       <c r="C462" s="2"/>
@@ -13039,7 +13044,7 @@
       <c r="X462" s="2"/>
       <c r="Y462" s="2"/>
     </row>
-    <row r="463" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A463" s="2"/>
       <c r="B463" s="2"/>
       <c r="C463" s="2"/>
@@ -13066,7 +13071,7 @@
       <c r="X463" s="2"/>
       <c r="Y463" s="2"/>
     </row>
-    <row r="464" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A464" s="2"/>
       <c r="B464" s="2"/>
       <c r="C464" s="2"/>
@@ -13093,7 +13098,7 @@
       <c r="X464" s="2"/>
       <c r="Y464" s="2"/>
     </row>
-    <row r="465" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A465" s="2"/>
       <c r="B465" s="2"/>
       <c r="C465" s="2"/>
@@ -13120,7 +13125,7 @@
       <c r="X465" s="2"/>
       <c r="Y465" s="2"/>
     </row>
-    <row r="466" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A466" s="2"/>
       <c r="B466" s="2"/>
       <c r="C466" s="2"/>
@@ -13147,7 +13152,7 @@
       <c r="X466" s="2"/>
       <c r="Y466" s="2"/>
     </row>
-    <row r="467" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A467" s="2"/>
       <c r="B467" s="2"/>
       <c r="C467" s="2"/>
@@ -13174,7 +13179,7 @@
       <c r="X467" s="2"/>
       <c r="Y467" s="2"/>
     </row>
-    <row r="468" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A468" s="2"/>
       <c r="B468" s="2"/>
       <c r="C468" s="2"/>
@@ -13201,7 +13206,7 @@
       <c r="X468" s="2"/>
       <c r="Y468" s="2"/>
     </row>
-    <row r="469" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A469" s="2"/>
       <c r="B469" s="2"/>
       <c r="C469" s="2"/>
@@ -13228,7 +13233,7 @@
       <c r="X469" s="2"/>
       <c r="Y469" s="2"/>
     </row>
-    <row r="470" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A470" s="2"/>
       <c r="B470" s="2"/>
       <c r="C470" s="2"/>
@@ -13255,7 +13260,7 @@
       <c r="X470" s="2"/>
       <c r="Y470" s="2"/>
     </row>
-    <row r="471" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A471" s="2"/>
       <c r="B471" s="2"/>
       <c r="C471" s="2"/>
@@ -13282,7 +13287,7 @@
       <c r="X471" s="2"/>
       <c r="Y471" s="2"/>
     </row>
-    <row r="472" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A472" s="2"/>
       <c r="B472" s="2"/>
       <c r="C472" s="2"/>
@@ -13309,7 +13314,7 @@
       <c r="X472" s="2"/>
       <c r="Y472" s="2"/>
     </row>
-    <row r="473" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A473" s="2"/>
       <c r="B473" s="2"/>
       <c r="C473" s="2"/>
@@ -13336,7 +13341,7 @@
       <c r="X473" s="2"/>
       <c r="Y473" s="2"/>
     </row>
-    <row r="474" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A474" s="2"/>
       <c r="B474" s="2"/>
       <c r="C474" s="2"/>
@@ -13363,7 +13368,7 @@
       <c r="X474" s="2"/>
       <c r="Y474" s="2"/>
     </row>
-    <row r="475" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A475" s="2"/>
       <c r="B475" s="2"/>
       <c r="C475" s="2"/>
@@ -13390,7 +13395,7 @@
       <c r="X475" s="2"/>
       <c r="Y475" s="2"/>
     </row>
-    <row r="476" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A476" s="2"/>
       <c r="B476" s="2"/>
       <c r="C476" s="2"/>
@@ -13417,7 +13422,7 @@
       <c r="X476" s="2"/>
       <c r="Y476" s="2"/>
     </row>
-    <row r="477" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A477" s="2"/>
       <c r="B477" s="2"/>
       <c r="C477" s="2"/>
@@ -13444,7 +13449,7 @@
       <c r="X477" s="2"/>
       <c r="Y477" s="2"/>
     </row>
-    <row r="478" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A478" s="2"/>
       <c r="B478" s="2"/>
       <c r="C478" s="2"/>
@@ -13471,7 +13476,7 @@
       <c r="X478" s="2"/>
       <c r="Y478" s="2"/>
     </row>
-    <row r="479" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A479" s="2"/>
       <c r="B479" s="2"/>
       <c r="C479" s="2"/>
@@ -13498,7 +13503,7 @@
       <c r="X479" s="2"/>
       <c r="Y479" s="2"/>
     </row>
-    <row r="480" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A480" s="2"/>
       <c r="B480" s="2"/>
       <c r="C480" s="2"/>
@@ -13525,7 +13530,7 @@
       <c r="X480" s="2"/>
       <c r="Y480" s="2"/>
     </row>
-    <row r="481" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A481" s="2"/>
       <c r="B481" s="2"/>
       <c r="C481" s="2"/>
@@ -13552,7 +13557,7 @@
       <c r="X481" s="2"/>
       <c r="Y481" s="2"/>
     </row>
-    <row r="482" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A482" s="2"/>
       <c r="B482" s="2"/>
       <c r="C482" s="2"/>
@@ -13579,7 +13584,7 @@
       <c r="X482" s="2"/>
       <c r="Y482" s="2"/>
     </row>
-    <row r="483" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A483" s="2"/>
       <c r="B483" s="2"/>
       <c r="C483" s="2"/>
@@ -13606,7 +13611,7 @@
       <c r="X483" s="2"/>
       <c r="Y483" s="2"/>
     </row>
-    <row r="484" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A484" s="2"/>
       <c r="B484" s="2"/>
       <c r="C484" s="2"/>
@@ -13633,7 +13638,7 @@
       <c r="X484" s="2"/>
       <c r="Y484" s="2"/>
     </row>
-    <row r="485" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A485" s="2"/>
       <c r="B485" s="2"/>
       <c r="C485" s="2"/>
@@ -13660,7 +13665,7 @@
       <c r="X485" s="2"/>
       <c r="Y485" s="2"/>
     </row>
-    <row r="486" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A486" s="2"/>
       <c r="B486" s="2"/>
       <c r="C486" s="2"/>
@@ -13687,7 +13692,7 @@
       <c r="X486" s="2"/>
       <c r="Y486" s="2"/>
     </row>
-    <row r="487" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A487" s="2"/>
       <c r="B487" s="2"/>
       <c r="C487" s="2"/>
@@ -13714,7 +13719,7 @@
       <c r="X487" s="2"/>
       <c r="Y487" s="2"/>
     </row>
-    <row r="488" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A488" s="2"/>
       <c r="B488" s="2"/>
       <c r="C488" s="2"/>
@@ -13741,7 +13746,7 @@
       <c r="X488" s="2"/>
       <c r="Y488" s="2"/>
     </row>
-    <row r="489" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A489" s="2"/>
       <c r="B489" s="2"/>
       <c r="C489" s="2"/>
@@ -13768,7 +13773,7 @@
       <c r="X489" s="2"/>
       <c r="Y489" s="2"/>
     </row>
-    <row r="490" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A490" s="2"/>
       <c r="B490" s="2"/>
       <c r="C490" s="2"/>
@@ -13795,7 +13800,7 @@
       <c r="X490" s="2"/>
       <c r="Y490" s="2"/>
     </row>
-    <row r="491" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A491" s="2"/>
       <c r="B491" s="2"/>
       <c r="C491" s="2"/>
@@ -13822,7 +13827,7 @@
       <c r="X491" s="2"/>
       <c r="Y491" s="2"/>
     </row>
-    <row r="492" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A492" s="2"/>
       <c r="B492" s="2"/>
       <c r="C492" s="2"/>
@@ -13849,7 +13854,7 @@
       <c r="X492" s="2"/>
       <c r="Y492" s="2"/>
     </row>
-    <row r="493" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A493" s="2"/>
       <c r="B493" s="2"/>
       <c r="C493" s="2"/>
@@ -13876,7 +13881,7 @@
       <c r="X493" s="2"/>
       <c r="Y493" s="2"/>
     </row>
-    <row r="494" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A494" s="2"/>
       <c r="B494" s="2"/>
       <c r="C494" s="2"/>
@@ -13903,7 +13908,7 @@
       <c r="X494" s="2"/>
       <c r="Y494" s="2"/>
     </row>
-    <row r="495" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A495" s="2"/>
       <c r="B495" s="2"/>
       <c r="C495" s="2"/>
@@ -13930,7 +13935,7 @@
       <c r="X495" s="2"/>
       <c r="Y495" s="2"/>
     </row>
-    <row r="496" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A496" s="2"/>
       <c r="B496" s="2"/>
       <c r="C496" s="2"/>
@@ -13957,7 +13962,7 @@
       <c r="X496" s="2"/>
       <c r="Y496" s="2"/>
     </row>
-    <row r="497" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A497" s="2"/>
       <c r="B497" s="2"/>
       <c r="C497" s="2"/>
@@ -13984,7 +13989,7 @@
       <c r="X497" s="2"/>
       <c r="Y497" s="2"/>
     </row>
-    <row r="498" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A498" s="2"/>
       <c r="B498" s="2"/>
       <c r="C498" s="2"/>
@@ -14011,7 +14016,7 @@
       <c r="X498" s="2"/>
       <c r="Y498" s="2"/>
     </row>
-    <row r="499" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A499" s="2"/>
       <c r="B499" s="2"/>
       <c r="C499" s="2"/>
@@ -14038,7 +14043,7 @@
       <c r="X499" s="2"/>
       <c r="Y499" s="2"/>
     </row>
-    <row r="500" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A500" s="2"/>
       <c r="B500" s="2"/>
       <c r="C500" s="2"/>
@@ -14065,7 +14070,7 @@
       <c r="X500" s="2"/>
       <c r="Y500" s="2"/>
     </row>
-    <row r="501" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A501" s="2"/>
       <c r="B501" s="2"/>
       <c r="C501" s="2"/>
@@ -14092,7 +14097,7 @@
       <c r="X501" s="2"/>
       <c r="Y501" s="2"/>
     </row>
-    <row r="502" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A502" s="2"/>
       <c r="B502" s="2"/>
       <c r="C502" s="2"/>
@@ -14119,7 +14124,7 @@
       <c r="X502" s="2"/>
       <c r="Y502" s="2"/>
     </row>
-    <row r="503" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A503" s="2"/>
       <c r="B503" s="2"/>
       <c r="C503" s="2"/>
@@ -14146,7 +14151,7 @@
       <c r="X503" s="2"/>
       <c r="Y503" s="2"/>
     </row>
-    <row r="504" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A504" s="2"/>
       <c r="B504" s="2"/>
       <c r="C504" s="2"/>
@@ -14173,7 +14178,7 @@
       <c r="X504" s="2"/>
       <c r="Y504" s="2"/>
     </row>
-    <row r="505" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A505" s="2"/>
       <c r="B505" s="2"/>
       <c r="C505" s="2"/>
@@ -14200,7 +14205,7 @@
       <c r="X505" s="2"/>
       <c r="Y505" s="2"/>
     </row>
-    <row r="506" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A506" s="2"/>
       <c r="B506" s="2"/>
       <c r="C506" s="2"/>
@@ -14227,7 +14232,7 @@
       <c r="X506" s="2"/>
       <c r="Y506" s="2"/>
     </row>
-    <row r="507" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A507" s="2"/>
       <c r="B507" s="2"/>
       <c r="C507" s="2"/>
@@ -14254,7 +14259,7 @@
       <c r="X507" s="2"/>
       <c r="Y507" s="2"/>
     </row>
-    <row r="508" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A508" s="2"/>
       <c r="B508" s="2"/>
       <c r="C508" s="2"/>
@@ -14281,7 +14286,7 @@
       <c r="X508" s="2"/>
       <c r="Y508" s="2"/>
     </row>
-    <row r="509" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A509" s="2"/>
       <c r="B509" s="2"/>
       <c r="C509" s="2"/>
@@ -14308,7 +14313,7 @@
       <c r="X509" s="2"/>
       <c r="Y509" s="2"/>
     </row>
-    <row r="510" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A510" s="2"/>
       <c r="B510" s="2"/>
       <c r="C510" s="2"/>
@@ -14335,7 +14340,7 @@
       <c r="X510" s="2"/>
       <c r="Y510" s="2"/>
     </row>
-    <row r="511" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A511" s="2"/>
       <c r="B511" s="2"/>
       <c r="C511" s="2"/>
@@ -14362,7 +14367,7 @@
       <c r="X511" s="2"/>
       <c r="Y511" s="2"/>
     </row>
-    <row r="512" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A512" s="2"/>
       <c r="B512" s="2"/>
       <c r="C512" s="2"/>
@@ -14389,7 +14394,7 @@
       <c r="X512" s="2"/>
       <c r="Y512" s="2"/>
     </row>
-    <row r="513" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A513" s="2"/>
       <c r="B513" s="2"/>
       <c r="C513" s="2"/>
@@ -14416,7 +14421,7 @@
       <c r="X513" s="2"/>
       <c r="Y513" s="2"/>
     </row>
-    <row r="514" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A514" s="2"/>
       <c r="B514" s="2"/>
       <c r="C514" s="2"/>
@@ -14443,7 +14448,7 @@
       <c r="X514" s="2"/>
       <c r="Y514" s="2"/>
     </row>
-    <row r="515" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A515" s="2"/>
       <c r="B515" s="2"/>
       <c r="C515" s="2"/>
@@ -14470,7 +14475,7 @@
       <c r="X515" s="2"/>
       <c r="Y515" s="2"/>
     </row>
-    <row r="516" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A516" s="2"/>
       <c r="B516" s="2"/>
       <c r="C516" s="2"/>
@@ -14497,7 +14502,7 @@
       <c r="X516" s="2"/>
       <c r="Y516" s="2"/>
     </row>
-    <row r="517" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A517" s="2"/>
       <c r="B517" s="2"/>
       <c r="C517" s="2"/>
@@ -14524,7 +14529,7 @@
       <c r="X517" s="2"/>
       <c r="Y517" s="2"/>
     </row>
-    <row r="518" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A518" s="2"/>
       <c r="B518" s="2"/>
       <c r="C518" s="2"/>
@@ -14551,7 +14556,7 @@
       <c r="X518" s="2"/>
       <c r="Y518" s="2"/>
     </row>
-    <row r="519" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A519" s="2"/>
       <c r="B519" s="2"/>
       <c r="C519" s="2"/>
@@ -14578,7 +14583,7 @@
       <c r="X519" s="2"/>
       <c r="Y519" s="2"/>
     </row>
-    <row r="520" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A520" s="2"/>
       <c r="B520" s="2"/>
       <c r="C520" s="2"/>
@@ -14605,7 +14610,7 @@
       <c r="X520" s="2"/>
       <c r="Y520" s="2"/>
     </row>
-    <row r="521" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A521" s="2"/>
       <c r="B521" s="2"/>
       <c r="C521" s="2"/>
@@ -14632,7 +14637,7 @@
       <c r="X521" s="2"/>
       <c r="Y521" s="2"/>
     </row>
-    <row r="522" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A522" s="2"/>
       <c r="B522" s="2"/>
       <c r="C522" s="2"/>
@@ -14659,7 +14664,7 @@
       <c r="X522" s="2"/>
       <c r="Y522" s="2"/>
     </row>
-    <row r="523" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A523" s="2"/>
       <c r="B523" s="2"/>
       <c r="C523" s="2"/>
@@ -14686,7 +14691,7 @@
       <c r="X523" s="2"/>
       <c r="Y523" s="2"/>
     </row>
-    <row r="524" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A524" s="2"/>
       <c r="B524" s="2"/>
       <c r="C524" s="2"/>
@@ -14713,7 +14718,7 @@
       <c r="X524" s="2"/>
       <c r="Y524" s="2"/>
     </row>
-    <row r="525" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A525" s="2"/>
       <c r="B525" s="2"/>
       <c r="C525" s="2"/>
@@ -14740,7 +14745,7 @@
       <c r="X525" s="2"/>
       <c r="Y525" s="2"/>
     </row>
-    <row r="526" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A526" s="2"/>
       <c r="B526" s="2"/>
       <c r="C526" s="2"/>
@@ -14767,7 +14772,7 @@
       <c r="X526" s="2"/>
       <c r="Y526" s="2"/>
     </row>
-    <row r="527" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A527" s="2"/>
       <c r="B527" s="2"/>
       <c r="C527" s="2"/>
@@ -14794,7 +14799,7 @@
       <c r="X527" s="2"/>
       <c r="Y527" s="2"/>
     </row>
-    <row r="528" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A528" s="2"/>
       <c r="B528" s="2"/>
       <c r="C528" s="2"/>
@@ -14821,7 +14826,7 @@
       <c r="X528" s="2"/>
       <c r="Y528" s="2"/>
     </row>
-    <row r="529" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A529" s="2"/>
       <c r="B529" s="2"/>
       <c r="C529" s="2"/>
@@ -14848,7 +14853,7 @@
       <c r="X529" s="2"/>
       <c r="Y529" s="2"/>
     </row>
-    <row r="530" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A530" s="2"/>
       <c r="B530" s="2"/>
       <c r="C530" s="2"/>
@@ -14875,7 +14880,7 @@
       <c r="X530" s="2"/>
       <c r="Y530" s="2"/>
     </row>
-    <row r="531" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A531" s="2"/>
       <c r="B531" s="2"/>
       <c r="C531" s="2"/>
@@ -14902,7 +14907,7 @@
       <c r="X531" s="2"/>
       <c r="Y531" s="2"/>
     </row>
-    <row r="532" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A532" s="2"/>
       <c r="B532" s="2"/>
       <c r="C532" s="2"/>
@@ -14929,7 +14934,7 @@
       <c r="X532" s="2"/>
       <c r="Y532" s="2"/>
     </row>
-    <row r="533" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A533" s="2"/>
       <c r="B533" s="2"/>
       <c r="C533" s="2"/>
@@ -14956,7 +14961,7 @@
       <c r="X533" s="2"/>
       <c r="Y533" s="2"/>
     </row>
-    <row r="534" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A534" s="2"/>
       <c r="B534" s="2"/>
       <c r="C534" s="2"/>
@@ -14983,7 +14988,7 @@
       <c r="X534" s="2"/>
       <c r="Y534" s="2"/>
     </row>
-    <row r="535" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A535" s="2"/>
       <c r="B535" s="2"/>
       <c r="C535" s="2"/>
@@ -15010,7 +15015,7 @@
       <c r="X535" s="2"/>
       <c r="Y535" s="2"/>
     </row>
-    <row r="536" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A536" s="2"/>
       <c r="B536" s="2"/>
       <c r="C536" s="2"/>
@@ -15037,7 +15042,7 @@
       <c r="X536" s="2"/>
       <c r="Y536" s="2"/>
     </row>
-    <row r="537" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A537" s="2"/>
       <c r="B537" s="2"/>
       <c r="C537" s="2"/>
@@ -15064,7 +15069,7 @@
       <c r="X537" s="2"/>
       <c r="Y537" s="2"/>
     </row>
-    <row r="538" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A538" s="2"/>
       <c r="B538" s="2"/>
       <c r="C538" s="2"/>
@@ -15091,7 +15096,7 @@
       <c r="X538" s="2"/>
       <c r="Y538" s="2"/>
     </row>
-    <row r="539" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A539" s="2"/>
       <c r="B539" s="2"/>
       <c r="C539" s="2"/>
@@ -15118,7 +15123,7 @@
       <c r="X539" s="2"/>
       <c r="Y539" s="2"/>
     </row>
-    <row r="540" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A540" s="2"/>
       <c r="B540" s="2"/>
       <c r="C540" s="2"/>
@@ -15145,7 +15150,7 @@
       <c r="X540" s="2"/>
       <c r="Y540" s="2"/>
     </row>
-    <row r="541" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A541" s="2"/>
       <c r="B541" s="2"/>
       <c r="C541" s="2"/>
@@ -15172,7 +15177,7 @@
       <c r="X541" s="2"/>
       <c r="Y541" s="2"/>
     </row>
-    <row r="542" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A542" s="2"/>
       <c r="B542" s="2"/>
       <c r="C542" s="2"/>
@@ -15199,7 +15204,7 @@
       <c r="X542" s="2"/>
       <c r="Y542" s="2"/>
     </row>
-    <row r="543" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A543" s="2"/>
       <c r="B543" s="2"/>
       <c r="C543" s="2"/>
@@ -15226,7 +15231,7 @@
       <c r="X543" s="2"/>
       <c r="Y543" s="2"/>
     </row>
-    <row r="544" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A544" s="2"/>
       <c r="B544" s="2"/>
       <c r="C544" s="2"/>
@@ -15253,7 +15258,7 @@
       <c r="X544" s="2"/>
       <c r="Y544" s="2"/>
     </row>
-    <row r="545" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A545" s="2"/>
       <c r="B545" s="2"/>
       <c r="C545" s="2"/>
@@ -15280,7 +15285,7 @@
       <c r="X545" s="2"/>
       <c r="Y545" s="2"/>
     </row>
-    <row r="546" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A546" s="2"/>
       <c r="B546" s="2"/>
       <c r="C546" s="2"/>
@@ -15307,7 +15312,7 @@
       <c r="X546" s="2"/>
       <c r="Y546" s="2"/>
     </row>
-    <row r="547" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A547" s="2"/>
       <c r="B547" s="2"/>
       <c r="C547" s="2"/>
@@ -15334,7 +15339,7 @@
       <c r="X547" s="2"/>
       <c r="Y547" s="2"/>
     </row>
-    <row r="548" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A548" s="2"/>
       <c r="B548" s="2"/>
       <c r="C548" s="2"/>
@@ -15361,7 +15366,7 @@
       <c r="X548" s="2"/>
       <c r="Y548" s="2"/>
     </row>
-    <row r="549" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A549" s="2"/>
       <c r="B549" s="2"/>
       <c r="C549" s="2"/>
@@ -15388,7 +15393,7 @@
       <c r="X549" s="2"/>
       <c r="Y549" s="2"/>
     </row>
-    <row r="550" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A550" s="2"/>
       <c r="B550" s="2"/>
       <c r="C550" s="2"/>
@@ -15415,7 +15420,7 @@
       <c r="X550" s="2"/>
       <c r="Y550" s="2"/>
     </row>
-    <row r="551" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A551" s="2"/>
       <c r="B551" s="2"/>
       <c r="C551" s="2"/>
@@ -15442,7 +15447,7 @@
       <c r="X551" s="2"/>
       <c r="Y551" s="2"/>
     </row>
-    <row r="552" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A552" s="2"/>
       <c r="B552" s="2"/>
       <c r="C552" s="2"/>
@@ -15469,7 +15474,7 @@
       <c r="X552" s="2"/>
       <c r="Y552" s="2"/>
     </row>
-    <row r="553" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A553" s="2"/>
       <c r="B553" s="2"/>
       <c r="C553" s="2"/>
@@ -15496,7 +15501,7 @@
       <c r="X553" s="2"/>
       <c r="Y553" s="2"/>
     </row>
-    <row r="554" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A554" s="2"/>
       <c r="B554" s="2"/>
       <c r="C554" s="2"/>
@@ -15523,7 +15528,7 @@
       <c r="X554" s="2"/>
       <c r="Y554" s="2"/>
     </row>
-    <row r="555" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A555" s="2"/>
       <c r="B555" s="2"/>
       <c r="C555" s="2"/>
@@ -15550,7 +15555,7 @@
       <c r="X555" s="2"/>
       <c r="Y555" s="2"/>
     </row>
-    <row r="556" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A556" s="2"/>
       <c r="B556" s="2"/>
       <c r="C556" s="2"/>
@@ -15577,7 +15582,7 @@
       <c r="X556" s="2"/>
       <c r="Y556" s="2"/>
     </row>
-    <row r="557" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A557" s="2"/>
       <c r="B557" s="2"/>
       <c r="C557" s="2"/>
@@ -15604,7 +15609,7 @@
       <c r="X557" s="2"/>
       <c r="Y557" s="2"/>
     </row>
-    <row r="558" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A558" s="2"/>
       <c r="B558" s="2"/>
       <c r="C558" s="2"/>
@@ -15631,7 +15636,7 @@
       <c r="X558" s="2"/>
       <c r="Y558" s="2"/>
     </row>
-    <row r="559" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A559" s="2"/>
       <c r="B559" s="2"/>
       <c r="C559" s="2"/>
@@ -15658,7 +15663,7 @@
       <c r="X559" s="2"/>
       <c r="Y559" s="2"/>
     </row>
-    <row r="560" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A560" s="2"/>
       <c r="B560" s="2"/>
       <c r="C560" s="2"/>
@@ -15685,7 +15690,7 @@
       <c r="X560" s="2"/>
       <c r="Y560" s="2"/>
     </row>
-    <row r="561" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A561" s="2"/>
       <c r="B561" s="2"/>
       <c r="C561" s="2"/>
@@ -15712,7 +15717,7 @@
       <c r="X561" s="2"/>
       <c r="Y561" s="2"/>
     </row>
-    <row r="562" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A562" s="2"/>
       <c r="B562" s="2"/>
       <c r="C562" s="2"/>
@@ -15739,7 +15744,7 @@
       <c r="X562" s="2"/>
       <c r="Y562" s="2"/>
     </row>
-    <row r="563" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A563" s="2"/>
       <c r="B563" s="2"/>
       <c r="C563" s="2"/>
@@ -15766,7 +15771,7 @@
       <c r="X563" s="2"/>
       <c r="Y563" s="2"/>
     </row>
-    <row r="564" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A564" s="2"/>
       <c r="B564" s="2"/>
       <c r="C564" s="2"/>
@@ -15793,7 +15798,7 @@
       <c r="X564" s="2"/>
       <c r="Y564" s="2"/>
     </row>
-    <row r="565" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A565" s="2"/>
       <c r="B565" s="2"/>
       <c r="C565" s="2"/>
@@ -15820,7 +15825,7 @@
       <c r="X565" s="2"/>
       <c r="Y565" s="2"/>
     </row>
-    <row r="566" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A566" s="2"/>
       <c r="B566" s="2"/>
       <c r="C566" s="2"/>
@@ -15847,7 +15852,7 @@
       <c r="X566" s="2"/>
       <c r="Y566" s="2"/>
     </row>
-    <row r="567" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A567" s="2"/>
       <c r="B567" s="2"/>
       <c r="C567" s="2"/>
@@ -15874,7 +15879,7 @@
       <c r="X567" s="2"/>
       <c r="Y567" s="2"/>
     </row>
-    <row r="568" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A568" s="2"/>
       <c r="B568" s="2"/>
       <c r="C568" s="2"/>
@@ -15901,7 +15906,7 @@
       <c r="X568" s="2"/>
       <c r="Y568" s="2"/>
     </row>
-    <row r="569" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A569" s="2"/>
       <c r="B569" s="2"/>
       <c r="C569" s="2"/>
@@ -15928,7 +15933,7 @@
       <c r="X569" s="2"/>
       <c r="Y569" s="2"/>
     </row>
-    <row r="570" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A570" s="2"/>
       <c r="B570" s="2"/>
       <c r="C570" s="2"/>
@@ -15955,7 +15960,7 @@
       <c r="X570" s="2"/>
       <c r="Y570" s="2"/>
     </row>
-    <row r="571" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A571" s="2"/>
       <c r="B571" s="2"/>
       <c r="C571" s="2"/>
@@ -15982,7 +15987,7 @@
       <c r="X571" s="2"/>
       <c r="Y571" s="2"/>
     </row>
-    <row r="572" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A572" s="2"/>
       <c r="B572" s="2"/>
       <c r="C572" s="2"/>
@@ -16009,7 +16014,7 @@
       <c r="X572" s="2"/>
       <c r="Y572" s="2"/>
     </row>
-    <row r="573" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A573" s="2"/>
       <c r="B573" s="2"/>
       <c r="C573" s="2"/>
@@ -16036,7 +16041,7 @@
       <c r="X573" s="2"/>
       <c r="Y573" s="2"/>
     </row>
-    <row r="574" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A574" s="2"/>
       <c r="B574" s="2"/>
       <c r="C574" s="2"/>
@@ -16063,7 +16068,7 @@
       <c r="X574" s="2"/>
       <c r="Y574" s="2"/>
     </row>
-    <row r="575" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A575" s="2"/>
       <c r="B575" s="2"/>
       <c r="C575" s="2"/>
@@ -16090,7 +16095,7 @@
       <c r="X575" s="2"/>
       <c r="Y575" s="2"/>
     </row>
-    <row r="576" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A576" s="2"/>
       <c r="B576" s="2"/>
       <c r="C576" s="2"/>
@@ -16117,7 +16122,7 @@
       <c r="X576" s="2"/>
       <c r="Y576" s="2"/>
     </row>
-    <row r="577" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A577" s="2"/>
       <c r="B577" s="2"/>
       <c r="C577" s="2"/>
@@ -16144,7 +16149,7 @@
       <c r="X577" s="2"/>
       <c r="Y577" s="2"/>
     </row>
-    <row r="578" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A578" s="2"/>
       <c r="B578" s="2"/>
       <c r="C578" s="2"/>
@@ -16171,7 +16176,7 @@
       <c r="X578" s="2"/>
       <c r="Y578" s="2"/>
     </row>
-    <row r="579" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A579" s="2"/>
       <c r="B579" s="2"/>
       <c r="C579" s="2"/>
@@ -16198,7 +16203,7 @@
       <c r="X579" s="2"/>
       <c r="Y579" s="2"/>
     </row>
-    <row r="580" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A580" s="2"/>
       <c r="B580" s="2"/>
       <c r="C580" s="2"/>
@@ -16225,7 +16230,7 @@
       <c r="X580" s="2"/>
       <c r="Y580" s="2"/>
     </row>
-    <row r="581" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A581" s="2"/>
       <c r="B581" s="2"/>
       <c r="C581" s="2"/>
@@ -16252,7 +16257,7 @@
       <c r="X581" s="2"/>
       <c r="Y581" s="2"/>
     </row>
-    <row r="582" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A582" s="2"/>
       <c r="B582" s="2"/>
       <c r="C582" s="2"/>
@@ -16279,7 +16284,7 @@
       <c r="X582" s="2"/>
       <c r="Y582" s="2"/>
     </row>
-    <row r="583" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A583" s="2"/>
       <c r="B583" s="2"/>
       <c r="C583" s="2"/>
@@ -16306,7 +16311,7 @@
       <c r="X583" s="2"/>
       <c r="Y583" s="2"/>
     </row>
-    <row r="584" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A584" s="2"/>
       <c r="B584" s="2"/>
       <c r="C584" s="2"/>
@@ -16333,7 +16338,7 @@
       <c r="X584" s="2"/>
       <c r="Y584" s="2"/>
     </row>
-    <row r="585" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A585" s="2"/>
       <c r="B585" s="2"/>
       <c r="C585" s="2"/>
@@ -16360,7 +16365,7 @@
       <c r="X585" s="2"/>
       <c r="Y585" s="2"/>
     </row>
-    <row r="586" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A586" s="2"/>
       <c r="B586" s="2"/>
       <c r="C586" s="2"/>
@@ -16387,7 +16392,7 @@
       <c r="X586" s="2"/>
       <c r="Y586" s="2"/>
     </row>
-    <row r="587" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A587" s="2"/>
       <c r="B587" s="2"/>
       <c r="C587" s="2"/>
@@ -16414,7 +16419,7 @@
       <c r="X587" s="2"/>
       <c r="Y587" s="2"/>
     </row>
-    <row r="588" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A588" s="2"/>
       <c r="B588" s="2"/>
       <c r="C588" s="2"/>
@@ -16441,7 +16446,7 @@
       <c r="X588" s="2"/>
       <c r="Y588" s="2"/>
     </row>
-    <row r="589" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A589" s="2"/>
       <c r="B589" s="2"/>
       <c r="C589" s="2"/>
@@ -16468,7 +16473,7 @@
       <c r="X589" s="2"/>
       <c r="Y589" s="2"/>
     </row>
-    <row r="590" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A590" s="2"/>
       <c r="B590" s="2"/>
       <c r="C590" s="2"/>
@@ -16495,7 +16500,7 @@
       <c r="X590" s="2"/>
       <c r="Y590" s="2"/>
     </row>
-    <row r="591" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A591" s="2"/>
       <c r="B591" s="2"/>
       <c r="C591" s="2"/>
@@ -16522,7 +16527,7 @@
       <c r="X591" s="2"/>
       <c r="Y591" s="2"/>
     </row>
-    <row r="592" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A592" s="2"/>
       <c r="B592" s="2"/>
       <c r="C592" s="2"/>
@@ -16549,7 +16554,7 @@
       <c r="X592" s="2"/>
       <c r="Y592" s="2"/>
     </row>
-    <row r="593" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A593" s="2"/>
       <c r="B593" s="2"/>
       <c r="C593" s="2"/>
@@ -16576,7 +16581,7 @@
       <c r="X593" s="2"/>
       <c r="Y593" s="2"/>
     </row>
-    <row r="594" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A594" s="2"/>
       <c r="B594" s="2"/>
       <c r="C594" s="2"/>
@@ -16603,7 +16608,7 @@
       <c r="X594" s="2"/>
       <c r="Y594" s="2"/>
     </row>
-    <row r="595" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A595" s="2"/>
       <c r="B595" s="2"/>
       <c r="C595" s="2"/>
@@ -16630,7 +16635,7 @@
       <c r="X595" s="2"/>
       <c r="Y595" s="2"/>
     </row>
-    <row r="596" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A596" s="2"/>
       <c r="B596" s="2"/>
       <c r="C596" s="2"/>
@@ -16657,7 +16662,7 @@
       <c r="X596" s="2"/>
       <c r="Y596" s="2"/>
     </row>
-    <row r="597" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A597" s="2"/>
       <c r="B597" s="2"/>
       <c r="C597" s="2"/>
@@ -16684,7 +16689,7 @@
       <c r="X597" s="2"/>
       <c r="Y597" s="2"/>
     </row>
-    <row r="598" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A598" s="2"/>
       <c r="B598" s="2"/>
       <c r="C598" s="2"/>
@@ -16711,7 +16716,7 @@
       <c r="X598" s="2"/>
       <c r="Y598" s="2"/>
     </row>
-    <row r="599" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A599" s="2"/>
       <c r="B599" s="2"/>
       <c r="C599" s="2"/>
@@ -16738,7 +16743,7 @@
       <c r="X599" s="2"/>
       <c r="Y599" s="2"/>
     </row>
-    <row r="600" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A600" s="2"/>
       <c r="B600" s="2"/>
       <c r="C600" s="2"/>
@@ -16765,7 +16770,7 @@
       <c r="X600" s="2"/>
       <c r="Y600" s="2"/>
     </row>
-    <row r="601" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A601" s="2"/>
       <c r="B601" s="2"/>
       <c r="C601" s="2"/>
@@ -16792,7 +16797,7 @@
       <c r="X601" s="2"/>
       <c r="Y601" s="2"/>
     </row>
-    <row r="602" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A602" s="2"/>
       <c r="B602" s="2"/>
       <c r="C602" s="2"/>
@@ -16819,7 +16824,7 @@
       <c r="X602" s="2"/>
       <c r="Y602" s="2"/>
     </row>
-    <row r="603" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A603" s="2"/>
       <c r="B603" s="2"/>
       <c r="C603" s="2"/>
@@ -16846,7 +16851,7 @@
       <c r="X603" s="2"/>
       <c r="Y603" s="2"/>
     </row>
-    <row r="604" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A604" s="2"/>
       <c r="B604" s="2"/>
       <c r="C604" s="2"/>
@@ -16873,7 +16878,7 @@
       <c r="X604" s="2"/>
       <c r="Y604" s="2"/>
     </row>
-    <row r="605" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A605" s="2"/>
       <c r="B605" s="2"/>
       <c r="C605" s="2"/>
@@ -16900,7 +16905,7 @@
       <c r="X605" s="2"/>
       <c r="Y605" s="2"/>
     </row>
-    <row r="606" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A606" s="2"/>
       <c r="B606" s="2"/>
       <c r="C606" s="2"/>
@@ -16927,7 +16932,7 @@
       <c r="X606" s="2"/>
       <c r="Y606" s="2"/>
     </row>
-    <row r="607" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A607" s="2"/>
       <c r="B607" s="2"/>
       <c r="C607" s="2"/>
@@ -16954,7 +16959,7 @@
       <c r="X607" s="2"/>
       <c r="Y607" s="2"/>
     </row>
-    <row r="608" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A608" s="2"/>
       <c r="B608" s="2"/>
       <c r="C608" s="2"/>
@@ -16981,7 +16986,7 @@
       <c r="X608" s="2"/>
       <c r="Y608" s="2"/>
     </row>
-    <row r="609" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A609" s="2"/>
       <c r="B609" s="2"/>
       <c r="C609" s="2"/>
@@ -17008,7 +17013,7 @@
       <c r="X609" s="2"/>
       <c r="Y609" s="2"/>
     </row>
-    <row r="610" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A610" s="2"/>
       <c r="B610" s="2"/>
       <c r="C610" s="2"/>
@@ -17035,7 +17040,7 @@
       <c r="X610" s="2"/>
       <c r="Y610" s="2"/>
     </row>
-    <row r="611" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A611" s="2"/>
       <c r="B611" s="2"/>
       <c r="C611" s="2"/>
@@ -17062,7 +17067,7 @@
       <c r="X611" s="2"/>
       <c r="Y611" s="2"/>
     </row>
-    <row r="612" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A612" s="2"/>
       <c r="B612" s="2"/>
       <c r="C612" s="2"/>
@@ -17089,7 +17094,7 @@
       <c r="X612" s="2"/>
       <c r="Y612" s="2"/>
     </row>
-    <row r="613" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A613" s="2"/>
       <c r="B613" s="2"/>
       <c r="C613" s="2"/>
@@ -17116,7 +17121,7 @@
       <c r="X613" s="2"/>
       <c r="Y613" s="2"/>
     </row>
-    <row r="614" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A614" s="2"/>
       <c r="B614" s="2"/>
       <c r="C614" s="2"/>
@@ -17143,7 +17148,7 @@
       <c r="X614" s="2"/>
       <c r="Y614" s="2"/>
     </row>
-    <row r="615" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A615" s="2"/>
       <c r="B615" s="2"/>
       <c r="C615" s="2"/>
@@ -17170,7 +17175,7 @@
       <c r="X615" s="2"/>
       <c r="Y615" s="2"/>
     </row>
-    <row r="616" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A616" s="2"/>
       <c r="B616" s="2"/>
       <c r="C616" s="2"/>
@@ -17197,7 +17202,7 @@
       <c r="X616" s="2"/>
       <c r="Y616" s="2"/>
     </row>
-    <row r="617" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A617" s="2"/>
       <c r="B617" s="2"/>
       <c r="C617" s="2"/>
@@ -17224,7 +17229,7 @@
       <c r="X617" s="2"/>
       <c r="Y617" s="2"/>
     </row>
-    <row r="618" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A618" s="2"/>
       <c r="B618" s="2"/>
       <c r="C618" s="2"/>
@@ -17251,7 +17256,7 @@
       <c r="X618" s="2"/>
       <c r="Y618" s="2"/>
     </row>
-    <row r="619" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A619" s="2"/>
       <c r="B619" s="2"/>
       <c r="C619" s="2"/>
@@ -17278,7 +17283,7 @@
       <c r="X619" s="2"/>
       <c r="Y619" s="2"/>
     </row>
-    <row r="620" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A620" s="2"/>
       <c r="B620" s="2"/>
       <c r="C620" s="2"/>
@@ -17305,7 +17310,7 @@
       <c r="X620" s="2"/>
       <c r="Y620" s="2"/>
     </row>
-    <row r="621" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A621" s="2"/>
       <c r="B621" s="2"/>
       <c r="C621" s="2"/>
@@ -17332,7 +17337,7 @@
       <c r="X621" s="2"/>
       <c r="Y621" s="2"/>
     </row>
-    <row r="622" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A622" s="2"/>
       <c r="B622" s="2"/>
       <c r="C622" s="2"/>
@@ -17359,7 +17364,7 @@
       <c r="X622" s="2"/>
       <c r="Y622" s="2"/>
     </row>
-    <row r="623" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A623" s="2"/>
       <c r="B623" s="2"/>
       <c r="C623" s="2"/>
@@ -17386,7 +17391,7 @@
       <c r="X623" s="2"/>
       <c r="Y623" s="2"/>
     </row>
-    <row r="624" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A624" s="2"/>
       <c r="B624" s="2"/>
       <c r="C624" s="2"/>
@@ -17413,7 +17418,7 @@
       <c r="X624" s="2"/>
       <c r="Y624" s="2"/>
     </row>
-    <row r="625" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A625" s="2"/>
       <c r="B625" s="2"/>
       <c r="C625" s="2"/>
@@ -17440,7 +17445,7 @@
       <c r="X625" s="2"/>
       <c r="Y625" s="2"/>
     </row>
-    <row r="626" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A626" s="2"/>
       <c r="B626" s="2"/>
       <c r="C626" s="2"/>
@@ -17467,7 +17472,7 @@
       <c r="X626" s="2"/>
       <c r="Y626" s="2"/>
     </row>
-    <row r="627" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A627" s="2"/>
       <c r="B627" s="2"/>
       <c r="C627" s="2"/>
@@ -17494,7 +17499,7 @@
       <c r="X627" s="2"/>
       <c r="Y627" s="2"/>
     </row>
-    <row r="628" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A628" s="2"/>
       <c r="B628" s="2"/>
       <c r="C628" s="2"/>
@@ -17521,7 +17526,7 @@
       <c r="X628" s="2"/>
       <c r="Y628" s="2"/>
     </row>
-    <row r="629" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A629" s="2"/>
       <c r="B629" s="2"/>
       <c r="C629" s="2"/>
@@ -17548,7 +17553,7 @@
       <c r="X629" s="2"/>
       <c r="Y629" s="2"/>
     </row>
-    <row r="630" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A630" s="2"/>
       <c r="B630" s="2"/>
       <c r="C630" s="2"/>
@@ -17575,7 +17580,7 @@
       <c r="X630" s="2"/>
       <c r="Y630" s="2"/>
     </row>
-    <row r="631" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A631" s="2"/>
       <c r="B631" s="2"/>
       <c r="C631" s="2"/>
@@ -17602,7 +17607,7 @@
       <c r="X631" s="2"/>
       <c r="Y631" s="2"/>
     </row>
-    <row r="632" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A632" s="2"/>
       <c r="B632" s="2"/>
       <c r="C632" s="2"/>
@@ -17629,7 +17634,7 @@
       <c r="X632" s="2"/>
       <c r="Y632" s="2"/>
     </row>
-    <row r="633" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A633" s="2"/>
       <c r="B633" s="2"/>
       <c r="C633" s="2"/>
@@ -17656,7 +17661,7 @@
       <c r="X633" s="2"/>
       <c r="Y633" s="2"/>
     </row>
-    <row r="634" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A634" s="2"/>
       <c r="B634" s="2"/>
       <c r="C634" s="2"/>
@@ -17683,7 +17688,7 @@
       <c r="X634" s="2"/>
       <c r="Y634" s="2"/>
     </row>
-    <row r="635" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A635" s="2"/>
       <c r="B635" s="2"/>
       <c r="C635" s="2"/>
@@ -17710,7 +17715,7 @@
       <c r="X635" s="2"/>
       <c r="Y635" s="2"/>
     </row>
-    <row r="636" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A636" s="2"/>
       <c r="B636" s="2"/>
       <c r="C636" s="2"/>
@@ -17737,7 +17742,7 @@
       <c r="X636" s="2"/>
       <c r="Y636" s="2"/>
     </row>
-    <row r="637" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A637" s="2"/>
       <c r="B637" s="2"/>
       <c r="C637" s="2"/>
@@ -17764,7 +17769,7 @@
       <c r="X637" s="2"/>
       <c r="Y637" s="2"/>
     </row>
-    <row r="638" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A638" s="2"/>
       <c r="B638" s="2"/>
       <c r="C638" s="2"/>
@@ -17791,7 +17796,7 @@
       <c r="X638" s="2"/>
       <c r="Y638" s="2"/>
     </row>
-    <row r="639" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A639" s="2"/>
       <c r="B639" s="2"/>
       <c r="C639" s="2"/>
@@ -17818,7 +17823,7 @@
       <c r="X639" s="2"/>
       <c r="Y639" s="2"/>
     </row>
-    <row r="640" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A640" s="2"/>
       <c r="B640" s="2"/>
       <c r="C640" s="2"/>
@@ -17845,7 +17850,7 @@
       <c r="X640" s="2"/>
       <c r="Y640" s="2"/>
     </row>
-    <row r="641" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A641" s="2"/>
       <c r="B641" s="2"/>
       <c r="C641" s="2"/>
@@ -17872,7 +17877,7 @@
       <c r="X641" s="2"/>
       <c r="Y641" s="2"/>
     </row>
-    <row r="642" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A642" s="2"/>
       <c r="B642" s="2"/>
       <c r="C642" s="2"/>
@@ -17899,7 +17904,7 @@
       <c r="X642" s="2"/>
       <c r="Y642" s="2"/>
     </row>
-    <row r="643" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A643" s="2"/>
       <c r="B643" s="2"/>
       <c r="C643" s="2"/>
@@ -17926,7 +17931,7 @@
       <c r="X643" s="2"/>
       <c r="Y643" s="2"/>
     </row>
-    <row r="644" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A644" s="2"/>
       <c r="B644" s="2"/>
       <c r="C644" s="2"/>
@@ -17953,7 +17958,7 @@
       <c r="X644" s="2"/>
       <c r="Y644" s="2"/>
     </row>
-    <row r="645" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A645" s="2"/>
       <c r="B645" s="2"/>
       <c r="C645" s="2"/>
@@ -17980,7 +17985,7 @@
       <c r="X645" s="2"/>
       <c r="Y645" s="2"/>
     </row>
-    <row r="646" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A646" s="2"/>
       <c r="B646" s="2"/>
       <c r="C646" s="2"/>
@@ -18007,7 +18012,7 @@
       <c r="X646" s="2"/>
       <c r="Y646" s="2"/>
     </row>
-    <row r="647" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A647" s="2"/>
       <c r="B647" s="2"/>
       <c r="C647" s="2"/>
@@ -18034,7 +18039,7 @@
       <c r="X647" s="2"/>
       <c r="Y647" s="2"/>
     </row>
-    <row r="648" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A648" s="2"/>
       <c r="B648" s="2"/>
       <c r="C648" s="2"/>
@@ -18061,7 +18066,7 @@
       <c r="X648" s="2"/>
       <c r="Y648" s="2"/>
     </row>
-    <row r="649" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A649" s="2"/>
       <c r="B649" s="2"/>
       <c r="C649" s="2"/>
@@ -18088,7 +18093,7 @@
       <c r="X649" s="2"/>
       <c r="Y649" s="2"/>
     </row>
-    <row r="650" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A650" s="2"/>
       <c r="B650" s="2"/>
       <c r="C650" s="2"/>
@@ -18115,7 +18120,7 @@
       <c r="X650" s="2"/>
       <c r="Y650" s="2"/>
     </row>
-    <row r="651" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A651" s="2"/>
       <c r="B651" s="2"/>
       <c r="C651" s="2"/>
@@ -18142,7 +18147,7 @@
       <c r="X651" s="2"/>
       <c r="Y651" s="2"/>
     </row>
-    <row r="652" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A652" s="2"/>
       <c r="B652" s="2"/>
       <c r="C652" s="2"/>
@@ -18169,7 +18174,7 @@
       <c r="X652" s="2"/>
       <c r="Y652" s="2"/>
     </row>
-    <row r="653" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A653" s="2"/>
       <c r="B653" s="2"/>
       <c r="C653" s="2"/>
@@ -18196,7 +18201,7 @@
       <c r="X653" s="2"/>
       <c r="Y653" s="2"/>
     </row>
-    <row r="654" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A654" s="2"/>
       <c r="B654" s="2"/>
       <c r="C654" s="2"/>
@@ -18223,7 +18228,7 @@
       <c r="X654" s="2"/>
       <c r="Y654" s="2"/>
     </row>
-    <row r="655" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A655" s="2"/>
       <c r="B655" s="2"/>
       <c r="C655" s="2"/>
@@ -18250,7 +18255,7 @@
       <c r="X655" s="2"/>
       <c r="Y655" s="2"/>
     </row>
-    <row r="656" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A656" s="2"/>
       <c r="B656" s="2"/>
       <c r="C656" s="2"/>
@@ -18277,7 +18282,7 @@
       <c r="X656" s="2"/>
       <c r="Y656" s="2"/>
     </row>
-    <row r="657" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A657" s="2"/>
       <c r="B657" s="2"/>
       <c r="C657" s="2"/>
@@ -18304,7 +18309,7 @@
       <c r="X657" s="2"/>
       <c r="Y657" s="2"/>
     </row>
-    <row r="658" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A658" s="2"/>
       <c r="B658" s="2"/>
       <c r="C658" s="2"/>
@@ -18331,7 +18336,7 @@
       <c r="X658" s="2"/>
       <c r="Y658" s="2"/>
     </row>
-    <row r="659" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A659" s="2"/>
       <c r="B659" s="2"/>
       <c r="C659" s="2"/>
@@ -18358,7 +18363,7 @@
       <c r="X659" s="2"/>
       <c r="Y659" s="2"/>
     </row>
-    <row r="660" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A660" s="2"/>
       <c r="B660" s="2"/>
       <c r="C660" s="2"/>
@@ -18385,7 +18390,7 @@
       <c r="X660" s="2"/>
       <c r="Y660" s="2"/>
     </row>
-    <row r="661" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A661" s="2"/>
       <c r="B661" s="2"/>
       <c r="C661" s="2"/>
@@ -18412,7 +18417,7 @@
       <c r="X661" s="2"/>
       <c r="Y661" s="2"/>
     </row>
-    <row r="662" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A662" s="2"/>
       <c r="B662" s="2"/>
       <c r="C662" s="2"/>
@@ -18439,7 +18444,7 @@
       <c r="X662" s="2"/>
       <c r="Y662" s="2"/>
     </row>
-    <row r="663" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A663" s="2"/>
       <c r="B663" s="2"/>
       <c r="C663" s="2"/>
@@ -18466,7 +18471,7 @@
       <c r="X663" s="2"/>
       <c r="Y663" s="2"/>
     </row>
-    <row r="664" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A664" s="2"/>
       <c r="B664" s="2"/>
       <c r="C664" s="2"/>
@@ -18493,7 +18498,7 @@
       <c r="X664" s="2"/>
       <c r="Y664" s="2"/>
     </row>
-    <row r="665" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A665" s="2"/>
       <c r="B665" s="2"/>
       <c r="C665" s="2"/>
@@ -18520,7 +18525,7 @@
       <c r="X665" s="2"/>
       <c r="Y665" s="2"/>
     </row>
-    <row r="666" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A666" s="2"/>
       <c r="B666" s="2"/>
       <c r="C666" s="2"/>
@@ -18547,7 +18552,7 @@
       <c r="X666" s="2"/>
       <c r="Y666" s="2"/>
     </row>
-    <row r="667" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A667" s="2"/>
       <c r="B667" s="2"/>
       <c r="C667" s="2"/>
@@ -18574,7 +18579,7 @@
       <c r="X667" s="2"/>
       <c r="Y667" s="2"/>
     </row>
-    <row r="668" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A668" s="2"/>
       <c r="B668" s="2"/>
       <c r="C668" s="2"/>
@@ -18601,7 +18606,7 @@
       <c r="X668" s="2"/>
       <c r="Y668" s="2"/>
     </row>
-    <row r="669" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A669" s="2"/>
       <c r="B669" s="2"/>
       <c r="C669" s="2"/>
@@ -18628,7 +18633,7 @@
       <c r="X669" s="2"/>
       <c r="Y669" s="2"/>
     </row>
-    <row r="670" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A670" s="2"/>
       <c r="B670" s="2"/>
       <c r="C670" s="2"/>
@@ -18655,7 +18660,7 @@
       <c r="X670" s="2"/>
       <c r="Y670" s="2"/>
     </row>
-    <row r="671" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A671" s="2"/>
       <c r="B671" s="2"/>
       <c r="C671" s="2"/>
@@ -18682,7 +18687,7 @@
       <c r="X671" s="2"/>
       <c r="Y671" s="2"/>
     </row>
-    <row r="672" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A672" s="2"/>
       <c r="B672" s="2"/>
       <c r="C672" s="2"/>
@@ -18709,7 +18714,7 @@
       <c r="X672" s="2"/>
       <c r="Y672" s="2"/>
     </row>
-    <row r="673" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A673" s="2"/>
       <c r="B673" s="2"/>
       <c r="C673" s="2"/>
@@ -18736,7 +18741,7 @@
       <c r="X673" s="2"/>
       <c r="Y673" s="2"/>
     </row>
-    <row r="674" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A674" s="2"/>
       <c r="B674" s="2"/>
       <c r="C674" s="2"/>
@@ -18763,7 +18768,7 @@
       <c r="X674" s="2"/>
       <c r="Y674" s="2"/>
     </row>
-    <row r="675" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A675" s="2"/>
       <c r="B675" s="2"/>
       <c r="C675" s="2"/>
@@ -18790,7 +18795,7 @@
       <c r="X675" s="2"/>
       <c r="Y675" s="2"/>
     </row>
-    <row r="676" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A676" s="2"/>
       <c r="B676" s="2"/>
       <c r="C676" s="2"/>
@@ -18817,7 +18822,7 @@
       <c r="X676" s="2"/>
       <c r="Y676" s="2"/>
     </row>
-    <row r="677" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A677" s="2"/>
       <c r="B677" s="2"/>
       <c r="C677" s="2"/>
@@ -18844,7 +18849,7 @@
       <c r="X677" s="2"/>
       <c r="Y677" s="2"/>
     </row>
-    <row r="678" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A678" s="2"/>
       <c r="B678" s="2"/>
       <c r="C678" s="2"/>
@@ -18871,7 +18876,7 @@
       <c r="X678" s="2"/>
       <c r="Y678" s="2"/>
     </row>
-    <row r="679" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A679" s="2"/>
       <c r="B679" s="2"/>
       <c r="C679" s="2"/>
@@ -18898,7 +18903,7 @@
       <c r="X679" s="2"/>
       <c r="Y679" s="2"/>
     </row>
-    <row r="680" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A680" s="2"/>
       <c r="B680" s="2"/>
       <c r="C680" s="2"/>
@@ -18925,7 +18930,7 @@
       <c r="X680" s="2"/>
       <c r="Y680" s="2"/>
     </row>
-    <row r="681" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A681" s="2"/>
       <c r="B681" s="2"/>
       <c r="C681" s="2"/>
@@ -18952,7 +18957,7 @@
       <c r="X681" s="2"/>
       <c r="Y681" s="2"/>
     </row>
-    <row r="682" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A682" s="2"/>
       <c r="B682" s="2"/>
       <c r="C682" s="2"/>
@@ -18979,7 +18984,7 @@
       <c r="X682" s="2"/>
       <c r="Y682" s="2"/>
     </row>
-    <row r="683" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A683" s="2"/>
       <c r="B683" s="2"/>
       <c r="C683" s="2"/>
@@ -19006,7 +19011,7 @@
       <c r="X683" s="2"/>
       <c r="Y683" s="2"/>
     </row>
-    <row r="684" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A684" s="2"/>
       <c r="B684" s="2"/>
       <c r="C684" s="2"/>
@@ -19033,7 +19038,7 @@
       <c r="X684" s="2"/>
       <c r="Y684" s="2"/>
     </row>
-    <row r="685" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A685" s="2"/>
       <c r="B685" s="2"/>
       <c r="C685" s="2"/>
@@ -19060,7 +19065,7 @@
       <c r="X685" s="2"/>
       <c r="Y685" s="2"/>
     </row>
-    <row r="686" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A686" s="2"/>
       <c r="B686" s="2"/>
       <c r="C686" s="2"/>
@@ -19087,7 +19092,7 @@
       <c r="X686" s="2"/>
       <c r="Y686" s="2"/>
     </row>
-    <row r="687" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A687" s="2"/>
       <c r="B687" s="2"/>
       <c r="C687" s="2"/>
@@ -19114,7 +19119,7 @@
       <c r="X687" s="2"/>
       <c r="Y687" s="2"/>
     </row>
-    <row r="688" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A688" s="2"/>
       <c r="B688" s="2"/>
       <c r="C688" s="2"/>
@@ -19141,7 +19146,7 @@
       <c r="X688" s="2"/>
       <c r="Y688" s="2"/>
     </row>
-    <row r="689" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A689" s="2"/>
       <c r="B689" s="2"/>
       <c r="C689" s="2"/>
@@ -19168,7 +19173,7 @@
       <c r="X689" s="2"/>
       <c r="Y689" s="2"/>
     </row>
-    <row r="690" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A690" s="2"/>
       <c r="B690" s="2"/>
       <c r="C690" s="2"/>
@@ -19195,7 +19200,7 @@
       <c r="X690" s="2"/>
       <c r="Y690" s="2"/>
     </row>
-    <row r="691" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A691" s="2"/>
       <c r="B691" s="2"/>
       <c r="C691" s="2"/>
@@ -19222,7 +19227,7 @@
       <c r="X691" s="2"/>
       <c r="Y691" s="2"/>
     </row>
-    <row r="692" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A692" s="2"/>
       <c r="B692" s="2"/>
       <c r="C692" s="2"/>
@@ -19249,7 +19254,7 @@
       <c r="X692" s="2"/>
       <c r="Y692" s="2"/>
     </row>
-    <row r="693" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A693" s="2"/>
       <c r="B693" s="2"/>
       <c r="C693" s="2"/>
@@ -19276,7 +19281,7 @@
       <c r="X693" s="2"/>
       <c r="Y693" s="2"/>
     </row>
-    <row r="694" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A694" s="2"/>
       <c r="B694" s="2"/>
       <c r="C694" s="2"/>
@@ -19303,7 +19308,7 @@
       <c r="X694" s="2"/>
       <c r="Y694" s="2"/>
     </row>
-    <row r="695" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A695" s="2"/>
       <c r="B695" s="2"/>
       <c r="C695" s="2"/>
@@ -19330,7 +19335,7 @@
       <c r="X695" s="2"/>
       <c r="Y695" s="2"/>
     </row>
-    <row r="696" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A696" s="2"/>
       <c r="B696" s="2"/>
       <c r="C696" s="2"/>
@@ -19357,7 +19362,7 @@
       <c r="X696" s="2"/>
       <c r="Y696" s="2"/>
     </row>
-    <row r="697" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A697" s="2"/>
       <c r="B697" s="2"/>
       <c r="C697" s="2"/>
@@ -19384,7 +19389,7 @@
       <c r="X697" s="2"/>
       <c r="Y697" s="2"/>
     </row>
-    <row r="698" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A698" s="2"/>
       <c r="B698" s="2"/>
       <c r="C698" s="2"/>
@@ -19411,7 +19416,7 @@
       <c r="X698" s="2"/>
       <c r="Y698" s="2"/>
     </row>
-    <row r="699" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A699" s="2"/>
       <c r="B699" s="2"/>
       <c r="C699" s="2"/>
@@ -19438,7 +19443,7 @@
       <c r="X699" s="2"/>
       <c r="Y699" s="2"/>
     </row>
-    <row r="700" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A700" s="2"/>
       <c r="B700" s="2"/>
       <c r="C700" s="2"/>
@@ -19465,7 +19470,7 @@
       <c r="X700" s="2"/>
       <c r="Y700" s="2"/>
     </row>
-    <row r="701" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A701" s="2"/>
       <c r="B701" s="2"/>
       <c r="C701" s="2"/>
@@ -19492,7 +19497,7 @@
       <c r="X701" s="2"/>
       <c r="Y701" s="2"/>
     </row>
-    <row r="702" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A702" s="2"/>
       <c r="B702" s="2"/>
       <c r="C702" s="2"/>
@@ -19519,7 +19524,7 @@
       <c r="X702" s="2"/>
       <c r="Y702" s="2"/>
     </row>
-    <row r="703" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A703" s="2"/>
       <c r="B703" s="2"/>
       <c r="C703" s="2"/>
@@ -19546,7 +19551,7 @@
       <c r="X703" s="2"/>
       <c r="Y703" s="2"/>
     </row>
-    <row r="704" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A704" s="2"/>
       <c r="B704" s="2"/>
       <c r="C704" s="2"/>
@@ -19573,7 +19578,7 @@
       <c r="X704" s="2"/>
       <c r="Y704" s="2"/>
     </row>
-    <row r="705" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A705" s="2"/>
       <c r="B705" s="2"/>
       <c r="C705" s="2"/>
@@ -19600,7 +19605,7 @@
       <c r="X705" s="2"/>
       <c r="Y705" s="2"/>
     </row>
-    <row r="706" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A706" s="2"/>
       <c r="B706" s="2"/>
       <c r="C706" s="2"/>
@@ -19627,7 +19632,7 @@
       <c r="X706" s="2"/>
       <c r="Y706" s="2"/>
     </row>
-    <row r="707" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A707" s="2"/>
       <c r="B707" s="2"/>
       <c r="C707" s="2"/>
@@ -19654,7 +19659,7 @@
       <c r="X707" s="2"/>
       <c r="Y707" s="2"/>
     </row>
-    <row r="708" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A708" s="2"/>
       <c r="B708" s="2"/>
       <c r="C708" s="2"/>
@@ -19681,7 +19686,7 @@
       <c r="X708" s="2"/>
       <c r="Y708" s="2"/>
     </row>
-    <row r="709" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A709" s="2"/>
       <c r="B709" s="2"/>
       <c r="C709" s="2"/>
@@ -19708,7 +19713,7 @@
       <c r="X709" s="2"/>
       <c r="Y709" s="2"/>
     </row>
-    <row r="710" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A710" s="2"/>
       <c r="B710" s="2"/>
       <c r="C710" s="2"/>
@@ -19735,7 +19740,7 @@
       <c r="X710" s="2"/>
       <c r="Y710" s="2"/>
     </row>
-    <row r="711" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A711" s="2"/>
       <c r="B711" s="2"/>
       <c r="C711" s="2"/>
@@ -19762,7 +19767,7 @@
       <c r="X711" s="2"/>
       <c r="Y711" s="2"/>
     </row>
-    <row r="712" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A712" s="2"/>
       <c r="B712" s="2"/>
       <c r="C712" s="2"/>
@@ -19789,7 +19794,7 @@
       <c r="X712" s="2"/>
       <c r="Y712" s="2"/>
     </row>
-    <row r="713" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A713" s="2"/>
       <c r="B713" s="2"/>
       <c r="C713" s="2"/>
@@ -19816,7 +19821,7 @@
       <c r="X713" s="2"/>
       <c r="Y713" s="2"/>
     </row>
-    <row r="714" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A714" s="2"/>
       <c r="B714" s="2"/>
       <c r="C714" s="2"/>
@@ -19843,7 +19848,7 @@
       <c r="X714" s="2"/>
       <c r="Y714" s="2"/>
     </row>
-    <row r="715" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A715" s="2"/>
       <c r="B715" s="2"/>
       <c r="C715" s="2"/>
@@ -19870,7 +19875,7 @@
       <c r="X715" s="2"/>
       <c r="Y715" s="2"/>
     </row>
-    <row r="716" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A716" s="2"/>
       <c r="B716" s="2"/>
       <c r="C716" s="2"/>
@@ -19897,7 +19902,7 @@
       <c r="X716" s="2"/>
       <c r="Y716" s="2"/>
     </row>
-    <row r="717" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A717" s="2"/>
       <c r="B717" s="2"/>
       <c r="C717" s="2"/>
@@ -19924,7 +19929,7 @@
       <c r="X717" s="2"/>
       <c r="Y717" s="2"/>
     </row>
-    <row r="718" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A718" s="2"/>
       <c r="B718" s="2"/>
       <c r="C718" s="2"/>
@@ -19951,7 +19956,7 @@
       <c r="X718" s="2"/>
       <c r="Y718" s="2"/>
     </row>
-    <row r="719" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A719" s="2"/>
       <c r="B719" s="2"/>
       <c r="C719" s="2"/>
@@ -19978,7 +19983,7 @@
       <c r="X719" s="2"/>
       <c r="Y719" s="2"/>
     </row>
-    <row r="720" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A720" s="2"/>
       <c r="B720" s="2"/>
       <c r="C720" s="2"/>
@@ -20005,7 +20010,7 @@
       <c r="X720" s="2"/>
       <c r="Y720" s="2"/>
     </row>
-    <row r="721" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A721" s="2"/>
       <c r="B721" s="2"/>
       <c r="C721" s="2"/>
@@ -20032,7 +20037,7 @@
       <c r="X721" s="2"/>
       <c r="Y721" s="2"/>
     </row>
-    <row r="722" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A722" s="2"/>
       <c r="B722" s="2"/>
       <c r="C722" s="2"/>
@@ -20059,7 +20064,7 @@
       <c r="X722" s="2"/>
       <c r="Y722" s="2"/>
     </row>
-    <row r="723" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A723" s="2"/>
       <c r="B723" s="2"/>
       <c r="C723" s="2"/>
@@ -20086,7 +20091,7 @@
       <c r="X723" s="2"/>
       <c r="Y723" s="2"/>
     </row>
-    <row r="724" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A724" s="2"/>
       <c r="B724" s="2"/>
       <c r="C724" s="2"/>
@@ -20113,7 +20118,7 @@
       <c r="X724" s="2"/>
       <c r="Y724" s="2"/>
     </row>
-    <row r="725" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A725" s="2"/>
       <c r="B725" s="2"/>
       <c r="C725" s="2"/>
@@ -20140,7 +20145,7 @@
       <c r="X725" s="2"/>
       <c r="Y725" s="2"/>
     </row>
-    <row r="726" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A726" s="2"/>
       <c r="B726" s="2"/>
       <c r="C726" s="2"/>
@@ -20167,7 +20172,7 @@
       <c r="X726" s="2"/>
       <c r="Y726" s="2"/>
     </row>
-    <row r="727" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A727" s="2"/>
       <c r="B727" s="2"/>
       <c r="C727" s="2"/>
@@ -20194,7 +20199,7 @@
       <c r="X727" s="2"/>
       <c r="Y727" s="2"/>
     </row>
-    <row r="728" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A728" s="2"/>
       <c r="B728" s="2"/>
       <c r="C728" s="2"/>
@@ -20221,7 +20226,7 @@
       <c r="X728" s="2"/>
       <c r="Y728" s="2"/>
     </row>
-    <row r="729" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A729" s="2"/>
       <c r="B729" s="2"/>
       <c r="C729" s="2"/>
@@ -20248,7 +20253,7 @@
       <c r="X729" s="2"/>
       <c r="Y729" s="2"/>
     </row>
-    <row r="730" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A730" s="2"/>
       <c r="B730" s="2"/>
       <c r="C730" s="2"/>
@@ -20275,7 +20280,7 @@
       <c r="X730" s="2"/>
       <c r="Y730" s="2"/>
     </row>
-    <row r="731" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A731" s="2"/>
       <c r="B731" s="2"/>
       <c r="C731" s="2"/>
@@ -20302,7 +20307,7 @@
       <c r="X731" s="2"/>
       <c r="Y731" s="2"/>
     </row>
-    <row r="732" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A732" s="2"/>
       <c r="B732" s="2"/>
       <c r="C732" s="2"/>
@@ -20329,7 +20334,7 @@
       <c r="X732" s="2"/>
       <c r="Y732" s="2"/>
     </row>
-    <row r="733" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A733" s="2"/>
       <c r="B733" s="2"/>
       <c r="C733" s="2"/>
@@ -20356,7 +20361,7 @@
       <c r="X733" s="2"/>
       <c r="Y733" s="2"/>
     </row>
-    <row r="734" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A734" s="2"/>
       <c r="B734" s="2"/>
       <c r="C734" s="2"/>
@@ -20383,7 +20388,7 @@
       <c r="X734" s="2"/>
       <c r="Y734" s="2"/>
     </row>
-    <row r="735" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A735" s="2"/>
       <c r="B735" s="2"/>
       <c r="C735" s="2"/>
@@ -20410,7 +20415,7 @@
       <c r="X735" s="2"/>
       <c r="Y735" s="2"/>
     </row>
-    <row r="736" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A736" s="2"/>
       <c r="B736" s="2"/>
       <c r="C736" s="2"/>
@@ -20437,7 +20442,7 @@
       <c r="X736" s="2"/>
       <c r="Y736" s="2"/>
     </row>
-    <row r="737" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A737" s="2"/>
       <c r="B737" s="2"/>
       <c r="C737" s="2"/>
@@ -20464,7 +20469,7 @@
       <c r="X737" s="2"/>
       <c r="Y737" s="2"/>
     </row>
-    <row r="738" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A738" s="2"/>
       <c r="B738" s="2"/>
       <c r="C738" s="2"/>
@@ -20491,7 +20496,7 @@
       <c r="X738" s="2"/>
       <c r="Y738" s="2"/>
     </row>
-    <row r="739" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A739" s="2"/>
       <c r="B739" s="2"/>
       <c r="C739" s="2"/>
@@ -20518,7 +20523,7 @@
       <c r="X739" s="2"/>
       <c r="Y739" s="2"/>
     </row>
-    <row r="740" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A740" s="2"/>
       <c r="B740" s="2"/>
       <c r="C740" s="2"/>
@@ -20545,7 +20550,7 @@
       <c r="X740" s="2"/>
       <c r="Y740" s="2"/>
     </row>
-    <row r="741" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A741" s="2"/>
       <c r="B741" s="2"/>
       <c r="C741" s="2"/>
@@ -20572,7 +20577,7 @@
       <c r="X741" s="2"/>
       <c r="Y741" s="2"/>
     </row>
-    <row r="742" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A742" s="2"/>
       <c r="B742" s="2"/>
       <c r="C742" s="2"/>
@@ -20599,7 +20604,7 @@
       <c r="X742" s="2"/>
       <c r="Y742" s="2"/>
     </row>
-    <row r="743" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A743" s="2"/>
       <c r="B743" s="2"/>
       <c r="C743" s="2"/>
@@ -20626,7 +20631,7 @@
       <c r="X743" s="2"/>
       <c r="Y743" s="2"/>
     </row>
-    <row r="744" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A744" s="2"/>
       <c r="B744" s="2"/>
       <c r="C744" s="2"/>
@@ -20653,7 +20658,7 @@
       <c r="X744" s="2"/>
       <c r="Y744" s="2"/>
     </row>
-    <row r="745" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A745" s="2"/>
       <c r="B745" s="2"/>
       <c r="C745" s="2"/>
@@ -20680,7 +20685,7 @@
       <c r="X745" s="2"/>
       <c r="Y745" s="2"/>
     </row>
-    <row r="746" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A746" s="2"/>
       <c r="B746" s="2"/>
       <c r="C746" s="2"/>
@@ -20707,7 +20712,7 @@
       <c r="X746" s="2"/>
       <c r="Y746" s="2"/>
     </row>
-    <row r="747" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A747" s="2"/>
       <c r="B747" s="2"/>
       <c r="C747" s="2"/>
@@ -20734,7 +20739,7 @@
       <c r="X747" s="2"/>
       <c r="Y747" s="2"/>
     </row>
-    <row r="748" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A748" s="2"/>
       <c r="B748" s="2"/>
       <c r="C748" s="2"/>
@@ -20761,7 +20766,7 @@
       <c r="X748" s="2"/>
       <c r="Y748" s="2"/>
     </row>
-    <row r="749" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A749" s="2"/>
       <c r="B749" s="2"/>
       <c r="C749" s="2"/>
@@ -20788,7 +20793,7 @@
       <c r="X749" s="2"/>
       <c r="Y749" s="2"/>
     </row>
-    <row r="750" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A750" s="2"/>
       <c r="B750" s="2"/>
       <c r="C750" s="2"/>
@@ -20815,7 +20820,7 @@
       <c r="X750" s="2"/>
       <c r="Y750" s="2"/>
     </row>
-    <row r="751" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A751" s="2"/>
       <c r="B751" s="2"/>
       <c r="C751" s="2"/>
@@ -20842,7 +20847,7 @@
       <c r="X751" s="2"/>
       <c r="Y751" s="2"/>
     </row>
-    <row r="752" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A752" s="2"/>
       <c r="B752" s="2"/>
       <c r="C752" s="2"/>
@@ -20869,7 +20874,7 @@
       <c r="X752" s="2"/>
       <c r="Y752" s="2"/>
     </row>
-    <row r="753" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A753" s="2"/>
       <c r="B753" s="2"/>
       <c r="C753" s="2"/>
@@ -20896,7 +20901,7 @@
       <c r="X753" s="2"/>
       <c r="Y753" s="2"/>
     </row>
-    <row r="754" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A754" s="2"/>
       <c r="B754" s="2"/>
       <c r="C754" s="2"/>
@@ -20923,7 +20928,7 @@
       <c r="X754" s="2"/>
       <c r="Y754" s="2"/>
     </row>
-    <row r="755" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A755" s="2"/>
       <c r="B755" s="2"/>
       <c r="C755" s="2"/>
@@ -20950,7 +20955,7 @@
       <c r="X755" s="2"/>
       <c r="Y755" s="2"/>
     </row>
-    <row r="756" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A756" s="2"/>
       <c r="B756" s="2"/>
       <c r="C756" s="2"/>
@@ -20977,7 +20982,7 @@
       <c r="X756" s="2"/>
       <c r="Y756" s="2"/>
     </row>
-    <row r="757" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A757" s="2"/>
       <c r="B757" s="2"/>
       <c r="C757" s="2"/>
@@ -21004,7 +21009,7 @@
       <c r="X757" s="2"/>
       <c r="Y757" s="2"/>
     </row>
-    <row r="758" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A758" s="2"/>
       <c r="B758" s="2"/>
       <c r="C758" s="2"/>
@@ -21031,7 +21036,7 @@
       <c r="X758" s="2"/>
       <c r="Y758" s="2"/>
     </row>
-    <row r="759" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A759" s="2"/>
       <c r="B759" s="2"/>
       <c r="C759" s="2"/>
@@ -21058,7 +21063,7 @@
       <c r="X759" s="2"/>
       <c r="Y759" s="2"/>
     </row>
-    <row r="760" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A760" s="2"/>
       <c r="B760" s="2"/>
       <c r="C760" s="2"/>
@@ -21085,7 +21090,7 @@
       <c r="X760" s="2"/>
       <c r="Y760" s="2"/>
     </row>
-    <row r="761" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A761" s="2"/>
       <c r="B761" s="2"/>
       <c r="C761" s="2"/>
@@ -21112,7 +21117,7 @@
       <c r="X761" s="2"/>
       <c r="Y761" s="2"/>
     </row>
-    <row r="762" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A762" s="2"/>
       <c r="B762" s="2"/>
       <c r="C762" s="2"/>
@@ -21139,7 +21144,7 @@
       <c r="X762" s="2"/>
       <c r="Y762" s="2"/>
     </row>
-    <row r="763" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A763" s="2"/>
       <c r="B763" s="2"/>
       <c r="C763" s="2"/>
@@ -21166,7 +21171,7 @@
       <c r="X763" s="2"/>
       <c r="Y763" s="2"/>
     </row>
-    <row r="764" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A764" s="2"/>
       <c r="B764" s="2"/>
       <c r="C764" s="2"/>
@@ -21193,7 +21198,7 @@
       <c r="X764" s="2"/>
       <c r="Y764" s="2"/>
     </row>
-    <row r="765" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A765" s="2"/>
       <c r="B765" s="2"/>
       <c r="C765" s="2"/>
@@ -21220,7 +21225,7 @@
       <c r="X765" s="2"/>
       <c r="Y765" s="2"/>
     </row>
-    <row r="766" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A766" s="2"/>
       <c r="B766" s="2"/>
       <c r="C766" s="2"/>
@@ -21247,7 +21252,7 @@
       <c r="X766" s="2"/>
       <c r="Y766" s="2"/>
     </row>
-    <row r="767" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A767" s="2"/>
       <c r="B767" s="2"/>
       <c r="C767" s="2"/>
@@ -21274,7 +21279,7 @@
       <c r="X767" s="2"/>
       <c r="Y767" s="2"/>
     </row>
-    <row r="768" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A768" s="2"/>
       <c r="B768" s="2"/>
       <c r="C768" s="2"/>
@@ -21301,7 +21306,7 @@
       <c r="X768" s="2"/>
       <c r="Y768" s="2"/>
     </row>
-    <row r="769" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A769" s="2"/>
       <c r="B769" s="2"/>
       <c r="C769" s="2"/>
@@ -21328,7 +21333,7 @@
       <c r="X769" s="2"/>
       <c r="Y769" s="2"/>
     </row>
-    <row r="770" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A770" s="2"/>
       <c r="B770" s="2"/>
       <c r="C770" s="2"/>
@@ -21355,7 +21360,7 @@
       <c r="X770" s="2"/>
       <c r="Y770" s="2"/>
     </row>
-    <row r="771" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A771" s="2"/>
       <c r="B771" s="2"/>
       <c r="C771" s="2"/>
@@ -21382,7 +21387,7 @@
       <c r="X771" s="2"/>
       <c r="Y771" s="2"/>
     </row>
-    <row r="772" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A772" s="2"/>
       <c r="B772" s="2"/>
       <c r="C772" s="2"/>
@@ -21409,7 +21414,7 @@
       <c r="X772" s="2"/>
       <c r="Y772" s="2"/>
     </row>
-    <row r="773" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A773" s="2"/>
       <c r="B773" s="2"/>
       <c r="C773" s="2"/>
@@ -21436,7 +21441,7 @@
       <c r="X773" s="2"/>
       <c r="Y773" s="2"/>
     </row>
-    <row r="774" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A774" s="2"/>
       <c r="B774" s="2"/>
       <c r="C774" s="2"/>
@@ -21463,7 +21468,7 @@
       <c r="X774" s="2"/>
       <c r="Y774" s="2"/>
     </row>
-    <row r="775" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A775" s="2"/>
       <c r="B775" s="2"/>
       <c r="C775" s="2"/>
@@ -21490,7 +21495,7 @@
       <c r="X775" s="2"/>
       <c r="Y775" s="2"/>
     </row>
-    <row r="776" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A776" s="2"/>
       <c r="B776" s="2"/>
       <c r="C776" s="2"/>
@@ -21517,7 +21522,7 @@
       <c r="X776" s="2"/>
       <c r="Y776" s="2"/>
     </row>
-    <row r="777" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A777" s="2"/>
       <c r="B777" s="2"/>
       <c r="C777" s="2"/>
@@ -21544,7 +21549,7 @@
       <c r="X777" s="2"/>
       <c r="Y777" s="2"/>
     </row>
-    <row r="778" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A778" s="2"/>
       <c r="B778" s="2"/>
       <c r="C778" s="2"/>
@@ -21571,7 +21576,7 @@
       <c r="X778" s="2"/>
       <c r="Y778" s="2"/>
     </row>
-    <row r="779" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A779" s="2"/>
       <c r="B779" s="2"/>
       <c r="C779" s="2"/>
@@ -21598,7 +21603,7 @@
       <c r="X779" s="2"/>
       <c r="Y779" s="2"/>
     </row>
-    <row r="780" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A780" s="2"/>
       <c r="B780" s="2"/>
       <c r="C780" s="2"/>
@@ -21625,7 +21630,7 @@
       <c r="X780" s="2"/>
       <c r="Y780" s="2"/>
     </row>
-    <row r="781" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A781" s="2"/>
       <c r="B781" s="2"/>
       <c r="C781" s="2"/>
@@ -21652,7 +21657,7 @@
       <c r="X781" s="2"/>
       <c r="Y781" s="2"/>
     </row>
-    <row r="782" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A782" s="2"/>
       <c r="B782" s="2"/>
       <c r="C782" s="2"/>
@@ -21679,7 +21684,7 @@
       <c r="X782" s="2"/>
       <c r="Y782" s="2"/>
     </row>
-    <row r="783" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A783" s="2"/>
       <c r="B783" s="2"/>
       <c r="C783" s="2"/>
@@ -21706,7 +21711,7 @@
       <c r="X783" s="2"/>
       <c r="Y783" s="2"/>
     </row>
-    <row r="784" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A784" s="2"/>
       <c r="B784" s="2"/>
       <c r="C784" s="2"/>
@@ -21733,7 +21738,7 @@
       <c r="X784" s="2"/>
       <c r="Y784" s="2"/>
     </row>
-    <row r="785" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A785" s="2"/>
       <c r="B785" s="2"/>
       <c r="C785" s="2"/>
@@ -21760,7 +21765,7 @@
       <c r="X785" s="2"/>
       <c r="Y785" s="2"/>
     </row>
-    <row r="786" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A786" s="2"/>
       <c r="B786" s="2"/>
       <c r="C786" s="2"/>
@@ -21787,7 +21792,7 @@
       <c r="X786" s="2"/>
       <c r="Y786" s="2"/>
     </row>
-    <row r="787" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A787" s="2"/>
       <c r="B787" s="2"/>
       <c r="C787" s="2"/>
@@ -21814,7 +21819,7 @@
       <c r="X787" s="2"/>
       <c r="Y787" s="2"/>
     </row>
-    <row r="788" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A788" s="2"/>
       <c r="B788" s="2"/>
       <c r="C788" s="2"/>
@@ -21841,7 +21846,7 @@
       <c r="X788" s="2"/>
       <c r="Y788" s="2"/>
     </row>
-    <row r="789" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A789" s="2"/>
       <c r="B789" s="2"/>
       <c r="C789" s="2"/>
@@ -21868,7 +21873,7 @@
       <c r="X789" s="2"/>
       <c r="Y789" s="2"/>
     </row>
-    <row r="790" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A790" s="2"/>
       <c r="B790" s="2"/>
       <c r="C790" s="2"/>
@@ -21895,7 +21900,7 @@
       <c r="X790" s="2"/>
       <c r="Y790" s="2"/>
     </row>
-    <row r="791" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A791" s="2"/>
       <c r="B791" s="2"/>
       <c r="C791" s="2"/>
@@ -21922,7 +21927,7 @@
       <c r="X791" s="2"/>
       <c r="Y791" s="2"/>
     </row>
-    <row r="792" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A792" s="2"/>
       <c r="B792" s="2"/>
       <c r="C792" s="2"/>
@@ -21949,7 +21954,7 @@
       <c r="X792" s="2"/>
       <c r="Y792" s="2"/>
     </row>
-    <row r="793" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A793" s="2"/>
       <c r="B793" s="2"/>
       <c r="C793" s="2"/>
@@ -21976,7 +21981,7 @@
       <c r="X793" s="2"/>
       <c r="Y793" s="2"/>
     </row>
-    <row r="794" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A794" s="2"/>
       <c r="B794" s="2"/>
       <c r="C794" s="2"/>
@@ -22003,7 +22008,7 @@
       <c r="X794" s="2"/>
       <c r="Y794" s="2"/>
     </row>
-    <row r="795" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A795" s="2"/>
       <c r="B795" s="2"/>
       <c r="C795" s="2"/>
@@ -22030,7 +22035,7 @@
       <c r="X795" s="2"/>
       <c r="Y795" s="2"/>
     </row>
-    <row r="796" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A796" s="2"/>
       <c r="B796" s="2"/>
       <c r="C796" s="2"/>
@@ -22057,7 +22062,7 @@
       <c r="X796" s="2"/>
       <c r="Y796" s="2"/>
     </row>
-    <row r="797" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A797" s="2"/>
       <c r="B797" s="2"/>
       <c r="C797" s="2"/>
@@ -22084,7 +22089,7 @@
       <c r="X797" s="2"/>
       <c r="Y797" s="2"/>
     </row>
-    <row r="798" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A798" s="2"/>
       <c r="B798" s="2"/>
       <c r="C798" s="2"/>
@@ -22111,7 +22116,7 @@
       <c r="X798" s="2"/>
       <c r="Y798" s="2"/>
     </row>
-    <row r="799" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A799" s="2"/>
       <c r="B799" s="2"/>
       <c r="C799" s="2"/>
@@ -22138,7 +22143,7 @@
       <c r="X799" s="2"/>
       <c r="Y799" s="2"/>
     </row>
-    <row r="800" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A800" s="2"/>
       <c r="B800" s="2"/>
       <c r="C800" s="2"/>
@@ -22165,7 +22170,7 @@
       <c r="X800" s="2"/>
       <c r="Y800" s="2"/>
     </row>
-    <row r="801" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A801" s="2"/>
       <c r="B801" s="2"/>
       <c r="C801" s="2"/>
@@ -22192,7 +22197,7 @@
       <c r="X801" s="2"/>
       <c r="Y801" s="2"/>
     </row>
-    <row r="802" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A802" s="2"/>
       <c r="B802" s="2"/>
       <c r="C802" s="2"/>
@@ -22219,7 +22224,7 @@
       <c r="X802" s="2"/>
       <c r="Y802" s="2"/>
     </row>
-    <row r="803" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A803" s="2"/>
       <c r="B803" s="2"/>
       <c r="C803" s="2"/>
@@ -22246,7 +22251,7 @@
       <c r="X803" s="2"/>
       <c r="Y803" s="2"/>
     </row>
-    <row r="804" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A804" s="2"/>
       <c r="B804" s="2"/>
       <c r="C804" s="2"/>
@@ -22273,7 +22278,7 @@
       <c r="X804" s="2"/>
       <c r="Y804" s="2"/>
     </row>
-    <row r="805" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A805" s="2"/>
       <c r="B805" s="2"/>
       <c r="C805" s="2"/>
@@ -22300,7 +22305,7 @@
       <c r="X805" s="2"/>
       <c r="Y805" s="2"/>
     </row>
-    <row r="806" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A806" s="2"/>
       <c r="B806" s="2"/>
       <c r="C806" s="2"/>
@@ -22327,7 +22332,7 @@
       <c r="X806" s="2"/>
       <c r="Y806" s="2"/>
     </row>
-    <row r="807" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A807" s="2"/>
       <c r="B807" s="2"/>
       <c r="C807" s="2"/>
@@ -22354,7 +22359,7 @@
       <c r="X807" s="2"/>
       <c r="Y807" s="2"/>
     </row>
-    <row r="808" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A808" s="2"/>
       <c r="B808" s="2"/>
       <c r="C808" s="2"/>
@@ -22381,7 +22386,7 @@
       <c r="X808" s="2"/>
       <c r="Y808" s="2"/>
     </row>
-    <row r="809" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A809" s="2"/>
       <c r="B809" s="2"/>
       <c r="C809" s="2"/>
@@ -22408,7 +22413,7 @@
       <c r="X809" s="2"/>
       <c r="Y809" s="2"/>
     </row>
-    <row r="810" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A810" s="2"/>
       <c r="B810" s="2"/>
       <c r="C810" s="2"/>
@@ -22435,7 +22440,7 @@
       <c r="X810" s="2"/>
       <c r="Y810" s="2"/>
     </row>
-    <row r="811" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A811" s="2"/>
       <c r="B811" s="2"/>
       <c r="C811" s="2"/>
@@ -22462,7 +22467,7 @@
       <c r="X811" s="2"/>
       <c r="Y811" s="2"/>
     </row>
-    <row r="812" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A812" s="2"/>
       <c r="B812" s="2"/>
       <c r="C812" s="2"/>
@@ -22489,7 +22494,7 @@
       <c r="X812" s="2"/>
       <c r="Y812" s="2"/>
     </row>
-    <row r="813" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A813" s="2"/>
       <c r="B813" s="2"/>
       <c r="C813" s="2"/>
@@ -22516,7 +22521,7 @@
       <c r="X813" s="2"/>
       <c r="Y813" s="2"/>
     </row>
-    <row r="814" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A814" s="2"/>
       <c r="B814" s="2"/>
       <c r="C814" s="2"/>
@@ -22543,7 +22548,7 @@
       <c r="X814" s="2"/>
       <c r="Y814" s="2"/>
     </row>
-    <row r="815" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A815" s="2"/>
       <c r="B815" s="2"/>
       <c r="C815" s="2"/>
@@ -22570,7 +22575,7 @@
       <c r="X815" s="2"/>
       <c r="Y815" s="2"/>
     </row>
-    <row r="816" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A816" s="2"/>
       <c r="B816" s="2"/>
       <c r="C816" s="2"/>
@@ -22597,7 +22602,7 @@
       <c r="X816" s="2"/>
       <c r="Y816" s="2"/>
     </row>
-    <row r="817" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A817" s="2"/>
       <c r="B817" s="2"/>
       <c r="C817" s="2"/>
@@ -22624,7 +22629,7 @@
       <c r="X817" s="2"/>
       <c r="Y817" s="2"/>
     </row>
-    <row r="818" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A818" s="2"/>
       <c r="B818" s="2"/>
       <c r="C818" s="2"/>
@@ -22651,7 +22656,7 @@
       <c r="X818" s="2"/>
       <c r="Y818" s="2"/>
     </row>
-    <row r="819" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A819" s="2"/>
       <c r="B819" s="2"/>
       <c r="C819" s="2"/>
@@ -22678,7 +22683,7 @@
       <c r="X819" s="2"/>
       <c r="Y819" s="2"/>
     </row>
-    <row r="820" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A820" s="2"/>
       <c r="B820" s="2"/>
       <c r="C820" s="2"/>
@@ -22705,7 +22710,7 @@
       <c r="X820" s="2"/>
       <c r="Y820" s="2"/>
     </row>
-    <row r="821" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A821" s="2"/>
       <c r="B821" s="2"/>
       <c r="C821" s="2"/>
@@ -22732,7 +22737,7 @@
       <c r="X821" s="2"/>
       <c r="Y821" s="2"/>
     </row>
-    <row r="822" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A822" s="2"/>
       <c r="B822" s="2"/>
       <c r="C822" s="2"/>
@@ -22759,7 +22764,7 @@
       <c r="X822" s="2"/>
       <c r="Y822" s="2"/>
     </row>
-    <row r="823" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A823" s="2"/>
       <c r="B823" s="2"/>
       <c r="C823" s="2"/>
@@ -22786,7 +22791,7 @@
       <c r="X823" s="2"/>
       <c r="Y823" s="2"/>
     </row>
-    <row r="824" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A824" s="2"/>
       <c r="B824" s="2"/>
       <c r="C824" s="2"/>
@@ -22813,7 +22818,7 @@
       <c r="X824" s="2"/>
       <c r="Y824" s="2"/>
     </row>
-    <row r="825" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A825" s="2"/>
       <c r="B825" s="2"/>
       <c r="C825" s="2"/>
@@ -22840,7 +22845,7 @@
       <c r="X825" s="2"/>
       <c r="Y825" s="2"/>
     </row>
-    <row r="826" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A826" s="2"/>
       <c r="B826" s="2"/>
       <c r="C826" s="2"/>
@@ -22867,7 +22872,7 @@
       <c r="X826" s="2"/>
       <c r="Y826" s="2"/>
     </row>
-    <row r="827" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A827" s="2"/>
       <c r="B827" s="2"/>
       <c r="C827" s="2"/>
@@ -22894,7 +22899,7 @@
       <c r="X827" s="2"/>
       <c r="Y827" s="2"/>
     </row>
-    <row r="828" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A828" s="2"/>
       <c r="B828" s="2"/>
       <c r="C828" s="2"/>
@@ -22921,7 +22926,7 @@
       <c r="X828" s="2"/>
       <c r="Y828" s="2"/>
     </row>
-    <row r="829" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A829" s="2"/>
       <c r="B829" s="2"/>
       <c r="C829" s="2"/>
@@ -22948,7 +22953,7 @@
       <c r="X829" s="2"/>
       <c r="Y829" s="2"/>
     </row>
-    <row r="830" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A830" s="2"/>
       <c r="B830" s="2"/>
       <c r="C830" s="2"/>
@@ -22975,7 +22980,7 @@
       <c r="X830" s="2"/>
       <c r="Y830" s="2"/>
     </row>
-    <row r="831" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A831" s="2"/>
       <c r="B831" s="2"/>
       <c r="C831" s="2"/>
@@ -23002,7 +23007,7 @@
       <c r="X831" s="2"/>
       <c r="Y831" s="2"/>
     </row>
-    <row r="832" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A832" s="2"/>
       <c r="B832" s="2"/>
       <c r="C832" s="2"/>
@@ -23029,7 +23034,7 @@
       <c r="X832" s="2"/>
       <c r="Y832" s="2"/>
     </row>
-    <row r="833" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A833" s="2"/>
       <c r="B833" s="2"/>
       <c r="C833" s="2"/>
@@ -23056,7 +23061,7 @@
       <c r="X833" s="2"/>
       <c r="Y833" s="2"/>
     </row>
-    <row r="834" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A834" s="2"/>
       <c r="B834" s="2"/>
       <c r="C834" s="2"/>
@@ -23083,7 +23088,7 @@
       <c r="X834" s="2"/>
       <c r="Y834" s="2"/>
     </row>
-    <row r="835" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A835" s="2"/>
       <c r="B835" s="2"/>
       <c r="C835" s="2"/>
@@ -23110,7 +23115,7 @@
       <c r="X835" s="2"/>
       <c r="Y835" s="2"/>
     </row>
-    <row r="836" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A836" s="2"/>
       <c r="B836" s="2"/>
       <c r="C836" s="2"/>
@@ -23137,7 +23142,7 @@
       <c r="X836" s="2"/>
       <c r="Y836" s="2"/>
     </row>
-    <row r="837" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A837" s="2"/>
       <c r="B837" s="2"/>
       <c r="C837" s="2"/>
@@ -23164,7 +23169,7 @@
       <c r="X837" s="2"/>
       <c r="Y837" s="2"/>
     </row>
-    <row r="838" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A838" s="2"/>
       <c r="B838" s="2"/>
       <c r="C838" s="2"/>
@@ -23191,7 +23196,7 @@
       <c r="X838" s="2"/>
       <c r="Y838" s="2"/>
     </row>
-    <row r="839" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A839" s="2"/>
       <c r="B839" s="2"/>
       <c r="C839" s="2"/>
@@ -23218,7 +23223,7 @@
       <c r="X839" s="2"/>
       <c r="Y839" s="2"/>
     </row>
-    <row r="840" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A840" s="2"/>
       <c r="B840" s="2"/>
       <c r="C840" s="2"/>
@@ -23245,7 +23250,7 @@
       <c r="X840" s="2"/>
       <c r="Y840" s="2"/>
     </row>
-    <row r="841" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A841" s="2"/>
       <c r="B841" s="2"/>
       <c r="C841" s="2"/>
@@ -23272,7 +23277,7 @@
       <c r="X841" s="2"/>
       <c r="Y841" s="2"/>
     </row>
-    <row r="842" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A842" s="2"/>
       <c r="B842" s="2"/>
       <c r="C842" s="2"/>
@@ -23299,7 +23304,7 @@
       <c r="X842" s="2"/>
       <c r="Y842" s="2"/>
     </row>
-    <row r="843" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A843" s="2"/>
       <c r="B843" s="2"/>
       <c r="C843" s="2"/>
@@ -23326,7 +23331,7 @@
       <c r="X843" s="2"/>
       <c r="Y843" s="2"/>
     </row>
-    <row r="844" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A844" s="2"/>
       <c r="B844" s="2"/>
       <c r="C844" s="2"/>
@@ -23353,7 +23358,7 @@
       <c r="X844" s="2"/>
       <c r="Y844" s="2"/>
     </row>
-    <row r="845" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A845" s="2"/>
       <c r="B845" s="2"/>
       <c r="C845" s="2"/>
@@ -23380,7 +23385,7 @@
       <c r="X845" s="2"/>
       <c r="Y845" s="2"/>
     </row>
-    <row r="846" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A846" s="2"/>
       <c r="B846" s="2"/>
       <c r="C846" s="2"/>
@@ -23407,7 +23412,7 @@
       <c r="X846" s="2"/>
       <c r="Y846" s="2"/>
     </row>
-    <row r="847" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A847" s="2"/>
       <c r="B847" s="2"/>
       <c r="C847" s="2"/>
@@ -23434,7 +23439,7 @@
       <c r="X847" s="2"/>
       <c r="Y847" s="2"/>
     </row>
-    <row r="848" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A848" s="2"/>
       <c r="B848" s="2"/>
       <c r="C848" s="2"/>
@@ -23461,7 +23466,7 @@
       <c r="X848" s="2"/>
       <c r="Y848" s="2"/>
     </row>
-    <row r="849" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A849" s="2"/>
       <c r="B849" s="2"/>
       <c r="C849" s="2"/>
@@ -23488,7 +23493,7 @@
       <c r="X849" s="2"/>
       <c r="Y849" s="2"/>
     </row>
-    <row r="850" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="850" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A850" s="2"/>
       <c r="B850" s="2"/>
       <c r="C850" s="2"/>
@@ -23515,7 +23520,7 @@
       <c r="X850" s="2"/>
       <c r="Y850" s="2"/>
     </row>
-    <row r="851" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A851" s="2"/>
       <c r="B851" s="2"/>
       <c r="C851" s="2"/>
@@ -23542,7 +23547,7 @@
       <c r="X851" s="2"/>
       <c r="Y851" s="2"/>
     </row>
-    <row r="852" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A852" s="2"/>
       <c r="B852" s="2"/>
       <c r="C852" s="2"/>
@@ -23569,7 +23574,7 @@
       <c r="X852" s="2"/>
       <c r="Y852" s="2"/>
     </row>
-    <row r="853" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A853" s="2"/>
       <c r="B853" s="2"/>
       <c r="C853" s="2"/>
@@ -23596,7 +23601,7 @@
       <c r="X853" s="2"/>
       <c r="Y853" s="2"/>
     </row>
-    <row r="854" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="854" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A854" s="2"/>
       <c r="B854" s="2"/>
       <c r="C854" s="2"/>
@@ -23623,7 +23628,7 @@
       <c r="X854" s="2"/>
       <c r="Y854" s="2"/>
     </row>
-    <row r="855" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A855" s="2"/>
       <c r="B855" s="2"/>
       <c r="C855" s="2"/>
@@ -23650,7 +23655,7 @@
       <c r="X855" s="2"/>
       <c r="Y855" s="2"/>
     </row>
-    <row r="856" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="856" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A856" s="2"/>
       <c r="B856" s="2"/>
       <c r="C856" s="2"/>
@@ -23677,7 +23682,7 @@
       <c r="X856" s="2"/>
       <c r="Y856" s="2"/>
     </row>
-    <row r="857" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="857" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A857" s="2"/>
       <c r="B857" s="2"/>
       <c r="C857" s="2"/>
@@ -23704,7 +23709,7 @@
       <c r="X857" s="2"/>
       <c r="Y857" s="2"/>
     </row>
-    <row r="858" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="858" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A858" s="2"/>
       <c r="B858" s="2"/>
       <c r="C858" s="2"/>
@@ -23731,7 +23736,7 @@
       <c r="X858" s="2"/>
       <c r="Y858" s="2"/>
     </row>
-    <row r="859" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="859" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A859" s="2"/>
       <c r="B859" s="2"/>
       <c r="C859" s="2"/>
@@ -23758,7 +23763,7 @@
       <c r="X859" s="2"/>
       <c r="Y859" s="2"/>
     </row>
-    <row r="860" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="860" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A860" s="2"/>
       <c r="B860" s="2"/>
       <c r="C860" s="2"/>
@@ -23785,7 +23790,7 @@
       <c r="X860" s="2"/>
       <c r="Y860" s="2"/>
     </row>
-    <row r="861" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="861" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A861" s="2"/>
       <c r="B861" s="2"/>
       <c r="C861" s="2"/>
@@ -23812,7 +23817,7 @@
       <c r="X861" s="2"/>
       <c r="Y861" s="2"/>
     </row>
-    <row r="862" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="862" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A862" s="2"/>
       <c r="B862" s="2"/>
       <c r="C862" s="2"/>
@@ -23839,7 +23844,7 @@
       <c r="X862" s="2"/>
       <c r="Y862" s="2"/>
     </row>
-    <row r="863" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="863" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A863" s="2"/>
       <c r="B863" s="2"/>
       <c r="C863" s="2"/>
@@ -23866,7 +23871,7 @@
       <c r="X863" s="2"/>
       <c r="Y863" s="2"/>
     </row>
-    <row r="864" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="864" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A864" s="2"/>
       <c r="B864" s="2"/>
       <c r="C864" s="2"/>
@@ -23893,7 +23898,7 @@
       <c r="X864" s="2"/>
       <c r="Y864" s="2"/>
     </row>
-    <row r="865" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="865" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A865" s="2"/>
       <c r="B865" s="2"/>
       <c r="C865" s="2"/>
@@ -23920,7 +23925,7 @@
       <c r="X865" s="2"/>
       <c r="Y865" s="2"/>
     </row>
-    <row r="866" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="866" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A866" s="2"/>
       <c r="B866" s="2"/>
       <c r="C866" s="2"/>
@@ -23947,7 +23952,7 @@
       <c r="X866" s="2"/>
       <c r="Y866" s="2"/>
     </row>
-    <row r="867" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="867" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A867" s="2"/>
       <c r="B867" s="2"/>
       <c r="C867" s="2"/>
@@ -23974,7 +23979,7 @@
       <c r="X867" s="2"/>
       <c r="Y867" s="2"/>
     </row>
-    <row r="868" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="868" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A868" s="2"/>
       <c r="B868" s="2"/>
       <c r="C868" s="2"/>
@@ -24001,7 +24006,7 @@
       <c r="X868" s="2"/>
       <c r="Y868" s="2"/>
     </row>
-    <row r="869" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="869" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A869" s="2"/>
       <c r="B869" s="2"/>
       <c r="C869" s="2"/>
@@ -24028,7 +24033,7 @@
       <c r="X869" s="2"/>
       <c r="Y869" s="2"/>
     </row>
-    <row r="870" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="870" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A870" s="2"/>
       <c r="B870" s="2"/>
       <c r="C870" s="2"/>
@@ -24055,7 +24060,7 @@
       <c r="X870" s="2"/>
       <c r="Y870" s="2"/>
     </row>
-    <row r="871" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="871" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A871" s="2"/>
       <c r="B871" s="2"/>
       <c r="C871" s="2"/>
@@ -24082,7 +24087,7 @@
       <c r="X871" s="2"/>
       <c r="Y871" s="2"/>
     </row>
-    <row r="872" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="872" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A872" s="2"/>
       <c r="B872" s="2"/>
       <c r="C872" s="2"/>
@@ -24109,7 +24114,7 @@
       <c r="X872" s="2"/>
       <c r="Y872" s="2"/>
     </row>
-    <row r="873" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="873" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A873" s="2"/>
       <c r="B873" s="2"/>
       <c r="C873" s="2"/>
@@ -24136,7 +24141,7 @@
       <c r="X873" s="2"/>
       <c r="Y873" s="2"/>
     </row>
-    <row r="874" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="874" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A874" s="2"/>
       <c r="B874" s="2"/>
       <c r="C874" s="2"/>
@@ -24163,7 +24168,7 @@
       <c r="X874" s="2"/>
       <c r="Y874" s="2"/>
     </row>
-    <row r="875" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="875" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A875" s="2"/>
       <c r="B875" s="2"/>
       <c r="C875" s="2"/>
@@ -24190,7 +24195,7 @@
       <c r="X875" s="2"/>
       <c r="Y875" s="2"/>
     </row>
-    <row r="876" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="876" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A876" s="2"/>
       <c r="B876" s="2"/>
       <c r="C876" s="2"/>
@@ -24217,7 +24222,7 @@
       <c r="X876" s="2"/>
       <c r="Y876" s="2"/>
     </row>
-    <row r="877" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="877" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A877" s="2"/>
       <c r="B877" s="2"/>
       <c r="C877" s="2"/>
@@ -24244,7 +24249,7 @@
       <c r="X877" s="2"/>
       <c r="Y877" s="2"/>
     </row>
-    <row r="878" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="878" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A878" s="2"/>
       <c r="B878" s="2"/>
       <c r="C878" s="2"/>
@@ -24271,7 +24276,7 @@
       <c r="X878" s="2"/>
       <c r="Y878" s="2"/>
     </row>
-    <row r="879" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="879" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A879" s="2"/>
       <c r="B879" s="2"/>
       <c r="C879" s="2"/>
@@ -24298,7 +24303,7 @@
       <c r="X879" s="2"/>
       <c r="Y879" s="2"/>
     </row>
-    <row r="880" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="880" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A880" s="2"/>
       <c r="B880" s="2"/>
       <c r="C880" s="2"/>
@@ -24325,7 +24330,7 @@
       <c r="X880" s="2"/>
       <c r="Y880" s="2"/>
     </row>
-    <row r="881" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="881" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A881" s="2"/>
       <c r="B881" s="2"/>
       <c r="C881" s="2"/>
@@ -24352,7 +24357,7 @@
       <c r="X881" s="2"/>
       <c r="Y881" s="2"/>
     </row>
-    <row r="882" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="882" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A882" s="2"/>
       <c r="B882" s="2"/>
       <c r="C882" s="2"/>
@@ -24379,7 +24384,7 @@
       <c r="X882" s="2"/>
       <c r="Y882" s="2"/>
     </row>
-    <row r="883" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="883" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A883" s="2"/>
       <c r="B883" s="2"/>
       <c r="C883" s="2"/>
@@ -24406,7 +24411,7 @@
       <c r="X883" s="2"/>
       <c r="Y883" s="2"/>
     </row>
-    <row r="884" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="884" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A884" s="2"/>
       <c r="B884" s="2"/>
       <c r="C884" s="2"/>
@@ -24433,7 +24438,7 @@
       <c r="X884" s="2"/>
       <c r="Y884" s="2"/>
     </row>
-    <row r="885" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="885" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A885" s="2"/>
       <c r="B885" s="2"/>
       <c r="C885" s="2"/>
@@ -24460,7 +24465,7 @@
       <c r="X885" s="2"/>
       <c r="Y885" s="2"/>
     </row>
-    <row r="886" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="886" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A886" s="2"/>
       <c r="B886" s="2"/>
       <c r="C886" s="2"/>
@@ -24487,7 +24492,7 @@
       <c r="X886" s="2"/>
       <c r="Y886" s="2"/>
     </row>
-    <row r="887" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="887" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A887" s="2"/>
       <c r="B887" s="2"/>
       <c r="C887" s="2"/>
@@ -24514,7 +24519,7 @@
       <c r="X887" s="2"/>
       <c r="Y887" s="2"/>
     </row>
-    <row r="888" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="888" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A888" s="2"/>
       <c r="B888" s="2"/>
       <c r="C888" s="2"/>
@@ -24541,7 +24546,7 @@
       <c r="X888" s="2"/>
       <c r="Y888" s="2"/>
     </row>
-    <row r="889" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="889" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A889" s="2"/>
       <c r="B889" s="2"/>
       <c r="C889" s="2"/>
@@ -24568,7 +24573,7 @@
       <c r="X889" s="2"/>
       <c r="Y889" s="2"/>
     </row>
-    <row r="890" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="890" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A890" s="2"/>
       <c r="B890" s="2"/>
       <c r="C890" s="2"/>
@@ -24595,7 +24600,7 @@
       <c r="X890" s="2"/>
       <c r="Y890" s="2"/>
     </row>
-    <row r="891" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="891" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A891" s="2"/>
       <c r="B891" s="2"/>
       <c r="C891" s="2"/>
@@ -24622,7 +24627,7 @@
       <c r="X891" s="2"/>
       <c r="Y891" s="2"/>
     </row>
-    <row r="892" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="892" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A892" s="2"/>
       <c r="B892" s="2"/>
       <c r="C892" s="2"/>
@@ -24649,7 +24654,7 @@
       <c r="X892" s="2"/>
       <c r="Y892" s="2"/>
     </row>
-    <row r="893" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="893" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A893" s="2"/>
       <c r="B893" s="2"/>
       <c r="C893" s="2"/>
@@ -24676,7 +24681,7 @@
       <c r="X893" s="2"/>
       <c r="Y893" s="2"/>
     </row>
-    <row r="894" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="894" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A894" s="2"/>
       <c r="B894" s="2"/>
       <c r="C894" s="2"/>
@@ -24703,7 +24708,7 @@
       <c r="X894" s="2"/>
       <c r="Y894" s="2"/>
     </row>
-    <row r="895" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="895" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A895" s="2"/>
       <c r="B895" s="2"/>
       <c r="C895" s="2"/>
@@ -24730,7 +24735,7 @@
       <c r="X895" s="2"/>
       <c r="Y895" s="2"/>
     </row>
-    <row r="896" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="896" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A896" s="2"/>
       <c r="B896" s="2"/>
       <c r="C896" s="2"/>
@@ -24757,7 +24762,7 @@
       <c r="X896" s="2"/>
       <c r="Y896" s="2"/>
     </row>
-    <row r="897" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="897" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A897" s="2"/>
       <c r="B897" s="2"/>
       <c r="C897" s="2"/>
@@ -24784,7 +24789,7 @@
       <c r="X897" s="2"/>
       <c r="Y897" s="2"/>
     </row>
-    <row r="898" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="898" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A898" s="2"/>
       <c r="B898" s="2"/>
       <c r="C898" s="2"/>
@@ -24811,7 +24816,7 @@
       <c r="X898" s="2"/>
       <c r="Y898" s="2"/>
     </row>
-    <row r="899" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="899" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A899" s="2"/>
       <c r="B899" s="2"/>
       <c r="C899" s="2"/>
@@ -24838,7 +24843,7 @@
       <c r="X899" s="2"/>
       <c r="Y899" s="2"/>
     </row>
-    <row r="900" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="900" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A900" s="2"/>
       <c r="B900" s="2"/>
       <c r="C900" s="2"/>
@@ -24865,7 +24870,7 @@
       <c r="X900" s="2"/>
       <c r="Y900" s="2"/>
     </row>
-    <row r="901" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="901" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A901" s="2"/>
       <c r="B901" s="2"/>
       <c r="C901" s="2"/>
@@ -24892,7 +24897,7 @@
       <c r="X901" s="2"/>
       <c r="Y901" s="2"/>
     </row>
-    <row r="902" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="902" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A902" s="2"/>
       <c r="B902" s="2"/>
       <c r="C902" s="2"/>
@@ -24919,7 +24924,7 @@
       <c r="X902" s="2"/>
       <c r="Y902" s="2"/>
     </row>
-    <row r="903" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="903" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A903" s="2"/>
       <c r="B903" s="2"/>
       <c r="C903" s="2"/>
@@ -24946,7 +24951,7 @@
       <c r="X903" s="2"/>
       <c r="Y903" s="2"/>
     </row>
-    <row r="904" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="904" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A904" s="2"/>
       <c r="B904" s="2"/>
       <c r="C904" s="2"/>
@@ -24973,7 +24978,7 @@
       <c r="X904" s="2"/>
       <c r="Y904" s="2"/>
     </row>
-    <row r="905" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="905" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A905" s="2"/>
       <c r="B905" s="2"/>
       <c r="C905" s="2"/>
@@ -25000,7 +25005,7 @@
       <c r="X905" s="2"/>
       <c r="Y905" s="2"/>
     </row>
-    <row r="906" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="906" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A906" s="2"/>
       <c r="B906" s="2"/>
       <c r="C906" s="2"/>
@@ -25027,7 +25032,7 @@
       <c r="X906" s="2"/>
       <c r="Y906" s="2"/>
     </row>
-    <row r="907" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="907" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A907" s="2"/>
       <c r="B907" s="2"/>
       <c r="C907" s="2"/>
@@ -25054,7 +25059,7 @@
       <c r="X907" s="2"/>
       <c r="Y907" s="2"/>
     </row>
-    <row r="908" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="908" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A908" s="2"/>
       <c r="B908" s="2"/>
       <c r="C908" s="2"/>
@@ -25081,7 +25086,7 @@
       <c r="X908" s="2"/>
       <c r="Y908" s="2"/>
     </row>
-    <row r="909" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="909" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A909" s="2"/>
       <c r="B909" s="2"/>
       <c r="C909" s="2"/>
@@ -25108,7 +25113,7 @@
       <c r="X909" s="2"/>
       <c r="Y909" s="2"/>
     </row>
-    <row r="910" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="910" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A910" s="2"/>
       <c r="B910" s="2"/>
       <c r="C910" s="2"/>
@@ -25135,7 +25140,7 @@
       <c r="X910" s="2"/>
       <c r="Y910" s="2"/>
     </row>
-    <row r="911" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="911" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A911" s="2"/>
       <c r="B911" s="2"/>
       <c r="C911" s="2"/>
@@ -25162,7 +25167,7 @@
       <c r="X911" s="2"/>
       <c r="Y911" s="2"/>
     </row>
-    <row r="912" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="912" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A912" s="2"/>
       <c r="B912" s="2"/>
       <c r="C912" s="2"/>
@@ -25189,7 +25194,7 @@
       <c r="X912" s="2"/>
       <c r="Y912" s="2"/>
     </row>
-    <row r="913" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="913" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A913" s="2"/>
       <c r="B913" s="2"/>
       <c r="C913" s="2"/>
@@ -25216,7 +25221,7 @@
       <c r="X913" s="2"/>
       <c r="Y913" s="2"/>
     </row>
-    <row r="914" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="914" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A914" s="2"/>
       <c r="B914" s="2"/>
       <c r="C914" s="2"/>
@@ -25243,7 +25248,7 @@
       <c r="X914" s="2"/>
       <c r="Y914" s="2"/>
     </row>
-    <row r="915" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="915" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A915" s="2"/>
       <c r="B915" s="2"/>
       <c r="C915" s="2"/>
@@ -25270,7 +25275,7 @@
       <c r="X915" s="2"/>
       <c r="Y915" s="2"/>
     </row>
-    <row r="916" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="916" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A916" s="2"/>
       <c r="B916" s="2"/>
       <c r="C916" s="2"/>
@@ -25297,7 +25302,7 @@
       <c r="X916" s="2"/>
       <c r="Y916" s="2"/>
     </row>
-    <row r="917" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="917" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A917" s="2"/>
       <c r="B917" s="2"/>
       <c r="C917" s="2"/>
@@ -25324,7 +25329,7 @@
       <c r="X917" s="2"/>
       <c r="Y917" s="2"/>
     </row>
-    <row r="918" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="918" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A918" s="2"/>
       <c r="B918" s="2"/>
       <c r="C918" s="2"/>
@@ -25351,7 +25356,7 @@
       <c r="X918" s="2"/>
       <c r="Y918" s="2"/>
     </row>
-    <row r="919" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="919" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A919" s="2"/>
       <c r="B919" s="2"/>
       <c r="C919" s="2"/>
@@ -25378,7 +25383,7 @@
       <c r="X919" s="2"/>
       <c r="Y919" s="2"/>
     </row>
-    <row r="920" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="920" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A920" s="2"/>
       <c r="B920" s="2"/>
       <c r="C920" s="2"/>
@@ -25405,7 +25410,7 @@
       <c r="X920" s="2"/>
       <c r="Y920" s="2"/>
     </row>
-    <row r="921" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="921" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A921" s="2"/>
       <c r="B921" s="2"/>
       <c r="C921" s="2"/>
@@ -25432,7 +25437,7 @@
       <c r="X921" s="2"/>
       <c r="Y921" s="2"/>
     </row>
-    <row r="922" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="922" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A922" s="2"/>
       <c r="B922" s="2"/>
       <c r="C922" s="2"/>
@@ -25459,7 +25464,7 @@
       <c r="X922" s="2"/>
       <c r="Y922" s="2"/>
     </row>
-    <row r="923" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="923" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A923" s="2"/>
       <c r="B923" s="2"/>
       <c r="C923" s="2"/>
@@ -25486,7 +25491,7 @@
       <c r="X923" s="2"/>
       <c r="Y923" s="2"/>
     </row>
-    <row r="924" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="924" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A924" s="2"/>
       <c r="B924" s="2"/>
       <c r="C924" s="2"/>
@@ -25513,7 +25518,7 @@
       <c r="X924" s="2"/>
       <c r="Y924" s="2"/>
     </row>
-    <row r="925" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="925" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A925" s="2"/>
       <c r="B925" s="2"/>
       <c r="C925" s="2"/>
@@ -25540,7 +25545,7 @@
       <c r="X925" s="2"/>
       <c r="Y925" s="2"/>
     </row>
-    <row r="926" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="926" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A926" s="2"/>
       <c r="B926" s="2"/>
       <c r="C926" s="2"/>
@@ -25567,7 +25572,7 @@
       <c r="X926" s="2"/>
       <c r="Y926" s="2"/>
     </row>
-    <row r="927" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="927" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A927" s="2"/>
       <c r="B927" s="2"/>
       <c r="C927" s="2"/>
@@ -25594,7 +25599,7 @@
       <c r="X927" s="2"/>
       <c r="Y927" s="2"/>
     </row>
-    <row r="928" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="928" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A928" s="2"/>
       <c r="B928" s="2"/>
       <c r="C928" s="2"/>
@@ -25621,7 +25626,7 @@
       <c r="X928" s="2"/>
       <c r="Y928" s="2"/>
     </row>
-    <row r="929" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="929" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A929" s="2"/>
       <c r="B929" s="2"/>
       <c r="C929" s="2"/>
@@ -25648,7 +25653,7 @@
       <c r="X929" s="2"/>
       <c r="Y929" s="2"/>
     </row>
-    <row r="930" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="930" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A930" s="2"/>
       <c r="B930" s="2"/>
       <c r="C930" s="2"/>
@@ -25675,7 +25680,7 @@
       <c r="X930" s="2"/>
       <c r="Y930" s="2"/>
     </row>
-    <row r="931" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="931" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A931" s="2"/>
       <c r="B931" s="2"/>
       <c r="C931" s="2"/>
@@ -25702,7 +25707,7 @@
       <c r="X931" s="2"/>
       <c r="Y931" s="2"/>
     </row>
-    <row r="932" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="932" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A932" s="2"/>
       <c r="B932" s="2"/>
       <c r="C932" s="2"/>
@@ -25729,7 +25734,7 @@
       <c r="X932" s="2"/>
       <c r="Y932" s="2"/>
     </row>
-    <row r="933" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="933" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A933" s="2"/>
       <c r="B933" s="2"/>
       <c r="C933" s="2"/>
@@ -25756,7 +25761,7 @@
       <c r="X933" s="2"/>
       <c r="Y933" s="2"/>
     </row>
-    <row r="934" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="934" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A934" s="2"/>
       <c r="B934" s="2"/>
       <c r="C934" s="2"/>
@@ -25783,7 +25788,7 @@
       <c r="X934" s="2"/>
       <c r="Y934" s="2"/>
     </row>
-    <row r="935" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="935" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A935" s="2"/>
       <c r="B935" s="2"/>
       <c r="C935" s="2"/>
@@ -25810,7 +25815,7 @@
       <c r="X935" s="2"/>
       <c r="Y935" s="2"/>
     </row>
-    <row r="936" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="936" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A936" s="2"/>
       <c r="B936" s="2"/>
       <c r="C936" s="2"/>
@@ -25837,7 +25842,7 @@
       <c r="X936" s="2"/>
       <c r="Y936" s="2"/>
     </row>
-    <row r="937" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="937" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A937" s="2"/>
       <c r="B937" s="2"/>
       <c r="C937" s="2"/>
@@ -25864,7 +25869,7 @@
       <c r="X937" s="2"/>
       <c r="Y937" s="2"/>
     </row>
-    <row r="938" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="938" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A938" s="2"/>
       <c r="B938" s="2"/>
       <c r="C938" s="2"/>
@@ -25891,7 +25896,7 @@
       <c r="X938" s="2"/>
       <c r="Y938" s="2"/>
     </row>
-    <row r="939" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="939" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A939" s="2"/>
       <c r="B939" s="2"/>
       <c r="C939" s="2"/>
@@ -25918,7 +25923,7 @@
       <c r="X939" s="2"/>
       <c r="Y939" s="2"/>
     </row>
-    <row r="940" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="940" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A940" s="2"/>
       <c r="B940" s="2"/>
       <c r="C940" s="2"/>
@@ -25945,7 +25950,7 @@
       <c r="X940" s="2"/>
       <c r="Y940" s="2"/>
     </row>
-    <row r="941" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="941" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A941" s="2"/>
       <c r="B941" s="2"/>
       <c r="C941" s="2"/>
@@ -25972,7 +25977,7 @@
       <c r="X941" s="2"/>
       <c r="Y941" s="2"/>
     </row>
-    <row r="942" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="942" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A942" s="2"/>
       <c r="B942" s="2"/>
       <c r="C942" s="2"/>
@@ -25999,7 +26004,7 @@
       <c r="X942" s="2"/>
       <c r="Y942" s="2"/>
     </row>
-    <row r="943" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="943" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A943" s="2"/>
       <c r="B943" s="2"/>
       <c r="C943" s="2"/>
@@ -26026,7 +26031,7 @@
       <c r="X943" s="2"/>
       <c r="Y943" s="2"/>
     </row>
-    <row r="944" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="944" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A944" s="2"/>
       <c r="B944" s="2"/>
       <c r="C944" s="2"/>
@@ -26053,7 +26058,7 @@
       <c r="X944" s="2"/>
       <c r="Y944" s="2"/>
     </row>
-    <row r="945" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="945" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A945" s="2"/>
       <c r="B945" s="2"/>
       <c r="C945" s="2"/>
@@ -26080,7 +26085,7 @@
       <c r="X945" s="2"/>
       <c r="Y945" s="2"/>
     </row>
-    <row r="946" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="946" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A946" s="2"/>
       <c r="B946" s="2"/>
       <c r="C946" s="2"/>
@@ -26107,7 +26112,7 @@
       <c r="X946" s="2"/>
       <c r="Y946" s="2"/>
     </row>
-    <row r="947" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="947" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A947" s="2"/>
       <c r="B947" s="2"/>
       <c r="C947" s="2"/>
@@ -26134,7 +26139,7 @@
       <c r="X947" s="2"/>
       <c r="Y947" s="2"/>
     </row>
-    <row r="948" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="948" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A948" s="2"/>
       <c r="B948" s="2"/>
       <c r="C948" s="2"/>
@@ -26161,7 +26166,7 @@
       <c r="X948" s="2"/>
       <c r="Y948" s="2"/>
     </row>
-    <row r="949" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="949" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A949" s="2"/>
       <c r="B949" s="2"/>
       <c r="C949" s="2"/>
@@ -26188,7 +26193,7 @@
       <c r="X949" s="2"/>
       <c r="Y949" s="2"/>
     </row>
-    <row r="950" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="950" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A950" s="2"/>
       <c r="B950" s="2"/>
       <c r="C950" s="2"/>
@@ -26215,7 +26220,7 @@
       <c r="X950" s="2"/>
       <c r="Y950" s="2"/>
     </row>
-    <row r="951" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="951" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A951" s="2"/>
       <c r="B951" s="2"/>
       <c r="C951" s="2"/>
@@ -26242,7 +26247,7 @@
       <c r="X951" s="2"/>
       <c r="Y951" s="2"/>
     </row>
-    <row r="952" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="952" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A952" s="2"/>
       <c r="B952" s="2"/>
       <c r="C952" s="2"/>
@@ -26269,7 +26274,7 @@
       <c r="X952" s="2"/>
       <c r="Y952" s="2"/>
     </row>
-    <row r="953" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="953" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A953" s="2"/>
       <c r="B953" s="2"/>
       <c r="C953" s="2"/>
@@ -26296,7 +26301,7 @@
       <c r="X953" s="2"/>
       <c r="Y953" s="2"/>
     </row>
-    <row r="954" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="954" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A954" s="2"/>
       <c r="B954" s="2"/>
       <c r="C954" s="2"/>
@@ -26323,7 +26328,7 @@
       <c r="X954" s="2"/>
       <c r="Y954" s="2"/>
     </row>
-    <row r="955" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="955" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A955" s="2"/>
       <c r="B955" s="2"/>
       <c r="C955" s="2"/>
@@ -26350,7 +26355,7 @@
       <c r="X955" s="2"/>
       <c r="Y955" s="2"/>
     </row>
-    <row r="956" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="956" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A956" s="2"/>
       <c r="B956" s="2"/>
       <c r="C956" s="2"/>
@@ -26377,7 +26382,7 @@
       <c r="X956" s="2"/>
       <c r="Y956" s="2"/>
     </row>
-    <row r="957" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="957" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A957" s="2"/>
       <c r="B957" s="2"/>
       <c r="C957" s="2"/>
@@ -26404,7 +26409,7 @@
       <c r="X957" s="2"/>
       <c r="Y957" s="2"/>
     </row>
-    <row r="958" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="958" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A958" s="2"/>
       <c r="B958" s="2"/>
       <c r="C958" s="2"/>
@@ -26431,7 +26436,7 @@
       <c r="X958" s="2"/>
       <c r="Y958" s="2"/>
     </row>
-    <row r="959" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="959" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A959" s="2"/>
       <c r="B959" s="2"/>
       <c r="C959" s="2"/>
@@ -26458,7 +26463,7 @@
       <c r="X959" s="2"/>
       <c r="Y959" s="2"/>
     </row>
-    <row r="960" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="960" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A960" s="2"/>
       <c r="B960" s="2"/>
       <c r="C960" s="2"/>
@@ -26485,7 +26490,7 @@
       <c r="X960" s="2"/>
       <c r="Y960" s="2"/>
     </row>
-    <row r="961" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="961" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A961" s="2"/>
       <c r="B961" s="2"/>
       <c r="C961" s="2"/>
@@ -26512,7 +26517,7 @@
       <c r="X961" s="2"/>
       <c r="Y961" s="2"/>
     </row>
-    <row r="962" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="962" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A962" s="2"/>
       <c r="B962" s="2"/>
       <c r="C962" s="2"/>
@@ -26539,7 +26544,7 @@
       <c r="X962" s="2"/>
       <c r="Y962" s="2"/>
     </row>
-    <row r="963" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="963" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A963" s="2"/>
       <c r="B963" s="2"/>
       <c r="C963" s="2"/>
@@ -26566,7 +26571,7 @@
       <c r="X963" s="2"/>
       <c r="Y963" s="2"/>
     </row>
-    <row r="964" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="964" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A964" s="2"/>
       <c r="B964" s="2"/>
       <c r="C964" s="2"/>
@@ -26593,7 +26598,7 @@
       <c r="X964" s="2"/>
       <c r="Y964" s="2"/>
     </row>
-    <row r="965" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="965" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A965" s="2"/>
       <c r="B965" s="2"/>
       <c r="C965" s="2"/>
@@ -26620,7 +26625,7 @@
       <c r="X965" s="2"/>
       <c r="Y965" s="2"/>
     </row>
-    <row r="966" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="966" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A966" s="2"/>
       <c r="B966" s="2"/>
       <c r="C966" s="2"/>
@@ -26647,7 +26652,7 @@
       <c r="X966" s="2"/>
       <c r="Y966" s="2"/>
     </row>
-    <row r="967" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="967" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A967" s="2"/>
       <c r="B967" s="2"/>
       <c r="C967" s="2"/>
@@ -26674,7 +26679,7 @@
       <c r="X967" s="2"/>
       <c r="Y967" s="2"/>
     </row>
-    <row r="968" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="968" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A968" s="2"/>
       <c r="B968" s="2"/>
       <c r="C968" s="2"/>
@@ -26701,7 +26706,7 @@
       <c r="X968" s="2"/>
       <c r="Y968" s="2"/>
     </row>
-    <row r="969" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="969" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A969" s="2"/>
       <c r="B969" s="2"/>
       <c r="C969" s="2"/>
@@ -26728,7 +26733,7 @@
       <c r="X969" s="2"/>
       <c r="Y969" s="2"/>
     </row>
-    <row r="970" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="970" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A970" s="2"/>
       <c r="B970" s="2"/>
       <c r="C970" s="2"/>
@@ -26755,7 +26760,7 @@
       <c r="X970" s="2"/>
       <c r="Y970" s="2"/>
     </row>
-    <row r="971" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="971" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A971" s="2"/>
       <c r="B971" s="2"/>
       <c r="C971" s="2"/>
@@ -26782,7 +26787,7 @@
       <c r="X971" s="2"/>
       <c r="Y971" s="2"/>
     </row>
-    <row r="972" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="972" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A972" s="2"/>
       <c r="B972" s="2"/>
       <c r="C972" s="2"/>
@@ -26809,7 +26814,7 @@
       <c r="X972" s="2"/>
       <c r="Y972" s="2"/>
     </row>
-    <row r="973" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="973" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A973" s="2"/>
       <c r="B973" s="2"/>
       <c r="C973" s="2"/>
@@ -26836,7 +26841,7 @@
       <c r="X973" s="2"/>
       <c r="Y973" s="2"/>
     </row>
-    <row r="974" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="974" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A974" s="2"/>
       <c r="B974" s="2"/>
       <c r="C974" s="2"/>
@@ -26863,7 +26868,7 @@
       <c r="X974" s="2"/>
       <c r="Y974" s="2"/>
     </row>
-    <row r="975" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="975" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A975" s="2"/>
       <c r="B975" s="2"/>
       <c r="C975" s="2"/>
@@ -26890,7 +26895,7 @@
       <c r="X975" s="2"/>
       <c r="Y975" s="2"/>
     </row>
-    <row r="976" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="976" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A976" s="2"/>
       <c r="B976" s="2"/>
       <c r="C976" s="2"/>
@@ -26917,7 +26922,7 @@
       <c r="X976" s="2"/>
       <c r="Y976" s="2"/>
     </row>
-    <row r="977" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="977" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A977" s="2"/>
       <c r="B977" s="2"/>
       <c r="C977" s="2"/>
@@ -26944,7 +26949,7 @@
       <c r="X977" s="2"/>
       <c r="Y977" s="2"/>
     </row>
-    <row r="978" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="978" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A978" s="2"/>
       <c r="B978" s="2"/>
       <c r="C978" s="2"/>
@@ -26971,7 +26976,7 @@
       <c r="X978" s="2"/>
       <c r="Y978" s="2"/>
     </row>
-    <row r="979" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="979" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A979" s="2"/>
       <c r="B979" s="2"/>
       <c r="C979" s="2"/>
@@ -26998,7 +27003,7 @@
       <c r="X979" s="2"/>
       <c r="Y979" s="2"/>
     </row>
-    <row r="980" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="980" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A980" s="2"/>
       <c r="B980" s="2"/>
       <c r="C980" s="2"/>
@@ -27025,7 +27030,7 @@
       <c r="X980" s="2"/>
       <c r="Y980" s="2"/>
     </row>
-    <row r="981" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="981" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A981" s="2"/>
       <c r="B981" s="2"/>
       <c r="C981" s="2"/>
@@ -27052,7 +27057,7 @@
       <c r="X981" s="2"/>
       <c r="Y981" s="2"/>
     </row>
-    <row r="982" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="982" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A982" s="2"/>
       <c r="B982" s="2"/>
       <c r="C982" s="2"/>
@@ -27079,7 +27084,7 @@
       <c r="X982" s="2"/>
       <c r="Y982" s="2"/>
     </row>
-    <row r="983" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="983" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A983" s="2"/>
       <c r="B983" s="2"/>
       <c r="C983" s="2"/>
@@ -27106,7 +27111,7 @@
       <c r="X983" s="2"/>
       <c r="Y983" s="2"/>
     </row>
-    <row r="984" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="984" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A984" s="2"/>
       <c r="B984" s="2"/>
       <c r="C984" s="2"/>
@@ -27133,7 +27138,7 @@
       <c r="X984" s="2"/>
       <c r="Y984" s="2"/>
     </row>
-    <row r="985" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="985" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A985" s="2"/>
       <c r="B985" s="2"/>
       <c r="C985" s="2"/>
@@ -27160,7 +27165,7 @@
       <c r="X985" s="2"/>
       <c r="Y985" s="2"/>
     </row>
-    <row r="986" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="986" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A986" s="2"/>
       <c r="B986" s="2"/>
       <c r="C986" s="2"/>
@@ -27187,7 +27192,7 @@
       <c r="X986" s="2"/>
       <c r="Y986" s="2"/>
     </row>
-    <row r="987" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="987" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A987" s="2"/>
       <c r="B987" s="2"/>
       <c r="C987" s="2"/>
@@ -27214,7 +27219,7 @@
       <c r="X987" s="2"/>
       <c r="Y987" s="2"/>
     </row>
-    <row r="988" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="988" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A988" s="2"/>
       <c r="B988" s="2"/>
       <c r="C988" s="2"/>
@@ -27241,7 +27246,7 @@
       <c r="X988" s="2"/>
       <c r="Y988" s="2"/>
     </row>
-    <row r="989" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="989" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A989" s="2"/>
       <c r="B989" s="2"/>
       <c r="C989" s="2"/>
@@ -27268,7 +27273,7 @@
       <c r="X989" s="2"/>
       <c r="Y989" s="2"/>
     </row>
-    <row r="990" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="990" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A990" s="2"/>
       <c r="B990" s="2"/>
       <c r="C990" s="2"/>
@@ -27295,7 +27300,7 @@
       <c r="X990" s="2"/>
       <c r="Y990" s="2"/>
     </row>
-    <row r="991" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="991" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A991" s="2"/>
       <c r="B991" s="2"/>
       <c r="C991" s="2"/>
@@ -27322,7 +27327,7 @@
       <c r="X991" s="2"/>
       <c r="Y991" s="2"/>
     </row>
-    <row r="992" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="992" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A992" s="2"/>
       <c r="B992" s="2"/>
       <c r="C992" s="2"/>

--- a/misc/epiparms.xlsx
+++ b/misc/epiparms.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Software\spatialEpisim\misc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAA45813-EAB2-4F88-B07E-5DBDEC84319D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D7418E5-818D-4F4A-B867-1C04857637F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-25320" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,9 +36,6 @@
     <t>ISONumeric</t>
   </si>
   <si>
-    <t>Model</t>
-  </si>
-  <si>
     <t>alpha</t>
   </si>
   <si>
@@ -54,25 +51,7 @@
     <t>delta</t>
   </si>
   <si>
-    <t>Lambda</t>
-  </si>
-  <si>
-    <t>Start Date</t>
-  </si>
-  <si>
-    <t>End Date</t>
-  </si>
-  <si>
     <t>numIterations</t>
-  </si>
-  <si>
-    <t>Data Source</t>
-  </si>
-  <si>
-    <t>Disease</t>
-  </si>
-  <si>
-    <t>Scenario</t>
   </si>
   <si>
     <t>CZE</t>
@@ -100,6 +79,27 @@
   </si>
   <si>
     <t>Vaccinations</t>
+  </si>
+  <si>
+    <t>lambda</t>
+  </si>
+  <si>
+    <t>startDate</t>
+  </si>
+  <si>
+    <t>endDate</t>
+  </si>
+  <si>
+    <t>dataSource</t>
+  </si>
+  <si>
+    <t>disease</t>
+  </si>
+  <si>
+    <t>scenario</t>
+  </si>
+  <si>
+    <t>model</t>
   </si>
 </sst>
 </file>
@@ -491,7 +491,7 @@
   <dimension ref="A1:Y992"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -516,43 +516,43 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>10</v>
-      </c>
       <c r="L1" s="6" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="M1" s="6" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
@@ -568,10 +568,10 @@
     </row>
     <row r="2" spans="1:25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C2" s="9">
         <v>0</v>
@@ -601,13 +601,13 @@
         <v>120</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
@@ -623,10 +623,10 @@
     </row>
     <row r="3" spans="1:25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C3" s="9">
         <v>0</v>
@@ -656,13 +656,13 @@
         <v>120</v>
       </c>
       <c r="L3" s="9" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="M3" s="9" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="N3" s="9" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
@@ -678,10 +678,10 @@
     </row>
     <row r="4" spans="1:25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C4" s="10">
         <v>1.5E-3</v>
@@ -711,13 +711,13 @@
         <v>120</v>
       </c>
       <c r="L4" s="9" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="M4" s="9" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="N4" s="9" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
@@ -733,10 +733,10 @@
     </row>
     <row r="5" spans="1:25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C5" s="10">
         <v>1E-4</v>
@@ -766,13 +766,13 @@
         <v>120</v>
       </c>
       <c r="L5" s="9" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="M5" s="9" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="N5" s="9" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>

--- a/misc/epiparms.xlsx
+++ b/misc/epiparms.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Software\spatialEpisim\misc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ashok Krishnamurthy\Desktop\spatialEpisim\misc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D7418E5-818D-4F4A-B867-1C04857637F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9F7C841-F0CC-4AFE-967E-DA949B52AEF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25320" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="epiparms" sheetId="1" r:id="rId1"/>
@@ -229,7 +229,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -267,7 +267,19 @@
     <xf numFmtId="15" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -490,38 +502,36 @@
   </sheetPr>
   <dimension ref="A1:Y992"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" customWidth="1"/>
-    <col min="6" max="7" width="8.140625" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" customWidth="1"/>
-    <col min="11" max="11" width="16.28515625" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" customWidth="1"/>
-    <col min="13" max="13" width="11.7109375" customWidth="1"/>
-    <col min="14" max="14" width="16.5703125" customWidth="1"/>
+    <col min="1" max="1" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="7" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="6" t="s">
@@ -530,7 +540,7 @@
       <c r="F1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="7" t="s">
         <v>5</v>
       </c>
       <c r="H1" s="7" t="s">
@@ -566,47 +576,47 @@
       <c r="X1" s="1"/>
       <c r="Y1" s="1"/>
     </row>
-    <row r="2" spans="1:25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:25" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="9">
+      <c r="C2" s="14">
         <v>0</v>
       </c>
-      <c r="D2" s="13">
+      <c r="D2" s="15">
         <v>0.04</v>
       </c>
-      <c r="E2" s="9">
+      <c r="E2" s="14">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="F2" s="9">
+      <c r="F2" s="14">
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="G2" s="9">
+      <c r="G2" s="14">
         <v>1.5E-3</v>
       </c>
-      <c r="H2" s="10">
+      <c r="H2" s="15">
         <v>15</v>
       </c>
-      <c r="I2" s="11">
+      <c r="I2" s="16">
         <v>44075</v>
       </c>
-      <c r="J2" s="12">
+      <c r="J2" s="17">
         <v>44195</v>
       </c>
-      <c r="K2" s="9">
+      <c r="K2" s="14">
         <v>120</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="L2" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="M2" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="N2" s="9" t="s">
+      <c r="N2" s="14" t="s">
         <v>11</v>
       </c>
       <c r="O2" s="2"/>
@@ -621,7 +631,7 @@
       <c r="X2" s="2"/>
       <c r="Y2" s="2"/>
     </row>
-    <row r="3" spans="1:25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>12</v>
       </c>
@@ -631,8 +641,8 @@
       <c r="C3" s="9">
         <v>0</v>
       </c>
-      <c r="D3" s="13">
-        <v>5.0000000000000002E-5</v>
+      <c r="D3" s="10">
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="E3" s="9">
         <v>8.0000000000000002E-3</v>
@@ -676,7 +686,7 @@
       <c r="X3" s="2"/>
       <c r="Y3" s="2"/>
     </row>
-    <row r="4" spans="1:25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>7</v>
       </c>
@@ -686,7 +696,7 @@
       <c r="C4" s="10">
         <v>1.5E-3</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="10">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="E4" s="9">
@@ -731,7 +741,7 @@
       <c r="X4" s="2"/>
       <c r="Y4" s="2"/>
     </row>
-    <row r="5" spans="1:25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>12</v>
       </c>
@@ -741,7 +751,7 @@
       <c r="C5" s="10">
         <v>1E-4</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="10">
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="E5" s="9">
@@ -786,7 +796,7 @@
       <c r="X5" s="2"/>
       <c r="Y5" s="2"/>
     </row>
-    <row r="9" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -813,7 +823,7 @@
       <c r="X9" s="2"/>
       <c r="Y9" s="2"/>
     </row>
-    <row r="10" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -840,7 +850,7 @@
       <c r="X10" s="2"/>
       <c r="Y10" s="2"/>
     </row>
-    <row r="11" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -867,7 +877,7 @@
       <c r="X11" s="2"/>
       <c r="Y11" s="2"/>
     </row>
-    <row r="12" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -894,7 +904,7 @@
       <c r="X12" s="2"/>
       <c r="Y12" s="2"/>
     </row>
-    <row r="13" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -921,7 +931,7 @@
       <c r="X13" s="2"/>
       <c r="Y13" s="2"/>
     </row>
-    <row r="14" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -948,7 +958,7 @@
       <c r="X14" s="2"/>
       <c r="Y14" s="2"/>
     </row>
-    <row r="15" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -975,7 +985,7 @@
       <c r="X15" s="2"/>
       <c r="Y15" s="2"/>
     </row>
-    <row r="16" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -1002,7 +1012,7 @@
       <c r="X16" s="2"/>
       <c r="Y16" s="2"/>
     </row>
-    <row r="17" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -1029,7 +1039,7 @@
       <c r="X17" s="2"/>
       <c r="Y17" s="2"/>
     </row>
-    <row r="18" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -1056,7 +1066,7 @@
       <c r="X18" s="2"/>
       <c r="Y18" s="2"/>
     </row>
-    <row r="19" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -1083,7 +1093,7 @@
       <c r="X19" s="2"/>
       <c r="Y19" s="2"/>
     </row>
-    <row r="20" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -1110,7 +1120,7 @@
       <c r="X20" s="2"/>
       <c r="Y20" s="2"/>
     </row>
-    <row r="21" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -1137,7 +1147,7 @@
       <c r="X21" s="2"/>
       <c r="Y21" s="2"/>
     </row>
-    <row r="22" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -1164,7 +1174,7 @@
       <c r="X22" s="2"/>
       <c r="Y22" s="2"/>
     </row>
-    <row r="23" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -1191,7 +1201,7 @@
       <c r="X23" s="2"/>
       <c r="Y23" s="2"/>
     </row>
-    <row r="24" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -1218,7 +1228,7 @@
       <c r="X24" s="2"/>
       <c r="Y24" s="2"/>
     </row>
-    <row r="25" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -1245,7 +1255,7 @@
       <c r="X25" s="2"/>
       <c r="Y25" s="2"/>
     </row>
-    <row r="26" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -1272,7 +1282,7 @@
       <c r="X26" s="2"/>
       <c r="Y26" s="2"/>
     </row>
-    <row r="27" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -1299,7 +1309,7 @@
       <c r="X27" s="2"/>
       <c r="Y27" s="2"/>
     </row>
-    <row r="28" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -1326,7 +1336,7 @@
       <c r="X28" s="2"/>
       <c r="Y28" s="2"/>
     </row>
-    <row r="29" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -1353,7 +1363,7 @@
       <c r="X29" s="2"/>
       <c r="Y29" s="2"/>
     </row>
-    <row r="30" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -1380,7 +1390,7 @@
       <c r="X30" s="2"/>
       <c r="Y30" s="2"/>
     </row>
-    <row r="31" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -1407,7 +1417,7 @@
       <c r="X31" s="2"/>
       <c r="Y31" s="2"/>
     </row>
-    <row r="32" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -1434,7 +1444,7 @@
       <c r="X32" s="2"/>
       <c r="Y32" s="2"/>
     </row>
-    <row r="33" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -1461,7 +1471,7 @@
       <c r="X33" s="2"/>
       <c r="Y33" s="2"/>
     </row>
-    <row r="34" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -1488,7 +1498,7 @@
       <c r="X34" s="2"/>
       <c r="Y34" s="2"/>
     </row>
-    <row r="35" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -1515,7 +1525,7 @@
       <c r="X35" s="2"/>
       <c r="Y35" s="2"/>
     </row>
-    <row r="36" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -1542,7 +1552,7 @@
       <c r="X36" s="2"/>
       <c r="Y36" s="2"/>
     </row>
-    <row r="37" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -1569,7 +1579,7 @@
       <c r="X37" s="2"/>
       <c r="Y37" s="2"/>
     </row>
-    <row r="38" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -1596,7 +1606,7 @@
       <c r="X38" s="2"/>
       <c r="Y38" s="2"/>
     </row>
-    <row r="39" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -1623,7 +1633,7 @@
       <c r="X39" s="2"/>
       <c r="Y39" s="2"/>
     </row>
-    <row r="40" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -1650,7 +1660,7 @@
       <c r="X40" s="2"/>
       <c r="Y40" s="2"/>
     </row>
-    <row r="41" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -1677,7 +1687,7 @@
       <c r="X41" s="2"/>
       <c r="Y41" s="2"/>
     </row>
-    <row r="42" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -1704,7 +1714,7 @@
       <c r="X42" s="2"/>
       <c r="Y42" s="2"/>
     </row>
-    <row r="43" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -1731,7 +1741,7 @@
       <c r="X43" s="2"/>
       <c r="Y43" s="2"/>
     </row>
-    <row r="44" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -1758,7 +1768,7 @@
       <c r="X44" s="2"/>
       <c r="Y44" s="2"/>
     </row>
-    <row r="45" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -1785,7 +1795,7 @@
       <c r="X45" s="2"/>
       <c r="Y45" s="2"/>
     </row>
-    <row r="46" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -1812,7 +1822,7 @@
       <c r="X46" s="2"/>
       <c r="Y46" s="2"/>
     </row>
-    <row r="47" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -1839,7 +1849,7 @@
       <c r="X47" s="2"/>
       <c r="Y47" s="2"/>
     </row>
-    <row r="48" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -1866,7 +1876,7 @@
       <c r="X48" s="2"/>
       <c r="Y48" s="2"/>
     </row>
-    <row r="49" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -1893,7 +1903,7 @@
       <c r="X49" s="2"/>
       <c r="Y49" s="2"/>
     </row>
-    <row r="50" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -1920,7 +1930,7 @@
       <c r="X50" s="2"/>
       <c r="Y50" s="2"/>
     </row>
-    <row r="51" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -1947,7 +1957,7 @@
       <c r="X51" s="2"/>
       <c r="Y51" s="2"/>
     </row>
-    <row r="52" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -1974,7 +1984,7 @@
       <c r="X52" s="2"/>
       <c r="Y52" s="2"/>
     </row>
-    <row r="53" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -2001,7 +2011,7 @@
       <c r="X53" s="2"/>
       <c r="Y53" s="2"/>
     </row>
-    <row r="54" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -2028,7 +2038,7 @@
       <c r="X54" s="2"/>
       <c r="Y54" s="2"/>
     </row>
-    <row r="55" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -2055,7 +2065,7 @@
       <c r="X55" s="2"/>
       <c r="Y55" s="2"/>
     </row>
-    <row r="56" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -2082,7 +2092,7 @@
       <c r="X56" s="2"/>
       <c r="Y56" s="2"/>
     </row>
-    <row r="57" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -2109,7 +2119,7 @@
       <c r="X57" s="2"/>
       <c r="Y57" s="2"/>
     </row>
-    <row r="58" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -2136,7 +2146,7 @@
       <c r="X58" s="2"/>
       <c r="Y58" s="2"/>
     </row>
-    <row r="59" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -2163,7 +2173,7 @@
       <c r="X59" s="2"/>
       <c r="Y59" s="2"/>
     </row>
-    <row r="60" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -2190,7 +2200,7 @@
       <c r="X60" s="2"/>
       <c r="Y60" s="2"/>
     </row>
-    <row r="61" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -2217,7 +2227,7 @@
       <c r="X61" s="2"/>
       <c r="Y61" s="2"/>
     </row>
-    <row r="62" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -2244,7 +2254,7 @@
       <c r="X62" s="2"/>
       <c r="Y62" s="2"/>
     </row>
-    <row r="63" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -2271,7 +2281,7 @@
       <c r="X63" s="2"/>
       <c r="Y63" s="2"/>
     </row>
-    <row r="64" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -2298,7 +2308,7 @@
       <c r="X64" s="2"/>
       <c r="Y64" s="2"/>
     </row>
-    <row r="65" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -2325,7 +2335,7 @@
       <c r="X65" s="2"/>
       <c r="Y65" s="2"/>
     </row>
-    <row r="66" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -2352,7 +2362,7 @@
       <c r="X66" s="2"/>
       <c r="Y66" s="2"/>
     </row>
-    <row r="67" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -2379,7 +2389,7 @@
       <c r="X67" s="2"/>
       <c r="Y67" s="2"/>
     </row>
-    <row r="68" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -2406,7 +2416,7 @@
       <c r="X68" s="2"/>
       <c r="Y68" s="2"/>
     </row>
-    <row r="69" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -2433,7 +2443,7 @@
       <c r="X69" s="2"/>
       <c r="Y69" s="2"/>
     </row>
-    <row r="70" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -2460,7 +2470,7 @@
       <c r="X70" s="2"/>
       <c r="Y70" s="2"/>
     </row>
-    <row r="71" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -2487,7 +2497,7 @@
       <c r="X71" s="2"/>
       <c r="Y71" s="2"/>
     </row>
-    <row r="72" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -2514,7 +2524,7 @@
       <c r="X72" s="2"/>
       <c r="Y72" s="2"/>
     </row>
-    <row r="73" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -2541,7 +2551,7 @@
       <c r="X73" s="2"/>
       <c r="Y73" s="2"/>
     </row>
-    <row r="74" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -2568,7 +2578,7 @@
       <c r="X74" s="2"/>
       <c r="Y74" s="2"/>
     </row>
-    <row r="75" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -2595,7 +2605,7 @@
       <c r="X75" s="2"/>
       <c r="Y75" s="2"/>
     </row>
-    <row r="76" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -2622,7 +2632,7 @@
       <c r="X76" s="2"/>
       <c r="Y76" s="2"/>
     </row>
-    <row r="77" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -2649,7 +2659,7 @@
       <c r="X77" s="2"/>
       <c r="Y77" s="2"/>
     </row>
-    <row r="78" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -2676,7 +2686,7 @@
       <c r="X78" s="2"/>
       <c r="Y78" s="2"/>
     </row>
-    <row r="79" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -2703,7 +2713,7 @@
       <c r="X79" s="2"/>
       <c r="Y79" s="2"/>
     </row>
-    <row r="80" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -2730,7 +2740,7 @@
       <c r="X80" s="2"/>
       <c r="Y80" s="2"/>
     </row>
-    <row r="81" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -2757,7 +2767,7 @@
       <c r="X81" s="2"/>
       <c r="Y81" s="2"/>
     </row>
-    <row r="82" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -2784,7 +2794,7 @@
       <c r="X82" s="2"/>
       <c r="Y82" s="2"/>
     </row>
-    <row r="83" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -2811,7 +2821,7 @@
       <c r="X83" s="2"/>
       <c r="Y83" s="2"/>
     </row>
-    <row r="84" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -2838,7 +2848,7 @@
       <c r="X84" s="2"/>
       <c r="Y84" s="2"/>
     </row>
-    <row r="85" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -2865,7 +2875,7 @@
       <c r="X85" s="2"/>
       <c r="Y85" s="2"/>
     </row>
-    <row r="86" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -2892,7 +2902,7 @@
       <c r="X86" s="2"/>
       <c r="Y86" s="2"/>
     </row>
-    <row r="87" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -2919,7 +2929,7 @@
       <c r="X87" s="2"/>
       <c r="Y87" s="2"/>
     </row>
-    <row r="88" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -2946,7 +2956,7 @@
       <c r="X88" s="2"/>
       <c r="Y88" s="2"/>
     </row>
-    <row r="89" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -2973,7 +2983,7 @@
       <c r="X89" s="2"/>
       <c r="Y89" s="2"/>
     </row>
-    <row r="90" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -3000,7 +3010,7 @@
       <c r="X90" s="2"/>
       <c r="Y90" s="2"/>
     </row>
-    <row r="91" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -3027,7 +3037,7 @@
       <c r="X91" s="2"/>
       <c r="Y91" s="2"/>
     </row>
-    <row r="92" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -3054,7 +3064,7 @@
       <c r="X92" s="2"/>
       <c r="Y92" s="2"/>
     </row>
-    <row r="93" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -3081,7 +3091,7 @@
       <c r="X93" s="2"/>
       <c r="Y93" s="2"/>
     </row>
-    <row r="94" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -3108,7 +3118,7 @@
       <c r="X94" s="2"/>
       <c r="Y94" s="2"/>
     </row>
-    <row r="95" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -3135,7 +3145,7 @@
       <c r="X95" s="2"/>
       <c r="Y95" s="2"/>
     </row>
-    <row r="96" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -3162,7 +3172,7 @@
       <c r="X96" s="2"/>
       <c r="Y96" s="2"/>
     </row>
-    <row r="97" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -3189,7 +3199,7 @@
       <c r="X97" s="2"/>
       <c r="Y97" s="2"/>
     </row>
-    <row r="98" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -3216,7 +3226,7 @@
       <c r="X98" s="2"/>
       <c r="Y98" s="2"/>
     </row>
-    <row r="99" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -3243,7 +3253,7 @@
       <c r="X99" s="2"/>
       <c r="Y99" s="2"/>
     </row>
-    <row r="100" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -3270,7 +3280,7 @@
       <c r="X100" s="2"/>
       <c r="Y100" s="2"/>
     </row>
-    <row r="101" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -3297,7 +3307,7 @@
       <c r="X101" s="2"/>
       <c r="Y101" s="2"/>
     </row>
-    <row r="102" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -3324,7 +3334,7 @@
       <c r="X102" s="2"/>
       <c r="Y102" s="2"/>
     </row>
-    <row r="103" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -3351,7 +3361,7 @@
       <c r="X103" s="2"/>
       <c r="Y103" s="2"/>
     </row>
-    <row r="104" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -3378,7 +3388,7 @@
       <c r="X104" s="2"/>
       <c r="Y104" s="2"/>
     </row>
-    <row r="105" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -3405,7 +3415,7 @@
       <c r="X105" s="2"/>
       <c r="Y105" s="2"/>
     </row>
-    <row r="106" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -3432,7 +3442,7 @@
       <c r="X106" s="2"/>
       <c r="Y106" s="2"/>
     </row>
-    <row r="107" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -3459,7 +3469,7 @@
       <c r="X107" s="2"/>
       <c r="Y107" s="2"/>
     </row>
-    <row r="108" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -3486,7 +3496,7 @@
       <c r="X108" s="2"/>
       <c r="Y108" s="2"/>
     </row>
-    <row r="109" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -3513,7 +3523,7 @@
       <c r="X109" s="2"/>
       <c r="Y109" s="2"/>
     </row>
-    <row r="110" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -3540,7 +3550,7 @@
       <c r="X110" s="2"/>
       <c r="Y110" s="2"/>
     </row>
-    <row r="111" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -3567,7 +3577,7 @@
       <c r="X111" s="2"/>
       <c r="Y111" s="2"/>
     </row>
-    <row r="112" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -3594,7 +3604,7 @@
       <c r="X112" s="2"/>
       <c r="Y112" s="2"/>
     </row>
-    <row r="113" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -3621,7 +3631,7 @@
       <c r="X113" s="2"/>
       <c r="Y113" s="2"/>
     </row>
-    <row r="114" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -3648,7 +3658,7 @@
       <c r="X114" s="2"/>
       <c r="Y114" s="2"/>
     </row>
-    <row r="115" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -3675,7 +3685,7 @@
       <c r="X115" s="2"/>
       <c r="Y115" s="2"/>
     </row>
-    <row r="116" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -3702,7 +3712,7 @@
       <c r="X116" s="2"/>
       <c r="Y116" s="2"/>
     </row>
-    <row r="117" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
@@ -3729,7 +3739,7 @@
       <c r="X117" s="2"/>
       <c r="Y117" s="2"/>
     </row>
-    <row r="118" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -3756,7 +3766,7 @@
       <c r="X118" s="2"/>
       <c r="Y118" s="2"/>
     </row>
-    <row r="119" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -3783,7 +3793,7 @@
       <c r="X119" s="2"/>
       <c r="Y119" s="2"/>
     </row>
-    <row r="120" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -3810,7 +3820,7 @@
       <c r="X120" s="2"/>
       <c r="Y120" s="2"/>
     </row>
-    <row r="121" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -3837,7 +3847,7 @@
       <c r="X121" s="2"/>
       <c r="Y121" s="2"/>
     </row>
-    <row r="122" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -3864,7 +3874,7 @@
       <c r="X122" s="2"/>
       <c r="Y122" s="2"/>
     </row>
-    <row r="123" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -3891,7 +3901,7 @@
       <c r="X123" s="2"/>
       <c r="Y123" s="2"/>
     </row>
-    <row r="124" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -3918,7 +3928,7 @@
       <c r="X124" s="2"/>
       <c r="Y124" s="2"/>
     </row>
-    <row r="125" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -3945,7 +3955,7 @@
       <c r="X125" s="2"/>
       <c r="Y125" s="2"/>
     </row>
-    <row r="126" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -3972,7 +3982,7 @@
       <c r="X126" s="2"/>
       <c r="Y126" s="2"/>
     </row>
-    <row r="127" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -3999,7 +4009,7 @@
       <c r="X127" s="2"/>
       <c r="Y127" s="2"/>
     </row>
-    <row r="128" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -4026,7 +4036,7 @@
       <c r="X128" s="2"/>
       <c r="Y128" s="2"/>
     </row>
-    <row r="129" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -4053,7 +4063,7 @@
       <c r="X129" s="2"/>
       <c r="Y129" s="2"/>
     </row>
-    <row r="130" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -4080,7 +4090,7 @@
       <c r="X130" s="2"/>
       <c r="Y130" s="2"/>
     </row>
-    <row r="131" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
@@ -4107,7 +4117,7 @@
       <c r="X131" s="2"/>
       <c r="Y131" s="2"/>
     </row>
-    <row r="132" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
@@ -4134,7 +4144,7 @@
       <c r="X132" s="2"/>
       <c r="Y132" s="2"/>
     </row>
-    <row r="133" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
@@ -4161,7 +4171,7 @@
       <c r="X133" s="2"/>
       <c r="Y133" s="2"/>
     </row>
-    <row r="134" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
@@ -4188,7 +4198,7 @@
       <c r="X134" s="2"/>
       <c r="Y134" s="2"/>
     </row>
-    <row r="135" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
@@ -4215,7 +4225,7 @@
       <c r="X135" s="2"/>
       <c r="Y135" s="2"/>
     </row>
-    <row r="136" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
@@ -4242,7 +4252,7 @@
       <c r="X136" s="2"/>
       <c r="Y136" s="2"/>
     </row>
-    <row r="137" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
@@ -4269,7 +4279,7 @@
       <c r="X137" s="2"/>
       <c r="Y137" s="2"/>
     </row>
-    <row r="138" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
@@ -4296,7 +4306,7 @@
       <c r="X138" s="2"/>
       <c r="Y138" s="2"/>
     </row>
-    <row r="139" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
@@ -4323,7 +4333,7 @@
       <c r="X139" s="2"/>
       <c r="Y139" s="2"/>
     </row>
-    <row r="140" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
@@ -4350,7 +4360,7 @@
       <c r="X140" s="2"/>
       <c r="Y140" s="2"/>
     </row>
-    <row r="141" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
@@ -4377,7 +4387,7 @@
       <c r="X141" s="2"/>
       <c r="Y141" s="2"/>
     </row>
-    <row r="142" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
@@ -4404,7 +4414,7 @@
       <c r="X142" s="2"/>
       <c r="Y142" s="2"/>
     </row>
-    <row r="143" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
@@ -4431,7 +4441,7 @@
       <c r="X143" s="2"/>
       <c r="Y143" s="2"/>
     </row>
-    <row r="144" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
@@ -4458,7 +4468,7 @@
       <c r="X144" s="2"/>
       <c r="Y144" s="2"/>
     </row>
-    <row r="145" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
@@ -4485,7 +4495,7 @@
       <c r="X145" s="2"/>
       <c r="Y145" s="2"/>
     </row>
-    <row r="146" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
@@ -4512,7 +4522,7 @@
       <c r="X146" s="2"/>
       <c r="Y146" s="2"/>
     </row>
-    <row r="147" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
@@ -4539,7 +4549,7 @@
       <c r="X147" s="2"/>
       <c r="Y147" s="2"/>
     </row>
-    <row r="148" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
@@ -4566,7 +4576,7 @@
       <c r="X148" s="2"/>
       <c r="Y148" s="2"/>
     </row>
-    <row r="149" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
@@ -4593,7 +4603,7 @@
       <c r="X149" s="2"/>
       <c r="Y149" s="2"/>
     </row>
-    <row r="150" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
@@ -4620,7 +4630,7 @@
       <c r="X150" s="2"/>
       <c r="Y150" s="2"/>
     </row>
-    <row r="151" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
@@ -4647,7 +4657,7 @@
       <c r="X151" s="2"/>
       <c r="Y151" s="2"/>
     </row>
-    <row r="152" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
@@ -4674,7 +4684,7 @@
       <c r="X152" s="2"/>
       <c r="Y152" s="2"/>
     </row>
-    <row r="153" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
@@ -4701,7 +4711,7 @@
       <c r="X153" s="2"/>
       <c r="Y153" s="2"/>
     </row>
-    <row r="154" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
@@ -4728,7 +4738,7 @@
       <c r="X154" s="2"/>
       <c r="Y154" s="2"/>
     </row>
-    <row r="155" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
@@ -4755,7 +4765,7 @@
       <c r="X155" s="2"/>
       <c r="Y155" s="2"/>
     </row>
-    <row r="156" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
@@ -4782,7 +4792,7 @@
       <c r="X156" s="2"/>
       <c r="Y156" s="2"/>
     </row>
-    <row r="157" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A157" s="2"/>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
@@ -4809,7 +4819,7 @@
       <c r="X157" s="2"/>
       <c r="Y157" s="2"/>
     </row>
-    <row r="158" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
@@ -4836,7 +4846,7 @@
       <c r="X158" s="2"/>
       <c r="Y158" s="2"/>
     </row>
-    <row r="159" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
@@ -4863,7 +4873,7 @@
       <c r="X159" s="2"/>
       <c r="Y159" s="2"/>
     </row>
-    <row r="160" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A160" s="2"/>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
@@ -4890,7 +4900,7 @@
       <c r="X160" s="2"/>
       <c r="Y160" s="2"/>
     </row>
-    <row r="161" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A161" s="2"/>
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
@@ -4917,7 +4927,7 @@
       <c r="X161" s="2"/>
       <c r="Y161" s="2"/>
     </row>
-    <row r="162" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A162" s="2"/>
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
@@ -4944,7 +4954,7 @@
       <c r="X162" s="2"/>
       <c r="Y162" s="2"/>
     </row>
-    <row r="163" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A163" s="2"/>
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
@@ -4971,7 +4981,7 @@
       <c r="X163" s="2"/>
       <c r="Y163" s="2"/>
     </row>
-    <row r="164" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A164" s="2"/>
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
@@ -4998,7 +5008,7 @@
       <c r="X164" s="2"/>
       <c r="Y164" s="2"/>
     </row>
-    <row r="165" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A165" s="2"/>
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
@@ -5025,7 +5035,7 @@
       <c r="X165" s="2"/>
       <c r="Y165" s="2"/>
     </row>
-    <row r="166" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A166" s="2"/>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
@@ -5052,7 +5062,7 @@
       <c r="X166" s="2"/>
       <c r="Y166" s="2"/>
     </row>
-    <row r="167" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A167" s="2"/>
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
@@ -5079,7 +5089,7 @@
       <c r="X167" s="2"/>
       <c r="Y167" s="2"/>
     </row>
-    <row r="168" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A168" s="2"/>
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
@@ -5106,7 +5116,7 @@
       <c r="X168" s="2"/>
       <c r="Y168" s="2"/>
     </row>
-    <row r="169" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A169" s="2"/>
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
@@ -5133,7 +5143,7 @@
       <c r="X169" s="2"/>
       <c r="Y169" s="2"/>
     </row>
-    <row r="170" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A170" s="2"/>
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
@@ -5160,7 +5170,7 @@
       <c r="X170" s="2"/>
       <c r="Y170" s="2"/>
     </row>
-    <row r="171" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A171" s="2"/>
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
@@ -5187,7 +5197,7 @@
       <c r="X171" s="2"/>
       <c r="Y171" s="2"/>
     </row>
-    <row r="172" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A172" s="2"/>
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
@@ -5214,7 +5224,7 @@
       <c r="X172" s="2"/>
       <c r="Y172" s="2"/>
     </row>
-    <row r="173" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A173" s="2"/>
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
@@ -5241,7 +5251,7 @@
       <c r="X173" s="2"/>
       <c r="Y173" s="2"/>
     </row>
-    <row r="174" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A174" s="2"/>
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
@@ -5268,7 +5278,7 @@
       <c r="X174" s="2"/>
       <c r="Y174" s="2"/>
     </row>
-    <row r="175" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A175" s="2"/>
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
@@ -5295,7 +5305,7 @@
       <c r="X175" s="2"/>
       <c r="Y175" s="2"/>
     </row>
-    <row r="176" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A176" s="2"/>
       <c r="B176" s="2"/>
       <c r="C176" s="2"/>
@@ -5322,7 +5332,7 @@
       <c r="X176" s="2"/>
       <c r="Y176" s="2"/>
     </row>
-    <row r="177" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A177" s="2"/>
       <c r="B177" s="2"/>
       <c r="C177" s="2"/>
@@ -5349,7 +5359,7 @@
       <c r="X177" s="2"/>
       <c r="Y177" s="2"/>
     </row>
-    <row r="178" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A178" s="2"/>
       <c r="B178" s="2"/>
       <c r="C178" s="2"/>
@@ -5376,7 +5386,7 @@
       <c r="X178" s="2"/>
       <c r="Y178" s="2"/>
     </row>
-    <row r="179" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A179" s="2"/>
       <c r="B179" s="2"/>
       <c r="C179" s="2"/>
@@ -5403,7 +5413,7 @@
       <c r="X179" s="2"/>
       <c r="Y179" s="2"/>
     </row>
-    <row r="180" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A180" s="2"/>
       <c r="B180" s="2"/>
       <c r="C180" s="2"/>
@@ -5430,7 +5440,7 @@
       <c r="X180" s="2"/>
       <c r="Y180" s="2"/>
     </row>
-    <row r="181" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A181" s="2"/>
       <c r="B181" s="2"/>
       <c r="C181" s="2"/>
@@ -5457,7 +5467,7 @@
       <c r="X181" s="2"/>
       <c r="Y181" s="2"/>
     </row>
-    <row r="182" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A182" s="2"/>
       <c r="B182" s="2"/>
       <c r="C182" s="2"/>
@@ -5484,7 +5494,7 @@
       <c r="X182" s="2"/>
       <c r="Y182" s="2"/>
     </row>
-    <row r="183" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A183" s="2"/>
       <c r="B183" s="2"/>
       <c r="C183" s="2"/>
@@ -5511,7 +5521,7 @@
       <c r="X183" s="2"/>
       <c r="Y183" s="2"/>
     </row>
-    <row r="184" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A184" s="2"/>
       <c r="B184" s="2"/>
       <c r="C184" s="2"/>
@@ -5538,7 +5548,7 @@
       <c r="X184" s="2"/>
       <c r="Y184" s="2"/>
     </row>
-    <row r="185" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A185" s="2"/>
       <c r="B185" s="2"/>
       <c r="C185" s="2"/>
@@ -5565,7 +5575,7 @@
       <c r="X185" s="2"/>
       <c r="Y185" s="2"/>
     </row>
-    <row r="186" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A186" s="2"/>
       <c r="B186" s="2"/>
       <c r="C186" s="2"/>
@@ -5592,7 +5602,7 @@
       <c r="X186" s="2"/>
       <c r="Y186" s="2"/>
     </row>
-    <row r="187" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A187" s="2"/>
       <c r="B187" s="2"/>
       <c r="C187" s="2"/>
@@ -5619,7 +5629,7 @@
       <c r="X187" s="2"/>
       <c r="Y187" s="2"/>
     </row>
-    <row r="188" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A188" s="2"/>
       <c r="B188" s="2"/>
       <c r="C188" s="2"/>
@@ -5646,7 +5656,7 @@
       <c r="X188" s="2"/>
       <c r="Y188" s="2"/>
     </row>
-    <row r="189" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A189" s="2"/>
       <c r="B189" s="2"/>
       <c r="C189" s="2"/>
@@ -5673,7 +5683,7 @@
       <c r="X189" s="2"/>
       <c r="Y189" s="2"/>
     </row>
-    <row r="190" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A190" s="2"/>
       <c r="B190" s="2"/>
       <c r="C190" s="2"/>
@@ -5700,7 +5710,7 @@
       <c r="X190" s="2"/>
       <c r="Y190" s="2"/>
     </row>
-    <row r="191" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A191" s="2"/>
       <c r="B191" s="2"/>
       <c r="C191" s="2"/>
@@ -5727,7 +5737,7 @@
       <c r="X191" s="2"/>
       <c r="Y191" s="2"/>
     </row>
-    <row r="192" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A192" s="2"/>
       <c r="B192" s="2"/>
       <c r="C192" s="2"/>
@@ -5754,7 +5764,7 @@
       <c r="X192" s="2"/>
       <c r="Y192" s="2"/>
     </row>
-    <row r="193" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A193" s="2"/>
       <c r="B193" s="2"/>
       <c r="C193" s="2"/>
@@ -5781,7 +5791,7 @@
       <c r="X193" s="2"/>
       <c r="Y193" s="2"/>
     </row>
-    <row r="194" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A194" s="2"/>
       <c r="B194" s="2"/>
       <c r="C194" s="2"/>
@@ -5808,7 +5818,7 @@
       <c r="X194" s="2"/>
       <c r="Y194" s="2"/>
     </row>
-    <row r="195" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A195" s="2"/>
       <c r="B195" s="2"/>
       <c r="C195" s="2"/>
@@ -5835,7 +5845,7 @@
       <c r="X195" s="2"/>
       <c r="Y195" s="2"/>
     </row>
-    <row r="196" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A196" s="2"/>
       <c r="B196" s="2"/>
       <c r="C196" s="2"/>
@@ -5862,7 +5872,7 @@
       <c r="X196" s="2"/>
       <c r="Y196" s="2"/>
     </row>
-    <row r="197" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A197" s="2"/>
       <c r="B197" s="2"/>
       <c r="C197" s="2"/>
@@ -5889,7 +5899,7 @@
       <c r="X197" s="2"/>
       <c r="Y197" s="2"/>
     </row>
-    <row r="198" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A198" s="2"/>
       <c r="B198" s="2"/>
       <c r="C198" s="2"/>
@@ -5916,7 +5926,7 @@
       <c r="X198" s="2"/>
       <c r="Y198" s="2"/>
     </row>
-    <row r="199" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A199" s="2"/>
       <c r="B199" s="2"/>
       <c r="C199" s="2"/>
@@ -5943,7 +5953,7 @@
       <c r="X199" s="2"/>
       <c r="Y199" s="2"/>
     </row>
-    <row r="200" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A200" s="2"/>
       <c r="B200" s="2"/>
       <c r="C200" s="2"/>
@@ -5970,7 +5980,7 @@
       <c r="X200" s="2"/>
       <c r="Y200" s="2"/>
     </row>
-    <row r="201" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A201" s="2"/>
       <c r="B201" s="2"/>
       <c r="C201" s="2"/>
@@ -5997,7 +6007,7 @@
       <c r="X201" s="2"/>
       <c r="Y201" s="2"/>
     </row>
-    <row r="202" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A202" s="2"/>
       <c r="B202" s="2"/>
       <c r="C202" s="2"/>
@@ -6024,7 +6034,7 @@
       <c r="X202" s="2"/>
       <c r="Y202" s="2"/>
     </row>
-    <row r="203" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A203" s="2"/>
       <c r="B203" s="2"/>
       <c r="C203" s="2"/>
@@ -6051,7 +6061,7 @@
       <c r="X203" s="2"/>
       <c r="Y203" s="2"/>
     </row>
-    <row r="204" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A204" s="2"/>
       <c r="B204" s="2"/>
       <c r="C204" s="2"/>
@@ -6078,7 +6088,7 @@
       <c r="X204" s="2"/>
       <c r="Y204" s="2"/>
     </row>
-    <row r="205" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A205" s="2"/>
       <c r="B205" s="2"/>
       <c r="C205" s="2"/>
@@ -6105,7 +6115,7 @@
       <c r="X205" s="2"/>
       <c r="Y205" s="2"/>
     </row>
-    <row r="206" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A206" s="2"/>
       <c r="B206" s="2"/>
       <c r="C206" s="2"/>
@@ -6132,7 +6142,7 @@
       <c r="X206" s="2"/>
       <c r="Y206" s="2"/>
     </row>
-    <row r="207" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A207" s="2"/>
       <c r="B207" s="2"/>
       <c r="C207" s="2"/>
@@ -6159,7 +6169,7 @@
       <c r="X207" s="2"/>
       <c r="Y207" s="2"/>
     </row>
-    <row r="208" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A208" s="2"/>
       <c r="B208" s="2"/>
       <c r="C208" s="2"/>
@@ -6186,7 +6196,7 @@
       <c r="X208" s="2"/>
       <c r="Y208" s="2"/>
     </row>
-    <row r="209" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A209" s="2"/>
       <c r="B209" s="2"/>
       <c r="C209" s="2"/>
@@ -6213,7 +6223,7 @@
       <c r="X209" s="2"/>
       <c r="Y209" s="2"/>
     </row>
-    <row r="210" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A210" s="2"/>
       <c r="B210" s="2"/>
       <c r="C210" s="2"/>
@@ -6240,7 +6250,7 @@
       <c r="X210" s="2"/>
       <c r="Y210" s="2"/>
     </row>
-    <row r="211" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A211" s="2"/>
       <c r="B211" s="2"/>
       <c r="C211" s="2"/>
@@ -6267,7 +6277,7 @@
       <c r="X211" s="2"/>
       <c r="Y211" s="2"/>
     </row>
-    <row r="212" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A212" s="2"/>
       <c r="B212" s="2"/>
       <c r="C212" s="2"/>
@@ -6294,7 +6304,7 @@
       <c r="X212" s="2"/>
       <c r="Y212" s="2"/>
     </row>
-    <row r="213" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A213" s="2"/>
       <c r="B213" s="2"/>
       <c r="C213" s="2"/>
@@ -6321,7 +6331,7 @@
       <c r="X213" s="2"/>
       <c r="Y213" s="2"/>
     </row>
-    <row r="214" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A214" s="2"/>
       <c r="B214" s="2"/>
       <c r="C214" s="2"/>
@@ -6348,7 +6358,7 @@
       <c r="X214" s="2"/>
       <c r="Y214" s="2"/>
     </row>
-    <row r="215" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A215" s="2"/>
       <c r="B215" s="2"/>
       <c r="C215" s="2"/>
@@ -6375,7 +6385,7 @@
       <c r="X215" s="2"/>
       <c r="Y215" s="2"/>
     </row>
-    <row r="216" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A216" s="2"/>
       <c r="B216" s="2"/>
       <c r="C216" s="2"/>
@@ -6402,7 +6412,7 @@
       <c r="X216" s="2"/>
       <c r="Y216" s="2"/>
     </row>
-    <row r="217" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A217" s="2"/>
       <c r="B217" s="2"/>
       <c r="C217" s="2"/>
@@ -6429,7 +6439,7 @@
       <c r="X217" s="2"/>
       <c r="Y217" s="2"/>
     </row>
-    <row r="218" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A218" s="2"/>
       <c r="B218" s="2"/>
       <c r="C218" s="2"/>
@@ -6456,7 +6466,7 @@
       <c r="X218" s="2"/>
       <c r="Y218" s="2"/>
     </row>
-    <row r="219" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A219" s="2"/>
       <c r="B219" s="2"/>
       <c r="C219" s="2"/>
@@ -6483,7 +6493,7 @@
       <c r="X219" s="2"/>
       <c r="Y219" s="2"/>
     </row>
-    <row r="220" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A220" s="2"/>
       <c r="B220" s="2"/>
       <c r="C220" s="2"/>
@@ -6510,7 +6520,7 @@
       <c r="X220" s="2"/>
       <c r="Y220" s="2"/>
     </row>
-    <row r="221" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A221" s="2"/>
       <c r="B221" s="2"/>
       <c r="C221" s="2"/>
@@ -6537,7 +6547,7 @@
       <c r="X221" s="2"/>
       <c r="Y221" s="2"/>
     </row>
-    <row r="222" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A222" s="2"/>
       <c r="B222" s="2"/>
       <c r="C222" s="2"/>
@@ -6564,7 +6574,7 @@
       <c r="X222" s="2"/>
       <c r="Y222" s="2"/>
     </row>
-    <row r="223" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A223" s="2"/>
       <c r="B223" s="2"/>
       <c r="C223" s="2"/>
@@ -6591,7 +6601,7 @@
       <c r="X223" s="2"/>
       <c r="Y223" s="2"/>
     </row>
-    <row r="224" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A224" s="2"/>
       <c r="B224" s="2"/>
       <c r="C224" s="2"/>
@@ -6618,7 +6628,7 @@
       <c r="X224" s="2"/>
       <c r="Y224" s="2"/>
     </row>
-    <row r="225" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A225" s="2"/>
       <c r="B225" s="2"/>
       <c r="C225" s="2"/>
@@ -6645,7 +6655,7 @@
       <c r="X225" s="2"/>
       <c r="Y225" s="2"/>
     </row>
-    <row r="226" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A226" s="2"/>
       <c r="B226" s="2"/>
       <c r="C226" s="2"/>
@@ -6672,7 +6682,7 @@
       <c r="X226" s="2"/>
       <c r="Y226" s="2"/>
     </row>
-    <row r="227" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A227" s="2"/>
       <c r="B227" s="2"/>
       <c r="C227" s="2"/>
@@ -6699,7 +6709,7 @@
       <c r="X227" s="2"/>
       <c r="Y227" s="2"/>
     </row>
-    <row r="228" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A228" s="2"/>
       <c r="B228" s="2"/>
       <c r="C228" s="2"/>
@@ -6726,7 +6736,7 @@
       <c r="X228" s="2"/>
       <c r="Y228" s="2"/>
     </row>
-    <row r="229" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A229" s="2"/>
       <c r="B229" s="2"/>
       <c r="C229" s="2"/>
@@ -6753,7 +6763,7 @@
       <c r="X229" s="2"/>
       <c r="Y229" s="2"/>
     </row>
-    <row r="230" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A230" s="2"/>
       <c r="B230" s="2"/>
       <c r="C230" s="2"/>
@@ -6780,7 +6790,7 @@
       <c r="X230" s="2"/>
       <c r="Y230" s="2"/>
     </row>
-    <row r="231" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A231" s="2"/>
       <c r="B231" s="2"/>
       <c r="C231" s="2"/>
@@ -6807,7 +6817,7 @@
       <c r="X231" s="2"/>
       <c r="Y231" s="2"/>
     </row>
-    <row r="232" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A232" s="2"/>
       <c r="B232" s="2"/>
       <c r="C232" s="2"/>
@@ -6834,7 +6844,7 @@
       <c r="X232" s="2"/>
       <c r="Y232" s="2"/>
     </row>
-    <row r="233" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A233" s="2"/>
       <c r="B233" s="2"/>
       <c r="C233" s="2"/>
@@ -6861,7 +6871,7 @@
       <c r="X233" s="2"/>
       <c r="Y233" s="2"/>
     </row>
-    <row r="234" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A234" s="2"/>
       <c r="B234" s="2"/>
       <c r="C234" s="2"/>
@@ -6888,7 +6898,7 @@
       <c r="X234" s="2"/>
       <c r="Y234" s="2"/>
     </row>
-    <row r="235" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A235" s="2"/>
       <c r="B235" s="2"/>
       <c r="C235" s="2"/>
@@ -6915,7 +6925,7 @@
       <c r="X235" s="2"/>
       <c r="Y235" s="2"/>
     </row>
-    <row r="236" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A236" s="2"/>
       <c r="B236" s="2"/>
       <c r="C236" s="2"/>
@@ -6942,7 +6952,7 @@
       <c r="X236" s="2"/>
       <c r="Y236" s="2"/>
     </row>
-    <row r="237" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A237" s="2"/>
       <c r="B237" s="2"/>
       <c r="C237" s="2"/>
@@ -6969,7 +6979,7 @@
       <c r="X237" s="2"/>
       <c r="Y237" s="2"/>
     </row>
-    <row r="238" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A238" s="2"/>
       <c r="B238" s="2"/>
       <c r="C238" s="2"/>
@@ -6996,7 +7006,7 @@
       <c r="X238" s="2"/>
       <c r="Y238" s="2"/>
     </row>
-    <row r="239" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A239" s="2"/>
       <c r="B239" s="2"/>
       <c r="C239" s="2"/>
@@ -7023,7 +7033,7 @@
       <c r="X239" s="2"/>
       <c r="Y239" s="2"/>
     </row>
-    <row r="240" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A240" s="2"/>
       <c r="B240" s="2"/>
       <c r="C240" s="2"/>
@@ -7050,7 +7060,7 @@
       <c r="X240" s="2"/>
       <c r="Y240" s="2"/>
     </row>
-    <row r="241" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A241" s="2"/>
       <c r="B241" s="2"/>
       <c r="C241" s="2"/>
@@ -7077,7 +7087,7 @@
       <c r="X241" s="2"/>
       <c r="Y241" s="2"/>
     </row>
-    <row r="242" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A242" s="2"/>
       <c r="B242" s="2"/>
       <c r="C242" s="2"/>
@@ -7104,7 +7114,7 @@
       <c r="X242" s="2"/>
       <c r="Y242" s="2"/>
     </row>
-    <row r="243" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A243" s="2"/>
       <c r="B243" s="2"/>
       <c r="C243" s="2"/>
@@ -7131,7 +7141,7 @@
       <c r="X243" s="2"/>
       <c r="Y243" s="2"/>
     </row>
-    <row r="244" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A244" s="2"/>
       <c r="B244" s="2"/>
       <c r="C244" s="2"/>
@@ -7158,7 +7168,7 @@
       <c r="X244" s="2"/>
       <c r="Y244" s="2"/>
     </row>
-    <row r="245" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A245" s="2"/>
       <c r="B245" s="2"/>
       <c r="C245" s="2"/>
@@ -7185,7 +7195,7 @@
       <c r="X245" s="2"/>
       <c r="Y245" s="2"/>
     </row>
-    <row r="246" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A246" s="2"/>
       <c r="B246" s="2"/>
       <c r="C246" s="2"/>
@@ -7212,7 +7222,7 @@
       <c r="X246" s="2"/>
       <c r="Y246" s="2"/>
     </row>
-    <row r="247" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A247" s="2"/>
       <c r="B247" s="2"/>
       <c r="C247" s="2"/>
@@ -7239,7 +7249,7 @@
       <c r="X247" s="2"/>
       <c r="Y247" s="2"/>
     </row>
-    <row r="248" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A248" s="2"/>
       <c r="B248" s="2"/>
       <c r="C248" s="2"/>
@@ -7266,7 +7276,7 @@
       <c r="X248" s="2"/>
       <c r="Y248" s="2"/>
     </row>
-    <row r="249" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A249" s="2"/>
       <c r="B249" s="2"/>
       <c r="C249" s="2"/>
@@ -7293,7 +7303,7 @@
       <c r="X249" s="2"/>
       <c r="Y249" s="2"/>
     </row>
-    <row r="250" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A250" s="2"/>
       <c r="B250" s="2"/>
       <c r="C250" s="2"/>
@@ -7320,7 +7330,7 @@
       <c r="X250" s="2"/>
       <c r="Y250" s="2"/>
     </row>
-    <row r="251" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A251" s="2"/>
       <c r="B251" s="2"/>
       <c r="C251" s="2"/>
@@ -7347,7 +7357,7 @@
       <c r="X251" s="2"/>
       <c r="Y251" s="2"/>
     </row>
-    <row r="252" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A252" s="2"/>
       <c r="B252" s="2"/>
       <c r="C252" s="2"/>
@@ -7374,7 +7384,7 @@
       <c r="X252" s="2"/>
       <c r="Y252" s="2"/>
     </row>
-    <row r="253" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A253" s="2"/>
       <c r="B253" s="2"/>
       <c r="C253" s="2"/>
@@ -7401,7 +7411,7 @@
       <c r="X253" s="2"/>
       <c r="Y253" s="2"/>
     </row>
-    <row r="254" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A254" s="2"/>
       <c r="B254" s="2"/>
       <c r="C254" s="2"/>
@@ -7428,7 +7438,7 @@
       <c r="X254" s="2"/>
       <c r="Y254" s="2"/>
     </row>
-    <row r="255" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A255" s="2"/>
       <c r="B255" s="2"/>
       <c r="C255" s="2"/>
@@ -7455,7 +7465,7 @@
       <c r="X255" s="2"/>
       <c r="Y255" s="2"/>
     </row>
-    <row r="256" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A256" s="2"/>
       <c r="B256" s="2"/>
       <c r="C256" s="2"/>
@@ -7482,7 +7492,7 @@
       <c r="X256" s="2"/>
       <c r="Y256" s="2"/>
     </row>
-    <row r="257" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A257" s="2"/>
       <c r="B257" s="2"/>
       <c r="C257" s="2"/>
@@ -7509,7 +7519,7 @@
       <c r="X257" s="2"/>
       <c r="Y257" s="2"/>
     </row>
-    <row r="258" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A258" s="2"/>
       <c r="B258" s="2"/>
       <c r="C258" s="2"/>
@@ -7536,7 +7546,7 @@
       <c r="X258" s="2"/>
       <c r="Y258" s="2"/>
     </row>
-    <row r="259" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A259" s="2"/>
       <c r="B259" s="2"/>
       <c r="C259" s="2"/>
@@ -7563,7 +7573,7 @@
       <c r="X259" s="2"/>
       <c r="Y259" s="2"/>
     </row>
-    <row r="260" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A260" s="2"/>
       <c r="B260" s="2"/>
       <c r="C260" s="2"/>
@@ -7590,7 +7600,7 @@
       <c r="X260" s="2"/>
       <c r="Y260" s="2"/>
     </row>
-    <row r="261" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A261" s="2"/>
       <c r="B261" s="2"/>
       <c r="C261" s="2"/>
@@ -7617,7 +7627,7 @@
       <c r="X261" s="2"/>
       <c r="Y261" s="2"/>
     </row>
-    <row r="262" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A262" s="2"/>
       <c r="B262" s="2"/>
       <c r="C262" s="2"/>
@@ -7644,7 +7654,7 @@
       <c r="X262" s="2"/>
       <c r="Y262" s="2"/>
     </row>
-    <row r="263" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A263" s="2"/>
       <c r="B263" s="2"/>
       <c r="C263" s="2"/>
@@ -7671,7 +7681,7 @@
       <c r="X263" s="2"/>
       <c r="Y263" s="2"/>
     </row>
-    <row r="264" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A264" s="2"/>
       <c r="B264" s="2"/>
       <c r="C264" s="2"/>
@@ -7698,7 +7708,7 @@
       <c r="X264" s="2"/>
       <c r="Y264" s="2"/>
     </row>
-    <row r="265" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A265" s="2"/>
       <c r="B265" s="2"/>
       <c r="C265" s="2"/>
@@ -7725,7 +7735,7 @@
       <c r="X265" s="2"/>
       <c r="Y265" s="2"/>
     </row>
-    <row r="266" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A266" s="2"/>
       <c r="B266" s="2"/>
       <c r="C266" s="2"/>
@@ -7752,7 +7762,7 @@
       <c r="X266" s="2"/>
       <c r="Y266" s="2"/>
     </row>
-    <row r="267" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A267" s="2"/>
       <c r="B267" s="2"/>
       <c r="C267" s="2"/>
@@ -7779,7 +7789,7 @@
       <c r="X267" s="2"/>
       <c r="Y267" s="2"/>
     </row>
-    <row r="268" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A268" s="2"/>
       <c r="B268" s="2"/>
       <c r="C268" s="2"/>
@@ -7806,7 +7816,7 @@
       <c r="X268" s="2"/>
       <c r="Y268" s="2"/>
     </row>
-    <row r="269" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A269" s="2"/>
       <c r="B269" s="2"/>
       <c r="C269" s="2"/>
@@ -7833,7 +7843,7 @@
       <c r="X269" s="2"/>
       <c r="Y269" s="2"/>
     </row>
-    <row r="270" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A270" s="2"/>
       <c r="B270" s="2"/>
       <c r="C270" s="2"/>
@@ -7860,7 +7870,7 @@
       <c r="X270" s="2"/>
       <c r="Y270" s="2"/>
     </row>
-    <row r="271" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A271" s="2"/>
       <c r="B271" s="2"/>
       <c r="C271" s="2"/>
@@ -7887,7 +7897,7 @@
       <c r="X271" s="2"/>
       <c r="Y271" s="2"/>
     </row>
-    <row r="272" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A272" s="2"/>
       <c r="B272" s="2"/>
       <c r="C272" s="2"/>
@@ -7914,7 +7924,7 @@
       <c r="X272" s="2"/>
       <c r="Y272" s="2"/>
     </row>
-    <row r="273" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A273" s="2"/>
       <c r="B273" s="2"/>
       <c r="C273" s="2"/>
@@ -7941,7 +7951,7 @@
       <c r="X273" s="2"/>
       <c r="Y273" s="2"/>
     </row>
-    <row r="274" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A274" s="2"/>
       <c r="B274" s="2"/>
       <c r="C274" s="2"/>
@@ -7968,7 +7978,7 @@
       <c r="X274" s="2"/>
       <c r="Y274" s="2"/>
     </row>
-    <row r="275" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A275" s="2"/>
       <c r="B275" s="2"/>
       <c r="C275" s="2"/>
@@ -7995,7 +8005,7 @@
       <c r="X275" s="2"/>
       <c r="Y275" s="2"/>
     </row>
-    <row r="276" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A276" s="2"/>
       <c r="B276" s="2"/>
       <c r="C276" s="2"/>
@@ -8022,7 +8032,7 @@
       <c r="X276" s="2"/>
       <c r="Y276" s="2"/>
     </row>
-    <row r="277" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A277" s="2"/>
       <c r="B277" s="2"/>
       <c r="C277" s="2"/>
@@ -8049,7 +8059,7 @@
       <c r="X277" s="2"/>
       <c r="Y277" s="2"/>
     </row>
-    <row r="278" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A278" s="2"/>
       <c r="B278" s="2"/>
       <c r="C278" s="2"/>
@@ -8076,7 +8086,7 @@
       <c r="X278" s="2"/>
       <c r="Y278" s="2"/>
     </row>
-    <row r="279" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A279" s="2"/>
       <c r="B279" s="2"/>
       <c r="C279" s="2"/>
@@ -8103,7 +8113,7 @@
       <c r="X279" s="2"/>
       <c r="Y279" s="2"/>
     </row>
-    <row r="280" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A280" s="2"/>
       <c r="B280" s="2"/>
       <c r="C280" s="2"/>
@@ -8130,7 +8140,7 @@
       <c r="X280" s="2"/>
       <c r="Y280" s="2"/>
     </row>
-    <row r="281" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A281" s="2"/>
       <c r="B281" s="2"/>
       <c r="C281" s="2"/>
@@ -8157,7 +8167,7 @@
       <c r="X281" s="2"/>
       <c r="Y281" s="2"/>
     </row>
-    <row r="282" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A282" s="2"/>
       <c r="B282" s="2"/>
       <c r="C282" s="2"/>
@@ -8184,7 +8194,7 @@
       <c r="X282" s="2"/>
       <c r="Y282" s="2"/>
     </row>
-    <row r="283" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A283" s="2"/>
       <c r="B283" s="2"/>
       <c r="C283" s="2"/>
@@ -8211,7 +8221,7 @@
       <c r="X283" s="2"/>
       <c r="Y283" s="2"/>
     </row>
-    <row r="284" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A284" s="2"/>
       <c r="B284" s="2"/>
       <c r="C284" s="2"/>
@@ -8238,7 +8248,7 @@
       <c r="X284" s="2"/>
       <c r="Y284" s="2"/>
     </row>
-    <row r="285" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A285" s="2"/>
       <c r="B285" s="2"/>
       <c r="C285" s="2"/>
@@ -8265,7 +8275,7 @@
       <c r="X285" s="2"/>
       <c r="Y285" s="2"/>
     </row>
-    <row r="286" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A286" s="2"/>
       <c r="B286" s="2"/>
       <c r="C286" s="2"/>
@@ -8292,7 +8302,7 @@
       <c r="X286" s="2"/>
       <c r="Y286" s="2"/>
     </row>
-    <row r="287" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A287" s="2"/>
       <c r="B287" s="2"/>
       <c r="C287" s="2"/>
@@ -8319,7 +8329,7 @@
       <c r="X287" s="2"/>
       <c r="Y287" s="2"/>
     </row>
-    <row r="288" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A288" s="2"/>
       <c r="B288" s="2"/>
       <c r="C288" s="2"/>
@@ -8346,7 +8356,7 @@
       <c r="X288" s="2"/>
       <c r="Y288" s="2"/>
     </row>
-    <row r="289" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A289" s="2"/>
       <c r="B289" s="2"/>
       <c r="C289" s="2"/>
@@ -8373,7 +8383,7 @@
       <c r="X289" s="2"/>
       <c r="Y289" s="2"/>
     </row>
-    <row r="290" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A290" s="2"/>
       <c r="B290" s="2"/>
       <c r="C290" s="2"/>
@@ -8400,7 +8410,7 @@
       <c r="X290" s="2"/>
       <c r="Y290" s="2"/>
     </row>
-    <row r="291" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A291" s="2"/>
       <c r="B291" s="2"/>
       <c r="C291" s="2"/>
@@ -8427,7 +8437,7 @@
       <c r="X291" s="2"/>
       <c r="Y291" s="2"/>
     </row>
-    <row r="292" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A292" s="2"/>
       <c r="B292" s="2"/>
       <c r="C292" s="2"/>
@@ -8454,7 +8464,7 @@
       <c r="X292" s="2"/>
       <c r="Y292" s="2"/>
     </row>
-    <row r="293" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A293" s="2"/>
       <c r="B293" s="2"/>
       <c r="C293" s="2"/>
@@ -8481,7 +8491,7 @@
       <c r="X293" s="2"/>
       <c r="Y293" s="2"/>
     </row>
-    <row r="294" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A294" s="2"/>
       <c r="B294" s="2"/>
       <c r="C294" s="2"/>
@@ -8508,7 +8518,7 @@
       <c r="X294" s="2"/>
       <c r="Y294" s="2"/>
     </row>
-    <row r="295" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A295" s="2"/>
       <c r="B295" s="2"/>
       <c r="C295" s="2"/>
@@ -8535,7 +8545,7 @@
       <c r="X295" s="2"/>
       <c r="Y295" s="2"/>
     </row>
-    <row r="296" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A296" s="2"/>
       <c r="B296" s="2"/>
       <c r="C296" s="2"/>
@@ -8562,7 +8572,7 @@
       <c r="X296" s="2"/>
       <c r="Y296" s="2"/>
     </row>
-    <row r="297" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A297" s="2"/>
       <c r="B297" s="2"/>
       <c r="C297" s="2"/>
@@ -8589,7 +8599,7 @@
       <c r="X297" s="2"/>
       <c r="Y297" s="2"/>
     </row>
-    <row r="298" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A298" s="2"/>
       <c r="B298" s="2"/>
       <c r="C298" s="2"/>
@@ -8616,7 +8626,7 @@
       <c r="X298" s="2"/>
       <c r="Y298" s="2"/>
     </row>
-    <row r="299" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A299" s="2"/>
       <c r="B299" s="2"/>
       <c r="C299" s="2"/>
@@ -8643,7 +8653,7 @@
       <c r="X299" s="2"/>
       <c r="Y299" s="2"/>
     </row>
-    <row r="300" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A300" s="2"/>
       <c r="B300" s="2"/>
       <c r="C300" s="2"/>
@@ -8670,7 +8680,7 @@
       <c r="X300" s="2"/>
       <c r="Y300" s="2"/>
     </row>
-    <row r="301" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A301" s="2"/>
       <c r="B301" s="2"/>
       <c r="C301" s="2"/>
@@ -8697,7 +8707,7 @@
       <c r="X301" s="2"/>
       <c r="Y301" s="2"/>
     </row>
-    <row r="302" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A302" s="2"/>
       <c r="B302" s="2"/>
       <c r="C302" s="2"/>
@@ -8724,7 +8734,7 @@
       <c r="X302" s="2"/>
       <c r="Y302" s="2"/>
     </row>
-    <row r="303" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A303" s="2"/>
       <c r="B303" s="2"/>
       <c r="C303" s="2"/>
@@ -8751,7 +8761,7 @@
       <c r="X303" s="2"/>
       <c r="Y303" s="2"/>
     </row>
-    <row r="304" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A304" s="2"/>
       <c r="B304" s="2"/>
       <c r="C304" s="2"/>
@@ -8778,7 +8788,7 @@
       <c r="X304" s="2"/>
       <c r="Y304" s="2"/>
     </row>
-    <row r="305" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A305" s="2"/>
       <c r="B305" s="2"/>
       <c r="C305" s="2"/>
@@ -8805,7 +8815,7 @@
       <c r="X305" s="2"/>
       <c r="Y305" s="2"/>
     </row>
-    <row r="306" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A306" s="2"/>
       <c r="B306" s="2"/>
       <c r="C306" s="2"/>
@@ -8832,7 +8842,7 @@
       <c r="X306" s="2"/>
       <c r="Y306" s="2"/>
     </row>
-    <row r="307" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A307" s="2"/>
       <c r="B307" s="2"/>
       <c r="C307" s="2"/>
@@ -8859,7 +8869,7 @@
       <c r="X307" s="2"/>
       <c r="Y307" s="2"/>
     </row>
-    <row r="308" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A308" s="2"/>
       <c r="B308" s="2"/>
       <c r="C308" s="2"/>
@@ -8886,7 +8896,7 @@
       <c r="X308" s="2"/>
       <c r="Y308" s="2"/>
     </row>
-    <row r="309" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A309" s="2"/>
       <c r="B309" s="2"/>
       <c r="C309" s="2"/>
@@ -8913,7 +8923,7 @@
       <c r="X309" s="2"/>
       <c r="Y309" s="2"/>
     </row>
-    <row r="310" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A310" s="2"/>
       <c r="B310" s="2"/>
       <c r="C310" s="2"/>
@@ -8940,7 +8950,7 @@
       <c r="X310" s="2"/>
       <c r="Y310" s="2"/>
     </row>
-    <row r="311" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A311" s="2"/>
       <c r="B311" s="2"/>
       <c r="C311" s="2"/>
@@ -8967,7 +8977,7 @@
       <c r="X311" s="2"/>
       <c r="Y311" s="2"/>
     </row>
-    <row r="312" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A312" s="2"/>
       <c r="B312" s="2"/>
       <c r="C312" s="2"/>
@@ -8994,7 +9004,7 @@
       <c r="X312" s="2"/>
       <c r="Y312" s="2"/>
     </row>
-    <row r="313" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A313" s="2"/>
       <c r="B313" s="2"/>
       <c r="C313" s="2"/>
@@ -9021,7 +9031,7 @@
       <c r="X313" s="2"/>
       <c r="Y313" s="2"/>
     </row>
-    <row r="314" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A314" s="2"/>
       <c r="B314" s="2"/>
       <c r="C314" s="2"/>
@@ -9048,7 +9058,7 @@
       <c r="X314" s="2"/>
       <c r="Y314" s="2"/>
     </row>
-    <row r="315" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A315" s="2"/>
       <c r="B315" s="2"/>
       <c r="C315" s="2"/>
@@ -9075,7 +9085,7 @@
       <c r="X315" s="2"/>
       <c r="Y315" s="2"/>
     </row>
-    <row r="316" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A316" s="2"/>
       <c r="B316" s="2"/>
       <c r="C316" s="2"/>
@@ -9102,7 +9112,7 @@
       <c r="X316" s="2"/>
       <c r="Y316" s="2"/>
     </row>
-    <row r="317" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A317" s="2"/>
       <c r="B317" s="2"/>
       <c r="C317" s="2"/>
@@ -9129,7 +9139,7 @@
       <c r="X317" s="2"/>
       <c r="Y317" s="2"/>
     </row>
-    <row r="318" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A318" s="2"/>
       <c r="B318" s="2"/>
       <c r="C318" s="2"/>
@@ -9156,7 +9166,7 @@
       <c r="X318" s="2"/>
       <c r="Y318" s="2"/>
     </row>
-    <row r="319" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A319" s="2"/>
       <c r="B319" s="2"/>
       <c r="C319" s="2"/>
@@ -9183,7 +9193,7 @@
       <c r="X319" s="2"/>
       <c r="Y319" s="2"/>
     </row>
-    <row r="320" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A320" s="2"/>
       <c r="B320" s="2"/>
       <c r="C320" s="2"/>
@@ -9210,7 +9220,7 @@
       <c r="X320" s="2"/>
       <c r="Y320" s="2"/>
     </row>
-    <row r="321" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A321" s="2"/>
       <c r="B321" s="2"/>
       <c r="C321" s="2"/>
@@ -9237,7 +9247,7 @@
       <c r="X321" s="2"/>
       <c r="Y321" s="2"/>
     </row>
-    <row r="322" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A322" s="2"/>
       <c r="B322" s="2"/>
       <c r="C322" s="2"/>
@@ -9264,7 +9274,7 @@
       <c r="X322" s="2"/>
       <c r="Y322" s="2"/>
     </row>
-    <row r="323" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A323" s="2"/>
       <c r="B323" s="2"/>
       <c r="C323" s="2"/>
@@ -9291,7 +9301,7 @@
       <c r="X323" s="2"/>
       <c r="Y323" s="2"/>
     </row>
-    <row r="324" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A324" s="2"/>
       <c r="B324" s="2"/>
       <c r="C324" s="2"/>
@@ -9318,7 +9328,7 @@
       <c r="X324" s="2"/>
       <c r="Y324" s="2"/>
     </row>
-    <row r="325" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A325" s="2"/>
       <c r="B325" s="2"/>
       <c r="C325" s="2"/>
@@ -9345,7 +9355,7 @@
       <c r="X325" s="2"/>
       <c r="Y325" s="2"/>
     </row>
-    <row r="326" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A326" s="2"/>
       <c r="B326" s="2"/>
       <c r="C326" s="2"/>
@@ -9372,7 +9382,7 @@
       <c r="X326" s="2"/>
       <c r="Y326" s="2"/>
     </row>
-    <row r="327" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A327" s="2"/>
       <c r="B327" s="2"/>
       <c r="C327" s="2"/>
@@ -9399,7 +9409,7 @@
       <c r="X327" s="2"/>
       <c r="Y327" s="2"/>
     </row>
-    <row r="328" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A328" s="2"/>
       <c r="B328" s="2"/>
       <c r="C328" s="2"/>
@@ -9426,7 +9436,7 @@
       <c r="X328" s="2"/>
       <c r="Y328" s="2"/>
     </row>
-    <row r="329" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A329" s="2"/>
       <c r="B329" s="2"/>
       <c r="C329" s="2"/>
@@ -9453,7 +9463,7 @@
       <c r="X329" s="2"/>
       <c r="Y329" s="2"/>
     </row>
-    <row r="330" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A330" s="2"/>
       <c r="B330" s="2"/>
       <c r="C330" s="2"/>
@@ -9480,7 +9490,7 @@
       <c r="X330" s="2"/>
       <c r="Y330" s="2"/>
     </row>
-    <row r="331" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A331" s="2"/>
       <c r="B331" s="2"/>
       <c r="C331" s="2"/>
@@ -9507,7 +9517,7 @@
       <c r="X331" s="2"/>
       <c r="Y331" s="2"/>
     </row>
-    <row r="332" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A332" s="2"/>
       <c r="B332" s="2"/>
       <c r="C332" s="2"/>
@@ -9534,7 +9544,7 @@
       <c r="X332" s="2"/>
       <c r="Y332" s="2"/>
     </row>
-    <row r="333" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A333" s="2"/>
       <c r="B333" s="2"/>
       <c r="C333" s="2"/>
@@ -9561,7 +9571,7 @@
       <c r="X333" s="2"/>
       <c r="Y333" s="2"/>
     </row>
-    <row r="334" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A334" s="2"/>
       <c r="B334" s="2"/>
       <c r="C334" s="2"/>
@@ -9588,7 +9598,7 @@
       <c r="X334" s="2"/>
       <c r="Y334" s="2"/>
     </row>
-    <row r="335" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A335" s="2"/>
       <c r="B335" s="2"/>
       <c r="C335" s="2"/>
@@ -9615,7 +9625,7 @@
       <c r="X335" s="2"/>
       <c r="Y335" s="2"/>
     </row>
-    <row r="336" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A336" s="2"/>
       <c r="B336" s="2"/>
       <c r="C336" s="2"/>
@@ -9642,7 +9652,7 @@
       <c r="X336" s="2"/>
       <c r="Y336" s="2"/>
     </row>
-    <row r="337" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A337" s="2"/>
       <c r="B337" s="2"/>
       <c r="C337" s="2"/>
@@ -9669,7 +9679,7 @@
       <c r="X337" s="2"/>
       <c r="Y337" s="2"/>
     </row>
-    <row r="338" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A338" s="2"/>
       <c r="B338" s="2"/>
       <c r="C338" s="2"/>
@@ -9696,7 +9706,7 @@
       <c r="X338" s="2"/>
       <c r="Y338" s="2"/>
     </row>
-    <row r="339" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A339" s="2"/>
       <c r="B339" s="2"/>
       <c r="C339" s="2"/>
@@ -9723,7 +9733,7 @@
       <c r="X339" s="2"/>
       <c r="Y339" s="2"/>
     </row>
-    <row r="340" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A340" s="2"/>
       <c r="B340" s="2"/>
       <c r="C340" s="2"/>
@@ -9750,7 +9760,7 @@
       <c r="X340" s="2"/>
       <c r="Y340" s="2"/>
     </row>
-    <row r="341" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A341" s="2"/>
       <c r="B341" s="2"/>
       <c r="C341" s="2"/>
@@ -9777,7 +9787,7 @@
       <c r="X341" s="2"/>
       <c r="Y341" s="2"/>
     </row>
-    <row r="342" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A342" s="2"/>
       <c r="B342" s="2"/>
       <c r="C342" s="2"/>
@@ -9804,7 +9814,7 @@
       <c r="X342" s="2"/>
       <c r="Y342" s="2"/>
     </row>
-    <row r="343" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A343" s="2"/>
       <c r="B343" s="2"/>
       <c r="C343" s="2"/>
@@ -9831,7 +9841,7 @@
       <c r="X343" s="2"/>
       <c r="Y343" s="2"/>
     </row>
-    <row r="344" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A344" s="2"/>
       <c r="B344" s="2"/>
       <c r="C344" s="2"/>
@@ -9858,7 +9868,7 @@
       <c r="X344" s="2"/>
       <c r="Y344" s="2"/>
     </row>
-    <row r="345" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A345" s="2"/>
       <c r="B345" s="2"/>
       <c r="C345" s="2"/>
@@ -9885,7 +9895,7 @@
       <c r="X345" s="2"/>
       <c r="Y345" s="2"/>
     </row>
-    <row r="346" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A346" s="2"/>
       <c r="B346" s="2"/>
       <c r="C346" s="2"/>
@@ -9912,7 +9922,7 @@
       <c r="X346" s="2"/>
       <c r="Y346" s="2"/>
     </row>
-    <row r="347" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A347" s="2"/>
       <c r="B347" s="2"/>
       <c r="C347" s="2"/>
@@ -9939,7 +9949,7 @@
       <c r="X347" s="2"/>
       <c r="Y347" s="2"/>
     </row>
-    <row r="348" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A348" s="2"/>
       <c r="B348" s="2"/>
       <c r="C348" s="2"/>
@@ -9966,7 +9976,7 @@
       <c r="X348" s="2"/>
       <c r="Y348" s="2"/>
     </row>
-    <row r="349" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A349" s="2"/>
       <c r="B349" s="2"/>
       <c r="C349" s="2"/>
@@ -9993,7 +10003,7 @@
       <c r="X349" s="2"/>
       <c r="Y349" s="2"/>
     </row>
-    <row r="350" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A350" s="2"/>
       <c r="B350" s="2"/>
       <c r="C350" s="2"/>
@@ -10020,7 +10030,7 @@
       <c r="X350" s="2"/>
       <c r="Y350" s="2"/>
     </row>
-    <row r="351" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A351" s="2"/>
       <c r="B351" s="2"/>
       <c r="C351" s="2"/>
@@ -10047,7 +10057,7 @@
       <c r="X351" s="2"/>
       <c r="Y351" s="2"/>
     </row>
-    <row r="352" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A352" s="2"/>
       <c r="B352" s="2"/>
       <c r="C352" s="2"/>
@@ -10074,7 +10084,7 @@
       <c r="X352" s="2"/>
       <c r="Y352" s="2"/>
     </row>
-    <row r="353" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A353" s="2"/>
       <c r="B353" s="2"/>
       <c r="C353" s="2"/>
@@ -10101,7 +10111,7 @@
       <c r="X353" s="2"/>
       <c r="Y353" s="2"/>
     </row>
-    <row r="354" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A354" s="2"/>
       <c r="B354" s="2"/>
       <c r="C354" s="2"/>
@@ -10128,7 +10138,7 @@
       <c r="X354" s="2"/>
       <c r="Y354" s="2"/>
     </row>
-    <row r="355" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A355" s="2"/>
       <c r="B355" s="2"/>
       <c r="C355" s="2"/>
@@ -10155,7 +10165,7 @@
       <c r="X355" s="2"/>
       <c r="Y355" s="2"/>
     </row>
-    <row r="356" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A356" s="2"/>
       <c r="B356" s="2"/>
       <c r="C356" s="2"/>
@@ -10182,7 +10192,7 @@
       <c r="X356" s="2"/>
       <c r="Y356" s="2"/>
     </row>
-    <row r="357" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A357" s="2"/>
       <c r="B357" s="2"/>
       <c r="C357" s="2"/>
@@ -10209,7 +10219,7 @@
       <c r="X357" s="2"/>
       <c r="Y357" s="2"/>
     </row>
-    <row r="358" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A358" s="2"/>
       <c r="B358" s="2"/>
       <c r="C358" s="2"/>
@@ -10236,7 +10246,7 @@
       <c r="X358" s="2"/>
       <c r="Y358" s="2"/>
     </row>
-    <row r="359" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A359" s="2"/>
       <c r="B359" s="2"/>
       <c r="C359" s="2"/>
@@ -10263,7 +10273,7 @@
       <c r="X359" s="2"/>
       <c r="Y359" s="2"/>
     </row>
-    <row r="360" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A360" s="2"/>
       <c r="B360" s="2"/>
       <c r="C360" s="2"/>
@@ -10290,7 +10300,7 @@
       <c r="X360" s="2"/>
       <c r="Y360" s="2"/>
     </row>
-    <row r="361" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A361" s="2"/>
       <c r="B361" s="2"/>
       <c r="C361" s="2"/>
@@ -10317,7 +10327,7 @@
       <c r="X361" s="2"/>
       <c r="Y361" s="2"/>
     </row>
-    <row r="362" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A362" s="2"/>
       <c r="B362" s="2"/>
       <c r="C362" s="2"/>
@@ -10344,7 +10354,7 @@
       <c r="X362" s="2"/>
       <c r="Y362" s="2"/>
     </row>
-    <row r="363" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A363" s="2"/>
       <c r="B363" s="2"/>
       <c r="C363" s="2"/>
@@ -10371,7 +10381,7 @@
       <c r="X363" s="2"/>
       <c r="Y363" s="2"/>
     </row>
-    <row r="364" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A364" s="2"/>
       <c r="B364" s="2"/>
       <c r="C364" s="2"/>
@@ -10398,7 +10408,7 @@
       <c r="X364" s="2"/>
       <c r="Y364" s="2"/>
     </row>
-    <row r="365" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A365" s="2"/>
       <c r="B365" s="2"/>
       <c r="C365" s="2"/>
@@ -10425,7 +10435,7 @@
       <c r="X365" s="2"/>
       <c r="Y365" s="2"/>
     </row>
-    <row r="366" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A366" s="2"/>
       <c r="B366" s="2"/>
       <c r="C366" s="2"/>
@@ -10452,7 +10462,7 @@
       <c r="X366" s="2"/>
       <c r="Y366" s="2"/>
     </row>
-    <row r="367" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A367" s="2"/>
       <c r="B367" s="2"/>
       <c r="C367" s="2"/>
@@ -10479,7 +10489,7 @@
       <c r="X367" s="2"/>
       <c r="Y367" s="2"/>
     </row>
-    <row r="368" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A368" s="2"/>
       <c r="B368" s="2"/>
       <c r="C368" s="2"/>
@@ -10506,7 +10516,7 @@
       <c r="X368" s="2"/>
       <c r="Y368" s="2"/>
     </row>
-    <row r="369" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A369" s="2"/>
       <c r="B369" s="2"/>
       <c r="C369" s="2"/>
@@ -10533,7 +10543,7 @@
       <c r="X369" s="2"/>
       <c r="Y369" s="2"/>
     </row>
-    <row r="370" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A370" s="2"/>
       <c r="B370" s="2"/>
       <c r="C370" s="2"/>
@@ -10560,7 +10570,7 @@
       <c r="X370" s="2"/>
       <c r="Y370" s="2"/>
     </row>
-    <row r="371" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A371" s="2"/>
       <c r="B371" s="2"/>
       <c r="C371" s="2"/>
@@ -10587,7 +10597,7 @@
       <c r="X371" s="2"/>
       <c r="Y371" s="2"/>
     </row>
-    <row r="372" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A372" s="2"/>
       <c r="B372" s="2"/>
       <c r="C372" s="2"/>
@@ -10614,7 +10624,7 @@
       <c r="X372" s="2"/>
       <c r="Y372" s="2"/>
     </row>
-    <row r="373" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A373" s="2"/>
       <c r="B373" s="2"/>
       <c r="C373" s="2"/>
@@ -10641,7 +10651,7 @@
       <c r="X373" s="2"/>
       <c r="Y373" s="2"/>
     </row>
-    <row r="374" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A374" s="2"/>
       <c r="B374" s="2"/>
       <c r="C374" s="2"/>
@@ -10668,7 +10678,7 @@
       <c r="X374" s="2"/>
       <c r="Y374" s="2"/>
     </row>
-    <row r="375" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A375" s="2"/>
       <c r="B375" s="2"/>
       <c r="C375" s="2"/>
@@ -10695,7 +10705,7 @@
       <c r="X375" s="2"/>
       <c r="Y375" s="2"/>
     </row>
-    <row r="376" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A376" s="2"/>
       <c r="B376" s="2"/>
       <c r="C376" s="2"/>
@@ -10722,7 +10732,7 @@
       <c r="X376" s="2"/>
       <c r="Y376" s="2"/>
     </row>
-    <row r="377" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A377" s="2"/>
       <c r="B377" s="2"/>
       <c r="C377" s="2"/>
@@ -10749,7 +10759,7 @@
       <c r="X377" s="2"/>
       <c r="Y377" s="2"/>
     </row>
-    <row r="378" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A378" s="2"/>
       <c r="B378" s="2"/>
       <c r="C378" s="2"/>
@@ -10776,7 +10786,7 @@
       <c r="X378" s="2"/>
       <c r="Y378" s="2"/>
     </row>
-    <row r="379" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A379" s="2"/>
       <c r="B379" s="2"/>
       <c r="C379" s="2"/>
@@ -10803,7 +10813,7 @@
       <c r="X379" s="2"/>
       <c r="Y379" s="2"/>
     </row>
-    <row r="380" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A380" s="2"/>
       <c r="B380" s="2"/>
       <c r="C380" s="2"/>
@@ -10830,7 +10840,7 @@
       <c r="X380" s="2"/>
       <c r="Y380" s="2"/>
     </row>
-    <row r="381" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A381" s="2"/>
       <c r="B381" s="2"/>
       <c r="C381" s="2"/>
@@ -10857,7 +10867,7 @@
       <c r="X381" s="2"/>
       <c r="Y381" s="2"/>
     </row>
-    <row r="382" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A382" s="2"/>
       <c r="B382" s="2"/>
       <c r="C382" s="2"/>
@@ -10884,7 +10894,7 @@
       <c r="X382" s="2"/>
       <c r="Y382" s="2"/>
     </row>
-    <row r="383" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A383" s="2"/>
       <c r="B383" s="2"/>
       <c r="C383" s="2"/>
@@ -10911,7 +10921,7 @@
       <c r="X383" s="2"/>
       <c r="Y383" s="2"/>
     </row>
-    <row r="384" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A384" s="2"/>
       <c r="B384" s="2"/>
       <c r="C384" s="2"/>
@@ -10938,7 +10948,7 @@
       <c r="X384" s="2"/>
       <c r="Y384" s="2"/>
     </row>
-    <row r="385" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A385" s="2"/>
       <c r="B385" s="2"/>
       <c r="C385" s="2"/>
@@ -10965,7 +10975,7 @@
       <c r="X385" s="2"/>
       <c r="Y385" s="2"/>
     </row>
-    <row r="386" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A386" s="2"/>
       <c r="B386" s="2"/>
       <c r="C386" s="2"/>
@@ -10992,7 +11002,7 @@
       <c r="X386" s="2"/>
       <c r="Y386" s="2"/>
     </row>
-    <row r="387" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A387" s="2"/>
       <c r="B387" s="2"/>
       <c r="C387" s="2"/>
@@ -11019,7 +11029,7 @@
       <c r="X387" s="2"/>
       <c r="Y387" s="2"/>
     </row>
-    <row r="388" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A388" s="2"/>
       <c r="B388" s="2"/>
       <c r="C388" s="2"/>
@@ -11046,7 +11056,7 @@
       <c r="X388" s="2"/>
       <c r="Y388" s="2"/>
     </row>
-    <row r="389" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A389" s="2"/>
       <c r="B389" s="2"/>
       <c r="C389" s="2"/>
@@ -11073,7 +11083,7 @@
       <c r="X389" s="2"/>
       <c r="Y389" s="2"/>
     </row>
-    <row r="390" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A390" s="2"/>
       <c r="B390" s="2"/>
       <c r="C390" s="2"/>
@@ -11100,7 +11110,7 @@
       <c r="X390" s="2"/>
       <c r="Y390" s="2"/>
     </row>
-    <row r="391" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A391" s="2"/>
       <c r="B391" s="2"/>
       <c r="C391" s="2"/>
@@ -11127,7 +11137,7 @@
       <c r="X391" s="2"/>
       <c r="Y391" s="2"/>
     </row>
-    <row r="392" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A392" s="2"/>
       <c r="B392" s="2"/>
       <c r="C392" s="2"/>
@@ -11154,7 +11164,7 @@
       <c r="X392" s="2"/>
       <c r="Y392" s="2"/>
     </row>
-    <row r="393" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A393" s="2"/>
       <c r="B393" s="2"/>
       <c r="C393" s="2"/>
@@ -11181,7 +11191,7 @@
       <c r="X393" s="2"/>
       <c r="Y393" s="2"/>
     </row>
-    <row r="394" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A394" s="2"/>
       <c r="B394" s="2"/>
       <c r="C394" s="2"/>
@@ -11208,7 +11218,7 @@
       <c r="X394" s="2"/>
       <c r="Y394" s="2"/>
     </row>
-    <row r="395" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A395" s="2"/>
       <c r="B395" s="2"/>
       <c r="C395" s="2"/>
@@ -11235,7 +11245,7 @@
       <c r="X395" s="2"/>
       <c r="Y395" s="2"/>
     </row>
-    <row r="396" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A396" s="2"/>
       <c r="B396" s="2"/>
       <c r="C396" s="2"/>
@@ -11262,7 +11272,7 @@
       <c r="X396" s="2"/>
       <c r="Y396" s="2"/>
     </row>
-    <row r="397" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A397" s="2"/>
       <c r="B397" s="2"/>
       <c r="C397" s="2"/>
@@ -11289,7 +11299,7 @@
       <c r="X397" s="2"/>
       <c r="Y397" s="2"/>
     </row>
-    <row r="398" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A398" s="2"/>
       <c r="B398" s="2"/>
       <c r="C398" s="2"/>
@@ -11316,7 +11326,7 @@
       <c r="X398" s="2"/>
       <c r="Y398" s="2"/>
     </row>
-    <row r="399" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A399" s="2"/>
       <c r="B399" s="2"/>
       <c r="C399" s="2"/>
@@ -11343,7 +11353,7 @@
       <c r="X399" s="2"/>
       <c r="Y399" s="2"/>
     </row>
-    <row r="400" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A400" s="2"/>
       <c r="B400" s="2"/>
       <c r="C400" s="2"/>
@@ -11370,7 +11380,7 @@
       <c r="X400" s="2"/>
       <c r="Y400" s="2"/>
     </row>
-    <row r="401" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A401" s="2"/>
       <c r="B401" s="2"/>
       <c r="C401" s="2"/>
@@ -11397,7 +11407,7 @@
       <c r="X401" s="2"/>
       <c r="Y401" s="2"/>
     </row>
-    <row r="402" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A402" s="2"/>
       <c r="B402" s="2"/>
       <c r="C402" s="2"/>
@@ -11424,7 +11434,7 @@
       <c r="X402" s="2"/>
       <c r="Y402" s="2"/>
     </row>
-    <row r="403" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A403" s="2"/>
       <c r="B403" s="2"/>
       <c r="C403" s="2"/>
@@ -11451,7 +11461,7 @@
       <c r="X403" s="2"/>
       <c r="Y403" s="2"/>
     </row>
-    <row r="404" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A404" s="2"/>
       <c r="B404" s="2"/>
       <c r="C404" s="2"/>
@@ -11478,7 +11488,7 @@
       <c r="X404" s="2"/>
       <c r="Y404" s="2"/>
     </row>
-    <row r="405" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A405" s="2"/>
       <c r="B405" s="2"/>
       <c r="C405" s="2"/>
@@ -11505,7 +11515,7 @@
       <c r="X405" s="2"/>
       <c r="Y405" s="2"/>
     </row>
-    <row r="406" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A406" s="2"/>
       <c r="B406" s="2"/>
       <c r="C406" s="2"/>
@@ -11532,7 +11542,7 @@
       <c r="X406" s="2"/>
       <c r="Y406" s="2"/>
     </row>
-    <row r="407" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A407" s="2"/>
       <c r="B407" s="2"/>
       <c r="C407" s="2"/>
@@ -11559,7 +11569,7 @@
       <c r="X407" s="2"/>
       <c r="Y407" s="2"/>
     </row>
-    <row r="408" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A408" s="2"/>
       <c r="B408" s="2"/>
       <c r="C408" s="2"/>
@@ -11586,7 +11596,7 @@
       <c r="X408" s="2"/>
       <c r="Y408" s="2"/>
     </row>
-    <row r="409" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A409" s="2"/>
       <c r="B409" s="2"/>
       <c r="C409" s="2"/>
@@ -11613,7 +11623,7 @@
       <c r="X409" s="2"/>
       <c r="Y409" s="2"/>
     </row>
-    <row r="410" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A410" s="2"/>
       <c r="B410" s="2"/>
       <c r="C410" s="2"/>
@@ -11640,7 +11650,7 @@
       <c r="X410" s="2"/>
       <c r="Y410" s="2"/>
     </row>
-    <row r="411" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A411" s="2"/>
       <c r="B411" s="2"/>
       <c r="C411" s="2"/>
@@ -11667,7 +11677,7 @@
       <c r="X411" s="2"/>
       <c r="Y411" s="2"/>
     </row>
-    <row r="412" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A412" s="2"/>
       <c r="B412" s="2"/>
       <c r="C412" s="2"/>
@@ -11694,7 +11704,7 @@
       <c r="X412" s="2"/>
       <c r="Y412" s="2"/>
     </row>
-    <row r="413" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A413" s="2"/>
       <c r="B413" s="2"/>
       <c r="C413" s="2"/>
@@ -11721,7 +11731,7 @@
       <c r="X413" s="2"/>
       <c r="Y413" s="2"/>
     </row>
-    <row r="414" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A414" s="2"/>
       <c r="B414" s="2"/>
       <c r="C414" s="2"/>
@@ -11748,7 +11758,7 @@
       <c r="X414" s="2"/>
       <c r="Y414" s="2"/>
     </row>
-    <row r="415" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A415" s="2"/>
       <c r="B415" s="2"/>
       <c r="C415" s="2"/>
@@ -11775,7 +11785,7 @@
       <c r="X415" s="2"/>
       <c r="Y415" s="2"/>
     </row>
-    <row r="416" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A416" s="2"/>
       <c r="B416" s="2"/>
       <c r="C416" s="2"/>
@@ -11802,7 +11812,7 @@
       <c r="X416" s="2"/>
       <c r="Y416" s="2"/>
     </row>
-    <row r="417" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A417" s="2"/>
       <c r="B417" s="2"/>
       <c r="C417" s="2"/>
@@ -11829,7 +11839,7 @@
       <c r="X417" s="2"/>
       <c r="Y417" s="2"/>
     </row>
-    <row r="418" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A418" s="2"/>
       <c r="B418" s="2"/>
       <c r="C418" s="2"/>
@@ -11856,7 +11866,7 @@
       <c r="X418" s="2"/>
       <c r="Y418" s="2"/>
     </row>
-    <row r="419" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A419" s="2"/>
       <c r="B419" s="2"/>
       <c r="C419" s="2"/>
@@ -11883,7 +11893,7 @@
       <c r="X419" s="2"/>
       <c r="Y419" s="2"/>
     </row>
-    <row r="420" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A420" s="2"/>
       <c r="B420" s="2"/>
       <c r="C420" s="2"/>
@@ -11910,7 +11920,7 @@
       <c r="X420" s="2"/>
       <c r="Y420" s="2"/>
     </row>
-    <row r="421" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A421" s="2"/>
       <c r="B421" s="2"/>
       <c r="C421" s="2"/>
@@ -11937,7 +11947,7 @@
       <c r="X421" s="2"/>
       <c r="Y421" s="2"/>
     </row>
-    <row r="422" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A422" s="2"/>
       <c r="B422" s="2"/>
       <c r="C422" s="2"/>
@@ -11964,7 +11974,7 @@
       <c r="X422" s="2"/>
       <c r="Y422" s="2"/>
     </row>
-    <row r="423" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A423" s="2"/>
       <c r="B423" s="2"/>
       <c r="C423" s="2"/>
@@ -11991,7 +12001,7 @@
       <c r="X423" s="2"/>
       <c r="Y423" s="2"/>
     </row>
-    <row r="424" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A424" s="2"/>
       <c r="B424" s="2"/>
       <c r="C424" s="2"/>
@@ -12018,7 +12028,7 @@
       <c r="X424" s="2"/>
       <c r="Y424" s="2"/>
     </row>
-    <row r="425" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A425" s="2"/>
       <c r="B425" s="2"/>
       <c r="C425" s="2"/>
@@ -12045,7 +12055,7 @@
       <c r="X425" s="2"/>
       <c r="Y425" s="2"/>
     </row>
-    <row r="426" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A426" s="2"/>
       <c r="B426" s="2"/>
       <c r="C426" s="2"/>
@@ -12072,7 +12082,7 @@
       <c r="X426" s="2"/>
       <c r="Y426" s="2"/>
     </row>
-    <row r="427" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A427" s="2"/>
       <c r="B427" s="2"/>
       <c r="C427" s="2"/>
@@ -12099,7 +12109,7 @@
       <c r="X427" s="2"/>
       <c r="Y427" s="2"/>
     </row>
-    <row r="428" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A428" s="2"/>
       <c r="B428" s="2"/>
       <c r="C428" s="2"/>
@@ -12126,7 +12136,7 @@
       <c r="X428" s="2"/>
       <c r="Y428" s="2"/>
     </row>
-    <row r="429" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A429" s="2"/>
       <c r="B429" s="2"/>
       <c r="C429" s="2"/>
@@ -12153,7 +12163,7 @@
       <c r="X429" s="2"/>
       <c r="Y429" s="2"/>
     </row>
-    <row r="430" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A430" s="2"/>
       <c r="B430" s="2"/>
       <c r="C430" s="2"/>
@@ -12180,7 +12190,7 @@
       <c r="X430" s="2"/>
       <c r="Y430" s="2"/>
     </row>
-    <row r="431" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A431" s="2"/>
       <c r="B431" s="2"/>
       <c r="C431" s="2"/>
@@ -12207,7 +12217,7 @@
       <c r="X431" s="2"/>
       <c r="Y431" s="2"/>
     </row>
-    <row r="432" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A432" s="2"/>
       <c r="B432" s="2"/>
       <c r="C432" s="2"/>
@@ -12234,7 +12244,7 @@
       <c r="X432" s="2"/>
       <c r="Y432" s="2"/>
     </row>
-    <row r="433" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A433" s="2"/>
       <c r="B433" s="2"/>
       <c r="C433" s="2"/>
@@ -12261,7 +12271,7 @@
       <c r="X433" s="2"/>
       <c r="Y433" s="2"/>
     </row>
-    <row r="434" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A434" s="2"/>
       <c r="B434" s="2"/>
       <c r="C434" s="2"/>
@@ -12288,7 +12298,7 @@
       <c r="X434" s="2"/>
       <c r="Y434" s="2"/>
     </row>
-    <row r="435" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A435" s="2"/>
       <c r="B435" s="2"/>
       <c r="C435" s="2"/>
@@ -12315,7 +12325,7 @@
       <c r="X435" s="2"/>
       <c r="Y435" s="2"/>
     </row>
-    <row r="436" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A436" s="2"/>
       <c r="B436" s="2"/>
       <c r="C436" s="2"/>
@@ -12342,7 +12352,7 @@
       <c r="X436" s="2"/>
       <c r="Y436" s="2"/>
     </row>
-    <row r="437" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A437" s="2"/>
       <c r="B437" s="2"/>
       <c r="C437" s="2"/>
@@ -12369,7 +12379,7 @@
       <c r="X437" s="2"/>
       <c r="Y437" s="2"/>
     </row>
-    <row r="438" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A438" s="2"/>
       <c r="B438" s="2"/>
       <c r="C438" s="2"/>
@@ -12396,7 +12406,7 @@
       <c r="X438" s="2"/>
       <c r="Y438" s="2"/>
     </row>
-    <row r="439" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A439" s="2"/>
       <c r="B439" s="2"/>
       <c r="C439" s="2"/>
@@ -12423,7 +12433,7 @@
       <c r="X439" s="2"/>
       <c r="Y439" s="2"/>
     </row>
-    <row r="440" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A440" s="2"/>
       <c r="B440" s="2"/>
       <c r="C440" s="2"/>
@@ -12450,7 +12460,7 @@
       <c r="X440" s="2"/>
       <c r="Y440" s="2"/>
     </row>
-    <row r="441" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A441" s="2"/>
       <c r="B441" s="2"/>
       <c r="C441" s="2"/>
@@ -12477,7 +12487,7 @@
       <c r="X441" s="2"/>
       <c r="Y441" s="2"/>
     </row>
-    <row r="442" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A442" s="2"/>
       <c r="B442" s="2"/>
       <c r="C442" s="2"/>
@@ -12504,7 +12514,7 @@
       <c r="X442" s="2"/>
       <c r="Y442" s="2"/>
     </row>
-    <row r="443" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A443" s="2"/>
       <c r="B443" s="2"/>
       <c r="C443" s="2"/>
@@ -12531,7 +12541,7 @@
       <c r="X443" s="2"/>
       <c r="Y443" s="2"/>
     </row>
-    <row r="444" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A444" s="2"/>
       <c r="B444" s="2"/>
       <c r="C444" s="2"/>
@@ -12558,7 +12568,7 @@
       <c r="X444" s="2"/>
       <c r="Y444" s="2"/>
     </row>
-    <row r="445" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A445" s="2"/>
       <c r="B445" s="2"/>
       <c r="C445" s="2"/>
@@ -12585,7 +12595,7 @@
       <c r="X445" s="2"/>
       <c r="Y445" s="2"/>
     </row>
-    <row r="446" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A446" s="2"/>
       <c r="B446" s="2"/>
       <c r="C446" s="2"/>
@@ -12612,7 +12622,7 @@
       <c r="X446" s="2"/>
       <c r="Y446" s="2"/>
     </row>
-    <row r="447" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A447" s="2"/>
       <c r="B447" s="2"/>
       <c r="C447" s="2"/>
@@ -12639,7 +12649,7 @@
       <c r="X447" s="2"/>
       <c r="Y447" s="2"/>
     </row>
-    <row r="448" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A448" s="2"/>
       <c r="B448" s="2"/>
       <c r="C448" s="2"/>
@@ -12666,7 +12676,7 @@
       <c r="X448" s="2"/>
       <c r="Y448" s="2"/>
     </row>
-    <row r="449" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A449" s="2"/>
       <c r="B449" s="2"/>
       <c r="C449" s="2"/>
@@ -12693,7 +12703,7 @@
       <c r="X449" s="2"/>
       <c r="Y449" s="2"/>
     </row>
-    <row r="450" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A450" s="2"/>
       <c r="B450" s="2"/>
       <c r="C450" s="2"/>
@@ -12720,7 +12730,7 @@
       <c r="X450" s="2"/>
       <c r="Y450" s="2"/>
     </row>
-    <row r="451" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A451" s="2"/>
       <c r="B451" s="2"/>
       <c r="C451" s="2"/>
@@ -12747,7 +12757,7 @@
       <c r="X451" s="2"/>
       <c r="Y451" s="2"/>
     </row>
-    <row r="452" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A452" s="2"/>
       <c r="B452" s="2"/>
       <c r="C452" s="2"/>
@@ -12774,7 +12784,7 @@
       <c r="X452" s="2"/>
       <c r="Y452" s="2"/>
     </row>
-    <row r="453" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A453" s="2"/>
       <c r="B453" s="2"/>
       <c r="C453" s="2"/>
@@ -12801,7 +12811,7 @@
       <c r="X453" s="2"/>
       <c r="Y453" s="2"/>
     </row>
-    <row r="454" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A454" s="2"/>
       <c r="B454" s="2"/>
       <c r="C454" s="2"/>
@@ -12828,7 +12838,7 @@
       <c r="X454" s="2"/>
       <c r="Y454" s="2"/>
     </row>
-    <row r="455" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A455" s="2"/>
       <c r="B455" s="2"/>
       <c r="C455" s="2"/>
@@ -12855,7 +12865,7 @@
       <c r="X455" s="2"/>
       <c r="Y455" s="2"/>
     </row>
-    <row r="456" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A456" s="2"/>
       <c r="B456" s="2"/>
       <c r="C456" s="2"/>
@@ -12882,7 +12892,7 @@
       <c r="X456" s="2"/>
       <c r="Y456" s="2"/>
     </row>
-    <row r="457" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A457" s="2"/>
       <c r="B457" s="2"/>
       <c r="C457" s="2"/>
@@ -12909,7 +12919,7 @@
       <c r="X457" s="2"/>
       <c r="Y457" s="2"/>
     </row>
-    <row r="458" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A458" s="2"/>
       <c r="B458" s="2"/>
       <c r="C458" s="2"/>
@@ -12936,7 +12946,7 @@
       <c r="X458" s="2"/>
       <c r="Y458" s="2"/>
     </row>
-    <row r="459" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A459" s="2"/>
       <c r="B459" s="2"/>
       <c r="C459" s="2"/>
@@ -12963,7 +12973,7 @@
       <c r="X459" s="2"/>
       <c r="Y459" s="2"/>
     </row>
-    <row r="460" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A460" s="2"/>
       <c r="B460" s="2"/>
       <c r="C460" s="2"/>
@@ -12990,7 +13000,7 @@
       <c r="X460" s="2"/>
       <c r="Y460" s="2"/>
     </row>
-    <row r="461" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A461" s="2"/>
       <c r="B461" s="2"/>
       <c r="C461" s="2"/>
@@ -13017,7 +13027,7 @@
       <c r="X461" s="2"/>
       <c r="Y461" s="2"/>
     </row>
-    <row r="462" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A462" s="2"/>
       <c r="B462" s="2"/>
       <c r="C462" s="2"/>
@@ -13044,7 +13054,7 @@
       <c r="X462" s="2"/>
       <c r="Y462" s="2"/>
     </row>
-    <row r="463" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A463" s="2"/>
       <c r="B463" s="2"/>
       <c r="C463" s="2"/>
@@ -13071,7 +13081,7 @@
       <c r="X463" s="2"/>
       <c r="Y463" s="2"/>
     </row>
-    <row r="464" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A464" s="2"/>
       <c r="B464" s="2"/>
       <c r="C464" s="2"/>
@@ -13098,7 +13108,7 @@
       <c r="X464" s="2"/>
       <c r="Y464" s="2"/>
     </row>
-    <row r="465" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A465" s="2"/>
       <c r="B465" s="2"/>
       <c r="C465" s="2"/>
@@ -13125,7 +13135,7 @@
       <c r="X465" s="2"/>
       <c r="Y465" s="2"/>
     </row>
-    <row r="466" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A466" s="2"/>
       <c r="B466" s="2"/>
       <c r="C466" s="2"/>
@@ -13152,7 +13162,7 @@
       <c r="X466" s="2"/>
       <c r="Y466" s="2"/>
     </row>
-    <row r="467" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A467" s="2"/>
       <c r="B467" s="2"/>
       <c r="C467" s="2"/>
@@ -13179,7 +13189,7 @@
       <c r="X467" s="2"/>
       <c r="Y467" s="2"/>
     </row>
-    <row r="468" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A468" s="2"/>
       <c r="B468" s="2"/>
       <c r="C468" s="2"/>
@@ -13206,7 +13216,7 @@
       <c r="X468" s="2"/>
       <c r="Y468" s="2"/>
     </row>
-    <row r="469" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A469" s="2"/>
       <c r="B469" s="2"/>
       <c r="C469" s="2"/>
@@ -13233,7 +13243,7 @@
       <c r="X469" s="2"/>
       <c r="Y469" s="2"/>
     </row>
-    <row r="470" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A470" s="2"/>
       <c r="B470" s="2"/>
       <c r="C470" s="2"/>
@@ -13260,7 +13270,7 @@
       <c r="X470" s="2"/>
       <c r="Y470" s="2"/>
     </row>
-    <row r="471" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A471" s="2"/>
       <c r="B471" s="2"/>
       <c r="C471" s="2"/>
@@ -13287,7 +13297,7 @@
       <c r="X471" s="2"/>
       <c r="Y471" s="2"/>
     </row>
-    <row r="472" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A472" s="2"/>
       <c r="B472" s="2"/>
       <c r="C472" s="2"/>
@@ -13314,7 +13324,7 @@
       <c r="X472" s="2"/>
       <c r="Y472" s="2"/>
     </row>
-    <row r="473" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A473" s="2"/>
       <c r="B473" s="2"/>
       <c r="C473" s="2"/>
@@ -13341,7 +13351,7 @@
       <c r="X473" s="2"/>
       <c r="Y473" s="2"/>
     </row>
-    <row r="474" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A474" s="2"/>
       <c r="B474" s="2"/>
       <c r="C474" s="2"/>
@@ -13368,7 +13378,7 @@
       <c r="X474" s="2"/>
       <c r="Y474" s="2"/>
     </row>
-    <row r="475" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A475" s="2"/>
       <c r="B475" s="2"/>
       <c r="C475" s="2"/>
@@ -13395,7 +13405,7 @@
       <c r="X475" s="2"/>
       <c r="Y475" s="2"/>
     </row>
-    <row r="476" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A476" s="2"/>
       <c r="B476" s="2"/>
       <c r="C476" s="2"/>
@@ -13422,7 +13432,7 @@
       <c r="X476" s="2"/>
       <c r="Y476" s="2"/>
     </row>
-    <row r="477" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A477" s="2"/>
       <c r="B477" s="2"/>
       <c r="C477" s="2"/>
@@ -13449,7 +13459,7 @@
       <c r="X477" s="2"/>
       <c r="Y477" s="2"/>
     </row>
-    <row r="478" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A478" s="2"/>
       <c r="B478" s="2"/>
       <c r="C478" s="2"/>
@@ -13476,7 +13486,7 @@
       <c r="X478" s="2"/>
       <c r="Y478" s="2"/>
     </row>
-    <row r="479" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A479" s="2"/>
       <c r="B479" s="2"/>
       <c r="C479" s="2"/>
@@ -13503,7 +13513,7 @@
       <c r="X479" s="2"/>
       <c r="Y479" s="2"/>
     </row>
-    <row r="480" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A480" s="2"/>
       <c r="B480" s="2"/>
       <c r="C480" s="2"/>
@@ -13530,7 +13540,7 @@
       <c r="X480" s="2"/>
       <c r="Y480" s="2"/>
     </row>
-    <row r="481" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A481" s="2"/>
       <c r="B481" s="2"/>
       <c r="C481" s="2"/>
@@ -13557,7 +13567,7 @@
       <c r="X481" s="2"/>
       <c r="Y481" s="2"/>
     </row>
-    <row r="482" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A482" s="2"/>
       <c r="B482" s="2"/>
       <c r="C482" s="2"/>
@@ -13584,7 +13594,7 @@
       <c r="X482" s="2"/>
       <c r="Y482" s="2"/>
     </row>
-    <row r="483" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A483" s="2"/>
       <c r="B483" s="2"/>
       <c r="C483" s="2"/>
@@ -13611,7 +13621,7 @@
       <c r="X483" s="2"/>
       <c r="Y483" s="2"/>
     </row>
-    <row r="484" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A484" s="2"/>
       <c r="B484" s="2"/>
       <c r="C484" s="2"/>
@@ -13638,7 +13648,7 @@
       <c r="X484" s="2"/>
       <c r="Y484" s="2"/>
     </row>
-    <row r="485" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A485" s="2"/>
       <c r="B485" s="2"/>
       <c r="C485" s="2"/>
@@ -13665,7 +13675,7 @@
       <c r="X485" s="2"/>
       <c r="Y485" s="2"/>
     </row>
-    <row r="486" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A486" s="2"/>
       <c r="B486" s="2"/>
       <c r="C486" s="2"/>
@@ -13692,7 +13702,7 @@
       <c r="X486" s="2"/>
       <c r="Y486" s="2"/>
     </row>
-    <row r="487" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A487" s="2"/>
       <c r="B487" s="2"/>
       <c r="C487" s="2"/>
@@ -13719,7 +13729,7 @@
       <c r="X487" s="2"/>
       <c r="Y487" s="2"/>
     </row>
-    <row r="488" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A488" s="2"/>
       <c r="B488" s="2"/>
       <c r="C488" s="2"/>
@@ -13746,7 +13756,7 @@
       <c r="X488" s="2"/>
       <c r="Y488" s="2"/>
     </row>
-    <row r="489" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A489" s="2"/>
       <c r="B489" s="2"/>
       <c r="C489" s="2"/>
@@ -13773,7 +13783,7 @@
       <c r="X489" s="2"/>
       <c r="Y489" s="2"/>
     </row>
-    <row r="490" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A490" s="2"/>
       <c r="B490" s="2"/>
       <c r="C490" s="2"/>
@@ -13800,7 +13810,7 @@
       <c r="X490" s="2"/>
       <c r="Y490" s="2"/>
     </row>
-    <row r="491" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A491" s="2"/>
       <c r="B491" s="2"/>
       <c r="C491" s="2"/>
@@ -13827,7 +13837,7 @@
       <c r="X491" s="2"/>
       <c r="Y491" s="2"/>
     </row>
-    <row r="492" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A492" s="2"/>
       <c r="B492" s="2"/>
       <c r="C492" s="2"/>
@@ -13854,7 +13864,7 @@
       <c r="X492" s="2"/>
       <c r="Y492" s="2"/>
     </row>
-    <row r="493" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A493" s="2"/>
       <c r="B493" s="2"/>
       <c r="C493" s="2"/>
@@ -13881,7 +13891,7 @@
       <c r="X493" s="2"/>
       <c r="Y493" s="2"/>
     </row>
-    <row r="494" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A494" s="2"/>
       <c r="B494" s="2"/>
       <c r="C494" s="2"/>
@@ -13908,7 +13918,7 @@
       <c r="X494" s="2"/>
       <c r="Y494" s="2"/>
     </row>
-    <row r="495" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A495" s="2"/>
       <c r="B495" s="2"/>
       <c r="C495" s="2"/>
@@ -13935,7 +13945,7 @@
       <c r="X495" s="2"/>
       <c r="Y495" s="2"/>
     </row>
-    <row r="496" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A496" s="2"/>
       <c r="B496" s="2"/>
       <c r="C496" s="2"/>
@@ -13962,7 +13972,7 @@
       <c r="X496" s="2"/>
       <c r="Y496" s="2"/>
     </row>
-    <row r="497" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A497" s="2"/>
       <c r="B497" s="2"/>
       <c r="C497" s="2"/>
@@ -13989,7 +13999,7 @@
       <c r="X497" s="2"/>
       <c r="Y497" s="2"/>
     </row>
-    <row r="498" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A498" s="2"/>
       <c r="B498" s="2"/>
       <c r="C498" s="2"/>
@@ -14016,7 +14026,7 @@
       <c r="X498" s="2"/>
       <c r="Y498" s="2"/>
     </row>
-    <row r="499" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A499" s="2"/>
       <c r="B499" s="2"/>
       <c r="C499" s="2"/>
@@ -14043,7 +14053,7 @@
       <c r="X499" s="2"/>
       <c r="Y499" s="2"/>
     </row>
-    <row r="500" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A500" s="2"/>
       <c r="B500" s="2"/>
       <c r="C500" s="2"/>
@@ -14070,7 +14080,7 @@
       <c r="X500" s="2"/>
       <c r="Y500" s="2"/>
     </row>
-    <row r="501" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A501" s="2"/>
       <c r="B501" s="2"/>
       <c r="C501" s="2"/>
@@ -14097,7 +14107,7 @@
       <c r="X501" s="2"/>
       <c r="Y501" s="2"/>
     </row>
-    <row r="502" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A502" s="2"/>
       <c r="B502" s="2"/>
       <c r="C502" s="2"/>
@@ -14124,7 +14134,7 @@
       <c r="X502" s="2"/>
       <c r="Y502" s="2"/>
     </row>
-    <row r="503" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A503" s="2"/>
       <c r="B503" s="2"/>
       <c r="C503" s="2"/>
@@ -14151,7 +14161,7 @@
       <c r="X503" s="2"/>
       <c r="Y503" s="2"/>
     </row>
-    <row r="504" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A504" s="2"/>
       <c r="B504" s="2"/>
       <c r="C504" s="2"/>
@@ -14178,7 +14188,7 @@
       <c r="X504" s="2"/>
       <c r="Y504" s="2"/>
     </row>
-    <row r="505" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A505" s="2"/>
       <c r="B505" s="2"/>
       <c r="C505" s="2"/>
@@ -14205,7 +14215,7 @@
       <c r="X505" s="2"/>
       <c r="Y505" s="2"/>
     </row>
-    <row r="506" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A506" s="2"/>
       <c r="B506" s="2"/>
       <c r="C506" s="2"/>
@@ -14232,7 +14242,7 @@
       <c r="X506" s="2"/>
       <c r="Y506" s="2"/>
     </row>
-    <row r="507" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A507" s="2"/>
       <c r="B507" s="2"/>
       <c r="C507" s="2"/>
@@ -14259,7 +14269,7 @@
       <c r="X507" s="2"/>
       <c r="Y507" s="2"/>
     </row>
-    <row r="508" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A508" s="2"/>
       <c r="B508" s="2"/>
       <c r="C508" s="2"/>
@@ -14286,7 +14296,7 @@
       <c r="X508" s="2"/>
       <c r="Y508" s="2"/>
     </row>
-    <row r="509" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A509" s="2"/>
       <c r="B509" s="2"/>
       <c r="C509" s="2"/>
@@ -14313,7 +14323,7 @@
       <c r="X509" s="2"/>
       <c r="Y509" s="2"/>
     </row>
-    <row r="510" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A510" s="2"/>
       <c r="B510" s="2"/>
       <c r="C510" s="2"/>
@@ -14340,7 +14350,7 @@
       <c r="X510" s="2"/>
       <c r="Y510" s="2"/>
     </row>
-    <row r="511" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A511" s="2"/>
       <c r="B511" s="2"/>
       <c r="C511" s="2"/>
@@ -14367,7 +14377,7 @@
       <c r="X511" s="2"/>
       <c r="Y511" s="2"/>
     </row>
-    <row r="512" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A512" s="2"/>
       <c r="B512" s="2"/>
       <c r="C512" s="2"/>
@@ -14394,7 +14404,7 @@
       <c r="X512" s="2"/>
       <c r="Y512" s="2"/>
     </row>
-    <row r="513" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A513" s="2"/>
       <c r="B513" s="2"/>
       <c r="C513" s="2"/>
@@ -14421,7 +14431,7 @@
       <c r="X513" s="2"/>
       <c r="Y513" s="2"/>
     </row>
-    <row r="514" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A514" s="2"/>
       <c r="B514" s="2"/>
       <c r="C514" s="2"/>
@@ -14448,7 +14458,7 @@
       <c r="X514" s="2"/>
       <c r="Y514" s="2"/>
     </row>
-    <row r="515" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A515" s="2"/>
       <c r="B515" s="2"/>
       <c r="C515" s="2"/>
@@ -14475,7 +14485,7 @@
       <c r="X515" s="2"/>
       <c r="Y515" s="2"/>
     </row>
-    <row r="516" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A516" s="2"/>
       <c r="B516" s="2"/>
       <c r="C516" s="2"/>
@@ -14502,7 +14512,7 @@
       <c r="X516" s="2"/>
       <c r="Y516" s="2"/>
     </row>
-    <row r="517" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A517" s="2"/>
       <c r="B517" s="2"/>
       <c r="C517" s="2"/>
@@ -14529,7 +14539,7 @@
       <c r="X517" s="2"/>
       <c r="Y517" s="2"/>
     </row>
-    <row r="518" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A518" s="2"/>
       <c r="B518" s="2"/>
       <c r="C518" s="2"/>
@@ -14556,7 +14566,7 @@
       <c r="X518" s="2"/>
       <c r="Y518" s="2"/>
     </row>
-    <row r="519" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A519" s="2"/>
       <c r="B519" s="2"/>
       <c r="C519" s="2"/>
@@ -14583,7 +14593,7 @@
       <c r="X519" s="2"/>
       <c r="Y519" s="2"/>
     </row>
-    <row r="520" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A520" s="2"/>
       <c r="B520" s="2"/>
       <c r="C520" s="2"/>
@@ -14610,7 +14620,7 @@
       <c r="X520" s="2"/>
       <c r="Y520" s="2"/>
     </row>
-    <row r="521" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A521" s="2"/>
       <c r="B521" s="2"/>
       <c r="C521" s="2"/>
@@ -14637,7 +14647,7 @@
       <c r="X521" s="2"/>
       <c r="Y521" s="2"/>
     </row>
-    <row r="522" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A522" s="2"/>
       <c r="B522" s="2"/>
       <c r="C522" s="2"/>
@@ -14664,7 +14674,7 @@
       <c r="X522" s="2"/>
       <c r="Y522" s="2"/>
     </row>
-    <row r="523" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A523" s="2"/>
       <c r="B523" s="2"/>
       <c r="C523" s="2"/>
@@ -14691,7 +14701,7 @@
       <c r="X523" s="2"/>
       <c r="Y523" s="2"/>
     </row>
-    <row r="524" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A524" s="2"/>
       <c r="B524" s="2"/>
       <c r="C524" s="2"/>
@@ -14718,7 +14728,7 @@
       <c r="X524" s="2"/>
       <c r="Y524" s="2"/>
     </row>
-    <row r="525" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A525" s="2"/>
       <c r="B525" s="2"/>
       <c r="C525" s="2"/>
@@ -14745,7 +14755,7 @@
       <c r="X525" s="2"/>
       <c r="Y525" s="2"/>
     </row>
-    <row r="526" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A526" s="2"/>
       <c r="B526" s="2"/>
       <c r="C526" s="2"/>
@@ -14772,7 +14782,7 @@
       <c r="X526" s="2"/>
       <c r="Y526" s="2"/>
     </row>
-    <row r="527" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A527" s="2"/>
       <c r="B527" s="2"/>
       <c r="C527" s="2"/>
@@ -14799,7 +14809,7 @@
       <c r="X527" s="2"/>
       <c r="Y527" s="2"/>
     </row>
-    <row r="528" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A528" s="2"/>
       <c r="B528" s="2"/>
       <c r="C528" s="2"/>
@@ -14826,7 +14836,7 @@
       <c r="X528" s="2"/>
       <c r="Y528" s="2"/>
     </row>
-    <row r="529" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A529" s="2"/>
       <c r="B529" s="2"/>
       <c r="C529" s="2"/>
@@ -14853,7 +14863,7 @@
       <c r="X529" s="2"/>
       <c r="Y529" s="2"/>
     </row>
-    <row r="530" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A530" s="2"/>
       <c r="B530" s="2"/>
       <c r="C530" s="2"/>
@@ -14880,7 +14890,7 @@
       <c r="X530" s="2"/>
       <c r="Y530" s="2"/>
     </row>
-    <row r="531" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A531" s="2"/>
       <c r="B531" s="2"/>
       <c r="C531" s="2"/>
@@ -14907,7 +14917,7 @@
       <c r="X531" s="2"/>
       <c r="Y531" s="2"/>
     </row>
-    <row r="532" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A532" s="2"/>
       <c r="B532" s="2"/>
       <c r="C532" s="2"/>
@@ -14934,7 +14944,7 @@
       <c r="X532" s="2"/>
       <c r="Y532" s="2"/>
     </row>
-    <row r="533" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A533" s="2"/>
       <c r="B533" s="2"/>
       <c r="C533" s="2"/>
@@ -14961,7 +14971,7 @@
       <c r="X533" s="2"/>
       <c r="Y533" s="2"/>
     </row>
-    <row r="534" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A534" s="2"/>
       <c r="B534" s="2"/>
       <c r="C534" s="2"/>
@@ -14988,7 +14998,7 @@
       <c r="X534" s="2"/>
       <c r="Y534" s="2"/>
     </row>
-    <row r="535" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A535" s="2"/>
       <c r="B535" s="2"/>
       <c r="C535" s="2"/>
@@ -15015,7 +15025,7 @@
       <c r="X535" s="2"/>
       <c r="Y535" s="2"/>
     </row>
-    <row r="536" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A536" s="2"/>
       <c r="B536" s="2"/>
       <c r="C536" s="2"/>
@@ -15042,7 +15052,7 @@
       <c r="X536" s="2"/>
       <c r="Y536" s="2"/>
     </row>
-    <row r="537" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A537" s="2"/>
       <c r="B537" s="2"/>
       <c r="C537" s="2"/>
@@ -15069,7 +15079,7 @@
       <c r="X537" s="2"/>
       <c r="Y537" s="2"/>
     </row>
-    <row r="538" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A538" s="2"/>
       <c r="B538" s="2"/>
       <c r="C538" s="2"/>
@@ -15096,7 +15106,7 @@
       <c r="X538" s="2"/>
       <c r="Y538" s="2"/>
     </row>
-    <row r="539" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A539" s="2"/>
       <c r="B539" s="2"/>
       <c r="C539" s="2"/>
@@ -15123,7 +15133,7 @@
       <c r="X539" s="2"/>
       <c r="Y539" s="2"/>
     </row>
-    <row r="540" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A540" s="2"/>
       <c r="B540" s="2"/>
       <c r="C540" s="2"/>
@@ -15150,7 +15160,7 @@
       <c r="X540" s="2"/>
       <c r="Y540" s="2"/>
     </row>
-    <row r="541" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A541" s="2"/>
       <c r="B541" s="2"/>
       <c r="C541" s="2"/>
@@ -15177,7 +15187,7 @@
       <c r="X541" s="2"/>
       <c r="Y541" s="2"/>
     </row>
-    <row r="542" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A542" s="2"/>
       <c r="B542" s="2"/>
       <c r="C542" s="2"/>
@@ -15204,7 +15214,7 @@
       <c r="X542" s="2"/>
       <c r="Y542" s="2"/>
     </row>
-    <row r="543" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A543" s="2"/>
       <c r="B543" s="2"/>
       <c r="C543" s="2"/>
@@ -15231,7 +15241,7 @@
       <c r="X543" s="2"/>
       <c r="Y543" s="2"/>
     </row>
-    <row r="544" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A544" s="2"/>
       <c r="B544" s="2"/>
       <c r="C544" s="2"/>
@@ -15258,7 +15268,7 @@
       <c r="X544" s="2"/>
       <c r="Y544" s="2"/>
     </row>
-    <row r="545" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A545" s="2"/>
       <c r="B545" s="2"/>
       <c r="C545" s="2"/>
@@ -15285,7 +15295,7 @@
       <c r="X545" s="2"/>
       <c r="Y545" s="2"/>
     </row>
-    <row r="546" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A546" s="2"/>
       <c r="B546" s="2"/>
       <c r="C546" s="2"/>
@@ -15312,7 +15322,7 @@
       <c r="X546" s="2"/>
       <c r="Y546" s="2"/>
     </row>
-    <row r="547" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A547" s="2"/>
       <c r="B547" s="2"/>
       <c r="C547" s="2"/>
@@ -15339,7 +15349,7 @@
       <c r="X547" s="2"/>
       <c r="Y547" s="2"/>
     </row>
-    <row r="548" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A548" s="2"/>
       <c r="B548" s="2"/>
       <c r="C548" s="2"/>
@@ -15366,7 +15376,7 @@
       <c r="X548" s="2"/>
       <c r="Y548" s="2"/>
     </row>
-    <row r="549" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A549" s="2"/>
       <c r="B549" s="2"/>
       <c r="C549" s="2"/>
@@ -15393,7 +15403,7 @@
       <c r="X549" s="2"/>
       <c r="Y549" s="2"/>
     </row>
-    <row r="550" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A550" s="2"/>
       <c r="B550" s="2"/>
       <c r="C550" s="2"/>
@@ -15420,7 +15430,7 @@
       <c r="X550" s="2"/>
       <c r="Y550" s="2"/>
     </row>
-    <row r="551" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A551" s="2"/>
       <c r="B551" s="2"/>
       <c r="C551" s="2"/>
@@ -15447,7 +15457,7 @@
       <c r="X551" s="2"/>
       <c r="Y551" s="2"/>
     </row>
-    <row r="552" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A552" s="2"/>
       <c r="B552" s="2"/>
       <c r="C552" s="2"/>
@@ -15474,7 +15484,7 @@
       <c r="X552" s="2"/>
       <c r="Y552" s="2"/>
     </row>
-    <row r="553" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A553" s="2"/>
       <c r="B553" s="2"/>
       <c r="C553" s="2"/>
@@ -15501,7 +15511,7 @@
       <c r="X553" s="2"/>
       <c r="Y553" s="2"/>
     </row>
-    <row r="554" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A554" s="2"/>
       <c r="B554" s="2"/>
       <c r="C554" s="2"/>
@@ -15528,7 +15538,7 @@
       <c r="X554" s="2"/>
       <c r="Y554" s="2"/>
     </row>
-    <row r="555" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A555" s="2"/>
       <c r="B555" s="2"/>
       <c r="C555" s="2"/>
@@ -15555,7 +15565,7 @@
       <c r="X555" s="2"/>
       <c r="Y555" s="2"/>
     </row>
-    <row r="556" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A556" s="2"/>
       <c r="B556" s="2"/>
       <c r="C556" s="2"/>
@@ -15582,7 +15592,7 @@
       <c r="X556" s="2"/>
       <c r="Y556" s="2"/>
     </row>
-    <row r="557" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A557" s="2"/>
       <c r="B557" s="2"/>
       <c r="C557" s="2"/>
@@ -15609,7 +15619,7 @@
       <c r="X557" s="2"/>
       <c r="Y557" s="2"/>
     </row>
-    <row r="558" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A558" s="2"/>
       <c r="B558" s="2"/>
       <c r="C558" s="2"/>
@@ -15636,7 +15646,7 @@
       <c r="X558" s="2"/>
       <c r="Y558" s="2"/>
     </row>
-    <row r="559" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A559" s="2"/>
       <c r="B559" s="2"/>
       <c r="C559" s="2"/>
@@ -15663,7 +15673,7 @@
       <c r="X559" s="2"/>
       <c r="Y559" s="2"/>
     </row>
-    <row r="560" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A560" s="2"/>
       <c r="B560" s="2"/>
       <c r="C560" s="2"/>
@@ -15690,7 +15700,7 @@
       <c r="X560" s="2"/>
       <c r="Y560" s="2"/>
     </row>
-    <row r="561" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A561" s="2"/>
       <c r="B561" s="2"/>
       <c r="C561" s="2"/>
@@ -15717,7 +15727,7 @@
       <c r="X561" s="2"/>
       <c r="Y561" s="2"/>
     </row>
-    <row r="562" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A562" s="2"/>
       <c r="B562" s="2"/>
       <c r="C562" s="2"/>
@@ -15744,7 +15754,7 @@
       <c r="X562" s="2"/>
       <c r="Y562" s="2"/>
     </row>
-    <row r="563" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A563" s="2"/>
       <c r="B563" s="2"/>
       <c r="C563" s="2"/>
@@ -15771,7 +15781,7 @@
       <c r="X563" s="2"/>
       <c r="Y563" s="2"/>
     </row>
-    <row r="564" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A564" s="2"/>
       <c r="B564" s="2"/>
       <c r="C564" s="2"/>
@@ -15798,7 +15808,7 @@
       <c r="X564" s="2"/>
       <c r="Y564" s="2"/>
     </row>
-    <row r="565" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A565" s="2"/>
       <c r="B565" s="2"/>
       <c r="C565" s="2"/>
@@ -15825,7 +15835,7 @@
       <c r="X565" s="2"/>
       <c r="Y565" s="2"/>
     </row>
-    <row r="566" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A566" s="2"/>
       <c r="B566" s="2"/>
       <c r="C566" s="2"/>
@@ -15852,7 +15862,7 @@
       <c r="X566" s="2"/>
       <c r="Y566" s="2"/>
     </row>
-    <row r="567" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A567" s="2"/>
       <c r="B567" s="2"/>
       <c r="C567" s="2"/>
@@ -15879,7 +15889,7 @@
       <c r="X567" s="2"/>
       <c r="Y567" s="2"/>
     </row>
-    <row r="568" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A568" s="2"/>
       <c r="B568" s="2"/>
       <c r="C568" s="2"/>
@@ -15906,7 +15916,7 @@
       <c r="X568" s="2"/>
       <c r="Y568" s="2"/>
     </row>
-    <row r="569" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A569" s="2"/>
       <c r="B569" s="2"/>
       <c r="C569" s="2"/>
@@ -15933,7 +15943,7 @@
       <c r="X569" s="2"/>
       <c r="Y569" s="2"/>
     </row>
-    <row r="570" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A570" s="2"/>
       <c r="B570" s="2"/>
       <c r="C570" s="2"/>
@@ -15960,7 +15970,7 @@
       <c r="X570" s="2"/>
       <c r="Y570" s="2"/>
     </row>
-    <row r="571" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A571" s="2"/>
       <c r="B571" s="2"/>
       <c r="C571" s="2"/>
@@ -15987,7 +15997,7 @@
       <c r="X571" s="2"/>
       <c r="Y571" s="2"/>
     </row>
-    <row r="572" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A572" s="2"/>
       <c r="B572" s="2"/>
       <c r="C572" s="2"/>
@@ -16014,7 +16024,7 @@
       <c r="X572" s="2"/>
       <c r="Y572" s="2"/>
     </row>
-    <row r="573" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A573" s="2"/>
       <c r="B573" s="2"/>
       <c r="C573" s="2"/>
@@ -16041,7 +16051,7 @@
       <c r="X573" s="2"/>
       <c r="Y573" s="2"/>
     </row>
-    <row r="574" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A574" s="2"/>
       <c r="B574" s="2"/>
       <c r="C574" s="2"/>
@@ -16068,7 +16078,7 @@
       <c r="X574" s="2"/>
       <c r="Y574" s="2"/>
     </row>
-    <row r="575" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A575" s="2"/>
       <c r="B575" s="2"/>
       <c r="C575" s="2"/>
@@ -16095,7 +16105,7 @@
       <c r="X575" s="2"/>
       <c r="Y575" s="2"/>
     </row>
-    <row r="576" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A576" s="2"/>
       <c r="B576" s="2"/>
       <c r="C576" s="2"/>
@@ -16122,7 +16132,7 @@
       <c r="X576" s="2"/>
       <c r="Y576" s="2"/>
     </row>
-    <row r="577" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A577" s="2"/>
       <c r="B577" s="2"/>
       <c r="C577" s="2"/>
@@ -16149,7 +16159,7 @@
       <c r="X577" s="2"/>
       <c r="Y577" s="2"/>
     </row>
-    <row r="578" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A578" s="2"/>
       <c r="B578" s="2"/>
       <c r="C578" s="2"/>
@@ -16176,7 +16186,7 @@
       <c r="X578" s="2"/>
       <c r="Y578" s="2"/>
     </row>
-    <row r="579" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A579" s="2"/>
       <c r="B579" s="2"/>
       <c r="C579" s="2"/>
@@ -16203,7 +16213,7 @@
       <c r="X579" s="2"/>
       <c r="Y579" s="2"/>
     </row>
-    <row r="580" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A580" s="2"/>
       <c r="B580" s="2"/>
       <c r="C580" s="2"/>
@@ -16230,7 +16240,7 @@
       <c r="X580" s="2"/>
       <c r="Y580" s="2"/>
     </row>
-    <row r="581" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A581" s="2"/>
       <c r="B581" s="2"/>
       <c r="C581" s="2"/>
@@ -16257,7 +16267,7 @@
       <c r="X581" s="2"/>
       <c r="Y581" s="2"/>
     </row>
-    <row r="582" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A582" s="2"/>
       <c r="B582" s="2"/>
       <c r="C582" s="2"/>
@@ -16284,7 +16294,7 @@
       <c r="X582" s="2"/>
       <c r="Y582" s="2"/>
     </row>
-    <row r="583" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A583" s="2"/>
       <c r="B583" s="2"/>
       <c r="C583" s="2"/>
@@ -16311,7 +16321,7 @@
       <c r="X583" s="2"/>
       <c r="Y583" s="2"/>
     </row>
-    <row r="584" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A584" s="2"/>
       <c r="B584" s="2"/>
       <c r="C584" s="2"/>
@@ -16338,7 +16348,7 @@
       <c r="X584" s="2"/>
       <c r="Y584" s="2"/>
     </row>
-    <row r="585" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A585" s="2"/>
       <c r="B585" s="2"/>
       <c r="C585" s="2"/>
@@ -16365,7 +16375,7 @@
       <c r="X585" s="2"/>
       <c r="Y585" s="2"/>
     </row>
-    <row r="586" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A586" s="2"/>
       <c r="B586" s="2"/>
       <c r="C586" s="2"/>
@@ -16392,7 +16402,7 @@
       <c r="X586" s="2"/>
       <c r="Y586" s="2"/>
     </row>
-    <row r="587" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A587" s="2"/>
       <c r="B587" s="2"/>
       <c r="C587" s="2"/>
@@ -16419,7 +16429,7 @@
       <c r="X587" s="2"/>
       <c r="Y587" s="2"/>
     </row>
-    <row r="588" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A588" s="2"/>
       <c r="B588" s="2"/>
       <c r="C588" s="2"/>
@@ -16446,7 +16456,7 @@
       <c r="X588" s="2"/>
       <c r="Y588" s="2"/>
     </row>
-    <row r="589" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A589" s="2"/>
       <c r="B589" s="2"/>
       <c r="C589" s="2"/>
@@ -16473,7 +16483,7 @@
       <c r="X589" s="2"/>
       <c r="Y589" s="2"/>
     </row>
-    <row r="590" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A590" s="2"/>
       <c r="B590" s="2"/>
       <c r="C590" s="2"/>
@@ -16500,7 +16510,7 @@
       <c r="X590" s="2"/>
       <c r="Y590" s="2"/>
     </row>
-    <row r="591" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A591" s="2"/>
       <c r="B591" s="2"/>
       <c r="C591" s="2"/>
@@ -16527,7 +16537,7 @@
       <c r="X591" s="2"/>
       <c r="Y591" s="2"/>
     </row>
-    <row r="592" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A592" s="2"/>
       <c r="B592" s="2"/>
       <c r="C592" s="2"/>
@@ -16554,7 +16564,7 @@
       <c r="X592" s="2"/>
       <c r="Y592" s="2"/>
     </row>
-    <row r="593" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A593" s="2"/>
       <c r="B593" s="2"/>
       <c r="C593" s="2"/>
@@ -16581,7 +16591,7 @@
       <c r="X593" s="2"/>
       <c r="Y593" s="2"/>
     </row>
-    <row r="594" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A594" s="2"/>
       <c r="B594" s="2"/>
       <c r="C594" s="2"/>
@@ -16608,7 +16618,7 @@
       <c r="X594" s="2"/>
       <c r="Y594" s="2"/>
     </row>
-    <row r="595" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A595" s="2"/>
       <c r="B595" s="2"/>
       <c r="C595" s="2"/>
@@ -16635,7 +16645,7 @@
       <c r="X595" s="2"/>
       <c r="Y595" s="2"/>
     </row>
-    <row r="596" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A596" s="2"/>
       <c r="B596" s="2"/>
       <c r="C596" s="2"/>
@@ -16662,7 +16672,7 @@
       <c r="X596" s="2"/>
       <c r="Y596" s="2"/>
     </row>
-    <row r="597" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A597" s="2"/>
       <c r="B597" s="2"/>
       <c r="C597" s="2"/>
@@ -16689,7 +16699,7 @@
       <c r="X597" s="2"/>
       <c r="Y597" s="2"/>
     </row>
-    <row r="598" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A598" s="2"/>
       <c r="B598" s="2"/>
       <c r="C598" s="2"/>
@@ -16716,7 +16726,7 @@
       <c r="X598" s="2"/>
       <c r="Y598" s="2"/>
     </row>
-    <row r="599" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A599" s="2"/>
       <c r="B599" s="2"/>
       <c r="C599" s="2"/>
@@ -16743,7 +16753,7 @@
       <c r="X599" s="2"/>
       <c r="Y599" s="2"/>
     </row>
-    <row r="600" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A600" s="2"/>
       <c r="B600" s="2"/>
       <c r="C600" s="2"/>
@@ -16770,7 +16780,7 @@
       <c r="X600" s="2"/>
       <c r="Y600" s="2"/>
     </row>
-    <row r="601" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A601" s="2"/>
       <c r="B601" s="2"/>
       <c r="C601" s="2"/>
@@ -16797,7 +16807,7 @@
       <c r="X601" s="2"/>
       <c r="Y601" s="2"/>
     </row>
-    <row r="602" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A602" s="2"/>
       <c r="B602" s="2"/>
       <c r="C602" s="2"/>
@@ -16824,7 +16834,7 @@
       <c r="X602" s="2"/>
       <c r="Y602" s="2"/>
     </row>
-    <row r="603" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A603" s="2"/>
       <c r="B603" s="2"/>
       <c r="C603" s="2"/>
@@ -16851,7 +16861,7 @@
       <c r="X603" s="2"/>
       <c r="Y603" s="2"/>
     </row>
-    <row r="604" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A604" s="2"/>
       <c r="B604" s="2"/>
       <c r="C604" s="2"/>
@@ -16878,7 +16888,7 @@
       <c r="X604" s="2"/>
       <c r="Y604" s="2"/>
     </row>
-    <row r="605" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A605" s="2"/>
       <c r="B605" s="2"/>
       <c r="C605" s="2"/>
@@ -16905,7 +16915,7 @@
       <c r="X605" s="2"/>
       <c r="Y605" s="2"/>
     </row>
-    <row r="606" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A606" s="2"/>
       <c r="B606" s="2"/>
       <c r="C606" s="2"/>
@@ -16932,7 +16942,7 @@
       <c r="X606" s="2"/>
       <c r="Y606" s="2"/>
     </row>
-    <row r="607" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A607" s="2"/>
       <c r="B607" s="2"/>
       <c r="C607" s="2"/>
@@ -16959,7 +16969,7 @@
       <c r="X607" s="2"/>
       <c r="Y607" s="2"/>
     </row>
-    <row r="608" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A608" s="2"/>
       <c r="B608" s="2"/>
       <c r="C608" s="2"/>
@@ -16986,7 +16996,7 @@
       <c r="X608" s="2"/>
       <c r="Y608" s="2"/>
     </row>
-    <row r="609" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A609" s="2"/>
       <c r="B609" s="2"/>
       <c r="C609" s="2"/>
@@ -17013,7 +17023,7 @@
       <c r="X609" s="2"/>
       <c r="Y609" s="2"/>
     </row>
-    <row r="610" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A610" s="2"/>
       <c r="B610" s="2"/>
       <c r="C610" s="2"/>
@@ -17040,7 +17050,7 @@
       <c r="X610" s="2"/>
       <c r="Y610" s="2"/>
     </row>
-    <row r="611" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A611" s="2"/>
       <c r="B611" s="2"/>
       <c r="C611" s="2"/>
@@ -17067,7 +17077,7 @@
       <c r="X611" s="2"/>
       <c r="Y611" s="2"/>
     </row>
-    <row r="612" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A612" s="2"/>
       <c r="B612" s="2"/>
       <c r="C612" s="2"/>
@@ -17094,7 +17104,7 @@
       <c r="X612" s="2"/>
       <c r="Y612" s="2"/>
     </row>
-    <row r="613" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A613" s="2"/>
       <c r="B613" s="2"/>
       <c r="C613" s="2"/>
@@ -17121,7 +17131,7 @@
       <c r="X613" s="2"/>
       <c r="Y613" s="2"/>
     </row>
-    <row r="614" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A614" s="2"/>
       <c r="B614" s="2"/>
       <c r="C614" s="2"/>
@@ -17148,7 +17158,7 @@
       <c r="X614" s="2"/>
       <c r="Y614" s="2"/>
     </row>
-    <row r="615" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A615" s="2"/>
       <c r="B615" s="2"/>
       <c r="C615" s="2"/>
@@ -17175,7 +17185,7 @@
       <c r="X615" s="2"/>
       <c r="Y615" s="2"/>
     </row>
-    <row r="616" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A616" s="2"/>
       <c r="B616" s="2"/>
       <c r="C616" s="2"/>
@@ -17202,7 +17212,7 @@
       <c r="X616" s="2"/>
       <c r="Y616" s="2"/>
     </row>
-    <row r="617" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A617" s="2"/>
       <c r="B617" s="2"/>
       <c r="C617" s="2"/>
@@ -17229,7 +17239,7 @@
       <c r="X617" s="2"/>
       <c r="Y617" s="2"/>
     </row>
-    <row r="618" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A618" s="2"/>
       <c r="B618" s="2"/>
       <c r="C618" s="2"/>
@@ -17256,7 +17266,7 @@
       <c r="X618" s="2"/>
       <c r="Y618" s="2"/>
     </row>
-    <row r="619" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A619" s="2"/>
       <c r="B619" s="2"/>
       <c r="C619" s="2"/>
@@ -17283,7 +17293,7 @@
       <c r="X619" s="2"/>
       <c r="Y619" s="2"/>
     </row>
-    <row r="620" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A620" s="2"/>
       <c r="B620" s="2"/>
       <c r="C620" s="2"/>
@@ -17310,7 +17320,7 @@
       <c r="X620" s="2"/>
       <c r="Y620" s="2"/>
     </row>
-    <row r="621" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A621" s="2"/>
       <c r="B621" s="2"/>
       <c r="C621" s="2"/>
@@ -17337,7 +17347,7 @@
       <c r="X621" s="2"/>
       <c r="Y621" s="2"/>
     </row>
-    <row r="622" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A622" s="2"/>
       <c r="B622" s="2"/>
       <c r="C622" s="2"/>
@@ -17364,7 +17374,7 @@
       <c r="X622" s="2"/>
       <c r="Y622" s="2"/>
     </row>
-    <row r="623" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A623" s="2"/>
       <c r="B623" s="2"/>
       <c r="C623" s="2"/>
@@ -17391,7 +17401,7 @@
       <c r="X623" s="2"/>
       <c r="Y623" s="2"/>
     </row>
-    <row r="624" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A624" s="2"/>
       <c r="B624" s="2"/>
       <c r="C624" s="2"/>
@@ -17418,7 +17428,7 @@
       <c r="X624" s="2"/>
       <c r="Y624" s="2"/>
     </row>
-    <row r="625" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A625" s="2"/>
       <c r="B625" s="2"/>
       <c r="C625" s="2"/>
@@ -17445,7 +17455,7 @@
       <c r="X625" s="2"/>
       <c r="Y625" s="2"/>
     </row>
-    <row r="626" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A626" s="2"/>
       <c r="B626" s="2"/>
       <c r="C626" s="2"/>
@@ -17472,7 +17482,7 @@
       <c r="X626" s="2"/>
       <c r="Y626" s="2"/>
     </row>
-    <row r="627" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A627" s="2"/>
       <c r="B627" s="2"/>
       <c r="C627" s="2"/>
@@ -17499,7 +17509,7 @@
       <c r="X627" s="2"/>
       <c r="Y627" s="2"/>
     </row>
-    <row r="628" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A628" s="2"/>
       <c r="B628" s="2"/>
       <c r="C628" s="2"/>
@@ -17526,7 +17536,7 @@
       <c r="X628" s="2"/>
       <c r="Y628" s="2"/>
     </row>
-    <row r="629" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A629" s="2"/>
       <c r="B629" s="2"/>
       <c r="C629" s="2"/>
@@ -17553,7 +17563,7 @@
       <c r="X629" s="2"/>
       <c r="Y629" s="2"/>
     </row>
-    <row r="630" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A630" s="2"/>
       <c r="B630" s="2"/>
       <c r="C630" s="2"/>
@@ -17580,7 +17590,7 @@
       <c r="X630" s="2"/>
       <c r="Y630" s="2"/>
     </row>
-    <row r="631" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A631" s="2"/>
       <c r="B631" s="2"/>
       <c r="C631" s="2"/>
@@ -17607,7 +17617,7 @@
       <c r="X631" s="2"/>
       <c r="Y631" s="2"/>
     </row>
-    <row r="632" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A632" s="2"/>
       <c r="B632" s="2"/>
       <c r="C632" s="2"/>
@@ -17634,7 +17644,7 @@
       <c r="X632" s="2"/>
       <c r="Y632" s="2"/>
     </row>
-    <row r="633" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A633" s="2"/>
       <c r="B633" s="2"/>
       <c r="C633" s="2"/>
@@ -17661,7 +17671,7 @@
       <c r="X633" s="2"/>
       <c r="Y633" s="2"/>
     </row>
-    <row r="634" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="634" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A634" s="2"/>
       <c r="B634" s="2"/>
       <c r="C634" s="2"/>
@@ -17688,7 +17698,7 @@
       <c r="X634" s="2"/>
       <c r="Y634" s="2"/>
     </row>
-    <row r="635" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A635" s="2"/>
       <c r="B635" s="2"/>
       <c r="C635" s="2"/>
@@ -17715,7 +17725,7 @@
       <c r="X635" s="2"/>
       <c r="Y635" s="2"/>
     </row>
-    <row r="636" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="636" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A636" s="2"/>
       <c r="B636" s="2"/>
       <c r="C636" s="2"/>
@@ -17742,7 +17752,7 @@
       <c r="X636" s="2"/>
       <c r="Y636" s="2"/>
     </row>
-    <row r="637" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A637" s="2"/>
       <c r="B637" s="2"/>
       <c r="C637" s="2"/>
@@ -17769,7 +17779,7 @@
       <c r="X637" s="2"/>
       <c r="Y637" s="2"/>
     </row>
-    <row r="638" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A638" s="2"/>
       <c r="B638" s="2"/>
       <c r="C638" s="2"/>
@@ -17796,7 +17806,7 @@
       <c r="X638" s="2"/>
       <c r="Y638" s="2"/>
     </row>
-    <row r="639" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A639" s="2"/>
       <c r="B639" s="2"/>
       <c r="C639" s="2"/>
@@ -17823,7 +17833,7 @@
       <c r="X639" s="2"/>
       <c r="Y639" s="2"/>
     </row>
-    <row r="640" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="640" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A640" s="2"/>
       <c r="B640" s="2"/>
       <c r="C640" s="2"/>
@@ -17850,7 +17860,7 @@
       <c r="X640" s="2"/>
       <c r="Y640" s="2"/>
     </row>
-    <row r="641" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A641" s="2"/>
       <c r="B641" s="2"/>
       <c r="C641" s="2"/>
@@ -17877,7 +17887,7 @@
       <c r="X641" s="2"/>
       <c r="Y641" s="2"/>
     </row>
-    <row r="642" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="642" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A642" s="2"/>
       <c r="B642" s="2"/>
       <c r="C642" s="2"/>
@@ -17904,7 +17914,7 @@
       <c r="X642" s="2"/>
       <c r="Y642" s="2"/>
     </row>
-    <row r="643" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A643" s="2"/>
       <c r="B643" s="2"/>
       <c r="C643" s="2"/>
@@ -17931,7 +17941,7 @@
       <c r="X643" s="2"/>
       <c r="Y643" s="2"/>
     </row>
-    <row r="644" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A644" s="2"/>
       <c r="B644" s="2"/>
       <c r="C644" s="2"/>
@@ -17958,7 +17968,7 @@
       <c r="X644" s="2"/>
       <c r="Y644" s="2"/>
     </row>
-    <row r="645" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A645" s="2"/>
       <c r="B645" s="2"/>
       <c r="C645" s="2"/>
@@ -17985,7 +17995,7 @@
       <c r="X645" s="2"/>
       <c r="Y645" s="2"/>
     </row>
-    <row r="646" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A646" s="2"/>
       <c r="B646" s="2"/>
       <c r="C646" s="2"/>
@@ -18012,7 +18022,7 @@
       <c r="X646" s="2"/>
       <c r="Y646" s="2"/>
     </row>
-    <row r="647" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A647" s="2"/>
       <c r="B647" s="2"/>
       <c r="C647" s="2"/>
@@ -18039,7 +18049,7 @@
       <c r="X647" s="2"/>
       <c r="Y647" s="2"/>
     </row>
-    <row r="648" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A648" s="2"/>
       <c r="B648" s="2"/>
       <c r="C648" s="2"/>
@@ -18066,7 +18076,7 @@
       <c r="X648" s="2"/>
       <c r="Y648" s="2"/>
     </row>
-    <row r="649" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="649" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A649" s="2"/>
       <c r="B649" s="2"/>
       <c r="C649" s="2"/>
@@ -18093,7 +18103,7 @@
       <c r="X649" s="2"/>
       <c r="Y649" s="2"/>
     </row>
-    <row r="650" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="650" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A650" s="2"/>
       <c r="B650" s="2"/>
       <c r="C650" s="2"/>
@@ -18120,7 +18130,7 @@
       <c r="X650" s="2"/>
       <c r="Y650" s="2"/>
     </row>
-    <row r="651" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A651" s="2"/>
       <c r="B651" s="2"/>
       <c r="C651" s="2"/>
@@ -18147,7 +18157,7 @@
       <c r="X651" s="2"/>
       <c r="Y651" s="2"/>
     </row>
-    <row r="652" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A652" s="2"/>
       <c r="B652" s="2"/>
       <c r="C652" s="2"/>
@@ -18174,7 +18184,7 @@
       <c r="X652" s="2"/>
       <c r="Y652" s="2"/>
     </row>
-    <row r="653" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="653" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A653" s="2"/>
       <c r="B653" s="2"/>
       <c r="C653" s="2"/>
@@ -18201,7 +18211,7 @@
       <c r="X653" s="2"/>
       <c r="Y653" s="2"/>
     </row>
-    <row r="654" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="654" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A654" s="2"/>
       <c r="B654" s="2"/>
       <c r="C654" s="2"/>
@@ -18228,7 +18238,7 @@
       <c r="X654" s="2"/>
       <c r="Y654" s="2"/>
     </row>
-    <row r="655" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="655" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A655" s="2"/>
       <c r="B655" s="2"/>
       <c r="C655" s="2"/>
@@ -18255,7 +18265,7 @@
       <c r="X655" s="2"/>
       <c r="Y655" s="2"/>
     </row>
-    <row r="656" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="656" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A656" s="2"/>
       <c r="B656" s="2"/>
       <c r="C656" s="2"/>
@@ -18282,7 +18292,7 @@
       <c r="X656" s="2"/>
       <c r="Y656" s="2"/>
     </row>
-    <row r="657" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="657" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A657" s="2"/>
       <c r="B657" s="2"/>
       <c r="C657" s="2"/>
@@ -18309,7 +18319,7 @@
       <c r="X657" s="2"/>
       <c r="Y657" s="2"/>
     </row>
-    <row r="658" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="658" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A658" s="2"/>
       <c r="B658" s="2"/>
       <c r="C658" s="2"/>
@@ -18336,7 +18346,7 @@
       <c r="X658" s="2"/>
       <c r="Y658" s="2"/>
     </row>
-    <row r="659" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="659" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A659" s="2"/>
       <c r="B659" s="2"/>
       <c r="C659" s="2"/>
@@ -18363,7 +18373,7 @@
       <c r="X659" s="2"/>
       <c r="Y659" s="2"/>
     </row>
-    <row r="660" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="660" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A660" s="2"/>
       <c r="B660" s="2"/>
       <c r="C660" s="2"/>
@@ -18390,7 +18400,7 @@
       <c r="X660" s="2"/>
       <c r="Y660" s="2"/>
     </row>
-    <row r="661" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="661" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A661" s="2"/>
       <c r="B661" s="2"/>
       <c r="C661" s="2"/>
@@ -18417,7 +18427,7 @@
       <c r="X661" s="2"/>
       <c r="Y661" s="2"/>
     </row>
-    <row r="662" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="662" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A662" s="2"/>
       <c r="B662" s="2"/>
       <c r="C662" s="2"/>
@@ -18444,7 +18454,7 @@
       <c r="X662" s="2"/>
       <c r="Y662" s="2"/>
     </row>
-    <row r="663" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="663" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A663" s="2"/>
       <c r="B663" s="2"/>
       <c r="C663" s="2"/>
@@ -18471,7 +18481,7 @@
       <c r="X663" s="2"/>
       <c r="Y663" s="2"/>
     </row>
-    <row r="664" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="664" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A664" s="2"/>
       <c r="B664" s="2"/>
       <c r="C664" s="2"/>
@@ -18498,7 +18508,7 @@
       <c r="X664" s="2"/>
       <c r="Y664" s="2"/>
     </row>
-    <row r="665" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="665" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A665" s="2"/>
       <c r="B665" s="2"/>
       <c r="C665" s="2"/>
@@ -18525,7 +18535,7 @@
       <c r="X665" s="2"/>
       <c r="Y665" s="2"/>
     </row>
-    <row r="666" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="666" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A666" s="2"/>
       <c r="B666" s="2"/>
       <c r="C666" s="2"/>
@@ -18552,7 +18562,7 @@
       <c r="X666" s="2"/>
       <c r="Y666" s="2"/>
     </row>
-    <row r="667" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="667" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A667" s="2"/>
       <c r="B667" s="2"/>
       <c r="C667" s="2"/>
@@ -18579,7 +18589,7 @@
       <c r="X667" s="2"/>
       <c r="Y667" s="2"/>
     </row>
-    <row r="668" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="668" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A668" s="2"/>
       <c r="B668" s="2"/>
       <c r="C668" s="2"/>
@@ -18606,7 +18616,7 @@
       <c r="X668" s="2"/>
       <c r="Y668" s="2"/>
     </row>
-    <row r="669" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="669" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A669" s="2"/>
       <c r="B669" s="2"/>
       <c r="C669" s="2"/>
@@ -18633,7 +18643,7 @@
       <c r="X669" s="2"/>
       <c r="Y669" s="2"/>
     </row>
-    <row r="670" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="670" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A670" s="2"/>
       <c r="B670" s="2"/>
       <c r="C670" s="2"/>
@@ -18660,7 +18670,7 @@
       <c r="X670" s="2"/>
       <c r="Y670" s="2"/>
     </row>
-    <row r="671" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="671" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A671" s="2"/>
       <c r="B671" s="2"/>
       <c r="C671" s="2"/>
@@ -18687,7 +18697,7 @@
       <c r="X671" s="2"/>
       <c r="Y671" s="2"/>
     </row>
-    <row r="672" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="672" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A672" s="2"/>
       <c r="B672" s="2"/>
       <c r="C672" s="2"/>
@@ -18714,7 +18724,7 @@
       <c r="X672" s="2"/>
       <c r="Y672" s="2"/>
     </row>
-    <row r="673" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="673" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A673" s="2"/>
       <c r="B673" s="2"/>
       <c r="C673" s="2"/>
@@ -18741,7 +18751,7 @@
       <c r="X673" s="2"/>
       <c r="Y673" s="2"/>
     </row>
-    <row r="674" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="674" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A674" s="2"/>
       <c r="B674" s="2"/>
       <c r="C674" s="2"/>
@@ -18768,7 +18778,7 @@
       <c r="X674" s="2"/>
       <c r="Y674" s="2"/>
     </row>
-    <row r="675" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="675" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A675" s="2"/>
       <c r="B675" s="2"/>
       <c r="C675" s="2"/>
@@ -18795,7 +18805,7 @@
       <c r="X675" s="2"/>
       <c r="Y675" s="2"/>
     </row>
-    <row r="676" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="676" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A676" s="2"/>
       <c r="B676" s="2"/>
       <c r="C676" s="2"/>
@@ -18822,7 +18832,7 @@
       <c r="X676" s="2"/>
       <c r="Y676" s="2"/>
     </row>
-    <row r="677" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="677" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A677" s="2"/>
       <c r="B677" s="2"/>
       <c r="C677" s="2"/>
@@ -18849,7 +18859,7 @@
       <c r="X677" s="2"/>
       <c r="Y677" s="2"/>
     </row>
-    <row r="678" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="678" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A678" s="2"/>
       <c r="B678" s="2"/>
       <c r="C678" s="2"/>
@@ -18876,7 +18886,7 @@
       <c r="X678" s="2"/>
       <c r="Y678" s="2"/>
     </row>
-    <row r="679" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="679" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A679" s="2"/>
       <c r="B679" s="2"/>
       <c r="C679" s="2"/>
@@ -18903,7 +18913,7 @@
       <c r="X679" s="2"/>
       <c r="Y679" s="2"/>
     </row>
-    <row r="680" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="680" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A680" s="2"/>
       <c r="B680" s="2"/>
       <c r="C680" s="2"/>
@@ -18930,7 +18940,7 @@
       <c r="X680" s="2"/>
       <c r="Y680" s="2"/>
     </row>
-    <row r="681" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="681" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A681" s="2"/>
       <c r="B681" s="2"/>
       <c r="C681" s="2"/>
@@ -18957,7 +18967,7 @@
       <c r="X681" s="2"/>
       <c r="Y681" s="2"/>
     </row>
-    <row r="682" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="682" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A682" s="2"/>
       <c r="B682" s="2"/>
       <c r="C682" s="2"/>
@@ -18984,7 +18994,7 @@
       <c r="X682" s="2"/>
       <c r="Y682" s="2"/>
     </row>
-    <row r="683" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="683" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A683" s="2"/>
       <c r="B683" s="2"/>
       <c r="C683" s="2"/>
@@ -19011,7 +19021,7 @@
       <c r="X683" s="2"/>
       <c r="Y683" s="2"/>
     </row>
-    <row r="684" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="684" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A684" s="2"/>
       <c r="B684" s="2"/>
       <c r="C684" s="2"/>
@@ -19038,7 +19048,7 @@
       <c r="X684" s="2"/>
       <c r="Y684" s="2"/>
     </row>
-    <row r="685" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="685" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A685" s="2"/>
       <c r="B685" s="2"/>
       <c r="C685" s="2"/>
@@ -19065,7 +19075,7 @@
       <c r="X685" s="2"/>
       <c r="Y685" s="2"/>
     </row>
-    <row r="686" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="686" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A686" s="2"/>
       <c r="B686" s="2"/>
       <c r="C686" s="2"/>
@@ -19092,7 +19102,7 @@
       <c r="X686" s="2"/>
       <c r="Y686" s="2"/>
     </row>
-    <row r="687" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="687" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A687" s="2"/>
       <c r="B687" s="2"/>
       <c r="C687" s="2"/>
@@ -19119,7 +19129,7 @@
       <c r="X687" s="2"/>
       <c r="Y687" s="2"/>
     </row>
-    <row r="688" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="688" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A688" s="2"/>
       <c r="B688" s="2"/>
       <c r="C688" s="2"/>
@@ -19146,7 +19156,7 @@
       <c r="X688" s="2"/>
       <c r="Y688" s="2"/>
     </row>
-    <row r="689" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="689" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A689" s="2"/>
       <c r="B689" s="2"/>
       <c r="C689" s="2"/>
@@ -19173,7 +19183,7 @@
       <c r="X689" s="2"/>
       <c r="Y689" s="2"/>
     </row>
-    <row r="690" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="690" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A690" s="2"/>
       <c r="B690" s="2"/>
       <c r="C690" s="2"/>
@@ -19200,7 +19210,7 @@
       <c r="X690" s="2"/>
       <c r="Y690" s="2"/>
     </row>
-    <row r="691" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="691" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A691" s="2"/>
       <c r="B691" s="2"/>
       <c r="C691" s="2"/>
@@ -19227,7 +19237,7 @@
       <c r="X691" s="2"/>
       <c r="Y691" s="2"/>
     </row>
-    <row r="692" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="692" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A692" s="2"/>
       <c r="B692" s="2"/>
       <c r="C692" s="2"/>
@@ -19254,7 +19264,7 @@
       <c r="X692" s="2"/>
       <c r="Y692" s="2"/>
     </row>
-    <row r="693" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="693" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A693" s="2"/>
       <c r="B693" s="2"/>
       <c r="C693" s="2"/>
@@ -19281,7 +19291,7 @@
       <c r="X693" s="2"/>
       <c r="Y693" s="2"/>
     </row>
-    <row r="694" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="694" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A694" s="2"/>
       <c r="B694" s="2"/>
       <c r="C694" s="2"/>
@@ -19308,7 +19318,7 @@
       <c r="X694" s="2"/>
       <c r="Y694" s="2"/>
     </row>
-    <row r="695" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="695" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A695" s="2"/>
       <c r="B695" s="2"/>
       <c r="C695" s="2"/>
@@ -19335,7 +19345,7 @@
       <c r="X695" s="2"/>
       <c r="Y695" s="2"/>
     </row>
-    <row r="696" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="696" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A696" s="2"/>
       <c r="B696" s="2"/>
       <c r="C696" s="2"/>
@@ -19362,7 +19372,7 @@
       <c r="X696" s="2"/>
       <c r="Y696" s="2"/>
     </row>
-    <row r="697" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="697" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A697" s="2"/>
       <c r="B697" s="2"/>
       <c r="C697" s="2"/>
@@ -19389,7 +19399,7 @@
       <c r="X697" s="2"/>
       <c r="Y697" s="2"/>
     </row>
-    <row r="698" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="698" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A698" s="2"/>
       <c r="B698" s="2"/>
       <c r="C698" s="2"/>
@@ -19416,7 +19426,7 @@
       <c r="X698" s="2"/>
       <c r="Y698" s="2"/>
     </row>
-    <row r="699" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="699" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A699" s="2"/>
       <c r="B699" s="2"/>
       <c r="C699" s="2"/>
@@ -19443,7 +19453,7 @@
       <c r="X699" s="2"/>
       <c r="Y699" s="2"/>
     </row>
-    <row r="700" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="700" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A700" s="2"/>
       <c r="B700" s="2"/>
       <c r="C700" s="2"/>
@@ -19470,7 +19480,7 @@
       <c r="X700" s="2"/>
       <c r="Y700" s="2"/>
     </row>
-    <row r="701" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="701" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A701" s="2"/>
       <c r="B701" s="2"/>
       <c r="C701" s="2"/>
@@ -19497,7 +19507,7 @@
       <c r="X701" s="2"/>
       <c r="Y701" s="2"/>
     </row>
-    <row r="702" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="702" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A702" s="2"/>
       <c r="B702" s="2"/>
       <c r="C702" s="2"/>
@@ -19524,7 +19534,7 @@
       <c r="X702" s="2"/>
       <c r="Y702" s="2"/>
     </row>
-    <row r="703" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="703" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A703" s="2"/>
       <c r="B703" s="2"/>
       <c r="C703" s="2"/>
@@ -19551,7 +19561,7 @@
       <c r="X703" s="2"/>
       <c r="Y703" s="2"/>
     </row>
-    <row r="704" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="704" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A704" s="2"/>
       <c r="B704" s="2"/>
       <c r="C704" s="2"/>
@@ -19578,7 +19588,7 @@
       <c r="X704" s="2"/>
       <c r="Y704" s="2"/>
     </row>
-    <row r="705" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="705" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A705" s="2"/>
       <c r="B705" s="2"/>
       <c r="C705" s="2"/>
@@ -19605,7 +19615,7 @@
       <c r="X705" s="2"/>
       <c r="Y705" s="2"/>
     </row>
-    <row r="706" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="706" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A706" s="2"/>
       <c r="B706" s="2"/>
       <c r="C706" s="2"/>
@@ -19632,7 +19642,7 @@
       <c r="X706" s="2"/>
       <c r="Y706" s="2"/>
     </row>
-    <row r="707" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="707" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A707" s="2"/>
       <c r="B707" s="2"/>
       <c r="C707" s="2"/>
@@ -19659,7 +19669,7 @@
       <c r="X707" s="2"/>
       <c r="Y707" s="2"/>
     </row>
-    <row r="708" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="708" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A708" s="2"/>
       <c r="B708" s="2"/>
       <c r="C708" s="2"/>
@@ -19686,7 +19696,7 @@
       <c r="X708" s="2"/>
       <c r="Y708" s="2"/>
     </row>
-    <row r="709" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="709" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A709" s="2"/>
       <c r="B709" s="2"/>
       <c r="C709" s="2"/>
@@ -19713,7 +19723,7 @@
       <c r="X709" s="2"/>
       <c r="Y709" s="2"/>
     </row>
-    <row r="710" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="710" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A710" s="2"/>
       <c r="B710" s="2"/>
       <c r="C710" s="2"/>
@@ -19740,7 +19750,7 @@
       <c r="X710" s="2"/>
       <c r="Y710" s="2"/>
     </row>
-    <row r="711" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="711" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A711" s="2"/>
       <c r="B711" s="2"/>
       <c r="C711" s="2"/>
@@ -19767,7 +19777,7 @@
       <c r="X711" s="2"/>
       <c r="Y711" s="2"/>
     </row>
-    <row r="712" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="712" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A712" s="2"/>
       <c r="B712" s="2"/>
       <c r="C712" s="2"/>
@@ -19794,7 +19804,7 @@
       <c r="X712" s="2"/>
       <c r="Y712" s="2"/>
     </row>
-    <row r="713" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="713" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A713" s="2"/>
       <c r="B713" s="2"/>
       <c r="C713" s="2"/>
@@ -19821,7 +19831,7 @@
       <c r="X713" s="2"/>
       <c r="Y713" s="2"/>
     </row>
-    <row r="714" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="714" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A714" s="2"/>
       <c r="B714" s="2"/>
       <c r="C714" s="2"/>
@@ -19848,7 +19858,7 @@
       <c r="X714" s="2"/>
       <c r="Y714" s="2"/>
     </row>
-    <row r="715" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="715" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A715" s="2"/>
       <c r="B715" s="2"/>
       <c r="C715" s="2"/>
@@ -19875,7 +19885,7 @@
       <c r="X715" s="2"/>
       <c r="Y715" s="2"/>
     </row>
-    <row r="716" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="716" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A716" s="2"/>
       <c r="B716" s="2"/>
       <c r="C716" s="2"/>
@@ -19902,7 +19912,7 @@
       <c r="X716" s="2"/>
       <c r="Y716" s="2"/>
     </row>
-    <row r="717" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="717" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A717" s="2"/>
       <c r="B717" s="2"/>
       <c r="C717" s="2"/>
@@ -19929,7 +19939,7 @@
       <c r="X717" s="2"/>
       <c r="Y717" s="2"/>
     </row>
-    <row r="718" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="718" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A718" s="2"/>
       <c r="B718" s="2"/>
       <c r="C718" s="2"/>
@@ -19956,7 +19966,7 @@
       <c r="X718" s="2"/>
       <c r="Y718" s="2"/>
     </row>
-    <row r="719" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="719" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A719" s="2"/>
       <c r="B719" s="2"/>
       <c r="C719" s="2"/>
@@ -19983,7 +19993,7 @@
       <c r="X719" s="2"/>
       <c r="Y719" s="2"/>
     </row>
-    <row r="720" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="720" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A720" s="2"/>
       <c r="B720" s="2"/>
       <c r="C720" s="2"/>
@@ -20010,7 +20020,7 @@
       <c r="X720" s="2"/>
       <c r="Y720" s="2"/>
     </row>
-    <row r="721" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="721" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A721" s="2"/>
       <c r="B721" s="2"/>
       <c r="C721" s="2"/>
@@ -20037,7 +20047,7 @@
       <c r="X721" s="2"/>
       <c r="Y721" s="2"/>
     </row>
-    <row r="722" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="722" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A722" s="2"/>
       <c r="B722" s="2"/>
       <c r="C722" s="2"/>
@@ -20064,7 +20074,7 @@
       <c r="X722" s="2"/>
       <c r="Y722" s="2"/>
     </row>
-    <row r="723" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="723" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A723" s="2"/>
       <c r="B723" s="2"/>
       <c r="C723" s="2"/>
@@ -20091,7 +20101,7 @@
       <c r="X723" s="2"/>
       <c r="Y723" s="2"/>
     </row>
-    <row r="724" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="724" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A724" s="2"/>
       <c r="B724" s="2"/>
       <c r="C724" s="2"/>
@@ -20118,7 +20128,7 @@
       <c r="X724" s="2"/>
       <c r="Y724" s="2"/>
     </row>
-    <row r="725" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="725" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A725" s="2"/>
       <c r="B725" s="2"/>
       <c r="C725" s="2"/>
@@ -20145,7 +20155,7 @@
       <c r="X725" s="2"/>
       <c r="Y725" s="2"/>
     </row>
-    <row r="726" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="726" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A726" s="2"/>
       <c r="B726" s="2"/>
       <c r="C726" s="2"/>
@@ -20172,7 +20182,7 @@
       <c r="X726" s="2"/>
       <c r="Y726" s="2"/>
     </row>
-    <row r="727" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="727" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A727" s="2"/>
       <c r="B727" s="2"/>
       <c r="C727" s="2"/>
@@ -20199,7 +20209,7 @@
       <c r="X727" s="2"/>
       <c r="Y727" s="2"/>
     </row>
-    <row r="728" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="728" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A728" s="2"/>
       <c r="B728" s="2"/>
       <c r="C728" s="2"/>
@@ -20226,7 +20236,7 @@
       <c r="X728" s="2"/>
       <c r="Y728" s="2"/>
     </row>
-    <row r="729" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="729" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A729" s="2"/>
       <c r="B729" s="2"/>
       <c r="C729" s="2"/>
@@ -20253,7 +20263,7 @@
       <c r="X729" s="2"/>
       <c r="Y729" s="2"/>
     </row>
-    <row r="730" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="730" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A730" s="2"/>
       <c r="B730" s="2"/>
       <c r="C730" s="2"/>
@@ -20280,7 +20290,7 @@
       <c r="X730" s="2"/>
       <c r="Y730" s="2"/>
     </row>
-    <row r="731" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="731" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A731" s="2"/>
       <c r="B731" s="2"/>
       <c r="C731" s="2"/>
@@ -20307,7 +20317,7 @@
       <c r="X731" s="2"/>
       <c r="Y731" s="2"/>
     </row>
-    <row r="732" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="732" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A732" s="2"/>
       <c r="B732" s="2"/>
       <c r="C732" s="2"/>
@@ -20334,7 +20344,7 @@
       <c r="X732" s="2"/>
       <c r="Y732" s="2"/>
     </row>
-    <row r="733" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="733" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A733" s="2"/>
       <c r="B733" s="2"/>
       <c r="C733" s="2"/>
@@ -20361,7 +20371,7 @@
       <c r="X733" s="2"/>
       <c r="Y733" s="2"/>
     </row>
-    <row r="734" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="734" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A734" s="2"/>
       <c r="B734" s="2"/>
       <c r="C734" s="2"/>
@@ -20388,7 +20398,7 @@
       <c r="X734" s="2"/>
       <c r="Y734" s="2"/>
     </row>
-    <row r="735" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="735" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A735" s="2"/>
       <c r="B735" s="2"/>
       <c r="C735" s="2"/>
@@ -20415,7 +20425,7 @@
       <c r="X735" s="2"/>
       <c r="Y735" s="2"/>
     </row>
-    <row r="736" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="736" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A736" s="2"/>
       <c r="B736" s="2"/>
       <c r="C736" s="2"/>
@@ -20442,7 +20452,7 @@
       <c r="X736" s="2"/>
       <c r="Y736" s="2"/>
     </row>
-    <row r="737" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="737" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A737" s="2"/>
       <c r="B737" s="2"/>
       <c r="C737" s="2"/>
@@ -20469,7 +20479,7 @@
       <c r="X737" s="2"/>
       <c r="Y737" s="2"/>
     </row>
-    <row r="738" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="738" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A738" s="2"/>
       <c r="B738" s="2"/>
       <c r="C738" s="2"/>
@@ -20496,7 +20506,7 @@
       <c r="X738" s="2"/>
       <c r="Y738" s="2"/>
     </row>
-    <row r="739" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="739" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A739" s="2"/>
       <c r="B739" s="2"/>
       <c r="C739" s="2"/>
@@ -20523,7 +20533,7 @@
       <c r="X739" s="2"/>
       <c r="Y739" s="2"/>
     </row>
-    <row r="740" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="740" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A740" s="2"/>
       <c r="B740" s="2"/>
       <c r="C740" s="2"/>
@@ -20550,7 +20560,7 @@
       <c r="X740" s="2"/>
       <c r="Y740" s="2"/>
     </row>
-    <row r="741" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="741" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A741" s="2"/>
       <c r="B741" s="2"/>
       <c r="C741" s="2"/>
@@ -20577,7 +20587,7 @@
       <c r="X741" s="2"/>
       <c r="Y741" s="2"/>
     </row>
-    <row r="742" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="742" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A742" s="2"/>
       <c r="B742" s="2"/>
       <c r="C742" s="2"/>
@@ -20604,7 +20614,7 @@
       <c r="X742" s="2"/>
       <c r="Y742" s="2"/>
     </row>
-    <row r="743" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="743" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A743" s="2"/>
       <c r="B743" s="2"/>
       <c r="C743" s="2"/>
@@ -20631,7 +20641,7 @@
       <c r="X743" s="2"/>
       <c r="Y743" s="2"/>
     </row>
-    <row r="744" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="744" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A744" s="2"/>
       <c r="B744" s="2"/>
       <c r="C744" s="2"/>
@@ -20658,7 +20668,7 @@
       <c r="X744" s="2"/>
       <c r="Y744" s="2"/>
     </row>
-    <row r="745" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="745" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A745" s="2"/>
       <c r="B745" s="2"/>
       <c r="C745" s="2"/>
@@ -20685,7 +20695,7 @@
       <c r="X745" s="2"/>
       <c r="Y745" s="2"/>
     </row>
-    <row r="746" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="746" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A746" s="2"/>
       <c r="B746" s="2"/>
       <c r="C746" s="2"/>
@@ -20712,7 +20722,7 @@
       <c r="X746" s="2"/>
       <c r="Y746" s="2"/>
     </row>
-    <row r="747" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="747" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A747" s="2"/>
       <c r="B747" s="2"/>
       <c r="C747" s="2"/>
@@ -20739,7 +20749,7 @@
       <c r="X747" s="2"/>
       <c r="Y747" s="2"/>
     </row>
-    <row r="748" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="748" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A748" s="2"/>
       <c r="B748" s="2"/>
       <c r="C748" s="2"/>
@@ -20766,7 +20776,7 @@
       <c r="X748" s="2"/>
       <c r="Y748" s="2"/>
     </row>
-    <row r="749" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="749" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A749" s="2"/>
       <c r="B749" s="2"/>
       <c r="C749" s="2"/>
@@ -20793,7 +20803,7 @@
       <c r="X749" s="2"/>
       <c r="Y749" s="2"/>
     </row>
-    <row r="750" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="750" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A750" s="2"/>
       <c r="B750" s="2"/>
       <c r="C750" s="2"/>
@@ -20820,7 +20830,7 @@
       <c r="X750" s="2"/>
       <c r="Y750" s="2"/>
     </row>
-    <row r="751" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="751" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A751" s="2"/>
       <c r="B751" s="2"/>
       <c r="C751" s="2"/>
@@ -20847,7 +20857,7 @@
       <c r="X751" s="2"/>
       <c r="Y751" s="2"/>
     </row>
-    <row r="752" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="752" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A752" s="2"/>
       <c r="B752" s="2"/>
       <c r="C752" s="2"/>
@@ -20874,7 +20884,7 @@
       <c r="X752" s="2"/>
       <c r="Y752" s="2"/>
     </row>
-    <row r="753" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="753" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A753" s="2"/>
       <c r="B753" s="2"/>
       <c r="C753" s="2"/>
@@ -20901,7 +20911,7 @@
       <c r="X753" s="2"/>
       <c r="Y753" s="2"/>
     </row>
-    <row r="754" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="754" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A754" s="2"/>
       <c r="B754" s="2"/>
       <c r="C754" s="2"/>
@@ -20928,7 +20938,7 @@
       <c r="X754" s="2"/>
       <c r="Y754" s="2"/>
     </row>
-    <row r="755" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="755" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A755" s="2"/>
       <c r="B755" s="2"/>
       <c r="C755" s="2"/>
@@ -20955,7 +20965,7 @@
       <c r="X755" s="2"/>
       <c r="Y755" s="2"/>
     </row>
-    <row r="756" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="756" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A756" s="2"/>
       <c r="B756" s="2"/>
       <c r="C756" s="2"/>
@@ -20982,7 +20992,7 @@
       <c r="X756" s="2"/>
       <c r="Y756" s="2"/>
     </row>
-    <row r="757" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="757" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A757" s="2"/>
       <c r="B757" s="2"/>
       <c r="C757" s="2"/>
@@ -21009,7 +21019,7 @@
       <c r="X757" s="2"/>
       <c r="Y757" s="2"/>
     </row>
-    <row r="758" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="758" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A758" s="2"/>
       <c r="B758" s="2"/>
       <c r="C758" s="2"/>
@@ -21036,7 +21046,7 @@
       <c r="X758" s="2"/>
       <c r="Y758" s="2"/>
     </row>
-    <row r="759" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="759" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A759" s="2"/>
       <c r="B759" s="2"/>
       <c r="C759" s="2"/>
@@ -21063,7 +21073,7 @@
       <c r="X759" s="2"/>
       <c r="Y759" s="2"/>
     </row>
-    <row r="760" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="760" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A760" s="2"/>
       <c r="B760" s="2"/>
       <c r="C760" s="2"/>
@@ -21090,7 +21100,7 @@
       <c r="X760" s="2"/>
       <c r="Y760" s="2"/>
     </row>
-    <row r="761" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="761" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A761" s="2"/>
       <c r="B761" s="2"/>
       <c r="C761" s="2"/>
@@ -21117,7 +21127,7 @@
       <c r="X761" s="2"/>
       <c r="Y761" s="2"/>
     </row>
-    <row r="762" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="762" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A762" s="2"/>
       <c r="B762" s="2"/>
       <c r="C762" s="2"/>
@@ -21144,7 +21154,7 @@
       <c r="X762" s="2"/>
       <c r="Y762" s="2"/>
     </row>
-    <row r="763" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="763" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A763" s="2"/>
       <c r="B763" s="2"/>
       <c r="C763" s="2"/>
@@ -21171,7 +21181,7 @@
       <c r="X763" s="2"/>
       <c r="Y763" s="2"/>
     </row>
-    <row r="764" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="764" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A764" s="2"/>
       <c r="B764" s="2"/>
       <c r="C764" s="2"/>
@@ -21198,7 +21208,7 @@
       <c r="X764" s="2"/>
       <c r="Y764" s="2"/>
     </row>
-    <row r="765" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="765" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A765" s="2"/>
       <c r="B765" s="2"/>
       <c r="C765" s="2"/>
@@ -21225,7 +21235,7 @@
       <c r="X765" s="2"/>
       <c r="Y765" s="2"/>
     </row>
-    <row r="766" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="766" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A766" s="2"/>
       <c r="B766" s="2"/>
       <c r="C766" s="2"/>
@@ -21252,7 +21262,7 @@
       <c r="X766" s="2"/>
       <c r="Y766" s="2"/>
     </row>
-    <row r="767" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="767" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A767" s="2"/>
       <c r="B767" s="2"/>
       <c r="C767" s="2"/>
@@ -21279,7 +21289,7 @@
       <c r="X767" s="2"/>
       <c r="Y767" s="2"/>
     </row>
-    <row r="768" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="768" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A768" s="2"/>
       <c r="B768" s="2"/>
       <c r="C768" s="2"/>
@@ -21306,7 +21316,7 @@
       <c r="X768" s="2"/>
       <c r="Y768" s="2"/>
     </row>
-    <row r="769" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="769" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A769" s="2"/>
       <c r="B769" s="2"/>
       <c r="C769" s="2"/>
@@ -21333,7 +21343,7 @@
       <c r="X769" s="2"/>
       <c r="Y769" s="2"/>
     </row>
-    <row r="770" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="770" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A770" s="2"/>
       <c r="B770" s="2"/>
       <c r="C770" s="2"/>
@@ -21360,7 +21370,7 @@
       <c r="X770" s="2"/>
       <c r="Y770" s="2"/>
     </row>
-    <row r="771" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="771" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A771" s="2"/>
       <c r="B771" s="2"/>
       <c r="C771" s="2"/>
@@ -21387,7 +21397,7 @@
       <c r="X771" s="2"/>
       <c r="Y771" s="2"/>
     </row>
-    <row r="772" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="772" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A772" s="2"/>
       <c r="B772" s="2"/>
       <c r="C772" s="2"/>
@@ -21414,7 +21424,7 @@
       <c r="X772" s="2"/>
       <c r="Y772" s="2"/>
     </row>
-    <row r="773" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="773" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A773" s="2"/>
       <c r="B773" s="2"/>
       <c r="C773" s="2"/>
@@ -21441,7 +21451,7 @@
       <c r="X773" s="2"/>
       <c r="Y773" s="2"/>
     </row>
-    <row r="774" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="774" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A774" s="2"/>
       <c r="B774" s="2"/>
       <c r="C774" s="2"/>
@@ -21468,7 +21478,7 @@
       <c r="X774" s="2"/>
       <c r="Y774" s="2"/>
     </row>
-    <row r="775" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="775" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A775" s="2"/>
       <c r="B775" s="2"/>
       <c r="C775" s="2"/>
@@ -21495,7 +21505,7 @@
       <c r="X775" s="2"/>
       <c r="Y775" s="2"/>
     </row>
-    <row r="776" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="776" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A776" s="2"/>
       <c r="B776" s="2"/>
       <c r="C776" s="2"/>
@@ -21522,7 +21532,7 @@
       <c r="X776" s="2"/>
       <c r="Y776" s="2"/>
     </row>
-    <row r="777" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="777" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A777" s="2"/>
       <c r="B777" s="2"/>
       <c r="C777" s="2"/>
@@ -21549,7 +21559,7 @@
       <c r="X777" s="2"/>
       <c r="Y777" s="2"/>
     </row>
-    <row r="778" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="778" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A778" s="2"/>
       <c r="B778" s="2"/>
       <c r="C778" s="2"/>
@@ -21576,7 +21586,7 @@
       <c r="X778" s="2"/>
       <c r="Y778" s="2"/>
     </row>
-    <row r="779" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="779" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A779" s="2"/>
       <c r="B779" s="2"/>
       <c r="C779" s="2"/>
@@ -21603,7 +21613,7 @@
       <c r="X779" s="2"/>
       <c r="Y779" s="2"/>
     </row>
-    <row r="780" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="780" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A780" s="2"/>
       <c r="B780" s="2"/>
       <c r="C780" s="2"/>
@@ -21630,7 +21640,7 @@
       <c r="X780" s="2"/>
       <c r="Y780" s="2"/>
     </row>
-    <row r="781" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="781" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A781" s="2"/>
       <c r="B781" s="2"/>
       <c r="C781" s="2"/>
@@ -21657,7 +21667,7 @@
       <c r="X781" s="2"/>
       <c r="Y781" s="2"/>
     </row>
-    <row r="782" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="782" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A782" s="2"/>
       <c r="B782" s="2"/>
       <c r="C782" s="2"/>
@@ -21684,7 +21694,7 @@
       <c r="X782" s="2"/>
       <c r="Y782" s="2"/>
     </row>
-    <row r="783" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="783" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A783" s="2"/>
       <c r="B783" s="2"/>
       <c r="C783" s="2"/>
@@ -21711,7 +21721,7 @@
       <c r="X783" s="2"/>
       <c r="Y783" s="2"/>
     </row>
-    <row r="784" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="784" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A784" s="2"/>
       <c r="B784" s="2"/>
       <c r="C784" s="2"/>
@@ -21738,7 +21748,7 @@
       <c r="X784" s="2"/>
       <c r="Y784" s="2"/>
     </row>
-    <row r="785" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="785" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A785" s="2"/>
       <c r="B785" s="2"/>
       <c r="C785" s="2"/>
@@ -21765,7 +21775,7 @@
       <c r="X785" s="2"/>
       <c r="Y785" s="2"/>
     </row>
-    <row r="786" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="786" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A786" s="2"/>
       <c r="B786" s="2"/>
       <c r="C786" s="2"/>
@@ -21792,7 +21802,7 @@
       <c r="X786" s="2"/>
       <c r="Y786" s="2"/>
     </row>
-    <row r="787" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="787" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A787" s="2"/>
       <c r="B787" s="2"/>
       <c r="C787" s="2"/>
@@ -21819,7 +21829,7 @@
       <c r="X787" s="2"/>
       <c r="Y787" s="2"/>
     </row>
-    <row r="788" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="788" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A788" s="2"/>
       <c r="B788" s="2"/>
       <c r="C788" s="2"/>
@@ -21846,7 +21856,7 @@
       <c r="X788" s="2"/>
       <c r="Y788" s="2"/>
     </row>
-    <row r="789" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="789" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A789" s="2"/>
       <c r="B789" s="2"/>
       <c r="C789" s="2"/>
@@ -21873,7 +21883,7 @@
       <c r="X789" s="2"/>
       <c r="Y789" s="2"/>
     </row>
-    <row r="790" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="790" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A790" s="2"/>
       <c r="B790" s="2"/>
       <c r="C790" s="2"/>
@@ -21900,7 +21910,7 @@
       <c r="X790" s="2"/>
       <c r="Y790" s="2"/>
     </row>
-    <row r="791" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="791" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A791" s="2"/>
       <c r="B791" s="2"/>
       <c r="C791" s="2"/>
@@ -21927,7 +21937,7 @@
       <c r="X791" s="2"/>
       <c r="Y791" s="2"/>
     </row>
-    <row r="792" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="792" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A792" s="2"/>
       <c r="B792" s="2"/>
       <c r="C792" s="2"/>
@@ -21954,7 +21964,7 @@
       <c r="X792" s="2"/>
       <c r="Y792" s="2"/>
     </row>
-    <row r="793" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="793" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A793" s="2"/>
       <c r="B793" s="2"/>
       <c r="C793" s="2"/>
@@ -21981,7 +21991,7 @@
       <c r="X793" s="2"/>
       <c r="Y793" s="2"/>
     </row>
-    <row r="794" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="794" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A794" s="2"/>
       <c r="B794" s="2"/>
       <c r="C794" s="2"/>
@@ -22008,7 +22018,7 @@
       <c r="X794" s="2"/>
       <c r="Y794" s="2"/>
     </row>
-    <row r="795" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="795" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A795" s="2"/>
       <c r="B795" s="2"/>
       <c r="C795" s="2"/>
@@ -22035,7 +22045,7 @@
       <c r="X795" s="2"/>
       <c r="Y795" s="2"/>
     </row>
-    <row r="796" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="796" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A796" s="2"/>
       <c r="B796" s="2"/>
       <c r="C796" s="2"/>
@@ -22062,7 +22072,7 @@
       <c r="X796" s="2"/>
       <c r="Y796" s="2"/>
     </row>
-    <row r="797" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="797" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A797" s="2"/>
       <c r="B797" s="2"/>
       <c r="C797" s="2"/>
@@ -22089,7 +22099,7 @@
       <c r="X797" s="2"/>
       <c r="Y797" s="2"/>
     </row>
-    <row r="798" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="798" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A798" s="2"/>
       <c r="B798" s="2"/>
       <c r="C798" s="2"/>
@@ -22116,7 +22126,7 @@
       <c r="X798" s="2"/>
       <c r="Y798" s="2"/>
     </row>
-    <row r="799" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="799" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A799" s="2"/>
       <c r="B799" s="2"/>
       <c r="C799" s="2"/>
@@ -22143,7 +22153,7 @@
       <c r="X799" s="2"/>
       <c r="Y799" s="2"/>
     </row>
-    <row r="800" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="800" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A800" s="2"/>
       <c r="B800" s="2"/>
       <c r="C800" s="2"/>
@@ -22170,7 +22180,7 @@
       <c r="X800" s="2"/>
       <c r="Y800" s="2"/>
     </row>
-    <row r="801" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="801" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A801" s="2"/>
       <c r="B801" s="2"/>
       <c r="C801" s="2"/>
@@ -22197,7 +22207,7 @@
       <c r="X801" s="2"/>
       <c r="Y801" s="2"/>
     </row>
-    <row r="802" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="802" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A802" s="2"/>
       <c r="B802" s="2"/>
       <c r="C802" s="2"/>
@@ -22224,7 +22234,7 @@
       <c r="X802" s="2"/>
       <c r="Y802" s="2"/>
     </row>
-    <row r="803" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="803" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A803" s="2"/>
       <c r="B803" s="2"/>
       <c r="C803" s="2"/>
@@ -22251,7 +22261,7 @@
       <c r="X803" s="2"/>
       <c r="Y803" s="2"/>
     </row>
-    <row r="804" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="804" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A804" s="2"/>
       <c r="B804" s="2"/>
       <c r="C804" s="2"/>
@@ -22278,7 +22288,7 @@
       <c r="X804" s="2"/>
       <c r="Y804" s="2"/>
     </row>
-    <row r="805" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="805" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A805" s="2"/>
       <c r="B805" s="2"/>
       <c r="C805" s="2"/>
@@ -22305,7 +22315,7 @@
       <c r="X805" s="2"/>
       <c r="Y805" s="2"/>
     </row>
-    <row r="806" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="806" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A806" s="2"/>
       <c r="B806" s="2"/>
       <c r="C806" s="2"/>
@@ -22332,7 +22342,7 @@
       <c r="X806" s="2"/>
       <c r="Y806" s="2"/>
     </row>
-    <row r="807" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="807" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A807" s="2"/>
       <c r="B807" s="2"/>
       <c r="C807" s="2"/>
@@ -22359,7 +22369,7 @@
       <c r="X807" s="2"/>
       <c r="Y807" s="2"/>
     </row>
-    <row r="808" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="808" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A808" s="2"/>
       <c r="B808" s="2"/>
       <c r="C808" s="2"/>
@@ -22386,7 +22396,7 @@
       <c r="X808" s="2"/>
       <c r="Y808" s="2"/>
     </row>
-    <row r="809" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="809" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A809" s="2"/>
       <c r="B809" s="2"/>
       <c r="C809" s="2"/>
@@ -22413,7 +22423,7 @@
       <c r="X809" s="2"/>
       <c r="Y809" s="2"/>
     </row>
-    <row r="810" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="810" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A810" s="2"/>
       <c r="B810" s="2"/>
       <c r="C810" s="2"/>
@@ -22440,7 +22450,7 @@
       <c r="X810" s="2"/>
       <c r="Y810" s="2"/>
     </row>
-    <row r="811" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="811" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A811" s="2"/>
       <c r="B811" s="2"/>
       <c r="C811" s="2"/>
@@ -22467,7 +22477,7 @@
       <c r="X811" s="2"/>
       <c r="Y811" s="2"/>
     </row>
-    <row r="812" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="812" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A812" s="2"/>
       <c r="B812" s="2"/>
       <c r="C812" s="2"/>
@@ -22494,7 +22504,7 @@
       <c r="X812" s="2"/>
       <c r="Y812" s="2"/>
     </row>
-    <row r="813" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="813" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A813" s="2"/>
       <c r="B813" s="2"/>
       <c r="C813" s="2"/>
@@ -22521,7 +22531,7 @@
       <c r="X813" s="2"/>
       <c r="Y813" s="2"/>
     </row>
-    <row r="814" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="814" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A814" s="2"/>
       <c r="B814" s="2"/>
       <c r="C814" s="2"/>
@@ -22548,7 +22558,7 @@
       <c r="X814" s="2"/>
       <c r="Y814" s="2"/>
     </row>
-    <row r="815" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="815" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A815" s="2"/>
       <c r="B815" s="2"/>
       <c r="C815" s="2"/>
@@ -22575,7 +22585,7 @@
       <c r="X815" s="2"/>
       <c r="Y815" s="2"/>
     </row>
-    <row r="816" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="816" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A816" s="2"/>
       <c r="B816" s="2"/>
       <c r="C816" s="2"/>
@@ -22602,7 +22612,7 @@
       <c r="X816" s="2"/>
       <c r="Y816" s="2"/>
     </row>
-    <row r="817" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="817" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A817" s="2"/>
       <c r="B817" s="2"/>
       <c r="C817" s="2"/>
@@ -22629,7 +22639,7 @@
       <c r="X817" s="2"/>
       <c r="Y817" s="2"/>
     </row>
-    <row r="818" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="818" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A818" s="2"/>
       <c r="B818" s="2"/>
       <c r="C818" s="2"/>
@@ -22656,7 +22666,7 @@
       <c r="X818" s="2"/>
       <c r="Y818" s="2"/>
     </row>
-    <row r="819" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="819" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A819" s="2"/>
       <c r="B819" s="2"/>
       <c r="C819" s="2"/>
@@ -22683,7 +22693,7 @@
       <c r="X819" s="2"/>
       <c r="Y819" s="2"/>
     </row>
-    <row r="820" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="820" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A820" s="2"/>
       <c r="B820" s="2"/>
       <c r="C820" s="2"/>
@@ -22710,7 +22720,7 @@
       <c r="X820" s="2"/>
       <c r="Y820" s="2"/>
     </row>
-    <row r="821" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="821" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A821" s="2"/>
       <c r="B821" s="2"/>
       <c r="C821" s="2"/>
@@ -22737,7 +22747,7 @@
       <c r="X821" s="2"/>
       <c r="Y821" s="2"/>
     </row>
-    <row r="822" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="822" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A822" s="2"/>
       <c r="B822" s="2"/>
       <c r="C822" s="2"/>
@@ -22764,7 +22774,7 @@
       <c r="X822" s="2"/>
       <c r="Y822" s="2"/>
     </row>
-    <row r="823" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="823" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A823" s="2"/>
       <c r="B823" s="2"/>
       <c r="C823" s="2"/>
@@ -22791,7 +22801,7 @@
       <c r="X823" s="2"/>
       <c r="Y823" s="2"/>
     </row>
-    <row r="824" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="824" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A824" s="2"/>
       <c r="B824" s="2"/>
       <c r="C824" s="2"/>
@@ -22818,7 +22828,7 @@
       <c r="X824" s="2"/>
       <c r="Y824" s="2"/>
     </row>
-    <row r="825" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="825" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A825" s="2"/>
       <c r="B825" s="2"/>
       <c r="C825" s="2"/>
@@ -22845,7 +22855,7 @@
       <c r="X825" s="2"/>
       <c r="Y825" s="2"/>
     </row>
-    <row r="826" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="826" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A826" s="2"/>
       <c r="B826" s="2"/>
       <c r="C826" s="2"/>
@@ -22872,7 +22882,7 @@
       <c r="X826" s="2"/>
       <c r="Y826" s="2"/>
     </row>
-    <row r="827" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="827" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A827" s="2"/>
       <c r="B827" s="2"/>
       <c r="C827" s="2"/>
@@ -22899,7 +22909,7 @@
       <c r="X827" s="2"/>
       <c r="Y827" s="2"/>
     </row>
-    <row r="828" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="828" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A828" s="2"/>
       <c r="B828" s="2"/>
       <c r="C828" s="2"/>
@@ -22926,7 +22936,7 @@
       <c r="X828" s="2"/>
       <c r="Y828" s="2"/>
     </row>
-    <row r="829" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="829" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A829" s="2"/>
       <c r="B829" s="2"/>
       <c r="C829" s="2"/>
@@ -22953,7 +22963,7 @@
       <c r="X829" s="2"/>
       <c r="Y829" s="2"/>
     </row>
-    <row r="830" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="830" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A830" s="2"/>
       <c r="B830" s="2"/>
       <c r="C830" s="2"/>
@@ -22980,7 +22990,7 @@
       <c r="X830" s="2"/>
       <c r="Y830" s="2"/>
     </row>
-    <row r="831" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="831" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A831" s="2"/>
       <c r="B831" s="2"/>
       <c r="C831" s="2"/>
@@ -23007,7 +23017,7 @@
       <c r="X831" s="2"/>
       <c r="Y831" s="2"/>
     </row>
-    <row r="832" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="832" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A832" s="2"/>
       <c r="B832" s="2"/>
       <c r="C832" s="2"/>
@@ -23034,7 +23044,7 @@
       <c r="X832" s="2"/>
       <c r="Y832" s="2"/>
     </row>
-    <row r="833" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="833" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A833" s="2"/>
       <c r="B833" s="2"/>
       <c r="C833" s="2"/>
@@ -23061,7 +23071,7 @@
       <c r="X833" s="2"/>
       <c r="Y833" s="2"/>
     </row>
-    <row r="834" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="834" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A834" s="2"/>
       <c r="B834" s="2"/>
       <c r="C834" s="2"/>
@@ -23088,7 +23098,7 @@
       <c r="X834" s="2"/>
       <c r="Y834" s="2"/>
     </row>
-    <row r="835" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="835" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A835" s="2"/>
       <c r="B835" s="2"/>
       <c r="C835" s="2"/>
@@ -23115,7 +23125,7 @@
       <c r="X835" s="2"/>
       <c r="Y835" s="2"/>
     </row>
-    <row r="836" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="836" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A836" s="2"/>
       <c r="B836" s="2"/>
       <c r="C836" s="2"/>
@@ -23142,7 +23152,7 @@
       <c r="X836" s="2"/>
       <c r="Y836" s="2"/>
     </row>
-    <row r="837" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="837" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A837" s="2"/>
       <c r="B837" s="2"/>
       <c r="C837" s="2"/>
@@ -23169,7 +23179,7 @@
       <c r="X837" s="2"/>
       <c r="Y837" s="2"/>
     </row>
-    <row r="838" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="838" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A838" s="2"/>
       <c r="B838" s="2"/>
       <c r="C838" s="2"/>
@@ -23196,7 +23206,7 @@
       <c r="X838" s="2"/>
       <c r="Y838" s="2"/>
     </row>
-    <row r="839" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="839" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A839" s="2"/>
       <c r="B839" s="2"/>
       <c r="C839" s="2"/>
@@ -23223,7 +23233,7 @@
       <c r="X839" s="2"/>
       <c r="Y839" s="2"/>
     </row>
-    <row r="840" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="840" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A840" s="2"/>
       <c r="B840" s="2"/>
       <c r="C840" s="2"/>
@@ -23250,7 +23260,7 @@
       <c r="X840" s="2"/>
       <c r="Y840" s="2"/>
     </row>
-    <row r="841" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="841" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A841" s="2"/>
       <c r="B841" s="2"/>
       <c r="C841" s="2"/>
@@ -23277,7 +23287,7 @@
       <c r="X841" s="2"/>
       <c r="Y841" s="2"/>
     </row>
-    <row r="842" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="842" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A842" s="2"/>
       <c r="B842" s="2"/>
       <c r="C842" s="2"/>
@@ -23304,7 +23314,7 @@
       <c r="X842" s="2"/>
       <c r="Y842" s="2"/>
     </row>
-    <row r="843" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="843" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A843" s="2"/>
       <c r="B843" s="2"/>
       <c r="C843" s="2"/>
@@ -23331,7 +23341,7 @@
       <c r="X843" s="2"/>
       <c r="Y843" s="2"/>
     </row>
-    <row r="844" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="844" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A844" s="2"/>
       <c r="B844" s="2"/>
       <c r="C844" s="2"/>
@@ -23358,7 +23368,7 @@
       <c r="X844" s="2"/>
       <c r="Y844" s="2"/>
     </row>
-    <row r="845" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="845" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A845" s="2"/>
       <c r="B845" s="2"/>
       <c r="C845" s="2"/>
@@ -23385,7 +23395,7 @@
       <c r="X845" s="2"/>
       <c r="Y845" s="2"/>
     </row>
-    <row r="846" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="846" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A846" s="2"/>
       <c r="B846" s="2"/>
       <c r="C846" s="2"/>
@@ -23412,7 +23422,7 @@
       <c r="X846" s="2"/>
       <c r="Y846" s="2"/>
     </row>
-    <row r="847" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="847" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A847" s="2"/>
       <c r="B847" s="2"/>
       <c r="C847" s="2"/>
@@ -23439,7 +23449,7 @@
       <c r="X847" s="2"/>
       <c r="Y847" s="2"/>
     </row>
-    <row r="848" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="848" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A848" s="2"/>
       <c r="B848" s="2"/>
       <c r="C848" s="2"/>
@@ -23466,7 +23476,7 @@
       <c r="X848" s="2"/>
       <c r="Y848" s="2"/>
     </row>
-    <row r="849" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="849" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A849" s="2"/>
       <c r="B849" s="2"/>
       <c r="C849" s="2"/>
@@ -23493,7 +23503,7 @@
       <c r="X849" s="2"/>
       <c r="Y849" s="2"/>
     </row>
-    <row r="850" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="850" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A850" s="2"/>
       <c r="B850" s="2"/>
       <c r="C850" s="2"/>
@@ -23520,7 +23530,7 @@
       <c r="X850" s="2"/>
       <c r="Y850" s="2"/>
     </row>
-    <row r="851" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="851" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A851" s="2"/>
       <c r="B851" s="2"/>
       <c r="C851" s="2"/>
@@ -23547,7 +23557,7 @@
       <c r="X851" s="2"/>
       <c r="Y851" s="2"/>
     </row>
-    <row r="852" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="852" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A852" s="2"/>
       <c r="B852" s="2"/>
       <c r="C852" s="2"/>
@@ -23574,7 +23584,7 @@
       <c r="X852" s="2"/>
       <c r="Y852" s="2"/>
     </row>
-    <row r="853" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="853" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A853" s="2"/>
       <c r="B853" s="2"/>
       <c r="C853" s="2"/>
@@ -23601,7 +23611,7 @@
       <c r="X853" s="2"/>
       <c r="Y853" s="2"/>
     </row>
-    <row r="854" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="854" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A854" s="2"/>
       <c r="B854" s="2"/>
       <c r="C854" s="2"/>
@@ -23628,7 +23638,7 @@
       <c r="X854" s="2"/>
       <c r="Y854" s="2"/>
     </row>
-    <row r="855" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="855" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A855" s="2"/>
       <c r="B855" s="2"/>
       <c r="C855" s="2"/>
@@ -23655,7 +23665,7 @@
       <c r="X855" s="2"/>
       <c r="Y855" s="2"/>
     </row>
-    <row r="856" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="856" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A856" s="2"/>
       <c r="B856" s="2"/>
       <c r="C856" s="2"/>
@@ -23682,7 +23692,7 @@
       <c r="X856" s="2"/>
       <c r="Y856" s="2"/>
     </row>
-    <row r="857" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="857" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A857" s="2"/>
       <c r="B857" s="2"/>
       <c r="C857" s="2"/>
@@ -23709,7 +23719,7 @@
       <c r="X857" s="2"/>
       <c r="Y857" s="2"/>
     </row>
-    <row r="858" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="858" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A858" s="2"/>
       <c r="B858" s="2"/>
       <c r="C858" s="2"/>
@@ -23736,7 +23746,7 @@
       <c r="X858" s="2"/>
       <c r="Y858" s="2"/>
     </row>
-    <row r="859" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="859" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A859" s="2"/>
       <c r="B859" s="2"/>
       <c r="C859" s="2"/>
@@ -23763,7 +23773,7 @@
       <c r="X859" s="2"/>
       <c r="Y859" s="2"/>
     </row>
-    <row r="860" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="860" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A860" s="2"/>
       <c r="B860" s="2"/>
       <c r="C860" s="2"/>
@@ -23790,7 +23800,7 @@
       <c r="X860" s="2"/>
       <c r="Y860" s="2"/>
     </row>
-    <row r="861" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="861" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A861" s="2"/>
       <c r="B861" s="2"/>
       <c r="C861" s="2"/>
@@ -23817,7 +23827,7 @@
       <c r="X861" s="2"/>
       <c r="Y861" s="2"/>
     </row>
-    <row r="862" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="862" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A862" s="2"/>
       <c r="B862" s="2"/>
       <c r="C862" s="2"/>
@@ -23844,7 +23854,7 @@
       <c r="X862" s="2"/>
       <c r="Y862" s="2"/>
     </row>
-    <row r="863" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="863" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A863" s="2"/>
       <c r="B863" s="2"/>
       <c r="C863" s="2"/>
@@ -23871,7 +23881,7 @@
       <c r="X863" s="2"/>
       <c r="Y863" s="2"/>
     </row>
-    <row r="864" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="864" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A864" s="2"/>
       <c r="B864" s="2"/>
       <c r="C864" s="2"/>
@@ -23898,7 +23908,7 @@
       <c r="X864" s="2"/>
       <c r="Y864" s="2"/>
     </row>
-    <row r="865" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="865" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A865" s="2"/>
       <c r="B865" s="2"/>
       <c r="C865" s="2"/>
@@ -23925,7 +23935,7 @@
       <c r="X865" s="2"/>
       <c r="Y865" s="2"/>
     </row>
-    <row r="866" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="866" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A866" s="2"/>
       <c r="B866" s="2"/>
       <c r="C866" s="2"/>
@@ -23952,7 +23962,7 @@
       <c r="X866" s="2"/>
       <c r="Y866" s="2"/>
     </row>
-    <row r="867" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="867" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A867" s="2"/>
       <c r="B867" s="2"/>
       <c r="C867" s="2"/>
@@ -23979,7 +23989,7 @@
       <c r="X867" s="2"/>
       <c r="Y867" s="2"/>
     </row>
-    <row r="868" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="868" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A868" s="2"/>
       <c r="B868" s="2"/>
       <c r="C868" s="2"/>
@@ -24006,7 +24016,7 @@
       <c r="X868" s="2"/>
       <c r="Y868" s="2"/>
     </row>
-    <row r="869" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="869" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A869" s="2"/>
       <c r="B869" s="2"/>
       <c r="C869" s="2"/>
@@ -24033,7 +24043,7 @@
       <c r="X869" s="2"/>
       <c r="Y869" s="2"/>
     </row>
-    <row r="870" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="870" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A870" s="2"/>
       <c r="B870" s="2"/>
       <c r="C870" s="2"/>
@@ -24060,7 +24070,7 @@
       <c r="X870" s="2"/>
       <c r="Y870" s="2"/>
     </row>
-    <row r="871" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="871" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A871" s="2"/>
       <c r="B871" s="2"/>
       <c r="C871" s="2"/>
@@ -24087,7 +24097,7 @@
       <c r="X871" s="2"/>
       <c r="Y871" s="2"/>
     </row>
-    <row r="872" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="872" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A872" s="2"/>
       <c r="B872" s="2"/>
       <c r="C872" s="2"/>
@@ -24114,7 +24124,7 @@
       <c r="X872" s="2"/>
       <c r="Y872" s="2"/>
     </row>
-    <row r="873" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="873" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A873" s="2"/>
       <c r="B873" s="2"/>
       <c r="C873" s="2"/>
@@ -24141,7 +24151,7 @@
       <c r="X873" s="2"/>
       <c r="Y873" s="2"/>
     </row>
-    <row r="874" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="874" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A874" s="2"/>
       <c r="B874" s="2"/>
       <c r="C874" s="2"/>
@@ -24168,7 +24178,7 @@
       <c r="X874" s="2"/>
       <c r="Y874" s="2"/>
     </row>
-    <row r="875" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="875" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A875" s="2"/>
       <c r="B875" s="2"/>
       <c r="C875" s="2"/>
@@ -24195,7 +24205,7 @@
       <c r="X875" s="2"/>
       <c r="Y875" s="2"/>
     </row>
-    <row r="876" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="876" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A876" s="2"/>
       <c r="B876" s="2"/>
       <c r="C876" s="2"/>
@@ -24222,7 +24232,7 @@
       <c r="X876" s="2"/>
       <c r="Y876" s="2"/>
     </row>
-    <row r="877" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="877" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A877" s="2"/>
       <c r="B877" s="2"/>
       <c r="C877" s="2"/>
@@ -24249,7 +24259,7 @@
       <c r="X877" s="2"/>
       <c r="Y877" s="2"/>
     </row>
-    <row r="878" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="878" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A878" s="2"/>
       <c r="B878" s="2"/>
       <c r="C878" s="2"/>
@@ -24276,7 +24286,7 @@
       <c r="X878" s="2"/>
       <c r="Y878" s="2"/>
     </row>
-    <row r="879" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="879" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A879" s="2"/>
       <c r="B879" s="2"/>
       <c r="C879" s="2"/>
@@ -24303,7 +24313,7 @@
       <c r="X879" s="2"/>
       <c r="Y879" s="2"/>
     </row>
-    <row r="880" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="880" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A880" s="2"/>
       <c r="B880" s="2"/>
       <c r="C880" s="2"/>
@@ -24330,7 +24340,7 @@
       <c r="X880" s="2"/>
       <c r="Y880" s="2"/>
     </row>
-    <row r="881" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="881" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A881" s="2"/>
       <c r="B881" s="2"/>
       <c r="C881" s="2"/>
@@ -24357,7 +24367,7 @@
       <c r="X881" s="2"/>
       <c r="Y881" s="2"/>
     </row>
-    <row r="882" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="882" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A882" s="2"/>
       <c r="B882" s="2"/>
       <c r="C882" s="2"/>
@@ -24384,7 +24394,7 @@
       <c r="X882" s="2"/>
       <c r="Y882" s="2"/>
     </row>
-    <row r="883" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="883" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A883" s="2"/>
       <c r="B883" s="2"/>
       <c r="C883" s="2"/>
@@ -24411,7 +24421,7 @@
       <c r="X883" s="2"/>
       <c r="Y883" s="2"/>
     </row>
-    <row r="884" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="884" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A884" s="2"/>
       <c r="B884" s="2"/>
       <c r="C884" s="2"/>
@@ -24438,7 +24448,7 @@
       <c r="X884" s="2"/>
       <c r="Y884" s="2"/>
     </row>
-    <row r="885" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="885" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A885" s="2"/>
       <c r="B885" s="2"/>
       <c r="C885" s="2"/>
@@ -24465,7 +24475,7 @@
       <c r="X885" s="2"/>
       <c r="Y885" s="2"/>
     </row>
-    <row r="886" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="886" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A886" s="2"/>
       <c r="B886" s="2"/>
       <c r="C886" s="2"/>
@@ -24492,7 +24502,7 @@
       <c r="X886" s="2"/>
       <c r="Y886" s="2"/>
     </row>
-    <row r="887" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="887" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A887" s="2"/>
       <c r="B887" s="2"/>
       <c r="C887" s="2"/>
@@ -24519,7 +24529,7 @@
       <c r="X887" s="2"/>
       <c r="Y887" s="2"/>
     </row>
-    <row r="888" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="888" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A888" s="2"/>
       <c r="B888" s="2"/>
       <c r="C888" s="2"/>
@@ -24546,7 +24556,7 @@
       <c r="X888" s="2"/>
       <c r="Y888" s="2"/>
     </row>
-    <row r="889" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="889" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A889" s="2"/>
       <c r="B889" s="2"/>
       <c r="C889" s="2"/>
@@ -24573,7 +24583,7 @@
       <c r="X889" s="2"/>
       <c r="Y889" s="2"/>
     </row>
-    <row r="890" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="890" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A890" s="2"/>
       <c r="B890" s="2"/>
       <c r="C890" s="2"/>
@@ -24600,7 +24610,7 @@
       <c r="X890" s="2"/>
       <c r="Y890" s="2"/>
     </row>
-    <row r="891" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="891" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A891" s="2"/>
       <c r="B891" s="2"/>
       <c r="C891" s="2"/>
@@ -24627,7 +24637,7 @@
       <c r="X891" s="2"/>
       <c r="Y891" s="2"/>
     </row>
-    <row r="892" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="892" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A892" s="2"/>
       <c r="B892" s="2"/>
       <c r="C892" s="2"/>
@@ -24654,7 +24664,7 @@
       <c r="X892" s="2"/>
       <c r="Y892" s="2"/>
     </row>
-    <row r="893" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="893" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A893" s="2"/>
       <c r="B893" s="2"/>
       <c r="C893" s="2"/>
@@ -24681,7 +24691,7 @@
       <c r="X893" s="2"/>
       <c r="Y893" s="2"/>
     </row>
-    <row r="894" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="894" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A894" s="2"/>
       <c r="B894" s="2"/>
       <c r="C894" s="2"/>
@@ -24708,7 +24718,7 @@
       <c r="X894" s="2"/>
       <c r="Y894" s="2"/>
     </row>
-    <row r="895" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="895" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A895" s="2"/>
       <c r="B895" s="2"/>
       <c r="C895" s="2"/>
@@ -24735,7 +24745,7 @@
       <c r="X895" s="2"/>
       <c r="Y895" s="2"/>
     </row>
-    <row r="896" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="896" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A896" s="2"/>
       <c r="B896" s="2"/>
       <c r="C896" s="2"/>
@@ -24762,7 +24772,7 @@
       <c r="X896" s="2"/>
       <c r="Y896" s="2"/>
     </row>
-    <row r="897" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="897" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A897" s="2"/>
       <c r="B897" s="2"/>
       <c r="C897" s="2"/>
@@ -24789,7 +24799,7 @@
       <c r="X897" s="2"/>
       <c r="Y897" s="2"/>
     </row>
-    <row r="898" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="898" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A898" s="2"/>
       <c r="B898" s="2"/>
       <c r="C898" s="2"/>
@@ -24816,7 +24826,7 @@
       <c r="X898" s="2"/>
       <c r="Y898" s="2"/>
     </row>
-    <row r="899" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="899" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A899" s="2"/>
       <c r="B899" s="2"/>
       <c r="C899" s="2"/>
@@ -24843,7 +24853,7 @@
       <c r="X899" s="2"/>
       <c r="Y899" s="2"/>
     </row>
-    <row r="900" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="900" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A900" s="2"/>
       <c r="B900" s="2"/>
       <c r="C900" s="2"/>
@@ -24870,7 +24880,7 @@
       <c r="X900" s="2"/>
       <c r="Y900" s="2"/>
     </row>
-    <row r="901" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="901" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A901" s="2"/>
       <c r="B901" s="2"/>
       <c r="C901" s="2"/>
@@ -24897,7 +24907,7 @@
       <c r="X901" s="2"/>
       <c r="Y901" s="2"/>
     </row>
-    <row r="902" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="902" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A902" s="2"/>
       <c r="B902" s="2"/>
       <c r="C902" s="2"/>
@@ -24924,7 +24934,7 @@
       <c r="X902" s="2"/>
       <c r="Y902" s="2"/>
     </row>
-    <row r="903" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="903" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A903" s="2"/>
       <c r="B903" s="2"/>
       <c r="C903" s="2"/>
@@ -24951,7 +24961,7 @@
       <c r="X903" s="2"/>
       <c r="Y903" s="2"/>
     </row>
-    <row r="904" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="904" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A904" s="2"/>
       <c r="B904" s="2"/>
       <c r="C904" s="2"/>
@@ -24978,7 +24988,7 @@
       <c r="X904" s="2"/>
       <c r="Y904" s="2"/>
     </row>
-    <row r="905" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="905" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A905" s="2"/>
       <c r="B905" s="2"/>
       <c r="C905" s="2"/>
@@ -25005,7 +25015,7 @@
       <c r="X905" s="2"/>
       <c r="Y905" s="2"/>
     </row>
-    <row r="906" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="906" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A906" s="2"/>
       <c r="B906" s="2"/>
       <c r="C906" s="2"/>
@@ -25032,7 +25042,7 @@
       <c r="X906" s="2"/>
       <c r="Y906" s="2"/>
     </row>
-    <row r="907" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="907" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A907" s="2"/>
       <c r="B907" s="2"/>
       <c r="C907" s="2"/>
@@ -25059,7 +25069,7 @@
       <c r="X907" s="2"/>
       <c r="Y907" s="2"/>
     </row>
-    <row r="908" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="908" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A908" s="2"/>
       <c r="B908" s="2"/>
       <c r="C908" s="2"/>
@@ -25086,7 +25096,7 @@
       <c r="X908" s="2"/>
       <c r="Y908" s="2"/>
     </row>
-    <row r="909" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="909" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A909" s="2"/>
       <c r="B909" s="2"/>
       <c r="C909" s="2"/>
@@ -25113,7 +25123,7 @@
       <c r="X909" s="2"/>
       <c r="Y909" s="2"/>
     </row>
-    <row r="910" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="910" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A910" s="2"/>
       <c r="B910" s="2"/>
       <c r="C910" s="2"/>
@@ -25140,7 +25150,7 @@
       <c r="X910" s="2"/>
       <c r="Y910" s="2"/>
     </row>
-    <row r="911" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="911" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A911" s="2"/>
       <c r="B911" s="2"/>
       <c r="C911" s="2"/>
@@ -25167,7 +25177,7 @@
       <c r="X911" s="2"/>
       <c r="Y911" s="2"/>
     </row>
-    <row r="912" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="912" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A912" s="2"/>
       <c r="B912" s="2"/>
       <c r="C912" s="2"/>
@@ -25194,7 +25204,7 @@
       <c r="X912" s="2"/>
       <c r="Y912" s="2"/>
     </row>
-    <row r="913" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="913" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A913" s="2"/>
       <c r="B913" s="2"/>
       <c r="C913" s="2"/>
@@ -25221,7 +25231,7 @@
       <c r="X913" s="2"/>
       <c r="Y913" s="2"/>
     </row>
-    <row r="914" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="914" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A914" s="2"/>
       <c r="B914" s="2"/>
       <c r="C914" s="2"/>
@@ -25248,7 +25258,7 @@
       <c r="X914" s="2"/>
       <c r="Y914" s="2"/>
     </row>
-    <row r="915" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="915" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A915" s="2"/>
       <c r="B915" s="2"/>
       <c r="C915" s="2"/>
@@ -25275,7 +25285,7 @@
       <c r="X915" s="2"/>
       <c r="Y915" s="2"/>
     </row>
-    <row r="916" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="916" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A916" s="2"/>
       <c r="B916" s="2"/>
       <c r="C916" s="2"/>
@@ -25302,7 +25312,7 @@
       <c r="X916" s="2"/>
       <c r="Y916" s="2"/>
     </row>
-    <row r="917" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="917" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A917" s="2"/>
       <c r="B917" s="2"/>
       <c r="C917" s="2"/>
@@ -25329,7 +25339,7 @@
       <c r="X917" s="2"/>
       <c r="Y917" s="2"/>
     </row>
-    <row r="918" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="918" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A918" s="2"/>
       <c r="B918" s="2"/>
       <c r="C918" s="2"/>
@@ -25356,7 +25366,7 @@
       <c r="X918" s="2"/>
       <c r="Y918" s="2"/>
     </row>
-    <row r="919" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="919" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A919" s="2"/>
       <c r="B919" s="2"/>
       <c r="C919" s="2"/>
@@ -25383,7 +25393,7 @@
       <c r="X919" s="2"/>
       <c r="Y919" s="2"/>
     </row>
-    <row r="920" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="920" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A920" s="2"/>
       <c r="B920" s="2"/>
       <c r="C920" s="2"/>
@@ -25410,7 +25420,7 @@
       <c r="X920" s="2"/>
       <c r="Y920" s="2"/>
     </row>
-    <row r="921" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="921" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A921" s="2"/>
       <c r="B921" s="2"/>
       <c r="C921" s="2"/>
@@ -25437,7 +25447,7 @@
       <c r="X921" s="2"/>
       <c r="Y921" s="2"/>
     </row>
-    <row r="922" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="922" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A922" s="2"/>
       <c r="B922" s="2"/>
       <c r="C922" s="2"/>
@@ -25464,7 +25474,7 @@
       <c r="X922" s="2"/>
       <c r="Y922" s="2"/>
     </row>
-    <row r="923" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="923" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A923" s="2"/>
       <c r="B923" s="2"/>
       <c r="C923" s="2"/>
@@ -25491,7 +25501,7 @@
       <c r="X923" s="2"/>
       <c r="Y923" s="2"/>
     </row>
-    <row r="924" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="924" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A924" s="2"/>
       <c r="B924" s="2"/>
       <c r="C924" s="2"/>
@@ -25518,7 +25528,7 @@
       <c r="X924" s="2"/>
       <c r="Y924" s="2"/>
     </row>
-    <row r="925" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="925" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A925" s="2"/>
       <c r="B925" s="2"/>
       <c r="C925" s="2"/>
@@ -25545,7 +25555,7 @@
       <c r="X925" s="2"/>
       <c r="Y925" s="2"/>
     </row>
-    <row r="926" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="926" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A926" s="2"/>
       <c r="B926" s="2"/>
       <c r="C926" s="2"/>
@@ -25572,7 +25582,7 @@
       <c r="X926" s="2"/>
       <c r="Y926" s="2"/>
     </row>
-    <row r="927" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="927" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A927" s="2"/>
       <c r="B927" s="2"/>
       <c r="C927" s="2"/>
@@ -25599,7 +25609,7 @@
       <c r="X927" s="2"/>
       <c r="Y927" s="2"/>
     </row>
-    <row r="928" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="928" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A928" s="2"/>
       <c r="B928" s="2"/>
       <c r="C928" s="2"/>
@@ -25626,7 +25636,7 @@
       <c r="X928" s="2"/>
       <c r="Y928" s="2"/>
     </row>
-    <row r="929" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="929" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A929" s="2"/>
       <c r="B929" s="2"/>
       <c r="C929" s="2"/>
@@ -25653,7 +25663,7 @@
       <c r="X929" s="2"/>
       <c r="Y929" s="2"/>
     </row>
-    <row r="930" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="930" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A930" s="2"/>
       <c r="B930" s="2"/>
       <c r="C930" s="2"/>
@@ -25680,7 +25690,7 @@
       <c r="X930" s="2"/>
       <c r="Y930" s="2"/>
     </row>
-    <row r="931" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="931" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A931" s="2"/>
       <c r="B931" s="2"/>
       <c r="C931" s="2"/>
@@ -25707,7 +25717,7 @@
       <c r="X931" s="2"/>
       <c r="Y931" s="2"/>
     </row>
-    <row r="932" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="932" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A932" s="2"/>
       <c r="B932" s="2"/>
       <c r="C932" s="2"/>
@@ -25734,7 +25744,7 @@
       <c r="X932" s="2"/>
       <c r="Y932" s="2"/>
     </row>
-    <row r="933" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="933" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A933" s="2"/>
       <c r="B933" s="2"/>
       <c r="C933" s="2"/>
@@ -25761,7 +25771,7 @@
       <c r="X933" s="2"/>
       <c r="Y933" s="2"/>
     </row>
-    <row r="934" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="934" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A934" s="2"/>
       <c r="B934" s="2"/>
       <c r="C934" s="2"/>
@@ -25788,7 +25798,7 @@
       <c r="X934" s="2"/>
       <c r="Y934" s="2"/>
     </row>
-    <row r="935" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="935" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A935" s="2"/>
       <c r="B935" s="2"/>
       <c r="C935" s="2"/>
@@ -25815,7 +25825,7 @@
       <c r="X935" s="2"/>
       <c r="Y935" s="2"/>
     </row>
-    <row r="936" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="936" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A936" s="2"/>
       <c r="B936" s="2"/>
       <c r="C936" s="2"/>
@@ -25842,7 +25852,7 @@
       <c r="X936" s="2"/>
       <c r="Y936" s="2"/>
     </row>
-    <row r="937" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="937" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A937" s="2"/>
       <c r="B937" s="2"/>
       <c r="C937" s="2"/>
@@ -25869,7 +25879,7 @@
       <c r="X937" s="2"/>
       <c r="Y937" s="2"/>
     </row>
-    <row r="938" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="938" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A938" s="2"/>
       <c r="B938" s="2"/>
       <c r="C938" s="2"/>
@@ -25896,7 +25906,7 @@
       <c r="X938" s="2"/>
       <c r="Y938" s="2"/>
     </row>
-    <row r="939" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="939" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A939" s="2"/>
       <c r="B939" s="2"/>
       <c r="C939" s="2"/>
@@ -25923,7 +25933,7 @@
       <c r="X939" s="2"/>
       <c r="Y939" s="2"/>
     </row>
-    <row r="940" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="940" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A940" s="2"/>
       <c r="B940" s="2"/>
       <c r="C940" s="2"/>
@@ -25950,7 +25960,7 @@
       <c r="X940" s="2"/>
       <c r="Y940" s="2"/>
     </row>
-    <row r="941" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="941" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A941" s="2"/>
       <c r="B941" s="2"/>
       <c r="C941" s="2"/>
@@ -25977,7 +25987,7 @@
       <c r="X941" s="2"/>
       <c r="Y941" s="2"/>
     </row>
-    <row r="942" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="942" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A942" s="2"/>
       <c r="B942" s="2"/>
       <c r="C942" s="2"/>
@@ -26004,7 +26014,7 @@
       <c r="X942" s="2"/>
       <c r="Y942" s="2"/>
     </row>
-    <row r="943" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="943" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A943" s="2"/>
       <c r="B943" s="2"/>
       <c r="C943" s="2"/>
@@ -26031,7 +26041,7 @@
       <c r="X943" s="2"/>
       <c r="Y943" s="2"/>
     </row>
-    <row r="944" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="944" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A944" s="2"/>
       <c r="B944" s="2"/>
       <c r="C944" s="2"/>
@@ -26058,7 +26068,7 @@
       <c r="X944" s="2"/>
       <c r="Y944" s="2"/>
     </row>
-    <row r="945" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="945" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A945" s="2"/>
       <c r="B945" s="2"/>
       <c r="C945" s="2"/>
@@ -26085,7 +26095,7 @@
       <c r="X945" s="2"/>
       <c r="Y945" s="2"/>
     </row>
-    <row r="946" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="946" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A946" s="2"/>
       <c r="B946" s="2"/>
       <c r="C946" s="2"/>
@@ -26112,7 +26122,7 @@
       <c r="X946" s="2"/>
       <c r="Y946" s="2"/>
     </row>
-    <row r="947" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="947" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A947" s="2"/>
       <c r="B947" s="2"/>
       <c r="C947" s="2"/>
@@ -26139,7 +26149,7 @@
       <c r="X947" s="2"/>
       <c r="Y947" s="2"/>
     </row>
-    <row r="948" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="948" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A948" s="2"/>
       <c r="B948" s="2"/>
       <c r="C948" s="2"/>
@@ -26166,7 +26176,7 @@
       <c r="X948" s="2"/>
       <c r="Y948" s="2"/>
     </row>
-    <row r="949" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="949" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A949" s="2"/>
       <c r="B949" s="2"/>
       <c r="C949" s="2"/>
@@ -26193,7 +26203,7 @@
       <c r="X949" s="2"/>
       <c r="Y949" s="2"/>
     </row>
-    <row r="950" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="950" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A950" s="2"/>
       <c r="B950" s="2"/>
       <c r="C950" s="2"/>
@@ -26220,7 +26230,7 @@
       <c r="X950" s="2"/>
       <c r="Y950" s="2"/>
     </row>
-    <row r="951" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="951" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A951" s="2"/>
       <c r="B951" s="2"/>
       <c r="C951" s="2"/>
@@ -26247,7 +26257,7 @@
       <c r="X951" s="2"/>
       <c r="Y951" s="2"/>
     </row>
-    <row r="952" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="952" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A952" s="2"/>
       <c r="B952" s="2"/>
       <c r="C952" s="2"/>
@@ -26274,7 +26284,7 @@
       <c r="X952" s="2"/>
       <c r="Y952" s="2"/>
     </row>
-    <row r="953" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="953" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A953" s="2"/>
       <c r="B953" s="2"/>
       <c r="C953" s="2"/>
@@ -26301,7 +26311,7 @@
       <c r="X953" s="2"/>
       <c r="Y953" s="2"/>
     </row>
-    <row r="954" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="954" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A954" s="2"/>
       <c r="B954" s="2"/>
       <c r="C954" s="2"/>
@@ -26328,7 +26338,7 @@
       <c r="X954" s="2"/>
       <c r="Y954" s="2"/>
     </row>
-    <row r="955" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="955" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A955" s="2"/>
       <c r="B955" s="2"/>
       <c r="C955" s="2"/>
@@ -26355,7 +26365,7 @@
       <c r="X955" s="2"/>
       <c r="Y955" s="2"/>
     </row>
-    <row r="956" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="956" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A956" s="2"/>
       <c r="B956" s="2"/>
       <c r="C956" s="2"/>
@@ -26382,7 +26392,7 @@
       <c r="X956" s="2"/>
       <c r="Y956" s="2"/>
     </row>
-    <row r="957" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="957" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A957" s="2"/>
       <c r="B957" s="2"/>
       <c r="C957" s="2"/>
@@ -26409,7 +26419,7 @@
       <c r="X957" s="2"/>
       <c r="Y957" s="2"/>
     </row>
-    <row r="958" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="958" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A958" s="2"/>
       <c r="B958" s="2"/>
       <c r="C958" s="2"/>
@@ -26436,7 +26446,7 @@
       <c r="X958" s="2"/>
       <c r="Y958" s="2"/>
     </row>
-    <row r="959" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="959" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A959" s="2"/>
       <c r="B959" s="2"/>
       <c r="C959" s="2"/>
@@ -26463,7 +26473,7 @@
       <c r="X959" s="2"/>
       <c r="Y959" s="2"/>
     </row>
-    <row r="960" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="960" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A960" s="2"/>
       <c r="B960" s="2"/>
       <c r="C960" s="2"/>
@@ -26490,7 +26500,7 @@
       <c r="X960" s="2"/>
       <c r="Y960" s="2"/>
     </row>
-    <row r="961" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="961" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A961" s="2"/>
       <c r="B961" s="2"/>
       <c r="C961" s="2"/>
@@ -26517,7 +26527,7 @@
       <c r="X961" s="2"/>
       <c r="Y961" s="2"/>
     </row>
-    <row r="962" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="962" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A962" s="2"/>
       <c r="B962" s="2"/>
       <c r="C962" s="2"/>
@@ -26544,7 +26554,7 @@
       <c r="X962" s="2"/>
       <c r="Y962" s="2"/>
     </row>
-    <row r="963" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="963" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A963" s="2"/>
       <c r="B963" s="2"/>
       <c r="C963" s="2"/>
@@ -26571,7 +26581,7 @@
       <c r="X963" s="2"/>
       <c r="Y963" s="2"/>
     </row>
-    <row r="964" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="964" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A964" s="2"/>
       <c r="B964" s="2"/>
       <c r="C964" s="2"/>
@@ -26598,7 +26608,7 @@
       <c r="X964" s="2"/>
       <c r="Y964" s="2"/>
     </row>
-    <row r="965" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="965" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A965" s="2"/>
       <c r="B965" s="2"/>
       <c r="C965" s="2"/>
@@ -26625,7 +26635,7 @@
       <c r="X965" s="2"/>
       <c r="Y965" s="2"/>
     </row>
-    <row r="966" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="966" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A966" s="2"/>
       <c r="B966" s="2"/>
       <c r="C966" s="2"/>
@@ -26652,7 +26662,7 @@
       <c r="X966" s="2"/>
       <c r="Y966" s="2"/>
     </row>
-    <row r="967" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="967" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A967" s="2"/>
       <c r="B967" s="2"/>
       <c r="C967" s="2"/>
@@ -26679,7 +26689,7 @@
       <c r="X967" s="2"/>
       <c r="Y967" s="2"/>
     </row>
-    <row r="968" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="968" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A968" s="2"/>
       <c r="B968" s="2"/>
       <c r="C968" s="2"/>
@@ -26706,7 +26716,7 @@
       <c r="X968" s="2"/>
       <c r="Y968" s="2"/>
     </row>
-    <row r="969" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="969" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A969" s="2"/>
       <c r="B969" s="2"/>
       <c r="C969" s="2"/>
@@ -26733,7 +26743,7 @@
       <c r="X969" s="2"/>
       <c r="Y969" s="2"/>
     </row>
-    <row r="970" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="970" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A970" s="2"/>
       <c r="B970" s="2"/>
       <c r="C970" s="2"/>
@@ -26760,7 +26770,7 @@
       <c r="X970" s="2"/>
       <c r="Y970" s="2"/>
     </row>
-    <row r="971" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="971" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A971" s="2"/>
       <c r="B971" s="2"/>
       <c r="C971" s="2"/>
@@ -26787,7 +26797,7 @@
       <c r="X971" s="2"/>
       <c r="Y971" s="2"/>
     </row>
-    <row r="972" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="972" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A972" s="2"/>
       <c r="B972" s="2"/>
       <c r="C972" s="2"/>
@@ -26814,7 +26824,7 @@
       <c r="X972" s="2"/>
       <c r="Y972" s="2"/>
     </row>
-    <row r="973" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="973" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A973" s="2"/>
       <c r="B973" s="2"/>
       <c r="C973" s="2"/>
@@ -26841,7 +26851,7 @@
       <c r="X973" s="2"/>
       <c r="Y973" s="2"/>
     </row>
-    <row r="974" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="974" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A974" s="2"/>
       <c r="B974" s="2"/>
       <c r="C974" s="2"/>
@@ -26868,7 +26878,7 @@
       <c r="X974" s="2"/>
       <c r="Y974" s="2"/>
     </row>
-    <row r="975" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="975" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A975" s="2"/>
       <c r="B975" s="2"/>
       <c r="C975" s="2"/>
@@ -26895,7 +26905,7 @@
       <c r="X975" s="2"/>
       <c r="Y975" s="2"/>
     </row>
-    <row r="976" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="976" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A976" s="2"/>
       <c r="B976" s="2"/>
       <c r="C976" s="2"/>
@@ -26922,7 +26932,7 @@
       <c r="X976" s="2"/>
       <c r="Y976" s="2"/>
     </row>
-    <row r="977" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="977" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A977" s="2"/>
       <c r="B977" s="2"/>
       <c r="C977" s="2"/>
@@ -26949,7 +26959,7 @@
       <c r="X977" s="2"/>
       <c r="Y977" s="2"/>
     </row>
-    <row r="978" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="978" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A978" s="2"/>
       <c r="B978" s="2"/>
       <c r="C978" s="2"/>
@@ -26976,7 +26986,7 @@
       <c r="X978" s="2"/>
       <c r="Y978" s="2"/>
     </row>
-    <row r="979" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="979" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A979" s="2"/>
       <c r="B979" s="2"/>
       <c r="C979" s="2"/>
@@ -27003,7 +27013,7 @@
       <c r="X979" s="2"/>
       <c r="Y979" s="2"/>
     </row>
-    <row r="980" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="980" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A980" s="2"/>
       <c r="B980" s="2"/>
       <c r="C980" s="2"/>
@@ -27030,7 +27040,7 @@
       <c r="X980" s="2"/>
       <c r="Y980" s="2"/>
     </row>
-    <row r="981" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="981" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A981" s="2"/>
       <c r="B981" s="2"/>
       <c r="C981" s="2"/>
@@ -27057,7 +27067,7 @@
       <c r="X981" s="2"/>
       <c r="Y981" s="2"/>
     </row>
-    <row r="982" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="982" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A982" s="2"/>
       <c r="B982" s="2"/>
       <c r="C982" s="2"/>
@@ -27084,7 +27094,7 @@
       <c r="X982" s="2"/>
       <c r="Y982" s="2"/>
     </row>
-    <row r="983" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="983" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A983" s="2"/>
       <c r="B983" s="2"/>
       <c r="C983" s="2"/>
@@ -27111,7 +27121,7 @@
       <c r="X983" s="2"/>
       <c r="Y983" s="2"/>
     </row>
-    <row r="984" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="984" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A984" s="2"/>
       <c r="B984" s="2"/>
       <c r="C984" s="2"/>
@@ -27138,7 +27148,7 @@
       <c r="X984" s="2"/>
       <c r="Y984" s="2"/>
     </row>
-    <row r="985" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="985" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A985" s="2"/>
       <c r="B985" s="2"/>
       <c r="C985" s="2"/>
@@ -27165,7 +27175,7 @@
       <c r="X985" s="2"/>
       <c r="Y985" s="2"/>
     </row>
-    <row r="986" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="986" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A986" s="2"/>
       <c r="B986" s="2"/>
       <c r="C986" s="2"/>
@@ -27192,7 +27202,7 @@
       <c r="X986" s="2"/>
       <c r="Y986" s="2"/>
     </row>
-    <row r="987" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="987" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A987" s="2"/>
       <c r="B987" s="2"/>
       <c r="C987" s="2"/>
@@ -27219,7 +27229,7 @@
       <c r="X987" s="2"/>
       <c r="Y987" s="2"/>
     </row>
-    <row r="988" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="988" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A988" s="2"/>
       <c r="B988" s="2"/>
       <c r="C988" s="2"/>
@@ -27246,7 +27256,7 @@
       <c r="X988" s="2"/>
       <c r="Y988" s="2"/>
     </row>
-    <row r="989" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="989" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A989" s="2"/>
       <c r="B989" s="2"/>
       <c r="C989" s="2"/>
@@ -27273,7 +27283,7 @@
       <c r="X989" s="2"/>
       <c r="Y989" s="2"/>
     </row>
-    <row r="990" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="990" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A990" s="2"/>
       <c r="B990" s="2"/>
       <c r="C990" s="2"/>
@@ -27300,7 +27310,7 @@
       <c r="X990" s="2"/>
       <c r="Y990" s="2"/>
     </row>
-    <row r="991" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="991" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A991" s="2"/>
       <c r="B991" s="2"/>
       <c r="C991" s="2"/>
@@ -27327,7 +27337,7 @@
       <c r="X991" s="2"/>
       <c r="Y991" s="2"/>
     </row>
-    <row r="992" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="992" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A992" s="2"/>
       <c r="B992" s="2"/>
       <c r="C992" s="2"/>

--- a/misc/epiparms.xlsx
+++ b/misc/epiparms.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ashok Krishnamurthy\Desktop\spatialEpisim\misc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9F7C841-F0CC-4AFE-967E-DA949B52AEF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01BA69C7-645D-4A9C-AF18-2D480A641434}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -502,7 +502,9 @@
   </sheetPr>
   <dimension ref="A1:Y992"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -642,7 +644,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="10">
-        <v>5.0000000000000001E-4</v>
+        <v>1E-3</v>
       </c>
       <c r="E3" s="9">
         <v>8.0000000000000002E-3</v>

--- a/misc/epiparms.xlsx
+++ b/misc/epiparms.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ashok Krishnamurthy\Desktop\spatialEpisim\misc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01BA69C7-645D-4A9C-AF18-2D480A641434}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA4238A4-CED7-41C3-BB3C-EF248019A8FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -229,7 +229,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -280,6 +280,21 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="15" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -503,7 +518,7 @@
   <dimension ref="A1:Y992"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -585,10 +600,10 @@
       <c r="B2" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="14">
+      <c r="C2" s="18">
         <v>0</v>
       </c>
-      <c r="D2" s="15">
+      <c r="D2" s="21">
         <v>0.04</v>
       </c>
       <c r="E2" s="14">
@@ -597,7 +612,7 @@
       <c r="F2" s="14">
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="G2" s="14">
+      <c r="G2" s="18">
         <v>1.5E-3</v>
       </c>
       <c r="H2" s="15">
@@ -640,10 +655,10 @@
       <c r="B3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="19">
         <v>0</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="22">
         <v>1E-3</v>
       </c>
       <c r="E3" s="9">
@@ -652,7 +667,7 @@
       <c r="F3" s="9">
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="G3" s="10">
+      <c r="G3" s="20">
         <v>1E-3</v>
       </c>
       <c r="H3" s="10">
@@ -695,11 +710,11 @@
       <c r="B4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="20">
         <v>1.5E-3</v>
       </c>
-      <c r="D4" s="10">
-        <v>2.5000000000000001E-2</v>
+      <c r="D4" s="22">
+        <v>0.03</v>
       </c>
       <c r="E4" s="9">
         <v>8.0000000000000002E-3</v>
@@ -707,7 +722,7 @@
       <c r="F4" s="9">
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="19">
         <v>1.5E-3</v>
       </c>
       <c r="H4" s="10">
@@ -750,10 +765,10 @@
       <c r="B5" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="20">
         <v>1E-4</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="22">
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="E5" s="9">
@@ -762,7 +777,7 @@
       <c r="F5" s="9">
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="G5" s="10">
+      <c r="G5" s="20">
         <v>1E-3</v>
       </c>
       <c r="H5" s="10">

--- a/misc/epiparms.xlsx
+++ b/misc/epiparms.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ashok Krishnamurthy\Desktop\spatialEpisim\misc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA4238A4-CED7-41C3-BB3C-EF248019A8FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{400ED2D0-D781-4830-A8A8-970617E9EF1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -106,9 +106,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.00000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -229,7 +230,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -291,10 +292,19 @@
     <xf numFmtId="165" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -518,18 +528,17 @@
   <dimension ref="A1:Y992"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="7.77734375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.5546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.5546875" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15.5546875" bestFit="1" customWidth="1"/>
@@ -603,17 +612,17 @@
       <c r="C2" s="18">
         <v>0</v>
       </c>
-      <c r="D2" s="21">
-        <v>0.04</v>
+      <c r="D2" s="25">
+        <v>0.08</v>
       </c>
-      <c r="E2" s="14">
+      <c r="E2" s="21">
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="F2" s="14">
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="G2" s="18">
-        <v>1.5E-3</v>
+      <c r="G2" s="24">
+        <v>2E-3</v>
       </c>
       <c r="H2" s="15">
         <v>15</v>
@@ -658,16 +667,16 @@
       <c r="C3" s="19">
         <v>0</v>
       </c>
-      <c r="D3" s="22">
+      <c r="D3" s="20">
         <v>1E-3</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="23">
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="F3" s="9">
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="G3" s="20">
+      <c r="G3" s="22">
         <v>1E-3</v>
       </c>
       <c r="H3" s="10">
@@ -713,17 +722,17 @@
       <c r="C4" s="20">
         <v>1.5E-3</v>
       </c>
-      <c r="D4" s="22">
-        <v>0.03</v>
+      <c r="D4" s="20">
+        <v>0.05</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="23">
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="F4" s="9">
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="G4" s="19">
-        <v>1.5E-3</v>
+      <c r="G4" s="22">
+        <v>2E-3</v>
       </c>
       <c r="H4" s="10">
         <v>15</v>
@@ -768,16 +777,16 @@
       <c r="C5" s="20">
         <v>1E-4</v>
       </c>
-      <c r="D5" s="22">
-        <v>1.0000000000000001E-5</v>
+      <c r="D5" s="20">
+        <v>1E-4</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="23">
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="F5" s="9">
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="G5" s="20">
+      <c r="G5" s="22">
         <v>1E-3</v>
       </c>
       <c r="H5" s="10">

--- a/misc/epiparms.xlsx
+++ b/misc/epiparms.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ashok Krishnamurthy\Desktop\spatialEpisim\misc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{400ED2D0-D781-4830-A8A8-970617E9EF1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{333CE29F-6303-4F9C-AB79-D47C496C5B92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -528,7 +528,7 @@
   <dimension ref="A1:Y992"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -668,7 +668,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="20">
-        <v>1E-3</v>
+        <v>1E-4</v>
       </c>
       <c r="E3" s="23">
         <v>8.0000000000000002E-3</v>

--- a/misc/epiparms.xlsx
+++ b/misc/epiparms.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ashok Krishnamurthy\Desktop\spatialEpisim\misc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{333CE29F-6303-4F9C-AB79-D47C496C5B92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FCDCDD7-904B-4A6C-A26A-DE9271A1AB0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -528,7 +528,7 @@
   <dimension ref="A1:Y992"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -613,7 +613,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="25">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="E2" s="21">
         <v>8.0000000000000002E-3</v>

--- a/misc/epiparms.xlsx
+++ b/misc/epiparms.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ashok Krishnamurthy\Desktop\spatialEpisim\misc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FCDCDD7-904B-4A6C-A26A-DE9271A1AB0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{076737B8-45B0-4CBD-90CC-367500A5EC7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -613,7 +613,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="25">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="E2" s="21">
         <v>8.0000000000000002E-3</v>

--- a/misc/epiparms.xlsx
+++ b/misc/epiparms.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ashok Krishnamurthy\Desktop\spatialEpisim\misc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\twhit957\Desktop\spatialEpisim\misc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{076737B8-45B0-4CBD-90CC-367500A5EC7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28E302A2-C2DA-4DE6-BA03-A1C458437D66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="epiparms" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="27">
   <si>
     <t>ISONumeric</t>
   </si>
@@ -101,6 +101,18 @@
   <si>
     <t>model</t>
   </si>
+  <si>
+    <t>UGA</t>
+  </si>
+  <si>
+    <t>COD</t>
+  </si>
+  <si>
+    <t>WHO Sit. Reports</t>
+  </si>
+  <si>
+    <t>Ebola</t>
+  </si>
 </sst>
 </file>
 
@@ -111,7 +123,7 @@
     <numFmt numFmtId="165" formatCode="0.0000"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -143,6 +155,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -158,7 +176,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -226,11 +244,74 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -283,12 +364,6 @@
     <xf numFmtId="15" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="165" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -305,6 +380,25 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="15" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -525,29 +619,31 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Y992"/>
+  <dimension ref="A1:Y996"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="7.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -602,45 +698,45 @@
       <c r="X1" s="1"/>
       <c r="Y1" s="1"/>
     </row>
-    <row r="2" spans="1:25" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" s="25" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="B2" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="18">
+      <c r="C2" s="23">
         <v>0</v>
       </c>
-      <c r="D2" s="25">
-        <v>0.03</v>
+      <c r="D2" s="15">
+        <v>5.4999999999999997E-3</v>
       </c>
-      <c r="E2" s="21">
-        <v>8.0000000000000002E-3</v>
+      <c r="E2" s="14">
+        <v>5.4999999999999997E-3</v>
       </c>
       <c r="F2" s="14">
-        <v>6.5000000000000002E-2</v>
+        <v>0.01</v>
       </c>
-      <c r="G2" s="24">
-        <v>2E-3</v>
+      <c r="G2" s="15">
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="H2" s="15">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I2" s="16">
-        <v>44075</v>
+        <v>43313</v>
       </c>
       <c r="J2" s="17">
-        <v>44195</v>
+        <v>43753</v>
       </c>
       <c r="K2" s="14">
-        <v>120</v>
+        <v>440</v>
       </c>
       <c r="L2" s="14" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="M2" s="14" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="N2" s="14" t="s">
         <v>11</v>
@@ -657,47 +753,47 @@
       <c r="X2" s="2"/>
       <c r="Y2" s="2"/>
     </row>
-    <row r="3" spans="1:25" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
-        <v>12</v>
+    <row r="3" spans="1:25" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>7</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="19">
+      <c r="C3" s="23">
         <v>0</v>
       </c>
-      <c r="D3" s="20">
-        <v>1E-4</v>
+      <c r="D3" s="23">
+        <v>0.03</v>
       </c>
-      <c r="E3" s="23">
+      <c r="E3" s="19">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="14">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="G3" s="22">
-        <v>1E-3</v>
+        <v>2E-3</v>
       </c>
-      <c r="H3" s="10">
-        <v>25</v>
+      <c r="H3" s="15">
+        <v>15</v>
       </c>
-      <c r="I3" s="11">
+      <c r="I3" s="16">
         <v>44075</v>
       </c>
-      <c r="J3" s="12">
+      <c r="J3" s="17">
         <v>44195</v>
       </c>
-      <c r="K3" s="9">
+      <c r="K3" s="14">
         <v>120</v>
       </c>
-      <c r="L3" s="9" t="s">
-        <v>13</v>
+      <c r="L3" s="14" t="s">
+        <v>9</v>
       </c>
-      <c r="M3" s="9" t="s">
+      <c r="M3" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="9" t="s">
+      <c r="N3" s="14" t="s">
         <v>11</v>
       </c>
       <c r="O3" s="2"/>
@@ -712,48 +808,48 @@
       <c r="X3" s="2"/>
       <c r="Y3" s="2"/>
     </row>
-    <row r="4" spans="1:25" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
-      <c r="C4" s="20">
-        <v>1.5E-3</v>
+      <c r="C4" s="18">
+        <v>0</v>
       </c>
-      <c r="D4" s="20">
-        <v>0.05</v>
+      <c r="D4" s="18">
+        <v>1E-4</v>
       </c>
-      <c r="E4" s="23">
+      <c r="E4" s="21">
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="F4" s="9">
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="G4" s="22">
-        <v>2E-3</v>
+      <c r="G4" s="20">
+        <v>1E-3</v>
       </c>
       <c r="H4" s="10">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="I4" s="11">
-        <v>44440</v>
+        <v>44075</v>
       </c>
       <c r="J4" s="12">
-        <v>44560</v>
+        <v>44195</v>
       </c>
-      <c r="K4" s="9">
+      <c r="K4" s="27">
         <v>120</v>
       </c>
-      <c r="L4" s="9" t="s">
-        <v>9</v>
+      <c r="L4" s="27" t="s">
+        <v>13</v>
       </c>
-      <c r="M4" s="9" t="s">
+      <c r="M4" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="N4" s="9" t="s">
-        <v>15</v>
+      <c r="N4" s="27" t="s">
+        <v>11</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
@@ -767,48 +863,48 @@
       <c r="X4" s="2"/>
       <c r="Y4" s="2"/>
     </row>
-    <row r="5" spans="1:25" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
-        <v>12</v>
+    <row r="5" spans="1:25" s="25" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
+        <v>23</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>14</v>
+      <c r="B5" s="14" t="s">
+        <v>8</v>
       </c>
-      <c r="C5" s="20">
-        <v>1E-4</v>
+      <c r="C5" s="23">
+        <v>0</v>
       </c>
-      <c r="D5" s="20">
-        <v>1E-4</v>
+      <c r="D5" s="15">
+        <v>5.4999999999999997E-3</v>
       </c>
-      <c r="E5" s="23">
-        <v>8.0000000000000002E-3</v>
+      <c r="E5" s="14">
+        <v>5.4999999999999997E-3</v>
       </c>
-      <c r="F5" s="9">
-        <v>6.5000000000000002E-2</v>
+      <c r="F5" s="14">
+        <v>0.01</v>
       </c>
-      <c r="G5" s="22">
-        <v>1E-3</v>
+      <c r="G5" s="15">
+        <v>2.1000000000000001E-2</v>
       </c>
-      <c r="H5" s="10">
+      <c r="H5" s="15">
+        <v>5</v>
+      </c>
+      <c r="I5" s="16">
+        <v>44854</v>
+      </c>
+      <c r="J5" s="26">
+        <v>44936</v>
+      </c>
+      <c r="K5" s="28">
+        <v>63</v>
+      </c>
+      <c r="L5" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="I5" s="11">
-        <v>44440</v>
+      <c r="M5" s="28" t="s">
+        <v>26</v>
       </c>
-      <c r="J5" s="12">
-        <v>44560</v>
-      </c>
-      <c r="K5" s="9">
-        <v>120</v>
-      </c>
-      <c r="L5" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="M5" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="N5" s="9" t="s">
-        <v>15</v>
+      <c r="N5" s="28" t="s">
+        <v>11</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
@@ -822,21 +918,214 @@
       <c r="X5" s="2"/>
       <c r="Y5" s="2"/>
     </row>
-    <row r="9" spans="1:25" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
+    <row r="6" spans="1:25" s="25" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="23">
+        <v>0.21</v>
+      </c>
+      <c r="D6" s="15">
+        <v>5.4999999999999997E-3</v>
+      </c>
+      <c r="E6" s="14">
+        <v>5.4999999999999997E-3</v>
+      </c>
+      <c r="F6" s="14">
+        <v>0.01</v>
+      </c>
+      <c r="G6" s="15">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="H6" s="15">
+        <v>20</v>
+      </c>
+      <c r="I6" s="16">
+        <v>43313</v>
+      </c>
+      <c r="J6" s="17">
+        <v>43753</v>
+      </c>
+      <c r="K6" s="14">
+        <v>440</v>
+      </c>
+      <c r="L6" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="M6" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="N6" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
+      <c r="X6" s="2"/>
+      <c r="Y6" s="2"/>
+    </row>
+    <row r="7" spans="1:25" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="18">
+        <v>1.5E-3</v>
+      </c>
+      <c r="D7" s="18">
+        <v>0.05</v>
+      </c>
+      <c r="E7" s="21">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="F7" s="9">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="G7" s="20">
+        <v>2E-3</v>
+      </c>
+      <c r="H7" s="10">
+        <v>15</v>
+      </c>
+      <c r="I7" s="11">
+        <v>44440</v>
+      </c>
+      <c r="J7" s="12">
+        <v>44560</v>
+      </c>
+      <c r="K7" s="24">
+        <v>120</v>
+      </c>
+      <c r="L7" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="M7" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="N7" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2"/>
+      <c r="X7" s="2"/>
+      <c r="Y7" s="2"/>
+    </row>
+    <row r="8" spans="1:25" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="18">
+        <v>1E-4</v>
+      </c>
+      <c r="D8" s="18">
+        <v>1E-4</v>
+      </c>
+      <c r="E8" s="21">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="F8" s="9">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="G8" s="20">
+        <v>1E-3</v>
+      </c>
+      <c r="H8" s="10">
+        <v>25</v>
+      </c>
+      <c r="I8" s="11">
+        <v>44440</v>
+      </c>
+      <c r="J8" s="12">
+        <v>44560</v>
+      </c>
+      <c r="K8" s="9">
+        <v>120</v>
+      </c>
+      <c r="L8" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="M8" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="N8" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="2"/>
+      <c r="X8" s="2"/>
+      <c r="Y8" s="2"/>
+    </row>
+    <row r="9" spans="1:25" s="25" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="23">
+        <v>0.21</v>
+      </c>
+      <c r="D9" s="15">
+        <v>5.4999999999999997E-3</v>
+      </c>
+      <c r="E9" s="14">
+        <v>5.4999999999999997E-3</v>
+      </c>
+      <c r="F9" s="14">
+        <v>0.01</v>
+      </c>
+      <c r="G9" s="15">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="H9" s="15">
+        <v>5</v>
+      </c>
+      <c r="I9" s="16">
+        <v>44854</v>
+      </c>
+      <c r="J9" s="26">
+        <v>44936</v>
+      </c>
+      <c r="K9" s="28">
+        <v>63</v>
+      </c>
+      <c r="L9" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="M9" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="N9" s="28" t="s">
+        <v>15</v>
+      </c>
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
@@ -849,88 +1138,11 @@
       <c r="X9" s="2"/>
       <c r="Y9" s="2"/>
     </row>
-    <row r="10" spans="1:25" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="2"/>
-      <c r="S10" s="2"/>
-      <c r="T10" s="2"/>
-      <c r="U10" s="2"/>
-      <c r="V10" s="2"/>
-      <c r="W10" s="2"/>
-      <c r="X10" s="2"/>
-      <c r="Y10" s="2"/>
-    </row>
-    <row r="11" spans="1:25" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="2"/>
-      <c r="S11" s="2"/>
-      <c r="T11" s="2"/>
-      <c r="U11" s="2"/>
-      <c r="V11" s="2"/>
-      <c r="W11" s="2"/>
-      <c r="X11" s="2"/>
-      <c r="Y11" s="2"/>
-    </row>
-    <row r="12" spans="1:25" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="2"/>
-      <c r="S12" s="2"/>
-      <c r="T12" s="2"/>
-      <c r="U12" s="2"/>
-      <c r="V12" s="2"/>
-      <c r="W12" s="2"/>
-      <c r="X12" s="2"/>
-      <c r="Y12" s="2"/>
-    </row>
-    <row r="13" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="29"/>
+      <c r="B11" s="30"/>
+    </row>
+    <row r="13" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -957,7 +1169,7 @@
       <c r="X13" s="2"/>
       <c r="Y13" s="2"/>
     </row>
-    <row r="14" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -984,7 +1196,7 @@
       <c r="X14" s="2"/>
       <c r="Y14" s="2"/>
     </row>
-    <row r="15" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -1011,7 +1223,7 @@
       <c r="X15" s="2"/>
       <c r="Y15" s="2"/>
     </row>
-    <row r="16" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -1038,7 +1250,7 @@
       <c r="X16" s="2"/>
       <c r="Y16" s="2"/>
     </row>
-    <row r="17" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -1065,7 +1277,7 @@
       <c r="X17" s="2"/>
       <c r="Y17" s="2"/>
     </row>
-    <row r="18" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -1092,7 +1304,7 @@
       <c r="X18" s="2"/>
       <c r="Y18" s="2"/>
     </row>
-    <row r="19" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -1119,7 +1331,7 @@
       <c r="X19" s="2"/>
       <c r="Y19" s="2"/>
     </row>
-    <row r="20" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -1146,7 +1358,7 @@
       <c r="X20" s="2"/>
       <c r="Y20" s="2"/>
     </row>
-    <row r="21" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -1173,7 +1385,7 @@
       <c r="X21" s="2"/>
       <c r="Y21" s="2"/>
     </row>
-    <row r="22" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -1200,7 +1412,7 @@
       <c r="X22" s="2"/>
       <c r="Y22" s="2"/>
     </row>
-    <row r="23" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -1227,7 +1439,7 @@
       <c r="X23" s="2"/>
       <c r="Y23" s="2"/>
     </row>
-    <row r="24" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -1254,7 +1466,7 @@
       <c r="X24" s="2"/>
       <c r="Y24" s="2"/>
     </row>
-    <row r="25" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -1281,7 +1493,7 @@
       <c r="X25" s="2"/>
       <c r="Y25" s="2"/>
     </row>
-    <row r="26" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -1308,7 +1520,7 @@
       <c r="X26" s="2"/>
       <c r="Y26" s="2"/>
     </row>
-    <row r="27" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -1335,7 +1547,7 @@
       <c r="X27" s="2"/>
       <c r="Y27" s="2"/>
     </row>
-    <row r="28" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -1362,7 +1574,7 @@
       <c r="X28" s="2"/>
       <c r="Y28" s="2"/>
     </row>
-    <row r="29" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -1389,7 +1601,7 @@
       <c r="X29" s="2"/>
       <c r="Y29" s="2"/>
     </row>
-    <row r="30" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -1416,7 +1628,7 @@
       <c r="X30" s="2"/>
       <c r="Y30" s="2"/>
     </row>
-    <row r="31" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -1443,7 +1655,7 @@
       <c r="X31" s="2"/>
       <c r="Y31" s="2"/>
     </row>
-    <row r="32" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -1470,7 +1682,7 @@
       <c r="X32" s="2"/>
       <c r="Y32" s="2"/>
     </row>
-    <row r="33" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -1497,7 +1709,7 @@
       <c r="X33" s="2"/>
       <c r="Y33" s="2"/>
     </row>
-    <row r="34" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -1524,7 +1736,7 @@
       <c r="X34" s="2"/>
       <c r="Y34" s="2"/>
     </row>
-    <row r="35" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -1551,7 +1763,7 @@
       <c r="X35" s="2"/>
       <c r="Y35" s="2"/>
     </row>
-    <row r="36" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -1578,7 +1790,7 @@
       <c r="X36" s="2"/>
       <c r="Y36" s="2"/>
     </row>
-    <row r="37" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -1605,7 +1817,7 @@
       <c r="X37" s="2"/>
       <c r="Y37" s="2"/>
     </row>
-    <row r="38" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -1632,7 +1844,7 @@
       <c r="X38" s="2"/>
       <c r="Y38" s="2"/>
     </row>
-    <row r="39" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -1659,7 +1871,7 @@
       <c r="X39" s="2"/>
       <c r="Y39" s="2"/>
     </row>
-    <row r="40" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -1686,7 +1898,7 @@
       <c r="X40" s="2"/>
       <c r="Y40" s="2"/>
     </row>
-    <row r="41" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -1713,7 +1925,7 @@
       <c r="X41" s="2"/>
       <c r="Y41" s="2"/>
     </row>
-    <row r="42" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -1740,7 +1952,7 @@
       <c r="X42" s="2"/>
       <c r="Y42" s="2"/>
     </row>
-    <row r="43" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -1767,7 +1979,7 @@
       <c r="X43" s="2"/>
       <c r="Y43" s="2"/>
     </row>
-    <row r="44" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -1794,7 +2006,7 @@
       <c r="X44" s="2"/>
       <c r="Y44" s="2"/>
     </row>
-    <row r="45" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -1821,7 +2033,7 @@
       <c r="X45" s="2"/>
       <c r="Y45" s="2"/>
     </row>
-    <row r="46" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -1848,7 +2060,7 @@
       <c r="X46" s="2"/>
       <c r="Y46" s="2"/>
     </row>
-    <row r="47" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -1875,7 +2087,7 @@
       <c r="X47" s="2"/>
       <c r="Y47" s="2"/>
     </row>
-    <row r="48" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -1902,7 +2114,7 @@
       <c r="X48" s="2"/>
       <c r="Y48" s="2"/>
     </row>
-    <row r="49" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -1929,7 +2141,7 @@
       <c r="X49" s="2"/>
       <c r="Y49" s="2"/>
     </row>
-    <row r="50" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -1956,7 +2168,7 @@
       <c r="X50" s="2"/>
       <c r="Y50" s="2"/>
     </row>
-    <row r="51" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -1983,7 +2195,7 @@
       <c r="X51" s="2"/>
       <c r="Y51" s="2"/>
     </row>
-    <row r="52" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -2010,7 +2222,7 @@
       <c r="X52" s="2"/>
       <c r="Y52" s="2"/>
     </row>
-    <row r="53" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -2037,7 +2249,7 @@
       <c r="X53" s="2"/>
       <c r="Y53" s="2"/>
     </row>
-    <row r="54" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -2064,7 +2276,7 @@
       <c r="X54" s="2"/>
       <c r="Y54" s="2"/>
     </row>
-    <row r="55" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -2091,7 +2303,7 @@
       <c r="X55" s="2"/>
       <c r="Y55" s="2"/>
     </row>
-    <row r="56" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -2118,7 +2330,7 @@
       <c r="X56" s="2"/>
       <c r="Y56" s="2"/>
     </row>
-    <row r="57" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -2145,7 +2357,7 @@
       <c r="X57" s="2"/>
       <c r="Y57" s="2"/>
     </row>
-    <row r="58" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -2172,7 +2384,7 @@
       <c r="X58" s="2"/>
       <c r="Y58" s="2"/>
     </row>
-    <row r="59" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -2199,7 +2411,7 @@
       <c r="X59" s="2"/>
       <c r="Y59" s="2"/>
     </row>
-    <row r="60" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -2226,7 +2438,7 @@
       <c r="X60" s="2"/>
       <c r="Y60" s="2"/>
     </row>
-    <row r="61" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -2253,7 +2465,7 @@
       <c r="X61" s="2"/>
       <c r="Y61" s="2"/>
     </row>
-    <row r="62" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -2280,7 +2492,7 @@
       <c r="X62" s="2"/>
       <c r="Y62" s="2"/>
     </row>
-    <row r="63" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -2307,7 +2519,7 @@
       <c r="X63" s="2"/>
       <c r="Y63" s="2"/>
     </row>
-    <row r="64" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -2334,7 +2546,7 @@
       <c r="X64" s="2"/>
       <c r="Y64" s="2"/>
     </row>
-    <row r="65" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -2361,7 +2573,7 @@
       <c r="X65" s="2"/>
       <c r="Y65" s="2"/>
     </row>
-    <row r="66" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -2388,7 +2600,7 @@
       <c r="X66" s="2"/>
       <c r="Y66" s="2"/>
     </row>
-    <row r="67" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -2415,7 +2627,7 @@
       <c r="X67" s="2"/>
       <c r="Y67" s="2"/>
     </row>
-    <row r="68" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -2442,7 +2654,7 @@
       <c r="X68" s="2"/>
       <c r="Y68" s="2"/>
     </row>
-    <row r="69" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -2469,7 +2681,7 @@
       <c r="X69" s="2"/>
       <c r="Y69" s="2"/>
     </row>
-    <row r="70" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -2496,7 +2708,7 @@
       <c r="X70" s="2"/>
       <c r="Y70" s="2"/>
     </row>
-    <row r="71" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -2523,7 +2735,7 @@
       <c r="X71" s="2"/>
       <c r="Y71" s="2"/>
     </row>
-    <row r="72" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -2550,7 +2762,7 @@
       <c r="X72" s="2"/>
       <c r="Y72" s="2"/>
     </row>
-    <row r="73" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -2577,7 +2789,7 @@
       <c r="X73" s="2"/>
       <c r="Y73" s="2"/>
     </row>
-    <row r="74" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -2604,7 +2816,7 @@
       <c r="X74" s="2"/>
       <c r="Y74" s="2"/>
     </row>
-    <row r="75" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -2631,7 +2843,7 @@
       <c r="X75" s="2"/>
       <c r="Y75" s="2"/>
     </row>
-    <row r="76" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -2658,7 +2870,7 @@
       <c r="X76" s="2"/>
       <c r="Y76" s="2"/>
     </row>
-    <row r="77" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -2685,7 +2897,7 @@
       <c r="X77" s="2"/>
       <c r="Y77" s="2"/>
     </row>
-    <row r="78" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -2712,7 +2924,7 @@
       <c r="X78" s="2"/>
       <c r="Y78" s="2"/>
     </row>
-    <row r="79" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -2739,7 +2951,7 @@
       <c r="X79" s="2"/>
       <c r="Y79" s="2"/>
     </row>
-    <row r="80" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -2766,7 +2978,7 @@
       <c r="X80" s="2"/>
       <c r="Y80" s="2"/>
     </row>
-    <row r="81" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -2793,7 +3005,7 @@
       <c r="X81" s="2"/>
       <c r="Y81" s="2"/>
     </row>
-    <row r="82" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -2820,7 +3032,7 @@
       <c r="X82" s="2"/>
       <c r="Y82" s="2"/>
     </row>
-    <row r="83" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -2847,7 +3059,7 @@
       <c r="X83" s="2"/>
       <c r="Y83" s="2"/>
     </row>
-    <row r="84" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -2874,7 +3086,7 @@
       <c r="X84" s="2"/>
       <c r="Y84" s="2"/>
     </row>
-    <row r="85" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -2901,7 +3113,7 @@
       <c r="X85" s="2"/>
       <c r="Y85" s="2"/>
     </row>
-    <row r="86" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -2928,7 +3140,7 @@
       <c r="X86" s="2"/>
       <c r="Y86" s="2"/>
     </row>
-    <row r="87" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -2955,7 +3167,7 @@
       <c r="X87" s="2"/>
       <c r="Y87" s="2"/>
     </row>
-    <row r="88" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -2982,7 +3194,7 @@
       <c r="X88" s="2"/>
       <c r="Y88" s="2"/>
     </row>
-    <row r="89" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -3009,7 +3221,7 @@
       <c r="X89" s="2"/>
       <c r="Y89" s="2"/>
     </row>
-    <row r="90" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -3036,7 +3248,7 @@
       <c r="X90" s="2"/>
       <c r="Y90" s="2"/>
     </row>
-    <row r="91" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -3063,7 +3275,7 @@
       <c r="X91" s="2"/>
       <c r="Y91" s="2"/>
     </row>
-    <row r="92" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -3090,7 +3302,7 @@
       <c r="X92" s="2"/>
       <c r="Y92" s="2"/>
     </row>
-    <row r="93" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -3117,7 +3329,7 @@
       <c r="X93" s="2"/>
       <c r="Y93" s="2"/>
     </row>
-    <row r="94" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -3144,7 +3356,7 @@
       <c r="X94" s="2"/>
       <c r="Y94" s="2"/>
     </row>
-    <row r="95" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -3171,7 +3383,7 @@
       <c r="X95" s="2"/>
       <c r="Y95" s="2"/>
     </row>
-    <row r="96" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -3198,7 +3410,7 @@
       <c r="X96" s="2"/>
       <c r="Y96" s="2"/>
     </row>
-    <row r="97" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -3225,7 +3437,7 @@
       <c r="X97" s="2"/>
       <c r="Y97" s="2"/>
     </row>
-    <row r="98" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -3252,7 +3464,7 @@
       <c r="X98" s="2"/>
       <c r="Y98" s="2"/>
     </row>
-    <row r="99" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -3279,7 +3491,7 @@
       <c r="X99" s="2"/>
       <c r="Y99" s="2"/>
     </row>
-    <row r="100" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -3306,7 +3518,7 @@
       <c r="X100" s="2"/>
       <c r="Y100" s="2"/>
     </row>
-    <row r="101" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -3333,7 +3545,7 @@
       <c r="X101" s="2"/>
       <c r="Y101" s="2"/>
     </row>
-    <row r="102" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -3360,7 +3572,7 @@
       <c r="X102" s="2"/>
       <c r="Y102" s="2"/>
     </row>
-    <row r="103" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -3387,7 +3599,7 @@
       <c r="X103" s="2"/>
       <c r="Y103" s="2"/>
     </row>
-    <row r="104" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -3414,7 +3626,7 @@
       <c r="X104" s="2"/>
       <c r="Y104" s="2"/>
     </row>
-    <row r="105" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -3441,7 +3653,7 @@
       <c r="X105" s="2"/>
       <c r="Y105" s="2"/>
     </row>
-    <row r="106" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -3468,7 +3680,7 @@
       <c r="X106" s="2"/>
       <c r="Y106" s="2"/>
     </row>
-    <row r="107" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -3495,7 +3707,7 @@
       <c r="X107" s="2"/>
       <c r="Y107" s="2"/>
     </row>
-    <row r="108" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -3522,7 +3734,7 @@
       <c r="X108" s="2"/>
       <c r="Y108" s="2"/>
     </row>
-    <row r="109" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -3549,7 +3761,7 @@
       <c r="X109" s="2"/>
       <c r="Y109" s="2"/>
     </row>
-    <row r="110" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -3576,7 +3788,7 @@
       <c r="X110" s="2"/>
       <c r="Y110" s="2"/>
     </row>
-    <row r="111" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -3603,7 +3815,7 @@
       <c r="X111" s="2"/>
       <c r="Y111" s="2"/>
     </row>
-    <row r="112" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -3630,7 +3842,7 @@
       <c r="X112" s="2"/>
       <c r="Y112" s="2"/>
     </row>
-    <row r="113" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -3657,7 +3869,7 @@
       <c r="X113" s="2"/>
       <c r="Y113" s="2"/>
     </row>
-    <row r="114" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -3684,7 +3896,7 @@
       <c r="X114" s="2"/>
       <c r="Y114" s="2"/>
     </row>
-    <row r="115" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -3711,7 +3923,7 @@
       <c r="X115" s="2"/>
       <c r="Y115" s="2"/>
     </row>
-    <row r="116" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -3738,7 +3950,7 @@
       <c r="X116" s="2"/>
       <c r="Y116" s="2"/>
     </row>
-    <row r="117" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
@@ -3765,7 +3977,7 @@
       <c r="X117" s="2"/>
       <c r="Y117" s="2"/>
     </row>
-    <row r="118" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -3792,7 +4004,7 @@
       <c r="X118" s="2"/>
       <c r="Y118" s="2"/>
     </row>
-    <row r="119" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -3819,7 +4031,7 @@
       <c r="X119" s="2"/>
       <c r="Y119" s="2"/>
     </row>
-    <row r="120" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -3846,7 +4058,7 @@
       <c r="X120" s="2"/>
       <c r="Y120" s="2"/>
     </row>
-    <row r="121" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -3873,7 +4085,7 @@
       <c r="X121" s="2"/>
       <c r="Y121" s="2"/>
     </row>
-    <row r="122" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -3900,7 +4112,7 @@
       <c r="X122" s="2"/>
       <c r="Y122" s="2"/>
     </row>
-    <row r="123" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -3927,7 +4139,7 @@
       <c r="X123" s="2"/>
       <c r="Y123" s="2"/>
     </row>
-    <row r="124" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -3954,7 +4166,7 @@
       <c r="X124" s="2"/>
       <c r="Y124" s="2"/>
     </row>
-    <row r="125" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -3981,7 +4193,7 @@
       <c r="X125" s="2"/>
       <c r="Y125" s="2"/>
     </row>
-    <row r="126" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -4008,7 +4220,7 @@
       <c r="X126" s="2"/>
       <c r="Y126" s="2"/>
     </row>
-    <row r="127" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -4035,7 +4247,7 @@
       <c r="X127" s="2"/>
       <c r="Y127" s="2"/>
     </row>
-    <row r="128" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -4062,7 +4274,7 @@
       <c r="X128" s="2"/>
       <c r="Y128" s="2"/>
     </row>
-    <row r="129" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -4089,7 +4301,7 @@
       <c r="X129" s="2"/>
       <c r="Y129" s="2"/>
     </row>
-    <row r="130" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -4116,7 +4328,7 @@
       <c r="X130" s="2"/>
       <c r="Y130" s="2"/>
     </row>
-    <row r="131" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
@@ -4143,7 +4355,7 @@
       <c r="X131" s="2"/>
       <c r="Y131" s="2"/>
     </row>
-    <row r="132" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
@@ -4170,7 +4382,7 @@
       <c r="X132" s="2"/>
       <c r="Y132" s="2"/>
     </row>
-    <row r="133" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
@@ -4197,7 +4409,7 @@
       <c r="X133" s="2"/>
       <c r="Y133" s="2"/>
     </row>
-    <row r="134" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
@@ -4224,7 +4436,7 @@
       <c r="X134" s="2"/>
       <c r="Y134" s="2"/>
     </row>
-    <row r="135" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
@@ -4251,7 +4463,7 @@
       <c r="X135" s="2"/>
       <c r="Y135" s="2"/>
     </row>
-    <row r="136" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
@@ -4278,7 +4490,7 @@
       <c r="X136" s="2"/>
       <c r="Y136" s="2"/>
     </row>
-    <row r="137" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
@@ -4305,7 +4517,7 @@
       <c r="X137" s="2"/>
       <c r="Y137" s="2"/>
     </row>
-    <row r="138" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
@@ -4332,7 +4544,7 @@
       <c r="X138" s="2"/>
       <c r="Y138" s="2"/>
     </row>
-    <row r="139" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
@@ -4359,7 +4571,7 @@
       <c r="X139" s="2"/>
       <c r="Y139" s="2"/>
     </row>
-    <row r="140" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
@@ -4386,7 +4598,7 @@
       <c r="X140" s="2"/>
       <c r="Y140" s="2"/>
     </row>
-    <row r="141" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
@@ -4413,7 +4625,7 @@
       <c r="X141" s="2"/>
       <c r="Y141" s="2"/>
     </row>
-    <row r="142" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
@@ -4440,7 +4652,7 @@
       <c r="X142" s="2"/>
       <c r="Y142" s="2"/>
     </row>
-    <row r="143" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
@@ -4467,7 +4679,7 @@
       <c r="X143" s="2"/>
       <c r="Y143" s="2"/>
     </row>
-    <row r="144" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
@@ -4494,7 +4706,7 @@
       <c r="X144" s="2"/>
       <c r="Y144" s="2"/>
     </row>
-    <row r="145" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
@@ -4521,7 +4733,7 @@
       <c r="X145" s="2"/>
       <c r="Y145" s="2"/>
     </row>
-    <row r="146" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
@@ -4548,7 +4760,7 @@
       <c r="X146" s="2"/>
       <c r="Y146" s="2"/>
     </row>
-    <row r="147" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
@@ -4575,7 +4787,7 @@
       <c r="X147" s="2"/>
       <c r="Y147" s="2"/>
     </row>
-    <row r="148" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
@@ -4602,7 +4814,7 @@
       <c r="X148" s="2"/>
       <c r="Y148" s="2"/>
     </row>
-    <row r="149" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
@@ -4629,7 +4841,7 @@
       <c r="X149" s="2"/>
       <c r="Y149" s="2"/>
     </row>
-    <row r="150" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
@@ -4656,7 +4868,7 @@
       <c r="X150" s="2"/>
       <c r="Y150" s="2"/>
     </row>
-    <row r="151" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
@@ -4683,7 +4895,7 @@
       <c r="X151" s="2"/>
       <c r="Y151" s="2"/>
     </row>
-    <row r="152" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
@@ -4710,7 +4922,7 @@
       <c r="X152" s="2"/>
       <c r="Y152" s="2"/>
     </row>
-    <row r="153" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
@@ -4737,7 +4949,7 @@
       <c r="X153" s="2"/>
       <c r="Y153" s="2"/>
     </row>
-    <row r="154" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
@@ -4764,7 +4976,7 @@
       <c r="X154" s="2"/>
       <c r="Y154" s="2"/>
     </row>
-    <row r="155" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
@@ -4791,7 +5003,7 @@
       <c r="X155" s="2"/>
       <c r="Y155" s="2"/>
     </row>
-    <row r="156" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
@@ -4818,7 +5030,7 @@
       <c r="X156" s="2"/>
       <c r="Y156" s="2"/>
     </row>
-    <row r="157" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A157" s="2"/>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
@@ -4845,7 +5057,7 @@
       <c r="X157" s="2"/>
       <c r="Y157" s="2"/>
     </row>
-    <row r="158" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
@@ -4872,7 +5084,7 @@
       <c r="X158" s="2"/>
       <c r="Y158" s="2"/>
     </row>
-    <row r="159" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
@@ -4899,7 +5111,7 @@
       <c r="X159" s="2"/>
       <c r="Y159" s="2"/>
     </row>
-    <row r="160" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A160" s="2"/>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
@@ -4926,7 +5138,7 @@
       <c r="X160" s="2"/>
       <c r="Y160" s="2"/>
     </row>
-    <row r="161" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A161" s="2"/>
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
@@ -4953,7 +5165,7 @@
       <c r="X161" s="2"/>
       <c r="Y161" s="2"/>
     </row>
-    <row r="162" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A162" s="2"/>
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
@@ -4980,7 +5192,7 @@
       <c r="X162" s="2"/>
       <c r="Y162" s="2"/>
     </row>
-    <row r="163" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A163" s="2"/>
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
@@ -5007,7 +5219,7 @@
       <c r="X163" s="2"/>
       <c r="Y163" s="2"/>
     </row>
-    <row r="164" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A164" s="2"/>
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
@@ -5034,7 +5246,7 @@
       <c r="X164" s="2"/>
       <c r="Y164" s="2"/>
     </row>
-    <row r="165" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A165" s="2"/>
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
@@ -5061,7 +5273,7 @@
       <c r="X165" s="2"/>
       <c r="Y165" s="2"/>
     </row>
-    <row r="166" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A166" s="2"/>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
@@ -5088,7 +5300,7 @@
       <c r="X166" s="2"/>
       <c r="Y166" s="2"/>
     </row>
-    <row r="167" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A167" s="2"/>
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
@@ -5115,7 +5327,7 @@
       <c r="X167" s="2"/>
       <c r="Y167" s="2"/>
     </row>
-    <row r="168" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A168" s="2"/>
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
@@ -5142,7 +5354,7 @@
       <c r="X168" s="2"/>
       <c r="Y168" s="2"/>
     </row>
-    <row r="169" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A169" s="2"/>
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
@@ -5169,7 +5381,7 @@
       <c r="X169" s="2"/>
       <c r="Y169" s="2"/>
     </row>
-    <row r="170" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A170" s="2"/>
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
@@ -5196,7 +5408,7 @@
       <c r="X170" s="2"/>
       <c r="Y170" s="2"/>
     </row>
-    <row r="171" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A171" s="2"/>
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
@@ -5223,7 +5435,7 @@
       <c r="X171" s="2"/>
       <c r="Y171" s="2"/>
     </row>
-    <row r="172" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A172" s="2"/>
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
@@ -5250,7 +5462,7 @@
       <c r="X172" s="2"/>
       <c r="Y172" s="2"/>
     </row>
-    <row r="173" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A173" s="2"/>
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
@@ -5277,7 +5489,7 @@
       <c r="X173" s="2"/>
       <c r="Y173" s="2"/>
     </row>
-    <row r="174" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A174" s="2"/>
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
@@ -5304,7 +5516,7 @@
       <c r="X174" s="2"/>
       <c r="Y174" s="2"/>
     </row>
-    <row r="175" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A175" s="2"/>
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
@@ -5331,7 +5543,7 @@
       <c r="X175" s="2"/>
       <c r="Y175" s="2"/>
     </row>
-    <row r="176" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A176" s="2"/>
       <c r="B176" s="2"/>
       <c r="C176" s="2"/>
@@ -5358,7 +5570,7 @@
       <c r="X176" s="2"/>
       <c r="Y176" s="2"/>
     </row>
-    <row r="177" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A177" s="2"/>
       <c r="B177" s="2"/>
       <c r="C177" s="2"/>
@@ -5385,7 +5597,7 @@
       <c r="X177" s="2"/>
       <c r="Y177" s="2"/>
     </row>
-    <row r="178" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A178" s="2"/>
       <c r="B178" s="2"/>
       <c r="C178" s="2"/>
@@ -5412,7 +5624,7 @@
       <c r="X178" s="2"/>
       <c r="Y178" s="2"/>
     </row>
-    <row r="179" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A179" s="2"/>
       <c r="B179" s="2"/>
       <c r="C179" s="2"/>
@@ -5439,7 +5651,7 @@
       <c r="X179" s="2"/>
       <c r="Y179" s="2"/>
     </row>
-    <row r="180" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A180" s="2"/>
       <c r="B180" s="2"/>
       <c r="C180" s="2"/>
@@ -5466,7 +5678,7 @@
       <c r="X180" s="2"/>
       <c r="Y180" s="2"/>
     </row>
-    <row r="181" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A181" s="2"/>
       <c r="B181" s="2"/>
       <c r="C181" s="2"/>
@@ -5493,7 +5705,7 @@
       <c r="X181" s="2"/>
       <c r="Y181" s="2"/>
     </row>
-    <row r="182" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A182" s="2"/>
       <c r="B182" s="2"/>
       <c r="C182" s="2"/>
@@ -5520,7 +5732,7 @@
       <c r="X182" s="2"/>
       <c r="Y182" s="2"/>
     </row>
-    <row r="183" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A183" s="2"/>
       <c r="B183" s="2"/>
       <c r="C183" s="2"/>
@@ -5547,7 +5759,7 @@
       <c r="X183" s="2"/>
       <c r="Y183" s="2"/>
     </row>
-    <row r="184" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A184" s="2"/>
       <c r="B184" s="2"/>
       <c r="C184" s="2"/>
@@ -5574,7 +5786,7 @@
       <c r="X184" s="2"/>
       <c r="Y184" s="2"/>
     </row>
-    <row r="185" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A185" s="2"/>
       <c r="B185" s="2"/>
       <c r="C185" s="2"/>
@@ -5601,7 +5813,7 @@
       <c r="X185" s="2"/>
       <c r="Y185" s="2"/>
     </row>
-    <row r="186" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A186" s="2"/>
       <c r="B186" s="2"/>
       <c r="C186" s="2"/>
@@ -5628,7 +5840,7 @@
       <c r="X186" s="2"/>
       <c r="Y186" s="2"/>
     </row>
-    <row r="187" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A187" s="2"/>
       <c r="B187" s="2"/>
       <c r="C187" s="2"/>
@@ -5655,7 +5867,7 @@
       <c r="X187" s="2"/>
       <c r="Y187" s="2"/>
     </row>
-    <row r="188" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A188" s="2"/>
       <c r="B188" s="2"/>
       <c r="C188" s="2"/>
@@ -5682,7 +5894,7 @@
       <c r="X188" s="2"/>
       <c r="Y188" s="2"/>
     </row>
-    <row r="189" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A189" s="2"/>
       <c r="B189" s="2"/>
       <c r="C189" s="2"/>
@@ -5709,7 +5921,7 @@
       <c r="X189" s="2"/>
       <c r="Y189" s="2"/>
     </row>
-    <row r="190" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A190" s="2"/>
       <c r="B190" s="2"/>
       <c r="C190" s="2"/>
@@ -5736,7 +5948,7 @@
       <c r="X190" s="2"/>
       <c r="Y190" s="2"/>
     </row>
-    <row r="191" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A191" s="2"/>
       <c r="B191" s="2"/>
       <c r="C191" s="2"/>
@@ -5763,7 +5975,7 @@
       <c r="X191" s="2"/>
       <c r="Y191" s="2"/>
     </row>
-    <row r="192" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A192" s="2"/>
       <c r="B192" s="2"/>
       <c r="C192" s="2"/>
@@ -5790,7 +6002,7 @@
       <c r="X192" s="2"/>
       <c r="Y192" s="2"/>
     </row>
-    <row r="193" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A193" s="2"/>
       <c r="B193" s="2"/>
       <c r="C193" s="2"/>
@@ -5817,7 +6029,7 @@
       <c r="X193" s="2"/>
       <c r="Y193" s="2"/>
     </row>
-    <row r="194" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A194" s="2"/>
       <c r="B194" s="2"/>
       <c r="C194" s="2"/>
@@ -5844,7 +6056,7 @@
       <c r="X194" s="2"/>
       <c r="Y194" s="2"/>
     </row>
-    <row r="195" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A195" s="2"/>
       <c r="B195" s="2"/>
       <c r="C195" s="2"/>
@@ -5871,7 +6083,7 @@
       <c r="X195" s="2"/>
       <c r="Y195" s="2"/>
     </row>
-    <row r="196" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A196" s="2"/>
       <c r="B196" s="2"/>
       <c r="C196" s="2"/>
@@ -5898,7 +6110,7 @@
       <c r="X196" s="2"/>
       <c r="Y196" s="2"/>
     </row>
-    <row r="197" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A197" s="2"/>
       <c r="B197" s="2"/>
       <c r="C197" s="2"/>
@@ -5925,7 +6137,7 @@
       <c r="X197" s="2"/>
       <c r="Y197" s="2"/>
     </row>
-    <row r="198" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A198" s="2"/>
       <c r="B198" s="2"/>
       <c r="C198" s="2"/>
@@ -5952,7 +6164,7 @@
       <c r="X198" s="2"/>
       <c r="Y198" s="2"/>
     </row>
-    <row r="199" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A199" s="2"/>
       <c r="B199" s="2"/>
       <c r="C199" s="2"/>
@@ -5979,7 +6191,7 @@
       <c r="X199" s="2"/>
       <c r="Y199" s="2"/>
     </row>
-    <row r="200" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A200" s="2"/>
       <c r="B200" s="2"/>
       <c r="C200" s="2"/>
@@ -6006,7 +6218,7 @@
       <c r="X200" s="2"/>
       <c r="Y200" s="2"/>
     </row>
-    <row r="201" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A201" s="2"/>
       <c r="B201" s="2"/>
       <c r="C201" s="2"/>
@@ -6033,7 +6245,7 @@
       <c r="X201" s="2"/>
       <c r="Y201" s="2"/>
     </row>
-    <row r="202" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A202" s="2"/>
       <c r="B202" s="2"/>
       <c r="C202" s="2"/>
@@ -6060,7 +6272,7 @@
       <c r="X202" s="2"/>
       <c r="Y202" s="2"/>
     </row>
-    <row r="203" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A203" s="2"/>
       <c r="B203" s="2"/>
       <c r="C203" s="2"/>
@@ -6087,7 +6299,7 @@
       <c r="X203" s="2"/>
       <c r="Y203" s="2"/>
     </row>
-    <row r="204" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A204" s="2"/>
       <c r="B204" s="2"/>
       <c r="C204" s="2"/>
@@ -6114,7 +6326,7 @@
       <c r="X204" s="2"/>
       <c r="Y204" s="2"/>
     </row>
-    <row r="205" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A205" s="2"/>
       <c r="B205" s="2"/>
       <c r="C205" s="2"/>
@@ -6141,7 +6353,7 @@
       <c r="X205" s="2"/>
       <c r="Y205" s="2"/>
     </row>
-    <row r="206" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A206" s="2"/>
       <c r="B206" s="2"/>
       <c r="C206" s="2"/>
@@ -6168,7 +6380,7 @@
       <c r="X206" s="2"/>
       <c r="Y206" s="2"/>
     </row>
-    <row r="207" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A207" s="2"/>
       <c r="B207" s="2"/>
       <c r="C207" s="2"/>
@@ -6195,7 +6407,7 @@
       <c r="X207" s="2"/>
       <c r="Y207" s="2"/>
     </row>
-    <row r="208" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A208" s="2"/>
       <c r="B208" s="2"/>
       <c r="C208" s="2"/>
@@ -6222,7 +6434,7 @@
       <c r="X208" s="2"/>
       <c r="Y208" s="2"/>
     </row>
-    <row r="209" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A209" s="2"/>
       <c r="B209" s="2"/>
       <c r="C209" s="2"/>
@@ -6249,7 +6461,7 @@
       <c r="X209" s="2"/>
       <c r="Y209" s="2"/>
     </row>
-    <row r="210" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A210" s="2"/>
       <c r="B210" s="2"/>
       <c r="C210" s="2"/>
@@ -6276,7 +6488,7 @@
       <c r="X210" s="2"/>
       <c r="Y210" s="2"/>
     </row>
-    <row r="211" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A211" s="2"/>
       <c r="B211" s="2"/>
       <c r="C211" s="2"/>
@@ -6303,7 +6515,7 @@
       <c r="X211" s="2"/>
       <c r="Y211" s="2"/>
     </row>
-    <row r="212" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A212" s="2"/>
       <c r="B212" s="2"/>
       <c r="C212" s="2"/>
@@ -6330,7 +6542,7 @@
       <c r="X212" s="2"/>
       <c r="Y212" s="2"/>
     </row>
-    <row r="213" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A213" s="2"/>
       <c r="B213" s="2"/>
       <c r="C213" s="2"/>
@@ -6357,7 +6569,7 @@
       <c r="X213" s="2"/>
       <c r="Y213" s="2"/>
     </row>
-    <row r="214" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A214" s="2"/>
       <c r="B214" s="2"/>
       <c r="C214" s="2"/>
@@ -6384,7 +6596,7 @@
       <c r="X214" s="2"/>
       <c r="Y214" s="2"/>
     </row>
-    <row r="215" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A215" s="2"/>
       <c r="B215" s="2"/>
       <c r="C215" s="2"/>
@@ -6411,7 +6623,7 @@
       <c r="X215" s="2"/>
       <c r="Y215" s="2"/>
     </row>
-    <row r="216" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A216" s="2"/>
       <c r="B216" s="2"/>
       <c r="C216" s="2"/>
@@ -6438,7 +6650,7 @@
       <c r="X216" s="2"/>
       <c r="Y216" s="2"/>
     </row>
-    <row r="217" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A217" s="2"/>
       <c r="B217" s="2"/>
       <c r="C217" s="2"/>
@@ -6465,7 +6677,7 @@
       <c r="X217" s="2"/>
       <c r="Y217" s="2"/>
     </row>
-    <row r="218" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A218" s="2"/>
       <c r="B218" s="2"/>
       <c r="C218" s="2"/>
@@ -6492,7 +6704,7 @@
       <c r="X218" s="2"/>
       <c r="Y218" s="2"/>
     </row>
-    <row r="219" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A219" s="2"/>
       <c r="B219" s="2"/>
       <c r="C219" s="2"/>
@@ -6519,7 +6731,7 @@
       <c r="X219" s="2"/>
       <c r="Y219" s="2"/>
     </row>
-    <row r="220" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A220" s="2"/>
       <c r="B220" s="2"/>
       <c r="C220" s="2"/>
@@ -6546,7 +6758,7 @@
       <c r="X220" s="2"/>
       <c r="Y220" s="2"/>
     </row>
-    <row r="221" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A221" s="2"/>
       <c r="B221" s="2"/>
       <c r="C221" s="2"/>
@@ -6573,7 +6785,7 @@
       <c r="X221" s="2"/>
       <c r="Y221" s="2"/>
     </row>
-    <row r="222" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A222" s="2"/>
       <c r="B222" s="2"/>
       <c r="C222" s="2"/>
@@ -6600,7 +6812,7 @@
       <c r="X222" s="2"/>
       <c r="Y222" s="2"/>
     </row>
-    <row r="223" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A223" s="2"/>
       <c r="B223" s="2"/>
       <c r="C223" s="2"/>
@@ -6627,7 +6839,7 @@
       <c r="X223" s="2"/>
       <c r="Y223" s="2"/>
     </row>
-    <row r="224" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A224" s="2"/>
       <c r="B224" s="2"/>
       <c r="C224" s="2"/>
@@ -6654,7 +6866,7 @@
       <c r="X224" s="2"/>
       <c r="Y224" s="2"/>
     </row>
-    <row r="225" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A225" s="2"/>
       <c r="B225" s="2"/>
       <c r="C225" s="2"/>
@@ -6681,7 +6893,7 @@
       <c r="X225" s="2"/>
       <c r="Y225" s="2"/>
     </row>
-    <row r="226" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A226" s="2"/>
       <c r="B226" s="2"/>
       <c r="C226" s="2"/>
@@ -6708,7 +6920,7 @@
       <c r="X226" s="2"/>
       <c r="Y226" s="2"/>
     </row>
-    <row r="227" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A227" s="2"/>
       <c r="B227" s="2"/>
       <c r="C227" s="2"/>
@@ -6735,7 +6947,7 @@
       <c r="X227" s="2"/>
       <c r="Y227" s="2"/>
     </row>
-    <row r="228" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A228" s="2"/>
       <c r="B228" s="2"/>
       <c r="C228" s="2"/>
@@ -6762,7 +6974,7 @@
       <c r="X228" s="2"/>
       <c r="Y228" s="2"/>
     </row>
-    <row r="229" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A229" s="2"/>
       <c r="B229" s="2"/>
       <c r="C229" s="2"/>
@@ -6789,7 +7001,7 @@
       <c r="X229" s="2"/>
       <c r="Y229" s="2"/>
     </row>
-    <row r="230" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A230" s="2"/>
       <c r="B230" s="2"/>
       <c r="C230" s="2"/>
@@ -6816,7 +7028,7 @@
       <c r="X230" s="2"/>
       <c r="Y230" s="2"/>
     </row>
-    <row r="231" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A231" s="2"/>
       <c r="B231" s="2"/>
       <c r="C231" s="2"/>
@@ -6843,7 +7055,7 @@
       <c r="X231" s="2"/>
       <c r="Y231" s="2"/>
     </row>
-    <row r="232" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A232" s="2"/>
       <c r="B232" s="2"/>
       <c r="C232" s="2"/>
@@ -6870,7 +7082,7 @@
       <c r="X232" s="2"/>
       <c r="Y232" s="2"/>
     </row>
-    <row r="233" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A233" s="2"/>
       <c r="B233" s="2"/>
       <c r="C233" s="2"/>
@@ -6897,7 +7109,7 @@
       <c r="X233" s="2"/>
       <c r="Y233" s="2"/>
     </row>
-    <row r="234" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A234" s="2"/>
       <c r="B234" s="2"/>
       <c r="C234" s="2"/>
@@ -6924,7 +7136,7 @@
       <c r="X234" s="2"/>
       <c r="Y234" s="2"/>
     </row>
-    <row r="235" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A235" s="2"/>
       <c r="B235" s="2"/>
       <c r="C235" s="2"/>
@@ -6951,7 +7163,7 @@
       <c r="X235" s="2"/>
       <c r="Y235" s="2"/>
     </row>
-    <row r="236" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A236" s="2"/>
       <c r="B236" s="2"/>
       <c r="C236" s="2"/>
@@ -6978,7 +7190,7 @@
       <c r="X236" s="2"/>
       <c r="Y236" s="2"/>
     </row>
-    <row r="237" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A237" s="2"/>
       <c r="B237" s="2"/>
       <c r="C237" s="2"/>
@@ -7005,7 +7217,7 @@
       <c r="X237" s="2"/>
       <c r="Y237" s="2"/>
     </row>
-    <row r="238" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A238" s="2"/>
       <c r="B238" s="2"/>
       <c r="C238" s="2"/>
@@ -7032,7 +7244,7 @@
       <c r="X238" s="2"/>
       <c r="Y238" s="2"/>
     </row>
-    <row r="239" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A239" s="2"/>
       <c r="B239" s="2"/>
       <c r="C239" s="2"/>
@@ -7059,7 +7271,7 @@
       <c r="X239" s="2"/>
       <c r="Y239" s="2"/>
     </row>
-    <row r="240" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A240" s="2"/>
       <c r="B240" s="2"/>
       <c r="C240" s="2"/>
@@ -7086,7 +7298,7 @@
       <c r="X240" s="2"/>
       <c r="Y240" s="2"/>
     </row>
-    <row r="241" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A241" s="2"/>
       <c r="B241" s="2"/>
       <c r="C241" s="2"/>
@@ -7113,7 +7325,7 @@
       <c r="X241" s="2"/>
       <c r="Y241" s="2"/>
     </row>
-    <row r="242" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A242" s="2"/>
       <c r="B242" s="2"/>
       <c r="C242" s="2"/>
@@ -7140,7 +7352,7 @@
       <c r="X242" s="2"/>
       <c r="Y242" s="2"/>
     </row>
-    <row r="243" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A243" s="2"/>
       <c r="B243" s="2"/>
       <c r="C243" s="2"/>
@@ -7167,7 +7379,7 @@
       <c r="X243" s="2"/>
       <c r="Y243" s="2"/>
     </row>
-    <row r="244" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A244" s="2"/>
       <c r="B244" s="2"/>
       <c r="C244" s="2"/>
@@ -7194,7 +7406,7 @@
       <c r="X244" s="2"/>
       <c r="Y244" s="2"/>
     </row>
-    <row r="245" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A245" s="2"/>
       <c r="B245" s="2"/>
       <c r="C245" s="2"/>
@@ -7221,7 +7433,7 @@
       <c r="X245" s="2"/>
       <c r="Y245" s="2"/>
     </row>
-    <row r="246" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A246" s="2"/>
       <c r="B246" s="2"/>
       <c r="C246" s="2"/>
@@ -7248,7 +7460,7 @@
       <c r="X246" s="2"/>
       <c r="Y246" s="2"/>
     </row>
-    <row r="247" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A247" s="2"/>
       <c r="B247" s="2"/>
       <c r="C247" s="2"/>
@@ -7275,7 +7487,7 @@
       <c r="X247" s="2"/>
       <c r="Y247" s="2"/>
     </row>
-    <row r="248" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A248" s="2"/>
       <c r="B248" s="2"/>
       <c r="C248" s="2"/>
@@ -7302,7 +7514,7 @@
       <c r="X248" s="2"/>
       <c r="Y248" s="2"/>
     </row>
-    <row r="249" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A249" s="2"/>
       <c r="B249" s="2"/>
       <c r="C249" s="2"/>
@@ -7329,7 +7541,7 @@
       <c r="X249" s="2"/>
       <c r="Y249" s="2"/>
     </row>
-    <row r="250" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A250" s="2"/>
       <c r="B250" s="2"/>
       <c r="C250" s="2"/>
@@ -7356,7 +7568,7 @@
       <c r="X250" s="2"/>
       <c r="Y250" s="2"/>
     </row>
-    <row r="251" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A251" s="2"/>
       <c r="B251" s="2"/>
       <c r="C251" s="2"/>
@@ -7383,7 +7595,7 @@
       <c r="X251" s="2"/>
       <c r="Y251" s="2"/>
     </row>
-    <row r="252" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A252" s="2"/>
       <c r="B252" s="2"/>
       <c r="C252" s="2"/>
@@ -7410,7 +7622,7 @@
       <c r="X252" s="2"/>
       <c r="Y252" s="2"/>
     </row>
-    <row r="253" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A253" s="2"/>
       <c r="B253" s="2"/>
       <c r="C253" s="2"/>
@@ -7437,7 +7649,7 @@
       <c r="X253" s="2"/>
       <c r="Y253" s="2"/>
     </row>
-    <row r="254" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A254" s="2"/>
       <c r="B254" s="2"/>
       <c r="C254" s="2"/>
@@ -7464,7 +7676,7 @@
       <c r="X254" s="2"/>
       <c r="Y254" s="2"/>
     </row>
-    <row r="255" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A255" s="2"/>
       <c r="B255" s="2"/>
       <c r="C255" s="2"/>
@@ -7491,7 +7703,7 @@
       <c r="X255" s="2"/>
       <c r="Y255" s="2"/>
     </row>
-    <row r="256" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A256" s="2"/>
       <c r="B256" s="2"/>
       <c r="C256" s="2"/>
@@ -7518,7 +7730,7 @@
       <c r="X256" s="2"/>
       <c r="Y256" s="2"/>
     </row>
-    <row r="257" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A257" s="2"/>
       <c r="B257" s="2"/>
       <c r="C257" s="2"/>
@@ -7545,7 +7757,7 @@
       <c r="X257" s="2"/>
       <c r="Y257" s="2"/>
     </row>
-    <row r="258" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A258" s="2"/>
       <c r="B258" s="2"/>
       <c r="C258" s="2"/>
@@ -7572,7 +7784,7 @@
       <c r="X258" s="2"/>
       <c r="Y258" s="2"/>
     </row>
-    <row r="259" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A259" s="2"/>
       <c r="B259" s="2"/>
       <c r="C259" s="2"/>
@@ -7599,7 +7811,7 @@
       <c r="X259" s="2"/>
       <c r="Y259" s="2"/>
     </row>
-    <row r="260" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A260" s="2"/>
       <c r="B260" s="2"/>
       <c r="C260" s="2"/>
@@ -7626,7 +7838,7 @@
       <c r="X260" s="2"/>
       <c r="Y260" s="2"/>
     </row>
-    <row r="261" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A261" s="2"/>
       <c r="B261" s="2"/>
       <c r="C261" s="2"/>
@@ -7653,7 +7865,7 @@
       <c r="X261" s="2"/>
       <c r="Y261" s="2"/>
     </row>
-    <row r="262" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A262" s="2"/>
       <c r="B262" s="2"/>
       <c r="C262" s="2"/>
@@ -7680,7 +7892,7 @@
       <c r="X262" s="2"/>
       <c r="Y262" s="2"/>
     </row>
-    <row r="263" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A263" s="2"/>
       <c r="B263" s="2"/>
       <c r="C263" s="2"/>
@@ -7707,7 +7919,7 @@
       <c r="X263" s="2"/>
       <c r="Y263" s="2"/>
     </row>
-    <row r="264" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A264" s="2"/>
       <c r="B264" s="2"/>
       <c r="C264" s="2"/>
@@ -7734,7 +7946,7 @@
       <c r="X264" s="2"/>
       <c r="Y264" s="2"/>
     </row>
-    <row r="265" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A265" s="2"/>
       <c r="B265" s="2"/>
       <c r="C265" s="2"/>
@@ -7761,7 +7973,7 @@
       <c r="X265" s="2"/>
       <c r="Y265" s="2"/>
     </row>
-    <row r="266" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A266" s="2"/>
       <c r="B266" s="2"/>
       <c r="C266" s="2"/>
@@ -7788,7 +8000,7 @@
       <c r="X266" s="2"/>
       <c r="Y266" s="2"/>
     </row>
-    <row r="267" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A267" s="2"/>
       <c r="B267" s="2"/>
       <c r="C267" s="2"/>
@@ -7815,7 +8027,7 @@
       <c r="X267" s="2"/>
       <c r="Y267" s="2"/>
     </row>
-    <row r="268" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A268" s="2"/>
       <c r="B268" s="2"/>
       <c r="C268" s="2"/>
@@ -7842,7 +8054,7 @@
       <c r="X268" s="2"/>
       <c r="Y268" s="2"/>
     </row>
-    <row r="269" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A269" s="2"/>
       <c r="B269" s="2"/>
       <c r="C269" s="2"/>
@@ -7869,7 +8081,7 @@
       <c r="X269" s="2"/>
       <c r="Y269" s="2"/>
     </row>
-    <row r="270" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A270" s="2"/>
       <c r="B270" s="2"/>
       <c r="C270" s="2"/>
@@ -7896,7 +8108,7 @@
       <c r="X270" s="2"/>
       <c r="Y270" s="2"/>
     </row>
-    <row r="271" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A271" s="2"/>
       <c r="B271" s="2"/>
       <c r="C271" s="2"/>
@@ -7923,7 +8135,7 @@
       <c r="X271" s="2"/>
       <c r="Y271" s="2"/>
     </row>
-    <row r="272" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A272" s="2"/>
       <c r="B272" s="2"/>
       <c r="C272" s="2"/>
@@ -7950,7 +8162,7 @@
       <c r="X272" s="2"/>
       <c r="Y272" s="2"/>
     </row>
-    <row r="273" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A273" s="2"/>
       <c r="B273" s="2"/>
       <c r="C273" s="2"/>
@@ -7977,7 +8189,7 @@
       <c r="X273" s="2"/>
       <c r="Y273" s="2"/>
     </row>
-    <row r="274" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A274" s="2"/>
       <c r="B274" s="2"/>
       <c r="C274" s="2"/>
@@ -8004,7 +8216,7 @@
       <c r="X274" s="2"/>
       <c r="Y274" s="2"/>
     </row>
-    <row r="275" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A275" s="2"/>
       <c r="B275" s="2"/>
       <c r="C275" s="2"/>
@@ -8031,7 +8243,7 @@
       <c r="X275" s="2"/>
       <c r="Y275" s="2"/>
     </row>
-    <row r="276" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A276" s="2"/>
       <c r="B276" s="2"/>
       <c r="C276" s="2"/>
@@ -8058,7 +8270,7 @@
       <c r="X276" s="2"/>
       <c r="Y276" s="2"/>
     </row>
-    <row r="277" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A277" s="2"/>
       <c r="B277" s="2"/>
       <c r="C277" s="2"/>
@@ -8085,7 +8297,7 @@
       <c r="X277" s="2"/>
       <c r="Y277" s="2"/>
     </row>
-    <row r="278" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A278" s="2"/>
       <c r="B278" s="2"/>
       <c r="C278" s="2"/>
@@ -8112,7 +8324,7 @@
       <c r="X278" s="2"/>
       <c r="Y278" s="2"/>
     </row>
-    <row r="279" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A279" s="2"/>
       <c r="B279" s="2"/>
       <c r="C279" s="2"/>
@@ -8139,7 +8351,7 @@
       <c r="X279" s="2"/>
       <c r="Y279" s="2"/>
     </row>
-    <row r="280" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A280" s="2"/>
       <c r="B280" s="2"/>
       <c r="C280" s="2"/>
@@ -8166,7 +8378,7 @@
       <c r="X280" s="2"/>
       <c r="Y280" s="2"/>
     </row>
-    <row r="281" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A281" s="2"/>
       <c r="B281" s="2"/>
       <c r="C281" s="2"/>
@@ -8193,7 +8405,7 @@
       <c r="X281" s="2"/>
       <c r="Y281" s="2"/>
     </row>
-    <row r="282" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A282" s="2"/>
       <c r="B282" s="2"/>
       <c r="C282" s="2"/>
@@ -8220,7 +8432,7 @@
       <c r="X282" s="2"/>
       <c r="Y282" s="2"/>
     </row>
-    <row r="283" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A283" s="2"/>
       <c r="B283" s="2"/>
       <c r="C283" s="2"/>
@@ -8247,7 +8459,7 @@
       <c r="X283" s="2"/>
       <c r="Y283" s="2"/>
     </row>
-    <row r="284" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A284" s="2"/>
       <c r="B284" s="2"/>
       <c r="C284" s="2"/>
@@ -8274,7 +8486,7 @@
       <c r="X284" s="2"/>
       <c r="Y284" s="2"/>
     </row>
-    <row r="285" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A285" s="2"/>
       <c r="B285" s="2"/>
       <c r="C285" s="2"/>
@@ -8301,7 +8513,7 @@
       <c r="X285" s="2"/>
       <c r="Y285" s="2"/>
     </row>
-    <row r="286" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A286" s="2"/>
       <c r="B286" s="2"/>
       <c r="C286" s="2"/>
@@ -8328,7 +8540,7 @@
       <c r="X286" s="2"/>
       <c r="Y286" s="2"/>
     </row>
-    <row r="287" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A287" s="2"/>
       <c r="B287" s="2"/>
       <c r="C287" s="2"/>
@@ -8355,7 +8567,7 @@
       <c r="X287" s="2"/>
       <c r="Y287" s="2"/>
     </row>
-    <row r="288" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A288" s="2"/>
       <c r="B288" s="2"/>
       <c r="C288" s="2"/>
@@ -8382,7 +8594,7 @@
       <c r="X288" s="2"/>
       <c r="Y288" s="2"/>
     </row>
-    <row r="289" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A289" s="2"/>
       <c r="B289" s="2"/>
       <c r="C289" s="2"/>
@@ -8409,7 +8621,7 @@
       <c r="X289" s="2"/>
       <c r="Y289" s="2"/>
     </row>
-    <row r="290" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A290" s="2"/>
       <c r="B290" s="2"/>
       <c r="C290" s="2"/>
@@ -8436,7 +8648,7 @@
       <c r="X290" s="2"/>
       <c r="Y290" s="2"/>
     </row>
-    <row r="291" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A291" s="2"/>
       <c r="B291" s="2"/>
       <c r="C291" s="2"/>
@@ -8463,7 +8675,7 @@
       <c r="X291" s="2"/>
       <c r="Y291" s="2"/>
     </row>
-    <row r="292" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A292" s="2"/>
       <c r="B292" s="2"/>
       <c r="C292" s="2"/>
@@ -8490,7 +8702,7 @@
       <c r="X292" s="2"/>
       <c r="Y292" s="2"/>
     </row>
-    <row r="293" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A293" s="2"/>
       <c r="B293" s="2"/>
       <c r="C293" s="2"/>
@@ -8517,7 +8729,7 @@
       <c r="X293" s="2"/>
       <c r="Y293" s="2"/>
     </row>
-    <row r="294" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A294" s="2"/>
       <c r="B294" s="2"/>
       <c r="C294" s="2"/>
@@ -8544,7 +8756,7 @@
       <c r="X294" s="2"/>
       <c r="Y294" s="2"/>
     </row>
-    <row r="295" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A295" s="2"/>
       <c r="B295" s="2"/>
       <c r="C295" s="2"/>
@@ -8571,7 +8783,7 @@
       <c r="X295" s="2"/>
       <c r="Y295" s="2"/>
     </row>
-    <row r="296" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A296" s="2"/>
       <c r="B296" s="2"/>
       <c r="C296" s="2"/>
@@ -8598,7 +8810,7 @@
       <c r="X296" s="2"/>
       <c r="Y296" s="2"/>
     </row>
-    <row r="297" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A297" s="2"/>
       <c r="B297" s="2"/>
       <c r="C297" s="2"/>
@@ -8625,7 +8837,7 @@
       <c r="X297" s="2"/>
       <c r="Y297" s="2"/>
     </row>
-    <row r="298" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A298" s="2"/>
       <c r="B298" s="2"/>
       <c r="C298" s="2"/>
@@ -8652,7 +8864,7 @@
       <c r="X298" s="2"/>
       <c r="Y298" s="2"/>
     </row>
-    <row r="299" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A299" s="2"/>
       <c r="B299" s="2"/>
       <c r="C299" s="2"/>
@@ -8679,7 +8891,7 @@
       <c r="X299" s="2"/>
       <c r="Y299" s="2"/>
     </row>
-    <row r="300" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A300" s="2"/>
       <c r="B300" s="2"/>
       <c r="C300" s="2"/>
@@ -8706,7 +8918,7 @@
       <c r="X300" s="2"/>
       <c r="Y300" s="2"/>
     </row>
-    <row r="301" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A301" s="2"/>
       <c r="B301" s="2"/>
       <c r="C301" s="2"/>
@@ -8733,7 +8945,7 @@
       <c r="X301" s="2"/>
       <c r="Y301" s="2"/>
     </row>
-    <row r="302" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A302" s="2"/>
       <c r="B302" s="2"/>
       <c r="C302" s="2"/>
@@ -8760,7 +8972,7 @@
       <c r="X302" s="2"/>
       <c r="Y302" s="2"/>
     </row>
-    <row r="303" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A303" s="2"/>
       <c r="B303" s="2"/>
       <c r="C303" s="2"/>
@@ -8787,7 +8999,7 @@
       <c r="X303" s="2"/>
       <c r="Y303" s="2"/>
     </row>
-    <row r="304" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A304" s="2"/>
       <c r="B304" s="2"/>
       <c r="C304" s="2"/>
@@ -8814,7 +9026,7 @@
       <c r="X304" s="2"/>
       <c r="Y304" s="2"/>
     </row>
-    <row r="305" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A305" s="2"/>
       <c r="B305" s="2"/>
       <c r="C305" s="2"/>
@@ -8841,7 +9053,7 @@
       <c r="X305" s="2"/>
       <c r="Y305" s="2"/>
     </row>
-    <row r="306" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A306" s="2"/>
       <c r="B306" s="2"/>
       <c r="C306" s="2"/>
@@ -8868,7 +9080,7 @@
       <c r="X306" s="2"/>
       <c r="Y306" s="2"/>
     </row>
-    <row r="307" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A307" s="2"/>
       <c r="B307" s="2"/>
       <c r="C307" s="2"/>
@@ -8895,7 +9107,7 @@
       <c r="X307" s="2"/>
       <c r="Y307" s="2"/>
     </row>
-    <row r="308" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A308" s="2"/>
       <c r="B308" s="2"/>
       <c r="C308" s="2"/>
@@ -8922,7 +9134,7 @@
       <c r="X308" s="2"/>
       <c r="Y308" s="2"/>
     </row>
-    <row r="309" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A309" s="2"/>
       <c r="B309" s="2"/>
       <c r="C309" s="2"/>
@@ -8949,7 +9161,7 @@
       <c r="X309" s="2"/>
       <c r="Y309" s="2"/>
     </row>
-    <row r="310" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A310" s="2"/>
       <c r="B310" s="2"/>
       <c r="C310" s="2"/>
@@ -8976,7 +9188,7 @@
       <c r="X310" s="2"/>
       <c r="Y310" s="2"/>
     </row>
-    <row r="311" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A311" s="2"/>
       <c r="B311" s="2"/>
       <c r="C311" s="2"/>
@@ -9003,7 +9215,7 @@
       <c r="X311" s="2"/>
       <c r="Y311" s="2"/>
     </row>
-    <row r="312" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A312" s="2"/>
       <c r="B312" s="2"/>
       <c r="C312" s="2"/>
@@ -9030,7 +9242,7 @@
       <c r="X312" s="2"/>
       <c r="Y312" s="2"/>
     </row>
-    <row r="313" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A313" s="2"/>
       <c r="B313" s="2"/>
       <c r="C313" s="2"/>
@@ -9057,7 +9269,7 @@
       <c r="X313" s="2"/>
       <c r="Y313" s="2"/>
     </row>
-    <row r="314" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A314" s="2"/>
       <c r="B314" s="2"/>
       <c r="C314" s="2"/>
@@ -9084,7 +9296,7 @@
       <c r="X314" s="2"/>
       <c r="Y314" s="2"/>
     </row>
-    <row r="315" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A315" s="2"/>
       <c r="B315" s="2"/>
       <c r="C315" s="2"/>
@@ -9111,7 +9323,7 @@
       <c r="X315" s="2"/>
       <c r="Y315" s="2"/>
     </row>
-    <row r="316" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A316" s="2"/>
       <c r="B316" s="2"/>
       <c r="C316" s="2"/>
@@ -9138,7 +9350,7 @@
       <c r="X316" s="2"/>
       <c r="Y316" s="2"/>
     </row>
-    <row r="317" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A317" s="2"/>
       <c r="B317" s="2"/>
       <c r="C317" s="2"/>
@@ -9165,7 +9377,7 @@
       <c r="X317" s="2"/>
       <c r="Y317" s="2"/>
     </row>
-    <row r="318" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A318" s="2"/>
       <c r="B318" s="2"/>
       <c r="C318" s="2"/>
@@ -9192,7 +9404,7 @@
       <c r="X318" s="2"/>
       <c r="Y318" s="2"/>
     </row>
-    <row r="319" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A319" s="2"/>
       <c r="B319" s="2"/>
       <c r="C319" s="2"/>
@@ -9219,7 +9431,7 @@
       <c r="X319" s="2"/>
       <c r="Y319" s="2"/>
     </row>
-    <row r="320" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A320" s="2"/>
       <c r="B320" s="2"/>
       <c r="C320" s="2"/>
@@ -9246,7 +9458,7 @@
       <c r="X320" s="2"/>
       <c r="Y320" s="2"/>
     </row>
-    <row r="321" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A321" s="2"/>
       <c r="B321" s="2"/>
       <c r="C321" s="2"/>
@@ -9273,7 +9485,7 @@
       <c r="X321" s="2"/>
       <c r="Y321" s="2"/>
     </row>
-    <row r="322" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A322" s="2"/>
       <c r="B322" s="2"/>
       <c r="C322" s="2"/>
@@ -9300,7 +9512,7 @@
       <c r="X322" s="2"/>
       <c r="Y322" s="2"/>
     </row>
-    <row r="323" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A323" s="2"/>
       <c r="B323" s="2"/>
       <c r="C323" s="2"/>
@@ -9327,7 +9539,7 @@
       <c r="X323" s="2"/>
       <c r="Y323" s="2"/>
     </row>
-    <row r="324" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A324" s="2"/>
       <c r="B324" s="2"/>
       <c r="C324" s="2"/>
@@ -9354,7 +9566,7 @@
       <c r="X324" s="2"/>
       <c r="Y324" s="2"/>
     </row>
-    <row r="325" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A325" s="2"/>
       <c r="B325" s="2"/>
       <c r="C325" s="2"/>
@@ -9381,7 +9593,7 @@
       <c r="X325" s="2"/>
       <c r="Y325" s="2"/>
     </row>
-    <row r="326" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A326" s="2"/>
       <c r="B326" s="2"/>
       <c r="C326" s="2"/>
@@ -9408,7 +9620,7 @@
       <c r="X326" s="2"/>
       <c r="Y326" s="2"/>
     </row>
-    <row r="327" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A327" s="2"/>
       <c r="B327" s="2"/>
       <c r="C327" s="2"/>
@@ -9435,7 +9647,7 @@
       <c r="X327" s="2"/>
       <c r="Y327" s="2"/>
     </row>
-    <row r="328" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A328" s="2"/>
       <c r="B328" s="2"/>
       <c r="C328" s="2"/>
@@ -9462,7 +9674,7 @@
       <c r="X328" s="2"/>
       <c r="Y328" s="2"/>
     </row>
-    <row r="329" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A329" s="2"/>
       <c r="B329" s="2"/>
       <c r="C329" s="2"/>
@@ -9489,7 +9701,7 @@
       <c r="X329" s="2"/>
       <c r="Y329" s="2"/>
     </row>
-    <row r="330" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A330" s="2"/>
       <c r="B330" s="2"/>
       <c r="C330" s="2"/>
@@ -9516,7 +9728,7 @@
       <c r="X330" s="2"/>
       <c r="Y330" s="2"/>
     </row>
-    <row r="331" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A331" s="2"/>
       <c r="B331" s="2"/>
       <c r="C331" s="2"/>
@@ -9543,7 +9755,7 @@
       <c r="X331" s="2"/>
       <c r="Y331" s="2"/>
     </row>
-    <row r="332" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A332" s="2"/>
       <c r="B332" s="2"/>
       <c r="C332" s="2"/>
@@ -9570,7 +9782,7 @@
       <c r="X332" s="2"/>
       <c r="Y332" s="2"/>
     </row>
-    <row r="333" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A333" s="2"/>
       <c r="B333" s="2"/>
       <c r="C333" s="2"/>
@@ -9597,7 +9809,7 @@
       <c r="X333" s="2"/>
       <c r="Y333" s="2"/>
     </row>
-    <row r="334" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A334" s="2"/>
       <c r="B334" s="2"/>
       <c r="C334" s="2"/>
@@ -9624,7 +9836,7 @@
       <c r="X334" s="2"/>
       <c r="Y334" s="2"/>
     </row>
-    <row r="335" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A335" s="2"/>
       <c r="B335" s="2"/>
       <c r="C335" s="2"/>
@@ -9651,7 +9863,7 @@
       <c r="X335" s="2"/>
       <c r="Y335" s="2"/>
     </row>
-    <row r="336" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A336" s="2"/>
       <c r="B336" s="2"/>
       <c r="C336" s="2"/>
@@ -9678,7 +9890,7 @@
       <c r="X336" s="2"/>
       <c r="Y336" s="2"/>
     </row>
-    <row r="337" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A337" s="2"/>
       <c r="B337" s="2"/>
       <c r="C337" s="2"/>
@@ -9705,7 +9917,7 @@
       <c r="X337" s="2"/>
       <c r="Y337" s="2"/>
     </row>
-    <row r="338" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A338" s="2"/>
       <c r="B338" s="2"/>
       <c r="C338" s="2"/>
@@ -9732,7 +9944,7 @@
       <c r="X338" s="2"/>
       <c r="Y338" s="2"/>
     </row>
-    <row r="339" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A339" s="2"/>
       <c r="B339" s="2"/>
       <c r="C339" s="2"/>
@@ -9759,7 +9971,7 @@
       <c r="X339" s="2"/>
       <c r="Y339" s="2"/>
     </row>
-    <row r="340" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A340" s="2"/>
       <c r="B340" s="2"/>
       <c r="C340" s="2"/>
@@ -9786,7 +9998,7 @@
       <c r="X340" s="2"/>
       <c r="Y340" s="2"/>
     </row>
-    <row r="341" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A341" s="2"/>
       <c r="B341" s="2"/>
       <c r="C341" s="2"/>
@@ -9813,7 +10025,7 @@
       <c r="X341" s="2"/>
       <c r="Y341" s="2"/>
     </row>
-    <row r="342" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A342" s="2"/>
       <c r="B342" s="2"/>
       <c r="C342" s="2"/>
@@ -9840,7 +10052,7 @@
       <c r="X342" s="2"/>
       <c r="Y342" s="2"/>
     </row>
-    <row r="343" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A343" s="2"/>
       <c r="B343" s="2"/>
       <c r="C343" s="2"/>
@@ -9867,7 +10079,7 @@
       <c r="X343" s="2"/>
       <c r="Y343" s="2"/>
     </row>
-    <row r="344" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A344" s="2"/>
       <c r="B344" s="2"/>
       <c r="C344" s="2"/>
@@ -9894,7 +10106,7 @@
       <c r="X344" s="2"/>
       <c r="Y344" s="2"/>
     </row>
-    <row r="345" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A345" s="2"/>
       <c r="B345" s="2"/>
       <c r="C345" s="2"/>
@@ -9921,7 +10133,7 @@
       <c r="X345" s="2"/>
       <c r="Y345" s="2"/>
     </row>
-    <row r="346" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A346" s="2"/>
       <c r="B346" s="2"/>
       <c r="C346" s="2"/>
@@ -9948,7 +10160,7 @@
       <c r="X346" s="2"/>
       <c r="Y346" s="2"/>
     </row>
-    <row r="347" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A347" s="2"/>
       <c r="B347" s="2"/>
       <c r="C347" s="2"/>
@@ -9975,7 +10187,7 @@
       <c r="X347" s="2"/>
       <c r="Y347" s="2"/>
     </row>
-    <row r="348" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A348" s="2"/>
       <c r="B348" s="2"/>
       <c r="C348" s="2"/>
@@ -10002,7 +10214,7 @@
       <c r="X348" s="2"/>
       <c r="Y348" s="2"/>
     </row>
-    <row r="349" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A349" s="2"/>
       <c r="B349" s="2"/>
       <c r="C349" s="2"/>
@@ -10029,7 +10241,7 @@
       <c r="X349" s="2"/>
       <c r="Y349" s="2"/>
     </row>
-    <row r="350" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A350" s="2"/>
       <c r="B350" s="2"/>
       <c r="C350" s="2"/>
@@ -10056,7 +10268,7 @@
       <c r="X350" s="2"/>
       <c r="Y350" s="2"/>
     </row>
-    <row r="351" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A351" s="2"/>
       <c r="B351" s="2"/>
       <c r="C351" s="2"/>
@@ -10083,7 +10295,7 @@
       <c r="X351" s="2"/>
       <c r="Y351" s="2"/>
     </row>
-    <row r="352" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A352" s="2"/>
       <c r="B352" s="2"/>
       <c r="C352" s="2"/>
@@ -10110,7 +10322,7 @@
       <c r="X352" s="2"/>
       <c r="Y352" s="2"/>
     </row>
-    <row r="353" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A353" s="2"/>
       <c r="B353" s="2"/>
       <c r="C353" s="2"/>
@@ -10137,7 +10349,7 @@
       <c r="X353" s="2"/>
       <c r="Y353" s="2"/>
     </row>
-    <row r="354" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A354" s="2"/>
       <c r="B354" s="2"/>
       <c r="C354" s="2"/>
@@ -10164,7 +10376,7 @@
       <c r="X354" s="2"/>
       <c r="Y354" s="2"/>
     </row>
-    <row r="355" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A355" s="2"/>
       <c r="B355" s="2"/>
       <c r="C355" s="2"/>
@@ -10191,7 +10403,7 @@
       <c r="X355" s="2"/>
       <c r="Y355" s="2"/>
     </row>
-    <row r="356" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A356" s="2"/>
       <c r="B356" s="2"/>
       <c r="C356" s="2"/>
@@ -10218,7 +10430,7 @@
       <c r="X356" s="2"/>
       <c r="Y356" s="2"/>
     </row>
-    <row r="357" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A357" s="2"/>
       <c r="B357" s="2"/>
       <c r="C357" s="2"/>
@@ -10245,7 +10457,7 @@
       <c r="X357" s="2"/>
       <c r="Y357" s="2"/>
     </row>
-    <row r="358" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A358" s="2"/>
       <c r="B358" s="2"/>
       <c r="C358" s="2"/>
@@ -10272,7 +10484,7 @@
       <c r="X358" s="2"/>
       <c r="Y358" s="2"/>
     </row>
-    <row r="359" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A359" s="2"/>
       <c r="B359" s="2"/>
       <c r="C359" s="2"/>
@@ -10299,7 +10511,7 @@
       <c r="X359" s="2"/>
       <c r="Y359" s="2"/>
     </row>
-    <row r="360" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A360" s="2"/>
       <c r="B360" s="2"/>
       <c r="C360" s="2"/>
@@ -10326,7 +10538,7 @@
       <c r="X360" s="2"/>
       <c r="Y360" s="2"/>
     </row>
-    <row r="361" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A361" s="2"/>
       <c r="B361" s="2"/>
       <c r="C361" s="2"/>
@@ -10353,7 +10565,7 @@
       <c r="X361" s="2"/>
       <c r="Y361" s="2"/>
     </row>
-    <row r="362" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A362" s="2"/>
       <c r="B362" s="2"/>
       <c r="C362" s="2"/>
@@ -10380,7 +10592,7 @@
       <c r="X362" s="2"/>
       <c r="Y362" s="2"/>
     </row>
-    <row r="363" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A363" s="2"/>
       <c r="B363" s="2"/>
       <c r="C363" s="2"/>
@@ -10407,7 +10619,7 @@
       <c r="X363" s="2"/>
       <c r="Y363" s="2"/>
     </row>
-    <row r="364" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A364" s="2"/>
       <c r="B364" s="2"/>
       <c r="C364" s="2"/>
@@ -10434,7 +10646,7 @@
       <c r="X364" s="2"/>
       <c r="Y364" s="2"/>
     </row>
-    <row r="365" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A365" s="2"/>
       <c r="B365" s="2"/>
       <c r="C365" s="2"/>
@@ -10461,7 +10673,7 @@
       <c r="X365" s="2"/>
       <c r="Y365" s="2"/>
     </row>
-    <row r="366" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A366" s="2"/>
       <c r="B366" s="2"/>
       <c r="C366" s="2"/>
@@ -10488,7 +10700,7 @@
       <c r="X366" s="2"/>
       <c r="Y366" s="2"/>
     </row>
-    <row r="367" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A367" s="2"/>
       <c r="B367" s="2"/>
       <c r="C367" s="2"/>
@@ -10515,7 +10727,7 @@
       <c r="X367" s="2"/>
       <c r="Y367" s="2"/>
     </row>
-    <row r="368" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A368" s="2"/>
       <c r="B368" s="2"/>
       <c r="C368" s="2"/>
@@ -10542,7 +10754,7 @@
       <c r="X368" s="2"/>
       <c r="Y368" s="2"/>
     </row>
-    <row r="369" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A369" s="2"/>
       <c r="B369" s="2"/>
       <c r="C369" s="2"/>
@@ -10569,7 +10781,7 @@
       <c r="X369" s="2"/>
       <c r="Y369" s="2"/>
     </row>
-    <row r="370" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A370" s="2"/>
       <c r="B370" s="2"/>
       <c r="C370" s="2"/>
@@ -10596,7 +10808,7 @@
       <c r="X370" s="2"/>
       <c r="Y370" s="2"/>
     </row>
-    <row r="371" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A371" s="2"/>
       <c r="B371" s="2"/>
       <c r="C371" s="2"/>
@@ -10623,7 +10835,7 @@
       <c r="X371" s="2"/>
       <c r="Y371" s="2"/>
     </row>
-    <row r="372" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A372" s="2"/>
       <c r="B372" s="2"/>
       <c r="C372" s="2"/>
@@ -10650,7 +10862,7 @@
       <c r="X372" s="2"/>
       <c r="Y372" s="2"/>
     </row>
-    <row r="373" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A373" s="2"/>
       <c r="B373" s="2"/>
       <c r="C373" s="2"/>
@@ -10677,7 +10889,7 @@
       <c r="X373" s="2"/>
       <c r="Y373" s="2"/>
     </row>
-    <row r="374" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A374" s="2"/>
       <c r="B374" s="2"/>
       <c r="C374" s="2"/>
@@ -10704,7 +10916,7 @@
       <c r="X374" s="2"/>
       <c r="Y374" s="2"/>
     </row>
-    <row r="375" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A375" s="2"/>
       <c r="B375" s="2"/>
       <c r="C375" s="2"/>
@@ -10731,7 +10943,7 @@
       <c r="X375" s="2"/>
       <c r="Y375" s="2"/>
     </row>
-    <row r="376" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A376" s="2"/>
       <c r="B376" s="2"/>
       <c r="C376" s="2"/>
@@ -10758,7 +10970,7 @@
       <c r="X376" s="2"/>
       <c r="Y376" s="2"/>
     </row>
-    <row r="377" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A377" s="2"/>
       <c r="B377" s="2"/>
       <c r="C377" s="2"/>
@@ -10785,7 +10997,7 @@
       <c r="X377" s="2"/>
       <c r="Y377" s="2"/>
     </row>
-    <row r="378" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A378" s="2"/>
       <c r="B378" s="2"/>
       <c r="C378" s="2"/>
@@ -10812,7 +11024,7 @@
       <c r="X378" s="2"/>
       <c r="Y378" s="2"/>
     </row>
-    <row r="379" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A379" s="2"/>
       <c r="B379" s="2"/>
       <c r="C379" s="2"/>
@@ -10839,7 +11051,7 @@
       <c r="X379" s="2"/>
       <c r="Y379" s="2"/>
     </row>
-    <row r="380" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A380" s="2"/>
       <c r="B380" s="2"/>
       <c r="C380" s="2"/>
@@ -10866,7 +11078,7 @@
       <c r="X380" s="2"/>
       <c r="Y380" s="2"/>
     </row>
-    <row r="381" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A381" s="2"/>
       <c r="B381" s="2"/>
       <c r="C381" s="2"/>
@@ -10893,7 +11105,7 @@
       <c r="X381" s="2"/>
       <c r="Y381" s="2"/>
     </row>
-    <row r="382" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A382" s="2"/>
       <c r="B382" s="2"/>
       <c r="C382" s="2"/>
@@ -10920,7 +11132,7 @@
       <c r="X382" s="2"/>
       <c r="Y382" s="2"/>
     </row>
-    <row r="383" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A383" s="2"/>
       <c r="B383" s="2"/>
       <c r="C383" s="2"/>
@@ -10947,7 +11159,7 @@
       <c r="X383" s="2"/>
       <c r="Y383" s="2"/>
     </row>
-    <row r="384" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A384" s="2"/>
       <c r="B384" s="2"/>
       <c r="C384" s="2"/>
@@ -10974,7 +11186,7 @@
       <c r="X384" s="2"/>
       <c r="Y384" s="2"/>
     </row>
-    <row r="385" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A385" s="2"/>
       <c r="B385" s="2"/>
       <c r="C385" s="2"/>
@@ -11001,7 +11213,7 @@
       <c r="X385" s="2"/>
       <c r="Y385" s="2"/>
     </row>
-    <row r="386" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A386" s="2"/>
       <c r="B386" s="2"/>
       <c r="C386" s="2"/>
@@ -11028,7 +11240,7 @@
       <c r="X386" s="2"/>
       <c r="Y386" s="2"/>
     </row>
-    <row r="387" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A387" s="2"/>
       <c r="B387" s="2"/>
       <c r="C387" s="2"/>
@@ -11055,7 +11267,7 @@
       <c r="X387" s="2"/>
       <c r="Y387" s="2"/>
     </row>
-    <row r="388" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A388" s="2"/>
       <c r="B388" s="2"/>
       <c r="C388" s="2"/>
@@ -11082,7 +11294,7 @@
       <c r="X388" s="2"/>
       <c r="Y388" s="2"/>
     </row>
-    <row r="389" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A389" s="2"/>
       <c r="B389" s="2"/>
       <c r="C389" s="2"/>
@@ -11109,7 +11321,7 @@
       <c r="X389" s="2"/>
       <c r="Y389" s="2"/>
     </row>
-    <row r="390" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A390" s="2"/>
       <c r="B390" s="2"/>
       <c r="C390" s="2"/>
@@ -11136,7 +11348,7 @@
       <c r="X390" s="2"/>
       <c r="Y390" s="2"/>
     </row>
-    <row r="391" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A391" s="2"/>
       <c r="B391" s="2"/>
       <c r="C391" s="2"/>
@@ -11163,7 +11375,7 @@
       <c r="X391" s="2"/>
       <c r="Y391" s="2"/>
     </row>
-    <row r="392" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A392" s="2"/>
       <c r="B392" s="2"/>
       <c r="C392" s="2"/>
@@ -11190,7 +11402,7 @@
       <c r="X392" s="2"/>
       <c r="Y392" s="2"/>
     </row>
-    <row r="393" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A393" s="2"/>
       <c r="B393" s="2"/>
       <c r="C393" s="2"/>
@@ -11217,7 +11429,7 @@
       <c r="X393" s="2"/>
       <c r="Y393" s="2"/>
     </row>
-    <row r="394" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A394" s="2"/>
       <c r="B394" s="2"/>
       <c r="C394" s="2"/>
@@ -11244,7 +11456,7 @@
       <c r="X394" s="2"/>
       <c r="Y394" s="2"/>
     </row>
-    <row r="395" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A395" s="2"/>
       <c r="B395" s="2"/>
       <c r="C395" s="2"/>
@@ -11271,7 +11483,7 @@
       <c r="X395" s="2"/>
       <c r="Y395" s="2"/>
     </row>
-    <row r="396" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A396" s="2"/>
       <c r="B396" s="2"/>
       <c r="C396" s="2"/>
@@ -11298,7 +11510,7 @@
       <c r="X396" s="2"/>
       <c r="Y396" s="2"/>
     </row>
-    <row r="397" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A397" s="2"/>
       <c r="B397" s="2"/>
       <c r="C397" s="2"/>
@@ -11325,7 +11537,7 @@
       <c r="X397" s="2"/>
       <c r="Y397" s="2"/>
     </row>
-    <row r="398" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A398" s="2"/>
       <c r="B398" s="2"/>
       <c r="C398" s="2"/>
@@ -11352,7 +11564,7 @@
       <c r="X398" s="2"/>
       <c r="Y398" s="2"/>
     </row>
-    <row r="399" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A399" s="2"/>
       <c r="B399" s="2"/>
       <c r="C399" s="2"/>
@@ -11379,7 +11591,7 @@
       <c r="X399" s="2"/>
       <c r="Y399" s="2"/>
     </row>
-    <row r="400" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A400" s="2"/>
       <c r="B400" s="2"/>
       <c r="C400" s="2"/>
@@ -11406,7 +11618,7 @@
       <c r="X400" s="2"/>
       <c r="Y400" s="2"/>
     </row>
-    <row r="401" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A401" s="2"/>
       <c r="B401" s="2"/>
       <c r="C401" s="2"/>
@@ -11433,7 +11645,7 @@
       <c r="X401" s="2"/>
       <c r="Y401" s="2"/>
     </row>
-    <row r="402" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A402" s="2"/>
       <c r="B402" s="2"/>
       <c r="C402" s="2"/>
@@ -11460,7 +11672,7 @@
       <c r="X402" s="2"/>
       <c r="Y402" s="2"/>
     </row>
-    <row r="403" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A403" s="2"/>
       <c r="B403" s="2"/>
       <c r="C403" s="2"/>
@@ -11487,7 +11699,7 @@
       <c r="X403" s="2"/>
       <c r="Y403" s="2"/>
     </row>
-    <row r="404" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A404" s="2"/>
       <c r="B404" s="2"/>
       <c r="C404" s="2"/>
@@ -11514,7 +11726,7 @@
       <c r="X404" s="2"/>
       <c r="Y404" s="2"/>
     </row>
-    <row r="405" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A405" s="2"/>
       <c r="B405" s="2"/>
       <c r="C405" s="2"/>
@@ -11541,7 +11753,7 @@
       <c r="X405" s="2"/>
       <c r="Y405" s="2"/>
     </row>
-    <row r="406" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A406" s="2"/>
       <c r="B406" s="2"/>
       <c r="C406" s="2"/>
@@ -11568,7 +11780,7 @@
       <c r="X406" s="2"/>
       <c r="Y406" s="2"/>
     </row>
-    <row r="407" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A407" s="2"/>
       <c r="B407" s="2"/>
       <c r="C407" s="2"/>
@@ -11595,7 +11807,7 @@
       <c r="X407" s="2"/>
       <c r="Y407" s="2"/>
     </row>
-    <row r="408" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A408" s="2"/>
       <c r="B408" s="2"/>
       <c r="C408" s="2"/>
@@ -11622,7 +11834,7 @@
       <c r="X408" s="2"/>
       <c r="Y408" s="2"/>
     </row>
-    <row r="409" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A409" s="2"/>
       <c r="B409" s="2"/>
       <c r="C409" s="2"/>
@@ -11649,7 +11861,7 @@
       <c r="X409" s="2"/>
       <c r="Y409" s="2"/>
     </row>
-    <row r="410" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A410" s="2"/>
       <c r="B410" s="2"/>
       <c r="C410" s="2"/>
@@ -11676,7 +11888,7 @@
       <c r="X410" s="2"/>
       <c r="Y410" s="2"/>
     </row>
-    <row r="411" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A411" s="2"/>
       <c r="B411" s="2"/>
       <c r="C411" s="2"/>
@@ -11703,7 +11915,7 @@
       <c r="X411" s="2"/>
       <c r="Y411" s="2"/>
     </row>
-    <row r="412" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A412" s="2"/>
       <c r="B412" s="2"/>
       <c r="C412" s="2"/>
@@ -11730,7 +11942,7 @@
       <c r="X412" s="2"/>
       <c r="Y412" s="2"/>
     </row>
-    <row r="413" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A413" s="2"/>
       <c r="B413" s="2"/>
       <c r="C413" s="2"/>
@@ -11757,7 +11969,7 @@
       <c r="X413" s="2"/>
       <c r="Y413" s="2"/>
     </row>
-    <row r="414" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A414" s="2"/>
       <c r="B414" s="2"/>
       <c r="C414" s="2"/>
@@ -11784,7 +11996,7 @@
       <c r="X414" s="2"/>
       <c r="Y414" s="2"/>
     </row>
-    <row r="415" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A415" s="2"/>
       <c r="B415" s="2"/>
       <c r="C415" s="2"/>
@@ -11811,7 +12023,7 @@
       <c r="X415" s="2"/>
       <c r="Y415" s="2"/>
     </row>
-    <row r="416" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A416" s="2"/>
       <c r="B416" s="2"/>
       <c r="C416" s="2"/>
@@ -11838,7 +12050,7 @@
       <c r="X416" s="2"/>
       <c r="Y416" s="2"/>
     </row>
-    <row r="417" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A417" s="2"/>
       <c r="B417" s="2"/>
       <c r="C417" s="2"/>
@@ -11865,7 +12077,7 @@
       <c r="X417" s="2"/>
       <c r="Y417" s="2"/>
     </row>
-    <row r="418" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A418" s="2"/>
       <c r="B418" s="2"/>
       <c r="C418" s="2"/>
@@ -11892,7 +12104,7 @@
       <c r="X418" s="2"/>
       <c r="Y418" s="2"/>
     </row>
-    <row r="419" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A419" s="2"/>
       <c r="B419" s="2"/>
       <c r="C419" s="2"/>
@@ -11919,7 +12131,7 @@
       <c r="X419" s="2"/>
       <c r="Y419" s="2"/>
     </row>
-    <row r="420" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A420" s="2"/>
       <c r="B420" s="2"/>
       <c r="C420" s="2"/>
@@ -11946,7 +12158,7 @@
       <c r="X420" s="2"/>
       <c r="Y420" s="2"/>
     </row>
-    <row r="421" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A421" s="2"/>
       <c r="B421" s="2"/>
       <c r="C421" s="2"/>
@@ -11973,7 +12185,7 @@
       <c r="X421" s="2"/>
       <c r="Y421" s="2"/>
     </row>
-    <row r="422" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A422" s="2"/>
       <c r="B422" s="2"/>
       <c r="C422" s="2"/>
@@ -12000,7 +12212,7 @@
       <c r="X422" s="2"/>
       <c r="Y422" s="2"/>
     </row>
-    <row r="423" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A423" s="2"/>
       <c r="B423" s="2"/>
       <c r="C423" s="2"/>
@@ -12027,7 +12239,7 @@
       <c r="X423" s="2"/>
       <c r="Y423" s="2"/>
     </row>
-    <row r="424" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A424" s="2"/>
       <c r="B424" s="2"/>
       <c r="C424" s="2"/>
@@ -12054,7 +12266,7 @@
       <c r="X424" s="2"/>
       <c r="Y424" s="2"/>
     </row>
-    <row r="425" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A425" s="2"/>
       <c r="B425" s="2"/>
       <c r="C425" s="2"/>
@@ -12081,7 +12293,7 @@
       <c r="X425" s="2"/>
       <c r="Y425" s="2"/>
     </row>
-    <row r="426" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A426" s="2"/>
       <c r="B426" s="2"/>
       <c r="C426" s="2"/>
@@ -12108,7 +12320,7 @@
       <c r="X426" s="2"/>
       <c r="Y426" s="2"/>
     </row>
-    <row r="427" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A427" s="2"/>
       <c r="B427" s="2"/>
       <c r="C427" s="2"/>
@@ -12135,7 +12347,7 @@
       <c r="X427" s="2"/>
       <c r="Y427" s="2"/>
     </row>
-    <row r="428" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A428" s="2"/>
       <c r="B428" s="2"/>
       <c r="C428" s="2"/>
@@ -12162,7 +12374,7 @@
       <c r="X428" s="2"/>
       <c r="Y428" s="2"/>
     </row>
-    <row r="429" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A429" s="2"/>
       <c r="B429" s="2"/>
       <c r="C429" s="2"/>
@@ -12189,7 +12401,7 @@
       <c r="X429" s="2"/>
       <c r="Y429" s="2"/>
     </row>
-    <row r="430" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A430" s="2"/>
       <c r="B430" s="2"/>
       <c r="C430" s="2"/>
@@ -12216,7 +12428,7 @@
       <c r="X430" s="2"/>
       <c r="Y430" s="2"/>
     </row>
-    <row r="431" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A431" s="2"/>
       <c r="B431" s="2"/>
       <c r="C431" s="2"/>
@@ -12243,7 +12455,7 @@
       <c r="X431" s="2"/>
       <c r="Y431" s="2"/>
     </row>
-    <row r="432" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A432" s="2"/>
       <c r="B432" s="2"/>
       <c r="C432" s="2"/>
@@ -12270,7 +12482,7 @@
       <c r="X432" s="2"/>
       <c r="Y432" s="2"/>
     </row>
-    <row r="433" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A433" s="2"/>
       <c r="B433" s="2"/>
       <c r="C433" s="2"/>
@@ -12297,7 +12509,7 @@
       <c r="X433" s="2"/>
       <c r="Y433" s="2"/>
     </row>
-    <row r="434" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A434" s="2"/>
       <c r="B434" s="2"/>
       <c r="C434" s="2"/>
@@ -12324,7 +12536,7 @@
       <c r="X434" s="2"/>
       <c r="Y434" s="2"/>
     </row>
-    <row r="435" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A435" s="2"/>
       <c r="B435" s="2"/>
       <c r="C435" s="2"/>
@@ -12351,7 +12563,7 @@
       <c r="X435" s="2"/>
       <c r="Y435" s="2"/>
     </row>
-    <row r="436" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A436" s="2"/>
       <c r="B436" s="2"/>
       <c r="C436" s="2"/>
@@ -12378,7 +12590,7 @@
       <c r="X436" s="2"/>
       <c r="Y436" s="2"/>
     </row>
-    <row r="437" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A437" s="2"/>
       <c r="B437" s="2"/>
       <c r="C437" s="2"/>
@@ -12405,7 +12617,7 @@
       <c r="X437" s="2"/>
       <c r="Y437" s="2"/>
     </row>
-    <row r="438" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A438" s="2"/>
       <c r="B438" s="2"/>
       <c r="C438" s="2"/>
@@ -12432,7 +12644,7 @@
       <c r="X438" s="2"/>
       <c r="Y438" s="2"/>
     </row>
-    <row r="439" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A439" s="2"/>
       <c r="B439" s="2"/>
       <c r="C439" s="2"/>
@@ -12459,7 +12671,7 @@
       <c r="X439" s="2"/>
       <c r="Y439" s="2"/>
     </row>
-    <row r="440" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A440" s="2"/>
       <c r="B440" s="2"/>
       <c r="C440" s="2"/>
@@ -12486,7 +12698,7 @@
       <c r="X440" s="2"/>
       <c r="Y440" s="2"/>
     </row>
-    <row r="441" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A441" s="2"/>
       <c r="B441" s="2"/>
       <c r="C441" s="2"/>
@@ -12513,7 +12725,7 @@
       <c r="X441" s="2"/>
       <c r="Y441" s="2"/>
     </row>
-    <row r="442" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A442" s="2"/>
       <c r="B442" s="2"/>
       <c r="C442" s="2"/>
@@ -12540,7 +12752,7 @@
       <c r="X442" s="2"/>
       <c r="Y442" s="2"/>
     </row>
-    <row r="443" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A443" s="2"/>
       <c r="B443" s="2"/>
       <c r="C443" s="2"/>
@@ -12567,7 +12779,7 @@
       <c r="X443" s="2"/>
       <c r="Y443" s="2"/>
     </row>
-    <row r="444" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A444" s="2"/>
       <c r="B444" s="2"/>
       <c r="C444" s="2"/>
@@ -12594,7 +12806,7 @@
       <c r="X444" s="2"/>
       <c r="Y444" s="2"/>
     </row>
-    <row r="445" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A445" s="2"/>
       <c r="B445" s="2"/>
       <c r="C445" s="2"/>
@@ -12621,7 +12833,7 @@
       <c r="X445" s="2"/>
       <c r="Y445" s="2"/>
     </row>
-    <row r="446" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A446" s="2"/>
       <c r="B446" s="2"/>
       <c r="C446" s="2"/>
@@ -12648,7 +12860,7 @@
       <c r="X446" s="2"/>
       <c r="Y446" s="2"/>
     </row>
-    <row r="447" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A447" s="2"/>
       <c r="B447" s="2"/>
       <c r="C447" s="2"/>
@@ -12675,7 +12887,7 @@
       <c r="X447" s="2"/>
       <c r="Y447" s="2"/>
     </row>
-    <row r="448" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A448" s="2"/>
       <c r="B448" s="2"/>
       <c r="C448" s="2"/>
@@ -12702,7 +12914,7 @@
       <c r="X448" s="2"/>
       <c r="Y448" s="2"/>
     </row>
-    <row r="449" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A449" s="2"/>
       <c r="B449" s="2"/>
       <c r="C449" s="2"/>
@@ -12729,7 +12941,7 @@
       <c r="X449" s="2"/>
       <c r="Y449" s="2"/>
     </row>
-    <row r="450" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A450" s="2"/>
       <c r="B450" s="2"/>
       <c r="C450" s="2"/>
@@ -12756,7 +12968,7 @@
       <c r="X450" s="2"/>
       <c r="Y450" s="2"/>
     </row>
-    <row r="451" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A451" s="2"/>
       <c r="B451" s="2"/>
       <c r="C451" s="2"/>
@@ -12783,7 +12995,7 @@
       <c r="X451" s="2"/>
       <c r="Y451" s="2"/>
     </row>
-    <row r="452" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A452" s="2"/>
       <c r="B452" s="2"/>
       <c r="C452" s="2"/>
@@ -12810,7 +13022,7 @@
       <c r="X452" s="2"/>
       <c r="Y452" s="2"/>
     </row>
-    <row r="453" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A453" s="2"/>
       <c r="B453" s="2"/>
       <c r="C453" s="2"/>
@@ -12837,7 +13049,7 @@
       <c r="X453" s="2"/>
       <c r="Y453" s="2"/>
     </row>
-    <row r="454" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A454" s="2"/>
       <c r="B454" s="2"/>
       <c r="C454" s="2"/>
@@ -12864,7 +13076,7 @@
       <c r="X454" s="2"/>
       <c r="Y454" s="2"/>
     </row>
-    <row r="455" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A455" s="2"/>
       <c r="B455" s="2"/>
       <c r="C455" s="2"/>
@@ -12891,7 +13103,7 @@
       <c r="X455" s="2"/>
       <c r="Y455" s="2"/>
     </row>
-    <row r="456" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A456" s="2"/>
       <c r="B456" s="2"/>
       <c r="C456" s="2"/>
@@ -12918,7 +13130,7 @@
       <c r="X456" s="2"/>
       <c r="Y456" s="2"/>
     </row>
-    <row r="457" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A457" s="2"/>
       <c r="B457" s="2"/>
       <c r="C457" s="2"/>
@@ -12945,7 +13157,7 @@
       <c r="X457" s="2"/>
       <c r="Y457" s="2"/>
     </row>
-    <row r="458" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A458" s="2"/>
       <c r="B458" s="2"/>
       <c r="C458" s="2"/>
@@ -12972,7 +13184,7 @@
       <c r="X458" s="2"/>
       <c r="Y458" s="2"/>
     </row>
-    <row r="459" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A459" s="2"/>
       <c r="B459" s="2"/>
       <c r="C459" s="2"/>
@@ -12999,7 +13211,7 @@
       <c r="X459" s="2"/>
       <c r="Y459" s="2"/>
     </row>
-    <row r="460" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A460" s="2"/>
       <c r="B460" s="2"/>
       <c r="C460" s="2"/>
@@ -13026,7 +13238,7 @@
       <c r="X460" s="2"/>
       <c r="Y460" s="2"/>
     </row>
-    <row r="461" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A461" s="2"/>
       <c r="B461" s="2"/>
       <c r="C461" s="2"/>
@@ -13053,7 +13265,7 @@
       <c r="X461" s="2"/>
       <c r="Y461" s="2"/>
     </row>
-    <row r="462" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A462" s="2"/>
       <c r="B462" s="2"/>
       <c r="C462" s="2"/>
@@ -13080,7 +13292,7 @@
       <c r="X462" s="2"/>
       <c r="Y462" s="2"/>
     </row>
-    <row r="463" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A463" s="2"/>
       <c r="B463" s="2"/>
       <c r="C463" s="2"/>
@@ -13107,7 +13319,7 @@
       <c r="X463" s="2"/>
       <c r="Y463" s="2"/>
     </row>
-    <row r="464" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A464" s="2"/>
       <c r="B464" s="2"/>
       <c r="C464" s="2"/>
@@ -13134,7 +13346,7 @@
       <c r="X464" s="2"/>
       <c r="Y464" s="2"/>
     </row>
-    <row r="465" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A465" s="2"/>
       <c r="B465" s="2"/>
       <c r="C465" s="2"/>
@@ -13161,7 +13373,7 @@
       <c r="X465" s="2"/>
       <c r="Y465" s="2"/>
     </row>
-    <row r="466" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A466" s="2"/>
       <c r="B466" s="2"/>
       <c r="C466" s="2"/>
@@ -13188,7 +13400,7 @@
       <c r="X466" s="2"/>
       <c r="Y466" s="2"/>
     </row>
-    <row r="467" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A467" s="2"/>
       <c r="B467" s="2"/>
       <c r="C467" s="2"/>
@@ -13215,7 +13427,7 @@
       <c r="X467" s="2"/>
       <c r="Y467" s="2"/>
     </row>
-    <row r="468" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A468" s="2"/>
       <c r="B468" s="2"/>
       <c r="C468" s="2"/>
@@ -13242,7 +13454,7 @@
       <c r="X468" s="2"/>
       <c r="Y468" s="2"/>
     </row>
-    <row r="469" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A469" s="2"/>
       <c r="B469" s="2"/>
       <c r="C469" s="2"/>
@@ -13269,7 +13481,7 @@
       <c r="X469" s="2"/>
       <c r="Y469" s="2"/>
     </row>
-    <row r="470" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A470" s="2"/>
       <c r="B470" s="2"/>
       <c r="C470" s="2"/>
@@ -13296,7 +13508,7 @@
       <c r="X470" s="2"/>
       <c r="Y470" s="2"/>
     </row>
-    <row r="471" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A471" s="2"/>
       <c r="B471" s="2"/>
       <c r="C471" s="2"/>
@@ -13323,7 +13535,7 @@
       <c r="X471" s="2"/>
       <c r="Y471" s="2"/>
     </row>
-    <row r="472" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A472" s="2"/>
       <c r="B472" s="2"/>
       <c r="C472" s="2"/>
@@ -13350,7 +13562,7 @@
       <c r="X472" s="2"/>
       <c r="Y472" s="2"/>
     </row>
-    <row r="473" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A473" s="2"/>
       <c r="B473" s="2"/>
       <c r="C473" s="2"/>
@@ -13377,7 +13589,7 @@
       <c r="X473" s="2"/>
       <c r="Y473" s="2"/>
     </row>
-    <row r="474" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A474" s="2"/>
       <c r="B474" s="2"/>
       <c r="C474" s="2"/>
@@ -13404,7 +13616,7 @@
       <c r="X474" s="2"/>
       <c r="Y474" s="2"/>
     </row>
-    <row r="475" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A475" s="2"/>
       <c r="B475" s="2"/>
       <c r="C475" s="2"/>
@@ -13431,7 +13643,7 @@
       <c r="X475" s="2"/>
       <c r="Y475" s="2"/>
     </row>
-    <row r="476" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A476" s="2"/>
       <c r="B476" s="2"/>
       <c r="C476" s="2"/>
@@ -13458,7 +13670,7 @@
       <c r="X476" s="2"/>
       <c r="Y476" s="2"/>
     </row>
-    <row r="477" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A477" s="2"/>
       <c r="B477" s="2"/>
       <c r="C477" s="2"/>
@@ -13485,7 +13697,7 @@
       <c r="X477" s="2"/>
       <c r="Y477" s="2"/>
     </row>
-    <row r="478" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A478" s="2"/>
       <c r="B478" s="2"/>
       <c r="C478" s="2"/>
@@ -13512,7 +13724,7 @@
       <c r="X478" s="2"/>
       <c r="Y478" s="2"/>
     </row>
-    <row r="479" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A479" s="2"/>
       <c r="B479" s="2"/>
       <c r="C479" s="2"/>
@@ -13539,7 +13751,7 @@
       <c r="X479" s="2"/>
       <c r="Y479" s="2"/>
     </row>
-    <row r="480" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A480" s="2"/>
       <c r="B480" s="2"/>
       <c r="C480" s="2"/>
@@ -13566,7 +13778,7 @@
       <c r="X480" s="2"/>
       <c r="Y480" s="2"/>
     </row>
-    <row r="481" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A481" s="2"/>
       <c r="B481" s="2"/>
       <c r="C481" s="2"/>
@@ -13593,7 +13805,7 @@
       <c r="X481" s="2"/>
       <c r="Y481" s="2"/>
     </row>
-    <row r="482" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A482" s="2"/>
       <c r="B482" s="2"/>
       <c r="C482" s="2"/>
@@ -13620,7 +13832,7 @@
       <c r="X482" s="2"/>
       <c r="Y482" s="2"/>
     </row>
-    <row r="483" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A483" s="2"/>
       <c r="B483" s="2"/>
       <c r="C483" s="2"/>
@@ -13647,7 +13859,7 @@
       <c r="X483" s="2"/>
       <c r="Y483" s="2"/>
     </row>
-    <row r="484" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A484" s="2"/>
       <c r="B484" s="2"/>
       <c r="C484" s="2"/>
@@ -13674,7 +13886,7 @@
       <c r="X484" s="2"/>
       <c r="Y484" s="2"/>
     </row>
-    <row r="485" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A485" s="2"/>
       <c r="B485" s="2"/>
       <c r="C485" s="2"/>
@@ -13701,7 +13913,7 @@
       <c r="X485" s="2"/>
       <c r="Y485" s="2"/>
     </row>
-    <row r="486" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A486" s="2"/>
       <c r="B486" s="2"/>
       <c r="C486" s="2"/>
@@ -13728,7 +13940,7 @@
       <c r="X486" s="2"/>
       <c r="Y486" s="2"/>
     </row>
-    <row r="487" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A487" s="2"/>
       <c r="B487" s="2"/>
       <c r="C487" s="2"/>
@@ -13755,7 +13967,7 @@
       <c r="X487" s="2"/>
       <c r="Y487" s="2"/>
     </row>
-    <row r="488" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A488" s="2"/>
       <c r="B488" s="2"/>
       <c r="C488" s="2"/>
@@ -13782,7 +13994,7 @@
       <c r="X488" s="2"/>
       <c r="Y488" s="2"/>
     </row>
-    <row r="489" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A489" s="2"/>
       <c r="B489" s="2"/>
       <c r="C489" s="2"/>
@@ -13809,7 +14021,7 @@
       <c r="X489" s="2"/>
       <c r="Y489" s="2"/>
     </row>
-    <row r="490" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A490" s="2"/>
       <c r="B490" s="2"/>
       <c r="C490" s="2"/>
@@ -13836,7 +14048,7 @@
       <c r="X490" s="2"/>
       <c r="Y490" s="2"/>
     </row>
-    <row r="491" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A491" s="2"/>
       <c r="B491" s="2"/>
       <c r="C491" s="2"/>
@@ -13863,7 +14075,7 @@
       <c r="X491" s="2"/>
       <c r="Y491" s="2"/>
     </row>
-    <row r="492" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A492" s="2"/>
       <c r="B492" s="2"/>
       <c r="C492" s="2"/>
@@ -13890,7 +14102,7 @@
       <c r="X492" s="2"/>
       <c r="Y492" s="2"/>
     </row>
-    <row r="493" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A493" s="2"/>
       <c r="B493" s="2"/>
       <c r="C493" s="2"/>
@@ -13917,7 +14129,7 @@
       <c r="X493" s="2"/>
       <c r="Y493" s="2"/>
     </row>
-    <row r="494" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A494" s="2"/>
       <c r="B494" s="2"/>
       <c r="C494" s="2"/>
@@ -13944,7 +14156,7 @@
       <c r="X494" s="2"/>
       <c r="Y494" s="2"/>
     </row>
-    <row r="495" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A495" s="2"/>
       <c r="B495" s="2"/>
       <c r="C495" s="2"/>
@@ -13971,7 +14183,7 @@
       <c r="X495" s="2"/>
       <c r="Y495" s="2"/>
     </row>
-    <row r="496" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A496" s="2"/>
       <c r="B496" s="2"/>
       <c r="C496" s="2"/>
@@ -13998,7 +14210,7 @@
       <c r="X496" s="2"/>
       <c r="Y496" s="2"/>
     </row>
-    <row r="497" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A497" s="2"/>
       <c r="B497" s="2"/>
       <c r="C497" s="2"/>
@@ -14025,7 +14237,7 @@
       <c r="X497" s="2"/>
       <c r="Y497" s="2"/>
     </row>
-    <row r="498" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A498" s="2"/>
       <c r="B498" s="2"/>
       <c r="C498" s="2"/>
@@ -14052,7 +14264,7 @@
       <c r="X498" s="2"/>
       <c r="Y498" s="2"/>
     </row>
-    <row r="499" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A499" s="2"/>
       <c r="B499" s="2"/>
       <c r="C499" s="2"/>
@@ -14079,7 +14291,7 @@
       <c r="X499" s="2"/>
       <c r="Y499" s="2"/>
     </row>
-    <row r="500" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A500" s="2"/>
       <c r="B500" s="2"/>
       <c r="C500" s="2"/>
@@ -14106,7 +14318,7 @@
       <c r="X500" s="2"/>
       <c r="Y500" s="2"/>
     </row>
-    <row r="501" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A501" s="2"/>
       <c r="B501" s="2"/>
       <c r="C501" s="2"/>
@@ -14133,7 +14345,7 @@
       <c r="X501" s="2"/>
       <c r="Y501" s="2"/>
     </row>
-    <row r="502" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A502" s="2"/>
       <c r="B502" s="2"/>
       <c r="C502" s="2"/>
@@ -14160,7 +14372,7 @@
       <c r="X502" s="2"/>
       <c r="Y502" s="2"/>
     </row>
-    <row r="503" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A503" s="2"/>
       <c r="B503" s="2"/>
       <c r="C503" s="2"/>
@@ -14187,7 +14399,7 @@
       <c r="X503" s="2"/>
       <c r="Y503" s="2"/>
     </row>
-    <row r="504" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A504" s="2"/>
       <c r="B504" s="2"/>
       <c r="C504" s="2"/>
@@ -14214,7 +14426,7 @@
       <c r="X504" s="2"/>
       <c r="Y504" s="2"/>
     </row>
-    <row r="505" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A505" s="2"/>
       <c r="B505" s="2"/>
       <c r="C505" s="2"/>
@@ -14241,7 +14453,7 @@
       <c r="X505" s="2"/>
       <c r="Y505" s="2"/>
     </row>
-    <row r="506" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A506" s="2"/>
       <c r="B506" s="2"/>
       <c r="C506" s="2"/>
@@ -14268,7 +14480,7 @@
       <c r="X506" s="2"/>
       <c r="Y506" s="2"/>
     </row>
-    <row r="507" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A507" s="2"/>
       <c r="B507" s="2"/>
       <c r="C507" s="2"/>
@@ -14295,7 +14507,7 @@
       <c r="X507" s="2"/>
       <c r="Y507" s="2"/>
     </row>
-    <row r="508" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A508" s="2"/>
       <c r="B508" s="2"/>
       <c r="C508" s="2"/>
@@ -14322,7 +14534,7 @@
       <c r="X508" s="2"/>
       <c r="Y508" s="2"/>
     </row>
-    <row r="509" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A509" s="2"/>
       <c r="B509" s="2"/>
       <c r="C509" s="2"/>
@@ -14349,7 +14561,7 @@
       <c r="X509" s="2"/>
       <c r="Y509" s="2"/>
     </row>
-    <row r="510" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A510" s="2"/>
       <c r="B510" s="2"/>
       <c r="C510" s="2"/>
@@ -14376,7 +14588,7 @@
       <c r="X510" s="2"/>
       <c r="Y510" s="2"/>
     </row>
-    <row r="511" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A511" s="2"/>
       <c r="B511" s="2"/>
       <c r="C511" s="2"/>
@@ -14403,7 +14615,7 @@
       <c r="X511" s="2"/>
       <c r="Y511" s="2"/>
     </row>
-    <row r="512" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A512" s="2"/>
       <c r="B512" s="2"/>
       <c r="C512" s="2"/>
@@ -14430,7 +14642,7 @@
       <c r="X512" s="2"/>
       <c r="Y512" s="2"/>
     </row>
-    <row r="513" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A513" s="2"/>
       <c r="B513" s="2"/>
       <c r="C513" s="2"/>
@@ -14457,7 +14669,7 @@
       <c r="X513" s="2"/>
       <c r="Y513" s="2"/>
     </row>
-    <row r="514" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A514" s="2"/>
       <c r="B514" s="2"/>
       <c r="C514" s="2"/>
@@ -14484,7 +14696,7 @@
       <c r="X514" s="2"/>
       <c r="Y514" s="2"/>
     </row>
-    <row r="515" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A515" s="2"/>
       <c r="B515" s="2"/>
       <c r="C515" s="2"/>
@@ -14511,7 +14723,7 @@
       <c r="X515" s="2"/>
       <c r="Y515" s="2"/>
     </row>
-    <row r="516" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A516" s="2"/>
       <c r="B516" s="2"/>
       <c r="C516" s="2"/>
@@ -14538,7 +14750,7 @@
       <c r="X516" s="2"/>
       <c r="Y516" s="2"/>
     </row>
-    <row r="517" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A517" s="2"/>
       <c r="B517" s="2"/>
       <c r="C517" s="2"/>
@@ -14565,7 +14777,7 @@
       <c r="X517" s="2"/>
       <c r="Y517" s="2"/>
     </row>
-    <row r="518" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A518" s="2"/>
       <c r="B518" s="2"/>
       <c r="C518" s="2"/>
@@ -14592,7 +14804,7 @@
       <c r="X518" s="2"/>
       <c r="Y518" s="2"/>
     </row>
-    <row r="519" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A519" s="2"/>
       <c r="B519" s="2"/>
       <c r="C519" s="2"/>
@@ -14619,7 +14831,7 @@
       <c r="X519" s="2"/>
       <c r="Y519" s="2"/>
     </row>
-    <row r="520" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A520" s="2"/>
       <c r="B520" s="2"/>
       <c r="C520" s="2"/>
@@ -14646,7 +14858,7 @@
       <c r="X520" s="2"/>
       <c r="Y520" s="2"/>
     </row>
-    <row r="521" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A521" s="2"/>
       <c r="B521" s="2"/>
       <c r="C521" s="2"/>
@@ -14673,7 +14885,7 @@
       <c r="X521" s="2"/>
       <c r="Y521" s="2"/>
     </row>
-    <row r="522" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A522" s="2"/>
       <c r="B522" s="2"/>
       <c r="C522" s="2"/>
@@ -14700,7 +14912,7 @@
       <c r="X522" s="2"/>
       <c r="Y522" s="2"/>
     </row>
-    <row r="523" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A523" s="2"/>
       <c r="B523" s="2"/>
       <c r="C523" s="2"/>
@@ -14727,7 +14939,7 @@
       <c r="X523" s="2"/>
       <c r="Y523" s="2"/>
     </row>
-    <row r="524" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A524" s="2"/>
       <c r="B524" s="2"/>
       <c r="C524" s="2"/>
@@ -14754,7 +14966,7 @@
       <c r="X524" s="2"/>
       <c r="Y524" s="2"/>
     </row>
-    <row r="525" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A525" s="2"/>
       <c r="B525" s="2"/>
       <c r="C525" s="2"/>
@@ -14781,7 +14993,7 @@
       <c r="X525" s="2"/>
       <c r="Y525" s="2"/>
     </row>
-    <row r="526" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A526" s="2"/>
       <c r="B526" s="2"/>
       <c r="C526" s="2"/>
@@ -14808,7 +15020,7 @@
       <c r="X526" s="2"/>
       <c r="Y526" s="2"/>
     </row>
-    <row r="527" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A527" s="2"/>
       <c r="B527" s="2"/>
       <c r="C527" s="2"/>
@@ -14835,7 +15047,7 @@
       <c r="X527" s="2"/>
       <c r="Y527" s="2"/>
     </row>
-    <row r="528" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A528" s="2"/>
       <c r="B528" s="2"/>
       <c r="C528" s="2"/>
@@ -14862,7 +15074,7 @@
       <c r="X528" s="2"/>
       <c r="Y528" s="2"/>
     </row>
-    <row r="529" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A529" s="2"/>
       <c r="B529" s="2"/>
       <c r="C529" s="2"/>
@@ -14889,7 +15101,7 @@
       <c r="X529" s="2"/>
       <c r="Y529" s="2"/>
     </row>
-    <row r="530" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A530" s="2"/>
       <c r="B530" s="2"/>
       <c r="C530" s="2"/>
@@ -14916,7 +15128,7 @@
       <c r="X530" s="2"/>
       <c r="Y530" s="2"/>
     </row>
-    <row r="531" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A531" s="2"/>
       <c r="B531" s="2"/>
       <c r="C531" s="2"/>
@@ -14943,7 +15155,7 @@
       <c r="X531" s="2"/>
       <c r="Y531" s="2"/>
     </row>
-    <row r="532" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A532" s="2"/>
       <c r="B532" s="2"/>
       <c r="C532" s="2"/>
@@ -14970,7 +15182,7 @@
       <c r="X532" s="2"/>
       <c r="Y532" s="2"/>
     </row>
-    <row r="533" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A533" s="2"/>
       <c r="B533" s="2"/>
       <c r="C533" s="2"/>
@@ -14997,7 +15209,7 @@
       <c r="X533" s="2"/>
       <c r="Y533" s="2"/>
     </row>
-    <row r="534" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A534" s="2"/>
       <c r="B534" s="2"/>
       <c r="C534" s="2"/>
@@ -15024,7 +15236,7 @@
       <c r="X534" s="2"/>
       <c r="Y534" s="2"/>
     </row>
-    <row r="535" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A535" s="2"/>
       <c r="B535" s="2"/>
       <c r="C535" s="2"/>
@@ -15051,7 +15263,7 @@
       <c r="X535" s="2"/>
       <c r="Y535" s="2"/>
     </row>
-    <row r="536" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A536" s="2"/>
       <c r="B536" s="2"/>
       <c r="C536" s="2"/>
@@ -15078,7 +15290,7 @@
       <c r="X536" s="2"/>
       <c r="Y536" s="2"/>
     </row>
-    <row r="537" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A537" s="2"/>
       <c r="B537" s="2"/>
       <c r="C537" s="2"/>
@@ -15105,7 +15317,7 @@
       <c r="X537" s="2"/>
       <c r="Y537" s="2"/>
     </row>
-    <row r="538" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A538" s="2"/>
       <c r="B538" s="2"/>
       <c r="C538" s="2"/>
@@ -15132,7 +15344,7 @@
       <c r="X538" s="2"/>
       <c r="Y538" s="2"/>
     </row>
-    <row r="539" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A539" s="2"/>
       <c r="B539" s="2"/>
       <c r="C539" s="2"/>
@@ -15159,7 +15371,7 @@
       <c r="X539" s="2"/>
       <c r="Y539" s="2"/>
     </row>
-    <row r="540" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A540" s="2"/>
       <c r="B540" s="2"/>
       <c r="C540" s="2"/>
@@ -15186,7 +15398,7 @@
       <c r="X540" s="2"/>
       <c r="Y540" s="2"/>
     </row>
-    <row r="541" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A541" s="2"/>
       <c r="B541" s="2"/>
       <c r="C541" s="2"/>
@@ -15213,7 +15425,7 @@
       <c r="X541" s="2"/>
       <c r="Y541" s="2"/>
     </row>
-    <row r="542" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A542" s="2"/>
       <c r="B542" s="2"/>
       <c r="C542" s="2"/>
@@ -15240,7 +15452,7 @@
       <c r="X542" s="2"/>
       <c r="Y542" s="2"/>
     </row>
-    <row r="543" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A543" s="2"/>
       <c r="B543" s="2"/>
       <c r="C543" s="2"/>
@@ -15267,7 +15479,7 @@
       <c r="X543" s="2"/>
       <c r="Y543" s="2"/>
     </row>
-    <row r="544" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A544" s="2"/>
       <c r="B544" s="2"/>
       <c r="C544" s="2"/>
@@ -15294,7 +15506,7 @@
       <c r="X544" s="2"/>
       <c r="Y544" s="2"/>
     </row>
-    <row r="545" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A545" s="2"/>
       <c r="B545" s="2"/>
       <c r="C545" s="2"/>
@@ -15321,7 +15533,7 @@
       <c r="X545" s="2"/>
       <c r="Y545" s="2"/>
     </row>
-    <row r="546" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A546" s="2"/>
       <c r="B546" s="2"/>
       <c r="C546" s="2"/>
@@ -15348,7 +15560,7 @@
       <c r="X546" s="2"/>
       <c r="Y546" s="2"/>
     </row>
-    <row r="547" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A547" s="2"/>
       <c r="B547" s="2"/>
       <c r="C547" s="2"/>
@@ -15375,7 +15587,7 @@
       <c r="X547" s="2"/>
       <c r="Y547" s="2"/>
     </row>
-    <row r="548" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A548" s="2"/>
       <c r="B548" s="2"/>
       <c r="C548" s="2"/>
@@ -15402,7 +15614,7 @@
       <c r="X548" s="2"/>
       <c r="Y548" s="2"/>
     </row>
-    <row r="549" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A549" s="2"/>
       <c r="B549" s="2"/>
       <c r="C549" s="2"/>
@@ -15429,7 +15641,7 @@
       <c r="X549" s="2"/>
       <c r="Y549" s="2"/>
     </row>
-    <row r="550" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A550" s="2"/>
       <c r="B550" s="2"/>
       <c r="C550" s="2"/>
@@ -15456,7 +15668,7 @@
       <c r="X550" s="2"/>
       <c r="Y550" s="2"/>
     </row>
-    <row r="551" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A551" s="2"/>
       <c r="B551" s="2"/>
       <c r="C551" s="2"/>
@@ -15483,7 +15695,7 @@
       <c r="X551" s="2"/>
       <c r="Y551" s="2"/>
     </row>
-    <row r="552" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A552" s="2"/>
       <c r="B552" s="2"/>
       <c r="C552" s="2"/>
@@ -15510,7 +15722,7 @@
       <c r="X552" s="2"/>
       <c r="Y552" s="2"/>
     </row>
-    <row r="553" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A553" s="2"/>
       <c r="B553" s="2"/>
       <c r="C553" s="2"/>
@@ -15537,7 +15749,7 @@
       <c r="X553" s="2"/>
       <c r="Y553" s="2"/>
     </row>
-    <row r="554" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A554" s="2"/>
       <c r="B554" s="2"/>
       <c r="C554" s="2"/>
@@ -15564,7 +15776,7 @@
       <c r="X554" s="2"/>
       <c r="Y554" s="2"/>
     </row>
-    <row r="555" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A555" s="2"/>
       <c r="B555" s="2"/>
       <c r="C555" s="2"/>
@@ -15591,7 +15803,7 @@
       <c r="X555" s="2"/>
       <c r="Y555" s="2"/>
     </row>
-    <row r="556" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A556" s="2"/>
       <c r="B556" s="2"/>
       <c r="C556" s="2"/>
@@ -15618,7 +15830,7 @@
       <c r="X556" s="2"/>
       <c r="Y556" s="2"/>
     </row>
-    <row r="557" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A557" s="2"/>
       <c r="B557" s="2"/>
       <c r="C557" s="2"/>
@@ -15645,7 +15857,7 @@
       <c r="X557" s="2"/>
       <c r="Y557" s="2"/>
     </row>
-    <row r="558" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A558" s="2"/>
       <c r="B558" s="2"/>
       <c r="C558" s="2"/>
@@ -15672,7 +15884,7 @@
       <c r="X558" s="2"/>
       <c r="Y558" s="2"/>
     </row>
-    <row r="559" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A559" s="2"/>
       <c r="B559" s="2"/>
       <c r="C559" s="2"/>
@@ -15699,7 +15911,7 @@
       <c r="X559" s="2"/>
       <c r="Y559" s="2"/>
     </row>
-    <row r="560" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A560" s="2"/>
       <c r="B560" s="2"/>
       <c r="C560" s="2"/>
@@ -15726,7 +15938,7 @@
       <c r="X560" s="2"/>
       <c r="Y560" s="2"/>
     </row>
-    <row r="561" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A561" s="2"/>
       <c r="B561" s="2"/>
       <c r="C561" s="2"/>
@@ -15753,7 +15965,7 @@
       <c r="X561" s="2"/>
       <c r="Y561" s="2"/>
     </row>
-    <row r="562" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A562" s="2"/>
       <c r="B562" s="2"/>
       <c r="C562" s="2"/>
@@ -15780,7 +15992,7 @@
       <c r="X562" s="2"/>
       <c r="Y562" s="2"/>
     </row>
-    <row r="563" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A563" s="2"/>
       <c r="B563" s="2"/>
       <c r="C563" s="2"/>
@@ -15807,7 +16019,7 @@
       <c r="X563" s="2"/>
       <c r="Y563" s="2"/>
     </row>
-    <row r="564" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A564" s="2"/>
       <c r="B564" s="2"/>
       <c r="C564" s="2"/>
@@ -15834,7 +16046,7 @@
       <c r="X564" s="2"/>
       <c r="Y564" s="2"/>
     </row>
-    <row r="565" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A565" s="2"/>
       <c r="B565" s="2"/>
       <c r="C565" s="2"/>
@@ -15861,7 +16073,7 @@
       <c r="X565" s="2"/>
       <c r="Y565" s="2"/>
     </row>
-    <row r="566" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A566" s="2"/>
       <c r="B566" s="2"/>
       <c r="C566" s="2"/>
@@ -15888,7 +16100,7 @@
       <c r="X566" s="2"/>
       <c r="Y566" s="2"/>
     </row>
-    <row r="567" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A567" s="2"/>
       <c r="B567" s="2"/>
       <c r="C567" s="2"/>
@@ -15915,7 +16127,7 @@
       <c r="X567" s="2"/>
       <c r="Y567" s="2"/>
     </row>
-    <row r="568" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A568" s="2"/>
       <c r="B568" s="2"/>
       <c r="C568" s="2"/>
@@ -15942,7 +16154,7 @@
       <c r="X568" s="2"/>
       <c r="Y568" s="2"/>
     </row>
-    <row r="569" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A569" s="2"/>
       <c r="B569" s="2"/>
       <c r="C569" s="2"/>
@@ -15969,7 +16181,7 @@
       <c r="X569" s="2"/>
       <c r="Y569" s="2"/>
     </row>
-    <row r="570" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A570" s="2"/>
       <c r="B570" s="2"/>
       <c r="C570" s="2"/>
@@ -15996,7 +16208,7 @@
       <c r="X570" s="2"/>
       <c r="Y570" s="2"/>
     </row>
-    <row r="571" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A571" s="2"/>
       <c r="B571" s="2"/>
       <c r="C571" s="2"/>
@@ -16023,7 +16235,7 @@
       <c r="X571" s="2"/>
       <c r="Y571" s="2"/>
     </row>
-    <row r="572" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A572" s="2"/>
       <c r="B572" s="2"/>
       <c r="C572" s="2"/>
@@ -16050,7 +16262,7 @@
       <c r="X572" s="2"/>
       <c r="Y572" s="2"/>
     </row>
-    <row r="573" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A573" s="2"/>
       <c r="B573" s="2"/>
       <c r="C573" s="2"/>
@@ -16077,7 +16289,7 @@
       <c r="X573" s="2"/>
       <c r="Y573" s="2"/>
     </row>
-    <row r="574" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A574" s="2"/>
       <c r="B574" s="2"/>
       <c r="C574" s="2"/>
@@ -16104,7 +16316,7 @@
       <c r="X574" s="2"/>
       <c r="Y574" s="2"/>
     </row>
-    <row r="575" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A575" s="2"/>
       <c r="B575" s="2"/>
       <c r="C575" s="2"/>
@@ -16131,7 +16343,7 @@
       <c r="X575" s="2"/>
       <c r="Y575" s="2"/>
     </row>
-    <row r="576" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A576" s="2"/>
       <c r="B576" s="2"/>
       <c r="C576" s="2"/>
@@ -16158,7 +16370,7 @@
       <c r="X576" s="2"/>
       <c r="Y576" s="2"/>
     </row>
-    <row r="577" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A577" s="2"/>
       <c r="B577" s="2"/>
       <c r="C577" s="2"/>
@@ -16185,7 +16397,7 @@
       <c r="X577" s="2"/>
       <c r="Y577" s="2"/>
     </row>
-    <row r="578" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A578" s="2"/>
       <c r="B578" s="2"/>
       <c r="C578" s="2"/>
@@ -16212,7 +16424,7 @@
       <c r="X578" s="2"/>
       <c r="Y578" s="2"/>
     </row>
-    <row r="579" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A579" s="2"/>
       <c r="B579" s="2"/>
       <c r="C579" s="2"/>
@@ -16239,7 +16451,7 @@
       <c r="X579" s="2"/>
       <c r="Y579" s="2"/>
     </row>
-    <row r="580" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A580" s="2"/>
       <c r="B580" s="2"/>
       <c r="C580" s="2"/>
@@ -16266,7 +16478,7 @@
       <c r="X580" s="2"/>
       <c r="Y580" s="2"/>
     </row>
-    <row r="581" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A581" s="2"/>
       <c r="B581" s="2"/>
       <c r="C581" s="2"/>
@@ -16293,7 +16505,7 @@
       <c r="X581" s="2"/>
       <c r="Y581" s="2"/>
     </row>
-    <row r="582" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A582" s="2"/>
       <c r="B582" s="2"/>
       <c r="C582" s="2"/>
@@ -16320,7 +16532,7 @@
       <c r="X582" s="2"/>
       <c r="Y582" s="2"/>
     </row>
-    <row r="583" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A583" s="2"/>
       <c r="B583" s="2"/>
       <c r="C583" s="2"/>
@@ -16347,7 +16559,7 @@
       <c r="X583" s="2"/>
       <c r="Y583" s="2"/>
     </row>
-    <row r="584" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A584" s="2"/>
       <c r="B584" s="2"/>
       <c r="C584" s="2"/>
@@ -16374,7 +16586,7 @@
       <c r="X584" s="2"/>
       <c r="Y584" s="2"/>
     </row>
-    <row r="585" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A585" s="2"/>
       <c r="B585" s="2"/>
       <c r="C585" s="2"/>
@@ -16401,7 +16613,7 @@
       <c r="X585" s="2"/>
       <c r="Y585" s="2"/>
     </row>
-    <row r="586" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A586" s="2"/>
       <c r="B586" s="2"/>
       <c r="C586" s="2"/>
@@ -16428,7 +16640,7 @@
       <c r="X586" s="2"/>
       <c r="Y586" s="2"/>
     </row>
-    <row r="587" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A587" s="2"/>
       <c r="B587" s="2"/>
       <c r="C587" s="2"/>
@@ -16455,7 +16667,7 @@
       <c r="X587" s="2"/>
       <c r="Y587" s="2"/>
     </row>
-    <row r="588" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A588" s="2"/>
       <c r="B588" s="2"/>
       <c r="C588" s="2"/>
@@ -16482,7 +16694,7 @@
       <c r="X588" s="2"/>
       <c r="Y588" s="2"/>
     </row>
-    <row r="589" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A589" s="2"/>
       <c r="B589" s="2"/>
       <c r="C589" s="2"/>
@@ -16509,7 +16721,7 @@
       <c r="X589" s="2"/>
       <c r="Y589" s="2"/>
     </row>
-    <row r="590" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A590" s="2"/>
       <c r="B590" s="2"/>
       <c r="C590" s="2"/>
@@ -16536,7 +16748,7 @@
       <c r="X590" s="2"/>
       <c r="Y590" s="2"/>
     </row>
-    <row r="591" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A591" s="2"/>
       <c r="B591" s="2"/>
       <c r="C591" s="2"/>
@@ -16563,7 +16775,7 @@
       <c r="X591" s="2"/>
       <c r="Y591" s="2"/>
     </row>
-    <row r="592" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A592" s="2"/>
       <c r="B592" s="2"/>
       <c r="C592" s="2"/>
@@ -16590,7 +16802,7 @@
       <c r="X592" s="2"/>
       <c r="Y592" s="2"/>
     </row>
-    <row r="593" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A593" s="2"/>
       <c r="B593" s="2"/>
       <c r="C593" s="2"/>
@@ -16617,7 +16829,7 @@
       <c r="X593" s="2"/>
       <c r="Y593" s="2"/>
     </row>
-    <row r="594" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A594" s="2"/>
       <c r="B594" s="2"/>
       <c r="C594" s="2"/>
@@ -16644,7 +16856,7 @@
       <c r="X594" s="2"/>
       <c r="Y594" s="2"/>
     </row>
-    <row r="595" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A595" s="2"/>
       <c r="B595" s="2"/>
       <c r="C595" s="2"/>
@@ -16671,7 +16883,7 @@
       <c r="X595" s="2"/>
       <c r="Y595" s="2"/>
     </row>
-    <row r="596" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A596" s="2"/>
       <c r="B596" s="2"/>
       <c r="C596" s="2"/>
@@ -16698,7 +16910,7 @@
       <c r="X596" s="2"/>
       <c r="Y596" s="2"/>
     </row>
-    <row r="597" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A597" s="2"/>
       <c r="B597" s="2"/>
       <c r="C597" s="2"/>
@@ -16725,7 +16937,7 @@
       <c r="X597" s="2"/>
       <c r="Y597" s="2"/>
     </row>
-    <row r="598" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A598" s="2"/>
       <c r="B598" s="2"/>
       <c r="C598" s="2"/>
@@ -16752,7 +16964,7 @@
       <c r="X598" s="2"/>
       <c r="Y598" s="2"/>
     </row>
-    <row r="599" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A599" s="2"/>
       <c r="B599" s="2"/>
       <c r="C599" s="2"/>
@@ -16779,7 +16991,7 @@
       <c r="X599" s="2"/>
       <c r="Y599" s="2"/>
     </row>
-    <row r="600" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A600" s="2"/>
       <c r="B600" s="2"/>
       <c r="C600" s="2"/>
@@ -16806,7 +17018,7 @@
       <c r="X600" s="2"/>
       <c r="Y600" s="2"/>
     </row>
-    <row r="601" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A601" s="2"/>
       <c r="B601" s="2"/>
       <c r="C601" s="2"/>
@@ -16833,7 +17045,7 @@
       <c r="X601" s="2"/>
       <c r="Y601" s="2"/>
     </row>
-    <row r="602" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A602" s="2"/>
       <c r="B602" s="2"/>
       <c r="C602" s="2"/>
@@ -16860,7 +17072,7 @@
       <c r="X602" s="2"/>
       <c r="Y602" s="2"/>
     </row>
-    <row r="603" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A603" s="2"/>
       <c r="B603" s="2"/>
       <c r="C603" s="2"/>
@@ -16887,7 +17099,7 @@
       <c r="X603" s="2"/>
       <c r="Y603" s="2"/>
     </row>
-    <row r="604" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A604" s="2"/>
       <c r="B604" s="2"/>
       <c r="C604" s="2"/>
@@ -16914,7 +17126,7 @@
       <c r="X604" s="2"/>
       <c r="Y604" s="2"/>
     </row>
-    <row r="605" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A605" s="2"/>
       <c r="B605" s="2"/>
       <c r="C605" s="2"/>
@@ -16941,7 +17153,7 @@
       <c r="X605" s="2"/>
       <c r="Y605" s="2"/>
     </row>
-    <row r="606" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A606" s="2"/>
       <c r="B606" s="2"/>
       <c r="C606" s="2"/>
@@ -16968,7 +17180,7 @@
       <c r="X606" s="2"/>
       <c r="Y606" s="2"/>
     </row>
-    <row r="607" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A607" s="2"/>
       <c r="B607" s="2"/>
       <c r="C607" s="2"/>
@@ -16995,7 +17207,7 @@
       <c r="X607" s="2"/>
       <c r="Y607" s="2"/>
     </row>
-    <row r="608" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A608" s="2"/>
       <c r="B608" s="2"/>
       <c r="C608" s="2"/>
@@ -17022,7 +17234,7 @@
       <c r="X608" s="2"/>
       <c r="Y608" s="2"/>
     </row>
-    <row r="609" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A609" s="2"/>
       <c r="B609" s="2"/>
       <c r="C609" s="2"/>
@@ -17049,7 +17261,7 @@
       <c r="X609" s="2"/>
       <c r="Y609" s="2"/>
     </row>
-    <row r="610" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A610" s="2"/>
       <c r="B610" s="2"/>
       <c r="C610" s="2"/>
@@ -17076,7 +17288,7 @@
       <c r="X610" s="2"/>
       <c r="Y610" s="2"/>
     </row>
-    <row r="611" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A611" s="2"/>
       <c r="B611" s="2"/>
       <c r="C611" s="2"/>
@@ -17103,7 +17315,7 @@
       <c r="X611" s="2"/>
       <c r="Y611" s="2"/>
     </row>
-    <row r="612" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A612" s="2"/>
       <c r="B612" s="2"/>
       <c r="C612" s="2"/>
@@ -17130,7 +17342,7 @@
       <c r="X612" s="2"/>
       <c r="Y612" s="2"/>
     </row>
-    <row r="613" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A613" s="2"/>
       <c r="B613" s="2"/>
       <c r="C613" s="2"/>
@@ -17157,7 +17369,7 @@
       <c r="X613" s="2"/>
       <c r="Y613" s="2"/>
     </row>
-    <row r="614" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A614" s="2"/>
       <c r="B614" s="2"/>
       <c r="C614" s="2"/>
@@ -17184,7 +17396,7 @@
       <c r="X614" s="2"/>
       <c r="Y614" s="2"/>
     </row>
-    <row r="615" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A615" s="2"/>
       <c r="B615" s="2"/>
       <c r="C615" s="2"/>
@@ -17211,7 +17423,7 @@
       <c r="X615" s="2"/>
       <c r="Y615" s="2"/>
     </row>
-    <row r="616" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A616" s="2"/>
       <c r="B616" s="2"/>
       <c r="C616" s="2"/>
@@ -17238,7 +17450,7 @@
       <c r="X616" s="2"/>
       <c r="Y616" s="2"/>
     </row>
-    <row r="617" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A617" s="2"/>
       <c r="B617" s="2"/>
       <c r="C617" s="2"/>
@@ -17265,7 +17477,7 @@
       <c r="X617" s="2"/>
       <c r="Y617" s="2"/>
     </row>
-    <row r="618" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A618" s="2"/>
       <c r="B618" s="2"/>
       <c r="C618" s="2"/>
@@ -17292,7 +17504,7 @@
       <c r="X618" s="2"/>
       <c r="Y618" s="2"/>
     </row>
-    <row r="619" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A619" s="2"/>
       <c r="B619" s="2"/>
       <c r="C619" s="2"/>
@@ -17319,7 +17531,7 @@
       <c r="X619" s="2"/>
       <c r="Y619" s="2"/>
     </row>
-    <row r="620" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A620" s="2"/>
       <c r="B620" s="2"/>
       <c r="C620" s="2"/>
@@ -17346,7 +17558,7 @@
       <c r="X620" s="2"/>
       <c r="Y620" s="2"/>
     </row>
-    <row r="621" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A621" s="2"/>
       <c r="B621" s="2"/>
       <c r="C621" s="2"/>
@@ -17373,7 +17585,7 @@
       <c r="X621" s="2"/>
       <c r="Y621" s="2"/>
     </row>
-    <row r="622" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A622" s="2"/>
       <c r="B622" s="2"/>
       <c r="C622" s="2"/>
@@ -17400,7 +17612,7 @@
       <c r="X622" s="2"/>
       <c r="Y622" s="2"/>
     </row>
-    <row r="623" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A623" s="2"/>
       <c r="B623" s="2"/>
       <c r="C623" s="2"/>
@@ -17427,7 +17639,7 @@
       <c r="X623" s="2"/>
       <c r="Y623" s="2"/>
     </row>
-    <row r="624" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A624" s="2"/>
       <c r="B624" s="2"/>
       <c r="C624" s="2"/>
@@ -17454,7 +17666,7 @@
       <c r="X624" s="2"/>
       <c r="Y624" s="2"/>
     </row>
-    <row r="625" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A625" s="2"/>
       <c r="B625" s="2"/>
       <c r="C625" s="2"/>
@@ -17481,7 +17693,7 @@
       <c r="X625" s="2"/>
       <c r="Y625" s="2"/>
     </row>
-    <row r="626" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A626" s="2"/>
       <c r="B626" s="2"/>
       <c r="C626" s="2"/>
@@ -17508,7 +17720,7 @@
       <c r="X626" s="2"/>
       <c r="Y626" s="2"/>
     </row>
-    <row r="627" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A627" s="2"/>
       <c r="B627" s="2"/>
       <c r="C627" s="2"/>
@@ -17535,7 +17747,7 @@
       <c r="X627" s="2"/>
       <c r="Y627" s="2"/>
     </row>
-    <row r="628" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A628" s="2"/>
       <c r="B628" s="2"/>
       <c r="C628" s="2"/>
@@ -17562,7 +17774,7 @@
       <c r="X628" s="2"/>
       <c r="Y628" s="2"/>
     </row>
-    <row r="629" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A629" s="2"/>
       <c r="B629" s="2"/>
       <c r="C629" s="2"/>
@@ -17589,7 +17801,7 @@
       <c r="X629" s="2"/>
       <c r="Y629" s="2"/>
     </row>
-    <row r="630" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A630" s="2"/>
       <c r="B630" s="2"/>
       <c r="C630" s="2"/>
@@ -17616,7 +17828,7 @@
       <c r="X630" s="2"/>
       <c r="Y630" s="2"/>
     </row>
-    <row r="631" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A631" s="2"/>
       <c r="B631" s="2"/>
       <c r="C631" s="2"/>
@@ -17643,7 +17855,7 @@
       <c r="X631" s="2"/>
       <c r="Y631" s="2"/>
     </row>
-    <row r="632" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A632" s="2"/>
       <c r="B632" s="2"/>
       <c r="C632" s="2"/>
@@ -17670,7 +17882,7 @@
       <c r="X632" s="2"/>
       <c r="Y632" s="2"/>
     </row>
-    <row r="633" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A633" s="2"/>
       <c r="B633" s="2"/>
       <c r="C633" s="2"/>
@@ -17697,7 +17909,7 @@
       <c r="X633" s="2"/>
       <c r="Y633" s="2"/>
     </row>
-    <row r="634" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A634" s="2"/>
       <c r="B634" s="2"/>
       <c r="C634" s="2"/>
@@ -17724,7 +17936,7 @@
       <c r="X634" s="2"/>
       <c r="Y634" s="2"/>
     </row>
-    <row r="635" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A635" s="2"/>
       <c r="B635" s="2"/>
       <c r="C635" s="2"/>
@@ -17751,7 +17963,7 @@
       <c r="X635" s="2"/>
       <c r="Y635" s="2"/>
     </row>
-    <row r="636" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A636" s="2"/>
       <c r="B636" s="2"/>
       <c r="C636" s="2"/>
@@ -17778,7 +17990,7 @@
       <c r="X636" s="2"/>
       <c r="Y636" s="2"/>
     </row>
-    <row r="637" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A637" s="2"/>
       <c r="B637" s="2"/>
       <c r="C637" s="2"/>
@@ -17805,7 +18017,7 @@
       <c r="X637" s="2"/>
       <c r="Y637" s="2"/>
     </row>
-    <row r="638" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A638" s="2"/>
       <c r="B638" s="2"/>
       <c r="C638" s="2"/>
@@ -17832,7 +18044,7 @@
       <c r="X638" s="2"/>
       <c r="Y638" s="2"/>
     </row>
-    <row r="639" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A639" s="2"/>
       <c r="B639" s="2"/>
       <c r="C639" s="2"/>
@@ -17859,7 +18071,7 @@
       <c r="X639" s="2"/>
       <c r="Y639" s="2"/>
     </row>
-    <row r="640" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A640" s="2"/>
       <c r="B640" s="2"/>
       <c r="C640" s="2"/>
@@ -17886,7 +18098,7 @@
       <c r="X640" s="2"/>
       <c r="Y640" s="2"/>
     </row>
-    <row r="641" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A641" s="2"/>
       <c r="B641" s="2"/>
       <c r="C641" s="2"/>
@@ -17913,7 +18125,7 @@
       <c r="X641" s="2"/>
       <c r="Y641" s="2"/>
     </row>
-    <row r="642" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A642" s="2"/>
       <c r="B642" s="2"/>
       <c r="C642" s="2"/>
@@ -17940,7 +18152,7 @@
       <c r="X642" s="2"/>
       <c r="Y642" s="2"/>
     </row>
-    <row r="643" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A643" s="2"/>
       <c r="B643" s="2"/>
       <c r="C643" s="2"/>
@@ -17967,7 +18179,7 @@
       <c r="X643" s="2"/>
       <c r="Y643" s="2"/>
     </row>
-    <row r="644" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A644" s="2"/>
       <c r="B644" s="2"/>
       <c r="C644" s="2"/>
@@ -17994,7 +18206,7 @@
       <c r="X644" s="2"/>
       <c r="Y644" s="2"/>
     </row>
-    <row r="645" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A645" s="2"/>
       <c r="B645" s="2"/>
       <c r="C645" s="2"/>
@@ -18021,7 +18233,7 @@
       <c r="X645" s="2"/>
       <c r="Y645" s="2"/>
     </row>
-    <row r="646" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A646" s="2"/>
       <c r="B646" s="2"/>
       <c r="C646" s="2"/>
@@ -18048,7 +18260,7 @@
       <c r="X646" s="2"/>
       <c r="Y646" s="2"/>
     </row>
-    <row r="647" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A647" s="2"/>
       <c r="B647" s="2"/>
       <c r="C647" s="2"/>
@@ -18075,7 +18287,7 @@
       <c r="X647" s="2"/>
       <c r="Y647" s="2"/>
     </row>
-    <row r="648" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A648" s="2"/>
       <c r="B648" s="2"/>
       <c r="C648" s="2"/>
@@ -18102,7 +18314,7 @@
       <c r="X648" s="2"/>
       <c r="Y648" s="2"/>
     </row>
-    <row r="649" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A649" s="2"/>
       <c r="B649" s="2"/>
       <c r="C649" s="2"/>
@@ -18129,7 +18341,7 @@
       <c r="X649" s="2"/>
       <c r="Y649" s="2"/>
     </row>
-    <row r="650" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A650" s="2"/>
       <c r="B650" s="2"/>
       <c r="C650" s="2"/>
@@ -18156,7 +18368,7 @@
       <c r="X650" s="2"/>
       <c r="Y650" s="2"/>
     </row>
-    <row r="651" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A651" s="2"/>
       <c r="B651" s="2"/>
       <c r="C651" s="2"/>
@@ -18183,7 +18395,7 @@
       <c r="X651" s="2"/>
       <c r="Y651" s="2"/>
     </row>
-    <row r="652" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A652" s="2"/>
       <c r="B652" s="2"/>
       <c r="C652" s="2"/>
@@ -18210,7 +18422,7 @@
       <c r="X652" s="2"/>
       <c r="Y652" s="2"/>
     </row>
-    <row r="653" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A653" s="2"/>
       <c r="B653" s="2"/>
       <c r="C653" s="2"/>
@@ -18237,7 +18449,7 @@
       <c r="X653" s="2"/>
       <c r="Y653" s="2"/>
     </row>
-    <row r="654" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A654" s="2"/>
       <c r="B654" s="2"/>
       <c r="C654" s="2"/>
@@ -18264,7 +18476,7 @@
       <c r="X654" s="2"/>
       <c r="Y654" s="2"/>
     </row>
-    <row r="655" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A655" s="2"/>
       <c r="B655" s="2"/>
       <c r="C655" s="2"/>
@@ -18291,7 +18503,7 @@
       <c r="X655" s="2"/>
       <c r="Y655" s="2"/>
     </row>
-    <row r="656" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A656" s="2"/>
       <c r="B656" s="2"/>
       <c r="C656" s="2"/>
@@ -18318,7 +18530,7 @@
       <c r="X656" s="2"/>
       <c r="Y656" s="2"/>
     </row>
-    <row r="657" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A657" s="2"/>
       <c r="B657" s="2"/>
       <c r="C657" s="2"/>
@@ -18345,7 +18557,7 @@
       <c r="X657" s="2"/>
       <c r="Y657" s="2"/>
     </row>
-    <row r="658" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A658" s="2"/>
       <c r="B658" s="2"/>
       <c r="C658" s="2"/>
@@ -18372,7 +18584,7 @@
       <c r="X658" s="2"/>
       <c r="Y658" s="2"/>
     </row>
-    <row r="659" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A659" s="2"/>
       <c r="B659" s="2"/>
       <c r="C659" s="2"/>
@@ -18399,7 +18611,7 @@
       <c r="X659" s="2"/>
       <c r="Y659" s="2"/>
     </row>
-    <row r="660" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A660" s="2"/>
       <c r="B660" s="2"/>
       <c r="C660" s="2"/>
@@ -18426,7 +18638,7 @@
       <c r="X660" s="2"/>
       <c r="Y660" s="2"/>
     </row>
-    <row r="661" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A661" s="2"/>
       <c r="B661" s="2"/>
       <c r="C661" s="2"/>
@@ -18453,7 +18665,7 @@
       <c r="X661" s="2"/>
       <c r="Y661" s="2"/>
     </row>
-    <row r="662" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A662" s="2"/>
       <c r="B662" s="2"/>
       <c r="C662" s="2"/>
@@ -18480,7 +18692,7 @@
       <c r="X662" s="2"/>
       <c r="Y662" s="2"/>
     </row>
-    <row r="663" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A663" s="2"/>
       <c r="B663" s="2"/>
       <c r="C663" s="2"/>
@@ -18507,7 +18719,7 @@
       <c r="X663" s="2"/>
       <c r="Y663" s="2"/>
     </row>
-    <row r="664" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A664" s="2"/>
       <c r="B664" s="2"/>
       <c r="C664" s="2"/>
@@ -18534,7 +18746,7 @@
       <c r="X664" s="2"/>
       <c r="Y664" s="2"/>
     </row>
-    <row r="665" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A665" s="2"/>
       <c r="B665" s="2"/>
       <c r="C665" s="2"/>
@@ -18561,7 +18773,7 @@
       <c r="X665" s="2"/>
       <c r="Y665" s="2"/>
     </row>
-    <row r="666" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A666" s="2"/>
       <c r="B666" s="2"/>
       <c r="C666" s="2"/>
@@ -18588,7 +18800,7 @@
       <c r="X666" s="2"/>
       <c r="Y666" s="2"/>
     </row>
-    <row r="667" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A667" s="2"/>
       <c r="B667" s="2"/>
       <c r="C667" s="2"/>
@@ -18615,7 +18827,7 @@
       <c r="X667" s="2"/>
       <c r="Y667" s="2"/>
     </row>
-    <row r="668" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A668" s="2"/>
       <c r="B668" s="2"/>
       <c r="C668" s="2"/>
@@ -18642,7 +18854,7 @@
       <c r="X668" s="2"/>
       <c r="Y668" s="2"/>
     </row>
-    <row r="669" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A669" s="2"/>
       <c r="B669" s="2"/>
       <c r="C669" s="2"/>
@@ -18669,7 +18881,7 @@
       <c r="X669" s="2"/>
       <c r="Y669" s="2"/>
     </row>
-    <row r="670" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A670" s="2"/>
       <c r="B670" s="2"/>
       <c r="C670" s="2"/>
@@ -18696,7 +18908,7 @@
       <c r="X670" s="2"/>
       <c r="Y670" s="2"/>
     </row>
-    <row r="671" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A671" s="2"/>
       <c r="B671" s="2"/>
       <c r="C671" s="2"/>
@@ -18723,7 +18935,7 @@
       <c r="X671" s="2"/>
       <c r="Y671" s="2"/>
     </row>
-    <row r="672" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A672" s="2"/>
       <c r="B672" s="2"/>
       <c r="C672" s="2"/>
@@ -18750,7 +18962,7 @@
       <c r="X672" s="2"/>
       <c r="Y672" s="2"/>
     </row>
-    <row r="673" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A673" s="2"/>
       <c r="B673" s="2"/>
       <c r="C673" s="2"/>
@@ -18777,7 +18989,7 @@
       <c r="X673" s="2"/>
       <c r="Y673" s="2"/>
     </row>
-    <row r="674" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A674" s="2"/>
       <c r="B674" s="2"/>
       <c r="C674" s="2"/>
@@ -18804,7 +19016,7 @@
       <c r="X674" s="2"/>
       <c r="Y674" s="2"/>
     </row>
-    <row r="675" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A675" s="2"/>
       <c r="B675" s="2"/>
       <c r="C675" s="2"/>
@@ -18831,7 +19043,7 @@
       <c r="X675" s="2"/>
       <c r="Y675" s="2"/>
     </row>
-    <row r="676" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A676" s="2"/>
       <c r="B676" s="2"/>
       <c r="C676" s="2"/>
@@ -18858,7 +19070,7 @@
       <c r="X676" s="2"/>
       <c r="Y676" s="2"/>
     </row>
-    <row r="677" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A677" s="2"/>
       <c r="B677" s="2"/>
       <c r="C677" s="2"/>
@@ -18885,7 +19097,7 @@
       <c r="X677" s="2"/>
       <c r="Y677" s="2"/>
     </row>
-    <row r="678" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A678" s="2"/>
       <c r="B678" s="2"/>
       <c r="C678" s="2"/>
@@ -18912,7 +19124,7 @@
       <c r="X678" s="2"/>
       <c r="Y678" s="2"/>
     </row>
-    <row r="679" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A679" s="2"/>
       <c r="B679" s="2"/>
       <c r="C679" s="2"/>
@@ -18939,7 +19151,7 @@
       <c r="X679" s="2"/>
       <c r="Y679" s="2"/>
     </row>
-    <row r="680" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A680" s="2"/>
       <c r="B680" s="2"/>
       <c r="C680" s="2"/>
@@ -18966,7 +19178,7 @@
       <c r="X680" s="2"/>
       <c r="Y680" s="2"/>
     </row>
-    <row r="681" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A681" s="2"/>
       <c r="B681" s="2"/>
       <c r="C681" s="2"/>
@@ -18993,7 +19205,7 @@
       <c r="X681" s="2"/>
       <c r="Y681" s="2"/>
     </row>
-    <row r="682" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A682" s="2"/>
       <c r="B682" s="2"/>
       <c r="C682" s="2"/>
@@ -19020,7 +19232,7 @@
       <c r="X682" s="2"/>
       <c r="Y682" s="2"/>
     </row>
-    <row r="683" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A683" s="2"/>
       <c r="B683" s="2"/>
       <c r="C683" s="2"/>
@@ -19047,7 +19259,7 @@
       <c r="X683" s="2"/>
       <c r="Y683" s="2"/>
     </row>
-    <row r="684" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A684" s="2"/>
       <c r="B684" s="2"/>
       <c r="C684" s="2"/>
@@ -19074,7 +19286,7 @@
       <c r="X684" s="2"/>
       <c r="Y684" s="2"/>
     </row>
-    <row r="685" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A685" s="2"/>
       <c r="B685" s="2"/>
       <c r="C685" s="2"/>
@@ -19101,7 +19313,7 @@
       <c r="X685" s="2"/>
       <c r="Y685" s="2"/>
     </row>
-    <row r="686" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A686" s="2"/>
       <c r="B686" s="2"/>
       <c r="C686" s="2"/>
@@ -19128,7 +19340,7 @@
       <c r="X686" s="2"/>
       <c r="Y686" s="2"/>
     </row>
-    <row r="687" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A687" s="2"/>
       <c r="B687" s="2"/>
       <c r="C687" s="2"/>
@@ -19155,7 +19367,7 @@
       <c r="X687" s="2"/>
       <c r="Y687" s="2"/>
     </row>
-    <row r="688" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A688" s="2"/>
       <c r="B688" s="2"/>
       <c r="C688" s="2"/>
@@ -19182,7 +19394,7 @@
       <c r="X688" s="2"/>
       <c r="Y688" s="2"/>
     </row>
-    <row r="689" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A689" s="2"/>
       <c r="B689" s="2"/>
       <c r="C689" s="2"/>
@@ -19209,7 +19421,7 @@
       <c r="X689" s="2"/>
       <c r="Y689" s="2"/>
     </row>
-    <row r="690" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A690" s="2"/>
       <c r="B690" s="2"/>
       <c r="C690" s="2"/>
@@ -19236,7 +19448,7 @@
       <c r="X690" s="2"/>
       <c r="Y690" s="2"/>
     </row>
-    <row r="691" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A691" s="2"/>
       <c r="B691" s="2"/>
       <c r="C691" s="2"/>
@@ -19263,7 +19475,7 @@
       <c r="X691" s="2"/>
       <c r="Y691" s="2"/>
     </row>
-    <row r="692" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A692" s="2"/>
       <c r="B692" s="2"/>
       <c r="C692" s="2"/>
@@ -19290,7 +19502,7 @@
       <c r="X692" s="2"/>
       <c r="Y692" s="2"/>
     </row>
-    <row r="693" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A693" s="2"/>
       <c r="B693" s="2"/>
       <c r="C693" s="2"/>
@@ -19317,7 +19529,7 @@
       <c r="X693" s="2"/>
       <c r="Y693" s="2"/>
     </row>
-    <row r="694" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A694" s="2"/>
       <c r="B694" s="2"/>
       <c r="C694" s="2"/>
@@ -19344,7 +19556,7 @@
       <c r="X694" s="2"/>
       <c r="Y694" s="2"/>
     </row>
-    <row r="695" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A695" s="2"/>
       <c r="B695" s="2"/>
       <c r="C695" s="2"/>
@@ -19371,7 +19583,7 @@
       <c r="X695" s="2"/>
       <c r="Y695" s="2"/>
     </row>
-    <row r="696" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A696" s="2"/>
       <c r="B696" s="2"/>
       <c r="C696" s="2"/>
@@ -19398,7 +19610,7 @@
       <c r="X696" s="2"/>
       <c r="Y696" s="2"/>
     </row>
-    <row r="697" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A697" s="2"/>
       <c r="B697" s="2"/>
       <c r="C697" s="2"/>
@@ -19425,7 +19637,7 @@
       <c r="X697" s="2"/>
       <c r="Y697" s="2"/>
     </row>
-    <row r="698" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A698" s="2"/>
       <c r="B698" s="2"/>
       <c r="C698" s="2"/>
@@ -19452,7 +19664,7 @@
       <c r="X698" s="2"/>
       <c r="Y698" s="2"/>
     </row>
-    <row r="699" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A699" s="2"/>
       <c r="B699" s="2"/>
       <c r="C699" s="2"/>
@@ -19479,7 +19691,7 @@
       <c r="X699" s="2"/>
       <c r="Y699" s="2"/>
     </row>
-    <row r="700" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A700" s="2"/>
       <c r="B700" s="2"/>
       <c r="C700" s="2"/>
@@ -19506,7 +19718,7 @@
       <c r="X700" s="2"/>
       <c r="Y700" s="2"/>
     </row>
-    <row r="701" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A701" s="2"/>
       <c r="B701" s="2"/>
       <c r="C701" s="2"/>
@@ -19533,7 +19745,7 @@
       <c r="X701" s="2"/>
       <c r="Y701" s="2"/>
     </row>
-    <row r="702" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A702" s="2"/>
       <c r="B702" s="2"/>
       <c r="C702" s="2"/>
@@ -19560,7 +19772,7 @@
       <c r="X702" s="2"/>
       <c r="Y702" s="2"/>
     </row>
-    <row r="703" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A703" s="2"/>
       <c r="B703" s="2"/>
       <c r="C703" s="2"/>
@@ -19587,7 +19799,7 @@
       <c r="X703" s="2"/>
       <c r="Y703" s="2"/>
     </row>
-    <row r="704" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A704" s="2"/>
       <c r="B704" s="2"/>
       <c r="C704" s="2"/>
@@ -19614,7 +19826,7 @@
       <c r="X704" s="2"/>
       <c r="Y704" s="2"/>
     </row>
-    <row r="705" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A705" s="2"/>
       <c r="B705" s="2"/>
       <c r="C705" s="2"/>
@@ -19641,7 +19853,7 @@
       <c r="X705" s="2"/>
       <c r="Y705" s="2"/>
     </row>
-    <row r="706" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A706" s="2"/>
       <c r="B706" s="2"/>
       <c r="C706" s="2"/>
@@ -19668,7 +19880,7 @@
       <c r="X706" s="2"/>
       <c r="Y706" s="2"/>
     </row>
-    <row r="707" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A707" s="2"/>
       <c r="B707" s="2"/>
       <c r="C707" s="2"/>
@@ -19695,7 +19907,7 @@
       <c r="X707" s="2"/>
       <c r="Y707" s="2"/>
     </row>
-    <row r="708" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A708" s="2"/>
       <c r="B708" s="2"/>
       <c r="C708" s="2"/>
@@ -19722,7 +19934,7 @@
       <c r="X708" s="2"/>
       <c r="Y708" s="2"/>
     </row>
-    <row r="709" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A709" s="2"/>
       <c r="B709" s="2"/>
       <c r="C709" s="2"/>
@@ -19749,7 +19961,7 @@
       <c r="X709" s="2"/>
       <c r="Y709" s="2"/>
     </row>
-    <row r="710" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A710" s="2"/>
       <c r="B710" s="2"/>
       <c r="C710" s="2"/>
@@ -19776,7 +19988,7 @@
       <c r="X710" s="2"/>
       <c r="Y710" s="2"/>
     </row>
-    <row r="711" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A711" s="2"/>
       <c r="B711" s="2"/>
       <c r="C711" s="2"/>
@@ -19803,7 +20015,7 @@
       <c r="X711" s="2"/>
       <c r="Y711" s="2"/>
     </row>
-    <row r="712" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A712" s="2"/>
       <c r="B712" s="2"/>
       <c r="C712" s="2"/>
@@ -19830,7 +20042,7 @@
       <c r="X712" s="2"/>
       <c r="Y712" s="2"/>
     </row>
-    <row r="713" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A713" s="2"/>
       <c r="B713" s="2"/>
       <c r="C713" s="2"/>
@@ -19857,7 +20069,7 @@
       <c r="X713" s="2"/>
       <c r="Y713" s="2"/>
     </row>
-    <row r="714" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A714" s="2"/>
       <c r="B714" s="2"/>
       <c r="C714" s="2"/>
@@ -19884,7 +20096,7 @@
       <c r="X714" s="2"/>
       <c r="Y714" s="2"/>
     </row>
-    <row r="715" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A715" s="2"/>
       <c r="B715" s="2"/>
       <c r="C715" s="2"/>
@@ -19911,7 +20123,7 @@
       <c r="X715" s="2"/>
       <c r="Y715" s="2"/>
     </row>
-    <row r="716" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A716" s="2"/>
       <c r="B716" s="2"/>
       <c r="C716" s="2"/>
@@ -19938,7 +20150,7 @@
       <c r="X716" s="2"/>
       <c r="Y716" s="2"/>
     </row>
-    <row r="717" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A717" s="2"/>
       <c r="B717" s="2"/>
       <c r="C717" s="2"/>
@@ -19965,7 +20177,7 @@
       <c r="X717" s="2"/>
       <c r="Y717" s="2"/>
     </row>
-    <row r="718" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A718" s="2"/>
       <c r="B718" s="2"/>
       <c r="C718" s="2"/>
@@ -19992,7 +20204,7 @@
       <c r="X718" s="2"/>
       <c r="Y718" s="2"/>
     </row>
-    <row r="719" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A719" s="2"/>
       <c r="B719" s="2"/>
       <c r="C719" s="2"/>
@@ -20019,7 +20231,7 @@
       <c r="X719" s="2"/>
       <c r="Y719" s="2"/>
     </row>
-    <row r="720" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A720" s="2"/>
       <c r="B720" s="2"/>
       <c r="C720" s="2"/>
@@ -20046,7 +20258,7 @@
       <c r="X720" s="2"/>
       <c r="Y720" s="2"/>
     </row>
-    <row r="721" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A721" s="2"/>
       <c r="B721" s="2"/>
       <c r="C721" s="2"/>
@@ -20073,7 +20285,7 @@
       <c r="X721" s="2"/>
       <c r="Y721" s="2"/>
     </row>
-    <row r="722" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A722" s="2"/>
       <c r="B722" s="2"/>
       <c r="C722" s="2"/>
@@ -20100,7 +20312,7 @@
       <c r="X722" s="2"/>
       <c r="Y722" s="2"/>
     </row>
-    <row r="723" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A723" s="2"/>
       <c r="B723" s="2"/>
       <c r="C723" s="2"/>
@@ -20127,7 +20339,7 @@
       <c r="X723" s="2"/>
       <c r="Y723" s="2"/>
     </row>
-    <row r="724" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A724" s="2"/>
       <c r="B724" s="2"/>
       <c r="C724" s="2"/>
@@ -20154,7 +20366,7 @@
       <c r="X724" s="2"/>
       <c r="Y724" s="2"/>
     </row>
-    <row r="725" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A725" s="2"/>
       <c r="B725" s="2"/>
       <c r="C725" s="2"/>
@@ -20181,7 +20393,7 @@
       <c r="X725" s="2"/>
       <c r="Y725" s="2"/>
     </row>
-    <row r="726" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A726" s="2"/>
       <c r="B726" s="2"/>
       <c r="C726" s="2"/>
@@ -20208,7 +20420,7 @@
       <c r="X726" s="2"/>
       <c r="Y726" s="2"/>
     </row>
-    <row r="727" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A727" s="2"/>
       <c r="B727" s="2"/>
       <c r="C727" s="2"/>
@@ -20235,7 +20447,7 @@
       <c r="X727" s="2"/>
       <c r="Y727" s="2"/>
     </row>
-    <row r="728" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A728" s="2"/>
       <c r="B728" s="2"/>
       <c r="C728" s="2"/>
@@ -20262,7 +20474,7 @@
       <c r="X728" s="2"/>
       <c r="Y728" s="2"/>
     </row>
-    <row r="729" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A729" s="2"/>
       <c r="B729" s="2"/>
       <c r="C729" s="2"/>
@@ -20289,7 +20501,7 @@
       <c r="X729" s="2"/>
       <c r="Y729" s="2"/>
     </row>
-    <row r="730" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A730" s="2"/>
       <c r="B730" s="2"/>
       <c r="C730" s="2"/>
@@ -20316,7 +20528,7 @@
       <c r="X730" s="2"/>
       <c r="Y730" s="2"/>
     </row>
-    <row r="731" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A731" s="2"/>
       <c r="B731" s="2"/>
       <c r="C731" s="2"/>
@@ -20343,7 +20555,7 @@
       <c r="X731" s="2"/>
       <c r="Y731" s="2"/>
     </row>
-    <row r="732" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A732" s="2"/>
       <c r="B732" s="2"/>
       <c r="C732" s="2"/>
@@ -20370,7 +20582,7 @@
       <c r="X732" s="2"/>
       <c r="Y732" s="2"/>
     </row>
-    <row r="733" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A733" s="2"/>
       <c r="B733" s="2"/>
       <c r="C733" s="2"/>
@@ -20397,7 +20609,7 @@
       <c r="X733" s="2"/>
       <c r="Y733" s="2"/>
     </row>
-    <row r="734" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A734" s="2"/>
       <c r="B734" s="2"/>
       <c r="C734" s="2"/>
@@ -20424,7 +20636,7 @@
       <c r="X734" s="2"/>
       <c r="Y734" s="2"/>
     </row>
-    <row r="735" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A735" s="2"/>
       <c r="B735" s="2"/>
       <c r="C735" s="2"/>
@@ -20451,7 +20663,7 @@
       <c r="X735" s="2"/>
       <c r="Y735" s="2"/>
     </row>
-    <row r="736" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A736" s="2"/>
       <c r="B736" s="2"/>
       <c r="C736" s="2"/>
@@ -20478,7 +20690,7 @@
       <c r="X736" s="2"/>
       <c r="Y736" s="2"/>
     </row>
-    <row r="737" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A737" s="2"/>
       <c r="B737" s="2"/>
       <c r="C737" s="2"/>
@@ -20505,7 +20717,7 @@
       <c r="X737" s="2"/>
       <c r="Y737" s="2"/>
     </row>
-    <row r="738" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A738" s="2"/>
       <c r="B738" s="2"/>
       <c r="C738" s="2"/>
@@ -20532,7 +20744,7 @@
       <c r="X738" s="2"/>
       <c r="Y738" s="2"/>
     </row>
-    <row r="739" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A739" s="2"/>
       <c r="B739" s="2"/>
       <c r="C739" s="2"/>
@@ -20559,7 +20771,7 @@
       <c r="X739" s="2"/>
       <c r="Y739" s="2"/>
     </row>
-    <row r="740" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A740" s="2"/>
       <c r="B740" s="2"/>
       <c r="C740" s="2"/>
@@ -20586,7 +20798,7 @@
       <c r="X740" s="2"/>
       <c r="Y740" s="2"/>
     </row>
-    <row r="741" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A741" s="2"/>
       <c r="B741" s="2"/>
       <c r="C741" s="2"/>
@@ -20613,7 +20825,7 @@
       <c r="X741" s="2"/>
       <c r="Y741" s="2"/>
     </row>
-    <row r="742" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A742" s="2"/>
       <c r="B742" s="2"/>
       <c r="C742" s="2"/>
@@ -20640,7 +20852,7 @@
       <c r="X742" s="2"/>
       <c r="Y742" s="2"/>
     </row>
-    <row r="743" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A743" s="2"/>
       <c r="B743" s="2"/>
       <c r="C743" s="2"/>
@@ -20667,7 +20879,7 @@
       <c r="X743" s="2"/>
       <c r="Y743" s="2"/>
     </row>
-    <row r="744" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A744" s="2"/>
       <c r="B744" s="2"/>
       <c r="C744" s="2"/>
@@ -20694,7 +20906,7 @@
       <c r="X744" s="2"/>
       <c r="Y744" s="2"/>
     </row>
-    <row r="745" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A745" s="2"/>
       <c r="B745" s="2"/>
       <c r="C745" s="2"/>
@@ -20721,7 +20933,7 @@
       <c r="X745" s="2"/>
       <c r="Y745" s="2"/>
     </row>
-    <row r="746" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A746" s="2"/>
       <c r="B746" s="2"/>
       <c r="C746" s="2"/>
@@ -20748,7 +20960,7 @@
       <c r="X746" s="2"/>
       <c r="Y746" s="2"/>
     </row>
-    <row r="747" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A747" s="2"/>
       <c r="B747" s="2"/>
       <c r="C747" s="2"/>
@@ -20775,7 +20987,7 @@
       <c r="X747" s="2"/>
       <c r="Y747" s="2"/>
     </row>
-    <row r="748" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A748" s="2"/>
       <c r="B748" s="2"/>
       <c r="C748" s="2"/>
@@ -20802,7 +21014,7 @@
       <c r="X748" s="2"/>
       <c r="Y748" s="2"/>
     </row>
-    <row r="749" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A749" s="2"/>
       <c r="B749" s="2"/>
       <c r="C749" s="2"/>
@@ -20829,7 +21041,7 @@
       <c r="X749" s="2"/>
       <c r="Y749" s="2"/>
     </row>
-    <row r="750" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A750" s="2"/>
       <c r="B750" s="2"/>
       <c r="C750" s="2"/>
@@ -20856,7 +21068,7 @@
       <c r="X750" s="2"/>
       <c r="Y750" s="2"/>
     </row>
-    <row r="751" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A751" s="2"/>
       <c r="B751" s="2"/>
       <c r="C751" s="2"/>
@@ -20883,7 +21095,7 @@
       <c r="X751" s="2"/>
       <c r="Y751" s="2"/>
     </row>
-    <row r="752" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A752" s="2"/>
       <c r="B752" s="2"/>
       <c r="C752" s="2"/>
@@ -20910,7 +21122,7 @@
       <c r="X752" s="2"/>
       <c r="Y752" s="2"/>
     </row>
-    <row r="753" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A753" s="2"/>
       <c r="B753" s="2"/>
       <c r="C753" s="2"/>
@@ -20937,7 +21149,7 @@
       <c r="X753" s="2"/>
       <c r="Y753" s="2"/>
     </row>
-    <row r="754" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A754" s="2"/>
       <c r="B754" s="2"/>
       <c r="C754" s="2"/>
@@ -20964,7 +21176,7 @@
       <c r="X754" s="2"/>
       <c r="Y754" s="2"/>
     </row>
-    <row r="755" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A755" s="2"/>
       <c r="B755" s="2"/>
       <c r="C755" s="2"/>
@@ -20991,7 +21203,7 @@
       <c r="X755" s="2"/>
       <c r="Y755" s="2"/>
     </row>
-    <row r="756" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A756" s="2"/>
       <c r="B756" s="2"/>
       <c r="C756" s="2"/>
@@ -21018,7 +21230,7 @@
       <c r="X756" s="2"/>
       <c r="Y756" s="2"/>
     </row>
-    <row r="757" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A757" s="2"/>
       <c r="B757" s="2"/>
       <c r="C757" s="2"/>
@@ -21045,7 +21257,7 @@
       <c r="X757" s="2"/>
       <c r="Y757" s="2"/>
     </row>
-    <row r="758" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A758" s="2"/>
       <c r="B758" s="2"/>
       <c r="C758" s="2"/>
@@ -21072,7 +21284,7 @@
       <c r="X758" s="2"/>
       <c r="Y758" s="2"/>
     </row>
-    <row r="759" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A759" s="2"/>
       <c r="B759" s="2"/>
       <c r="C759" s="2"/>
@@ -21099,7 +21311,7 @@
       <c r="X759" s="2"/>
       <c r="Y759" s="2"/>
     </row>
-    <row r="760" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A760" s="2"/>
       <c r="B760" s="2"/>
       <c r="C760" s="2"/>
@@ -21126,7 +21338,7 @@
       <c r="X760" s="2"/>
       <c r="Y760" s="2"/>
     </row>
-    <row r="761" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A761" s="2"/>
       <c r="B761" s="2"/>
       <c r="C761" s="2"/>
@@ -21153,7 +21365,7 @@
       <c r="X761" s="2"/>
       <c r="Y761" s="2"/>
     </row>
-    <row r="762" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A762" s="2"/>
       <c r="B762" s="2"/>
       <c r="C762" s="2"/>
@@ -21180,7 +21392,7 @@
       <c r="X762" s="2"/>
       <c r="Y762" s="2"/>
     </row>
-    <row r="763" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A763" s="2"/>
       <c r="B763" s="2"/>
       <c r="C763" s="2"/>
@@ -21207,7 +21419,7 @@
       <c r="X763" s="2"/>
       <c r="Y763" s="2"/>
     </row>
-    <row r="764" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A764" s="2"/>
       <c r="B764" s="2"/>
       <c r="C764" s="2"/>
@@ -21234,7 +21446,7 @@
       <c r="X764" s="2"/>
       <c r="Y764" s="2"/>
     </row>
-    <row r="765" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A765" s="2"/>
       <c r="B765" s="2"/>
       <c r="C765" s="2"/>
@@ -21261,7 +21473,7 @@
       <c r="X765" s="2"/>
       <c r="Y765" s="2"/>
     </row>
-    <row r="766" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A766" s="2"/>
       <c r="B766" s="2"/>
       <c r="C766" s="2"/>
@@ -21288,7 +21500,7 @@
       <c r="X766" s="2"/>
       <c r="Y766" s="2"/>
     </row>
-    <row r="767" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A767" s="2"/>
       <c r="B767" s="2"/>
       <c r="C767" s="2"/>
@@ -21315,7 +21527,7 @@
       <c r="X767" s="2"/>
       <c r="Y767" s="2"/>
     </row>
-    <row r="768" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A768" s="2"/>
       <c r="B768" s="2"/>
       <c r="C768" s="2"/>
@@ -21342,7 +21554,7 @@
       <c r="X768" s="2"/>
       <c r="Y768" s="2"/>
     </row>
-    <row r="769" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A769" s="2"/>
       <c r="B769" s="2"/>
       <c r="C769" s="2"/>
@@ -21369,7 +21581,7 @@
       <c r="X769" s="2"/>
       <c r="Y769" s="2"/>
     </row>
-    <row r="770" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A770" s="2"/>
       <c r="B770" s="2"/>
       <c r="C770" s="2"/>
@@ -21396,7 +21608,7 @@
       <c r="X770" s="2"/>
       <c r="Y770" s="2"/>
     </row>
-    <row r="771" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A771" s="2"/>
       <c r="B771" s="2"/>
       <c r="C771" s="2"/>
@@ -21423,7 +21635,7 @@
       <c r="X771" s="2"/>
       <c r="Y771" s="2"/>
     </row>
-    <row r="772" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A772" s="2"/>
       <c r="B772" s="2"/>
       <c r="C772" s="2"/>
@@ -21450,7 +21662,7 @@
       <c r="X772" s="2"/>
       <c r="Y772" s="2"/>
     </row>
-    <row r="773" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A773" s="2"/>
       <c r="B773" s="2"/>
       <c r="C773" s="2"/>
@@ -21477,7 +21689,7 @@
       <c r="X773" s="2"/>
       <c r="Y773" s="2"/>
     </row>
-    <row r="774" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A774" s="2"/>
       <c r="B774" s="2"/>
       <c r="C774" s="2"/>
@@ -21504,7 +21716,7 @@
       <c r="X774" s="2"/>
       <c r="Y774" s="2"/>
     </row>
-    <row r="775" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A775" s="2"/>
       <c r="B775" s="2"/>
       <c r="C775" s="2"/>
@@ -21531,7 +21743,7 @@
       <c r="X775" s="2"/>
       <c r="Y775" s="2"/>
     </row>
-    <row r="776" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A776" s="2"/>
       <c r="B776" s="2"/>
       <c r="C776" s="2"/>
@@ -21558,7 +21770,7 @@
       <c r="X776" s="2"/>
       <c r="Y776" s="2"/>
     </row>
-    <row r="777" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A777" s="2"/>
       <c r="B777" s="2"/>
       <c r="C777" s="2"/>
@@ -21585,7 +21797,7 @@
       <c r="X777" s="2"/>
       <c r="Y777" s="2"/>
     </row>
-    <row r="778" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A778" s="2"/>
       <c r="B778" s="2"/>
       <c r="C778" s="2"/>
@@ -21612,7 +21824,7 @@
       <c r="X778" s="2"/>
       <c r="Y778" s="2"/>
     </row>
-    <row r="779" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A779" s="2"/>
       <c r="B779" s="2"/>
       <c r="C779" s="2"/>
@@ -21639,7 +21851,7 @@
       <c r="X779" s="2"/>
       <c r="Y779" s="2"/>
     </row>
-    <row r="780" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A780" s="2"/>
       <c r="B780" s="2"/>
       <c r="C780" s="2"/>
@@ -21666,7 +21878,7 @@
       <c r="X780" s="2"/>
       <c r="Y780" s="2"/>
     </row>
-    <row r="781" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A781" s="2"/>
       <c r="B781" s="2"/>
       <c r="C781" s="2"/>
@@ -21693,7 +21905,7 @@
       <c r="X781" s="2"/>
       <c r="Y781" s="2"/>
     </row>
-    <row r="782" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A782" s="2"/>
       <c r="B782" s="2"/>
       <c r="C782" s="2"/>
@@ -21720,7 +21932,7 @@
       <c r="X782" s="2"/>
       <c r="Y782" s="2"/>
     </row>
-    <row r="783" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A783" s="2"/>
       <c r="B783" s="2"/>
       <c r="C783" s="2"/>
@@ -21747,7 +21959,7 @@
       <c r="X783" s="2"/>
       <c r="Y783" s="2"/>
     </row>
-    <row r="784" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A784" s="2"/>
       <c r="B784" s="2"/>
       <c r="C784" s="2"/>
@@ -21774,7 +21986,7 @@
       <c r="X784" s="2"/>
       <c r="Y784" s="2"/>
     </row>
-    <row r="785" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A785" s="2"/>
       <c r="B785" s="2"/>
       <c r="C785" s="2"/>
@@ -21801,7 +22013,7 @@
       <c r="X785" s="2"/>
       <c r="Y785" s="2"/>
     </row>
-    <row r="786" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A786" s="2"/>
       <c r="B786" s="2"/>
       <c r="C786" s="2"/>
@@ -21828,7 +22040,7 @@
       <c r="X786" s="2"/>
       <c r="Y786" s="2"/>
     </row>
-    <row r="787" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A787" s="2"/>
       <c r="B787" s="2"/>
       <c r="C787" s="2"/>
@@ -21855,7 +22067,7 @@
       <c r="X787" s="2"/>
       <c r="Y787" s="2"/>
     </row>
-    <row r="788" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A788" s="2"/>
       <c r="B788" s="2"/>
       <c r="C788" s="2"/>
@@ -21882,7 +22094,7 @@
       <c r="X788" s="2"/>
       <c r="Y788" s="2"/>
     </row>
-    <row r="789" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A789" s="2"/>
       <c r="B789" s="2"/>
       <c r="C789" s="2"/>
@@ -21909,7 +22121,7 @@
       <c r="X789" s="2"/>
       <c r="Y789" s="2"/>
     </row>
-    <row r="790" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A790" s="2"/>
       <c r="B790" s="2"/>
       <c r="C790" s="2"/>
@@ -21936,7 +22148,7 @@
       <c r="X790" s="2"/>
       <c r="Y790" s="2"/>
     </row>
-    <row r="791" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A791" s="2"/>
       <c r="B791" s="2"/>
       <c r="C791" s="2"/>
@@ -21963,7 +22175,7 @@
       <c r="X791" s="2"/>
       <c r="Y791" s="2"/>
     </row>
-    <row r="792" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A792" s="2"/>
       <c r="B792" s="2"/>
       <c r="C792" s="2"/>
@@ -21990,7 +22202,7 @@
       <c r="X792" s="2"/>
       <c r="Y792" s="2"/>
     </row>
-    <row r="793" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A793" s="2"/>
       <c r="B793" s="2"/>
       <c r="C793" s="2"/>
@@ -22017,7 +22229,7 @@
       <c r="X793" s="2"/>
       <c r="Y793" s="2"/>
     </row>
-    <row r="794" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A794" s="2"/>
       <c r="B794" s="2"/>
       <c r="C794" s="2"/>
@@ -22044,7 +22256,7 @@
       <c r="X794" s="2"/>
       <c r="Y794" s="2"/>
     </row>
-    <row r="795" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A795" s="2"/>
       <c r="B795" s="2"/>
       <c r="C795" s="2"/>
@@ -22071,7 +22283,7 @@
       <c r="X795" s="2"/>
       <c r="Y795" s="2"/>
     </row>
-    <row r="796" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A796" s="2"/>
       <c r="B796" s="2"/>
       <c r="C796" s="2"/>
@@ -22098,7 +22310,7 @@
       <c r="X796" s="2"/>
       <c r="Y796" s="2"/>
     </row>
-    <row r="797" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A797" s="2"/>
       <c r="B797" s="2"/>
       <c r="C797" s="2"/>
@@ -22125,7 +22337,7 @@
       <c r="X797" s="2"/>
       <c r="Y797" s="2"/>
     </row>
-    <row r="798" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A798" s="2"/>
       <c r="B798" s="2"/>
       <c r="C798" s="2"/>
@@ -22152,7 +22364,7 @@
       <c r="X798" s="2"/>
       <c r="Y798" s="2"/>
     </row>
-    <row r="799" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A799" s="2"/>
       <c r="B799" s="2"/>
       <c r="C799" s="2"/>
@@ -22179,7 +22391,7 @@
       <c r="X799" s="2"/>
       <c r="Y799" s="2"/>
     </row>
-    <row r="800" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A800" s="2"/>
       <c r="B800" s="2"/>
       <c r="C800" s="2"/>
@@ -22206,7 +22418,7 @@
       <c r="X800" s="2"/>
       <c r="Y800" s="2"/>
     </row>
-    <row r="801" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A801" s="2"/>
       <c r="B801" s="2"/>
       <c r="C801" s="2"/>
@@ -22233,7 +22445,7 @@
       <c r="X801" s="2"/>
       <c r="Y801" s="2"/>
     </row>
-    <row r="802" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A802" s="2"/>
       <c r="B802" s="2"/>
       <c r="C802" s="2"/>
@@ -22260,7 +22472,7 @@
       <c r="X802" s="2"/>
       <c r="Y802" s="2"/>
     </row>
-    <row r="803" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A803" s="2"/>
       <c r="B803" s="2"/>
       <c r="C803" s="2"/>
@@ -22287,7 +22499,7 @@
       <c r="X803" s="2"/>
       <c r="Y803" s="2"/>
     </row>
-    <row r="804" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A804" s="2"/>
       <c r="B804" s="2"/>
       <c r="C804" s="2"/>
@@ -22314,7 +22526,7 @@
       <c r="X804" s="2"/>
       <c r="Y804" s="2"/>
     </row>
-    <row r="805" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A805" s="2"/>
       <c r="B805" s="2"/>
       <c r="C805" s="2"/>
@@ -22341,7 +22553,7 @@
       <c r="X805" s="2"/>
       <c r="Y805" s="2"/>
     </row>
-    <row r="806" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A806" s="2"/>
       <c r="B806" s="2"/>
       <c r="C806" s="2"/>
@@ -22368,7 +22580,7 @@
       <c r="X806" s="2"/>
       <c r="Y806" s="2"/>
     </row>
-    <row r="807" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A807" s="2"/>
       <c r="B807" s="2"/>
       <c r="C807" s="2"/>
@@ -22395,7 +22607,7 @@
       <c r="X807" s="2"/>
       <c r="Y807" s="2"/>
     </row>
-    <row r="808" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A808" s="2"/>
       <c r="B808" s="2"/>
       <c r="C808" s="2"/>
@@ -22422,7 +22634,7 @@
       <c r="X808" s="2"/>
       <c r="Y808" s="2"/>
     </row>
-    <row r="809" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A809" s="2"/>
       <c r="B809" s="2"/>
       <c r="C809" s="2"/>
@@ -22449,7 +22661,7 @@
       <c r="X809" s="2"/>
       <c r="Y809" s="2"/>
     </row>
-    <row r="810" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A810" s="2"/>
       <c r="B810" s="2"/>
       <c r="C810" s="2"/>
@@ -22476,7 +22688,7 @@
       <c r="X810" s="2"/>
       <c r="Y810" s="2"/>
     </row>
-    <row r="811" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A811" s="2"/>
       <c r="B811" s="2"/>
       <c r="C811" s="2"/>
@@ -22503,7 +22715,7 @@
       <c r="X811" s="2"/>
       <c r="Y811" s="2"/>
     </row>
-    <row r="812" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A812" s="2"/>
       <c r="B812" s="2"/>
       <c r="C812" s="2"/>
@@ -22530,7 +22742,7 @@
       <c r="X812" s="2"/>
       <c r="Y812" s="2"/>
     </row>
-    <row r="813" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A813" s="2"/>
       <c r="B813" s="2"/>
       <c r="C813" s="2"/>
@@ -22557,7 +22769,7 @@
       <c r="X813" s="2"/>
       <c r="Y813" s="2"/>
     </row>
-    <row r="814" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A814" s="2"/>
       <c r="B814" s="2"/>
       <c r="C814" s="2"/>
@@ -22584,7 +22796,7 @@
       <c r="X814" s="2"/>
       <c r="Y814" s="2"/>
     </row>
-    <row r="815" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A815" s="2"/>
       <c r="B815" s="2"/>
       <c r="C815" s="2"/>
@@ -22611,7 +22823,7 @@
       <c r="X815" s="2"/>
       <c r="Y815" s="2"/>
     </row>
-    <row r="816" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A816" s="2"/>
       <c r="B816" s="2"/>
       <c r="C816" s="2"/>
@@ -22638,7 +22850,7 @@
       <c r="X816" s="2"/>
       <c r="Y816" s="2"/>
     </row>
-    <row r="817" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A817" s="2"/>
       <c r="B817" s="2"/>
       <c r="C817" s="2"/>
@@ -22665,7 +22877,7 @@
       <c r="X817" s="2"/>
       <c r="Y817" s="2"/>
     </row>
-    <row r="818" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A818" s="2"/>
       <c r="B818" s="2"/>
       <c r="C818" s="2"/>
@@ -22692,7 +22904,7 @@
       <c r="X818" s="2"/>
       <c r="Y818" s="2"/>
     </row>
-    <row r="819" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A819" s="2"/>
       <c r="B819" s="2"/>
       <c r="C819" s="2"/>
@@ -22719,7 +22931,7 @@
       <c r="X819" s="2"/>
       <c r="Y819" s="2"/>
     </row>
-    <row r="820" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A820" s="2"/>
       <c r="B820" s="2"/>
       <c r="C820" s="2"/>
@@ -22746,7 +22958,7 @@
       <c r="X820" s="2"/>
       <c r="Y820" s="2"/>
     </row>
-    <row r="821" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A821" s="2"/>
       <c r="B821" s="2"/>
       <c r="C821" s="2"/>
@@ -22773,7 +22985,7 @@
       <c r="X821" s="2"/>
       <c r="Y821" s="2"/>
     </row>
-    <row r="822" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A822" s="2"/>
       <c r="B822" s="2"/>
       <c r="C822" s="2"/>
@@ -22800,7 +23012,7 @@
       <c r="X822" s="2"/>
       <c r="Y822" s="2"/>
     </row>
-    <row r="823" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A823" s="2"/>
       <c r="B823" s="2"/>
       <c r="C823" s="2"/>
@@ -22827,7 +23039,7 @@
       <c r="X823" s="2"/>
       <c r="Y823" s="2"/>
     </row>
-    <row r="824" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A824" s="2"/>
       <c r="B824" s="2"/>
       <c r="C824" s="2"/>
@@ -22854,7 +23066,7 @@
       <c r="X824" s="2"/>
       <c r="Y824" s="2"/>
     </row>
-    <row r="825" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A825" s="2"/>
       <c r="B825" s="2"/>
       <c r="C825" s="2"/>
@@ -22881,7 +23093,7 @@
       <c r="X825" s="2"/>
       <c r="Y825" s="2"/>
     </row>
-    <row r="826" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A826" s="2"/>
       <c r="B826" s="2"/>
       <c r="C826" s="2"/>
@@ -22908,7 +23120,7 @@
       <c r="X826" s="2"/>
       <c r="Y826" s="2"/>
     </row>
-    <row r="827" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A827" s="2"/>
       <c r="B827" s="2"/>
       <c r="C827" s="2"/>
@@ -22935,7 +23147,7 @@
       <c r="X827" s="2"/>
       <c r="Y827" s="2"/>
     </row>
-    <row r="828" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A828" s="2"/>
       <c r="B828" s="2"/>
       <c r="C828" s="2"/>
@@ -22962,7 +23174,7 @@
       <c r="X828" s="2"/>
       <c r="Y828" s="2"/>
     </row>
-    <row r="829" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A829" s="2"/>
       <c r="B829" s="2"/>
       <c r="C829" s="2"/>
@@ -22989,7 +23201,7 @@
       <c r="X829" s="2"/>
       <c r="Y829" s="2"/>
     </row>
-    <row r="830" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A830" s="2"/>
       <c r="B830" s="2"/>
       <c r="C830" s="2"/>
@@ -23016,7 +23228,7 @@
       <c r="X830" s="2"/>
       <c r="Y830" s="2"/>
     </row>
-    <row r="831" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A831" s="2"/>
       <c r="B831" s="2"/>
       <c r="C831" s="2"/>
@@ -23043,7 +23255,7 @@
       <c r="X831" s="2"/>
       <c r="Y831" s="2"/>
     </row>
-    <row r="832" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A832" s="2"/>
       <c r="B832" s="2"/>
       <c r="C832" s="2"/>
@@ -23070,7 +23282,7 @@
       <c r="X832" s="2"/>
       <c r="Y832" s="2"/>
     </row>
-    <row r="833" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A833" s="2"/>
       <c r="B833" s="2"/>
       <c r="C833" s="2"/>
@@ -23097,7 +23309,7 @@
       <c r="X833" s="2"/>
       <c r="Y833" s="2"/>
     </row>
-    <row r="834" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A834" s="2"/>
       <c r="B834" s="2"/>
       <c r="C834" s="2"/>
@@ -23124,7 +23336,7 @@
       <c r="X834" s="2"/>
       <c r="Y834" s="2"/>
     </row>
-    <row r="835" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A835" s="2"/>
       <c r="B835" s="2"/>
       <c r="C835" s="2"/>
@@ -23151,7 +23363,7 @@
       <c r="X835" s="2"/>
       <c r="Y835" s="2"/>
     </row>
-    <row r="836" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A836" s="2"/>
       <c r="B836" s="2"/>
       <c r="C836" s="2"/>
@@ -23178,7 +23390,7 @@
       <c r="X836" s="2"/>
       <c r="Y836" s="2"/>
     </row>
-    <row r="837" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A837" s="2"/>
       <c r="B837" s="2"/>
       <c r="C837" s="2"/>
@@ -23205,7 +23417,7 @@
       <c r="X837" s="2"/>
       <c r="Y837" s="2"/>
     </row>
-    <row r="838" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A838" s="2"/>
       <c r="B838" s="2"/>
       <c r="C838" s="2"/>
@@ -23232,7 +23444,7 @@
       <c r="X838" s="2"/>
       <c r="Y838" s="2"/>
     </row>
-    <row r="839" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A839" s="2"/>
       <c r="B839" s="2"/>
       <c r="C839" s="2"/>
@@ -23259,7 +23471,7 @@
       <c r="X839" s="2"/>
       <c r="Y839" s="2"/>
     </row>
-    <row r="840" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A840" s="2"/>
       <c r="B840" s="2"/>
       <c r="C840" s="2"/>
@@ -23286,7 +23498,7 @@
       <c r="X840" s="2"/>
       <c r="Y840" s="2"/>
     </row>
-    <row r="841" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A841" s="2"/>
       <c r="B841" s="2"/>
       <c r="C841" s="2"/>
@@ -23313,7 +23525,7 @@
       <c r="X841" s="2"/>
       <c r="Y841" s="2"/>
     </row>
-    <row r="842" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A842" s="2"/>
       <c r="B842" s="2"/>
       <c r="C842" s="2"/>
@@ -23340,7 +23552,7 @@
       <c r="X842" s="2"/>
       <c r="Y842" s="2"/>
     </row>
-    <row r="843" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A843" s="2"/>
       <c r="B843" s="2"/>
       <c r="C843" s="2"/>
@@ -23367,7 +23579,7 @@
       <c r="X843" s="2"/>
       <c r="Y843" s="2"/>
     </row>
-    <row r="844" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A844" s="2"/>
       <c r="B844" s="2"/>
       <c r="C844" s="2"/>
@@ -23394,7 +23606,7 @@
       <c r="X844" s="2"/>
       <c r="Y844" s="2"/>
     </row>
-    <row r="845" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A845" s="2"/>
       <c r="B845" s="2"/>
       <c r="C845" s="2"/>
@@ -23421,7 +23633,7 @@
       <c r="X845" s="2"/>
       <c r="Y845" s="2"/>
     </row>
-    <row r="846" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A846" s="2"/>
       <c r="B846" s="2"/>
       <c r="C846" s="2"/>
@@ -23448,7 +23660,7 @@
       <c r="X846" s="2"/>
       <c r="Y846" s="2"/>
     </row>
-    <row r="847" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A847" s="2"/>
       <c r="B847" s="2"/>
       <c r="C847" s="2"/>
@@ -23475,7 +23687,7 @@
       <c r="X847" s="2"/>
       <c r="Y847" s="2"/>
     </row>
-    <row r="848" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A848" s="2"/>
       <c r="B848" s="2"/>
       <c r="C848" s="2"/>
@@ -23502,7 +23714,7 @@
       <c r="X848" s="2"/>
       <c r="Y848" s="2"/>
     </row>
-    <row r="849" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A849" s="2"/>
       <c r="B849" s="2"/>
       <c r="C849" s="2"/>
@@ -23529,7 +23741,7 @@
       <c r="X849" s="2"/>
       <c r="Y849" s="2"/>
     </row>
-    <row r="850" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="850" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A850" s="2"/>
       <c r="B850" s="2"/>
       <c r="C850" s="2"/>
@@ -23556,7 +23768,7 @@
       <c r="X850" s="2"/>
       <c r="Y850" s="2"/>
     </row>
-    <row r="851" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A851" s="2"/>
       <c r="B851" s="2"/>
       <c r="C851" s="2"/>
@@ -23583,7 +23795,7 @@
       <c r="X851" s="2"/>
       <c r="Y851" s="2"/>
     </row>
-    <row r="852" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A852" s="2"/>
       <c r="B852" s="2"/>
       <c r="C852" s="2"/>
@@ -23610,7 +23822,7 @@
       <c r="X852" s="2"/>
       <c r="Y852" s="2"/>
     </row>
-    <row r="853" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A853" s="2"/>
       <c r="B853" s="2"/>
       <c r="C853" s="2"/>
@@ -23637,7 +23849,7 @@
       <c r="X853" s="2"/>
       <c r="Y853" s="2"/>
     </row>
-    <row r="854" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="854" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A854" s="2"/>
       <c r="B854" s="2"/>
       <c r="C854" s="2"/>
@@ -23664,7 +23876,7 @@
       <c r="X854" s="2"/>
       <c r="Y854" s="2"/>
     </row>
-    <row r="855" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A855" s="2"/>
       <c r="B855" s="2"/>
       <c r="C855" s="2"/>
@@ -23691,7 +23903,7 @@
       <c r="X855" s="2"/>
       <c r="Y855" s="2"/>
     </row>
-    <row r="856" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="856" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A856" s="2"/>
       <c r="B856" s="2"/>
       <c r="C856" s="2"/>
@@ -23718,7 +23930,7 @@
       <c r="X856" s="2"/>
       <c r="Y856" s="2"/>
     </row>
-    <row r="857" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="857" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A857" s="2"/>
       <c r="B857" s="2"/>
       <c r="C857" s="2"/>
@@ -23745,7 +23957,7 @@
       <c r="X857" s="2"/>
       <c r="Y857" s="2"/>
     </row>
-    <row r="858" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="858" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A858" s="2"/>
       <c r="B858" s="2"/>
       <c r="C858" s="2"/>
@@ -23772,7 +23984,7 @@
       <c r="X858" s="2"/>
       <c r="Y858" s="2"/>
     </row>
-    <row r="859" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="859" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A859" s="2"/>
       <c r="B859" s="2"/>
       <c r="C859" s="2"/>
@@ -23799,7 +24011,7 @@
       <c r="X859" s="2"/>
       <c r="Y859" s="2"/>
     </row>
-    <row r="860" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="860" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A860" s="2"/>
       <c r="B860" s="2"/>
       <c r="C860" s="2"/>
@@ -23826,7 +24038,7 @@
       <c r="X860" s="2"/>
       <c r="Y860" s="2"/>
     </row>
-    <row r="861" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="861" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A861" s="2"/>
       <c r="B861" s="2"/>
       <c r="C861" s="2"/>
@@ -23853,7 +24065,7 @@
       <c r="X861" s="2"/>
       <c r="Y861" s="2"/>
     </row>
-    <row r="862" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="862" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A862" s="2"/>
       <c r="B862" s="2"/>
       <c r="C862" s="2"/>
@@ -23880,7 +24092,7 @@
       <c r="X862" s="2"/>
       <c r="Y862" s="2"/>
     </row>
-    <row r="863" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="863" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A863" s="2"/>
       <c r="B863" s="2"/>
       <c r="C863" s="2"/>
@@ -23907,7 +24119,7 @@
       <c r="X863" s="2"/>
       <c r="Y863" s="2"/>
     </row>
-    <row r="864" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="864" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A864" s="2"/>
       <c r="B864" s="2"/>
       <c r="C864" s="2"/>
@@ -23934,7 +24146,7 @@
       <c r="X864" s="2"/>
       <c r="Y864" s="2"/>
     </row>
-    <row r="865" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="865" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A865" s="2"/>
       <c r="B865" s="2"/>
       <c r="C865" s="2"/>
@@ -23961,7 +24173,7 @@
       <c r="X865" s="2"/>
       <c r="Y865" s="2"/>
     </row>
-    <row r="866" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="866" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A866" s="2"/>
       <c r="B866" s="2"/>
       <c r="C866" s="2"/>
@@ -23988,7 +24200,7 @@
       <c r="X866" s="2"/>
       <c r="Y866" s="2"/>
     </row>
-    <row r="867" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="867" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A867" s="2"/>
       <c r="B867" s="2"/>
       <c r="C867" s="2"/>
@@ -24015,7 +24227,7 @@
       <c r="X867" s="2"/>
       <c r="Y867" s="2"/>
     </row>
-    <row r="868" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="868" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A868" s="2"/>
       <c r="B868" s="2"/>
       <c r="C868" s="2"/>
@@ -24042,7 +24254,7 @@
       <c r="X868" s="2"/>
       <c r="Y868" s="2"/>
     </row>
-    <row r="869" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="869" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A869" s="2"/>
       <c r="B869" s="2"/>
       <c r="C869" s="2"/>
@@ -24069,7 +24281,7 @@
       <c r="X869" s="2"/>
       <c r="Y869" s="2"/>
     </row>
-    <row r="870" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="870" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A870" s="2"/>
       <c r="B870" s="2"/>
       <c r="C870" s="2"/>
@@ -24096,7 +24308,7 @@
       <c r="X870" s="2"/>
       <c r="Y870" s="2"/>
     </row>
-    <row r="871" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="871" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A871" s="2"/>
       <c r="B871" s="2"/>
       <c r="C871" s="2"/>
@@ -24123,7 +24335,7 @@
       <c r="X871" s="2"/>
       <c r="Y871" s="2"/>
     </row>
-    <row r="872" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="872" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A872" s="2"/>
       <c r="B872" s="2"/>
       <c r="C872" s="2"/>
@@ -24150,7 +24362,7 @@
       <c r="X872" s="2"/>
       <c r="Y872" s="2"/>
     </row>
-    <row r="873" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="873" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A873" s="2"/>
       <c r="B873" s="2"/>
       <c r="C873" s="2"/>
@@ -24177,7 +24389,7 @@
       <c r="X873" s="2"/>
       <c r="Y873" s="2"/>
     </row>
-    <row r="874" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="874" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A874" s="2"/>
       <c r="B874" s="2"/>
       <c r="C874" s="2"/>
@@ -24204,7 +24416,7 @@
       <c r="X874" s="2"/>
       <c r="Y874" s="2"/>
     </row>
-    <row r="875" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="875" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A875" s="2"/>
       <c r="B875" s="2"/>
       <c r="C875" s="2"/>
@@ -24231,7 +24443,7 @@
       <c r="X875" s="2"/>
       <c r="Y875" s="2"/>
     </row>
-    <row r="876" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="876" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A876" s="2"/>
       <c r="B876" s="2"/>
       <c r="C876" s="2"/>
@@ -24258,7 +24470,7 @@
       <c r="X876" s="2"/>
       <c r="Y876" s="2"/>
     </row>
-    <row r="877" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="877" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A877" s="2"/>
       <c r="B877" s="2"/>
       <c r="C877" s="2"/>
@@ -24285,7 +24497,7 @@
       <c r="X877" s="2"/>
       <c r="Y877" s="2"/>
     </row>
-    <row r="878" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="878" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A878" s="2"/>
       <c r="B878" s="2"/>
       <c r="C878" s="2"/>
@@ -24312,7 +24524,7 @@
       <c r="X878" s="2"/>
       <c r="Y878" s="2"/>
     </row>
-    <row r="879" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="879" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A879" s="2"/>
       <c r="B879" s="2"/>
       <c r="C879" s="2"/>
@@ -24339,7 +24551,7 @@
       <c r="X879" s="2"/>
       <c r="Y879" s="2"/>
     </row>
-    <row r="880" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="880" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A880" s="2"/>
       <c r="B880" s="2"/>
       <c r="C880" s="2"/>
@@ -24366,7 +24578,7 @@
       <c r="X880" s="2"/>
       <c r="Y880" s="2"/>
     </row>
-    <row r="881" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="881" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A881" s="2"/>
       <c r="B881" s="2"/>
       <c r="C881" s="2"/>
@@ -24393,7 +24605,7 @@
       <c r="X881" s="2"/>
       <c r="Y881" s="2"/>
     </row>
-    <row r="882" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="882" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A882" s="2"/>
       <c r="B882" s="2"/>
       <c r="C882" s="2"/>
@@ -24420,7 +24632,7 @@
       <c r="X882" s="2"/>
       <c r="Y882" s="2"/>
     </row>
-    <row r="883" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="883" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A883" s="2"/>
       <c r="B883" s="2"/>
       <c r="C883" s="2"/>
@@ -24447,7 +24659,7 @@
       <c r="X883" s="2"/>
       <c r="Y883" s="2"/>
     </row>
-    <row r="884" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="884" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A884" s="2"/>
       <c r="B884" s="2"/>
       <c r="C884" s="2"/>
@@ -24474,7 +24686,7 @@
       <c r="X884" s="2"/>
       <c r="Y884" s="2"/>
     </row>
-    <row r="885" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="885" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A885" s="2"/>
       <c r="B885" s="2"/>
       <c r="C885" s="2"/>
@@ -24501,7 +24713,7 @@
       <c r="X885" s="2"/>
       <c r="Y885" s="2"/>
     </row>
-    <row r="886" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="886" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A886" s="2"/>
       <c r="B886" s="2"/>
       <c r="C886" s="2"/>
@@ -24528,7 +24740,7 @@
       <c r="X886" s="2"/>
       <c r="Y886" s="2"/>
     </row>
-    <row r="887" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="887" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A887" s="2"/>
       <c r="B887" s="2"/>
       <c r="C887" s="2"/>
@@ -24555,7 +24767,7 @@
       <c r="X887" s="2"/>
       <c r="Y887" s="2"/>
     </row>
-    <row r="888" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="888" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A888" s="2"/>
       <c r="B888" s="2"/>
       <c r="C888" s="2"/>
@@ -24582,7 +24794,7 @@
       <c r="X888" s="2"/>
       <c r="Y888" s="2"/>
     </row>
-    <row r="889" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="889" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A889" s="2"/>
       <c r="B889" s="2"/>
       <c r="C889" s="2"/>
@@ -24609,7 +24821,7 @@
       <c r="X889" s="2"/>
       <c r="Y889" s="2"/>
     </row>
-    <row r="890" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="890" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A890" s="2"/>
       <c r="B890" s="2"/>
       <c r="C890" s="2"/>
@@ -24636,7 +24848,7 @@
       <c r="X890" s="2"/>
       <c r="Y890" s="2"/>
     </row>
-    <row r="891" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="891" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A891" s="2"/>
       <c r="B891" s="2"/>
       <c r="C891" s="2"/>
@@ -24663,7 +24875,7 @@
       <c r="X891" s="2"/>
       <c r="Y891" s="2"/>
     </row>
-    <row r="892" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="892" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A892" s="2"/>
       <c r="B892" s="2"/>
       <c r="C892" s="2"/>
@@ -24690,7 +24902,7 @@
       <c r="X892" s="2"/>
       <c r="Y892" s="2"/>
     </row>
-    <row r="893" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="893" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A893" s="2"/>
       <c r="B893" s="2"/>
       <c r="C893" s="2"/>
@@ -24717,7 +24929,7 @@
       <c r="X893" s="2"/>
       <c r="Y893" s="2"/>
     </row>
-    <row r="894" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="894" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A894" s="2"/>
       <c r="B894" s="2"/>
       <c r="C894" s="2"/>
@@ -24744,7 +24956,7 @@
       <c r="X894" s="2"/>
       <c r="Y894" s="2"/>
     </row>
-    <row r="895" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="895" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A895" s="2"/>
       <c r="B895" s="2"/>
       <c r="C895" s="2"/>
@@ -24771,7 +24983,7 @@
       <c r="X895" s="2"/>
       <c r="Y895" s="2"/>
     </row>
-    <row r="896" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="896" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A896" s="2"/>
       <c r="B896" s="2"/>
       <c r="C896" s="2"/>
@@ -24798,7 +25010,7 @@
       <c r="X896" s="2"/>
       <c r="Y896" s="2"/>
     </row>
-    <row r="897" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="897" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A897" s="2"/>
       <c r="B897" s="2"/>
       <c r="C897" s="2"/>
@@ -24825,7 +25037,7 @@
       <c r="X897" s="2"/>
       <c r="Y897" s="2"/>
     </row>
-    <row r="898" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="898" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A898" s="2"/>
       <c r="B898" s="2"/>
       <c r="C898" s="2"/>
@@ -24852,7 +25064,7 @@
       <c r="X898" s="2"/>
       <c r="Y898" s="2"/>
     </row>
-    <row r="899" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="899" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A899" s="2"/>
       <c r="B899" s="2"/>
       <c r="C899" s="2"/>
@@ -24879,7 +25091,7 @@
       <c r="X899" s="2"/>
       <c r="Y899" s="2"/>
     </row>
-    <row r="900" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="900" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A900" s="2"/>
       <c r="B900" s="2"/>
       <c r="C900" s="2"/>
@@ -24906,7 +25118,7 @@
       <c r="X900" s="2"/>
       <c r="Y900" s="2"/>
     </row>
-    <row r="901" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="901" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A901" s="2"/>
       <c r="B901" s="2"/>
       <c r="C901" s="2"/>
@@ -24933,7 +25145,7 @@
       <c r="X901" s="2"/>
       <c r="Y901" s="2"/>
     </row>
-    <row r="902" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="902" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A902" s="2"/>
       <c r="B902" s="2"/>
       <c r="C902" s="2"/>
@@ -24960,7 +25172,7 @@
       <c r="X902" s="2"/>
       <c r="Y902" s="2"/>
     </row>
-    <row r="903" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="903" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A903" s="2"/>
       <c r="B903" s="2"/>
       <c r="C903" s="2"/>
@@ -24987,7 +25199,7 @@
       <c r="X903" s="2"/>
       <c r="Y903" s="2"/>
     </row>
-    <row r="904" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="904" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A904" s="2"/>
       <c r="B904" s="2"/>
       <c r="C904" s="2"/>
@@ -25014,7 +25226,7 @@
       <c r="X904" s="2"/>
       <c r="Y904" s="2"/>
     </row>
-    <row r="905" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="905" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A905" s="2"/>
       <c r="B905" s="2"/>
       <c r="C905" s="2"/>
@@ -25041,7 +25253,7 @@
       <c r="X905" s="2"/>
       <c r="Y905" s="2"/>
     </row>
-    <row r="906" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="906" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A906" s="2"/>
       <c r="B906" s="2"/>
       <c r="C906" s="2"/>
@@ -25068,7 +25280,7 @@
       <c r="X906" s="2"/>
       <c r="Y906" s="2"/>
     </row>
-    <row r="907" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="907" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A907" s="2"/>
       <c r="B907" s="2"/>
       <c r="C907" s="2"/>
@@ -25095,7 +25307,7 @@
       <c r="X907" s="2"/>
       <c r="Y907" s="2"/>
     </row>
-    <row r="908" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="908" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A908" s="2"/>
       <c r="B908" s="2"/>
       <c r="C908" s="2"/>
@@ -25122,7 +25334,7 @@
       <c r="X908" s="2"/>
       <c r="Y908" s="2"/>
     </row>
-    <row r="909" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="909" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A909" s="2"/>
       <c r="B909" s="2"/>
       <c r="C909" s="2"/>
@@ -25149,7 +25361,7 @@
       <c r="X909" s="2"/>
       <c r="Y909" s="2"/>
     </row>
-    <row r="910" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="910" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A910" s="2"/>
       <c r="B910" s="2"/>
       <c r="C910" s="2"/>
@@ -25176,7 +25388,7 @@
       <c r="X910" s="2"/>
       <c r="Y910" s="2"/>
     </row>
-    <row r="911" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="911" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A911" s="2"/>
       <c r="B911" s="2"/>
       <c r="C911" s="2"/>
@@ -25203,7 +25415,7 @@
       <c r="X911" s="2"/>
       <c r="Y911" s="2"/>
     </row>
-    <row r="912" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="912" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A912" s="2"/>
       <c r="B912" s="2"/>
       <c r="C912" s="2"/>
@@ -25230,7 +25442,7 @@
       <c r="X912" s="2"/>
       <c r="Y912" s="2"/>
     </row>
-    <row r="913" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="913" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A913" s="2"/>
       <c r="B913" s="2"/>
       <c r="C913" s="2"/>
@@ -25257,7 +25469,7 @@
       <c r="X913" s="2"/>
       <c r="Y913" s="2"/>
     </row>
-    <row r="914" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="914" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A914" s="2"/>
       <c r="B914" s="2"/>
       <c r="C914" s="2"/>
@@ -25284,7 +25496,7 @@
       <c r="X914" s="2"/>
       <c r="Y914" s="2"/>
     </row>
-    <row r="915" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="915" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A915" s="2"/>
       <c r="B915" s="2"/>
       <c r="C915" s="2"/>
@@ -25311,7 +25523,7 @@
       <c r="X915" s="2"/>
       <c r="Y915" s="2"/>
     </row>
-    <row r="916" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="916" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A916" s="2"/>
       <c r="B916" s="2"/>
       <c r="C916" s="2"/>
@@ -25338,7 +25550,7 @@
       <c r="X916" s="2"/>
       <c r="Y916" s="2"/>
     </row>
-    <row r="917" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="917" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A917" s="2"/>
       <c r="B917" s="2"/>
       <c r="C917" s="2"/>
@@ -25365,7 +25577,7 @@
       <c r="X917" s="2"/>
       <c r="Y917" s="2"/>
     </row>
-    <row r="918" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="918" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A918" s="2"/>
       <c r="B918" s="2"/>
       <c r="C918" s="2"/>
@@ -25392,7 +25604,7 @@
       <c r="X918" s="2"/>
       <c r="Y918" s="2"/>
     </row>
-    <row r="919" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="919" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A919" s="2"/>
       <c r="B919" s="2"/>
       <c r="C919" s="2"/>
@@ -25419,7 +25631,7 @@
       <c r="X919" s="2"/>
       <c r="Y919" s="2"/>
     </row>
-    <row r="920" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="920" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A920" s="2"/>
       <c r="B920" s="2"/>
       <c r="C920" s="2"/>
@@ -25446,7 +25658,7 @@
       <c r="X920" s="2"/>
       <c r="Y920" s="2"/>
     </row>
-    <row r="921" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="921" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A921" s="2"/>
       <c r="B921" s="2"/>
       <c r="C921" s="2"/>
@@ -25473,7 +25685,7 @@
       <c r="X921" s="2"/>
       <c r="Y921" s="2"/>
     </row>
-    <row r="922" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="922" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A922" s="2"/>
       <c r="B922" s="2"/>
       <c r="C922" s="2"/>
@@ -25500,7 +25712,7 @@
       <c r="X922" s="2"/>
       <c r="Y922" s="2"/>
     </row>
-    <row r="923" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="923" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A923" s="2"/>
       <c r="B923" s="2"/>
       <c r="C923" s="2"/>
@@ -25527,7 +25739,7 @@
       <c r="X923" s="2"/>
       <c r="Y923" s="2"/>
     </row>
-    <row r="924" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="924" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A924" s="2"/>
       <c r="B924" s="2"/>
       <c r="C924" s="2"/>
@@ -25554,7 +25766,7 @@
       <c r="X924" s="2"/>
       <c r="Y924" s="2"/>
     </row>
-    <row r="925" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="925" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A925" s="2"/>
       <c r="B925" s="2"/>
       <c r="C925" s="2"/>
@@ -25581,7 +25793,7 @@
       <c r="X925" s="2"/>
       <c r="Y925" s="2"/>
     </row>
-    <row r="926" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="926" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A926" s="2"/>
       <c r="B926" s="2"/>
       <c r="C926" s="2"/>
@@ -25608,7 +25820,7 @@
       <c r="X926" s="2"/>
       <c r="Y926" s="2"/>
     </row>
-    <row r="927" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="927" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A927" s="2"/>
       <c r="B927" s="2"/>
       <c r="C927" s="2"/>
@@ -25635,7 +25847,7 @@
       <c r="X927" s="2"/>
       <c r="Y927" s="2"/>
     </row>
-    <row r="928" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="928" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A928" s="2"/>
       <c r="B928" s="2"/>
       <c r="C928" s="2"/>
@@ -25662,7 +25874,7 @@
       <c r="X928" s="2"/>
       <c r="Y928" s="2"/>
     </row>
-    <row r="929" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="929" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A929" s="2"/>
       <c r="B929" s="2"/>
       <c r="C929" s="2"/>
@@ -25689,7 +25901,7 @@
       <c r="X929" s="2"/>
       <c r="Y929" s="2"/>
     </row>
-    <row r="930" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="930" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A930" s="2"/>
       <c r="B930" s="2"/>
       <c r="C930" s="2"/>
@@ -25716,7 +25928,7 @@
       <c r="X930" s="2"/>
       <c r="Y930" s="2"/>
     </row>
-    <row r="931" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="931" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A931" s="2"/>
       <c r="B931" s="2"/>
       <c r="C931" s="2"/>
@@ -25743,7 +25955,7 @@
       <c r="X931" s="2"/>
       <c r="Y931" s="2"/>
     </row>
-    <row r="932" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="932" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A932" s="2"/>
       <c r="B932" s="2"/>
       <c r="C932" s="2"/>
@@ -25770,7 +25982,7 @@
       <c r="X932" s="2"/>
       <c r="Y932" s="2"/>
     </row>
-    <row r="933" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="933" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A933" s="2"/>
       <c r="B933" s="2"/>
       <c r="C933" s="2"/>
@@ -25797,7 +26009,7 @@
       <c r="X933" s="2"/>
       <c r="Y933" s="2"/>
     </row>
-    <row r="934" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="934" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A934" s="2"/>
       <c r="B934" s="2"/>
       <c r="C934" s="2"/>
@@ -25824,7 +26036,7 @@
       <c r="X934" s="2"/>
       <c r="Y934" s="2"/>
     </row>
-    <row r="935" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="935" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A935" s="2"/>
       <c r="B935" s="2"/>
       <c r="C935" s="2"/>
@@ -25851,7 +26063,7 @@
       <c r="X935" s="2"/>
       <c r="Y935" s="2"/>
     </row>
-    <row r="936" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="936" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A936" s="2"/>
       <c r="B936" s="2"/>
       <c r="C936" s="2"/>
@@ -25878,7 +26090,7 @@
       <c r="X936" s="2"/>
       <c r="Y936" s="2"/>
     </row>
-    <row r="937" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="937" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A937" s="2"/>
       <c r="B937" s="2"/>
       <c r="C937" s="2"/>
@@ -25905,7 +26117,7 @@
       <c r="X937" s="2"/>
       <c r="Y937" s="2"/>
     </row>
-    <row r="938" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="938" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A938" s="2"/>
       <c r="B938" s="2"/>
       <c r="C938" s="2"/>
@@ -25932,7 +26144,7 @@
       <c r="X938" s="2"/>
       <c r="Y938" s="2"/>
     </row>
-    <row r="939" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="939" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A939" s="2"/>
       <c r="B939" s="2"/>
       <c r="C939" s="2"/>
@@ -25959,7 +26171,7 @@
       <c r="X939" s="2"/>
       <c r="Y939" s="2"/>
     </row>
-    <row r="940" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="940" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A940" s="2"/>
       <c r="B940" s="2"/>
       <c r="C940" s="2"/>
@@ -25986,7 +26198,7 @@
       <c r="X940" s="2"/>
       <c r="Y940" s="2"/>
     </row>
-    <row r="941" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="941" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A941" s="2"/>
       <c r="B941" s="2"/>
       <c r="C941" s="2"/>
@@ -26013,7 +26225,7 @@
       <c r="X941" s="2"/>
       <c r="Y941" s="2"/>
     </row>
-    <row r="942" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="942" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A942" s="2"/>
       <c r="B942" s="2"/>
       <c r="C942" s="2"/>
@@ -26040,7 +26252,7 @@
       <c r="X942" s="2"/>
       <c r="Y942" s="2"/>
     </row>
-    <row r="943" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="943" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A943" s="2"/>
       <c r="B943" s="2"/>
       <c r="C943" s="2"/>
@@ -26067,7 +26279,7 @@
       <c r="X943" s="2"/>
       <c r="Y943" s="2"/>
     </row>
-    <row r="944" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="944" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A944" s="2"/>
       <c r="B944" s="2"/>
       <c r="C944" s="2"/>
@@ -26094,7 +26306,7 @@
       <c r="X944" s="2"/>
       <c r="Y944" s="2"/>
     </row>
-    <row r="945" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="945" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A945" s="2"/>
       <c r="B945" s="2"/>
       <c r="C945" s="2"/>
@@ -26121,7 +26333,7 @@
       <c r="X945" s="2"/>
       <c r="Y945" s="2"/>
     </row>
-    <row r="946" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="946" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A946" s="2"/>
       <c r="B946" s="2"/>
       <c r="C946" s="2"/>
@@ -26148,7 +26360,7 @@
       <c r="X946" s="2"/>
       <c r="Y946" s="2"/>
     </row>
-    <row r="947" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="947" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A947" s="2"/>
       <c r="B947" s="2"/>
       <c r="C947" s="2"/>
@@ -26175,7 +26387,7 @@
       <c r="X947" s="2"/>
       <c r="Y947" s="2"/>
     </row>
-    <row r="948" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="948" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A948" s="2"/>
       <c r="B948" s="2"/>
       <c r="C948" s="2"/>
@@ -26202,7 +26414,7 @@
       <c r="X948" s="2"/>
       <c r="Y948" s="2"/>
     </row>
-    <row r="949" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="949" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A949" s="2"/>
       <c r="B949" s="2"/>
       <c r="C949" s="2"/>
@@ -26229,7 +26441,7 @@
       <c r="X949" s="2"/>
       <c r="Y949" s="2"/>
     </row>
-    <row r="950" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="950" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A950" s="2"/>
       <c r="B950" s="2"/>
       <c r="C950" s="2"/>
@@ -26256,7 +26468,7 @@
       <c r="X950" s="2"/>
       <c r="Y950" s="2"/>
     </row>
-    <row r="951" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="951" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A951" s="2"/>
       <c r="B951" s="2"/>
       <c r="C951" s="2"/>
@@ -26283,7 +26495,7 @@
       <c r="X951" s="2"/>
       <c r="Y951" s="2"/>
     </row>
-    <row r="952" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="952" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A952" s="2"/>
       <c r="B952" s="2"/>
       <c r="C952" s="2"/>
@@ -26310,7 +26522,7 @@
       <c r="X952" s="2"/>
       <c r="Y952" s="2"/>
     </row>
-    <row r="953" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="953" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A953" s="2"/>
       <c r="B953" s="2"/>
       <c r="C953" s="2"/>
@@ -26337,7 +26549,7 @@
       <c r="X953" s="2"/>
       <c r="Y953" s="2"/>
     </row>
-    <row r="954" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="954" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A954" s="2"/>
       <c r="B954" s="2"/>
       <c r="C954" s="2"/>
@@ -26364,7 +26576,7 @@
       <c r="X954" s="2"/>
       <c r="Y954" s="2"/>
     </row>
-    <row r="955" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="955" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A955" s="2"/>
       <c r="B955" s="2"/>
       <c r="C955" s="2"/>
@@ -26391,7 +26603,7 @@
       <c r="X955" s="2"/>
       <c r="Y955" s="2"/>
     </row>
-    <row r="956" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="956" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A956" s="2"/>
       <c r="B956" s="2"/>
       <c r="C956" s="2"/>
@@ -26418,7 +26630,7 @@
       <c r="X956" s="2"/>
       <c r="Y956" s="2"/>
     </row>
-    <row r="957" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="957" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A957" s="2"/>
       <c r="B957" s="2"/>
       <c r="C957" s="2"/>
@@ -26445,7 +26657,7 @@
       <c r="X957" s="2"/>
       <c r="Y957" s="2"/>
     </row>
-    <row r="958" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="958" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A958" s="2"/>
       <c r="B958" s="2"/>
       <c r="C958" s="2"/>
@@ -26472,7 +26684,7 @@
       <c r="X958" s="2"/>
       <c r="Y958" s="2"/>
     </row>
-    <row r="959" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="959" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A959" s="2"/>
       <c r="B959" s="2"/>
       <c r="C959" s="2"/>
@@ -26499,7 +26711,7 @@
       <c r="X959" s="2"/>
       <c r="Y959" s="2"/>
     </row>
-    <row r="960" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="960" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A960" s="2"/>
       <c r="B960" s="2"/>
       <c r="C960" s="2"/>
@@ -26526,7 +26738,7 @@
       <c r="X960" s="2"/>
       <c r="Y960" s="2"/>
     </row>
-    <row r="961" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="961" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A961" s="2"/>
       <c r="B961" s="2"/>
       <c r="C961" s="2"/>
@@ -26553,7 +26765,7 @@
       <c r="X961" s="2"/>
       <c r="Y961" s="2"/>
     </row>
-    <row r="962" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="962" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A962" s="2"/>
       <c r="B962" s="2"/>
       <c r="C962" s="2"/>
@@ -26580,7 +26792,7 @@
       <c r="X962" s="2"/>
       <c r="Y962" s="2"/>
     </row>
-    <row r="963" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="963" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A963" s="2"/>
       <c r="B963" s="2"/>
       <c r="C963" s="2"/>
@@ -26607,7 +26819,7 @@
       <c r="X963" s="2"/>
       <c r="Y963" s="2"/>
     </row>
-    <row r="964" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="964" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A964" s="2"/>
       <c r="B964" s="2"/>
       <c r="C964" s="2"/>
@@ -26634,7 +26846,7 @@
       <c r="X964" s="2"/>
       <c r="Y964" s="2"/>
     </row>
-    <row r="965" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="965" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A965" s="2"/>
       <c r="B965" s="2"/>
       <c r="C965" s="2"/>
@@ -26661,7 +26873,7 @@
       <c r="X965" s="2"/>
       <c r="Y965" s="2"/>
     </row>
-    <row r="966" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="966" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A966" s="2"/>
       <c r="B966" s="2"/>
       <c r="C966" s="2"/>
@@ -26688,7 +26900,7 @@
       <c r="X966" s="2"/>
       <c r="Y966" s="2"/>
     </row>
-    <row r="967" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="967" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A967" s="2"/>
       <c r="B967" s="2"/>
       <c r="C967" s="2"/>
@@ -26715,7 +26927,7 @@
       <c r="X967" s="2"/>
       <c r="Y967" s="2"/>
     </row>
-    <row r="968" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="968" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A968" s="2"/>
       <c r="B968" s="2"/>
       <c r="C968" s="2"/>
@@ -26742,7 +26954,7 @@
       <c r="X968" s="2"/>
       <c r="Y968" s="2"/>
     </row>
-    <row r="969" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="969" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A969" s="2"/>
       <c r="B969" s="2"/>
       <c r="C969" s="2"/>
@@ -26769,7 +26981,7 @@
       <c r="X969" s="2"/>
       <c r="Y969" s="2"/>
     </row>
-    <row r="970" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="970" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A970" s="2"/>
       <c r="B970" s="2"/>
       <c r="C970" s="2"/>
@@ -26796,7 +27008,7 @@
       <c r="X970" s="2"/>
       <c r="Y970" s="2"/>
     </row>
-    <row r="971" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="971" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A971" s="2"/>
       <c r="B971" s="2"/>
       <c r="C971" s="2"/>
@@ -26823,7 +27035,7 @@
       <c r="X971" s="2"/>
       <c r="Y971" s="2"/>
     </row>
-    <row r="972" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="972" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A972" s="2"/>
       <c r="B972" s="2"/>
       <c r="C972" s="2"/>
@@ -26850,7 +27062,7 @@
       <c r="X972" s="2"/>
       <c r="Y972" s="2"/>
     </row>
-    <row r="973" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="973" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A973" s="2"/>
       <c r="B973" s="2"/>
       <c r="C973" s="2"/>
@@ -26877,7 +27089,7 @@
       <c r="X973" s="2"/>
       <c r="Y973" s="2"/>
     </row>
-    <row r="974" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="974" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A974" s="2"/>
       <c r="B974" s="2"/>
       <c r="C974" s="2"/>
@@ -26904,7 +27116,7 @@
       <c r="X974" s="2"/>
       <c r="Y974" s="2"/>
     </row>
-    <row r="975" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="975" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A975" s="2"/>
       <c r="B975" s="2"/>
       <c r="C975" s="2"/>
@@ -26931,7 +27143,7 @@
       <c r="X975" s="2"/>
       <c r="Y975" s="2"/>
     </row>
-    <row r="976" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="976" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A976" s="2"/>
       <c r="B976" s="2"/>
       <c r="C976" s="2"/>
@@ -26958,7 +27170,7 @@
       <c r="X976" s="2"/>
       <c r="Y976" s="2"/>
     </row>
-    <row r="977" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="977" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A977" s="2"/>
       <c r="B977" s="2"/>
       <c r="C977" s="2"/>
@@ -26985,7 +27197,7 @@
       <c r="X977" s="2"/>
       <c r="Y977" s="2"/>
     </row>
-    <row r="978" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="978" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A978" s="2"/>
       <c r="B978" s="2"/>
       <c r="C978" s="2"/>
@@ -27012,7 +27224,7 @@
       <c r="X978" s="2"/>
       <c r="Y978" s="2"/>
     </row>
-    <row r="979" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="979" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A979" s="2"/>
       <c r="B979" s="2"/>
       <c r="C979" s="2"/>
@@ -27039,7 +27251,7 @@
       <c r="X979" s="2"/>
       <c r="Y979" s="2"/>
     </row>
-    <row r="980" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="980" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A980" s="2"/>
       <c r="B980" s="2"/>
       <c r="C980" s="2"/>
@@ -27066,7 +27278,7 @@
       <c r="X980" s="2"/>
       <c r="Y980" s="2"/>
     </row>
-    <row r="981" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="981" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A981" s="2"/>
       <c r="B981" s="2"/>
       <c r="C981" s="2"/>
@@ -27093,7 +27305,7 @@
       <c r="X981" s="2"/>
       <c r="Y981" s="2"/>
     </row>
-    <row r="982" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="982" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A982" s="2"/>
       <c r="B982" s="2"/>
       <c r="C982" s="2"/>
@@ -27120,7 +27332,7 @@
       <c r="X982" s="2"/>
       <c r="Y982" s="2"/>
     </row>
-    <row r="983" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="983" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A983" s="2"/>
       <c r="B983" s="2"/>
       <c r="C983" s="2"/>
@@ -27147,7 +27359,7 @@
       <c r="X983" s="2"/>
       <c r="Y983" s="2"/>
     </row>
-    <row r="984" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="984" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A984" s="2"/>
       <c r="B984" s="2"/>
       <c r="C984" s="2"/>
@@ -27174,7 +27386,7 @@
       <c r="X984" s="2"/>
       <c r="Y984" s="2"/>
     </row>
-    <row r="985" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="985" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A985" s="2"/>
       <c r="B985" s="2"/>
       <c r="C985" s="2"/>
@@ -27201,7 +27413,7 @@
       <c r="X985" s="2"/>
       <c r="Y985" s="2"/>
     </row>
-    <row r="986" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="986" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A986" s="2"/>
       <c r="B986" s="2"/>
       <c r="C986" s="2"/>
@@ -27228,7 +27440,7 @@
       <c r="X986" s="2"/>
       <c r="Y986" s="2"/>
     </row>
-    <row r="987" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="987" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A987" s="2"/>
       <c r="B987" s="2"/>
       <c r="C987" s="2"/>
@@ -27255,7 +27467,7 @@
       <c r="X987" s="2"/>
       <c r="Y987" s="2"/>
     </row>
-    <row r="988" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="988" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A988" s="2"/>
       <c r="B988" s="2"/>
       <c r="C988" s="2"/>
@@ -27282,7 +27494,7 @@
       <c r="X988" s="2"/>
       <c r="Y988" s="2"/>
     </row>
-    <row r="989" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="989" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A989" s="2"/>
       <c r="B989" s="2"/>
       <c r="C989" s="2"/>
@@ -27309,7 +27521,7 @@
       <c r="X989" s="2"/>
       <c r="Y989" s="2"/>
     </row>
-    <row r="990" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="990" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A990" s="2"/>
       <c r="B990" s="2"/>
       <c r="C990" s="2"/>
@@ -27336,7 +27548,7 @@
       <c r="X990" s="2"/>
       <c r="Y990" s="2"/>
     </row>
-    <row r="991" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="991" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A991" s="2"/>
       <c r="B991" s="2"/>
       <c r="C991" s="2"/>
@@ -27363,7 +27575,7 @@
       <c r="X991" s="2"/>
       <c r="Y991" s="2"/>
     </row>
-    <row r="992" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="992" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A992" s="2"/>
       <c r="B992" s="2"/>
       <c r="C992" s="2"/>
@@ -27390,6 +27602,114 @@
       <c r="X992" s="2"/>
       <c r="Y992" s="2"/>
     </row>
+    <row r="993" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+      <c r="A993" s="2"/>
+      <c r="B993" s="2"/>
+      <c r="C993" s="2"/>
+      <c r="D993" s="3"/>
+      <c r="E993" s="2"/>
+      <c r="F993" s="2"/>
+      <c r="G993" s="4"/>
+      <c r="H993" s="2"/>
+      <c r="I993" s="2"/>
+      <c r="J993" s="2"/>
+      <c r="K993" s="2"/>
+      <c r="L993" s="2"/>
+      <c r="M993" s="2"/>
+      <c r="N993" s="2"/>
+      <c r="O993" s="2"/>
+      <c r="P993" s="2"/>
+      <c r="Q993" s="2"/>
+      <c r="R993" s="2"/>
+      <c r="S993" s="2"/>
+      <c r="T993" s="2"/>
+      <c r="U993" s="2"/>
+      <c r="V993" s="2"/>
+      <c r="W993" s="2"/>
+      <c r="X993" s="2"/>
+      <c r="Y993" s="2"/>
+    </row>
+    <row r="994" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+      <c r="A994" s="2"/>
+      <c r="B994" s="2"/>
+      <c r="C994" s="2"/>
+      <c r="D994" s="3"/>
+      <c r="E994" s="2"/>
+      <c r="F994" s="2"/>
+      <c r="G994" s="4"/>
+      <c r="H994" s="2"/>
+      <c r="I994" s="2"/>
+      <c r="J994" s="2"/>
+      <c r="K994" s="2"/>
+      <c r="L994" s="2"/>
+      <c r="M994" s="2"/>
+      <c r="N994" s="2"/>
+      <c r="O994" s="2"/>
+      <c r="P994" s="2"/>
+      <c r="Q994" s="2"/>
+      <c r="R994" s="2"/>
+      <c r="S994" s="2"/>
+      <c r="T994" s="2"/>
+      <c r="U994" s="2"/>
+      <c r="V994" s="2"/>
+      <c r="W994" s="2"/>
+      <c r="X994" s="2"/>
+      <c r="Y994" s="2"/>
+    </row>
+    <row r="995" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+      <c r="A995" s="2"/>
+      <c r="B995" s="2"/>
+      <c r="C995" s="2"/>
+      <c r="D995" s="3"/>
+      <c r="E995" s="2"/>
+      <c r="F995" s="2"/>
+      <c r="G995" s="4"/>
+      <c r="H995" s="2"/>
+      <c r="I995" s="2"/>
+      <c r="J995" s="2"/>
+      <c r="K995" s="2"/>
+      <c r="L995" s="2"/>
+      <c r="M995" s="2"/>
+      <c r="N995" s="2"/>
+      <c r="O995" s="2"/>
+      <c r="P995" s="2"/>
+      <c r="Q995" s="2"/>
+      <c r="R995" s="2"/>
+      <c r="S995" s="2"/>
+      <c r="T995" s="2"/>
+      <c r="U995" s="2"/>
+      <c r="V995" s="2"/>
+      <c r="W995" s="2"/>
+      <c r="X995" s="2"/>
+      <c r="Y995" s="2"/>
+    </row>
+    <row r="996" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+      <c r="A996" s="2"/>
+      <c r="B996" s="2"/>
+      <c r="C996" s="2"/>
+      <c r="D996" s="3"/>
+      <c r="E996" s="2"/>
+      <c r="F996" s="2"/>
+      <c r="G996" s="4"/>
+      <c r="H996" s="2"/>
+      <c r="I996" s="2"/>
+      <c r="J996" s="2"/>
+      <c r="K996" s="2"/>
+      <c r="L996" s="2"/>
+      <c r="M996" s="2"/>
+      <c r="N996" s="2"/>
+      <c r="O996" s="2"/>
+      <c r="P996" s="2"/>
+      <c r="Q996" s="2"/>
+      <c r="R996" s="2"/>
+      <c r="S996" s="2"/>
+      <c r="T996" s="2"/>
+      <c r="U996" s="2"/>
+      <c r="V996" s="2"/>
+      <c r="W996" s="2"/>
+      <c r="X996" s="2"/>
+      <c r="Y996" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/misc/epiparms.xlsx
+++ b/misc/epiparms.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\twhit957\Desktop\spatialEpisim\misc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28E302A2-C2DA-4DE6-BA03-A1C458437D66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A62DD583-3F93-4F24-A47D-7224F437487E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -622,7 +622,7 @@
   <dimension ref="A1:Y996"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -721,7 +721,7 @@
         <v>2.1000000000000001E-2</v>
       </c>
       <c r="H2" s="15">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="I2" s="16">
         <v>43313</v>
@@ -886,7 +886,7 @@
         <v>2.1000000000000001E-2</v>
       </c>
       <c r="H5" s="15">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I5" s="16">
         <v>44854</v>
@@ -926,7 +926,7 @@
         <v>14</v>
       </c>
       <c r="C6" s="23">
-        <v>0.21</v>
+        <v>1E-4</v>
       </c>
       <c r="D6" s="15">
         <v>5.4999999999999997E-3</v>
@@ -941,7 +941,7 @@
         <v>2.1000000000000001E-2</v>
       </c>
       <c r="H6" s="15">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="I6" s="16">
         <v>43313</v>
@@ -1091,7 +1091,7 @@
         <v>14</v>
       </c>
       <c r="C9" s="23">
-        <v>0.21</v>
+        <v>1E-4</v>
       </c>
       <c r="D9" s="15">
         <v>5.4999999999999997E-3</v>
@@ -1106,7 +1106,7 @@
         <v>2.1000000000000001E-2</v>
       </c>
       <c r="H9" s="15">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I9" s="16">
         <v>44854</v>

--- a/misc/epiparms.xlsx
+++ b/misc/epiparms.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\twhit957\Desktop\spatialEpisim\misc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A62DD583-3F93-4F24-A47D-7224F437487E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC544D91-6350-4261-BDB6-FA9E262602BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -118,10 +118,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.00000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="167" formatCode="0.000000"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -311,7 +312,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -399,6 +400,12 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -622,18 +629,17 @@
   <dimension ref="A1:Y996"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.7109375" customWidth="1"/>
-    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
@@ -705,7 +711,7 @@
       <c r="B2" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="23">
+      <c r="C2" s="31">
         <v>0</v>
       </c>
       <c r="D2" s="15">
@@ -760,7 +766,7 @@
       <c r="B3" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="23">
+      <c r="C3" s="31">
         <v>0</v>
       </c>
       <c r="D3" s="23">
@@ -815,7 +821,7 @@
       <c r="B4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="18">
+      <c r="C4" s="32">
         <v>0</v>
       </c>
       <c r="D4" s="18">
@@ -870,7 +876,7 @@
       <c r="B5" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="23">
+      <c r="C5" s="31">
         <v>0</v>
       </c>
       <c r="D5" s="15">
@@ -925,23 +931,23 @@
       <c r="B6" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="23">
-        <v>1E-4</v>
+      <c r="C6" s="31">
+        <v>3.4999999999999997E-5</v>
       </c>
       <c r="D6" s="15">
-        <v>5.4999999999999997E-3</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="E6" s="14">
-        <v>5.4999999999999997E-3</v>
+        <v>0.14285709999999999</v>
       </c>
       <c r="F6" s="14">
-        <v>0.01</v>
+        <v>2.7777779999999998E-2</v>
       </c>
       <c r="G6" s="15">
-        <v>2.1000000000000001E-2</v>
+        <v>5.5555559999999997E-2</v>
       </c>
       <c r="H6" s="15">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I6" s="16">
         <v>43313</v>
@@ -950,7 +956,7 @@
         <v>43753</v>
       </c>
       <c r="K6" s="14">
-        <v>440</v>
+        <v>689</v>
       </c>
       <c r="L6" s="14" t="s">
         <v>25</v>
@@ -980,7 +986,7 @@
       <c r="B7" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="18">
+      <c r="C7" s="32">
         <v>1.5E-3</v>
       </c>
       <c r="D7" s="18">
@@ -1035,7 +1041,7 @@
       <c r="B8" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="18">
+      <c r="C8" s="32">
         <v>1E-4</v>
       </c>
       <c r="D8" s="18">
@@ -1090,7 +1096,7 @@
       <c r="B9" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="23">
+      <c r="C9" s="31">
         <v>1E-4</v>
       </c>
       <c r="D9" s="15">

--- a/misc/epiparms.xlsx
+++ b/misc/epiparms.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\twhit957\Desktop\spatialEpisim\misc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC544D91-6350-4261-BDB6-FA9E262602BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54AE2EF3-8E5D-4624-AC0B-1F98DA4F6222}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -628,9 +628,7 @@
   </sheetPr>
   <dimension ref="A1:Y996"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -901,7 +899,7 @@
         <v>44936</v>
       </c>
       <c r="K5" s="28">
-        <v>63</v>
+        <v>100</v>
       </c>
       <c r="L5" s="28" t="s">
         <v>25</v>
@@ -1097,22 +1095,22 @@
         <v>14</v>
       </c>
       <c r="C9" s="31">
-        <v>1E-4</v>
+        <v>3.4999999999999997E-5</v>
       </c>
       <c r="D9" s="15">
-        <v>5.4999999999999997E-3</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="E9" s="14">
-        <v>5.4999999999999997E-3</v>
+        <v>0.14285700000000001</v>
       </c>
       <c r="F9" s="14">
-        <v>0.01</v>
+        <v>2.7777799999999998E-2</v>
       </c>
       <c r="G9" s="15">
-        <v>2.1000000000000001E-2</v>
+        <v>5.5555599999999997E-2</v>
       </c>
       <c r="H9" s="15">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="I9" s="16">
         <v>44854</v>
@@ -1121,7 +1119,7 @@
         <v>44936</v>
       </c>
       <c r="K9" s="28">
-        <v>63</v>
+        <v>100</v>
       </c>
       <c r="L9" s="28" t="s">
         <v>25</v>

--- a/misc/epiparms.xlsx
+++ b/misc/epiparms.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\twhit957\Desktop\spatialEpisim\misc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ashok\Desktop\spatialEpisim2022\spatialEpisim\misc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54AE2EF3-8E5D-4624-AC0B-1F98DA4F6222}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E061FA9C-BBB1-4577-A186-545F1D320F5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="epiparms" sheetId="1" r:id="rId1"/>
@@ -313,7 +313,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="33">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -386,7 +386,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="15" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -396,10 +396,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="167" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -628,26 +628,28 @@
   </sheetPr>
   <dimension ref="A1:Y996"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7265625" customWidth="1"/>
+    <col min="5" max="5" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.1796875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.453125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -702,7 +704,7 @@
       <c r="X1" s="1"/>
       <c r="Y1" s="1"/>
     </row>
-    <row r="2" spans="1:25" s="25" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" s="25" customFormat="1" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="13" t="s">
         <v>24</v>
       </c>
@@ -757,7 +759,7 @@
       <c r="X2" s="2"/>
       <c r="Y2" s="2"/>
     </row>
-    <row r="3" spans="1:25" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="13" t="s">
         <v>7</v>
       </c>
@@ -812,7 +814,7 @@
       <c r="X3" s="2"/>
       <c r="Y3" s="2"/>
     </row>
-    <row r="4" spans="1:25" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="8" t="s">
         <v>12</v>
       </c>
@@ -867,7 +869,7 @@
       <c r="X4" s="2"/>
       <c r="Y4" s="2"/>
     </row>
-    <row r="5" spans="1:25" s="25" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" s="25" customFormat="1" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="13" t="s">
         <v>23</v>
       </c>
@@ -922,7 +924,7 @@
       <c r="X5" s="2"/>
       <c r="Y5" s="2"/>
     </row>
-    <row r="6" spans="1:25" s="25" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" s="25" customFormat="1" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="13" t="s">
         <v>24</v>
       </c>
@@ -933,16 +935,16 @@
         <v>3.4999999999999997E-5</v>
       </c>
       <c r="D6" s="15">
-        <v>6.0000000000000001E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="E6" s="14">
-        <v>0.14285709999999999</v>
+        <v>0.01</v>
       </c>
       <c r="F6" s="14">
-        <v>2.7777779999999998E-2</v>
+        <v>0.03</v>
       </c>
       <c r="G6" s="15">
-        <v>5.5555559999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="H6" s="15">
         <v>15</v>
@@ -954,7 +956,7 @@
         <v>43753</v>
       </c>
       <c r="K6" s="14">
-        <v>689</v>
+        <v>440</v>
       </c>
       <c r="L6" s="14" t="s">
         <v>25</v>
@@ -977,7 +979,7 @@
       <c r="X6" s="2"/>
       <c r="Y6" s="2"/>
     </row>
-    <row r="7" spans="1:25" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="8" t="s">
         <v>7</v>
       </c>
@@ -1032,7 +1034,7 @@
       <c r="X7" s="2"/>
       <c r="Y7" s="2"/>
     </row>
-    <row r="8" spans="1:25" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="8" t="s">
         <v>12</v>
       </c>
@@ -1087,7 +1089,7 @@
       <c r="X8" s="2"/>
       <c r="Y8" s="2"/>
     </row>
-    <row r="9" spans="1:25" s="25" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" s="25" customFormat="1" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="13" t="s">
         <v>23</v>
       </c>
@@ -1142,11 +1144,11 @@
       <c r="X9" s="2"/>
       <c r="Y9" s="2"/>
     </row>
-    <row r="11" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="29"/>
       <c r="B11" s="30"/>
     </row>
-    <row r="13" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -1173,7 +1175,7 @@
       <c r="X13" s="2"/>
       <c r="Y13" s="2"/>
     </row>
-    <row r="14" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -1200,7 +1202,7 @@
       <c r="X14" s="2"/>
       <c r="Y14" s="2"/>
     </row>
-    <row r="15" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -1227,7 +1229,7 @@
       <c r="X15" s="2"/>
       <c r="Y15" s="2"/>
     </row>
-    <row r="16" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -1254,7 +1256,7 @@
       <c r="X16" s="2"/>
       <c r="Y16" s="2"/>
     </row>
-    <row r="17" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -1281,7 +1283,7 @@
       <c r="X17" s="2"/>
       <c r="Y17" s="2"/>
     </row>
-    <row r="18" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -1308,7 +1310,7 @@
       <c r="X18" s="2"/>
       <c r="Y18" s="2"/>
     </row>
-    <row r="19" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -1335,7 +1337,7 @@
       <c r="X19" s="2"/>
       <c r="Y19" s="2"/>
     </row>
-    <row r="20" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -1362,7 +1364,7 @@
       <c r="X20" s="2"/>
       <c r="Y20" s="2"/>
     </row>
-    <row r="21" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -1389,7 +1391,7 @@
       <c r="X21" s="2"/>
       <c r="Y21" s="2"/>
     </row>
-    <row r="22" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -1416,7 +1418,7 @@
       <c r="X22" s="2"/>
       <c r="Y22" s="2"/>
     </row>
-    <row r="23" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -1443,7 +1445,7 @@
       <c r="X23" s="2"/>
       <c r="Y23" s="2"/>
     </row>
-    <row r="24" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -1470,7 +1472,7 @@
       <c r="X24" s="2"/>
       <c r="Y24" s="2"/>
     </row>
-    <row r="25" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -1497,7 +1499,7 @@
       <c r="X25" s="2"/>
       <c r="Y25" s="2"/>
     </row>
-    <row r="26" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -1524,7 +1526,7 @@
       <c r="X26" s="2"/>
       <c r="Y26" s="2"/>
     </row>
-    <row r="27" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -1551,7 +1553,7 @@
       <c r="X27" s="2"/>
       <c r="Y27" s="2"/>
     </row>
-    <row r="28" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -1578,7 +1580,7 @@
       <c r="X28" s="2"/>
       <c r="Y28" s="2"/>
     </row>
-    <row r="29" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -1605,7 +1607,7 @@
       <c r="X29" s="2"/>
       <c r="Y29" s="2"/>
     </row>
-    <row r="30" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -1632,7 +1634,7 @@
       <c r="X30" s="2"/>
       <c r="Y30" s="2"/>
     </row>
-    <row r="31" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -1659,7 +1661,7 @@
       <c r="X31" s="2"/>
       <c r="Y31" s="2"/>
     </row>
-    <row r="32" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -1686,7 +1688,7 @@
       <c r="X32" s="2"/>
       <c r="Y32" s="2"/>
     </row>
-    <row r="33" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -1713,7 +1715,7 @@
       <c r="X33" s="2"/>
       <c r="Y33" s="2"/>
     </row>
-    <row r="34" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -1740,7 +1742,7 @@
       <c r="X34" s="2"/>
       <c r="Y34" s="2"/>
     </row>
-    <row r="35" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -1767,7 +1769,7 @@
       <c r="X35" s="2"/>
       <c r="Y35" s="2"/>
     </row>
-    <row r="36" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -1794,7 +1796,7 @@
       <c r="X36" s="2"/>
       <c r="Y36" s="2"/>
     </row>
-    <row r="37" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -1821,7 +1823,7 @@
       <c r="X37" s="2"/>
       <c r="Y37" s="2"/>
     </row>
-    <row r="38" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -1848,7 +1850,7 @@
       <c r="X38" s="2"/>
       <c r="Y38" s="2"/>
     </row>
-    <row r="39" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -1875,7 +1877,7 @@
       <c r="X39" s="2"/>
       <c r="Y39" s="2"/>
     </row>
-    <row r="40" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -1902,7 +1904,7 @@
       <c r="X40" s="2"/>
       <c r="Y40" s="2"/>
     </row>
-    <row r="41" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -1929,7 +1931,7 @@
       <c r="X41" s="2"/>
       <c r="Y41" s="2"/>
     </row>
-    <row r="42" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -1956,7 +1958,7 @@
       <c r="X42" s="2"/>
       <c r="Y42" s="2"/>
     </row>
-    <row r="43" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -1983,7 +1985,7 @@
       <c r="X43" s="2"/>
       <c r="Y43" s="2"/>
     </row>
-    <row r="44" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -2010,7 +2012,7 @@
       <c r="X44" s="2"/>
       <c r="Y44" s="2"/>
     </row>
-    <row r="45" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -2037,7 +2039,7 @@
       <c r="X45" s="2"/>
       <c r="Y45" s="2"/>
     </row>
-    <row r="46" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -2064,7 +2066,7 @@
       <c r="X46" s="2"/>
       <c r="Y46" s="2"/>
     </row>
-    <row r="47" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -2091,7 +2093,7 @@
       <c r="X47" s="2"/>
       <c r="Y47" s="2"/>
     </row>
-    <row r="48" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -2118,7 +2120,7 @@
       <c r="X48" s="2"/>
       <c r="Y48" s="2"/>
     </row>
-    <row r="49" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -2145,7 +2147,7 @@
       <c r="X49" s="2"/>
       <c r="Y49" s="2"/>
     </row>
-    <row r="50" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -2172,7 +2174,7 @@
       <c r="X50" s="2"/>
       <c r="Y50" s="2"/>
     </row>
-    <row r="51" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -2199,7 +2201,7 @@
       <c r="X51" s="2"/>
       <c r="Y51" s="2"/>
     </row>
-    <row r="52" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -2226,7 +2228,7 @@
       <c r="X52" s="2"/>
       <c r="Y52" s="2"/>
     </row>
-    <row r="53" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -2253,7 +2255,7 @@
       <c r="X53" s="2"/>
       <c r="Y53" s="2"/>
     </row>
-    <row r="54" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -2280,7 +2282,7 @@
       <c r="X54" s="2"/>
       <c r="Y54" s="2"/>
     </row>
-    <row r="55" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -2307,7 +2309,7 @@
       <c r="X55" s="2"/>
       <c r="Y55" s="2"/>
     </row>
-    <row r="56" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -2334,7 +2336,7 @@
       <c r="X56" s="2"/>
       <c r="Y56" s="2"/>
     </row>
-    <row r="57" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -2361,7 +2363,7 @@
       <c r="X57" s="2"/>
       <c r="Y57" s="2"/>
     </row>
-    <row r="58" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -2388,7 +2390,7 @@
       <c r="X58" s="2"/>
       <c r="Y58" s="2"/>
     </row>
-    <row r="59" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -2415,7 +2417,7 @@
       <c r="X59" s="2"/>
       <c r="Y59" s="2"/>
     </row>
-    <row r="60" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -2442,7 +2444,7 @@
       <c r="X60" s="2"/>
       <c r="Y60" s="2"/>
     </row>
-    <row r="61" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -2469,7 +2471,7 @@
       <c r="X61" s="2"/>
       <c r="Y61" s="2"/>
     </row>
-    <row r="62" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -2496,7 +2498,7 @@
       <c r="X62" s="2"/>
       <c r="Y62" s="2"/>
     </row>
-    <row r="63" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -2523,7 +2525,7 @@
       <c r="X63" s="2"/>
       <c r="Y63" s="2"/>
     </row>
-    <row r="64" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -2550,7 +2552,7 @@
       <c r="X64" s="2"/>
       <c r="Y64" s="2"/>
     </row>
-    <row r="65" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -2577,7 +2579,7 @@
       <c r="X65" s="2"/>
       <c r="Y65" s="2"/>
     </row>
-    <row r="66" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -2604,7 +2606,7 @@
       <c r="X66" s="2"/>
       <c r="Y66" s="2"/>
     </row>
-    <row r="67" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -2631,7 +2633,7 @@
       <c r="X67" s="2"/>
       <c r="Y67" s="2"/>
     </row>
-    <row r="68" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -2658,7 +2660,7 @@
       <c r="X68" s="2"/>
       <c r="Y68" s="2"/>
     </row>
-    <row r="69" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -2685,7 +2687,7 @@
       <c r="X69" s="2"/>
       <c r="Y69" s="2"/>
     </row>
-    <row r="70" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -2712,7 +2714,7 @@
       <c r="X70" s="2"/>
       <c r="Y70" s="2"/>
     </row>
-    <row r="71" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -2739,7 +2741,7 @@
       <c r="X71" s="2"/>
       <c r="Y71" s="2"/>
     </row>
-    <row r="72" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -2766,7 +2768,7 @@
       <c r="X72" s="2"/>
       <c r="Y72" s="2"/>
     </row>
-    <row r="73" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -2793,7 +2795,7 @@
       <c r="X73" s="2"/>
       <c r="Y73" s="2"/>
     </row>
-    <row r="74" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -2820,7 +2822,7 @@
       <c r="X74" s="2"/>
       <c r="Y74" s="2"/>
     </row>
-    <row r="75" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -2847,7 +2849,7 @@
       <c r="X75" s="2"/>
       <c r="Y75" s="2"/>
     </row>
-    <row r="76" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -2874,7 +2876,7 @@
       <c r="X76" s="2"/>
       <c r="Y76" s="2"/>
     </row>
-    <row r="77" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -2901,7 +2903,7 @@
       <c r="X77" s="2"/>
       <c r="Y77" s="2"/>
     </row>
-    <row r="78" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -2928,7 +2930,7 @@
       <c r="X78" s="2"/>
       <c r="Y78" s="2"/>
     </row>
-    <row r="79" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -2955,7 +2957,7 @@
       <c r="X79" s="2"/>
       <c r="Y79" s="2"/>
     </row>
-    <row r="80" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -2982,7 +2984,7 @@
       <c r="X80" s="2"/>
       <c r="Y80" s="2"/>
     </row>
-    <row r="81" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -3009,7 +3011,7 @@
       <c r="X81" s="2"/>
       <c r="Y81" s="2"/>
     </row>
-    <row r="82" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -3036,7 +3038,7 @@
       <c r="X82" s="2"/>
       <c r="Y82" s="2"/>
     </row>
-    <row r="83" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -3063,7 +3065,7 @@
       <c r="X83" s="2"/>
       <c r="Y83" s="2"/>
     </row>
-    <row r="84" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -3090,7 +3092,7 @@
       <c r="X84" s="2"/>
       <c r="Y84" s="2"/>
     </row>
-    <row r="85" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -3117,7 +3119,7 @@
       <c r="X85" s="2"/>
       <c r="Y85" s="2"/>
     </row>
-    <row r="86" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -3144,7 +3146,7 @@
       <c r="X86" s="2"/>
       <c r="Y86" s="2"/>
     </row>
-    <row r="87" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -3171,7 +3173,7 @@
       <c r="X87" s="2"/>
       <c r="Y87" s="2"/>
     </row>
-    <row r="88" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -3198,7 +3200,7 @@
       <c r="X88" s="2"/>
       <c r="Y88" s="2"/>
     </row>
-    <row r="89" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -3225,7 +3227,7 @@
       <c r="X89" s="2"/>
       <c r="Y89" s="2"/>
     </row>
-    <row r="90" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -3252,7 +3254,7 @@
       <c r="X90" s="2"/>
       <c r="Y90" s="2"/>
     </row>
-    <row r="91" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -3279,7 +3281,7 @@
       <c r="X91" s="2"/>
       <c r="Y91" s="2"/>
     </row>
-    <row r="92" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -3306,7 +3308,7 @@
       <c r="X92" s="2"/>
       <c r="Y92" s="2"/>
     </row>
-    <row r="93" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -3333,7 +3335,7 @@
       <c r="X93" s="2"/>
       <c r="Y93" s="2"/>
     </row>
-    <row r="94" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -3360,7 +3362,7 @@
       <c r="X94" s="2"/>
       <c r="Y94" s="2"/>
     </row>
-    <row r="95" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -3387,7 +3389,7 @@
       <c r="X95" s="2"/>
       <c r="Y95" s="2"/>
     </row>
-    <row r="96" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -3414,7 +3416,7 @@
       <c r="X96" s="2"/>
       <c r="Y96" s="2"/>
     </row>
-    <row r="97" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -3441,7 +3443,7 @@
       <c r="X97" s="2"/>
       <c r="Y97" s="2"/>
     </row>
-    <row r="98" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -3468,7 +3470,7 @@
       <c r="X98" s="2"/>
       <c r="Y98" s="2"/>
     </row>
-    <row r="99" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -3495,7 +3497,7 @@
       <c r="X99" s="2"/>
       <c r="Y99" s="2"/>
     </row>
-    <row r="100" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -3522,7 +3524,7 @@
       <c r="X100" s="2"/>
       <c r="Y100" s="2"/>
     </row>
-    <row r="101" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -3549,7 +3551,7 @@
       <c r="X101" s="2"/>
       <c r="Y101" s="2"/>
     </row>
-    <row r="102" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -3576,7 +3578,7 @@
       <c r="X102" s="2"/>
       <c r="Y102" s="2"/>
     </row>
-    <row r="103" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -3603,7 +3605,7 @@
       <c r="X103" s="2"/>
       <c r="Y103" s="2"/>
     </row>
-    <row r="104" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -3630,7 +3632,7 @@
       <c r="X104" s="2"/>
       <c r="Y104" s="2"/>
     </row>
-    <row r="105" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -3657,7 +3659,7 @@
       <c r="X105" s="2"/>
       <c r="Y105" s="2"/>
     </row>
-    <row r="106" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -3684,7 +3686,7 @@
       <c r="X106" s="2"/>
       <c r="Y106" s="2"/>
     </row>
-    <row r="107" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -3711,7 +3713,7 @@
       <c r="X107" s="2"/>
       <c r="Y107" s="2"/>
     </row>
-    <row r="108" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -3738,7 +3740,7 @@
       <c r="X108" s="2"/>
       <c r="Y108" s="2"/>
     </row>
-    <row r="109" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -3765,7 +3767,7 @@
       <c r="X109" s="2"/>
       <c r="Y109" s="2"/>
     </row>
-    <row r="110" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -3792,7 +3794,7 @@
       <c r="X110" s="2"/>
       <c r="Y110" s="2"/>
     </row>
-    <row r="111" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -3819,7 +3821,7 @@
       <c r="X111" s="2"/>
       <c r="Y111" s="2"/>
     </row>
-    <row r="112" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -3846,7 +3848,7 @@
       <c r="X112" s="2"/>
       <c r="Y112" s="2"/>
     </row>
-    <row r="113" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -3873,7 +3875,7 @@
       <c r="X113" s="2"/>
       <c r="Y113" s="2"/>
     </row>
-    <row r="114" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -3900,7 +3902,7 @@
       <c r="X114" s="2"/>
       <c r="Y114" s="2"/>
     </row>
-    <row r="115" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -3927,7 +3929,7 @@
       <c r="X115" s="2"/>
       <c r="Y115" s="2"/>
     </row>
-    <row r="116" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -3954,7 +3956,7 @@
       <c r="X116" s="2"/>
       <c r="Y116" s="2"/>
     </row>
-    <row r="117" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
@@ -3981,7 +3983,7 @@
       <c r="X117" s="2"/>
       <c r="Y117" s="2"/>
     </row>
-    <row r="118" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -4008,7 +4010,7 @@
       <c r="X118" s="2"/>
       <c r="Y118" s="2"/>
     </row>
-    <row r="119" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -4035,7 +4037,7 @@
       <c r="X119" s="2"/>
       <c r="Y119" s="2"/>
     </row>
-    <row r="120" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -4062,7 +4064,7 @@
       <c r="X120" s="2"/>
       <c r="Y120" s="2"/>
     </row>
-    <row r="121" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -4089,7 +4091,7 @@
       <c r="X121" s="2"/>
       <c r="Y121" s="2"/>
     </row>
-    <row r="122" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -4116,7 +4118,7 @@
       <c r="X122" s="2"/>
       <c r="Y122" s="2"/>
     </row>
-    <row r="123" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -4143,7 +4145,7 @@
       <c r="X123" s="2"/>
       <c r="Y123" s="2"/>
     </row>
-    <row r="124" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -4170,7 +4172,7 @@
       <c r="X124" s="2"/>
       <c r="Y124" s="2"/>
     </row>
-    <row r="125" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -4197,7 +4199,7 @@
       <c r="X125" s="2"/>
       <c r="Y125" s="2"/>
     </row>
-    <row r="126" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -4224,7 +4226,7 @@
       <c r="X126" s="2"/>
       <c r="Y126" s="2"/>
     </row>
-    <row r="127" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -4251,7 +4253,7 @@
       <c r="X127" s="2"/>
       <c r="Y127" s="2"/>
     </row>
-    <row r="128" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -4278,7 +4280,7 @@
       <c r="X128" s="2"/>
       <c r="Y128" s="2"/>
     </row>
-    <row r="129" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -4305,7 +4307,7 @@
       <c r="X129" s="2"/>
       <c r="Y129" s="2"/>
     </row>
-    <row r="130" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -4332,7 +4334,7 @@
       <c r="X130" s="2"/>
       <c r="Y130" s="2"/>
     </row>
-    <row r="131" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
@@ -4359,7 +4361,7 @@
       <c r="X131" s="2"/>
       <c r="Y131" s="2"/>
     </row>
-    <row r="132" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
@@ -4386,7 +4388,7 @@
       <c r="X132" s="2"/>
       <c r="Y132" s="2"/>
     </row>
-    <row r="133" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
@@ -4413,7 +4415,7 @@
       <c r="X133" s="2"/>
       <c r="Y133" s="2"/>
     </row>
-    <row r="134" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
@@ -4440,7 +4442,7 @@
       <c r="X134" s="2"/>
       <c r="Y134" s="2"/>
     </row>
-    <row r="135" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
@@ -4467,7 +4469,7 @@
       <c r="X135" s="2"/>
       <c r="Y135" s="2"/>
     </row>
-    <row r="136" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
@@ -4494,7 +4496,7 @@
       <c r="X136" s="2"/>
       <c r="Y136" s="2"/>
     </row>
-    <row r="137" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
@@ -4521,7 +4523,7 @@
       <c r="X137" s="2"/>
       <c r="Y137" s="2"/>
     </row>
-    <row r="138" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
@@ -4548,7 +4550,7 @@
       <c r="X138" s="2"/>
       <c r="Y138" s="2"/>
     </row>
-    <row r="139" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
@@ -4575,7 +4577,7 @@
       <c r="X139" s="2"/>
       <c r="Y139" s="2"/>
     </row>
-    <row r="140" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
@@ -4602,7 +4604,7 @@
       <c r="X140" s="2"/>
       <c r="Y140" s="2"/>
     </row>
-    <row r="141" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
@@ -4629,7 +4631,7 @@
       <c r="X141" s="2"/>
       <c r="Y141" s="2"/>
     </row>
-    <row r="142" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
@@ -4656,7 +4658,7 @@
       <c r="X142" s="2"/>
       <c r="Y142" s="2"/>
     </row>
-    <row r="143" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
@@ -4683,7 +4685,7 @@
       <c r="X143" s="2"/>
       <c r="Y143" s="2"/>
     </row>
-    <row r="144" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
@@ -4710,7 +4712,7 @@
       <c r="X144" s="2"/>
       <c r="Y144" s="2"/>
     </row>
-    <row r="145" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
@@ -4737,7 +4739,7 @@
       <c r="X145" s="2"/>
       <c r="Y145" s="2"/>
     </row>
-    <row r="146" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
@@ -4764,7 +4766,7 @@
       <c r="X146" s="2"/>
       <c r="Y146" s="2"/>
     </row>
-    <row r="147" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
@@ -4791,7 +4793,7 @@
       <c r="X147" s="2"/>
       <c r="Y147" s="2"/>
     </row>
-    <row r="148" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
@@ -4818,7 +4820,7 @@
       <c r="X148" s="2"/>
       <c r="Y148" s="2"/>
     </row>
-    <row r="149" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
@@ -4845,7 +4847,7 @@
       <c r="X149" s="2"/>
       <c r="Y149" s="2"/>
     </row>
-    <row r="150" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
@@ -4872,7 +4874,7 @@
       <c r="X150" s="2"/>
       <c r="Y150" s="2"/>
     </row>
-    <row r="151" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
@@ -4899,7 +4901,7 @@
       <c r="X151" s="2"/>
       <c r="Y151" s="2"/>
     </row>
-    <row r="152" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
@@ -4926,7 +4928,7 @@
       <c r="X152" s="2"/>
       <c r="Y152" s="2"/>
     </row>
-    <row r="153" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
@@ -4953,7 +4955,7 @@
       <c r="X153" s="2"/>
       <c r="Y153" s="2"/>
     </row>
-    <row r="154" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
@@ -4980,7 +4982,7 @@
       <c r="X154" s="2"/>
       <c r="Y154" s="2"/>
     </row>
-    <row r="155" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
@@ -5007,7 +5009,7 @@
       <c r="X155" s="2"/>
       <c r="Y155" s="2"/>
     </row>
-    <row r="156" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
@@ -5034,7 +5036,7 @@
       <c r="X156" s="2"/>
       <c r="Y156" s="2"/>
     </row>
-    <row r="157" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A157" s="2"/>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
@@ -5061,7 +5063,7 @@
       <c r="X157" s="2"/>
       <c r="Y157" s="2"/>
     </row>
-    <row r="158" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
@@ -5088,7 +5090,7 @@
       <c r="X158" s="2"/>
       <c r="Y158" s="2"/>
     </row>
-    <row r="159" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
@@ -5115,7 +5117,7 @@
       <c r="X159" s="2"/>
       <c r="Y159" s="2"/>
     </row>
-    <row r="160" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A160" s="2"/>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
@@ -5142,7 +5144,7 @@
       <c r="X160" s="2"/>
       <c r="Y160" s="2"/>
     </row>
-    <row r="161" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A161" s="2"/>
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
@@ -5169,7 +5171,7 @@
       <c r="X161" s="2"/>
       <c r="Y161" s="2"/>
     </row>
-    <row r="162" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A162" s="2"/>
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
@@ -5196,7 +5198,7 @@
       <c r="X162" s="2"/>
       <c r="Y162" s="2"/>
     </row>
-    <row r="163" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A163" s="2"/>
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
@@ -5223,7 +5225,7 @@
       <c r="X163" s="2"/>
       <c r="Y163" s="2"/>
     </row>
-    <row r="164" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A164" s="2"/>
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
@@ -5250,7 +5252,7 @@
       <c r="X164" s="2"/>
       <c r="Y164" s="2"/>
     </row>
-    <row r="165" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A165" s="2"/>
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
@@ -5277,7 +5279,7 @@
       <c r="X165" s="2"/>
       <c r="Y165" s="2"/>
     </row>
-    <row r="166" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A166" s="2"/>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
@@ -5304,7 +5306,7 @@
       <c r="X166" s="2"/>
       <c r="Y166" s="2"/>
     </row>
-    <row r="167" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A167" s="2"/>
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
@@ -5331,7 +5333,7 @@
       <c r="X167" s="2"/>
       <c r="Y167" s="2"/>
     </row>
-    <row r="168" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A168" s="2"/>
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
@@ -5358,7 +5360,7 @@
       <c r="X168" s="2"/>
       <c r="Y168" s="2"/>
     </row>
-    <row r="169" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A169" s="2"/>
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
@@ -5385,7 +5387,7 @@
       <c r="X169" s="2"/>
       <c r="Y169" s="2"/>
     </row>
-    <row r="170" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A170" s="2"/>
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
@@ -5412,7 +5414,7 @@
       <c r="X170" s="2"/>
       <c r="Y170" s="2"/>
     </row>
-    <row r="171" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A171" s="2"/>
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
@@ -5439,7 +5441,7 @@
       <c r="X171" s="2"/>
       <c r="Y171" s="2"/>
     </row>
-    <row r="172" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A172" s="2"/>
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
@@ -5466,7 +5468,7 @@
       <c r="X172" s="2"/>
       <c r="Y172" s="2"/>
     </row>
-    <row r="173" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A173" s="2"/>
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
@@ -5493,7 +5495,7 @@
       <c r="X173" s="2"/>
       <c r="Y173" s="2"/>
     </row>
-    <row r="174" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A174" s="2"/>
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
@@ -5520,7 +5522,7 @@
       <c r="X174" s="2"/>
       <c r="Y174" s="2"/>
     </row>
-    <row r="175" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A175" s="2"/>
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
@@ -5547,7 +5549,7 @@
       <c r="X175" s="2"/>
       <c r="Y175" s="2"/>
     </row>
-    <row r="176" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A176" s="2"/>
       <c r="B176" s="2"/>
       <c r="C176" s="2"/>
@@ -5574,7 +5576,7 @@
       <c r="X176" s="2"/>
       <c r="Y176" s="2"/>
     </row>
-    <row r="177" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A177" s="2"/>
       <c r="B177" s="2"/>
       <c r="C177" s="2"/>
@@ -5601,7 +5603,7 @@
       <c r="X177" s="2"/>
       <c r="Y177" s="2"/>
     </row>
-    <row r="178" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A178" s="2"/>
       <c r="B178" s="2"/>
       <c r="C178" s="2"/>
@@ -5628,7 +5630,7 @@
       <c r="X178" s="2"/>
       <c r="Y178" s="2"/>
     </row>
-    <row r="179" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A179" s="2"/>
       <c r="B179" s="2"/>
       <c r="C179" s="2"/>
@@ -5655,7 +5657,7 @@
       <c r="X179" s="2"/>
       <c r="Y179" s="2"/>
     </row>
-    <row r="180" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A180" s="2"/>
       <c r="B180" s="2"/>
       <c r="C180" s="2"/>
@@ -5682,7 +5684,7 @@
       <c r="X180" s="2"/>
       <c r="Y180" s="2"/>
     </row>
-    <row r="181" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A181" s="2"/>
       <c r="B181" s="2"/>
       <c r="C181" s="2"/>
@@ -5709,7 +5711,7 @@
       <c r="X181" s="2"/>
       <c r="Y181" s="2"/>
     </row>
-    <row r="182" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A182" s="2"/>
       <c r="B182" s="2"/>
       <c r="C182" s="2"/>
@@ -5736,7 +5738,7 @@
       <c r="X182" s="2"/>
       <c r="Y182" s="2"/>
     </row>
-    <row r="183" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A183" s="2"/>
       <c r="B183" s="2"/>
       <c r="C183" s="2"/>
@@ -5763,7 +5765,7 @@
       <c r="X183" s="2"/>
       <c r="Y183" s="2"/>
     </row>
-    <row r="184" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A184" s="2"/>
       <c r="B184" s="2"/>
       <c r="C184" s="2"/>
@@ -5790,7 +5792,7 @@
       <c r="X184" s="2"/>
       <c r="Y184" s="2"/>
     </row>
-    <row r="185" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A185" s="2"/>
       <c r="B185" s="2"/>
       <c r="C185" s="2"/>
@@ -5817,7 +5819,7 @@
       <c r="X185" s="2"/>
       <c r="Y185" s="2"/>
     </row>
-    <row r="186" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A186" s="2"/>
       <c r="B186" s="2"/>
       <c r="C186" s="2"/>
@@ -5844,7 +5846,7 @@
       <c r="X186" s="2"/>
       <c r="Y186" s="2"/>
     </row>
-    <row r="187" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A187" s="2"/>
       <c r="B187" s="2"/>
       <c r="C187" s="2"/>
@@ -5871,7 +5873,7 @@
       <c r="X187" s="2"/>
       <c r="Y187" s="2"/>
     </row>
-    <row r="188" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A188" s="2"/>
       <c r="B188" s="2"/>
       <c r="C188" s="2"/>
@@ -5898,7 +5900,7 @@
       <c r="X188" s="2"/>
       <c r="Y188" s="2"/>
     </row>
-    <row r="189" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A189" s="2"/>
       <c r="B189" s="2"/>
       <c r="C189" s="2"/>
@@ -5925,7 +5927,7 @@
       <c r="X189" s="2"/>
       <c r="Y189" s="2"/>
     </row>
-    <row r="190" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A190" s="2"/>
       <c r="B190" s="2"/>
       <c r="C190" s="2"/>
@@ -5952,7 +5954,7 @@
       <c r="X190" s="2"/>
       <c r="Y190" s="2"/>
     </row>
-    <row r="191" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A191" s="2"/>
       <c r="B191" s="2"/>
       <c r="C191" s="2"/>
@@ -5979,7 +5981,7 @@
       <c r="X191" s="2"/>
       <c r="Y191" s="2"/>
     </row>
-    <row r="192" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A192" s="2"/>
       <c r="B192" s="2"/>
       <c r="C192" s="2"/>
@@ -6006,7 +6008,7 @@
       <c r="X192" s="2"/>
       <c r="Y192" s="2"/>
     </row>
-    <row r="193" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A193" s="2"/>
       <c r="B193" s="2"/>
       <c r="C193" s="2"/>
@@ -6033,7 +6035,7 @@
       <c r="X193" s="2"/>
       <c r="Y193" s="2"/>
     </row>
-    <row r="194" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A194" s="2"/>
       <c r="B194" s="2"/>
       <c r="C194" s="2"/>
@@ -6060,7 +6062,7 @@
       <c r="X194" s="2"/>
       <c r="Y194" s="2"/>
     </row>
-    <row r="195" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A195" s="2"/>
       <c r="B195" s="2"/>
       <c r="C195" s="2"/>
@@ -6087,7 +6089,7 @@
       <c r="X195" s="2"/>
       <c r="Y195" s="2"/>
     </row>
-    <row r="196" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A196" s="2"/>
       <c r="B196" s="2"/>
       <c r="C196" s="2"/>
@@ -6114,7 +6116,7 @@
       <c r="X196" s="2"/>
       <c r="Y196" s="2"/>
     </row>
-    <row r="197" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A197" s="2"/>
       <c r="B197" s="2"/>
       <c r="C197" s="2"/>
@@ -6141,7 +6143,7 @@
       <c r="X197" s="2"/>
       <c r="Y197" s="2"/>
     </row>
-    <row r="198" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A198" s="2"/>
       <c r="B198" s="2"/>
       <c r="C198" s="2"/>
@@ -6168,7 +6170,7 @@
       <c r="X198" s="2"/>
       <c r="Y198" s="2"/>
     </row>
-    <row r="199" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A199" s="2"/>
       <c r="B199" s="2"/>
       <c r="C199" s="2"/>
@@ -6195,7 +6197,7 @@
       <c r="X199" s="2"/>
       <c r="Y199" s="2"/>
     </row>
-    <row r="200" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A200" s="2"/>
       <c r="B200" s="2"/>
       <c r="C200" s="2"/>
@@ -6222,7 +6224,7 @@
       <c r="X200" s="2"/>
       <c r="Y200" s="2"/>
     </row>
-    <row r="201" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A201" s="2"/>
       <c r="B201" s="2"/>
       <c r="C201" s="2"/>
@@ -6249,7 +6251,7 @@
       <c r="X201" s="2"/>
       <c r="Y201" s="2"/>
     </row>
-    <row r="202" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A202" s="2"/>
       <c r="B202" s="2"/>
       <c r="C202" s="2"/>
@@ -6276,7 +6278,7 @@
       <c r="X202" s="2"/>
       <c r="Y202" s="2"/>
     </row>
-    <row r="203" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A203" s="2"/>
       <c r="B203" s="2"/>
       <c r="C203" s="2"/>
@@ -6303,7 +6305,7 @@
       <c r="X203" s="2"/>
       <c r="Y203" s="2"/>
     </row>
-    <row r="204" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A204" s="2"/>
       <c r="B204" s="2"/>
       <c r="C204" s="2"/>
@@ -6330,7 +6332,7 @@
       <c r="X204" s="2"/>
       <c r="Y204" s="2"/>
     </row>
-    <row r="205" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A205" s="2"/>
       <c r="B205" s="2"/>
       <c r="C205" s="2"/>
@@ -6357,7 +6359,7 @@
       <c r="X205" s="2"/>
       <c r="Y205" s="2"/>
     </row>
-    <row r="206" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A206" s="2"/>
       <c r="B206" s="2"/>
       <c r="C206" s="2"/>
@@ -6384,7 +6386,7 @@
       <c r="X206" s="2"/>
       <c r="Y206" s="2"/>
     </row>
-    <row r="207" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A207" s="2"/>
       <c r="B207" s="2"/>
       <c r="C207" s="2"/>
@@ -6411,7 +6413,7 @@
       <c r="X207" s="2"/>
       <c r="Y207" s="2"/>
     </row>
-    <row r="208" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A208" s="2"/>
       <c r="B208" s="2"/>
       <c r="C208" s="2"/>
@@ -6438,7 +6440,7 @@
       <c r="X208" s="2"/>
       <c r="Y208" s="2"/>
     </row>
-    <row r="209" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A209" s="2"/>
       <c r="B209" s="2"/>
       <c r="C209" s="2"/>
@@ -6465,7 +6467,7 @@
       <c r="X209" s="2"/>
       <c r="Y209" s="2"/>
     </row>
-    <row r="210" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A210" s="2"/>
       <c r="B210" s="2"/>
       <c r="C210" s="2"/>
@@ -6492,7 +6494,7 @@
       <c r="X210" s="2"/>
       <c r="Y210" s="2"/>
     </row>
-    <row r="211" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A211" s="2"/>
       <c r="B211" s="2"/>
       <c r="C211" s="2"/>
@@ -6519,7 +6521,7 @@
       <c r="X211" s="2"/>
       <c r="Y211" s="2"/>
     </row>
-    <row r="212" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A212" s="2"/>
       <c r="B212" s="2"/>
       <c r="C212" s="2"/>
@@ -6546,7 +6548,7 @@
       <c r="X212" s="2"/>
       <c r="Y212" s="2"/>
     </row>
-    <row r="213" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A213" s="2"/>
       <c r="B213" s="2"/>
       <c r="C213" s="2"/>
@@ -6573,7 +6575,7 @@
       <c r="X213" s="2"/>
       <c r="Y213" s="2"/>
     </row>
-    <row r="214" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A214" s="2"/>
       <c r="B214" s="2"/>
       <c r="C214" s="2"/>
@@ -6600,7 +6602,7 @@
       <c r="X214" s="2"/>
       <c r="Y214" s="2"/>
     </row>
-    <row r="215" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A215" s="2"/>
       <c r="B215" s="2"/>
       <c r="C215" s="2"/>
@@ -6627,7 +6629,7 @@
       <c r="X215" s="2"/>
       <c r="Y215" s="2"/>
     </row>
-    <row r="216" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A216" s="2"/>
       <c r="B216" s="2"/>
       <c r="C216" s="2"/>
@@ -6654,7 +6656,7 @@
       <c r="X216" s="2"/>
       <c r="Y216" s="2"/>
     </row>
-    <row r="217" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A217" s="2"/>
       <c r="B217" s="2"/>
       <c r="C217" s="2"/>
@@ -6681,7 +6683,7 @@
       <c r="X217" s="2"/>
       <c r="Y217" s="2"/>
     </row>
-    <row r="218" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A218" s="2"/>
       <c r="B218" s="2"/>
       <c r="C218" s="2"/>
@@ -6708,7 +6710,7 @@
       <c r="X218" s="2"/>
       <c r="Y218" s="2"/>
     </row>
-    <row r="219" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A219" s="2"/>
       <c r="B219" s="2"/>
       <c r="C219" s="2"/>
@@ -6735,7 +6737,7 @@
       <c r="X219" s="2"/>
       <c r="Y219" s="2"/>
     </row>
-    <row r="220" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A220" s="2"/>
       <c r="B220" s="2"/>
       <c r="C220" s="2"/>
@@ -6762,7 +6764,7 @@
       <c r="X220" s="2"/>
       <c r="Y220" s="2"/>
     </row>
-    <row r="221" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A221" s="2"/>
       <c r="B221" s="2"/>
       <c r="C221" s="2"/>
@@ -6789,7 +6791,7 @@
       <c r="X221" s="2"/>
       <c r="Y221" s="2"/>
     </row>
-    <row r="222" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A222" s="2"/>
       <c r="B222" s="2"/>
       <c r="C222" s="2"/>
@@ -6816,7 +6818,7 @@
       <c r="X222" s="2"/>
       <c r="Y222" s="2"/>
     </row>
-    <row r="223" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A223" s="2"/>
       <c r="B223" s="2"/>
       <c r="C223" s="2"/>
@@ -6843,7 +6845,7 @@
       <c r="X223" s="2"/>
       <c r="Y223" s="2"/>
     </row>
-    <row r="224" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A224" s="2"/>
       <c r="B224" s="2"/>
       <c r="C224" s="2"/>
@@ -6870,7 +6872,7 @@
       <c r="X224" s="2"/>
       <c r="Y224" s="2"/>
     </row>
-    <row r="225" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A225" s="2"/>
       <c r="B225" s="2"/>
       <c r="C225" s="2"/>
@@ -6897,7 +6899,7 @@
       <c r="X225" s="2"/>
       <c r="Y225" s="2"/>
     </row>
-    <row r="226" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A226" s="2"/>
       <c r="B226" s="2"/>
       <c r="C226" s="2"/>
@@ -6924,7 +6926,7 @@
       <c r="X226" s="2"/>
       <c r="Y226" s="2"/>
     </row>
-    <row r="227" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A227" s="2"/>
       <c r="B227" s="2"/>
       <c r="C227" s="2"/>
@@ -6951,7 +6953,7 @@
       <c r="X227" s="2"/>
       <c r="Y227" s="2"/>
     </row>
-    <row r="228" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A228" s="2"/>
       <c r="B228" s="2"/>
       <c r="C228" s="2"/>
@@ -6978,7 +6980,7 @@
       <c r="X228" s="2"/>
       <c r="Y228" s="2"/>
     </row>
-    <row r="229" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A229" s="2"/>
       <c r="B229" s="2"/>
       <c r="C229" s="2"/>
@@ -7005,7 +7007,7 @@
       <c r="X229" s="2"/>
       <c r="Y229" s="2"/>
     </row>
-    <row r="230" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A230" s="2"/>
       <c r="B230" s="2"/>
       <c r="C230" s="2"/>
@@ -7032,7 +7034,7 @@
       <c r="X230" s="2"/>
       <c r="Y230" s="2"/>
     </row>
-    <row r="231" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A231" s="2"/>
       <c r="B231" s="2"/>
       <c r="C231" s="2"/>
@@ -7059,7 +7061,7 @@
       <c r="X231" s="2"/>
       <c r="Y231" s="2"/>
     </row>
-    <row r="232" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A232" s="2"/>
       <c r="B232" s="2"/>
       <c r="C232" s="2"/>
@@ -7086,7 +7088,7 @@
       <c r="X232" s="2"/>
       <c r="Y232" s="2"/>
     </row>
-    <row r="233" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A233" s="2"/>
       <c r="B233" s="2"/>
       <c r="C233" s="2"/>
@@ -7113,7 +7115,7 @@
       <c r="X233" s="2"/>
       <c r="Y233" s="2"/>
     </row>
-    <row r="234" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A234" s="2"/>
       <c r="B234" s="2"/>
       <c r="C234" s="2"/>
@@ -7140,7 +7142,7 @@
       <c r="X234" s="2"/>
       <c r="Y234" s="2"/>
     </row>
-    <row r="235" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A235" s="2"/>
       <c r="B235" s="2"/>
       <c r="C235" s="2"/>
@@ -7167,7 +7169,7 @@
       <c r="X235" s="2"/>
       <c r="Y235" s="2"/>
     </row>
-    <row r="236" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A236" s="2"/>
       <c r="B236" s="2"/>
       <c r="C236" s="2"/>
@@ -7194,7 +7196,7 @@
       <c r="X236" s="2"/>
       <c r="Y236" s="2"/>
     </row>
-    <row r="237" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A237" s="2"/>
       <c r="B237" s="2"/>
       <c r="C237" s="2"/>
@@ -7221,7 +7223,7 @@
       <c r="X237" s="2"/>
       <c r="Y237" s="2"/>
     </row>
-    <row r="238" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A238" s="2"/>
       <c r="B238" s="2"/>
       <c r="C238" s="2"/>
@@ -7248,7 +7250,7 @@
       <c r="X238" s="2"/>
       <c r="Y238" s="2"/>
     </row>
-    <row r="239" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A239" s="2"/>
       <c r="B239" s="2"/>
       <c r="C239" s="2"/>
@@ -7275,7 +7277,7 @@
       <c r="X239" s="2"/>
       <c r="Y239" s="2"/>
     </row>
-    <row r="240" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A240" s="2"/>
       <c r="B240" s="2"/>
       <c r="C240" s="2"/>
@@ -7302,7 +7304,7 @@
       <c r="X240" s="2"/>
       <c r="Y240" s="2"/>
     </row>
-    <row r="241" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A241" s="2"/>
       <c r="B241" s="2"/>
       <c r="C241" s="2"/>
@@ -7329,7 +7331,7 @@
       <c r="X241" s="2"/>
       <c r="Y241" s="2"/>
     </row>
-    <row r="242" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A242" s="2"/>
       <c r="B242" s="2"/>
       <c r="C242" s="2"/>
@@ -7356,7 +7358,7 @@
       <c r="X242" s="2"/>
       <c r="Y242" s="2"/>
     </row>
-    <row r="243" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A243" s="2"/>
       <c r="B243" s="2"/>
       <c r="C243" s="2"/>
@@ -7383,7 +7385,7 @@
       <c r="X243" s="2"/>
       <c r="Y243" s="2"/>
     </row>
-    <row r="244" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A244" s="2"/>
       <c r="B244" s="2"/>
       <c r="C244" s="2"/>
@@ -7410,7 +7412,7 @@
       <c r="X244" s="2"/>
       <c r="Y244" s="2"/>
     </row>
-    <row r="245" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A245" s="2"/>
       <c r="B245" s="2"/>
       <c r="C245" s="2"/>
@@ -7437,7 +7439,7 @@
       <c r="X245" s="2"/>
       <c r="Y245" s="2"/>
     </row>
-    <row r="246" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A246" s="2"/>
       <c r="B246" s="2"/>
       <c r="C246" s="2"/>
@@ -7464,7 +7466,7 @@
       <c r="X246" s="2"/>
       <c r="Y246" s="2"/>
     </row>
-    <row r="247" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A247" s="2"/>
       <c r="B247" s="2"/>
       <c r="C247" s="2"/>
@@ -7491,7 +7493,7 @@
       <c r="X247" s="2"/>
       <c r="Y247" s="2"/>
     </row>
-    <row r="248" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A248" s="2"/>
       <c r="B248" s="2"/>
       <c r="C248" s="2"/>
@@ -7518,7 +7520,7 @@
       <c r="X248" s="2"/>
       <c r="Y248" s="2"/>
     </row>
-    <row r="249" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A249" s="2"/>
       <c r="B249" s="2"/>
       <c r="C249" s="2"/>
@@ -7545,7 +7547,7 @@
       <c r="X249" s="2"/>
       <c r="Y249" s="2"/>
     </row>
-    <row r="250" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A250" s="2"/>
       <c r="B250" s="2"/>
       <c r="C250" s="2"/>
@@ -7572,7 +7574,7 @@
       <c r="X250" s="2"/>
       <c r="Y250" s="2"/>
     </row>
-    <row r="251" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A251" s="2"/>
       <c r="B251" s="2"/>
       <c r="C251" s="2"/>
@@ -7599,7 +7601,7 @@
       <c r="X251" s="2"/>
       <c r="Y251" s="2"/>
     </row>
-    <row r="252" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A252" s="2"/>
       <c r="B252" s="2"/>
       <c r="C252" s="2"/>
@@ -7626,7 +7628,7 @@
       <c r="X252" s="2"/>
       <c r="Y252" s="2"/>
     </row>
-    <row r="253" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A253" s="2"/>
       <c r="B253" s="2"/>
       <c r="C253" s="2"/>
@@ -7653,7 +7655,7 @@
       <c r="X253" s="2"/>
       <c r="Y253" s="2"/>
     </row>
-    <row r="254" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A254" s="2"/>
       <c r="B254" s="2"/>
       <c r="C254" s="2"/>
@@ -7680,7 +7682,7 @@
       <c r="X254" s="2"/>
       <c r="Y254" s="2"/>
     </row>
-    <row r="255" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A255" s="2"/>
       <c r="B255" s="2"/>
       <c r="C255" s="2"/>
@@ -7707,7 +7709,7 @@
       <c r="X255" s="2"/>
       <c r="Y255" s="2"/>
     </row>
-    <row r="256" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A256" s="2"/>
       <c r="B256" s="2"/>
       <c r="C256" s="2"/>
@@ -7734,7 +7736,7 @@
       <c r="X256" s="2"/>
       <c r="Y256" s="2"/>
     </row>
-    <row r="257" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A257" s="2"/>
       <c r="B257" s="2"/>
       <c r="C257" s="2"/>
@@ -7761,7 +7763,7 @@
       <c r="X257" s="2"/>
       <c r="Y257" s="2"/>
     </row>
-    <row r="258" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A258" s="2"/>
       <c r="B258" s="2"/>
       <c r="C258" s="2"/>
@@ -7788,7 +7790,7 @@
       <c r="X258" s="2"/>
       <c r="Y258" s="2"/>
     </row>
-    <row r="259" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A259" s="2"/>
       <c r="B259" s="2"/>
       <c r="C259" s="2"/>
@@ -7815,7 +7817,7 @@
       <c r="X259" s="2"/>
       <c r="Y259" s="2"/>
     </row>
-    <row r="260" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A260" s="2"/>
       <c r="B260" s="2"/>
       <c r="C260" s="2"/>
@@ -7842,7 +7844,7 @@
       <c r="X260" s="2"/>
       <c r="Y260" s="2"/>
     </row>
-    <row r="261" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A261" s="2"/>
       <c r="B261" s="2"/>
       <c r="C261" s="2"/>
@@ -7869,7 +7871,7 @@
       <c r="X261" s="2"/>
       <c r="Y261" s="2"/>
     </row>
-    <row r="262" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A262" s="2"/>
       <c r="B262" s="2"/>
       <c r="C262" s="2"/>
@@ -7896,7 +7898,7 @@
       <c r="X262" s="2"/>
       <c r="Y262" s="2"/>
     </row>
-    <row r="263" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A263" s="2"/>
       <c r="B263" s="2"/>
       <c r="C263" s="2"/>
@@ -7923,7 +7925,7 @@
       <c r="X263" s="2"/>
       <c r="Y263" s="2"/>
     </row>
-    <row r="264" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A264" s="2"/>
       <c r="B264" s="2"/>
       <c r="C264" s="2"/>
@@ -7950,7 +7952,7 @@
       <c r="X264" s="2"/>
       <c r="Y264" s="2"/>
     </row>
-    <row r="265" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A265" s="2"/>
       <c r="B265" s="2"/>
       <c r="C265" s="2"/>
@@ -7977,7 +7979,7 @@
       <c r="X265" s="2"/>
       <c r="Y265" s="2"/>
     </row>
-    <row r="266" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A266" s="2"/>
       <c r="B266" s="2"/>
       <c r="C266" s="2"/>
@@ -8004,7 +8006,7 @@
       <c r="X266" s="2"/>
       <c r="Y266" s="2"/>
     </row>
-    <row r="267" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A267" s="2"/>
       <c r="B267" s="2"/>
       <c r="C267" s="2"/>
@@ -8031,7 +8033,7 @@
       <c r="X267" s="2"/>
       <c r="Y267" s="2"/>
     </row>
-    <row r="268" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A268" s="2"/>
       <c r="B268" s="2"/>
       <c r="C268" s="2"/>
@@ -8058,7 +8060,7 @@
       <c r="X268" s="2"/>
       <c r="Y268" s="2"/>
     </row>
-    <row r="269" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A269" s="2"/>
       <c r="B269" s="2"/>
       <c r="C269" s="2"/>
@@ -8085,7 +8087,7 @@
       <c r="X269" s="2"/>
       <c r="Y269" s="2"/>
     </row>
-    <row r="270" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A270" s="2"/>
       <c r="B270" s="2"/>
       <c r="C270" s="2"/>
@@ -8112,7 +8114,7 @@
       <c r="X270" s="2"/>
       <c r="Y270" s="2"/>
     </row>
-    <row r="271" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A271" s="2"/>
       <c r="B271" s="2"/>
       <c r="C271" s="2"/>
@@ -8139,7 +8141,7 @@
       <c r="X271" s="2"/>
       <c r="Y271" s="2"/>
     </row>
-    <row r="272" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A272" s="2"/>
       <c r="B272" s="2"/>
       <c r="C272" s="2"/>
@@ -8166,7 +8168,7 @@
       <c r="X272" s="2"/>
       <c r="Y272" s="2"/>
     </row>
-    <row r="273" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A273" s="2"/>
       <c r="B273" s="2"/>
       <c r="C273" s="2"/>
@@ -8193,7 +8195,7 @@
       <c r="X273" s="2"/>
       <c r="Y273" s="2"/>
     </row>
-    <row r="274" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A274" s="2"/>
       <c r="B274" s="2"/>
       <c r="C274" s="2"/>
@@ -8220,7 +8222,7 @@
       <c r="X274" s="2"/>
       <c r="Y274" s="2"/>
     </row>
-    <row r="275" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A275" s="2"/>
       <c r="B275" s="2"/>
       <c r="C275" s="2"/>
@@ -8247,7 +8249,7 @@
       <c r="X275" s="2"/>
       <c r="Y275" s="2"/>
     </row>
-    <row r="276" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A276" s="2"/>
       <c r="B276" s="2"/>
       <c r="C276" s="2"/>
@@ -8274,7 +8276,7 @@
       <c r="X276" s="2"/>
       <c r="Y276" s="2"/>
     </row>
-    <row r="277" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A277" s="2"/>
       <c r="B277" s="2"/>
       <c r="C277" s="2"/>
@@ -8301,7 +8303,7 @@
       <c r="X277" s="2"/>
       <c r="Y277" s="2"/>
     </row>
-    <row r="278" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A278" s="2"/>
       <c r="B278" s="2"/>
       <c r="C278" s="2"/>
@@ -8328,7 +8330,7 @@
       <c r="X278" s="2"/>
       <c r="Y278" s="2"/>
     </row>
-    <row r="279" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A279" s="2"/>
       <c r="B279" s="2"/>
       <c r="C279" s="2"/>
@@ -8355,7 +8357,7 @@
       <c r="X279" s="2"/>
       <c r="Y279" s="2"/>
     </row>
-    <row r="280" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A280" s="2"/>
       <c r="B280" s="2"/>
       <c r="C280" s="2"/>
@@ -8382,7 +8384,7 @@
       <c r="X280" s="2"/>
       <c r="Y280" s="2"/>
     </row>
-    <row r="281" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A281" s="2"/>
       <c r="B281" s="2"/>
       <c r="C281" s="2"/>
@@ -8409,7 +8411,7 @@
       <c r="X281" s="2"/>
       <c r="Y281" s="2"/>
     </row>
-    <row r="282" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A282" s="2"/>
       <c r="B282" s="2"/>
       <c r="C282" s="2"/>
@@ -8436,7 +8438,7 @@
       <c r="X282" s="2"/>
       <c r="Y282" s="2"/>
     </row>
-    <row r="283" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A283" s="2"/>
       <c r="B283" s="2"/>
       <c r="C283" s="2"/>
@@ -8463,7 +8465,7 @@
       <c r="X283" s="2"/>
       <c r="Y283" s="2"/>
     </row>
-    <row r="284" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A284" s="2"/>
       <c r="B284" s="2"/>
       <c r="C284" s="2"/>
@@ -8490,7 +8492,7 @@
       <c r="X284" s="2"/>
       <c r="Y284" s="2"/>
     </row>
-    <row r="285" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A285" s="2"/>
       <c r="B285" s="2"/>
       <c r="C285" s="2"/>
@@ -8517,7 +8519,7 @@
       <c r="X285" s="2"/>
       <c r="Y285" s="2"/>
     </row>
-    <row r="286" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A286" s="2"/>
       <c r="B286" s="2"/>
       <c r="C286" s="2"/>
@@ -8544,7 +8546,7 @@
       <c r="X286" s="2"/>
       <c r="Y286" s="2"/>
     </row>
-    <row r="287" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A287" s="2"/>
       <c r="B287" s="2"/>
       <c r="C287" s="2"/>
@@ -8571,7 +8573,7 @@
       <c r="X287" s="2"/>
       <c r="Y287" s="2"/>
     </row>
-    <row r="288" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A288" s="2"/>
       <c r="B288" s="2"/>
       <c r="C288" s="2"/>
@@ -8598,7 +8600,7 @@
       <c r="X288" s="2"/>
       <c r="Y288" s="2"/>
     </row>
-    <row r="289" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A289" s="2"/>
       <c r="B289" s="2"/>
       <c r="C289" s="2"/>
@@ -8625,7 +8627,7 @@
       <c r="X289" s="2"/>
       <c r="Y289" s="2"/>
     </row>
-    <row r="290" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A290" s="2"/>
       <c r="B290" s="2"/>
       <c r="C290" s="2"/>
@@ -8652,7 +8654,7 @@
       <c r="X290" s="2"/>
       <c r="Y290" s="2"/>
     </row>
-    <row r="291" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A291" s="2"/>
       <c r="B291" s="2"/>
       <c r="C291" s="2"/>
@@ -8679,7 +8681,7 @@
       <c r="X291" s="2"/>
       <c r="Y291" s="2"/>
     </row>
-    <row r="292" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A292" s="2"/>
       <c r="B292" s="2"/>
       <c r="C292" s="2"/>
@@ -8706,7 +8708,7 @@
       <c r="X292" s="2"/>
       <c r="Y292" s="2"/>
     </row>
-    <row r="293" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A293" s="2"/>
       <c r="B293" s="2"/>
       <c r="C293" s="2"/>
@@ -8733,7 +8735,7 @@
       <c r="X293" s="2"/>
       <c r="Y293" s="2"/>
     </row>
-    <row r="294" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A294" s="2"/>
       <c r="B294" s="2"/>
       <c r="C294" s="2"/>
@@ -8760,7 +8762,7 @@
       <c r="X294" s="2"/>
       <c r="Y294" s="2"/>
     </row>
-    <row r="295" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A295" s="2"/>
       <c r="B295" s="2"/>
       <c r="C295" s="2"/>
@@ -8787,7 +8789,7 @@
       <c r="X295" s="2"/>
       <c r="Y295" s="2"/>
     </row>
-    <row r="296" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A296" s="2"/>
       <c r="B296" s="2"/>
       <c r="C296" s="2"/>
@@ -8814,7 +8816,7 @@
       <c r="X296" s="2"/>
       <c r="Y296" s="2"/>
     </row>
-    <row r="297" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A297" s="2"/>
       <c r="B297" s="2"/>
       <c r="C297" s="2"/>
@@ -8841,7 +8843,7 @@
       <c r="X297" s="2"/>
       <c r="Y297" s="2"/>
     </row>
-    <row r="298" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A298" s="2"/>
       <c r="B298" s="2"/>
       <c r="C298" s="2"/>
@@ -8868,7 +8870,7 @@
       <c r="X298" s="2"/>
       <c r="Y298" s="2"/>
     </row>
-    <row r="299" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A299" s="2"/>
       <c r="B299" s="2"/>
       <c r="C299" s="2"/>
@@ -8895,7 +8897,7 @@
       <c r="X299" s="2"/>
       <c r="Y299" s="2"/>
     </row>
-    <row r="300" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A300" s="2"/>
       <c r="B300" s="2"/>
       <c r="C300" s="2"/>
@@ -8922,7 +8924,7 @@
       <c r="X300" s="2"/>
       <c r="Y300" s="2"/>
     </row>
-    <row r="301" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A301" s="2"/>
       <c r="B301" s="2"/>
       <c r="C301" s="2"/>
@@ -8949,7 +8951,7 @@
       <c r="X301" s="2"/>
       <c r="Y301" s="2"/>
     </row>
-    <row r="302" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A302" s="2"/>
       <c r="B302" s="2"/>
       <c r="C302" s="2"/>
@@ -8976,7 +8978,7 @@
       <c r="X302" s="2"/>
       <c r="Y302" s="2"/>
     </row>
-    <row r="303" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A303" s="2"/>
       <c r="B303" s="2"/>
       <c r="C303" s="2"/>
@@ -9003,7 +9005,7 @@
       <c r="X303" s="2"/>
       <c r="Y303" s="2"/>
     </row>
-    <row r="304" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A304" s="2"/>
       <c r="B304" s="2"/>
       <c r="C304" s="2"/>
@@ -9030,7 +9032,7 @@
       <c r="X304" s="2"/>
       <c r="Y304" s="2"/>
     </row>
-    <row r="305" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A305" s="2"/>
       <c r="B305" s="2"/>
       <c r="C305" s="2"/>
@@ -9057,7 +9059,7 @@
       <c r="X305" s="2"/>
       <c r="Y305" s="2"/>
     </row>
-    <row r="306" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A306" s="2"/>
       <c r="B306" s="2"/>
       <c r="C306" s="2"/>
@@ -9084,7 +9086,7 @@
       <c r="X306" s="2"/>
       <c r="Y306" s="2"/>
     </row>
-    <row r="307" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A307" s="2"/>
       <c r="B307" s="2"/>
       <c r="C307" s="2"/>
@@ -9111,7 +9113,7 @@
       <c r="X307" s="2"/>
       <c r="Y307" s="2"/>
     </row>
-    <row r="308" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A308" s="2"/>
       <c r="B308" s="2"/>
       <c r="C308" s="2"/>
@@ -9138,7 +9140,7 @@
       <c r="X308" s="2"/>
       <c r="Y308" s="2"/>
     </row>
-    <row r="309" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A309" s="2"/>
       <c r="B309" s="2"/>
       <c r="C309" s="2"/>
@@ -9165,7 +9167,7 @@
       <c r="X309" s="2"/>
       <c r="Y309" s="2"/>
     </row>
-    <row r="310" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A310" s="2"/>
       <c r="B310" s="2"/>
       <c r="C310" s="2"/>
@@ -9192,7 +9194,7 @@
       <c r="X310" s="2"/>
       <c r="Y310" s="2"/>
     </row>
-    <row r="311" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A311" s="2"/>
       <c r="B311" s="2"/>
       <c r="C311" s="2"/>
@@ -9219,7 +9221,7 @@
       <c r="X311" s="2"/>
       <c r="Y311" s="2"/>
     </row>
-    <row r="312" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A312" s="2"/>
       <c r="B312" s="2"/>
       <c r="C312" s="2"/>
@@ -9246,7 +9248,7 @@
       <c r="X312" s="2"/>
       <c r="Y312" s="2"/>
     </row>
-    <row r="313" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A313" s="2"/>
       <c r="B313" s="2"/>
       <c r="C313" s="2"/>
@@ -9273,7 +9275,7 @@
       <c r="X313" s="2"/>
       <c r="Y313" s="2"/>
     </row>
-    <row r="314" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A314" s="2"/>
       <c r="B314" s="2"/>
       <c r="C314" s="2"/>
@@ -9300,7 +9302,7 @@
       <c r="X314" s="2"/>
       <c r="Y314" s="2"/>
     </row>
-    <row r="315" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A315" s="2"/>
       <c r="B315" s="2"/>
       <c r="C315" s="2"/>
@@ -9327,7 +9329,7 @@
       <c r="X315" s="2"/>
       <c r="Y315" s="2"/>
     </row>
-    <row r="316" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A316" s="2"/>
       <c r="B316" s="2"/>
       <c r="C316" s="2"/>
@@ -9354,7 +9356,7 @@
       <c r="X316" s="2"/>
       <c r="Y316" s="2"/>
     </row>
-    <row r="317" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A317" s="2"/>
       <c r="B317" s="2"/>
       <c r="C317" s="2"/>
@@ -9381,7 +9383,7 @@
       <c r="X317" s="2"/>
       <c r="Y317" s="2"/>
     </row>
-    <row r="318" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A318" s="2"/>
       <c r="B318" s="2"/>
       <c r="C318" s="2"/>
@@ -9408,7 +9410,7 @@
       <c r="X318" s="2"/>
       <c r="Y318" s="2"/>
     </row>
-    <row r="319" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A319" s="2"/>
       <c r="B319" s="2"/>
       <c r="C319" s="2"/>
@@ -9435,7 +9437,7 @@
       <c r="X319" s="2"/>
       <c r="Y319" s="2"/>
     </row>
-    <row r="320" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A320" s="2"/>
       <c r="B320" s="2"/>
       <c r="C320" s="2"/>
@@ -9462,7 +9464,7 @@
       <c r="X320" s="2"/>
       <c r="Y320" s="2"/>
     </row>
-    <row r="321" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A321" s="2"/>
       <c r="B321" s="2"/>
       <c r="C321" s="2"/>
@@ -9489,7 +9491,7 @@
       <c r="X321" s="2"/>
       <c r="Y321" s="2"/>
     </row>
-    <row r="322" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A322" s="2"/>
       <c r="B322" s="2"/>
       <c r="C322" s="2"/>
@@ -9516,7 +9518,7 @@
       <c r="X322" s="2"/>
       <c r="Y322" s="2"/>
     </row>
-    <row r="323" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A323" s="2"/>
       <c r="B323" s="2"/>
       <c r="C323" s="2"/>
@@ -9543,7 +9545,7 @@
       <c r="X323" s="2"/>
       <c r="Y323" s="2"/>
     </row>
-    <row r="324" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A324" s="2"/>
       <c r="B324" s="2"/>
       <c r="C324" s="2"/>
@@ -9570,7 +9572,7 @@
       <c r="X324" s="2"/>
       <c r="Y324" s="2"/>
     </row>
-    <row r="325" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A325" s="2"/>
       <c r="B325" s="2"/>
       <c r="C325" s="2"/>
@@ -9597,7 +9599,7 @@
       <c r="X325" s="2"/>
       <c r="Y325" s="2"/>
     </row>
-    <row r="326" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A326" s="2"/>
       <c r="B326" s="2"/>
       <c r="C326" s="2"/>
@@ -9624,7 +9626,7 @@
       <c r="X326" s="2"/>
       <c r="Y326" s="2"/>
     </row>
-    <row r="327" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A327" s="2"/>
       <c r="B327" s="2"/>
       <c r="C327" s="2"/>
@@ -9651,7 +9653,7 @@
       <c r="X327" s="2"/>
       <c r="Y327" s="2"/>
     </row>
-    <row r="328" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A328" s="2"/>
       <c r="B328" s="2"/>
       <c r="C328" s="2"/>
@@ -9678,7 +9680,7 @@
       <c r="X328" s="2"/>
       <c r="Y328" s="2"/>
     </row>
-    <row r="329" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A329" s="2"/>
       <c r="B329" s="2"/>
       <c r="C329" s="2"/>
@@ -9705,7 +9707,7 @@
       <c r="X329" s="2"/>
       <c r="Y329" s="2"/>
     </row>
-    <row r="330" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A330" s="2"/>
       <c r="B330" s="2"/>
       <c r="C330" s="2"/>
@@ -9732,7 +9734,7 @@
       <c r="X330" s="2"/>
       <c r="Y330" s="2"/>
     </row>
-    <row r="331" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A331" s="2"/>
       <c r="B331" s="2"/>
       <c r="C331" s="2"/>
@@ -9759,7 +9761,7 @@
       <c r="X331" s="2"/>
       <c r="Y331" s="2"/>
     </row>
-    <row r="332" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A332" s="2"/>
       <c r="B332" s="2"/>
       <c r="C332" s="2"/>
@@ -9786,7 +9788,7 @@
       <c r="X332" s="2"/>
       <c r="Y332" s="2"/>
     </row>
-    <row r="333" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A333" s="2"/>
       <c r="B333" s="2"/>
       <c r="C333" s="2"/>
@@ -9813,7 +9815,7 @@
       <c r="X333" s="2"/>
       <c r="Y333" s="2"/>
     </row>
-    <row r="334" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A334" s="2"/>
       <c r="B334" s="2"/>
       <c r="C334" s="2"/>
@@ -9840,7 +9842,7 @@
       <c r="X334" s="2"/>
       <c r="Y334" s="2"/>
     </row>
-    <row r="335" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A335" s="2"/>
       <c r="B335" s="2"/>
       <c r="C335" s="2"/>
@@ -9867,7 +9869,7 @@
       <c r="X335" s="2"/>
       <c r="Y335" s="2"/>
     </row>
-    <row r="336" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A336" s="2"/>
       <c r="B336" s="2"/>
       <c r="C336" s="2"/>
@@ -9894,7 +9896,7 @@
       <c r="X336" s="2"/>
       <c r="Y336" s="2"/>
     </row>
-    <row r="337" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A337" s="2"/>
       <c r="B337" s="2"/>
       <c r="C337" s="2"/>
@@ -9921,7 +9923,7 @@
       <c r="X337" s="2"/>
       <c r="Y337" s="2"/>
     </row>
-    <row r="338" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A338" s="2"/>
       <c r="B338" s="2"/>
       <c r="C338" s="2"/>
@@ -9948,7 +9950,7 @@
       <c r="X338" s="2"/>
       <c r="Y338" s="2"/>
     </row>
-    <row r="339" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A339" s="2"/>
       <c r="B339" s="2"/>
       <c r="C339" s="2"/>
@@ -9975,7 +9977,7 @@
       <c r="X339" s="2"/>
       <c r="Y339" s="2"/>
     </row>
-    <row r="340" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A340" s="2"/>
       <c r="B340" s="2"/>
       <c r="C340" s="2"/>
@@ -10002,7 +10004,7 @@
       <c r="X340" s="2"/>
       <c r="Y340" s="2"/>
     </row>
-    <row r="341" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A341" s="2"/>
       <c r="B341" s="2"/>
       <c r="C341" s="2"/>
@@ -10029,7 +10031,7 @@
       <c r="X341" s="2"/>
       <c r="Y341" s="2"/>
     </row>
-    <row r="342" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A342" s="2"/>
       <c r="B342" s="2"/>
       <c r="C342" s="2"/>
@@ -10056,7 +10058,7 @@
       <c r="X342" s="2"/>
       <c r="Y342" s="2"/>
     </row>
-    <row r="343" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A343" s="2"/>
       <c r="B343" s="2"/>
       <c r="C343" s="2"/>
@@ -10083,7 +10085,7 @@
       <c r="X343" s="2"/>
       <c r="Y343" s="2"/>
     </row>
-    <row r="344" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A344" s="2"/>
       <c r="B344" s="2"/>
       <c r="C344" s="2"/>
@@ -10110,7 +10112,7 @@
       <c r="X344" s="2"/>
       <c r="Y344" s="2"/>
     </row>
-    <row r="345" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A345" s="2"/>
       <c r="B345" s="2"/>
       <c r="C345" s="2"/>
@@ -10137,7 +10139,7 @@
       <c r="X345" s="2"/>
       <c r="Y345" s="2"/>
     </row>
-    <row r="346" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A346" s="2"/>
       <c r="B346" s="2"/>
       <c r="C346" s="2"/>
@@ -10164,7 +10166,7 @@
       <c r="X346" s="2"/>
       <c r="Y346" s="2"/>
     </row>
-    <row r="347" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A347" s="2"/>
       <c r="B347" s="2"/>
       <c r="C347" s="2"/>
@@ -10191,7 +10193,7 @@
       <c r="X347" s="2"/>
       <c r="Y347" s="2"/>
     </row>
-    <row r="348" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A348" s="2"/>
       <c r="B348" s="2"/>
       <c r="C348" s="2"/>
@@ -10218,7 +10220,7 @@
       <c r="X348" s="2"/>
       <c r="Y348" s="2"/>
     </row>
-    <row r="349" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A349" s="2"/>
       <c r="B349" s="2"/>
       <c r="C349" s="2"/>
@@ -10245,7 +10247,7 @@
       <c r="X349" s="2"/>
       <c r="Y349" s="2"/>
     </row>
-    <row r="350" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A350" s="2"/>
       <c r="B350" s="2"/>
       <c r="C350" s="2"/>
@@ -10272,7 +10274,7 @@
       <c r="X350" s="2"/>
       <c r="Y350" s="2"/>
     </row>
-    <row r="351" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A351" s="2"/>
       <c r="B351" s="2"/>
       <c r="C351" s="2"/>
@@ -10299,7 +10301,7 @@
       <c r="X351" s="2"/>
       <c r="Y351" s="2"/>
     </row>
-    <row r="352" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A352" s="2"/>
       <c r="B352" s="2"/>
       <c r="C352" s="2"/>
@@ -10326,7 +10328,7 @@
       <c r="X352" s="2"/>
       <c r="Y352" s="2"/>
     </row>
-    <row r="353" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A353" s="2"/>
       <c r="B353" s="2"/>
       <c r="C353" s="2"/>
@@ -10353,7 +10355,7 @@
       <c r="X353" s="2"/>
       <c r="Y353" s="2"/>
     </row>
-    <row r="354" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A354" s="2"/>
       <c r="B354" s="2"/>
       <c r="C354" s="2"/>
@@ -10380,7 +10382,7 @@
       <c r="X354" s="2"/>
       <c r="Y354" s="2"/>
     </row>
-    <row r="355" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A355" s="2"/>
       <c r="B355" s="2"/>
       <c r="C355" s="2"/>
@@ -10407,7 +10409,7 @@
       <c r="X355" s="2"/>
       <c r="Y355" s="2"/>
     </row>
-    <row r="356" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A356" s="2"/>
       <c r="B356" s="2"/>
       <c r="C356" s="2"/>
@@ -10434,7 +10436,7 @@
       <c r="X356" s="2"/>
       <c r="Y356" s="2"/>
     </row>
-    <row r="357" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A357" s="2"/>
       <c r="B357" s="2"/>
       <c r="C357" s="2"/>
@@ -10461,7 +10463,7 @@
       <c r="X357" s="2"/>
       <c r="Y357" s="2"/>
     </row>
-    <row r="358" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A358" s="2"/>
       <c r="B358" s="2"/>
       <c r="C358" s="2"/>
@@ -10488,7 +10490,7 @@
       <c r="X358" s="2"/>
       <c r="Y358" s="2"/>
     </row>
-    <row r="359" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A359" s="2"/>
       <c r="B359" s="2"/>
       <c r="C359" s="2"/>
@@ -10515,7 +10517,7 @@
       <c r="X359" s="2"/>
       <c r="Y359" s="2"/>
     </row>
-    <row r="360" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A360" s="2"/>
       <c r="B360" s="2"/>
       <c r="C360" s="2"/>
@@ -10542,7 +10544,7 @@
       <c r="X360" s="2"/>
       <c r="Y360" s="2"/>
     </row>
-    <row r="361" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A361" s="2"/>
       <c r="B361" s="2"/>
       <c r="C361" s="2"/>
@@ -10569,7 +10571,7 @@
       <c r="X361" s="2"/>
       <c r="Y361" s="2"/>
     </row>
-    <row r="362" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A362" s="2"/>
       <c r="B362" s="2"/>
       <c r="C362" s="2"/>
@@ -10596,7 +10598,7 @@
       <c r="X362" s="2"/>
       <c r="Y362" s="2"/>
     </row>
-    <row r="363" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A363" s="2"/>
       <c r="B363" s="2"/>
       <c r="C363" s="2"/>
@@ -10623,7 +10625,7 @@
       <c r="X363" s="2"/>
       <c r="Y363" s="2"/>
     </row>
-    <row r="364" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A364" s="2"/>
       <c r="B364" s="2"/>
       <c r="C364" s="2"/>
@@ -10650,7 +10652,7 @@
       <c r="X364" s="2"/>
       <c r="Y364" s="2"/>
     </row>
-    <row r="365" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A365" s="2"/>
       <c r="B365" s="2"/>
       <c r="C365" s="2"/>
@@ -10677,7 +10679,7 @@
       <c r="X365" s="2"/>
       <c r="Y365" s="2"/>
     </row>
-    <row r="366" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A366" s="2"/>
       <c r="B366" s="2"/>
       <c r="C366" s="2"/>
@@ -10704,7 +10706,7 @@
       <c r="X366" s="2"/>
       <c r="Y366" s="2"/>
     </row>
-    <row r="367" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A367" s="2"/>
       <c r="B367" s="2"/>
       <c r="C367" s="2"/>
@@ -10731,7 +10733,7 @@
       <c r="X367" s="2"/>
       <c r="Y367" s="2"/>
     </row>
-    <row r="368" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A368" s="2"/>
       <c r="B368" s="2"/>
       <c r="C368" s="2"/>
@@ -10758,7 +10760,7 @@
       <c r="X368" s="2"/>
       <c r="Y368" s="2"/>
     </row>
-    <row r="369" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A369" s="2"/>
       <c r="B369" s="2"/>
       <c r="C369" s="2"/>
@@ -10785,7 +10787,7 @@
       <c r="X369" s="2"/>
       <c r="Y369" s="2"/>
     </row>
-    <row r="370" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A370" s="2"/>
       <c r="B370" s="2"/>
       <c r="C370" s="2"/>
@@ -10812,7 +10814,7 @@
       <c r="X370" s="2"/>
       <c r="Y370" s="2"/>
     </row>
-    <row r="371" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A371" s="2"/>
       <c r="B371" s="2"/>
       <c r="C371" s="2"/>
@@ -10839,7 +10841,7 @@
       <c r="X371" s="2"/>
       <c r="Y371" s="2"/>
     </row>
-    <row r="372" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A372" s="2"/>
       <c r="B372" s="2"/>
       <c r="C372" s="2"/>
@@ -10866,7 +10868,7 @@
       <c r="X372" s="2"/>
       <c r="Y372" s="2"/>
     </row>
-    <row r="373" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A373" s="2"/>
       <c r="B373" s="2"/>
       <c r="C373" s="2"/>
@@ -10893,7 +10895,7 @@
       <c r="X373" s="2"/>
       <c r="Y373" s="2"/>
     </row>
-    <row r="374" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A374" s="2"/>
       <c r="B374" s="2"/>
       <c r="C374" s="2"/>
@@ -10920,7 +10922,7 @@
       <c r="X374" s="2"/>
       <c r="Y374" s="2"/>
     </row>
-    <row r="375" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A375" s="2"/>
       <c r="B375" s="2"/>
       <c r="C375" s="2"/>
@@ -10947,7 +10949,7 @@
       <c r="X375" s="2"/>
       <c r="Y375" s="2"/>
     </row>
-    <row r="376" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A376" s="2"/>
       <c r="B376" s="2"/>
       <c r="C376" s="2"/>
@@ -10974,7 +10976,7 @@
       <c r="X376" s="2"/>
       <c r="Y376" s="2"/>
     </row>
-    <row r="377" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A377" s="2"/>
       <c r="B377" s="2"/>
       <c r="C377" s="2"/>
@@ -11001,7 +11003,7 @@
       <c r="X377" s="2"/>
       <c r="Y377" s="2"/>
     </row>
-    <row r="378" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A378" s="2"/>
       <c r="B378" s="2"/>
       <c r="C378" s="2"/>
@@ -11028,7 +11030,7 @@
       <c r="X378" s="2"/>
       <c r="Y378" s="2"/>
     </row>
-    <row r="379" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A379" s="2"/>
       <c r="B379" s="2"/>
       <c r="C379" s="2"/>
@@ -11055,7 +11057,7 @@
       <c r="X379" s="2"/>
       <c r="Y379" s="2"/>
     </row>
-    <row r="380" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A380" s="2"/>
       <c r="B380" s="2"/>
       <c r="C380" s="2"/>
@@ -11082,7 +11084,7 @@
       <c r="X380" s="2"/>
       <c r="Y380" s="2"/>
     </row>
-    <row r="381" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A381" s="2"/>
       <c r="B381" s="2"/>
       <c r="C381" s="2"/>
@@ -11109,7 +11111,7 @@
       <c r="X381" s="2"/>
       <c r="Y381" s="2"/>
     </row>
-    <row r="382" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A382" s="2"/>
       <c r="B382" s="2"/>
       <c r="C382" s="2"/>
@@ -11136,7 +11138,7 @@
       <c r="X382" s="2"/>
       <c r="Y382" s="2"/>
     </row>
-    <row r="383" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A383" s="2"/>
       <c r="B383" s="2"/>
       <c r="C383" s="2"/>
@@ -11163,7 +11165,7 @@
       <c r="X383" s="2"/>
       <c r="Y383" s="2"/>
     </row>
-    <row r="384" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A384" s="2"/>
       <c r="B384" s="2"/>
       <c r="C384" s="2"/>
@@ -11190,7 +11192,7 @@
       <c r="X384" s="2"/>
       <c r="Y384" s="2"/>
     </row>
-    <row r="385" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A385" s="2"/>
       <c r="B385" s="2"/>
       <c r="C385" s="2"/>
@@ -11217,7 +11219,7 @@
       <c r="X385" s="2"/>
       <c r="Y385" s="2"/>
     </row>
-    <row r="386" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A386" s="2"/>
       <c r="B386" s="2"/>
       <c r="C386" s="2"/>
@@ -11244,7 +11246,7 @@
       <c r="X386" s="2"/>
       <c r="Y386" s="2"/>
     </row>
-    <row r="387" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A387" s="2"/>
       <c r="B387" s="2"/>
       <c r="C387" s="2"/>
@@ -11271,7 +11273,7 @@
       <c r="X387" s="2"/>
       <c r="Y387" s="2"/>
     </row>
-    <row r="388" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A388" s="2"/>
       <c r="B388" s="2"/>
       <c r="C388" s="2"/>
@@ -11298,7 +11300,7 @@
       <c r="X388" s="2"/>
       <c r="Y388" s="2"/>
     </row>
-    <row r="389" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A389" s="2"/>
       <c r="B389" s="2"/>
       <c r="C389" s="2"/>
@@ -11325,7 +11327,7 @@
       <c r="X389" s="2"/>
       <c r="Y389" s="2"/>
     </row>
-    <row r="390" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A390" s="2"/>
       <c r="B390" s="2"/>
       <c r="C390" s="2"/>
@@ -11352,7 +11354,7 @@
       <c r="X390" s="2"/>
       <c r="Y390" s="2"/>
     </row>
-    <row r="391" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A391" s="2"/>
       <c r="B391" s="2"/>
       <c r="C391" s="2"/>
@@ -11379,7 +11381,7 @@
       <c r="X391" s="2"/>
       <c r="Y391" s="2"/>
     </row>
-    <row r="392" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A392" s="2"/>
       <c r="B392" s="2"/>
       <c r="C392" s="2"/>
@@ -11406,7 +11408,7 @@
       <c r="X392" s="2"/>
       <c r="Y392" s="2"/>
     </row>
-    <row r="393" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A393" s="2"/>
       <c r="B393" s="2"/>
       <c r="C393" s="2"/>
@@ -11433,7 +11435,7 @@
       <c r="X393" s="2"/>
       <c r="Y393" s="2"/>
     </row>
-    <row r="394" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A394" s="2"/>
       <c r="B394" s="2"/>
       <c r="C394" s="2"/>
@@ -11460,7 +11462,7 @@
       <c r="X394" s="2"/>
       <c r="Y394" s="2"/>
     </row>
-    <row r="395" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A395" s="2"/>
       <c r="B395" s="2"/>
       <c r="C395" s="2"/>
@@ -11487,7 +11489,7 @@
       <c r="X395" s="2"/>
       <c r="Y395" s="2"/>
     </row>
-    <row r="396" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A396" s="2"/>
       <c r="B396" s="2"/>
       <c r="C396" s="2"/>
@@ -11514,7 +11516,7 @@
       <c r="X396" s="2"/>
       <c r="Y396" s="2"/>
     </row>
-    <row r="397" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A397" s="2"/>
       <c r="B397" s="2"/>
       <c r="C397" s="2"/>
@@ -11541,7 +11543,7 @@
       <c r="X397" s="2"/>
       <c r="Y397" s="2"/>
     </row>
-    <row r="398" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A398" s="2"/>
       <c r="B398" s="2"/>
       <c r="C398" s="2"/>
@@ -11568,7 +11570,7 @@
       <c r="X398" s="2"/>
       <c r="Y398" s="2"/>
     </row>
-    <row r="399" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A399" s="2"/>
       <c r="B399" s="2"/>
       <c r="C399" s="2"/>
@@ -11595,7 +11597,7 @@
       <c r="X399" s="2"/>
       <c r="Y399" s="2"/>
     </row>
-    <row r="400" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A400" s="2"/>
       <c r="B400" s="2"/>
       <c r="C400" s="2"/>
@@ -11622,7 +11624,7 @@
       <c r="X400" s="2"/>
       <c r="Y400" s="2"/>
     </row>
-    <row r="401" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A401" s="2"/>
       <c r="B401" s="2"/>
       <c r="C401" s="2"/>
@@ -11649,7 +11651,7 @@
       <c r="X401" s="2"/>
       <c r="Y401" s="2"/>
     </row>
-    <row r="402" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A402" s="2"/>
       <c r="B402" s="2"/>
       <c r="C402" s="2"/>
@@ -11676,7 +11678,7 @@
       <c r="X402" s="2"/>
       <c r="Y402" s="2"/>
     </row>
-    <row r="403" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A403" s="2"/>
       <c r="B403" s="2"/>
       <c r="C403" s="2"/>
@@ -11703,7 +11705,7 @@
       <c r="X403" s="2"/>
       <c r="Y403" s="2"/>
     </row>
-    <row r="404" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A404" s="2"/>
       <c r="B404" s="2"/>
       <c r="C404" s="2"/>
@@ -11730,7 +11732,7 @@
       <c r="X404" s="2"/>
       <c r="Y404" s="2"/>
     </row>
-    <row r="405" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A405" s="2"/>
       <c r="B405" s="2"/>
       <c r="C405" s="2"/>
@@ -11757,7 +11759,7 @@
       <c r="X405" s="2"/>
       <c r="Y405" s="2"/>
     </row>
-    <row r="406" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A406" s="2"/>
       <c r="B406" s="2"/>
       <c r="C406" s="2"/>
@@ -11784,7 +11786,7 @@
       <c r="X406" s="2"/>
       <c r="Y406" s="2"/>
     </row>
-    <row r="407" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A407" s="2"/>
       <c r="B407" s="2"/>
       <c r="C407" s="2"/>
@@ -11811,7 +11813,7 @@
       <c r="X407" s="2"/>
       <c r="Y407" s="2"/>
     </row>
-    <row r="408" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A408" s="2"/>
       <c r="B408" s="2"/>
       <c r="C408" s="2"/>
@@ -11838,7 +11840,7 @@
       <c r="X408" s="2"/>
       <c r="Y408" s="2"/>
     </row>
-    <row r="409" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A409" s="2"/>
       <c r="B409" s="2"/>
       <c r="C409" s="2"/>
@@ -11865,7 +11867,7 @@
       <c r="X409" s="2"/>
       <c r="Y409" s="2"/>
     </row>
-    <row r="410" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A410" s="2"/>
       <c r="B410" s="2"/>
       <c r="C410" s="2"/>
@@ -11892,7 +11894,7 @@
       <c r="X410" s="2"/>
       <c r="Y410" s="2"/>
     </row>
-    <row r="411" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A411" s="2"/>
       <c r="B411" s="2"/>
       <c r="C411" s="2"/>
@@ -11919,7 +11921,7 @@
       <c r="X411" s="2"/>
       <c r="Y411" s="2"/>
     </row>
-    <row r="412" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A412" s="2"/>
       <c r="B412" s="2"/>
       <c r="C412" s="2"/>
@@ -11946,7 +11948,7 @@
       <c r="X412" s="2"/>
       <c r="Y412" s="2"/>
     </row>
-    <row r="413" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A413" s="2"/>
       <c r="B413" s="2"/>
       <c r="C413" s="2"/>
@@ -11973,7 +11975,7 @@
       <c r="X413" s="2"/>
       <c r="Y413" s="2"/>
     </row>
-    <row r="414" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A414" s="2"/>
       <c r="B414" s="2"/>
       <c r="C414" s="2"/>
@@ -12000,7 +12002,7 @@
       <c r="X414" s="2"/>
       <c r="Y414" s="2"/>
     </row>
-    <row r="415" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A415" s="2"/>
       <c r="B415" s="2"/>
       <c r="C415" s="2"/>
@@ -12027,7 +12029,7 @@
       <c r="X415" s="2"/>
       <c r="Y415" s="2"/>
     </row>
-    <row r="416" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A416" s="2"/>
       <c r="B416" s="2"/>
       <c r="C416" s="2"/>
@@ -12054,7 +12056,7 @@
       <c r="X416" s="2"/>
       <c r="Y416" s="2"/>
     </row>
-    <row r="417" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A417" s="2"/>
       <c r="B417" s="2"/>
       <c r="C417" s="2"/>
@@ -12081,7 +12083,7 @@
       <c r="X417" s="2"/>
       <c r="Y417" s="2"/>
     </row>
-    <row r="418" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A418" s="2"/>
       <c r="B418" s="2"/>
       <c r="C418" s="2"/>
@@ -12108,7 +12110,7 @@
       <c r="X418" s="2"/>
       <c r="Y418" s="2"/>
     </row>
-    <row r="419" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A419" s="2"/>
       <c r="B419" s="2"/>
       <c r="C419" s="2"/>
@@ -12135,7 +12137,7 @@
       <c r="X419" s="2"/>
       <c r="Y419" s="2"/>
     </row>
-    <row r="420" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A420" s="2"/>
       <c r="B420" s="2"/>
       <c r="C420" s="2"/>
@@ -12162,7 +12164,7 @@
       <c r="X420" s="2"/>
       <c r="Y420" s="2"/>
     </row>
-    <row r="421" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A421" s="2"/>
       <c r="B421" s="2"/>
       <c r="C421" s="2"/>
@@ -12189,7 +12191,7 @@
       <c r="X421" s="2"/>
       <c r="Y421" s="2"/>
     </row>
-    <row r="422" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A422" s="2"/>
       <c r="B422" s="2"/>
       <c r="C422" s="2"/>
@@ -12216,7 +12218,7 @@
       <c r="X422" s="2"/>
       <c r="Y422" s="2"/>
     </row>
-    <row r="423" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A423" s="2"/>
       <c r="B423" s="2"/>
       <c r="C423" s="2"/>
@@ -12243,7 +12245,7 @@
       <c r="X423" s="2"/>
       <c r="Y423" s="2"/>
     </row>
-    <row r="424" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A424" s="2"/>
       <c r="B424" s="2"/>
       <c r="C424" s="2"/>
@@ -12270,7 +12272,7 @@
       <c r="X424" s="2"/>
       <c r="Y424" s="2"/>
     </row>
-    <row r="425" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A425" s="2"/>
       <c r="B425" s="2"/>
       <c r="C425" s="2"/>
@@ -12297,7 +12299,7 @@
       <c r="X425" s="2"/>
       <c r="Y425" s="2"/>
     </row>
-    <row r="426" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A426" s="2"/>
       <c r="B426" s="2"/>
       <c r="C426" s="2"/>
@@ -12324,7 +12326,7 @@
       <c r="X426" s="2"/>
       <c r="Y426" s="2"/>
     </row>
-    <row r="427" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A427" s="2"/>
       <c r="B427" s="2"/>
       <c r="C427" s="2"/>
@@ -12351,7 +12353,7 @@
       <c r="X427" s="2"/>
       <c r="Y427" s="2"/>
     </row>
-    <row r="428" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A428" s="2"/>
       <c r="B428" s="2"/>
       <c r="C428" s="2"/>
@@ -12378,7 +12380,7 @@
       <c r="X428" s="2"/>
       <c r="Y428" s="2"/>
     </row>
-    <row r="429" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A429" s="2"/>
       <c r="B429" s="2"/>
       <c r="C429" s="2"/>
@@ -12405,7 +12407,7 @@
       <c r="X429" s="2"/>
       <c r="Y429" s="2"/>
     </row>
-    <row r="430" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A430" s="2"/>
       <c r="B430" s="2"/>
       <c r="C430" s="2"/>
@@ -12432,7 +12434,7 @@
       <c r="X430" s="2"/>
       <c r="Y430" s="2"/>
     </row>
-    <row r="431" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A431" s="2"/>
       <c r="B431" s="2"/>
       <c r="C431" s="2"/>
@@ -12459,7 +12461,7 @@
       <c r="X431" s="2"/>
       <c r="Y431" s="2"/>
     </row>
-    <row r="432" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A432" s="2"/>
       <c r="B432" s="2"/>
       <c r="C432" s="2"/>
@@ -12486,7 +12488,7 @@
       <c r="X432" s="2"/>
       <c r="Y432" s="2"/>
     </row>
-    <row r="433" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A433" s="2"/>
       <c r="B433" s="2"/>
       <c r="C433" s="2"/>
@@ -12513,7 +12515,7 @@
       <c r="X433" s="2"/>
       <c r="Y433" s="2"/>
     </row>
-    <row r="434" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A434" s="2"/>
       <c r="B434" s="2"/>
       <c r="C434" s="2"/>
@@ -12540,7 +12542,7 @@
       <c r="X434" s="2"/>
       <c r="Y434" s="2"/>
     </row>
-    <row r="435" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A435" s="2"/>
       <c r="B435" s="2"/>
       <c r="C435" s="2"/>
@@ -12567,7 +12569,7 @@
       <c r="X435" s="2"/>
       <c r="Y435" s="2"/>
     </row>
-    <row r="436" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A436" s="2"/>
       <c r="B436" s="2"/>
       <c r="C436" s="2"/>
@@ -12594,7 +12596,7 @@
       <c r="X436" s="2"/>
       <c r="Y436" s="2"/>
     </row>
-    <row r="437" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A437" s="2"/>
       <c r="B437" s="2"/>
       <c r="C437" s="2"/>
@@ -12621,7 +12623,7 @@
       <c r="X437" s="2"/>
       <c r="Y437" s="2"/>
     </row>
-    <row r="438" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A438" s="2"/>
       <c r="B438" s="2"/>
       <c r="C438" s="2"/>
@@ -12648,7 +12650,7 @@
       <c r="X438" s="2"/>
       <c r="Y438" s="2"/>
     </row>
-    <row r="439" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A439" s="2"/>
       <c r="B439" s="2"/>
       <c r="C439" s="2"/>
@@ -12675,7 +12677,7 @@
       <c r="X439" s="2"/>
       <c r="Y439" s="2"/>
     </row>
-    <row r="440" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A440" s="2"/>
       <c r="B440" s="2"/>
       <c r="C440" s="2"/>
@@ -12702,7 +12704,7 @@
       <c r="X440" s="2"/>
       <c r="Y440" s="2"/>
     </row>
-    <row r="441" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A441" s="2"/>
       <c r="B441" s="2"/>
       <c r="C441" s="2"/>
@@ -12729,7 +12731,7 @@
       <c r="X441" s="2"/>
       <c r="Y441" s="2"/>
     </row>
-    <row r="442" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A442" s="2"/>
       <c r="B442" s="2"/>
       <c r="C442" s="2"/>
@@ -12756,7 +12758,7 @@
       <c r="X442" s="2"/>
       <c r="Y442" s="2"/>
     </row>
-    <row r="443" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A443" s="2"/>
       <c r="B443" s="2"/>
       <c r="C443" s="2"/>
@@ -12783,7 +12785,7 @@
       <c r="X443" s="2"/>
       <c r="Y443" s="2"/>
     </row>
-    <row r="444" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A444" s="2"/>
       <c r="B444" s="2"/>
       <c r="C444" s="2"/>
@@ -12810,7 +12812,7 @@
       <c r="X444" s="2"/>
       <c r="Y444" s="2"/>
     </row>
-    <row r="445" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A445" s="2"/>
       <c r="B445" s="2"/>
       <c r="C445" s="2"/>
@@ -12837,7 +12839,7 @@
       <c r="X445" s="2"/>
       <c r="Y445" s="2"/>
     </row>
-    <row r="446" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A446" s="2"/>
       <c r="B446" s="2"/>
       <c r="C446" s="2"/>
@@ -12864,7 +12866,7 @@
       <c r="X446" s="2"/>
       <c r="Y446" s="2"/>
     </row>
-    <row r="447" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A447" s="2"/>
       <c r="B447" s="2"/>
       <c r="C447" s="2"/>
@@ -12891,7 +12893,7 @@
       <c r="X447" s="2"/>
       <c r="Y447" s="2"/>
     </row>
-    <row r="448" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A448" s="2"/>
       <c r="B448" s="2"/>
       <c r="C448" s="2"/>
@@ -12918,7 +12920,7 @@
       <c r="X448" s="2"/>
       <c r="Y448" s="2"/>
     </row>
-    <row r="449" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A449" s="2"/>
       <c r="B449" s="2"/>
       <c r="C449" s="2"/>
@@ -12945,7 +12947,7 @@
       <c r="X449" s="2"/>
       <c r="Y449" s="2"/>
     </row>
-    <row r="450" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A450" s="2"/>
       <c r="B450" s="2"/>
       <c r="C450" s="2"/>
@@ -12972,7 +12974,7 @@
       <c r="X450" s="2"/>
       <c r="Y450" s="2"/>
     </row>
-    <row r="451" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A451" s="2"/>
       <c r="B451" s="2"/>
       <c r="C451" s="2"/>
@@ -12999,7 +13001,7 @@
       <c r="X451" s="2"/>
       <c r="Y451" s="2"/>
     </row>
-    <row r="452" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A452" s="2"/>
       <c r="B452" s="2"/>
       <c r="C452" s="2"/>
@@ -13026,7 +13028,7 @@
       <c r="X452" s="2"/>
       <c r="Y452" s="2"/>
     </row>
-    <row r="453" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A453" s="2"/>
       <c r="B453" s="2"/>
       <c r="C453" s="2"/>
@@ -13053,7 +13055,7 @@
       <c r="X453" s="2"/>
       <c r="Y453" s="2"/>
     </row>
-    <row r="454" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A454" s="2"/>
       <c r="B454" s="2"/>
       <c r="C454" s="2"/>
@@ -13080,7 +13082,7 @@
       <c r="X454" s="2"/>
       <c r="Y454" s="2"/>
     </row>
-    <row r="455" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A455" s="2"/>
       <c r="B455" s="2"/>
       <c r="C455" s="2"/>
@@ -13107,7 +13109,7 @@
       <c r="X455" s="2"/>
       <c r="Y455" s="2"/>
     </row>
-    <row r="456" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A456" s="2"/>
       <c r="B456" s="2"/>
       <c r="C456" s="2"/>
@@ -13134,7 +13136,7 @@
       <c r="X456" s="2"/>
       <c r="Y456" s="2"/>
     </row>
-    <row r="457" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A457" s="2"/>
       <c r="B457" s="2"/>
       <c r="C457" s="2"/>
@@ -13161,7 +13163,7 @@
       <c r="X457" s="2"/>
       <c r="Y457" s="2"/>
     </row>
-    <row r="458" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A458" s="2"/>
       <c r="B458" s="2"/>
       <c r="C458" s="2"/>
@@ -13188,7 +13190,7 @@
       <c r="X458" s="2"/>
       <c r="Y458" s="2"/>
     </row>
-    <row r="459" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A459" s="2"/>
       <c r="B459" s="2"/>
       <c r="C459" s="2"/>
@@ -13215,7 +13217,7 @@
       <c r="X459" s="2"/>
       <c r="Y459" s="2"/>
     </row>
-    <row r="460" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A460" s="2"/>
       <c r="B460" s="2"/>
       <c r="C460" s="2"/>
@@ -13242,7 +13244,7 @@
       <c r="X460" s="2"/>
       <c r="Y460" s="2"/>
     </row>
-    <row r="461" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A461" s="2"/>
       <c r="B461" s="2"/>
       <c r="C461" s="2"/>
@@ -13269,7 +13271,7 @@
       <c r="X461" s="2"/>
       <c r="Y461" s="2"/>
     </row>
-    <row r="462" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A462" s="2"/>
       <c r="B462" s="2"/>
       <c r="C462" s="2"/>
@@ -13296,7 +13298,7 @@
       <c r="X462" s="2"/>
       <c r="Y462" s="2"/>
     </row>
-    <row r="463" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A463" s="2"/>
       <c r="B463" s="2"/>
       <c r="C463" s="2"/>
@@ -13323,7 +13325,7 @@
       <c r="X463" s="2"/>
       <c r="Y463" s="2"/>
     </row>
-    <row r="464" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A464" s="2"/>
       <c r="B464" s="2"/>
       <c r="C464" s="2"/>
@@ -13350,7 +13352,7 @@
       <c r="X464" s="2"/>
       <c r="Y464" s="2"/>
     </row>
-    <row r="465" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A465" s="2"/>
       <c r="B465" s="2"/>
       <c r="C465" s="2"/>
@@ -13377,7 +13379,7 @@
       <c r="X465" s="2"/>
       <c r="Y465" s="2"/>
     </row>
-    <row r="466" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A466" s="2"/>
       <c r="B466" s="2"/>
       <c r="C466" s="2"/>
@@ -13404,7 +13406,7 @@
       <c r="X466" s="2"/>
       <c r="Y466" s="2"/>
     </row>
-    <row r="467" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A467" s="2"/>
       <c r="B467" s="2"/>
       <c r="C467" s="2"/>
@@ -13431,7 +13433,7 @@
       <c r="X467" s="2"/>
       <c r="Y467" s="2"/>
     </row>
-    <row r="468" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A468" s="2"/>
       <c r="B468" s="2"/>
       <c r="C468" s="2"/>
@@ -13458,7 +13460,7 @@
       <c r="X468" s="2"/>
       <c r="Y468" s="2"/>
     </row>
-    <row r="469" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A469" s="2"/>
       <c r="B469" s="2"/>
       <c r="C469" s="2"/>
@@ -13485,7 +13487,7 @@
       <c r="X469" s="2"/>
       <c r="Y469" s="2"/>
     </row>
-    <row r="470" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A470" s="2"/>
       <c r="B470" s="2"/>
       <c r="C470" s="2"/>
@@ -13512,7 +13514,7 @@
       <c r="X470" s="2"/>
       <c r="Y470" s="2"/>
     </row>
-    <row r="471" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A471" s="2"/>
       <c r="B471" s="2"/>
       <c r="C471" s="2"/>
@@ -13539,7 +13541,7 @@
       <c r="X471" s="2"/>
       <c r="Y471" s="2"/>
     </row>
-    <row r="472" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A472" s="2"/>
       <c r="B472" s="2"/>
       <c r="C472" s="2"/>
@@ -13566,7 +13568,7 @@
       <c r="X472" s="2"/>
       <c r="Y472" s="2"/>
     </row>
-    <row r="473" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A473" s="2"/>
       <c r="B473" s="2"/>
       <c r="C473" s="2"/>
@@ -13593,7 +13595,7 @@
       <c r="X473" s="2"/>
       <c r="Y473" s="2"/>
     </row>
-    <row r="474" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A474" s="2"/>
       <c r="B474" s="2"/>
       <c r="C474" s="2"/>
@@ -13620,7 +13622,7 @@
       <c r="X474" s="2"/>
       <c r="Y474" s="2"/>
     </row>
-    <row r="475" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A475" s="2"/>
       <c r="B475" s="2"/>
       <c r="C475" s="2"/>
@@ -13647,7 +13649,7 @@
       <c r="X475" s="2"/>
       <c r="Y475" s="2"/>
     </row>
-    <row r="476" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A476" s="2"/>
       <c r="B476" s="2"/>
       <c r="C476" s="2"/>
@@ -13674,7 +13676,7 @@
       <c r="X476" s="2"/>
       <c r="Y476" s="2"/>
     </row>
-    <row r="477" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A477" s="2"/>
       <c r="B477" s="2"/>
       <c r="C477" s="2"/>
@@ -13701,7 +13703,7 @@
       <c r="X477" s="2"/>
       <c r="Y477" s="2"/>
     </row>
-    <row r="478" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A478" s="2"/>
       <c r="B478" s="2"/>
       <c r="C478" s="2"/>
@@ -13728,7 +13730,7 @@
       <c r="X478" s="2"/>
       <c r="Y478" s="2"/>
     </row>
-    <row r="479" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A479" s="2"/>
       <c r="B479" s="2"/>
       <c r="C479" s="2"/>
@@ -13755,7 +13757,7 @@
       <c r="X479" s="2"/>
       <c r="Y479" s="2"/>
     </row>
-    <row r="480" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A480" s="2"/>
       <c r="B480" s="2"/>
       <c r="C480" s="2"/>
@@ -13782,7 +13784,7 @@
       <c r="X480" s="2"/>
       <c r="Y480" s="2"/>
     </row>
-    <row r="481" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A481" s="2"/>
       <c r="B481" s="2"/>
       <c r="C481" s="2"/>
@@ -13809,7 +13811,7 @@
       <c r="X481" s="2"/>
       <c r="Y481" s="2"/>
     </row>
-    <row r="482" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A482" s="2"/>
       <c r="B482" s="2"/>
       <c r="C482" s="2"/>
@@ -13836,7 +13838,7 @@
       <c r="X482" s="2"/>
       <c r="Y482" s="2"/>
     </row>
-    <row r="483" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A483" s="2"/>
       <c r="B483" s="2"/>
       <c r="C483" s="2"/>
@@ -13863,7 +13865,7 @@
       <c r="X483" s="2"/>
       <c r="Y483" s="2"/>
     </row>
-    <row r="484" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A484" s="2"/>
       <c r="B484" s="2"/>
       <c r="C484" s="2"/>
@@ -13890,7 +13892,7 @@
       <c r="X484" s="2"/>
       <c r="Y484" s="2"/>
     </row>
-    <row r="485" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A485" s="2"/>
       <c r="B485" s="2"/>
       <c r="C485" s="2"/>
@@ -13917,7 +13919,7 @@
       <c r="X485" s="2"/>
       <c r="Y485" s="2"/>
     </row>
-    <row r="486" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A486" s="2"/>
       <c r="B486" s="2"/>
       <c r="C486" s="2"/>
@@ -13944,7 +13946,7 @@
       <c r="X486" s="2"/>
       <c r="Y486" s="2"/>
     </row>
-    <row r="487" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A487" s="2"/>
       <c r="B487" s="2"/>
       <c r="C487" s="2"/>
@@ -13971,7 +13973,7 @@
       <c r="X487" s="2"/>
       <c r="Y487" s="2"/>
     </row>
-    <row r="488" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A488" s="2"/>
       <c r="B488" s="2"/>
       <c r="C488" s="2"/>
@@ -13998,7 +14000,7 @@
       <c r="X488" s="2"/>
       <c r="Y488" s="2"/>
     </row>
-    <row r="489" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A489" s="2"/>
       <c r="B489" s="2"/>
       <c r="C489" s="2"/>
@@ -14025,7 +14027,7 @@
       <c r="X489" s="2"/>
       <c r="Y489" s="2"/>
     </row>
-    <row r="490" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A490" s="2"/>
       <c r="B490" s="2"/>
       <c r="C490" s="2"/>
@@ -14052,7 +14054,7 @@
       <c r="X490" s="2"/>
       <c r="Y490" s="2"/>
     </row>
-    <row r="491" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A491" s="2"/>
       <c r="B491" s="2"/>
       <c r="C491" s="2"/>
@@ -14079,7 +14081,7 @@
       <c r="X491" s="2"/>
       <c r="Y491" s="2"/>
     </row>
-    <row r="492" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A492" s="2"/>
       <c r="B492" s="2"/>
       <c r="C492" s="2"/>
@@ -14106,7 +14108,7 @@
       <c r="X492" s="2"/>
       <c r="Y492" s="2"/>
     </row>
-    <row r="493" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A493" s="2"/>
       <c r="B493" s="2"/>
       <c r="C493" s="2"/>
@@ -14133,7 +14135,7 @@
       <c r="X493" s="2"/>
       <c r="Y493" s="2"/>
     </row>
-    <row r="494" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A494" s="2"/>
       <c r="B494" s="2"/>
       <c r="C494" s="2"/>
@@ -14160,7 +14162,7 @@
       <c r="X494" s="2"/>
       <c r="Y494" s="2"/>
     </row>
-    <row r="495" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A495" s="2"/>
       <c r="B495" s="2"/>
       <c r="C495" s="2"/>
@@ -14187,7 +14189,7 @@
       <c r="X495" s="2"/>
       <c r="Y495" s="2"/>
     </row>
-    <row r="496" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A496" s="2"/>
       <c r="B496" s="2"/>
       <c r="C496" s="2"/>
@@ -14214,7 +14216,7 @@
       <c r="X496" s="2"/>
       <c r="Y496" s="2"/>
     </row>
-    <row r="497" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A497" s="2"/>
       <c r="B497" s="2"/>
       <c r="C497" s="2"/>
@@ -14241,7 +14243,7 @@
       <c r="X497" s="2"/>
       <c r="Y497" s="2"/>
     </row>
-    <row r="498" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A498" s="2"/>
       <c r="B498" s="2"/>
       <c r="C498" s="2"/>
@@ -14268,7 +14270,7 @@
       <c r="X498" s="2"/>
       <c r="Y498" s="2"/>
     </row>
-    <row r="499" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A499" s="2"/>
       <c r="B499" s="2"/>
       <c r="C499" s="2"/>
@@ -14295,7 +14297,7 @@
       <c r="X499" s="2"/>
       <c r="Y499" s="2"/>
     </row>
-    <row r="500" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A500" s="2"/>
       <c r="B500" s="2"/>
       <c r="C500" s="2"/>
@@ -14322,7 +14324,7 @@
       <c r="X500" s="2"/>
       <c r="Y500" s="2"/>
     </row>
-    <row r="501" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A501" s="2"/>
       <c r="B501" s="2"/>
       <c r="C501" s="2"/>
@@ -14349,7 +14351,7 @@
       <c r="X501" s="2"/>
       <c r="Y501" s="2"/>
     </row>
-    <row r="502" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A502" s="2"/>
       <c r="B502" s="2"/>
       <c r="C502" s="2"/>
@@ -14376,7 +14378,7 @@
       <c r="X502" s="2"/>
       <c r="Y502" s="2"/>
     </row>
-    <row r="503" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A503" s="2"/>
       <c r="B503" s="2"/>
       <c r="C503" s="2"/>
@@ -14403,7 +14405,7 @@
       <c r="X503" s="2"/>
       <c r="Y503" s="2"/>
     </row>
-    <row r="504" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A504" s="2"/>
       <c r="B504" s="2"/>
       <c r="C504" s="2"/>
@@ -14430,7 +14432,7 @@
       <c r="X504" s="2"/>
       <c r="Y504" s="2"/>
     </row>
-    <row r="505" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A505" s="2"/>
       <c r="B505" s="2"/>
       <c r="C505" s="2"/>
@@ -14457,7 +14459,7 @@
       <c r="X505" s="2"/>
       <c r="Y505" s="2"/>
     </row>
-    <row r="506" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A506" s="2"/>
       <c r="B506" s="2"/>
       <c r="C506" s="2"/>
@@ -14484,7 +14486,7 @@
       <c r="X506" s="2"/>
       <c r="Y506" s="2"/>
     </row>
-    <row r="507" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A507" s="2"/>
       <c r="B507" s="2"/>
       <c r="C507" s="2"/>
@@ -14511,7 +14513,7 @@
       <c r="X507" s="2"/>
       <c r="Y507" s="2"/>
     </row>
-    <row r="508" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A508" s="2"/>
       <c r="B508" s="2"/>
       <c r="C508" s="2"/>
@@ -14538,7 +14540,7 @@
       <c r="X508" s="2"/>
       <c r="Y508" s="2"/>
     </row>
-    <row r="509" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A509" s="2"/>
       <c r="B509" s="2"/>
       <c r="C509" s="2"/>
@@ -14565,7 +14567,7 @@
       <c r="X509" s="2"/>
       <c r="Y509" s="2"/>
     </row>
-    <row r="510" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A510" s="2"/>
       <c r="B510" s="2"/>
       <c r="C510" s="2"/>
@@ -14592,7 +14594,7 @@
       <c r="X510" s="2"/>
       <c r="Y510" s="2"/>
     </row>
-    <row r="511" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A511" s="2"/>
       <c r="B511" s="2"/>
       <c r="C511" s="2"/>
@@ -14619,7 +14621,7 @@
       <c r="X511" s="2"/>
       <c r="Y511" s="2"/>
     </row>
-    <row r="512" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A512" s="2"/>
       <c r="B512" s="2"/>
       <c r="C512" s="2"/>
@@ -14646,7 +14648,7 @@
       <c r="X512" s="2"/>
       <c r="Y512" s="2"/>
     </row>
-    <row r="513" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A513" s="2"/>
       <c r="B513" s="2"/>
       <c r="C513" s="2"/>
@@ -14673,7 +14675,7 @@
       <c r="X513" s="2"/>
       <c r="Y513" s="2"/>
     </row>
-    <row r="514" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A514" s="2"/>
       <c r="B514" s="2"/>
       <c r="C514" s="2"/>
@@ -14700,7 +14702,7 @@
       <c r="X514" s="2"/>
       <c r="Y514" s="2"/>
     </row>
-    <row r="515" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A515" s="2"/>
       <c r="B515" s="2"/>
       <c r="C515" s="2"/>
@@ -14727,7 +14729,7 @@
       <c r="X515" s="2"/>
       <c r="Y515" s="2"/>
     </row>
-    <row r="516" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A516" s="2"/>
       <c r="B516" s="2"/>
       <c r="C516" s="2"/>
@@ -14754,7 +14756,7 @@
       <c r="X516" s="2"/>
       <c r="Y516" s="2"/>
     </row>
-    <row r="517" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A517" s="2"/>
       <c r="B517" s="2"/>
       <c r="C517" s="2"/>
@@ -14781,7 +14783,7 @@
       <c r="X517" s="2"/>
       <c r="Y517" s="2"/>
     </row>
-    <row r="518" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A518" s="2"/>
       <c r="B518" s="2"/>
       <c r="C518" s="2"/>
@@ -14808,7 +14810,7 @@
       <c r="X518" s="2"/>
       <c r="Y518" s="2"/>
     </row>
-    <row r="519" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A519" s="2"/>
       <c r="B519" s="2"/>
       <c r="C519" s="2"/>
@@ -14835,7 +14837,7 @@
       <c r="X519" s="2"/>
       <c r="Y519" s="2"/>
     </row>
-    <row r="520" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A520" s="2"/>
       <c r="B520" s="2"/>
       <c r="C520" s="2"/>
@@ -14862,7 +14864,7 @@
       <c r="X520" s="2"/>
       <c r="Y520" s="2"/>
     </row>
-    <row r="521" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A521" s="2"/>
       <c r="B521" s="2"/>
       <c r="C521" s="2"/>
@@ -14889,7 +14891,7 @@
       <c r="X521" s="2"/>
       <c r="Y521" s="2"/>
     </row>
-    <row r="522" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A522" s="2"/>
       <c r="B522" s="2"/>
       <c r="C522" s="2"/>
@@ -14916,7 +14918,7 @@
       <c r="X522" s="2"/>
       <c r="Y522" s="2"/>
     </row>
-    <row r="523" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A523" s="2"/>
       <c r="B523" s="2"/>
       <c r="C523" s="2"/>
@@ -14943,7 +14945,7 @@
       <c r="X523" s="2"/>
       <c r="Y523" s="2"/>
     </row>
-    <row r="524" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A524" s="2"/>
       <c r="B524" s="2"/>
       <c r="C524" s="2"/>
@@ -14970,7 +14972,7 @@
       <c r="X524" s="2"/>
       <c r="Y524" s="2"/>
     </row>
-    <row r="525" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A525" s="2"/>
       <c r="B525" s="2"/>
       <c r="C525" s="2"/>
@@ -14997,7 +14999,7 @@
       <c r="X525" s="2"/>
       <c r="Y525" s="2"/>
     </row>
-    <row r="526" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A526" s="2"/>
       <c r="B526" s="2"/>
       <c r="C526" s="2"/>
@@ -15024,7 +15026,7 @@
       <c r="X526" s="2"/>
       <c r="Y526" s="2"/>
     </row>
-    <row r="527" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A527" s="2"/>
       <c r="B527" s="2"/>
       <c r="C527" s="2"/>
@@ -15051,7 +15053,7 @@
       <c r="X527" s="2"/>
       <c r="Y527" s="2"/>
     </row>
-    <row r="528" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A528" s="2"/>
       <c r="B528" s="2"/>
       <c r="C528" s="2"/>
@@ -15078,7 +15080,7 @@
       <c r="X528" s="2"/>
       <c r="Y528" s="2"/>
     </row>
-    <row r="529" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A529" s="2"/>
       <c r="B529" s="2"/>
       <c r="C529" s="2"/>
@@ -15105,7 +15107,7 @@
       <c r="X529" s="2"/>
       <c r="Y529" s="2"/>
     </row>
-    <row r="530" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A530" s="2"/>
       <c r="B530" s="2"/>
       <c r="C530" s="2"/>
@@ -15132,7 +15134,7 @@
       <c r="X530" s="2"/>
       <c r="Y530" s="2"/>
     </row>
-    <row r="531" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A531" s="2"/>
       <c r="B531" s="2"/>
       <c r="C531" s="2"/>
@@ -15159,7 +15161,7 @@
       <c r="X531" s="2"/>
       <c r="Y531" s="2"/>
     </row>
-    <row r="532" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A532" s="2"/>
       <c r="B532" s="2"/>
       <c r="C532" s="2"/>
@@ -15186,7 +15188,7 @@
       <c r="X532" s="2"/>
       <c r="Y532" s="2"/>
     </row>
-    <row r="533" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A533" s="2"/>
       <c r="B533" s="2"/>
       <c r="C533" s="2"/>
@@ -15213,7 +15215,7 @@
       <c r="X533" s="2"/>
       <c r="Y533" s="2"/>
     </row>
-    <row r="534" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A534" s="2"/>
       <c r="B534" s="2"/>
       <c r="C534" s="2"/>
@@ -15240,7 +15242,7 @@
       <c r="X534" s="2"/>
       <c r="Y534" s="2"/>
     </row>
-    <row r="535" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A535" s="2"/>
       <c r="B535" s="2"/>
       <c r="C535" s="2"/>
@@ -15267,7 +15269,7 @@
       <c r="X535" s="2"/>
       <c r="Y535" s="2"/>
     </row>
-    <row r="536" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A536" s="2"/>
       <c r="B536" s="2"/>
       <c r="C536" s="2"/>
@@ -15294,7 +15296,7 @@
       <c r="X536" s="2"/>
       <c r="Y536" s="2"/>
     </row>
-    <row r="537" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A537" s="2"/>
       <c r="B537" s="2"/>
       <c r="C537" s="2"/>
@@ -15321,7 +15323,7 @@
       <c r="X537" s="2"/>
       <c r="Y537" s="2"/>
     </row>
-    <row r="538" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A538" s="2"/>
       <c r="B538" s="2"/>
       <c r="C538" s="2"/>
@@ -15348,7 +15350,7 @@
       <c r="X538" s="2"/>
       <c r="Y538" s="2"/>
     </row>
-    <row r="539" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A539" s="2"/>
       <c r="B539" s="2"/>
       <c r="C539" s="2"/>
@@ -15375,7 +15377,7 @@
       <c r="X539" s="2"/>
       <c r="Y539" s="2"/>
     </row>
-    <row r="540" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A540" s="2"/>
       <c r="B540" s="2"/>
       <c r="C540" s="2"/>
@@ -15402,7 +15404,7 @@
       <c r="X540" s="2"/>
       <c r="Y540" s="2"/>
     </row>
-    <row r="541" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A541" s="2"/>
       <c r="B541" s="2"/>
       <c r="C541" s="2"/>
@@ -15429,7 +15431,7 @@
       <c r="X541" s="2"/>
       <c r="Y541" s="2"/>
     </row>
-    <row r="542" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A542" s="2"/>
       <c r="B542" s="2"/>
       <c r="C542" s="2"/>
@@ -15456,7 +15458,7 @@
       <c r="X542" s="2"/>
       <c r="Y542" s="2"/>
     </row>
-    <row r="543" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A543" s="2"/>
       <c r="B543" s="2"/>
       <c r="C543" s="2"/>
@@ -15483,7 +15485,7 @@
       <c r="X543" s="2"/>
       <c r="Y543" s="2"/>
     </row>
-    <row r="544" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A544" s="2"/>
       <c r="B544" s="2"/>
       <c r="C544" s="2"/>
@@ -15510,7 +15512,7 @@
       <c r="X544" s="2"/>
       <c r="Y544" s="2"/>
     </row>
-    <row r="545" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A545" s="2"/>
       <c r="B545" s="2"/>
       <c r="C545" s="2"/>
@@ -15537,7 +15539,7 @@
       <c r="X545" s="2"/>
       <c r="Y545" s="2"/>
     </row>
-    <row r="546" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A546" s="2"/>
       <c r="B546" s="2"/>
       <c r="C546" s="2"/>
@@ -15564,7 +15566,7 @@
       <c r="X546" s="2"/>
       <c r="Y546" s="2"/>
     </row>
-    <row r="547" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A547" s="2"/>
       <c r="B547" s="2"/>
       <c r="C547" s="2"/>
@@ -15591,7 +15593,7 @@
       <c r="X547" s="2"/>
       <c r="Y547" s="2"/>
     </row>
-    <row r="548" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A548" s="2"/>
       <c r="B548" s="2"/>
       <c r="C548" s="2"/>
@@ -15618,7 +15620,7 @@
       <c r="X548" s="2"/>
       <c r="Y548" s="2"/>
     </row>
-    <row r="549" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A549" s="2"/>
       <c r="B549" s="2"/>
       <c r="C549" s="2"/>
@@ -15645,7 +15647,7 @@
       <c r="X549" s="2"/>
       <c r="Y549" s="2"/>
     </row>
-    <row r="550" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A550" s="2"/>
       <c r="B550" s="2"/>
       <c r="C550" s="2"/>
@@ -15672,7 +15674,7 @@
       <c r="X550" s="2"/>
       <c r="Y550" s="2"/>
     </row>
-    <row r="551" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A551" s="2"/>
       <c r="B551" s="2"/>
       <c r="C551" s="2"/>
@@ -15699,7 +15701,7 @@
       <c r="X551" s="2"/>
       <c r="Y551" s="2"/>
     </row>
-    <row r="552" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A552" s="2"/>
       <c r="B552" s="2"/>
       <c r="C552" s="2"/>
@@ -15726,7 +15728,7 @@
       <c r="X552" s="2"/>
       <c r="Y552" s="2"/>
     </row>
-    <row r="553" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A553" s="2"/>
       <c r="B553" s="2"/>
       <c r="C553" s="2"/>
@@ -15753,7 +15755,7 @@
       <c r="X553" s="2"/>
       <c r="Y553" s="2"/>
     </row>
-    <row r="554" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A554" s="2"/>
       <c r="B554" s="2"/>
       <c r="C554" s="2"/>
@@ -15780,7 +15782,7 @@
       <c r="X554" s="2"/>
       <c r="Y554" s="2"/>
     </row>
-    <row r="555" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A555" s="2"/>
       <c r="B555" s="2"/>
       <c r="C555" s="2"/>
@@ -15807,7 +15809,7 @@
       <c r="X555" s="2"/>
       <c r="Y555" s="2"/>
     </row>
-    <row r="556" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A556" s="2"/>
       <c r="B556" s="2"/>
       <c r="C556" s="2"/>
@@ -15834,7 +15836,7 @@
       <c r="X556" s="2"/>
       <c r="Y556" s="2"/>
     </row>
-    <row r="557" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A557" s="2"/>
       <c r="B557" s="2"/>
       <c r="C557" s="2"/>
@@ -15861,7 +15863,7 @@
       <c r="X557" s="2"/>
       <c r="Y557" s="2"/>
     </row>
-    <row r="558" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A558" s="2"/>
       <c r="B558" s="2"/>
       <c r="C558" s="2"/>
@@ -15888,7 +15890,7 @@
       <c r="X558" s="2"/>
       <c r="Y558" s="2"/>
     </row>
-    <row r="559" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A559" s="2"/>
       <c r="B559" s="2"/>
       <c r="C559" s="2"/>
@@ -15915,7 +15917,7 @@
       <c r="X559" s="2"/>
       <c r="Y559" s="2"/>
     </row>
-    <row r="560" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A560" s="2"/>
       <c r="B560" s="2"/>
       <c r="C560" s="2"/>
@@ -15942,7 +15944,7 @@
       <c r="X560" s="2"/>
       <c r="Y560" s="2"/>
     </row>
-    <row r="561" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A561" s="2"/>
       <c r="B561" s="2"/>
       <c r="C561" s="2"/>
@@ -15969,7 +15971,7 @@
       <c r="X561" s="2"/>
       <c r="Y561" s="2"/>
     </row>
-    <row r="562" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A562" s="2"/>
       <c r="B562" s="2"/>
       <c r="C562" s="2"/>
@@ -15996,7 +15998,7 @@
       <c r="X562" s="2"/>
       <c r="Y562" s="2"/>
     </row>
-    <row r="563" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A563" s="2"/>
       <c r="B563" s="2"/>
       <c r="C563" s="2"/>
@@ -16023,7 +16025,7 @@
       <c r="X563" s="2"/>
       <c r="Y563" s="2"/>
     </row>
-    <row r="564" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A564" s="2"/>
       <c r="B564" s="2"/>
       <c r="C564" s="2"/>
@@ -16050,7 +16052,7 @@
       <c r="X564" s="2"/>
       <c r="Y564" s="2"/>
     </row>
-    <row r="565" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A565" s="2"/>
       <c r="B565" s="2"/>
       <c r="C565" s="2"/>
@@ -16077,7 +16079,7 @@
       <c r="X565" s="2"/>
       <c r="Y565" s="2"/>
     </row>
-    <row r="566" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A566" s="2"/>
       <c r="B566" s="2"/>
       <c r="C566" s="2"/>
@@ -16104,7 +16106,7 @@
       <c r="X566" s="2"/>
       <c r="Y566" s="2"/>
     </row>
-    <row r="567" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A567" s="2"/>
       <c r="B567" s="2"/>
       <c r="C567" s="2"/>
@@ -16131,7 +16133,7 @@
       <c r="X567" s="2"/>
       <c r="Y567" s="2"/>
     </row>
-    <row r="568" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A568" s="2"/>
       <c r="B568" s="2"/>
       <c r="C568" s="2"/>
@@ -16158,7 +16160,7 @@
       <c r="X568" s="2"/>
       <c r="Y568" s="2"/>
     </row>
-    <row r="569" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A569" s="2"/>
       <c r="B569" s="2"/>
       <c r="C569" s="2"/>
@@ -16185,7 +16187,7 @@
       <c r="X569" s="2"/>
       <c r="Y569" s="2"/>
     </row>
-    <row r="570" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A570" s="2"/>
       <c r="B570" s="2"/>
       <c r="C570" s="2"/>
@@ -16212,7 +16214,7 @@
       <c r="X570" s="2"/>
       <c r="Y570" s="2"/>
     </row>
-    <row r="571" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A571" s="2"/>
       <c r="B571" s="2"/>
       <c r="C571" s="2"/>
@@ -16239,7 +16241,7 @@
       <c r="X571" s="2"/>
       <c r="Y571" s="2"/>
     </row>
-    <row r="572" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A572" s="2"/>
       <c r="B572" s="2"/>
       <c r="C572" s="2"/>
@@ -16266,7 +16268,7 @@
       <c r="X572" s="2"/>
       <c r="Y572" s="2"/>
     </row>
-    <row r="573" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A573" s="2"/>
       <c r="B573" s="2"/>
       <c r="C573" s="2"/>
@@ -16293,7 +16295,7 @@
       <c r="X573" s="2"/>
       <c r="Y573" s="2"/>
     </row>
-    <row r="574" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A574" s="2"/>
       <c r="B574" s="2"/>
       <c r="C574" s="2"/>
@@ -16320,7 +16322,7 @@
       <c r="X574" s="2"/>
       <c r="Y574" s="2"/>
     </row>
-    <row r="575" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A575" s="2"/>
       <c r="B575" s="2"/>
       <c r="C575" s="2"/>
@@ -16347,7 +16349,7 @@
       <c r="X575" s="2"/>
       <c r="Y575" s="2"/>
     </row>
-    <row r="576" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A576" s="2"/>
       <c r="B576" s="2"/>
       <c r="C576" s="2"/>
@@ -16374,7 +16376,7 @@
       <c r="X576" s="2"/>
       <c r="Y576" s="2"/>
     </row>
-    <row r="577" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A577" s="2"/>
       <c r="B577" s="2"/>
       <c r="C577" s="2"/>
@@ -16401,7 +16403,7 @@
       <c r="X577" s="2"/>
       <c r="Y577" s="2"/>
     </row>
-    <row r="578" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A578" s="2"/>
       <c r="B578" s="2"/>
       <c r="C578" s="2"/>
@@ -16428,7 +16430,7 @@
       <c r="X578" s="2"/>
       <c r="Y578" s="2"/>
     </row>
-    <row r="579" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A579" s="2"/>
       <c r="B579" s="2"/>
       <c r="C579" s="2"/>
@@ -16455,7 +16457,7 @@
       <c r="X579" s="2"/>
       <c r="Y579" s="2"/>
     </row>
-    <row r="580" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A580" s="2"/>
       <c r="B580" s="2"/>
       <c r="C580" s="2"/>
@@ -16482,7 +16484,7 @@
       <c r="X580" s="2"/>
       <c r="Y580" s="2"/>
     </row>
-    <row r="581" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A581" s="2"/>
       <c r="B581" s="2"/>
       <c r="C581" s="2"/>
@@ -16509,7 +16511,7 @@
       <c r="X581" s="2"/>
       <c r="Y581" s="2"/>
     </row>
-    <row r="582" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A582" s="2"/>
       <c r="B582" s="2"/>
       <c r="C582" s="2"/>
@@ -16536,7 +16538,7 @@
       <c r="X582" s="2"/>
       <c r="Y582" s="2"/>
     </row>
-    <row r="583" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A583" s="2"/>
       <c r="B583" s="2"/>
       <c r="C583" s="2"/>
@@ -16563,7 +16565,7 @@
       <c r="X583" s="2"/>
       <c r="Y583" s="2"/>
     </row>
-    <row r="584" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A584" s="2"/>
       <c r="B584" s="2"/>
       <c r="C584" s="2"/>
@@ -16590,7 +16592,7 @@
       <c r="X584" s="2"/>
       <c r="Y584" s="2"/>
     </row>
-    <row r="585" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A585" s="2"/>
       <c r="B585" s="2"/>
       <c r="C585" s="2"/>
@@ -16617,7 +16619,7 @@
       <c r="X585" s="2"/>
       <c r="Y585" s="2"/>
     </row>
-    <row r="586" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A586" s="2"/>
       <c r="B586" s="2"/>
       <c r="C586" s="2"/>
@@ -16644,7 +16646,7 @@
       <c r="X586" s="2"/>
       <c r="Y586" s="2"/>
     </row>
-    <row r="587" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A587" s="2"/>
       <c r="B587" s="2"/>
       <c r="C587" s="2"/>
@@ -16671,7 +16673,7 @@
       <c r="X587" s="2"/>
       <c r="Y587" s="2"/>
     </row>
-    <row r="588" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A588" s="2"/>
       <c r="B588" s="2"/>
       <c r="C588" s="2"/>
@@ -16698,7 +16700,7 @@
       <c r="X588" s="2"/>
       <c r="Y588" s="2"/>
     </row>
-    <row r="589" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A589" s="2"/>
       <c r="B589" s="2"/>
       <c r="C589" s="2"/>
@@ -16725,7 +16727,7 @@
       <c r="X589" s="2"/>
       <c r="Y589" s="2"/>
     </row>
-    <row r="590" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A590" s="2"/>
       <c r="B590" s="2"/>
       <c r="C590" s="2"/>
@@ -16752,7 +16754,7 @@
       <c r="X590" s="2"/>
       <c r="Y590" s="2"/>
     </row>
-    <row r="591" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A591" s="2"/>
       <c r="B591" s="2"/>
       <c r="C591" s="2"/>
@@ -16779,7 +16781,7 @@
       <c r="X591" s="2"/>
       <c r="Y591" s="2"/>
     </row>
-    <row r="592" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A592" s="2"/>
       <c r="B592" s="2"/>
       <c r="C592" s="2"/>
@@ -16806,7 +16808,7 @@
       <c r="X592" s="2"/>
       <c r="Y592" s="2"/>
     </row>
-    <row r="593" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A593" s="2"/>
       <c r="B593" s="2"/>
       <c r="C593" s="2"/>
@@ -16833,7 +16835,7 @@
       <c r="X593" s="2"/>
       <c r="Y593" s="2"/>
     </row>
-    <row r="594" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A594" s="2"/>
       <c r="B594" s="2"/>
       <c r="C594" s="2"/>
@@ -16860,7 +16862,7 @@
       <c r="X594" s="2"/>
       <c r="Y594" s="2"/>
     </row>
-    <row r="595" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A595" s="2"/>
       <c r="B595" s="2"/>
       <c r="C595" s="2"/>
@@ -16887,7 +16889,7 @@
       <c r="X595" s="2"/>
       <c r="Y595" s="2"/>
     </row>
-    <row r="596" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A596" s="2"/>
       <c r="B596" s="2"/>
       <c r="C596" s="2"/>
@@ -16914,7 +16916,7 @@
       <c r="X596" s="2"/>
       <c r="Y596" s="2"/>
     </row>
-    <row r="597" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A597" s="2"/>
       <c r="B597" s="2"/>
       <c r="C597" s="2"/>
@@ -16941,7 +16943,7 @@
       <c r="X597" s="2"/>
       <c r="Y597" s="2"/>
     </row>
-    <row r="598" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A598" s="2"/>
       <c r="B598" s="2"/>
       <c r="C598" s="2"/>
@@ -16968,7 +16970,7 @@
       <c r="X598" s="2"/>
       <c r="Y598" s="2"/>
     </row>
-    <row r="599" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A599" s="2"/>
       <c r="B599" s="2"/>
       <c r="C599" s="2"/>
@@ -16995,7 +16997,7 @@
       <c r="X599" s="2"/>
       <c r="Y599" s="2"/>
     </row>
-    <row r="600" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A600" s="2"/>
       <c r="B600" s="2"/>
       <c r="C600" s="2"/>
@@ -17022,7 +17024,7 @@
       <c r="X600" s="2"/>
       <c r="Y600" s="2"/>
     </row>
-    <row r="601" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A601" s="2"/>
       <c r="B601" s="2"/>
       <c r="C601" s="2"/>
@@ -17049,7 +17051,7 @@
       <c r="X601" s="2"/>
       <c r="Y601" s="2"/>
     </row>
-    <row r="602" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A602" s="2"/>
       <c r="B602" s="2"/>
       <c r="C602" s="2"/>
@@ -17076,7 +17078,7 @@
       <c r="X602" s="2"/>
       <c r="Y602" s="2"/>
     </row>
-    <row r="603" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A603" s="2"/>
       <c r="B603" s="2"/>
       <c r="C603" s="2"/>
@@ -17103,7 +17105,7 @@
       <c r="X603" s="2"/>
       <c r="Y603" s="2"/>
     </row>
-    <row r="604" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A604" s="2"/>
       <c r="B604" s="2"/>
       <c r="C604" s="2"/>
@@ -17130,7 +17132,7 @@
       <c r="X604" s="2"/>
       <c r="Y604" s="2"/>
     </row>
-    <row r="605" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A605" s="2"/>
       <c r="B605" s="2"/>
       <c r="C605" s="2"/>
@@ -17157,7 +17159,7 @@
       <c r="X605" s="2"/>
       <c r="Y605" s="2"/>
     </row>
-    <row r="606" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A606" s="2"/>
       <c r="B606" s="2"/>
       <c r="C606" s="2"/>
@@ -17184,7 +17186,7 @@
       <c r="X606" s="2"/>
       <c r="Y606" s="2"/>
     </row>
-    <row r="607" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A607" s="2"/>
       <c r="B607" s="2"/>
       <c r="C607" s="2"/>
@@ -17211,7 +17213,7 @@
       <c r="X607" s="2"/>
       <c r="Y607" s="2"/>
     </row>
-    <row r="608" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A608" s="2"/>
       <c r="B608" s="2"/>
       <c r="C608" s="2"/>
@@ -17238,7 +17240,7 @@
       <c r="X608" s="2"/>
       <c r="Y608" s="2"/>
     </row>
-    <row r="609" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A609" s="2"/>
       <c r="B609" s="2"/>
       <c r="C609" s="2"/>
@@ -17265,7 +17267,7 @@
       <c r="X609" s="2"/>
       <c r="Y609" s="2"/>
     </row>
-    <row r="610" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A610" s="2"/>
       <c r="B610" s="2"/>
       <c r="C610" s="2"/>
@@ -17292,7 +17294,7 @@
       <c r="X610" s="2"/>
       <c r="Y610" s="2"/>
     </row>
-    <row r="611" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A611" s="2"/>
       <c r="B611" s="2"/>
       <c r="C611" s="2"/>
@@ -17319,7 +17321,7 @@
       <c r="X611" s="2"/>
       <c r="Y611" s="2"/>
     </row>
-    <row r="612" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A612" s="2"/>
       <c r="B612" s="2"/>
       <c r="C612" s="2"/>
@@ -17346,7 +17348,7 @@
       <c r="X612" s="2"/>
       <c r="Y612" s="2"/>
     </row>
-    <row r="613" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A613" s="2"/>
       <c r="B613" s="2"/>
       <c r="C613" s="2"/>
@@ -17373,7 +17375,7 @@
       <c r="X613" s="2"/>
       <c r="Y613" s="2"/>
     </row>
-    <row r="614" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A614" s="2"/>
       <c r="B614" s="2"/>
       <c r="C614" s="2"/>
@@ -17400,7 +17402,7 @@
       <c r="X614" s="2"/>
       <c r="Y614" s="2"/>
     </row>
-    <row r="615" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A615" s="2"/>
       <c r="B615" s="2"/>
       <c r="C615" s="2"/>
@@ -17427,7 +17429,7 @@
       <c r="X615" s="2"/>
       <c r="Y615" s="2"/>
     </row>
-    <row r="616" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A616" s="2"/>
       <c r="B616" s="2"/>
       <c r="C616" s="2"/>
@@ -17454,7 +17456,7 @@
       <c r="X616" s="2"/>
       <c r="Y616" s="2"/>
     </row>
-    <row r="617" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A617" s="2"/>
       <c r="B617" s="2"/>
       <c r="C617" s="2"/>
@@ -17481,7 +17483,7 @@
       <c r="X617" s="2"/>
       <c r="Y617" s="2"/>
     </row>
-    <row r="618" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A618" s="2"/>
       <c r="B618" s="2"/>
       <c r="C618" s="2"/>
@@ -17508,7 +17510,7 @@
       <c r="X618" s="2"/>
       <c r="Y618" s="2"/>
     </row>
-    <row r="619" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A619" s="2"/>
       <c r="B619" s="2"/>
       <c r="C619" s="2"/>
@@ -17535,7 +17537,7 @@
       <c r="X619" s="2"/>
       <c r="Y619" s="2"/>
     </row>
-    <row r="620" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A620" s="2"/>
       <c r="B620" s="2"/>
       <c r="C620" s="2"/>
@@ -17562,7 +17564,7 @@
       <c r="X620" s="2"/>
       <c r="Y620" s="2"/>
     </row>
-    <row r="621" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A621" s="2"/>
       <c r="B621" s="2"/>
       <c r="C621" s="2"/>
@@ -17589,7 +17591,7 @@
       <c r="X621" s="2"/>
       <c r="Y621" s="2"/>
     </row>
-    <row r="622" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A622" s="2"/>
       <c r="B622" s="2"/>
       <c r="C622" s="2"/>
@@ -17616,7 +17618,7 @@
       <c r="X622" s="2"/>
       <c r="Y622" s="2"/>
     </row>
-    <row r="623" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A623" s="2"/>
       <c r="B623" s="2"/>
       <c r="C623" s="2"/>
@@ -17643,7 +17645,7 @@
       <c r="X623" s="2"/>
       <c r="Y623" s="2"/>
     </row>
-    <row r="624" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A624" s="2"/>
       <c r="B624" s="2"/>
       <c r="C624" s="2"/>
@@ -17670,7 +17672,7 @@
       <c r="X624" s="2"/>
       <c r="Y624" s="2"/>
     </row>
-    <row r="625" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A625" s="2"/>
       <c r="B625" s="2"/>
       <c r="C625" s="2"/>
@@ -17697,7 +17699,7 @@
       <c r="X625" s="2"/>
       <c r="Y625" s="2"/>
     </row>
-    <row r="626" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A626" s="2"/>
       <c r="B626" s="2"/>
       <c r="C626" s="2"/>
@@ -17724,7 +17726,7 @@
       <c r="X626" s="2"/>
       <c r="Y626" s="2"/>
     </row>
-    <row r="627" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A627" s="2"/>
       <c r="B627" s="2"/>
       <c r="C627" s="2"/>
@@ -17751,7 +17753,7 @@
       <c r="X627" s="2"/>
       <c r="Y627" s="2"/>
     </row>
-    <row r="628" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A628" s="2"/>
       <c r="B628" s="2"/>
       <c r="C628" s="2"/>
@@ -17778,7 +17780,7 @@
       <c r="X628" s="2"/>
       <c r="Y628" s="2"/>
     </row>
-    <row r="629" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A629" s="2"/>
       <c r="B629" s="2"/>
       <c r="C629" s="2"/>
@@ -17805,7 +17807,7 @@
       <c r="X629" s="2"/>
       <c r="Y629" s="2"/>
     </row>
-    <row r="630" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A630" s="2"/>
       <c r="B630" s="2"/>
       <c r="C630" s="2"/>
@@ -17832,7 +17834,7 @@
       <c r="X630" s="2"/>
       <c r="Y630" s="2"/>
     </row>
-    <row r="631" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A631" s="2"/>
       <c r="B631" s="2"/>
       <c r="C631" s="2"/>
@@ -17859,7 +17861,7 @@
       <c r="X631" s="2"/>
       <c r="Y631" s="2"/>
     </row>
-    <row r="632" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A632" s="2"/>
       <c r="B632" s="2"/>
       <c r="C632" s="2"/>
@@ -17886,7 +17888,7 @@
       <c r="X632" s="2"/>
       <c r="Y632" s="2"/>
     </row>
-    <row r="633" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A633" s="2"/>
       <c r="B633" s="2"/>
       <c r="C633" s="2"/>
@@ -17913,7 +17915,7 @@
       <c r="X633" s="2"/>
       <c r="Y633" s="2"/>
     </row>
-    <row r="634" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="634" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A634" s="2"/>
       <c r="B634" s="2"/>
       <c r="C634" s="2"/>
@@ -17940,7 +17942,7 @@
       <c r="X634" s="2"/>
       <c r="Y634" s="2"/>
     </row>
-    <row r="635" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A635" s="2"/>
       <c r="B635" s="2"/>
       <c r="C635" s="2"/>
@@ -17967,7 +17969,7 @@
       <c r="X635" s="2"/>
       <c r="Y635" s="2"/>
     </row>
-    <row r="636" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="636" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A636" s="2"/>
       <c r="B636" s="2"/>
       <c r="C636" s="2"/>
@@ -17994,7 +17996,7 @@
       <c r="X636" s="2"/>
       <c r="Y636" s="2"/>
     </row>
-    <row r="637" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A637" s="2"/>
       <c r="B637" s="2"/>
       <c r="C637" s="2"/>
@@ -18021,7 +18023,7 @@
       <c r="X637" s="2"/>
       <c r="Y637" s="2"/>
     </row>
-    <row r="638" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A638" s="2"/>
       <c r="B638" s="2"/>
       <c r="C638" s="2"/>
@@ -18048,7 +18050,7 @@
       <c r="X638" s="2"/>
       <c r="Y638" s="2"/>
     </row>
-    <row r="639" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A639" s="2"/>
       <c r="B639" s="2"/>
       <c r="C639" s="2"/>
@@ -18075,7 +18077,7 @@
       <c r="X639" s="2"/>
       <c r="Y639" s="2"/>
     </row>
-    <row r="640" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="640" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A640" s="2"/>
       <c r="B640" s="2"/>
       <c r="C640" s="2"/>
@@ -18102,7 +18104,7 @@
       <c r="X640" s="2"/>
       <c r="Y640" s="2"/>
     </row>
-    <row r="641" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A641" s="2"/>
       <c r="B641" s="2"/>
       <c r="C641" s="2"/>
@@ -18129,7 +18131,7 @@
       <c r="X641" s="2"/>
       <c r="Y641" s="2"/>
     </row>
-    <row r="642" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="642" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A642" s="2"/>
       <c r="B642" s="2"/>
       <c r="C642" s="2"/>
@@ -18156,7 +18158,7 @@
       <c r="X642" s="2"/>
       <c r="Y642" s="2"/>
     </row>
-    <row r="643" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A643" s="2"/>
       <c r="B643" s="2"/>
       <c r="C643" s="2"/>
@@ -18183,7 +18185,7 @@
       <c r="X643" s="2"/>
       <c r="Y643" s="2"/>
     </row>
-    <row r="644" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A644" s="2"/>
       <c r="B644" s="2"/>
       <c r="C644" s="2"/>
@@ -18210,7 +18212,7 @@
       <c r="X644" s="2"/>
       <c r="Y644" s="2"/>
     </row>
-    <row r="645" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A645" s="2"/>
       <c r="B645" s="2"/>
       <c r="C645" s="2"/>
@@ -18237,7 +18239,7 @@
       <c r="X645" s="2"/>
       <c r="Y645" s="2"/>
     </row>
-    <row r="646" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A646" s="2"/>
       <c r="B646" s="2"/>
       <c r="C646" s="2"/>
@@ -18264,7 +18266,7 @@
       <c r="X646" s="2"/>
       <c r="Y646" s="2"/>
     </row>
-    <row r="647" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A647" s="2"/>
       <c r="B647" s="2"/>
       <c r="C647" s="2"/>
@@ -18291,7 +18293,7 @@
       <c r="X647" s="2"/>
       <c r="Y647" s="2"/>
     </row>
-    <row r="648" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A648" s="2"/>
       <c r="B648" s="2"/>
       <c r="C648" s="2"/>
@@ -18318,7 +18320,7 @@
       <c r="X648" s="2"/>
       <c r="Y648" s="2"/>
     </row>
-    <row r="649" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="649" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A649" s="2"/>
       <c r="B649" s="2"/>
       <c r="C649" s="2"/>
@@ -18345,7 +18347,7 @@
       <c r="X649" s="2"/>
       <c r="Y649" s="2"/>
     </row>
-    <row r="650" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="650" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A650" s="2"/>
       <c r="B650" s="2"/>
       <c r="C650" s="2"/>
@@ -18372,7 +18374,7 @@
       <c r="X650" s="2"/>
       <c r="Y650" s="2"/>
     </row>
-    <row r="651" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A651" s="2"/>
       <c r="B651" s="2"/>
       <c r="C651" s="2"/>
@@ -18399,7 +18401,7 @@
       <c r="X651" s="2"/>
       <c r="Y651" s="2"/>
     </row>
-    <row r="652" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A652" s="2"/>
       <c r="B652" s="2"/>
       <c r="C652" s="2"/>
@@ -18426,7 +18428,7 @@
       <c r="X652" s="2"/>
       <c r="Y652" s="2"/>
     </row>
-    <row r="653" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="653" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A653" s="2"/>
       <c r="B653" s="2"/>
       <c r="C653" s="2"/>
@@ -18453,7 +18455,7 @@
       <c r="X653" s="2"/>
       <c r="Y653" s="2"/>
     </row>
-    <row r="654" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="654" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A654" s="2"/>
       <c r="B654" s="2"/>
       <c r="C654" s="2"/>
@@ -18480,7 +18482,7 @@
       <c r="X654" s="2"/>
       <c r="Y654" s="2"/>
     </row>
-    <row r="655" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="655" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A655" s="2"/>
       <c r="B655" s="2"/>
       <c r="C655" s="2"/>
@@ -18507,7 +18509,7 @@
       <c r="X655" s="2"/>
       <c r="Y655" s="2"/>
     </row>
-    <row r="656" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="656" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A656" s="2"/>
       <c r="B656" s="2"/>
       <c r="C656" s="2"/>
@@ -18534,7 +18536,7 @@
       <c r="X656" s="2"/>
       <c r="Y656" s="2"/>
     </row>
-    <row r="657" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="657" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A657" s="2"/>
       <c r="B657" s="2"/>
       <c r="C657" s="2"/>
@@ -18561,7 +18563,7 @@
       <c r="X657" s="2"/>
       <c r="Y657" s="2"/>
     </row>
-    <row r="658" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="658" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A658" s="2"/>
       <c r="B658" s="2"/>
       <c r="C658" s="2"/>
@@ -18588,7 +18590,7 @@
       <c r="X658" s="2"/>
       <c r="Y658" s="2"/>
     </row>
-    <row r="659" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="659" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A659" s="2"/>
       <c r="B659" s="2"/>
       <c r="C659" s="2"/>
@@ -18615,7 +18617,7 @@
       <c r="X659" s="2"/>
       <c r="Y659" s="2"/>
     </row>
-    <row r="660" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="660" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A660" s="2"/>
       <c r="B660" s="2"/>
       <c r="C660" s="2"/>
@@ -18642,7 +18644,7 @@
       <c r="X660" s="2"/>
       <c r="Y660" s="2"/>
     </row>
-    <row r="661" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="661" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A661" s="2"/>
       <c r="B661" s="2"/>
       <c r="C661" s="2"/>
@@ -18669,7 +18671,7 @@
       <c r="X661" s="2"/>
       <c r="Y661" s="2"/>
     </row>
-    <row r="662" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="662" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A662" s="2"/>
       <c r="B662" s="2"/>
       <c r="C662" s="2"/>
@@ -18696,7 +18698,7 @@
       <c r="X662" s="2"/>
       <c r="Y662" s="2"/>
     </row>
-    <row r="663" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="663" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A663" s="2"/>
       <c r="B663" s="2"/>
       <c r="C663" s="2"/>
@@ -18723,7 +18725,7 @@
       <c r="X663" s="2"/>
       <c r="Y663" s="2"/>
     </row>
-    <row r="664" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="664" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A664" s="2"/>
       <c r="B664" s="2"/>
       <c r="C664" s="2"/>
@@ -18750,7 +18752,7 @@
       <c r="X664" s="2"/>
       <c r="Y664" s="2"/>
     </row>
-    <row r="665" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="665" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A665" s="2"/>
       <c r="B665" s="2"/>
       <c r="C665" s="2"/>
@@ -18777,7 +18779,7 @@
       <c r="X665" s="2"/>
       <c r="Y665" s="2"/>
     </row>
-    <row r="666" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="666" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A666" s="2"/>
       <c r="B666" s="2"/>
       <c r="C666" s="2"/>
@@ -18804,7 +18806,7 @@
       <c r="X666" s="2"/>
       <c r="Y666" s="2"/>
     </row>
-    <row r="667" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="667" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A667" s="2"/>
       <c r="B667" s="2"/>
       <c r="C667" s="2"/>
@@ -18831,7 +18833,7 @@
       <c r="X667" s="2"/>
       <c r="Y667" s="2"/>
     </row>
-    <row r="668" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="668" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A668" s="2"/>
       <c r="B668" s="2"/>
       <c r="C668" s="2"/>
@@ -18858,7 +18860,7 @@
       <c r="X668" s="2"/>
       <c r="Y668" s="2"/>
     </row>
-    <row r="669" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="669" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A669" s="2"/>
       <c r="B669" s="2"/>
       <c r="C669" s="2"/>
@@ -18885,7 +18887,7 @@
       <c r="X669" s="2"/>
       <c r="Y669" s="2"/>
     </row>
-    <row r="670" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="670" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A670" s="2"/>
       <c r="B670" s="2"/>
       <c r="C670" s="2"/>
@@ -18912,7 +18914,7 @@
       <c r="X670" s="2"/>
       <c r="Y670" s="2"/>
     </row>
-    <row r="671" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="671" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A671" s="2"/>
       <c r="B671" s="2"/>
       <c r="C671" s="2"/>
@@ -18939,7 +18941,7 @@
       <c r="X671" s="2"/>
       <c r="Y671" s="2"/>
     </row>
-    <row r="672" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="672" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A672" s="2"/>
       <c r="B672" s="2"/>
       <c r="C672" s="2"/>
@@ -18966,7 +18968,7 @@
       <c r="X672" s="2"/>
       <c r="Y672" s="2"/>
     </row>
-    <row r="673" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="673" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A673" s="2"/>
       <c r="B673" s="2"/>
       <c r="C673" s="2"/>
@@ -18993,7 +18995,7 @@
       <c r="X673" s="2"/>
       <c r="Y673" s="2"/>
     </row>
-    <row r="674" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="674" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A674" s="2"/>
       <c r="B674" s="2"/>
       <c r="C674" s="2"/>
@@ -19020,7 +19022,7 @@
       <c r="X674" s="2"/>
       <c r="Y674" s="2"/>
     </row>
-    <row r="675" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="675" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A675" s="2"/>
       <c r="B675" s="2"/>
       <c r="C675" s="2"/>
@@ -19047,7 +19049,7 @@
       <c r="X675" s="2"/>
       <c r="Y675" s="2"/>
     </row>
-    <row r="676" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="676" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A676" s="2"/>
       <c r="B676" s="2"/>
       <c r="C676" s="2"/>
@@ -19074,7 +19076,7 @@
       <c r="X676" s="2"/>
       <c r="Y676" s="2"/>
     </row>
-    <row r="677" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="677" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A677" s="2"/>
       <c r="B677" s="2"/>
       <c r="C677" s="2"/>
@@ -19101,7 +19103,7 @@
       <c r="X677" s="2"/>
       <c r="Y677" s="2"/>
     </row>
-    <row r="678" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="678" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A678" s="2"/>
       <c r="B678" s="2"/>
       <c r="C678" s="2"/>
@@ -19128,7 +19130,7 @@
       <c r="X678" s="2"/>
       <c r="Y678" s="2"/>
     </row>
-    <row r="679" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="679" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A679" s="2"/>
       <c r="B679" s="2"/>
       <c r="C679" s="2"/>
@@ -19155,7 +19157,7 @@
       <c r="X679" s="2"/>
       <c r="Y679" s="2"/>
     </row>
-    <row r="680" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="680" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A680" s="2"/>
       <c r="B680" s="2"/>
       <c r="C680" s="2"/>
@@ -19182,7 +19184,7 @@
       <c r="X680" s="2"/>
       <c r="Y680" s="2"/>
     </row>
-    <row r="681" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="681" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A681" s="2"/>
       <c r="B681" s="2"/>
       <c r="C681" s="2"/>
@@ -19209,7 +19211,7 @@
       <c r="X681" s="2"/>
       <c r="Y681" s="2"/>
     </row>
-    <row r="682" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="682" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A682" s="2"/>
       <c r="B682" s="2"/>
       <c r="C682" s="2"/>
@@ -19236,7 +19238,7 @@
       <c r="X682" s="2"/>
       <c r="Y682" s="2"/>
     </row>
-    <row r="683" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="683" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A683" s="2"/>
       <c r="B683" s="2"/>
       <c r="C683" s="2"/>
@@ -19263,7 +19265,7 @@
       <c r="X683" s="2"/>
       <c r="Y683" s="2"/>
     </row>
-    <row r="684" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="684" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A684" s="2"/>
       <c r="B684" s="2"/>
       <c r="C684" s="2"/>
@@ -19290,7 +19292,7 @@
       <c r="X684" s="2"/>
       <c r="Y684" s="2"/>
     </row>
-    <row r="685" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="685" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A685" s="2"/>
       <c r="B685" s="2"/>
       <c r="C685" s="2"/>
@@ -19317,7 +19319,7 @@
       <c r="X685" s="2"/>
       <c r="Y685" s="2"/>
     </row>
-    <row r="686" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="686" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A686" s="2"/>
       <c r="B686" s="2"/>
       <c r="C686" s="2"/>
@@ -19344,7 +19346,7 @@
       <c r="X686" s="2"/>
       <c r="Y686" s="2"/>
     </row>
-    <row r="687" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="687" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A687" s="2"/>
       <c r="B687" s="2"/>
       <c r="C687" s="2"/>
@@ -19371,7 +19373,7 @@
       <c r="X687" s="2"/>
       <c r="Y687" s="2"/>
     </row>
-    <row r="688" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="688" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A688" s="2"/>
       <c r="B688" s="2"/>
       <c r="C688" s="2"/>
@@ -19398,7 +19400,7 @@
       <c r="X688" s="2"/>
       <c r="Y688" s="2"/>
     </row>
-    <row r="689" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="689" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A689" s="2"/>
       <c r="B689" s="2"/>
       <c r="C689" s="2"/>
@@ -19425,7 +19427,7 @@
       <c r="X689" s="2"/>
       <c r="Y689" s="2"/>
     </row>
-    <row r="690" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="690" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A690" s="2"/>
       <c r="B690" s="2"/>
       <c r="C690" s="2"/>
@@ -19452,7 +19454,7 @@
       <c r="X690" s="2"/>
       <c r="Y690" s="2"/>
     </row>
-    <row r="691" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="691" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A691" s="2"/>
       <c r="B691" s="2"/>
       <c r="C691" s="2"/>
@@ -19479,7 +19481,7 @@
       <c r="X691" s="2"/>
       <c r="Y691" s="2"/>
     </row>
-    <row r="692" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="692" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A692" s="2"/>
       <c r="B692" s="2"/>
       <c r="C692" s="2"/>
@@ -19506,7 +19508,7 @@
       <c r="X692" s="2"/>
       <c r="Y692" s="2"/>
     </row>
-    <row r="693" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="693" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A693" s="2"/>
       <c r="B693" s="2"/>
       <c r="C693" s="2"/>
@@ -19533,7 +19535,7 @@
       <c r="X693" s="2"/>
       <c r="Y693" s="2"/>
     </row>
-    <row r="694" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="694" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A694" s="2"/>
       <c r="B694" s="2"/>
       <c r="C694" s="2"/>
@@ -19560,7 +19562,7 @@
       <c r="X694" s="2"/>
       <c r="Y694" s="2"/>
     </row>
-    <row r="695" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="695" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A695" s="2"/>
       <c r="B695" s="2"/>
       <c r="C695" s="2"/>
@@ -19587,7 +19589,7 @@
       <c r="X695" s="2"/>
       <c r="Y695" s="2"/>
     </row>
-    <row r="696" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="696" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A696" s="2"/>
       <c r="B696" s="2"/>
       <c r="C696" s="2"/>
@@ -19614,7 +19616,7 @@
       <c r="X696" s="2"/>
       <c r="Y696" s="2"/>
     </row>
-    <row r="697" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="697" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A697" s="2"/>
       <c r="B697" s="2"/>
       <c r="C697" s="2"/>
@@ -19641,7 +19643,7 @@
       <c r="X697" s="2"/>
       <c r="Y697" s="2"/>
     </row>
-    <row r="698" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="698" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A698" s="2"/>
       <c r="B698" s="2"/>
       <c r="C698" s="2"/>
@@ -19668,7 +19670,7 @@
       <c r="X698" s="2"/>
       <c r="Y698" s="2"/>
     </row>
-    <row r="699" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="699" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A699" s="2"/>
       <c r="B699" s="2"/>
       <c r="C699" s="2"/>
@@ -19695,7 +19697,7 @@
       <c r="X699" s="2"/>
       <c r="Y699" s="2"/>
     </row>
-    <row r="700" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="700" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A700" s="2"/>
       <c r="B700" s="2"/>
       <c r="C700" s="2"/>
@@ -19722,7 +19724,7 @@
       <c r="X700" s="2"/>
       <c r="Y700" s="2"/>
     </row>
-    <row r="701" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="701" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A701" s="2"/>
       <c r="B701" s="2"/>
       <c r="C701" s="2"/>
@@ -19749,7 +19751,7 @@
       <c r="X701" s="2"/>
       <c r="Y701" s="2"/>
     </row>
-    <row r="702" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="702" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A702" s="2"/>
       <c r="B702" s="2"/>
       <c r="C702" s="2"/>
@@ -19776,7 +19778,7 @@
       <c r="X702" s="2"/>
       <c r="Y702" s="2"/>
     </row>
-    <row r="703" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="703" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A703" s="2"/>
       <c r="B703" s="2"/>
       <c r="C703" s="2"/>
@@ -19803,7 +19805,7 @@
       <c r="X703" s="2"/>
       <c r="Y703" s="2"/>
     </row>
-    <row r="704" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="704" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A704" s="2"/>
       <c r="B704" s="2"/>
       <c r="C704" s="2"/>
@@ -19830,7 +19832,7 @@
       <c r="X704" s="2"/>
       <c r="Y704" s="2"/>
     </row>
-    <row r="705" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="705" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A705" s="2"/>
       <c r="B705" s="2"/>
       <c r="C705" s="2"/>
@@ -19857,7 +19859,7 @@
       <c r="X705" s="2"/>
       <c r="Y705" s="2"/>
     </row>
-    <row r="706" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="706" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A706" s="2"/>
       <c r="B706" s="2"/>
       <c r="C706" s="2"/>
@@ -19884,7 +19886,7 @@
       <c r="X706" s="2"/>
       <c r="Y706" s="2"/>
     </row>
-    <row r="707" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="707" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A707" s="2"/>
       <c r="B707" s="2"/>
       <c r="C707" s="2"/>
@@ -19911,7 +19913,7 @@
       <c r="X707" s="2"/>
       <c r="Y707" s="2"/>
     </row>
-    <row r="708" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="708" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A708" s="2"/>
       <c r="B708" s="2"/>
       <c r="C708" s="2"/>
@@ -19938,7 +19940,7 @@
       <c r="X708" s="2"/>
       <c r="Y708" s="2"/>
     </row>
-    <row r="709" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="709" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A709" s="2"/>
       <c r="B709" s="2"/>
       <c r="C709" s="2"/>
@@ -19965,7 +19967,7 @@
       <c r="X709" s="2"/>
       <c r="Y709" s="2"/>
     </row>
-    <row r="710" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="710" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A710" s="2"/>
       <c r="B710" s="2"/>
       <c r="C710" s="2"/>
@@ -19992,7 +19994,7 @@
       <c r="X710" s="2"/>
       <c r="Y710" s="2"/>
     </row>
-    <row r="711" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="711" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A711" s="2"/>
       <c r="B711" s="2"/>
       <c r="C711" s="2"/>
@@ -20019,7 +20021,7 @@
       <c r="X711" s="2"/>
       <c r="Y711" s="2"/>
     </row>
-    <row r="712" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="712" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A712" s="2"/>
       <c r="B712" s="2"/>
       <c r="C712" s="2"/>
@@ -20046,7 +20048,7 @@
       <c r="X712" s="2"/>
       <c r="Y712" s="2"/>
     </row>
-    <row r="713" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="713" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A713" s="2"/>
       <c r="B713" s="2"/>
       <c r="C713" s="2"/>
@@ -20073,7 +20075,7 @@
       <c r="X713" s="2"/>
       <c r="Y713" s="2"/>
     </row>
-    <row r="714" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="714" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A714" s="2"/>
       <c r="B714" s="2"/>
       <c r="C714" s="2"/>
@@ -20100,7 +20102,7 @@
       <c r="X714" s="2"/>
       <c r="Y714" s="2"/>
     </row>
-    <row r="715" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="715" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A715" s="2"/>
       <c r="B715" s="2"/>
       <c r="C715" s="2"/>
@@ -20127,7 +20129,7 @@
       <c r="X715" s="2"/>
       <c r="Y715" s="2"/>
     </row>
-    <row r="716" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="716" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A716" s="2"/>
       <c r="B716" s="2"/>
       <c r="C716" s="2"/>
@@ -20154,7 +20156,7 @@
       <c r="X716" s="2"/>
       <c r="Y716" s="2"/>
     </row>
-    <row r="717" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="717" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A717" s="2"/>
       <c r="B717" s="2"/>
       <c r="C717" s="2"/>
@@ -20181,7 +20183,7 @@
       <c r="X717" s="2"/>
       <c r="Y717" s="2"/>
     </row>
-    <row r="718" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="718" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A718" s="2"/>
       <c r="B718" s="2"/>
       <c r="C718" s="2"/>
@@ -20208,7 +20210,7 @@
       <c r="X718" s="2"/>
       <c r="Y718" s="2"/>
     </row>
-    <row r="719" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="719" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A719" s="2"/>
       <c r="B719" s="2"/>
       <c r="C719" s="2"/>
@@ -20235,7 +20237,7 @@
       <c r="X719" s="2"/>
       <c r="Y719" s="2"/>
     </row>
-    <row r="720" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="720" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A720" s="2"/>
       <c r="B720" s="2"/>
       <c r="C720" s="2"/>
@@ -20262,7 +20264,7 @@
       <c r="X720" s="2"/>
       <c r="Y720" s="2"/>
     </row>
-    <row r="721" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="721" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A721" s="2"/>
       <c r="B721" s="2"/>
       <c r="C721" s="2"/>
@@ -20289,7 +20291,7 @@
       <c r="X721" s="2"/>
       <c r="Y721" s="2"/>
     </row>
-    <row r="722" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="722" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A722" s="2"/>
       <c r="B722" s="2"/>
       <c r="C722" s="2"/>
@@ -20316,7 +20318,7 @@
       <c r="X722" s="2"/>
       <c r="Y722" s="2"/>
     </row>
-    <row r="723" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="723" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A723" s="2"/>
       <c r="B723" s="2"/>
       <c r="C723" s="2"/>
@@ -20343,7 +20345,7 @@
       <c r="X723" s="2"/>
       <c r="Y723" s="2"/>
     </row>
-    <row r="724" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="724" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A724" s="2"/>
       <c r="B724" s="2"/>
       <c r="C724" s="2"/>
@@ -20370,7 +20372,7 @@
       <c r="X724" s="2"/>
       <c r="Y724" s="2"/>
     </row>
-    <row r="725" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="725" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A725" s="2"/>
       <c r="B725" s="2"/>
       <c r="C725" s="2"/>
@@ -20397,7 +20399,7 @@
       <c r="X725" s="2"/>
       <c r="Y725" s="2"/>
     </row>
-    <row r="726" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="726" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A726" s="2"/>
       <c r="B726" s="2"/>
       <c r="C726" s="2"/>
@@ -20424,7 +20426,7 @@
       <c r="X726" s="2"/>
       <c r="Y726" s="2"/>
     </row>
-    <row r="727" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="727" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A727" s="2"/>
       <c r="B727" s="2"/>
       <c r="C727" s="2"/>
@@ -20451,7 +20453,7 @@
       <c r="X727" s="2"/>
       <c r="Y727" s="2"/>
     </row>
-    <row r="728" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="728" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A728" s="2"/>
       <c r="B728" s="2"/>
       <c r="C728" s="2"/>
@@ -20478,7 +20480,7 @@
       <c r="X728" s="2"/>
       <c r="Y728" s="2"/>
     </row>
-    <row r="729" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="729" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A729" s="2"/>
       <c r="B729" s="2"/>
       <c r="C729" s="2"/>
@@ -20505,7 +20507,7 @@
       <c r="X729" s="2"/>
       <c r="Y729" s="2"/>
     </row>
-    <row r="730" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="730" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A730" s="2"/>
       <c r="B730" s="2"/>
       <c r="C730" s="2"/>
@@ -20532,7 +20534,7 @@
       <c r="X730" s="2"/>
       <c r="Y730" s="2"/>
     </row>
-    <row r="731" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="731" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A731" s="2"/>
       <c r="B731" s="2"/>
       <c r="C731" s="2"/>
@@ -20559,7 +20561,7 @@
       <c r="X731" s="2"/>
       <c r="Y731" s="2"/>
     </row>
-    <row r="732" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="732" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A732" s="2"/>
       <c r="B732" s="2"/>
       <c r="C732" s="2"/>
@@ -20586,7 +20588,7 @@
       <c r="X732" s="2"/>
       <c r="Y732" s="2"/>
     </row>
-    <row r="733" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="733" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A733" s="2"/>
       <c r="B733" s="2"/>
       <c r="C733" s="2"/>
@@ -20613,7 +20615,7 @@
       <c r="X733" s="2"/>
       <c r="Y733" s="2"/>
     </row>
-    <row r="734" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="734" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A734" s="2"/>
       <c r="B734" s="2"/>
       <c r="C734" s="2"/>
@@ -20640,7 +20642,7 @@
       <c r="X734" s="2"/>
       <c r="Y734" s="2"/>
     </row>
-    <row r="735" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="735" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A735" s="2"/>
       <c r="B735" s="2"/>
       <c r="C735" s="2"/>
@@ -20667,7 +20669,7 @@
       <c r="X735" s="2"/>
       <c r="Y735" s="2"/>
     </row>
-    <row r="736" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="736" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A736" s="2"/>
       <c r="B736" s="2"/>
       <c r="C736" s="2"/>
@@ -20694,7 +20696,7 @@
       <c r="X736" s="2"/>
       <c r="Y736" s="2"/>
     </row>
-    <row r="737" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="737" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A737" s="2"/>
       <c r="B737" s="2"/>
       <c r="C737" s="2"/>
@@ -20721,7 +20723,7 @@
       <c r="X737" s="2"/>
       <c r="Y737" s="2"/>
     </row>
-    <row r="738" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="738" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A738" s="2"/>
       <c r="B738" s="2"/>
       <c r="C738" s="2"/>
@@ -20748,7 +20750,7 @@
       <c r="X738" s="2"/>
       <c r="Y738" s="2"/>
     </row>
-    <row r="739" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="739" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A739" s="2"/>
       <c r="B739" s="2"/>
       <c r="C739" s="2"/>
@@ -20775,7 +20777,7 @@
       <c r="X739" s="2"/>
       <c r="Y739" s="2"/>
     </row>
-    <row r="740" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="740" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A740" s="2"/>
       <c r="B740" s="2"/>
       <c r="C740" s="2"/>
@@ -20802,7 +20804,7 @@
       <c r="X740" s="2"/>
       <c r="Y740" s="2"/>
     </row>
-    <row r="741" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="741" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A741" s="2"/>
       <c r="B741" s="2"/>
       <c r="C741" s="2"/>
@@ -20829,7 +20831,7 @@
       <c r="X741" s="2"/>
       <c r="Y741" s="2"/>
     </row>
-    <row r="742" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="742" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A742" s="2"/>
       <c r="B742" s="2"/>
       <c r="C742" s="2"/>
@@ -20856,7 +20858,7 @@
       <c r="X742" s="2"/>
       <c r="Y742" s="2"/>
     </row>
-    <row r="743" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="743" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A743" s="2"/>
       <c r="B743" s="2"/>
       <c r="C743" s="2"/>
@@ -20883,7 +20885,7 @@
       <c r="X743" s="2"/>
       <c r="Y743" s="2"/>
     </row>
-    <row r="744" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="744" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A744" s="2"/>
       <c r="B744" s="2"/>
       <c r="C744" s="2"/>
@@ -20910,7 +20912,7 @@
       <c r="X744" s="2"/>
       <c r="Y744" s="2"/>
     </row>
-    <row r="745" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="745" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A745" s="2"/>
       <c r="B745" s="2"/>
       <c r="C745" s="2"/>
@@ -20937,7 +20939,7 @@
       <c r="X745" s="2"/>
       <c r="Y745" s="2"/>
     </row>
-    <row r="746" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="746" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A746" s="2"/>
       <c r="B746" s="2"/>
       <c r="C746" s="2"/>
@@ -20964,7 +20966,7 @@
       <c r="X746" s="2"/>
       <c r="Y746" s="2"/>
     </row>
-    <row r="747" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="747" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A747" s="2"/>
       <c r="B747" s="2"/>
       <c r="C747" s="2"/>
@@ -20991,7 +20993,7 @@
       <c r="X747" s="2"/>
       <c r="Y747" s="2"/>
     </row>
-    <row r="748" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="748" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A748" s="2"/>
       <c r="B748" s="2"/>
       <c r="C748" s="2"/>
@@ -21018,7 +21020,7 @@
       <c r="X748" s="2"/>
       <c r="Y748" s="2"/>
     </row>
-    <row r="749" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="749" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A749" s="2"/>
       <c r="B749" s="2"/>
       <c r="C749" s="2"/>
@@ -21045,7 +21047,7 @@
       <c r="X749" s="2"/>
       <c r="Y749" s="2"/>
     </row>
-    <row r="750" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="750" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A750" s="2"/>
       <c r="B750" s="2"/>
       <c r="C750" s="2"/>
@@ -21072,7 +21074,7 @@
       <c r="X750" s="2"/>
       <c r="Y750" s="2"/>
     </row>
-    <row r="751" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="751" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A751" s="2"/>
       <c r="B751" s="2"/>
       <c r="C751" s="2"/>
@@ -21099,7 +21101,7 @@
       <c r="X751" s="2"/>
       <c r="Y751" s="2"/>
     </row>
-    <row r="752" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="752" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A752" s="2"/>
       <c r="B752" s="2"/>
       <c r="C752" s="2"/>
@@ -21126,7 +21128,7 @@
       <c r="X752" s="2"/>
       <c r="Y752" s="2"/>
     </row>
-    <row r="753" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="753" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A753" s="2"/>
       <c r="B753" s="2"/>
       <c r="C753" s="2"/>
@@ -21153,7 +21155,7 @@
       <c r="X753" s="2"/>
       <c r="Y753" s="2"/>
     </row>
-    <row r="754" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="754" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A754" s="2"/>
       <c r="B754" s="2"/>
       <c r="C754" s="2"/>
@@ -21180,7 +21182,7 @@
       <c r="X754" s="2"/>
       <c r="Y754" s="2"/>
     </row>
-    <row r="755" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="755" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A755" s="2"/>
       <c r="B755" s="2"/>
       <c r="C755" s="2"/>
@@ -21207,7 +21209,7 @@
       <c r="X755" s="2"/>
       <c r="Y755" s="2"/>
     </row>
-    <row r="756" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="756" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A756" s="2"/>
       <c r="B756" s="2"/>
       <c r="C756" s="2"/>
@@ -21234,7 +21236,7 @@
       <c r="X756" s="2"/>
       <c r="Y756" s="2"/>
     </row>
-    <row r="757" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="757" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A757" s="2"/>
       <c r="B757" s="2"/>
       <c r="C757" s="2"/>
@@ -21261,7 +21263,7 @@
       <c r="X757" s="2"/>
       <c r="Y757" s="2"/>
     </row>
-    <row r="758" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="758" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A758" s="2"/>
       <c r="B758" s="2"/>
       <c r="C758" s="2"/>
@@ -21288,7 +21290,7 @@
       <c r="X758" s="2"/>
       <c r="Y758" s="2"/>
     </row>
-    <row r="759" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="759" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A759" s="2"/>
       <c r="B759" s="2"/>
       <c r="C759" s="2"/>
@@ -21315,7 +21317,7 @@
       <c r="X759" s="2"/>
       <c r="Y759" s="2"/>
     </row>
-    <row r="760" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="760" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A760" s="2"/>
       <c r="B760" s="2"/>
       <c r="C760" s="2"/>
@@ -21342,7 +21344,7 @@
       <c r="X760" s="2"/>
       <c r="Y760" s="2"/>
     </row>
-    <row r="761" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="761" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A761" s="2"/>
       <c r="B761" s="2"/>
       <c r="C761" s="2"/>
@@ -21369,7 +21371,7 @@
       <c r="X761" s="2"/>
       <c r="Y761" s="2"/>
     </row>
-    <row r="762" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="762" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A762" s="2"/>
       <c r="B762" s="2"/>
       <c r="C762" s="2"/>
@@ -21396,7 +21398,7 @@
       <c r="X762" s="2"/>
       <c r="Y762" s="2"/>
     </row>
-    <row r="763" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="763" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A763" s="2"/>
       <c r="B763" s="2"/>
       <c r="C763" s="2"/>
@@ -21423,7 +21425,7 @@
       <c r="X763" s="2"/>
       <c r="Y763" s="2"/>
     </row>
-    <row r="764" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="764" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A764" s="2"/>
       <c r="B764" s="2"/>
       <c r="C764" s="2"/>
@@ -21450,7 +21452,7 @@
       <c r="X764" s="2"/>
       <c r="Y764" s="2"/>
     </row>
-    <row r="765" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="765" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A765" s="2"/>
       <c r="B765" s="2"/>
       <c r="C765" s="2"/>
@@ -21477,7 +21479,7 @@
       <c r="X765" s="2"/>
       <c r="Y765" s="2"/>
     </row>
-    <row r="766" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="766" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A766" s="2"/>
       <c r="B766" s="2"/>
       <c r="C766" s="2"/>
@@ -21504,7 +21506,7 @@
       <c r="X766" s="2"/>
       <c r="Y766" s="2"/>
     </row>
-    <row r="767" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="767" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A767" s="2"/>
       <c r="B767" s="2"/>
       <c r="C767" s="2"/>
@@ -21531,7 +21533,7 @@
       <c r="X767" s="2"/>
       <c r="Y767" s="2"/>
     </row>
-    <row r="768" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="768" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A768" s="2"/>
       <c r="B768" s="2"/>
       <c r="C768" s="2"/>
@@ -21558,7 +21560,7 @@
       <c r="X768" s="2"/>
       <c r="Y768" s="2"/>
     </row>
-    <row r="769" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="769" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A769" s="2"/>
       <c r="B769" s="2"/>
       <c r="C769" s="2"/>
@@ -21585,7 +21587,7 @@
       <c r="X769" s="2"/>
       <c r="Y769" s="2"/>
     </row>
-    <row r="770" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="770" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A770" s="2"/>
       <c r="B770" s="2"/>
       <c r="C770" s="2"/>
@@ -21612,7 +21614,7 @@
       <c r="X770" s="2"/>
       <c r="Y770" s="2"/>
     </row>
-    <row r="771" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="771" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A771" s="2"/>
       <c r="B771" s="2"/>
       <c r="C771" s="2"/>
@@ -21639,7 +21641,7 @@
       <c r="X771" s="2"/>
       <c r="Y771" s="2"/>
     </row>
-    <row r="772" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="772" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A772" s="2"/>
       <c r="B772" s="2"/>
       <c r="C772" s="2"/>
@@ -21666,7 +21668,7 @@
       <c r="X772" s="2"/>
       <c r="Y772" s="2"/>
     </row>
-    <row r="773" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="773" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A773" s="2"/>
       <c r="B773" s="2"/>
       <c r="C773" s="2"/>
@@ -21693,7 +21695,7 @@
       <c r="X773" s="2"/>
       <c r="Y773" s="2"/>
     </row>
-    <row r="774" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="774" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A774" s="2"/>
       <c r="B774" s="2"/>
       <c r="C774" s="2"/>
@@ -21720,7 +21722,7 @@
       <c r="X774" s="2"/>
       <c r="Y774" s="2"/>
     </row>
-    <row r="775" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="775" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A775" s="2"/>
       <c r="B775" s="2"/>
       <c r="C775" s="2"/>
@@ -21747,7 +21749,7 @@
       <c r="X775" s="2"/>
       <c r="Y775" s="2"/>
     </row>
-    <row r="776" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="776" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A776" s="2"/>
       <c r="B776" s="2"/>
       <c r="C776" s="2"/>
@@ -21774,7 +21776,7 @@
       <c r="X776" s="2"/>
       <c r="Y776" s="2"/>
     </row>
-    <row r="777" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="777" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A777" s="2"/>
       <c r="B777" s="2"/>
       <c r="C777" s="2"/>
@@ -21801,7 +21803,7 @@
       <c r="X777" s="2"/>
       <c r="Y777" s="2"/>
     </row>
-    <row r="778" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="778" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A778" s="2"/>
       <c r="B778" s="2"/>
       <c r="C778" s="2"/>
@@ -21828,7 +21830,7 @@
       <c r="X778" s="2"/>
       <c r="Y778" s="2"/>
     </row>
-    <row r="779" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="779" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A779" s="2"/>
       <c r="B779" s="2"/>
       <c r="C779" s="2"/>
@@ -21855,7 +21857,7 @@
       <c r="X779" s="2"/>
       <c r="Y779" s="2"/>
     </row>
-    <row r="780" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="780" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A780" s="2"/>
       <c r="B780" s="2"/>
       <c r="C780" s="2"/>
@@ -21882,7 +21884,7 @@
       <c r="X780" s="2"/>
       <c r="Y780" s="2"/>
     </row>
-    <row r="781" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="781" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A781" s="2"/>
       <c r="B781" s="2"/>
       <c r="C781" s="2"/>
@@ -21909,7 +21911,7 @@
       <c r="X781" s="2"/>
       <c r="Y781" s="2"/>
     </row>
-    <row r="782" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="782" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A782" s="2"/>
       <c r="B782" s="2"/>
       <c r="C782" s="2"/>
@@ -21936,7 +21938,7 @@
       <c r="X782" s="2"/>
       <c r="Y782" s="2"/>
     </row>
-    <row r="783" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="783" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A783" s="2"/>
       <c r="B783" s="2"/>
       <c r="C783" s="2"/>
@@ -21963,7 +21965,7 @@
       <c r="X783" s="2"/>
       <c r="Y783" s="2"/>
     </row>
-    <row r="784" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="784" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A784" s="2"/>
       <c r="B784" s="2"/>
       <c r="C784" s="2"/>
@@ -21990,7 +21992,7 @@
       <c r="X784" s="2"/>
       <c r="Y784" s="2"/>
     </row>
-    <row r="785" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="785" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A785" s="2"/>
       <c r="B785" s="2"/>
       <c r="C785" s="2"/>
@@ -22017,7 +22019,7 @@
       <c r="X785" s="2"/>
       <c r="Y785" s="2"/>
     </row>
-    <row r="786" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="786" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A786" s="2"/>
       <c r="B786" s="2"/>
       <c r="C786" s="2"/>
@@ -22044,7 +22046,7 @@
       <c r="X786" s="2"/>
       <c r="Y786" s="2"/>
     </row>
-    <row r="787" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="787" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A787" s="2"/>
       <c r="B787" s="2"/>
       <c r="C787" s="2"/>
@@ -22071,7 +22073,7 @@
       <c r="X787" s="2"/>
       <c r="Y787" s="2"/>
     </row>
-    <row r="788" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="788" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A788" s="2"/>
       <c r="B788" s="2"/>
       <c r="C788" s="2"/>
@@ -22098,7 +22100,7 @@
       <c r="X788" s="2"/>
       <c r="Y788" s="2"/>
     </row>
-    <row r="789" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="789" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A789" s="2"/>
       <c r="B789" s="2"/>
       <c r="C789" s="2"/>
@@ -22125,7 +22127,7 @@
       <c r="X789" s="2"/>
       <c r="Y789" s="2"/>
     </row>
-    <row r="790" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="790" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A790" s="2"/>
       <c r="B790" s="2"/>
       <c r="C790" s="2"/>
@@ -22152,7 +22154,7 @@
       <c r="X790" s="2"/>
       <c r="Y790" s="2"/>
     </row>
-    <row r="791" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="791" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A791" s="2"/>
       <c r="B791" s="2"/>
       <c r="C791" s="2"/>
@@ -22179,7 +22181,7 @@
       <c r="X791" s="2"/>
       <c r="Y791" s="2"/>
     </row>
-    <row r="792" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="792" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A792" s="2"/>
       <c r="B792" s="2"/>
       <c r="C792" s="2"/>
@@ -22206,7 +22208,7 @@
       <c r="X792" s="2"/>
       <c r="Y792" s="2"/>
     </row>
-    <row r="793" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="793" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A793" s="2"/>
       <c r="B793" s="2"/>
       <c r="C793" s="2"/>
@@ -22233,7 +22235,7 @@
       <c r="X793" s="2"/>
       <c r="Y793" s="2"/>
     </row>
-    <row r="794" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="794" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A794" s="2"/>
       <c r="B794" s="2"/>
       <c r="C794" s="2"/>
@@ -22260,7 +22262,7 @@
       <c r="X794" s="2"/>
       <c r="Y794" s="2"/>
     </row>
-    <row r="795" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="795" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A795" s="2"/>
       <c r="B795" s="2"/>
       <c r="C795" s="2"/>
@@ -22287,7 +22289,7 @@
       <c r="X795" s="2"/>
       <c r="Y795" s="2"/>
     </row>
-    <row r="796" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="796" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A796" s="2"/>
       <c r="B796" s="2"/>
       <c r="C796" s="2"/>
@@ -22314,7 +22316,7 @@
       <c r="X796" s="2"/>
       <c r="Y796" s="2"/>
     </row>
-    <row r="797" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="797" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A797" s="2"/>
       <c r="B797" s="2"/>
       <c r="C797" s="2"/>
@@ -22341,7 +22343,7 @@
       <c r="X797" s="2"/>
       <c r="Y797" s="2"/>
     </row>
-    <row r="798" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="798" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A798" s="2"/>
       <c r="B798" s="2"/>
       <c r="C798" s="2"/>
@@ -22368,7 +22370,7 @@
       <c r="X798" s="2"/>
       <c r="Y798" s="2"/>
     </row>
-    <row r="799" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="799" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A799" s="2"/>
       <c r="B799" s="2"/>
       <c r="C799" s="2"/>
@@ -22395,7 +22397,7 @@
       <c r="X799" s="2"/>
       <c r="Y799" s="2"/>
     </row>
-    <row r="800" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="800" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A800" s="2"/>
       <c r="B800" s="2"/>
       <c r="C800" s="2"/>
@@ -22422,7 +22424,7 @@
       <c r="X800" s="2"/>
       <c r="Y800" s="2"/>
     </row>
-    <row r="801" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="801" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A801" s="2"/>
       <c r="B801" s="2"/>
       <c r="C801" s="2"/>
@@ -22449,7 +22451,7 @@
       <c r="X801" s="2"/>
       <c r="Y801" s="2"/>
     </row>
-    <row r="802" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="802" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A802" s="2"/>
       <c r="B802" s="2"/>
       <c r="C802" s="2"/>
@@ -22476,7 +22478,7 @@
       <c r="X802" s="2"/>
       <c r="Y802" s="2"/>
     </row>
-    <row r="803" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="803" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A803" s="2"/>
       <c r="B803" s="2"/>
       <c r="C803" s="2"/>
@@ -22503,7 +22505,7 @@
       <c r="X803" s="2"/>
       <c r="Y803" s="2"/>
     </row>
-    <row r="804" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="804" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A804" s="2"/>
       <c r="B804" s="2"/>
       <c r="C804" s="2"/>
@@ -22530,7 +22532,7 @@
       <c r="X804" s="2"/>
       <c r="Y804" s="2"/>
     </row>
-    <row r="805" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="805" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A805" s="2"/>
       <c r="B805" s="2"/>
       <c r="C805" s="2"/>
@@ -22557,7 +22559,7 @@
       <c r="X805" s="2"/>
       <c r="Y805" s="2"/>
     </row>
-    <row r="806" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="806" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A806" s="2"/>
       <c r="B806" s="2"/>
       <c r="C806" s="2"/>
@@ -22584,7 +22586,7 @@
       <c r="X806" s="2"/>
       <c r="Y806" s="2"/>
     </row>
-    <row r="807" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="807" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A807" s="2"/>
       <c r="B807" s="2"/>
       <c r="C807" s="2"/>
@@ -22611,7 +22613,7 @@
       <c r="X807" s="2"/>
       <c r="Y807" s="2"/>
     </row>
-    <row r="808" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="808" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A808" s="2"/>
       <c r="B808" s="2"/>
       <c r="C808" s="2"/>
@@ -22638,7 +22640,7 @@
       <c r="X808" s="2"/>
       <c r="Y808" s="2"/>
     </row>
-    <row r="809" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="809" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A809" s="2"/>
       <c r="B809" s="2"/>
       <c r="C809" s="2"/>
@@ -22665,7 +22667,7 @@
       <c r="X809" s="2"/>
       <c r="Y809" s="2"/>
     </row>
-    <row r="810" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="810" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A810" s="2"/>
       <c r="B810" s="2"/>
       <c r="C810" s="2"/>
@@ -22692,7 +22694,7 @@
       <c r="X810" s="2"/>
       <c r="Y810" s="2"/>
     </row>
-    <row r="811" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="811" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A811" s="2"/>
       <c r="B811" s="2"/>
       <c r="C811" s="2"/>
@@ -22719,7 +22721,7 @@
       <c r="X811" s="2"/>
       <c r="Y811" s="2"/>
     </row>
-    <row r="812" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="812" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A812" s="2"/>
       <c r="B812" s="2"/>
       <c r="C812" s="2"/>
@@ -22746,7 +22748,7 @@
       <c r="X812" s="2"/>
       <c r="Y812" s="2"/>
     </row>
-    <row r="813" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="813" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A813" s="2"/>
       <c r="B813" s="2"/>
       <c r="C813" s="2"/>
@@ -22773,7 +22775,7 @@
       <c r="X813" s="2"/>
       <c r="Y813" s="2"/>
     </row>
-    <row r="814" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="814" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A814" s="2"/>
       <c r="B814" s="2"/>
       <c r="C814" s="2"/>
@@ -22800,7 +22802,7 @@
       <c r="X814" s="2"/>
       <c r="Y814" s="2"/>
     </row>
-    <row r="815" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="815" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A815" s="2"/>
       <c r="B815" s="2"/>
       <c r="C815" s="2"/>
@@ -22827,7 +22829,7 @@
       <c r="X815" s="2"/>
       <c r="Y815" s="2"/>
     </row>
-    <row r="816" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="816" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A816" s="2"/>
       <c r="B816" s="2"/>
       <c r="C816" s="2"/>
@@ -22854,7 +22856,7 @@
       <c r="X816" s="2"/>
       <c r="Y816" s="2"/>
     </row>
-    <row r="817" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="817" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A817" s="2"/>
       <c r="B817" s="2"/>
       <c r="C817" s="2"/>
@@ -22881,7 +22883,7 @@
       <c r="X817" s="2"/>
       <c r="Y817" s="2"/>
     </row>
-    <row r="818" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="818" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A818" s="2"/>
       <c r="B818" s="2"/>
       <c r="C818" s="2"/>
@@ -22908,7 +22910,7 @@
       <c r="X818" s="2"/>
       <c r="Y818" s="2"/>
     </row>
-    <row r="819" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="819" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A819" s="2"/>
       <c r="B819" s="2"/>
       <c r="C819" s="2"/>
@@ -22935,7 +22937,7 @@
       <c r="X819" s="2"/>
       <c r="Y819" s="2"/>
     </row>
-    <row r="820" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="820" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A820" s="2"/>
       <c r="B820" s="2"/>
       <c r="C820" s="2"/>
@@ -22962,7 +22964,7 @@
       <c r="X820" s="2"/>
       <c r="Y820" s="2"/>
     </row>
-    <row r="821" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="821" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A821" s="2"/>
       <c r="B821" s="2"/>
       <c r="C821" s="2"/>
@@ -22989,7 +22991,7 @@
       <c r="X821" s="2"/>
       <c r="Y821" s="2"/>
     </row>
-    <row r="822" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="822" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A822" s="2"/>
       <c r="B822" s="2"/>
       <c r="C822" s="2"/>
@@ -23016,7 +23018,7 @@
       <c r="X822" s="2"/>
       <c r="Y822" s="2"/>
     </row>
-    <row r="823" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="823" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A823" s="2"/>
       <c r="B823" s="2"/>
       <c r="C823" s="2"/>
@@ -23043,7 +23045,7 @@
       <c r="X823" s="2"/>
       <c r="Y823" s="2"/>
     </row>
-    <row r="824" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="824" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A824" s="2"/>
       <c r="B824" s="2"/>
       <c r="C824" s="2"/>
@@ -23070,7 +23072,7 @@
       <c r="X824" s="2"/>
       <c r="Y824" s="2"/>
     </row>
-    <row r="825" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="825" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A825" s="2"/>
       <c r="B825" s="2"/>
       <c r="C825" s="2"/>
@@ -23097,7 +23099,7 @@
       <c r="X825" s="2"/>
       <c r="Y825" s="2"/>
     </row>
-    <row r="826" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="826" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A826" s="2"/>
       <c r="B826" s="2"/>
       <c r="C826" s="2"/>
@@ -23124,7 +23126,7 @@
       <c r="X826" s="2"/>
       <c r="Y826" s="2"/>
     </row>
-    <row r="827" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="827" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A827" s="2"/>
       <c r="B827" s="2"/>
       <c r="C827" s="2"/>
@@ -23151,7 +23153,7 @@
       <c r="X827" s="2"/>
       <c r="Y827" s="2"/>
     </row>
-    <row r="828" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="828" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A828" s="2"/>
       <c r="B828" s="2"/>
       <c r="C828" s="2"/>
@@ -23178,7 +23180,7 @@
       <c r="X828" s="2"/>
       <c r="Y828" s="2"/>
     </row>
-    <row r="829" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="829" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A829" s="2"/>
       <c r="B829" s="2"/>
       <c r="C829" s="2"/>
@@ -23205,7 +23207,7 @@
       <c r="X829" s="2"/>
       <c r="Y829" s="2"/>
     </row>
-    <row r="830" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="830" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A830" s="2"/>
       <c r="B830" s="2"/>
       <c r="C830" s="2"/>
@@ -23232,7 +23234,7 @@
       <c r="X830" s="2"/>
       <c r="Y830" s="2"/>
     </row>
-    <row r="831" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="831" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A831" s="2"/>
       <c r="B831" s="2"/>
       <c r="C831" s="2"/>
@@ -23259,7 +23261,7 @@
       <c r="X831" s="2"/>
       <c r="Y831" s="2"/>
     </row>
-    <row r="832" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="832" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A832" s="2"/>
       <c r="B832" s="2"/>
       <c r="C832" s="2"/>
@@ -23286,7 +23288,7 @@
       <c r="X832" s="2"/>
       <c r="Y832" s="2"/>
     </row>
-    <row r="833" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="833" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A833" s="2"/>
       <c r="B833" s="2"/>
       <c r="C833" s="2"/>
@@ -23313,7 +23315,7 @@
       <c r="X833" s="2"/>
       <c r="Y833" s="2"/>
     </row>
-    <row r="834" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="834" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A834" s="2"/>
       <c r="B834" s="2"/>
       <c r="C834" s="2"/>
@@ -23340,7 +23342,7 @@
       <c r="X834" s="2"/>
       <c r="Y834" s="2"/>
     </row>
-    <row r="835" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="835" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A835" s="2"/>
       <c r="B835" s="2"/>
       <c r="C835" s="2"/>
@@ -23367,7 +23369,7 @@
       <c r="X835" s="2"/>
       <c r="Y835" s="2"/>
     </row>
-    <row r="836" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="836" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A836" s="2"/>
       <c r="B836" s="2"/>
       <c r="C836" s="2"/>
@@ -23394,7 +23396,7 @@
       <c r="X836" s="2"/>
       <c r="Y836" s="2"/>
     </row>
-    <row r="837" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="837" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A837" s="2"/>
       <c r="B837" s="2"/>
       <c r="C837" s="2"/>
@@ -23421,7 +23423,7 @@
       <c r="X837" s="2"/>
       <c r="Y837" s="2"/>
     </row>
-    <row r="838" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="838" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A838" s="2"/>
       <c r="B838" s="2"/>
       <c r="C838" s="2"/>
@@ -23448,7 +23450,7 @@
       <c r="X838" s="2"/>
       <c r="Y838" s="2"/>
     </row>
-    <row r="839" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="839" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A839" s="2"/>
       <c r="B839" s="2"/>
       <c r="C839" s="2"/>
@@ -23475,7 +23477,7 @@
       <c r="X839" s="2"/>
       <c r="Y839" s="2"/>
     </row>
-    <row r="840" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="840" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A840" s="2"/>
       <c r="B840" s="2"/>
       <c r="C840" s="2"/>
@@ -23502,7 +23504,7 @@
       <c r="X840" s="2"/>
       <c r="Y840" s="2"/>
     </row>
-    <row r="841" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="841" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A841" s="2"/>
       <c r="B841" s="2"/>
       <c r="C841" s="2"/>
@@ -23529,7 +23531,7 @@
       <c r="X841" s="2"/>
       <c r="Y841" s="2"/>
     </row>
-    <row r="842" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="842" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A842" s="2"/>
       <c r="B842" s="2"/>
       <c r="C842" s="2"/>
@@ -23556,7 +23558,7 @@
       <c r="X842" s="2"/>
       <c r="Y842" s="2"/>
     </row>
-    <row r="843" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="843" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A843" s="2"/>
       <c r="B843" s="2"/>
       <c r="C843" s="2"/>
@@ -23583,7 +23585,7 @@
       <c r="X843" s="2"/>
       <c r="Y843" s="2"/>
     </row>
-    <row r="844" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="844" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A844" s="2"/>
       <c r="B844" s="2"/>
       <c r="C844" s="2"/>
@@ -23610,7 +23612,7 @@
       <c r="X844" s="2"/>
       <c r="Y844" s="2"/>
     </row>
-    <row r="845" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="845" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A845" s="2"/>
       <c r="B845" s="2"/>
       <c r="C845" s="2"/>
@@ -23637,7 +23639,7 @@
       <c r="X845" s="2"/>
       <c r="Y845" s="2"/>
     </row>
-    <row r="846" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="846" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A846" s="2"/>
       <c r="B846" s="2"/>
       <c r="C846" s="2"/>
@@ -23664,7 +23666,7 @@
       <c r="X846" s="2"/>
       <c r="Y846" s="2"/>
     </row>
-    <row r="847" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="847" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A847" s="2"/>
       <c r="B847" s="2"/>
       <c r="C847" s="2"/>
@@ -23691,7 +23693,7 @@
       <c r="X847" s="2"/>
       <c r="Y847" s="2"/>
     </row>
-    <row r="848" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="848" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A848" s="2"/>
       <c r="B848" s="2"/>
       <c r="C848" s="2"/>
@@ -23718,7 +23720,7 @@
       <c r="X848" s="2"/>
       <c r="Y848" s="2"/>
     </row>
-    <row r="849" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="849" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A849" s="2"/>
       <c r="B849" s="2"/>
       <c r="C849" s="2"/>
@@ -23745,7 +23747,7 @@
       <c r="X849" s="2"/>
       <c r="Y849" s="2"/>
     </row>
-    <row r="850" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="850" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A850" s="2"/>
       <c r="B850" s="2"/>
       <c r="C850" s="2"/>
@@ -23772,7 +23774,7 @@
       <c r="X850" s="2"/>
       <c r="Y850" s="2"/>
     </row>
-    <row r="851" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="851" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A851" s="2"/>
       <c r="B851" s="2"/>
       <c r="C851" s="2"/>
@@ -23799,7 +23801,7 @@
       <c r="X851" s="2"/>
       <c r="Y851" s="2"/>
     </row>
-    <row r="852" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="852" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A852" s="2"/>
       <c r="B852" s="2"/>
       <c r="C852" s="2"/>
@@ -23826,7 +23828,7 @@
       <c r="X852" s="2"/>
       <c r="Y852" s="2"/>
     </row>
-    <row r="853" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="853" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A853" s="2"/>
       <c r="B853" s="2"/>
       <c r="C853" s="2"/>
@@ -23853,7 +23855,7 @@
       <c r="X853" s="2"/>
       <c r="Y853" s="2"/>
     </row>
-    <row r="854" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="854" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A854" s="2"/>
       <c r="B854" s="2"/>
       <c r="C854" s="2"/>
@@ -23880,7 +23882,7 @@
       <c r="X854" s="2"/>
       <c r="Y854" s="2"/>
     </row>
-    <row r="855" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="855" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A855" s="2"/>
       <c r="B855" s="2"/>
       <c r="C855" s="2"/>
@@ -23907,7 +23909,7 @@
       <c r="X855" s="2"/>
       <c r="Y855" s="2"/>
     </row>
-    <row r="856" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="856" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A856" s="2"/>
       <c r="B856" s="2"/>
       <c r="C856" s="2"/>
@@ -23934,7 +23936,7 @@
       <c r="X856" s="2"/>
       <c r="Y856" s="2"/>
     </row>
-    <row r="857" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="857" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A857" s="2"/>
       <c r="B857" s="2"/>
       <c r="C857" s="2"/>
@@ -23961,7 +23963,7 @@
       <c r="X857" s="2"/>
       <c r="Y857" s="2"/>
     </row>
-    <row r="858" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="858" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A858" s="2"/>
       <c r="B858" s="2"/>
       <c r="C858" s="2"/>
@@ -23988,7 +23990,7 @@
       <c r="X858" s="2"/>
       <c r="Y858" s="2"/>
     </row>
-    <row r="859" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="859" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A859" s="2"/>
       <c r="B859" s="2"/>
       <c r="C859" s="2"/>
@@ -24015,7 +24017,7 @@
       <c r="X859" s="2"/>
       <c r="Y859" s="2"/>
     </row>
-    <row r="860" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="860" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A860" s="2"/>
       <c r="B860" s="2"/>
       <c r="C860" s="2"/>
@@ -24042,7 +24044,7 @@
       <c r="X860" s="2"/>
       <c r="Y860" s="2"/>
     </row>
-    <row r="861" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="861" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A861" s="2"/>
       <c r="B861" s="2"/>
       <c r="C861" s="2"/>
@@ -24069,7 +24071,7 @@
       <c r="X861" s="2"/>
       <c r="Y861" s="2"/>
     </row>
-    <row r="862" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="862" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A862" s="2"/>
       <c r="B862" s="2"/>
       <c r="C862" s="2"/>
@@ -24096,7 +24098,7 @@
       <c r="X862" s="2"/>
       <c r="Y862" s="2"/>
     </row>
-    <row r="863" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="863" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A863" s="2"/>
       <c r="B863" s="2"/>
       <c r="C863" s="2"/>
@@ -24123,7 +24125,7 @@
       <c r="X863" s="2"/>
       <c r="Y863" s="2"/>
     </row>
-    <row r="864" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="864" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A864" s="2"/>
       <c r="B864" s="2"/>
       <c r="C864" s="2"/>
@@ -24150,7 +24152,7 @@
       <c r="X864" s="2"/>
       <c r="Y864" s="2"/>
     </row>
-    <row r="865" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="865" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A865" s="2"/>
       <c r="B865" s="2"/>
       <c r="C865" s="2"/>
@@ -24177,7 +24179,7 @@
       <c r="X865" s="2"/>
       <c r="Y865" s="2"/>
     </row>
-    <row r="866" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="866" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A866" s="2"/>
       <c r="B866" s="2"/>
       <c r="C866" s="2"/>
@@ -24204,7 +24206,7 @@
       <c r="X866" s="2"/>
       <c r="Y866" s="2"/>
     </row>
-    <row r="867" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="867" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A867" s="2"/>
       <c r="B867" s="2"/>
       <c r="C867" s="2"/>
@@ -24231,7 +24233,7 @@
       <c r="X867" s="2"/>
       <c r="Y867" s="2"/>
     </row>
-    <row r="868" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="868" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A868" s="2"/>
       <c r="B868" s="2"/>
       <c r="C868" s="2"/>
@@ -24258,7 +24260,7 @@
       <c r="X868" s="2"/>
       <c r="Y868" s="2"/>
     </row>
-    <row r="869" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="869" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A869" s="2"/>
       <c r="B869" s="2"/>
       <c r="C869" s="2"/>
@@ -24285,7 +24287,7 @@
       <c r="X869" s="2"/>
       <c r="Y869" s="2"/>
     </row>
-    <row r="870" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="870" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A870" s="2"/>
       <c r="B870" s="2"/>
       <c r="C870" s="2"/>
@@ -24312,7 +24314,7 @@
       <c r="X870" s="2"/>
       <c r="Y870" s="2"/>
     </row>
-    <row r="871" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="871" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A871" s="2"/>
       <c r="B871" s="2"/>
       <c r="C871" s="2"/>
@@ -24339,7 +24341,7 @@
       <c r="X871" s="2"/>
       <c r="Y871" s="2"/>
     </row>
-    <row r="872" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="872" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A872" s="2"/>
       <c r="B872" s="2"/>
       <c r="C872" s="2"/>
@@ -24366,7 +24368,7 @@
       <c r="X872" s="2"/>
       <c r="Y872" s="2"/>
     </row>
-    <row r="873" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="873" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A873" s="2"/>
       <c r="B873" s="2"/>
       <c r="C873" s="2"/>
@@ -24393,7 +24395,7 @@
       <c r="X873" s="2"/>
       <c r="Y873" s="2"/>
     </row>
-    <row r="874" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="874" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A874" s="2"/>
       <c r="B874" s="2"/>
       <c r="C874" s="2"/>
@@ -24420,7 +24422,7 @@
       <c r="X874" s="2"/>
       <c r="Y874" s="2"/>
     </row>
-    <row r="875" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="875" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A875" s="2"/>
       <c r="B875" s="2"/>
       <c r="C875" s="2"/>
@@ -24447,7 +24449,7 @@
       <c r="X875" s="2"/>
       <c r="Y875" s="2"/>
     </row>
-    <row r="876" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="876" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A876" s="2"/>
       <c r="B876" s="2"/>
       <c r="C876" s="2"/>
@@ -24474,7 +24476,7 @@
       <c r="X876" s="2"/>
       <c r="Y876" s="2"/>
     </row>
-    <row r="877" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="877" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A877" s="2"/>
       <c r="B877" s="2"/>
       <c r="C877" s="2"/>
@@ -24501,7 +24503,7 @@
       <c r="X877" s="2"/>
       <c r="Y877" s="2"/>
     </row>
-    <row r="878" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="878" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A878" s="2"/>
       <c r="B878" s="2"/>
       <c r="C878" s="2"/>
@@ -24528,7 +24530,7 @@
       <c r="X878" s="2"/>
       <c r="Y878" s="2"/>
     </row>
-    <row r="879" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="879" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A879" s="2"/>
       <c r="B879" s="2"/>
       <c r="C879" s="2"/>
@@ -24555,7 +24557,7 @@
       <c r="X879" s="2"/>
       <c r="Y879" s="2"/>
     </row>
-    <row r="880" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="880" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A880" s="2"/>
       <c r="B880" s="2"/>
       <c r="C880" s="2"/>
@@ -24582,7 +24584,7 @@
       <c r="X880" s="2"/>
       <c r="Y880" s="2"/>
     </row>
-    <row r="881" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="881" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A881" s="2"/>
       <c r="B881" s="2"/>
       <c r="C881" s="2"/>
@@ -24609,7 +24611,7 @@
       <c r="X881" s="2"/>
       <c r="Y881" s="2"/>
     </row>
-    <row r="882" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="882" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A882" s="2"/>
       <c r="B882" s="2"/>
       <c r="C882" s="2"/>
@@ -24636,7 +24638,7 @@
       <c r="X882" s="2"/>
       <c r="Y882" s="2"/>
     </row>
-    <row r="883" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="883" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A883" s="2"/>
       <c r="B883" s="2"/>
       <c r="C883" s="2"/>
@@ -24663,7 +24665,7 @@
       <c r="X883" s="2"/>
       <c r="Y883" s="2"/>
     </row>
-    <row r="884" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="884" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A884" s="2"/>
       <c r="B884" s="2"/>
       <c r="C884" s="2"/>
@@ -24690,7 +24692,7 @@
       <c r="X884" s="2"/>
       <c r="Y884" s="2"/>
     </row>
-    <row r="885" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="885" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A885" s="2"/>
       <c r="B885" s="2"/>
       <c r="C885" s="2"/>
@@ -24717,7 +24719,7 @@
       <c r="X885" s="2"/>
       <c r="Y885" s="2"/>
     </row>
-    <row r="886" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="886" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A886" s="2"/>
       <c r="B886" s="2"/>
       <c r="C886" s="2"/>
@@ -24744,7 +24746,7 @@
       <c r="X886" s="2"/>
       <c r="Y886" s="2"/>
     </row>
-    <row r="887" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="887" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A887" s="2"/>
       <c r="B887" s="2"/>
       <c r="C887" s="2"/>
@@ -24771,7 +24773,7 @@
       <c r="X887" s="2"/>
       <c r="Y887" s="2"/>
     </row>
-    <row r="888" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="888" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A888" s="2"/>
       <c r="B888" s="2"/>
       <c r="C888" s="2"/>
@@ -24798,7 +24800,7 @@
       <c r="X888" s="2"/>
       <c r="Y888" s="2"/>
     </row>
-    <row r="889" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="889" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A889" s="2"/>
       <c r="B889" s="2"/>
       <c r="C889" s="2"/>
@@ -24825,7 +24827,7 @@
       <c r="X889" s="2"/>
       <c r="Y889" s="2"/>
     </row>
-    <row r="890" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="890" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A890" s="2"/>
       <c r="B890" s="2"/>
       <c r="C890" s="2"/>
@@ -24852,7 +24854,7 @@
       <c r="X890" s="2"/>
       <c r="Y890" s="2"/>
     </row>
-    <row r="891" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="891" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A891" s="2"/>
       <c r="B891" s="2"/>
       <c r="C891" s="2"/>
@@ -24879,7 +24881,7 @@
       <c r="X891" s="2"/>
       <c r="Y891" s="2"/>
     </row>
-    <row r="892" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="892" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A892" s="2"/>
       <c r="B892" s="2"/>
       <c r="C892" s="2"/>
@@ -24906,7 +24908,7 @@
       <c r="X892" s="2"/>
       <c r="Y892" s="2"/>
     </row>
-    <row r="893" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="893" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A893" s="2"/>
       <c r="B893" s="2"/>
       <c r="C893" s="2"/>
@@ -24933,7 +24935,7 @@
       <c r="X893" s="2"/>
       <c r="Y893" s="2"/>
     </row>
-    <row r="894" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="894" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A894" s="2"/>
       <c r="B894" s="2"/>
       <c r="C894" s="2"/>
@@ -24960,7 +24962,7 @@
       <c r="X894" s="2"/>
       <c r="Y894" s="2"/>
     </row>
-    <row r="895" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="895" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A895" s="2"/>
       <c r="B895" s="2"/>
       <c r="C895" s="2"/>
@@ -24987,7 +24989,7 @@
       <c r="X895" s="2"/>
       <c r="Y895" s="2"/>
     </row>
-    <row r="896" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="896" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A896" s="2"/>
       <c r="B896" s="2"/>
       <c r="C896" s="2"/>
@@ -25014,7 +25016,7 @@
       <c r="X896" s="2"/>
       <c r="Y896" s="2"/>
     </row>
-    <row r="897" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="897" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A897" s="2"/>
       <c r="B897" s="2"/>
       <c r="C897" s="2"/>
@@ -25041,7 +25043,7 @@
       <c r="X897" s="2"/>
       <c r="Y897" s="2"/>
     </row>
-    <row r="898" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="898" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A898" s="2"/>
       <c r="B898" s="2"/>
       <c r="C898" s="2"/>
@@ -25068,7 +25070,7 @@
       <c r="X898" s="2"/>
       <c r="Y898" s="2"/>
     </row>
-    <row r="899" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="899" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A899" s="2"/>
       <c r="B899" s="2"/>
       <c r="C899" s="2"/>
@@ -25095,7 +25097,7 @@
       <c r="X899" s="2"/>
       <c r="Y899" s="2"/>
     </row>
-    <row r="900" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="900" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A900" s="2"/>
       <c r="B900" s="2"/>
       <c r="C900" s="2"/>
@@ -25122,7 +25124,7 @@
       <c r="X900" s="2"/>
       <c r="Y900" s="2"/>
     </row>
-    <row r="901" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="901" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A901" s="2"/>
       <c r="B901" s="2"/>
       <c r="C901" s="2"/>
@@ -25149,7 +25151,7 @@
       <c r="X901" s="2"/>
       <c r="Y901" s="2"/>
     </row>
-    <row r="902" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="902" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A902" s="2"/>
       <c r="B902" s="2"/>
       <c r="C902" s="2"/>
@@ -25176,7 +25178,7 @@
       <c r="X902" s="2"/>
       <c r="Y902" s="2"/>
     </row>
-    <row r="903" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="903" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A903" s="2"/>
       <c r="B903" s="2"/>
       <c r="C903" s="2"/>
@@ -25203,7 +25205,7 @@
       <c r="X903" s="2"/>
       <c r="Y903" s="2"/>
     </row>
-    <row r="904" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="904" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A904" s="2"/>
       <c r="B904" s="2"/>
       <c r="C904" s="2"/>
@@ -25230,7 +25232,7 @@
       <c r="X904" s="2"/>
       <c r="Y904" s="2"/>
     </row>
-    <row r="905" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="905" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A905" s="2"/>
       <c r="B905" s="2"/>
       <c r="C905" s="2"/>
@@ -25257,7 +25259,7 @@
       <c r="X905" s="2"/>
       <c r="Y905" s="2"/>
     </row>
-    <row r="906" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="906" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A906" s="2"/>
       <c r="B906" s="2"/>
       <c r="C906" s="2"/>
@@ -25284,7 +25286,7 @@
       <c r="X906" s="2"/>
       <c r="Y906" s="2"/>
     </row>
-    <row r="907" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="907" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A907" s="2"/>
       <c r="B907" s="2"/>
       <c r="C907" s="2"/>
@@ -25311,7 +25313,7 @@
       <c r="X907" s="2"/>
       <c r="Y907" s="2"/>
     </row>
-    <row r="908" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="908" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A908" s="2"/>
       <c r="B908" s="2"/>
       <c r="C908" s="2"/>
@@ -25338,7 +25340,7 @@
       <c r="X908" s="2"/>
       <c r="Y908" s="2"/>
     </row>
-    <row r="909" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="909" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A909" s="2"/>
       <c r="B909" s="2"/>
       <c r="C909" s="2"/>
@@ -25365,7 +25367,7 @@
       <c r="X909" s="2"/>
       <c r="Y909" s="2"/>
     </row>
-    <row r="910" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="910" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A910" s="2"/>
       <c r="B910" s="2"/>
       <c r="C910" s="2"/>
@@ -25392,7 +25394,7 @@
       <c r="X910" s="2"/>
       <c r="Y910" s="2"/>
     </row>
-    <row r="911" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="911" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A911" s="2"/>
       <c r="B911" s="2"/>
       <c r="C911" s="2"/>
@@ -25419,7 +25421,7 @@
       <c r="X911" s="2"/>
       <c r="Y911" s="2"/>
     </row>
-    <row r="912" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="912" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A912" s="2"/>
       <c r="B912" s="2"/>
       <c r="C912" s="2"/>
@@ -25446,7 +25448,7 @@
       <c r="X912" s="2"/>
       <c r="Y912" s="2"/>
     </row>
-    <row r="913" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="913" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A913" s="2"/>
       <c r="B913" s="2"/>
       <c r="C913" s="2"/>
@@ -25473,7 +25475,7 @@
       <c r="X913" s="2"/>
       <c r="Y913" s="2"/>
     </row>
-    <row r="914" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="914" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A914" s="2"/>
       <c r="B914" s="2"/>
       <c r="C914" s="2"/>
@@ -25500,7 +25502,7 @@
       <c r="X914" s="2"/>
       <c r="Y914" s="2"/>
     </row>
-    <row r="915" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="915" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A915" s="2"/>
       <c r="B915" s="2"/>
       <c r="C915" s="2"/>
@@ -25527,7 +25529,7 @@
       <c r="X915" s="2"/>
       <c r="Y915" s="2"/>
     </row>
-    <row r="916" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="916" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A916" s="2"/>
       <c r="B916" s="2"/>
       <c r="C916" s="2"/>
@@ -25554,7 +25556,7 @@
       <c r="X916" s="2"/>
       <c r="Y916" s="2"/>
     </row>
-    <row r="917" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="917" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A917" s="2"/>
       <c r="B917" s="2"/>
       <c r="C917" s="2"/>
@@ -25581,7 +25583,7 @@
       <c r="X917" s="2"/>
       <c r="Y917" s="2"/>
     </row>
-    <row r="918" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="918" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A918" s="2"/>
       <c r="B918" s="2"/>
       <c r="C918" s="2"/>
@@ -25608,7 +25610,7 @@
       <c r="X918" s="2"/>
       <c r="Y918" s="2"/>
     </row>
-    <row r="919" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="919" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A919" s="2"/>
       <c r="B919" s="2"/>
       <c r="C919" s="2"/>
@@ -25635,7 +25637,7 @@
       <c r="X919" s="2"/>
       <c r="Y919" s="2"/>
     </row>
-    <row r="920" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="920" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A920" s="2"/>
       <c r="B920" s="2"/>
       <c r="C920" s="2"/>
@@ -25662,7 +25664,7 @@
       <c r="X920" s="2"/>
       <c r="Y920" s="2"/>
     </row>
-    <row r="921" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="921" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A921" s="2"/>
       <c r="B921" s="2"/>
       <c r="C921" s="2"/>
@@ -25689,7 +25691,7 @@
       <c r="X921" s="2"/>
       <c r="Y921" s="2"/>
     </row>
-    <row r="922" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="922" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A922" s="2"/>
       <c r="B922" s="2"/>
       <c r="C922" s="2"/>
@@ -25716,7 +25718,7 @@
       <c r="X922" s="2"/>
       <c r="Y922" s="2"/>
     </row>
-    <row r="923" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="923" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A923" s="2"/>
       <c r="B923" s="2"/>
       <c r="C923" s="2"/>
@@ -25743,7 +25745,7 @@
       <c r="X923" s="2"/>
       <c r="Y923" s="2"/>
     </row>
-    <row r="924" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="924" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A924" s="2"/>
       <c r="B924" s="2"/>
       <c r="C924" s="2"/>
@@ -25770,7 +25772,7 @@
       <c r="X924" s="2"/>
       <c r="Y924" s="2"/>
     </row>
-    <row r="925" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="925" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A925" s="2"/>
       <c r="B925" s="2"/>
       <c r="C925" s="2"/>
@@ -25797,7 +25799,7 @@
       <c r="X925" s="2"/>
       <c r="Y925" s="2"/>
     </row>
-    <row r="926" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="926" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A926" s="2"/>
       <c r="B926" s="2"/>
       <c r="C926" s="2"/>
@@ -25824,7 +25826,7 @@
       <c r="X926" s="2"/>
       <c r="Y926" s="2"/>
     </row>
-    <row r="927" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="927" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A927" s="2"/>
       <c r="B927" s="2"/>
       <c r="C927" s="2"/>
@@ -25851,7 +25853,7 @@
       <c r="X927" s="2"/>
       <c r="Y927" s="2"/>
     </row>
-    <row r="928" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="928" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A928" s="2"/>
       <c r="B928" s="2"/>
       <c r="C928" s="2"/>
@@ -25878,7 +25880,7 @@
       <c r="X928" s="2"/>
       <c r="Y928" s="2"/>
     </row>
-    <row r="929" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="929" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A929" s="2"/>
       <c r="B929" s="2"/>
       <c r="C929" s="2"/>
@@ -25905,7 +25907,7 @@
       <c r="X929" s="2"/>
       <c r="Y929" s="2"/>
     </row>
-    <row r="930" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="930" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A930" s="2"/>
       <c r="B930" s="2"/>
       <c r="C930" s="2"/>
@@ -25932,7 +25934,7 @@
       <c r="X930" s="2"/>
       <c r="Y930" s="2"/>
     </row>
-    <row r="931" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="931" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A931" s="2"/>
       <c r="B931" s="2"/>
       <c r="C931" s="2"/>
@@ -25959,7 +25961,7 @@
       <c r="X931" s="2"/>
       <c r="Y931" s="2"/>
     </row>
-    <row r="932" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="932" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A932" s="2"/>
       <c r="B932" s="2"/>
       <c r="C932" s="2"/>
@@ -25986,7 +25988,7 @@
       <c r="X932" s="2"/>
       <c r="Y932" s="2"/>
     </row>
-    <row r="933" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="933" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A933" s="2"/>
       <c r="B933" s="2"/>
       <c r="C933" s="2"/>
@@ -26013,7 +26015,7 @@
       <c r="X933" s="2"/>
       <c r="Y933" s="2"/>
     </row>
-    <row r="934" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="934" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A934" s="2"/>
       <c r="B934" s="2"/>
       <c r="C934" s="2"/>
@@ -26040,7 +26042,7 @@
       <c r="X934" s="2"/>
       <c r="Y934" s="2"/>
     </row>
-    <row r="935" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="935" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A935" s="2"/>
       <c r="B935" s="2"/>
       <c r="C935" s="2"/>
@@ -26067,7 +26069,7 @@
       <c r="X935" s="2"/>
       <c r="Y935" s="2"/>
     </row>
-    <row r="936" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="936" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A936" s="2"/>
       <c r="B936" s="2"/>
       <c r="C936" s="2"/>
@@ -26094,7 +26096,7 @@
       <c r="X936" s="2"/>
       <c r="Y936" s="2"/>
     </row>
-    <row r="937" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="937" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A937" s="2"/>
       <c r="B937" s="2"/>
       <c r="C937" s="2"/>
@@ -26121,7 +26123,7 @@
       <c r="X937" s="2"/>
       <c r="Y937" s="2"/>
     </row>
-    <row r="938" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="938" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A938" s="2"/>
       <c r="B938" s="2"/>
       <c r="C938" s="2"/>
@@ -26148,7 +26150,7 @@
       <c r="X938" s="2"/>
       <c r="Y938" s="2"/>
     </row>
-    <row r="939" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="939" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A939" s="2"/>
       <c r="B939" s="2"/>
       <c r="C939" s="2"/>
@@ -26175,7 +26177,7 @@
       <c r="X939" s="2"/>
       <c r="Y939" s="2"/>
     </row>
-    <row r="940" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="940" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A940" s="2"/>
       <c r="B940" s="2"/>
       <c r="C940" s="2"/>
@@ -26202,7 +26204,7 @@
       <c r="X940" s="2"/>
       <c r="Y940" s="2"/>
     </row>
-    <row r="941" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="941" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A941" s="2"/>
       <c r="B941" s="2"/>
       <c r="C941" s="2"/>
@@ -26229,7 +26231,7 @@
       <c r="X941" s="2"/>
       <c r="Y941" s="2"/>
     </row>
-    <row r="942" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="942" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A942" s="2"/>
       <c r="B942" s="2"/>
       <c r="C942" s="2"/>
@@ -26256,7 +26258,7 @@
       <c r="X942" s="2"/>
       <c r="Y942" s="2"/>
     </row>
-    <row r="943" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="943" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A943" s="2"/>
       <c r="B943" s="2"/>
       <c r="C943" s="2"/>
@@ -26283,7 +26285,7 @@
       <c r="X943" s="2"/>
       <c r="Y943" s="2"/>
     </row>
-    <row r="944" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="944" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A944" s="2"/>
       <c r="B944" s="2"/>
       <c r="C944" s="2"/>
@@ -26310,7 +26312,7 @@
       <c r="X944" s="2"/>
       <c r="Y944" s="2"/>
     </row>
-    <row r="945" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="945" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A945" s="2"/>
       <c r="B945" s="2"/>
       <c r="C945" s="2"/>
@@ -26337,7 +26339,7 @@
       <c r="X945" s="2"/>
       <c r="Y945" s="2"/>
     </row>
-    <row r="946" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="946" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A946" s="2"/>
       <c r="B946" s="2"/>
       <c r="C946" s="2"/>
@@ -26364,7 +26366,7 @@
       <c r="X946" s="2"/>
       <c r="Y946" s="2"/>
     </row>
-    <row r="947" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="947" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A947" s="2"/>
       <c r="B947" s="2"/>
       <c r="C947" s="2"/>
@@ -26391,7 +26393,7 @@
       <c r="X947" s="2"/>
       <c r="Y947" s="2"/>
     </row>
-    <row r="948" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="948" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A948" s="2"/>
       <c r="B948" s="2"/>
       <c r="C948" s="2"/>
@@ -26418,7 +26420,7 @@
       <c r="X948" s="2"/>
       <c r="Y948" s="2"/>
     </row>
-    <row r="949" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="949" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A949" s="2"/>
       <c r="B949" s="2"/>
       <c r="C949" s="2"/>
@@ -26445,7 +26447,7 @@
       <c r="X949" s="2"/>
       <c r="Y949" s="2"/>
     </row>
-    <row r="950" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="950" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A950" s="2"/>
       <c r="B950" s="2"/>
       <c r="C950" s="2"/>
@@ -26472,7 +26474,7 @@
       <c r="X950" s="2"/>
       <c r="Y950" s="2"/>
     </row>
-    <row r="951" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="951" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A951" s="2"/>
       <c r="B951" s="2"/>
       <c r="C951" s="2"/>
@@ -26499,7 +26501,7 @@
       <c r="X951" s="2"/>
       <c r="Y951" s="2"/>
     </row>
-    <row r="952" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="952" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A952" s="2"/>
       <c r="B952" s="2"/>
       <c r="C952" s="2"/>
@@ -26526,7 +26528,7 @@
       <c r="X952" s="2"/>
       <c r="Y952" s="2"/>
     </row>
-    <row r="953" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="953" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A953" s="2"/>
       <c r="B953" s="2"/>
       <c r="C953" s="2"/>
@@ -26553,7 +26555,7 @@
       <c r="X953" s="2"/>
       <c r="Y953" s="2"/>
     </row>
-    <row r="954" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="954" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A954" s="2"/>
       <c r="B954" s="2"/>
       <c r="C954" s="2"/>
@@ -26580,7 +26582,7 @@
       <c r="X954" s="2"/>
       <c r="Y954" s="2"/>
     </row>
-    <row r="955" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="955" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A955" s="2"/>
       <c r="B955" s="2"/>
       <c r="C955" s="2"/>
@@ -26607,7 +26609,7 @@
       <c r="X955" s="2"/>
       <c r="Y955" s="2"/>
     </row>
-    <row r="956" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="956" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A956" s="2"/>
       <c r="B956" s="2"/>
       <c r="C956" s="2"/>
@@ -26634,7 +26636,7 @@
       <c r="X956" s="2"/>
       <c r="Y956" s="2"/>
     </row>
-    <row r="957" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="957" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A957" s="2"/>
       <c r="B957" s="2"/>
       <c r="C957" s="2"/>
@@ -26661,7 +26663,7 @@
       <c r="X957" s="2"/>
       <c r="Y957" s="2"/>
     </row>
-    <row r="958" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="958" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A958" s="2"/>
       <c r="B958" s="2"/>
       <c r="C958" s="2"/>
@@ -26688,7 +26690,7 @@
       <c r="X958" s="2"/>
       <c r="Y958" s="2"/>
     </row>
-    <row r="959" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="959" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A959" s="2"/>
       <c r="B959" s="2"/>
       <c r="C959" s="2"/>
@@ -26715,7 +26717,7 @@
       <c r="X959" s="2"/>
       <c r="Y959" s="2"/>
     </row>
-    <row r="960" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="960" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A960" s="2"/>
       <c r="B960" s="2"/>
       <c r="C960" s="2"/>
@@ -26742,7 +26744,7 @@
       <c r="X960" s="2"/>
       <c r="Y960" s="2"/>
     </row>
-    <row r="961" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="961" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A961" s="2"/>
       <c r="B961" s="2"/>
       <c r="C961" s="2"/>
@@ -26769,7 +26771,7 @@
       <c r="X961" s="2"/>
       <c r="Y961" s="2"/>
     </row>
-    <row r="962" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="962" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A962" s="2"/>
       <c r="B962" s="2"/>
       <c r="C962" s="2"/>
@@ -26796,7 +26798,7 @@
       <c r="X962" s="2"/>
       <c r="Y962" s="2"/>
     </row>
-    <row r="963" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="963" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A963" s="2"/>
       <c r="B963" s="2"/>
       <c r="C963" s="2"/>
@@ -26823,7 +26825,7 @@
       <c r="X963" s="2"/>
       <c r="Y963" s="2"/>
     </row>
-    <row r="964" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="964" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A964" s="2"/>
       <c r="B964" s="2"/>
       <c r="C964" s="2"/>
@@ -26850,7 +26852,7 @@
       <c r="X964" s="2"/>
       <c r="Y964" s="2"/>
     </row>
-    <row r="965" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="965" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A965" s="2"/>
       <c r="B965" s="2"/>
       <c r="C965" s="2"/>
@@ -26877,7 +26879,7 @@
       <c r="X965" s="2"/>
       <c r="Y965" s="2"/>
     </row>
-    <row r="966" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="966" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A966" s="2"/>
       <c r="B966" s="2"/>
       <c r="C966" s="2"/>
@@ -26904,7 +26906,7 @@
       <c r="X966" s="2"/>
       <c r="Y966" s="2"/>
     </row>
-    <row r="967" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="967" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A967" s="2"/>
       <c r="B967" s="2"/>
       <c r="C967" s="2"/>
@@ -26931,7 +26933,7 @@
       <c r="X967" s="2"/>
       <c r="Y967" s="2"/>
     </row>
-    <row r="968" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="968" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A968" s="2"/>
       <c r="B968" s="2"/>
       <c r="C968" s="2"/>
@@ -26958,7 +26960,7 @@
       <c r="X968" s="2"/>
       <c r="Y968" s="2"/>
     </row>
-    <row r="969" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="969" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A969" s="2"/>
       <c r="B969" s="2"/>
       <c r="C969" s="2"/>
@@ -26985,7 +26987,7 @@
       <c r="X969" s="2"/>
       <c r="Y969" s="2"/>
     </row>
-    <row r="970" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="970" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A970" s="2"/>
       <c r="B970" s="2"/>
       <c r="C970" s="2"/>
@@ -27012,7 +27014,7 @@
       <c r="X970" s="2"/>
       <c r="Y970" s="2"/>
     </row>
-    <row r="971" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="971" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A971" s="2"/>
       <c r="B971" s="2"/>
       <c r="C971" s="2"/>
@@ -27039,7 +27041,7 @@
       <c r="X971" s="2"/>
       <c r="Y971" s="2"/>
     </row>
-    <row r="972" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="972" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A972" s="2"/>
       <c r="B972" s="2"/>
       <c r="C972" s="2"/>
@@ -27066,7 +27068,7 @@
       <c r="X972" s="2"/>
       <c r="Y972" s="2"/>
     </row>
-    <row r="973" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="973" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A973" s="2"/>
       <c r="B973" s="2"/>
       <c r="C973" s="2"/>
@@ -27093,7 +27095,7 @@
       <c r="X973" s="2"/>
       <c r="Y973" s="2"/>
     </row>
-    <row r="974" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="974" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A974" s="2"/>
       <c r="B974" s="2"/>
       <c r="C974" s="2"/>
@@ -27120,7 +27122,7 @@
       <c r="X974" s="2"/>
       <c r="Y974" s="2"/>
     </row>
-    <row r="975" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="975" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A975" s="2"/>
       <c r="B975" s="2"/>
       <c r="C975" s="2"/>
@@ -27147,7 +27149,7 @@
       <c r="X975" s="2"/>
       <c r="Y975" s="2"/>
     </row>
-    <row r="976" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="976" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A976" s="2"/>
       <c r="B976" s="2"/>
       <c r="C976" s="2"/>
@@ -27174,7 +27176,7 @@
       <c r="X976" s="2"/>
       <c r="Y976" s="2"/>
     </row>
-    <row r="977" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="977" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A977" s="2"/>
       <c r="B977" s="2"/>
       <c r="C977" s="2"/>
@@ -27201,7 +27203,7 @@
       <c r="X977" s="2"/>
       <c r="Y977" s="2"/>
     </row>
-    <row r="978" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="978" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A978" s="2"/>
       <c r="B978" s="2"/>
       <c r="C978" s="2"/>
@@ -27228,7 +27230,7 @@
       <c r="X978" s="2"/>
       <c r="Y978" s="2"/>
     </row>
-    <row r="979" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="979" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A979" s="2"/>
       <c r="B979" s="2"/>
       <c r="C979" s="2"/>
@@ -27255,7 +27257,7 @@
       <c r="X979" s="2"/>
       <c r="Y979" s="2"/>
     </row>
-    <row r="980" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="980" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A980" s="2"/>
       <c r="B980" s="2"/>
       <c r="C980" s="2"/>
@@ -27282,7 +27284,7 @@
       <c r="X980" s="2"/>
       <c r="Y980" s="2"/>
     </row>
-    <row r="981" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="981" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A981" s="2"/>
       <c r="B981" s="2"/>
       <c r="C981" s="2"/>
@@ -27309,7 +27311,7 @@
       <c r="X981" s="2"/>
       <c r="Y981" s="2"/>
     </row>
-    <row r="982" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="982" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A982" s="2"/>
       <c r="B982" s="2"/>
       <c r="C982" s="2"/>
@@ -27336,7 +27338,7 @@
       <c r="X982" s="2"/>
       <c r="Y982" s="2"/>
     </row>
-    <row r="983" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="983" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A983" s="2"/>
       <c r="B983" s="2"/>
       <c r="C983" s="2"/>
@@ -27363,7 +27365,7 @@
       <c r="X983" s="2"/>
       <c r="Y983" s="2"/>
     </row>
-    <row r="984" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="984" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A984" s="2"/>
       <c r="B984" s="2"/>
       <c r="C984" s="2"/>
@@ -27390,7 +27392,7 @@
       <c r="X984" s="2"/>
       <c r="Y984" s="2"/>
     </row>
-    <row r="985" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="985" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A985" s="2"/>
       <c r="B985" s="2"/>
       <c r="C985" s="2"/>
@@ -27417,7 +27419,7 @@
       <c r="X985" s="2"/>
       <c r="Y985" s="2"/>
     </row>
-    <row r="986" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="986" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A986" s="2"/>
       <c r="B986" s="2"/>
       <c r="C986" s="2"/>
@@ -27444,7 +27446,7 @@
       <c r="X986" s="2"/>
       <c r="Y986" s="2"/>
     </row>
-    <row r="987" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="987" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A987" s="2"/>
       <c r="B987" s="2"/>
       <c r="C987" s="2"/>
@@ -27471,7 +27473,7 @@
       <c r="X987" s="2"/>
       <c r="Y987" s="2"/>
     </row>
-    <row r="988" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="988" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A988" s="2"/>
       <c r="B988" s="2"/>
       <c r="C988" s="2"/>
@@ -27498,7 +27500,7 @@
       <c r="X988" s="2"/>
       <c r="Y988" s="2"/>
     </row>
-    <row r="989" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="989" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A989" s="2"/>
       <c r="B989" s="2"/>
       <c r="C989" s="2"/>
@@ -27525,7 +27527,7 @@
       <c r="X989" s="2"/>
       <c r="Y989" s="2"/>
     </row>
-    <row r="990" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="990" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A990" s="2"/>
       <c r="B990" s="2"/>
       <c r="C990" s="2"/>
@@ -27552,7 +27554,7 @@
       <c r="X990" s="2"/>
       <c r="Y990" s="2"/>
     </row>
-    <row r="991" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="991" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A991" s="2"/>
       <c r="B991" s="2"/>
       <c r="C991" s="2"/>
@@ -27579,7 +27581,7 @@
       <c r="X991" s="2"/>
       <c r="Y991" s="2"/>
     </row>
-    <row r="992" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="992" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A992" s="2"/>
       <c r="B992" s="2"/>
       <c r="C992" s="2"/>
@@ -27606,7 +27608,7 @@
       <c r="X992" s="2"/>
       <c r="Y992" s="2"/>
     </row>
-    <row r="993" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="993" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A993" s="2"/>
       <c r="B993" s="2"/>
       <c r="C993" s="2"/>
@@ -27633,7 +27635,7 @@
       <c r="X993" s="2"/>
       <c r="Y993" s="2"/>
     </row>
-    <row r="994" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="994" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A994" s="2"/>
       <c r="B994" s="2"/>
       <c r="C994" s="2"/>
@@ -27660,7 +27662,7 @@
       <c r="X994" s="2"/>
       <c r="Y994" s="2"/>
     </row>
-    <row r="995" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="995" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A995" s="2"/>
       <c r="B995" s="2"/>
       <c r="C995" s="2"/>
@@ -27687,7 +27689,7 @@
       <c r="X995" s="2"/>
       <c r="Y995" s="2"/>
     </row>
-    <row r="996" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="996" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A996" s="2"/>
       <c r="B996" s="2"/>
       <c r="C996" s="2"/>

--- a/misc/epiparms.xlsx
+++ b/misc/epiparms.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ashok\Desktop\spatialEpisim2022\spatialEpisim\misc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E061FA9C-BBB1-4577-A186-545F1D320F5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81C419A9-5779-49FD-9C5B-D129811FA33E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -629,7 +629,7 @@
   <dimension ref="A1:Y996"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -935,16 +935,16 @@
         <v>3.4999999999999997E-5</v>
       </c>
       <c r="D6" s="15">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
       <c r="E6" s="14">
+        <v>1.5E-3</v>
+      </c>
+      <c r="F6" s="14">
         <v>0.01</v>
       </c>
-      <c r="F6" s="14">
-        <v>0.03</v>
-      </c>
       <c r="G6" s="15">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="H6" s="15">
         <v>15</v>
@@ -956,7 +956,7 @@
         <v>43753</v>
       </c>
       <c r="K6" s="14">
-        <v>440</v>
+        <v>689</v>
       </c>
       <c r="L6" s="14" t="s">
         <v>25</v>

--- a/misc/epiparms.xlsx
+++ b/misc/epiparms.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ashok\Desktop\spatialEpisim2022\spatialEpisim\misc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81C419A9-5779-49FD-9C5B-D129811FA33E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DF928F5-7FF0-4603-809D-03FF5B2437E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -629,7 +629,7 @@
   <dimension ref="A1:Y996"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -935,16 +935,16 @@
         <v>3.4999999999999997E-5</v>
       </c>
       <c r="D6" s="15">
-        <v>0.01</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="E6" s="14">
-        <v>1.5E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="F6" s="14">
         <v>0.01</v>
       </c>
       <c r="G6" s="15">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="H6" s="15">
         <v>15</v>
